--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1079">
   <si>
     <t>DATE</t>
   </si>
@@ -5391,6 +5391,38 @@
   </si>
   <si>
     <t>Abbott</t>
+  </si>
+  <si>
+    <t>03:34 PM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 805
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datamax Compatible White Direct Thermal Labels 
+Sold Per Roll (1 Each)
+Qty: 1,380 per Roll
+3.5'' x 1''
+$15.51
+ This item is in stock and available today!
+Current Stock: 231
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
   </si>
 </sst>
 </file>
@@ -5771,7 +5803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5787,7 +5819,7 @@
     <col min="5" max="5" width="100.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="80" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5810,7 +5842,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -5845,7 +5877,7 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
@@ -5871,7 +5903,7 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
@@ -5897,7 +5929,7 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I4" t="s">
@@ -5923,7 +5955,7 @@
       <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I5" t="s">
@@ -5952,7 +5984,7 @@
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I6" t="s">
@@ -5981,7 +6013,7 @@
       <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I7" t="s">
@@ -6010,7 +6042,7 @@
       <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I8" t="s">
@@ -6039,7 +6071,7 @@
       <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I9" t="s">
@@ -6068,7 +6100,7 @@
       <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I10" t="s">
@@ -6097,7 +6129,7 @@
       <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I11" t="s">
@@ -6126,7 +6158,7 @@
       <c r="G12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I12" t="s">
@@ -6155,7 +6187,7 @@
       <c r="G13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I13" t="s">
@@ -6184,7 +6216,7 @@
       <c r="G14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I14" t="s">
@@ -6213,7 +6245,7 @@
       <c r="G15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I15" t="s">
@@ -6242,7 +6274,7 @@
       <c r="G16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I16" t="s">
@@ -6271,7 +6303,7 @@
       <c r="G17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I17" t="s">
@@ -6300,7 +6332,7 @@
       <c r="G18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="I18" t="s">
@@ -6329,7 +6361,7 @@
       <c r="G19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I19" t="s">
@@ -6358,7 +6390,7 @@
       <c r="G20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I20" t="s">
@@ -6387,7 +6419,7 @@
       <c r="G21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>146</v>
       </c>
       <c r="I21" t="s">
@@ -6416,7 +6448,7 @@
       <c r="G22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I22" t="s">
@@ -6442,7 +6474,7 @@
       <c r="G23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I23" t="s">
@@ -6471,7 +6503,7 @@
       <c r="G24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I24" t="s">
@@ -6497,7 +6529,7 @@
       <c r="G25" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I25" t="s">
@@ -6523,7 +6555,7 @@
       <c r="G26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I26" t="s">
@@ -6552,7 +6584,7 @@
       <c r="G27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>183</v>
       </c>
       <c r="I27" t="s">
@@ -6581,7 +6613,7 @@
       <c r="G28" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>190</v>
       </c>
       <c r="I28" t="s">
@@ -6607,7 +6639,7 @@
       <c r="G29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I29" t="s">
@@ -6633,7 +6665,7 @@
       <c r="G30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>202</v>
       </c>
       <c r="I30" t="s">
@@ -6662,7 +6694,7 @@
       <c r="G31" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>209</v>
       </c>
       <c r="I31" t="s">
@@ -6691,7 +6723,7 @@
       <c r="G32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I32" t="s">
@@ -6720,7 +6752,7 @@
       <c r="G33" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>223</v>
       </c>
       <c r="I33" t="s">
@@ -6749,7 +6781,7 @@
       <c r="G34" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>230</v>
       </c>
       <c r="I34" t="s">
@@ -6778,7 +6810,7 @@
       <c r="G35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>237</v>
       </c>
       <c r="I35" t="s">
@@ -6807,7 +6839,7 @@
       <c r="G36" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>244</v>
       </c>
       <c r="I36" t="s">
@@ -6836,7 +6868,7 @@
       <c r="G37" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>250</v>
       </c>
       <c r="I37" t="s">
@@ -6865,7 +6897,7 @@
       <c r="G38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I38" t="s">
@@ -6891,7 +6923,7 @@
       <c r="G39" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I39" t="s">
@@ -6920,7 +6952,7 @@
       <c r="G40" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>269</v>
       </c>
       <c r="I40" t="s">
@@ -6946,7 +6978,7 @@
       <c r="G41" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>275</v>
       </c>
       <c r="I41" t="s">
@@ -6975,7 +7007,7 @@
       <c r="G42" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>282</v>
       </c>
       <c r="I42" t="s">
@@ -7004,7 +7036,7 @@
       <c r="G43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>289</v>
       </c>
       <c r="I43" t="s">
@@ -7033,7 +7065,7 @@
       <c r="G44" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>183</v>
       </c>
       <c r="I44" t="s">
@@ -7059,7 +7091,7 @@
       <c r="G45" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>301</v>
       </c>
       <c r="I45" t="s">
@@ -7088,7 +7120,7 @@
       <c r="G46" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I46" t="s">
@@ -7117,7 +7149,7 @@
       <c r="G47" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>315</v>
       </c>
       <c r="I47" t="s">
@@ -7143,7 +7175,7 @@
       <c r="G48" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I48" t="s">
@@ -7172,7 +7204,7 @@
       <c r="G49" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>328</v>
       </c>
       <c r="I49" t="s">
@@ -7201,7 +7233,7 @@
       <c r="G50" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>335</v>
       </c>
       <c r="I50" t="s">
@@ -7230,7 +7262,7 @@
       <c r="G51" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>342</v>
       </c>
       <c r="I51" t="s">
@@ -7259,7 +7291,7 @@
       <c r="G52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>348</v>
       </c>
       <c r="I52" t="s">
@@ -7288,7 +7320,7 @@
       <c r="G53" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>355</v>
       </c>
       <c r="I53" t="s">
@@ -7317,7 +7349,7 @@
       <c r="G54" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>362</v>
       </c>
       <c r="I54" t="s">
@@ -7346,7 +7378,7 @@
       <c r="G55" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>369</v>
       </c>
       <c r="I55" t="s">
@@ -7372,7 +7404,7 @@
       <c r="G56" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>375</v>
       </c>
       <c r="I56" t="s">
@@ -7401,7 +7433,7 @@
       <c r="G57" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I57" t="s">
@@ -7430,7 +7462,7 @@
       <c r="G58" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>389</v>
       </c>
       <c r="I58" t="s">
@@ -7456,7 +7488,7 @@
       <c r="G59" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I59" t="s">
@@ -7485,7 +7517,7 @@
       <c r="G60" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>301</v>
       </c>
       <c r="I60" t="s">
@@ -7511,7 +7543,7 @@
       <c r="G61" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="I61" t="s">
@@ -7540,7 +7572,7 @@
       <c r="G62" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I62" t="s">
@@ -7569,7 +7601,7 @@
       <c r="G63" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>202</v>
       </c>
       <c r="I63" t="s">
@@ -7598,7 +7630,7 @@
       <c r="G64" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>425</v>
       </c>
       <c r="I64" t="s">
@@ -7627,7 +7659,7 @@
       <c r="G65" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>237</v>
       </c>
       <c r="I65" t="s">
@@ -7653,7 +7685,7 @@
       <c r="G66" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>437</v>
       </c>
       <c r="I66" t="s">
@@ -7682,7 +7714,7 @@
       <c r="G67" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>444</v>
       </c>
       <c r="I67" t="s">
@@ -7708,7 +7740,7 @@
       <c r="G68" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>450</v>
       </c>
       <c r="I68" t="s">
@@ -7737,7 +7769,7 @@
       <c r="G69" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>457</v>
       </c>
       <c r="I69" t="s">
@@ -7766,7 +7798,7 @@
       <c r="G70" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>464</v>
       </c>
       <c r="I70" t="s">
@@ -7795,7 +7827,7 @@
       <c r="G71" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="1" t="s">
         <v>471</v>
       </c>
       <c r="I71" t="s">
@@ -7821,7 +7853,7 @@
       <c r="G72" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I72" t="s">
@@ -7850,7 +7882,7 @@
       <c r="G73" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>483</v>
       </c>
       <c r="I73" t="s">
@@ -7879,7 +7911,7 @@
       <c r="G74" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="1" t="s">
         <v>490</v>
       </c>
       <c r="I74" t="s">
@@ -7908,7 +7940,7 @@
       <c r="G75" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="1" t="s">
         <v>497</v>
       </c>
       <c r="I75" t="s">
@@ -7937,7 +7969,7 @@
       <c r="G76" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="1" t="s">
         <v>504</v>
       </c>
       <c r="I76" t="s">
@@ -7966,7 +7998,7 @@
       <c r="G77" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="1" t="s">
         <v>511</v>
       </c>
       <c r="I77" t="s">
@@ -7995,7 +8027,7 @@
       <c r="G78" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="1" t="s">
         <v>518</v>
       </c>
       <c r="I78" t="s">
@@ -8021,7 +8053,7 @@
       <c r="G79" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="1" t="s">
         <v>362</v>
       </c>
       <c r="I79" t="s">
@@ -8050,7 +8082,7 @@
       <c r="G80" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="1" t="s">
         <v>530</v>
       </c>
       <c r="I80" t="s">
@@ -8079,7 +8111,7 @@
       <c r="G81" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="1" t="s">
         <v>537</v>
       </c>
       <c r="I81" t="s">
@@ -8108,7 +8140,7 @@
       <c r="G82" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="1" t="s">
         <v>544</v>
       </c>
       <c r="I82" t="s">
@@ -8134,7 +8166,7 @@
       <c r="G83" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="1" t="s">
         <v>550</v>
       </c>
       <c r="I83" t="s">
@@ -8160,6 +8192,7 @@
       <c r="G84" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="H84" s="1"/>
       <c r="I84" t="s">
         <v>556</v>
       </c>
@@ -8183,7 +8216,7 @@
       <c r="G85" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I85" t="s">
@@ -8212,7 +8245,7 @@
       <c r="G86" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="1" t="s">
         <v>567</v>
       </c>
       <c r="I86" t="s">
@@ -8241,7 +8274,7 @@
       <c r="G87" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="1" t="s">
         <v>574</v>
       </c>
       <c r="I87" t="s">
@@ -8267,7 +8300,7 @@
       <c r="G88" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="1" t="s">
         <v>237</v>
       </c>
       <c r="I88" t="s">
@@ -8296,7 +8329,7 @@
       <c r="G89" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="1" t="s">
         <v>586</v>
       </c>
       <c r="I89" t="s">
@@ -8325,7 +8358,7 @@
       <c r="G90" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="1" t="s">
         <v>593</v>
       </c>
       <c r="I90" t="s">
@@ -8354,7 +8387,7 @@
       <c r="G91" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="1" t="s">
         <v>600</v>
       </c>
       <c r="I91" t="s">
@@ -8383,7 +8416,7 @@
       <c r="G92" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I92" t="s">
@@ -8412,7 +8445,7 @@
       <c r="G93" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I93" t="s">
@@ -8441,7 +8474,7 @@
       <c r="G94" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I94" t="s">
@@ -8470,7 +8503,7 @@
       <c r="G95" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="1" t="s">
         <v>625</v>
       </c>
       <c r="I95" t="s">
@@ -8499,7 +8532,7 @@
       <c r="G96" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="1" t="s">
         <v>632</v>
       </c>
       <c r="I96" t="s">
@@ -8528,7 +8561,7 @@
       <c r="G97" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="1" t="s">
         <v>639</v>
       </c>
       <c r="I97" t="s">
@@ -8557,7 +8590,7 @@
       <c r="G98" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="1" t="s">
         <v>646</v>
       </c>
       <c r="I98" t="s">
@@ -8586,7 +8619,7 @@
       <c r="G99" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="1" t="s">
         <v>653</v>
       </c>
       <c r="I99" t="s">
@@ -8615,7 +8648,7 @@
       <c r="G100" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1" t="s">
         <v>659</v>
       </c>
       <c r="I100" t="s">
@@ -8644,7 +8677,7 @@
       <c r="G101" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="1" t="s">
         <v>665</v>
       </c>
       <c r="I101" t="s">
@@ -8673,7 +8706,7 @@
       <c r="G102" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="1" t="s">
         <v>671</v>
       </c>
       <c r="I102" t="s">
@@ -8702,7 +8735,7 @@
       <c r="G103" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="1" t="s">
         <v>678</v>
       </c>
       <c r="I103" t="s">
@@ -8728,7 +8761,7 @@
       <c r="G104" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="1" t="s">
         <v>684</v>
       </c>
       <c r="I104" t="s">
@@ -8757,7 +8790,7 @@
       <c r="G105" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I105" t="s">
@@ -8786,7 +8819,7 @@
       <c r="G106" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="1" t="s">
         <v>696</v>
       </c>
       <c r="I106" t="s">
@@ -8815,7 +8848,7 @@
       <c r="G107" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="1" t="s">
         <v>126</v>
       </c>
       <c r="I107" t="s">
@@ -8844,7 +8877,7 @@
       <c r="G108" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="1" t="s">
         <v>709</v>
       </c>
       <c r="I108" t="s">
@@ -8873,7 +8906,7 @@
       <c r="G109" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="1" t="s">
         <v>716</v>
       </c>
       <c r="I109" t="s">
@@ -8899,7 +8932,7 @@
       <c r="G110" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="1" t="s">
         <v>722</v>
       </c>
       <c r="I110" t="s">
@@ -8928,7 +8961,7 @@
       <c r="G111" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I111" t="s">
@@ -8957,7 +8990,7 @@
       <c r="G112" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="1" t="s">
         <v>735</v>
       </c>
       <c r="I112" t="s">
@@ -8986,7 +9019,7 @@
       <c r="G113" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="1" t="s">
         <v>742</v>
       </c>
       <c r="I113" t="s">
@@ -9015,7 +9048,7 @@
       <c r="G114" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="1" t="s">
         <v>749</v>
       </c>
       <c r="I114" t="s">
@@ -9044,7 +9077,7 @@
       <c r="G115" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="1" t="s">
         <v>756</v>
       </c>
       <c r="I115" t="s">
@@ -9073,7 +9106,7 @@
       <c r="G116" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="1" t="s">
         <v>762</v>
       </c>
       <c r="I116" t="s">
@@ -9102,7 +9135,7 @@
       <c r="G117" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="1" t="s">
         <v>769</v>
       </c>
       <c r="I117" t="s">
@@ -9131,7 +9164,7 @@
       <c r="G118" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="1" t="s">
         <v>776</v>
       </c>
       <c r="I118" t="s">
@@ -9160,7 +9193,7 @@
       <c r="G119" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="1" t="s">
         <v>783</v>
       </c>
       <c r="I119" t="s">
@@ -9189,7 +9222,7 @@
       <c r="G120" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="1" t="s">
         <v>790</v>
       </c>
       <c r="I120" t="s">
@@ -9215,7 +9248,7 @@
       <c r="G121" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="1" t="s">
         <v>796</v>
       </c>
       <c r="I121" t="s">
@@ -9244,7 +9277,7 @@
       <c r="G122" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I122" t="s">
@@ -9273,7 +9306,7 @@
       <c r="G123" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I123" t="s">
@@ -9302,7 +9335,7 @@
       <c r="G124" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="1" t="s">
         <v>815</v>
       </c>
       <c r="I124" t="s">
@@ -9331,7 +9364,7 @@
       <c r="G125" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I125" t="s">
@@ -9360,7 +9393,7 @@
       <c r="G126" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="1" t="s">
         <v>828</v>
       </c>
       <c r="I126" t="s">
@@ -9389,7 +9422,7 @@
       <c r="G127" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="1" t="s">
         <v>835</v>
       </c>
       <c r="I127" t="s">
@@ -9418,7 +9451,7 @@
       <c r="G128" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="1" t="s">
         <v>709</v>
       </c>
       <c r="I128" t="s">
@@ -9447,7 +9480,7 @@
       <c r="G129" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="1" t="s">
         <v>848</v>
       </c>
       <c r="I129" t="s">
@@ -9476,7 +9509,7 @@
       <c r="G130" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="1" t="s">
         <v>855</v>
       </c>
       <c r="I130" t="s">
@@ -9505,7 +9538,7 @@
       <c r="G131" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="1" t="s">
         <v>861</v>
       </c>
       <c r="I131" t="s">
@@ -9534,7 +9567,7 @@
       <c r="G132" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="1" t="s">
         <v>868</v>
       </c>
       <c r="I132" t="s">
@@ -9563,7 +9596,7 @@
       <c r="G133" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="1" t="s">
         <v>875</v>
       </c>
       <c r="I133" t="s">
@@ -9592,7 +9625,7 @@
       <c r="G134" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="1" t="s">
         <v>875</v>
       </c>
       <c r="I134" t="s">
@@ -9621,7 +9654,7 @@
       <c r="G135" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="1" t="s">
         <v>888</v>
       </c>
       <c r="I135" t="s">
@@ -9650,7 +9683,7 @@
       <c r="G136" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="1" t="s">
         <v>895</v>
       </c>
       <c r="I136" t="s">
@@ -9679,7 +9712,7 @@
       <c r="G137" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="1" t="s">
         <v>902</v>
       </c>
       <c r="I137" t="s">
@@ -9705,7 +9738,7 @@
       <c r="G138" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I138" t="s">
@@ -9734,7 +9767,7 @@
       <c r="G139" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="1" t="s">
         <v>914</v>
       </c>
       <c r="I139" t="s">
@@ -9763,7 +9796,7 @@
       <c r="G140" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="1" t="s">
         <v>921</v>
       </c>
       <c r="I140" t="s">
@@ -9792,7 +9825,7 @@
       <c r="G141" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="1" t="s">
         <v>928</v>
       </c>
       <c r="I141" t="s">
@@ -9821,7 +9854,7 @@
       <c r="G142" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I142" t="s">
@@ -9850,7 +9883,7 @@
       <c r="G143" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="1" t="s">
         <v>941</v>
       </c>
       <c r="I143" t="s">
@@ -9879,7 +9912,7 @@
       <c r="G144" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="1" t="s">
         <v>948</v>
       </c>
       <c r="I144" t="s">
@@ -9908,7 +9941,7 @@
       <c r="G145" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="1" t="s">
         <v>955</v>
       </c>
       <c r="I145" t="s">
@@ -9937,7 +9970,7 @@
       <c r="G146" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="1" t="s">
         <v>776</v>
       </c>
       <c r="I146" t="s">
@@ -9966,7 +9999,7 @@
       <c r="G147" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="1" t="s">
         <v>968</v>
       </c>
       <c r="I147" t="s">
@@ -9995,7 +10028,7 @@
       <c r="G148" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="1" t="s">
         <v>975</v>
       </c>
       <c r="I148" t="s">
@@ -10024,7 +10057,7 @@
       <c r="G149" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="1" t="s">
         <v>981</v>
       </c>
       <c r="I149" t="s">
@@ -10053,7 +10086,7 @@
       <c r="G150" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="1" t="s">
         <v>126</v>
       </c>
       <c r="I150" t="s">
@@ -10082,7 +10115,7 @@
       <c r="G151" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="1" t="s">
         <v>993</v>
       </c>
       <c r="I151" t="s">
@@ -10111,7 +10144,7 @@
       <c r="G152" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="I152" t="s">
@@ -10140,7 +10173,7 @@
       <c r="G153" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="1" t="s">
         <v>1007</v>
       </c>
       <c r="I153" t="s">
@@ -10166,14 +10199,14 @@
       <c r="G154" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="I154" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -10195,14 +10228,14 @@
       <c r="G155" s="1">
         <v>90.5</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="1">
         <v>78</v>
       </c>
       <c r="I155" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -10221,14 +10254,14 @@
       <c r="G156" s="1">
         <v>21.57</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="1">
         <v>69</v>
       </c>
       <c r="I156" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -10247,14 +10280,14 @@
       <c r="G157" s="1">
         <v>3.48</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="1">
         <v>229</v>
       </c>
       <c r="I157" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -10273,7 +10306,7 @@
       <c r="G158" s="1">
         <v>13.94</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="1">
         <v>110</v>
       </c>
       <c r="I158" t="s">
@@ -10302,7 +10335,7 @@
       <c r="G159" s="1">
         <v>27.59</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="1">
         <v>114</v>
       </c>
       <c r="I159" t="s">
@@ -10312,7 +10345,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -10334,7 +10367,7 @@
       <c r="G160" s="1">
         <v>5.79</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="1">
         <v>50</v>
       </c>
       <c r="I160" t="s">
@@ -10363,7 +10396,7 @@
       <c r="G161" s="1">
         <v>14.99</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="1">
         <v>42</v>
       </c>
       <c r="I161" t="s">
@@ -10395,7 +10428,7 @@
       <c r="G162" s="1">
         <v>220.51</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="1">
         <v>212</v>
       </c>
       <c r="I162" t="s">
@@ -10427,7 +10460,7 @@
       <c r="G163" s="1">
         <v>6.98</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="1">
         <v>75</v>
       </c>
       <c r="I163" t="s">
@@ -10459,7 +10492,7 @@
       <c r="G164" s="1">
         <v>16.44</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="1">
         <v>206</v>
       </c>
       <c r="I164" t="s">
@@ -10491,7 +10524,7 @@
       <c r="G165" s="1">
         <v>19.43</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="1">
         <v>16</v>
       </c>
       <c r="I165" t="s">
@@ -10523,7 +10556,7 @@
       <c r="G166" s="1">
         <v>18.16</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="1">
         <v>60</v>
       </c>
       <c r="I166" t="s">
@@ -10555,7 +10588,7 @@
       <c r="G167" s="1">
         <v>110.36</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="1">
         <v>438</v>
       </c>
       <c r="I167" t="s">
@@ -10587,7 +10620,7 @@
       <c r="G168" s="1">
         <v>41.41</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="1">
         <v>30</v>
       </c>
       <c r="I168" t="s">
@@ -10619,7 +10652,7 @@
       <c r="G169" s="1">
         <v>6.53</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="1">
         <v>115</v>
       </c>
       <c r="I169" t="s">
@@ -10651,7 +10684,7 @@
       <c r="G170" s="1">
         <v>2.15</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="1">
         <v>63</v>
       </c>
       <c r="I170" t="s">
@@ -10683,7 +10716,7 @@
       <c r="G171" s="1">
         <v>2.76</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="1">
         <v>37</v>
       </c>
       <c r="I171" t="s">
@@ -10715,7 +10748,7 @@
       <c r="G172" s="1">
         <v>6.22</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="1">
         <v>16</v>
       </c>
       <c r="I172" t="s">
@@ -10747,7 +10780,7 @@
       <c r="G173" s="1">
         <v>4.24</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="1">
         <v>76</v>
       </c>
       <c r="I173" t="s">
@@ -10779,7 +10812,7 @@
       <c r="G174" s="1">
         <v>3.11</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="1">
         <v>171</v>
       </c>
       <c r="I174" t="s">
@@ -10811,7 +10844,7 @@
       <c r="G175" s="1">
         <v>7.93</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="1">
         <v>76</v>
       </c>
       <c r="I175" t="s">
@@ -10821,7 +10854,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -10840,7 +10873,7 @@
       <c r="G176" s="1">
         <v>19.87</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="1">
         <v>120</v>
       </c>
       <c r="I176" t="s">
@@ -10869,7 +10902,7 @@
       <c r="G177" s="1">
         <v>2.23</v>
       </c>
-      <c r="H177">
+      <c r="H177" s="1">
         <v>84</v>
       </c>
       <c r="I177" t="s">
@@ -10879,7 +10912,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -10898,14 +10931,14 @@
       <c r="G178" s="1">
         <v>24.71</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="1">
         <v>31</v>
       </c>
       <c r="I178" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -10924,7 +10957,7 @@
       <c r="G179" s="1">
         <v>2.23</v>
       </c>
-      <c r="H179">
+      <c r="H179" s="1">
         <v>66</v>
       </c>
       <c r="I179" t="s">
@@ -10953,7 +10986,7 @@
       <c r="G180" s="1">
         <v>4.26</v>
       </c>
-      <c r="H180">
+      <c r="H180" s="1">
         <v>40</v>
       </c>
       <c r="I180" t="s">
@@ -10985,7 +11018,7 @@
       <c r="G181" s="1">
         <v>10.94</v>
       </c>
-      <c r="H181">
+      <c r="H181" s="1">
         <v>397</v>
       </c>
       <c r="I181" t="s">
@@ -10995,7 +11028,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -11014,14 +11047,14 @@
       <c r="G182" s="1">
         <v>6.74</v>
       </c>
-      <c r="H182">
+      <c r="H182" s="1">
         <v>27</v>
       </c>
       <c r="I182" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -11040,14 +11073,14 @@
       <c r="G183" s="1">
         <v>4.28</v>
       </c>
-      <c r="H183">
+      <c r="H183" s="1">
         <v>38</v>
       </c>
       <c r="I183" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -11069,7 +11102,7 @@
       <c r="G184" s="1">
         <v>262.8</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="1">
         <v>812</v>
       </c>
       <c r="I184" t="s">
@@ -11098,7 +11131,7 @@
       <c r="G185" s="1">
         <v>33.48</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="1">
         <v>54</v>
       </c>
       <c r="I185" t="s">
@@ -11130,7 +11163,7 @@
       <c r="G186" s="1">
         <v>7.48</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="1">
         <v>221</v>
       </c>
       <c r="I186" t="s">
@@ -11162,7 +11195,7 @@
       <c r="G187" s="1">
         <v>9.63</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="1">
         <v>377</v>
       </c>
       <c r="I187" t="s">
@@ -11194,7 +11227,7 @@
       <c r="G188" s="1">
         <v>5.19</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="1">
         <v>101</v>
       </c>
       <c r="I188" t="s">
@@ -11226,7 +11259,7 @@
       <c r="G189" s="1">
         <v>18.75</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="1">
         <v>344</v>
       </c>
       <c r="I189" t="s">
@@ -11258,7 +11291,7 @@
       <c r="G190" s="1">
         <v>18.75</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="1">
         <v>710</v>
       </c>
       <c r="I190" t="s">
@@ -11290,7 +11323,7 @@
       <c r="G191" s="1">
         <v>18.75</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="1">
         <v>241</v>
       </c>
       <c r="I191" t="s">
@@ -11300,7 +11333,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -11319,7 +11352,7 @@
       <c r="G192" s="1">
         <v>16.53</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="1">
         <v>71</v>
       </c>
       <c r="I192" t="s">
@@ -11348,7 +11381,7 @@
       <c r="G193" s="1">
         <v>27.54</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="1">
         <v>186</v>
       </c>
       <c r="I193" t="s">
@@ -11377,7 +11410,7 @@
       <c r="G194" s="1">
         <v>4.91</v>
       </c>
-      <c r="H194">
+      <c r="H194" s="1">
         <v>21</v>
       </c>
       <c r="I194" t="s">
@@ -11409,7 +11442,7 @@
       <c r="G195" s="1">
         <v>12.77</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="1">
         <v>192</v>
       </c>
       <c r="I195" t="s">
@@ -11441,7 +11474,7 @@
       <c r="G196" s="1">
         <v>5.22</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="1">
         <v>118</v>
       </c>
       <c r="I196" t="s">
@@ -11473,7 +11506,7 @@
       <c r="G197" s="1">
         <v>10.16</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="1">
         <v>40</v>
       </c>
       <c r="I197" t="s">
@@ -11483,7 +11516,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -11502,7 +11535,7 @@
       <c r="G198" s="1">
         <v>6.96</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="1">
         <v>34</v>
       </c>
       <c r="I198" t="s">
@@ -11531,7 +11564,7 @@
       <c r="G199" s="1">
         <v>55.65</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="1">
         <v>424</v>
       </c>
       <c r="I199" t="s">
@@ -11563,7 +11596,7 @@
       <c r="G200" s="1">
         <v>12.31</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="1">
         <v>121</v>
       </c>
       <c r="I200" t="s">
@@ -11573,7 +11606,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -11592,14 +11625,14 @@
       <c r="G201" s="1">
         <v>39.73</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="1">
         <v>45</v>
       </c>
       <c r="I201" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -11621,14 +11654,14 @@
       <c r="G202" s="1">
         <v>683.47</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="1">
         <v>12</v>
       </c>
       <c r="I202" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -11650,7 +11683,7 @@
       <c r="G203" s="1">
         <v>60.5</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="1">
         <v>660</v>
       </c>
       <c r="I203" t="s">
@@ -11679,7 +11712,7 @@
       <c r="G204" s="1">
         <v>5.85</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="1">
         <v>25</v>
       </c>
       <c r="I204" t="s">
@@ -11711,7 +11744,7 @@
       <c r="G205" s="1">
         <v>9.63</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="1">
         <v>579</v>
       </c>
       <c r="I205" t="s">
@@ -11743,7 +11776,7 @@
       <c r="G206" s="1">
         <v>10.2</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="1">
         <v>1380</v>
       </c>
       <c r="I206" t="s">
@@ -11775,7 +11808,7 @@
       <c r="G207" s="1">
         <v>4.78</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="1">
         <v>104</v>
       </c>
       <c r="I207" t="s">
@@ -11807,7 +11840,7 @@
       <c r="G208" s="1">
         <v>3.52</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="1">
         <v>55</v>
       </c>
       <c r="I208" t="s">
@@ -11836,7 +11869,7 @@
       <c r="G209" s="1">
         <v>308.62</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="1">
         <v>154</v>
       </c>
       <c r="I209" t="s">
@@ -11846,7 +11879,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -11868,7 +11901,7 @@
       <c r="G210" s="1">
         <v>8.74</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="1">
         <v>52</v>
       </c>
       <c r="I210" t="s">
@@ -11897,7 +11930,7 @@
       <c r="G211" s="1">
         <v>5.62</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="1">
         <v>398</v>
       </c>
       <c r="I211" t="s">
@@ -11907,7 +11940,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -11926,14 +11959,14 @@
       <c r="G212" s="1">
         <v>44.2</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="1">
         <v>64</v>
       </c>
       <c r="I212" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -11955,7 +11988,7 @@
       <c r="G213" s="1">
         <v>31.19</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="1">
         <v>34</v>
       </c>
       <c r="I213" t="s">
@@ -11981,7 +12014,7 @@
       <c r="G214" s="1">
         <v>6.2</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="1">
         <v>84</v>
       </c>
       <c r="I214" t="s">
@@ -12013,7 +12046,7 @@
       <c r="G215" s="1">
         <v>48.31</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="1">
         <v>63</v>
       </c>
       <c r="I215" t="s">
@@ -12045,7 +12078,7 @@
       <c r="G216" s="1">
         <v>18.6</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="1">
         <v>38</v>
       </c>
       <c r="I216" t="s">
@@ -12077,7 +12110,7 @@
       <c r="G217" s="1">
         <v>8.52</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="1">
         <v>72</v>
       </c>
       <c r="I217" t="s">
@@ -12109,7 +12142,7 @@
       <c r="G218" s="1">
         <v>7.23</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="1">
         <v>101</v>
       </c>
       <c r="I218" t="s">
@@ -12119,7 +12152,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -12138,7 +12171,7 @@
       <c r="G219" s="1">
         <v>49.93</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="1">
         <v>70</v>
       </c>
       <c r="I219" t="s">
@@ -12167,7 +12200,7 @@
       <c r="G220" s="1">
         <v>12.32</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="1">
         <v>127</v>
       </c>
       <c r="I220" t="s">
@@ -12177,7 +12210,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -12196,7 +12229,7 @@
       <c r="G221" s="1">
         <v>222.07</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="1">
         <v>126</v>
       </c>
       <c r="I221" t="s">
@@ -12225,7 +12258,7 @@
       <c r="G222" s="1">
         <v>44.63</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="1">
         <v>133</v>
       </c>
       <c r="I222" t="s">
@@ -12257,7 +12290,7 @@
       <c r="G223" s="1">
         <v>37.5</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="1">
         <v>189</v>
       </c>
       <c r="I223" t="s">
@@ -12289,7 +12322,7 @@
       <c r="G224" s="1">
         <v>9.58</v>
       </c>
-      <c r="H224">
+      <c r="H224" s="1">
         <v>816</v>
       </c>
       <c r="I224" t="s">
@@ -12299,7 +12332,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -12318,7 +12351,7 @@
       <c r="G225" s="1">
         <v>56.44</v>
       </c>
-      <c r="H225">
+      <c r="H225" s="1">
         <v>52</v>
       </c>
       <c r="I225" t="s">
@@ -12347,7 +12380,7 @@
       <c r="G226" s="1">
         <v>5.97</v>
       </c>
-      <c r="H226">
+      <c r="H226" s="1">
         <v>164</v>
       </c>
       <c r="I226" t="s">
@@ -12379,7 +12412,7 @@
       <c r="G227" s="1">
         <v>2.77</v>
       </c>
-      <c r="H227">
+      <c r="H227" s="1">
         <v>480</v>
       </c>
       <c r="I227" t="s">
@@ -12411,7 +12444,7 @@
       <c r="G228" s="1">
         <v>39.74</v>
       </c>
-      <c r="H228">
+      <c r="H228" s="1">
         <v>96</v>
       </c>
       <c r="I228" t="s">
@@ -12421,7 +12454,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -12443,7 +12476,7 @@
       <c r="G229" s="1">
         <v>7.7</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="1">
         <v>507</v>
       </c>
       <c r="I229" t="s">
@@ -12472,7 +12505,7 @@
       <c r="G230" s="1">
         <v>5.93</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="1">
         <v>388</v>
       </c>
       <c r="I230" t="s">
@@ -12504,7 +12537,7 @@
       <c r="G231" s="1">
         <v>92.03</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="1">
         <v>389</v>
       </c>
       <c r="I231" t="s">
@@ -12514,7 +12547,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -12533,14 +12566,14 @@
       <c r="G232" s="1">
         <v>2.19</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="1">
         <v>104</v>
       </c>
       <c r="I232" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -12562,7 +12595,7 @@
       <c r="G233" s="1">
         <v>74.5</v>
       </c>
-      <c r="H233">
+      <c r="H233" s="1">
         <v>44</v>
       </c>
       <c r="I233" t="s">
@@ -12591,7 +12624,7 @@
       <c r="G234" s="1">
         <v>176.75</v>
       </c>
-      <c r="H234">
+      <c r="H234" s="1">
         <v>23</v>
       </c>
       <c r="I234" t="s">
@@ -12601,7 +12634,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -12623,14 +12656,14 @@
       <c r="G235" s="1">
         <v>146.95</v>
       </c>
-      <c r="H235">
+      <c r="H235" s="1">
         <v>423</v>
       </c>
       <c r="I235" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -12649,7 +12682,7 @@
       <c r="G236" s="1">
         <v>169</v>
       </c>
-      <c r="H236">
+      <c r="H236" s="1">
         <v>522</v>
       </c>
       <c r="I236" t="s">
@@ -12675,6 +12708,7 @@
       <c r="G237" s="1">
         <v>79.25</v>
       </c>
+      <c r="H237" s="1"/>
       <c r="I237" t="s">
         <v>556</v>
       </c>
@@ -12701,7 +12735,7 @@
       <c r="G238" s="1">
         <v>11.86</v>
       </c>
-      <c r="H238">
+      <c r="H238" s="1">
         <v>30</v>
       </c>
       <c r="I238" t="s">
@@ -12733,7 +12767,7 @@
       <c r="G239" s="1">
         <v>41.26</v>
       </c>
-      <c r="H239">
+      <c r="H239" s="1">
         <v>302</v>
       </c>
       <c r="I239" t="s">
@@ -12765,7 +12799,7 @@
       <c r="G240" s="1">
         <v>249.16</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="1">
         <v>1435</v>
       </c>
       <c r="I240" t="s">
@@ -12794,7 +12828,7 @@
       <c r="G241" s="1">
         <v>9.29</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="1">
         <v>101</v>
       </c>
       <c r="I241" t="s">
@@ -12826,7 +12860,7 @@
       <c r="G242" s="1">
         <v>4.01</v>
       </c>
-      <c r="H242">
+      <c r="H242" s="1">
         <v>135</v>
       </c>
       <c r="I242" t="s">
@@ -12836,7 +12870,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -12858,7 +12892,7 @@
       <c r="G243" s="1">
         <v>15.51</v>
       </c>
-      <c r="H243">
+      <c r="H243" s="1">
         <v>237</v>
       </c>
       <c r="I243" t="s">
@@ -12887,7 +12921,7 @@
       <c r="G244" s="1">
         <v>27.74</v>
       </c>
-      <c r="H244">
+      <c r="H244" s="1">
         <v>29</v>
       </c>
       <c r="I244" t="s">
@@ -12919,7 +12953,7 @@
       <c r="G245" s="1">
         <v>56.9</v>
       </c>
-      <c r="H245">
+      <c r="H245" s="1">
         <v>75</v>
       </c>
       <c r="I245" t="s">
@@ -12951,7 +12985,7 @@
       <c r="G246" s="1">
         <v>150.76</v>
       </c>
-      <c r="H246">
+      <c r="H246" s="1">
         <v>27</v>
       </c>
       <c r="I246" t="s">
@@ -12983,7 +13017,7 @@
       <c r="G247" s="1">
         <v>6</v>
       </c>
-      <c r="H247">
+      <c r="H247" s="1">
         <v>30</v>
       </c>
       <c r="I247" t="s">
@@ -13015,7 +13049,7 @@
       <c r="G248" s="1">
         <v>5.36</v>
       </c>
-      <c r="H248">
+      <c r="H248" s="1">
         <v>209</v>
       </c>
       <c r="I248" t="s">
@@ -13025,7 +13059,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -13047,14 +13081,14 @@
       <c r="G249" s="1">
         <v>24.87</v>
       </c>
-      <c r="H249">
+      <c r="H249" s="1">
         <v>18</v>
       </c>
       <c r="I249" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -13076,7 +13110,7 @@
       <c r="G250" s="1">
         <v>10.39</v>
       </c>
-      <c r="H250">
+      <c r="H250" s="1">
         <v>403</v>
       </c>
       <c r="I250" t="s">
@@ -13105,7 +13139,7 @@
       <c r="G251" s="1">
         <v>203</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="1">
         <v>193</v>
       </c>
       <c r="I251" t="s">
@@ -13137,7 +13171,7 @@
       <c r="G252" s="1">
         <v>14.55</v>
       </c>
-      <c r="H252">
+      <c r="H252" s="1">
         <v>99</v>
       </c>
       <c r="I252" t="s">
@@ -13169,7 +13203,7 @@
       <c r="G253" s="1">
         <v>14.55</v>
       </c>
-      <c r="H253">
+      <c r="H253" s="1">
         <v>386</v>
       </c>
       <c r="I253" t="s">
@@ -13201,7 +13235,7 @@
       <c r="G254" s="1">
         <v>14.55</v>
       </c>
-      <c r="H254">
+      <c r="H254" s="1">
         <v>1055</v>
       </c>
       <c r="I254" t="s">
@@ -13233,7 +13267,7 @@
       <c r="G255" s="1">
         <v>14.55</v>
       </c>
-      <c r="H255">
+      <c r="H255" s="1">
         <v>307</v>
       </c>
       <c r="I255" t="s">
@@ -13265,7 +13299,7 @@
       <c r="G256" s="1">
         <v>13.82</v>
       </c>
-      <c r="H256">
+      <c r="H256" s="1">
         <v>1172</v>
       </c>
       <c r="I256" t="s">
@@ -13294,7 +13328,7 @@
       <c r="G257" s="1">
         <v>7.96</v>
       </c>
-      <c r="H257">
+      <c r="H257" s="1">
         <v>156</v>
       </c>
       <c r="I257" t="s">
@@ -13326,7 +13360,7 @@
       <c r="G258" s="1">
         <v>14.59</v>
       </c>
-      <c r="H258">
+      <c r="H258" s="1">
         <v>31</v>
       </c>
       <c r="I258" t="s">
@@ -13358,7 +13392,7 @@
       <c r="G259" s="1">
         <v>5.93</v>
       </c>
-      <c r="H259">
+      <c r="H259" s="1">
         <v>471</v>
       </c>
       <c r="I259" t="s">
@@ -13368,7 +13402,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -13390,7 +13424,7 @@
       <c r="G260" s="1">
         <v>53.14</v>
       </c>
-      <c r="H260">
+      <c r="H260" s="1">
         <v>37</v>
       </c>
       <c r="I260" t="s">
@@ -13419,7 +13453,7 @@
       <c r="G261" s="1">
         <v>4.57</v>
       </c>
-      <c r="H261">
+      <c r="H261" s="1">
         <v>58</v>
       </c>
       <c r="I261" t="s">
@@ -13451,7 +13485,7 @@
       <c r="G262" s="1">
         <v>20.8</v>
       </c>
-      <c r="H262">
+      <c r="H262" s="1">
         <v>624</v>
       </c>
       <c r="I262" t="s">
@@ -13461,7 +13495,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -13480,7 +13514,7 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-      <c r="H263">
+      <c r="H263" s="1">
         <v>1</v>
       </c>
       <c r="I263" t="s">
@@ -13509,7 +13543,7 @@
       <c r="G264" s="1">
         <v>34.22</v>
       </c>
-      <c r="H264">
+      <c r="H264" s="1">
         <v>69</v>
       </c>
       <c r="I264" t="s">
@@ -13541,7 +13575,7 @@
       <c r="G265" s="1">
         <v>4.15</v>
       </c>
-      <c r="H265">
+      <c r="H265" s="1">
         <v>979</v>
       </c>
       <c r="I265" t="s">
@@ -13573,7 +13607,7 @@
       <c r="G266" s="1">
         <v>4.79</v>
       </c>
-      <c r="H266">
+      <c r="H266" s="1">
         <v>320</v>
       </c>
       <c r="I266" t="s">
@@ -13605,7 +13639,7 @@
       <c r="G267" s="1">
         <v>131.6</v>
       </c>
-      <c r="H267">
+      <c r="H267" s="1">
         <v>610</v>
       </c>
       <c r="I267" t="s">
@@ -13637,7 +13671,7 @@
       <c r="G268" s="1">
         <v>6.41</v>
       </c>
-      <c r="H268">
+      <c r="H268" s="1">
         <v>128</v>
       </c>
       <c r="I268" t="s">
@@ -13669,7 +13703,7 @@
       <c r="G269" s="1">
         <v>18.75</v>
       </c>
-      <c r="H269">
+      <c r="H269" s="1">
         <v>893</v>
       </c>
       <c r="I269" t="s">
@@ -13701,7 +13735,7 @@
       <c r="G270" s="1">
         <v>9.98</v>
       </c>
-      <c r="H270">
+      <c r="H270" s="1">
         <v>262</v>
       </c>
       <c r="I270" t="s">
@@ -13733,7 +13767,7 @@
       <c r="G271" s="1">
         <v>9.34</v>
       </c>
-      <c r="H271">
+      <c r="H271" s="1">
         <v>200</v>
       </c>
       <c r="I271" t="s">
@@ -13765,7 +13799,7 @@
       <c r="G272" s="1">
         <v>80</v>
       </c>
-      <c r="H272">
+      <c r="H272" s="1">
         <v>85</v>
       </c>
       <c r="I272" t="s">
@@ -13797,7 +13831,7 @@
       <c r="G273" s="1">
         <v>76</v>
       </c>
-      <c r="H273">
+      <c r="H273" s="1">
         <v>542</v>
       </c>
       <c r="I273" t="s">
@@ -13826,7 +13860,7 @@
       <c r="G274" s="1">
         <v>4.1</v>
       </c>
-      <c r="H274">
+      <c r="H274" s="1">
         <v>94</v>
       </c>
       <c r="I274" t="s">
@@ -13858,7 +13892,7 @@
       <c r="G275" s="1">
         <v>12.49</v>
       </c>
-      <c r="H275">
+      <c r="H275" s="1">
         <v>50</v>
       </c>
       <c r="I275" t="s">
@@ -13890,7 +13924,7 @@
       <c r="G276" s="1">
         <v>5.95</v>
       </c>
-      <c r="H276">
+      <c r="H276" s="1">
         <v>75</v>
       </c>
       <c r="I276" t="s">
@@ -13922,7 +13956,7 @@
       <c r="G277" s="1">
         <v>23.34</v>
       </c>
-      <c r="H277">
+      <c r="H277" s="1">
         <v>247</v>
       </c>
       <c r="I277" t="s">
@@ -13954,7 +13988,7 @@
       <c r="G278" s="1">
         <v>73.62</v>
       </c>
-      <c r="H278">
+      <c r="H278" s="1">
         <v>60</v>
       </c>
       <c r="I278" t="s">
@@ -13964,7 +13998,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -13986,14 +14020,14 @@
       <c r="G279" s="1">
         <v>71.5</v>
       </c>
-      <c r="H279">
+      <c r="H279" s="1">
         <v>614</v>
       </c>
       <c r="I279" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -14015,14 +14049,14 @@
       <c r="G280" s="1">
         <v>68.75</v>
       </c>
-      <c r="H280">
+      <c r="H280" s="1">
         <v>90</v>
       </c>
       <c r="I280" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -14044,7 +14078,7 @@
       <c r="G281" s="1">
         <v>105.25</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="1">
         <v>58</v>
       </c>
       <c r="I281" t="s">
@@ -14073,7 +14107,7 @@
       <c r="G282" s="1">
         <v>117.5</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="1">
         <v>577</v>
       </c>
       <c r="I282" t="s">
@@ -14083,7 +14117,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -14105,7 +14139,7 @@
       <c r="G283" s="1">
         <v>147.45</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="1">
         <v>56</v>
       </c>
       <c r="I283" t="s">
@@ -14134,7 +14168,7 @@
       <c r="G284" s="1">
         <v>146.7</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="1">
         <v>819</v>
       </c>
       <c r="I284" t="s">
@@ -14166,7 +14200,7 @@
       <c r="G285" s="1">
         <v>106.5</v>
       </c>
-      <c r="H285">
+      <c r="H285" s="1">
         <v>1163</v>
       </c>
       <c r="I285" t="s">
@@ -14198,7 +14232,7 @@
       <c r="G286" s="1">
         <v>120</v>
       </c>
-      <c r="H286">
+      <c r="H286" s="1">
         <v>175</v>
       </c>
       <c r="I286" t="s">
@@ -14230,7 +14264,7 @@
       <c r="G287" s="1">
         <v>18.61</v>
       </c>
-      <c r="H287">
+      <c r="H287" s="1">
         <v>175</v>
       </c>
       <c r="I287" t="s">
@@ -14262,7 +14296,7 @@
       <c r="G288" s="1">
         <v>34.12</v>
       </c>
-      <c r="H288">
+      <c r="H288" s="1">
         <v>79</v>
       </c>
       <c r="I288" t="s">
@@ -14294,7 +14328,7 @@
       <c r="G289" s="1">
         <v>6.9</v>
       </c>
-      <c r="H289">
+      <c r="H289" s="1">
         <v>401</v>
       </c>
       <c r="I289" t="s">
@@ -14326,7 +14360,7 @@
       <c r="G290" s="1">
         <v>14.93</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="1">
         <v>98</v>
       </c>
       <c r="I290" t="s">
@@ -14336,7 +14370,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -14355,7 +14389,7 @@
       <c r="G291" s="1">
         <v>65.82</v>
       </c>
-      <c r="H291">
+      <c r="H291" s="1">
         <v>45</v>
       </c>
       <c r="I291" t="s">
@@ -14384,7 +14418,7 @@
       <c r="G292" s="1">
         <v>3.84</v>
       </c>
-      <c r="H292">
+      <c r="H292" s="1">
         <v>108</v>
       </c>
       <c r="I292" t="s">
@@ -14416,7 +14450,7 @@
       <c r="G293" s="1">
         <v>152.49</v>
       </c>
-      <c r="H293">
+      <c r="H293" s="1">
         <v>35</v>
       </c>
       <c r="I293" t="s">
@@ -14426,7 +14460,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -14448,7 +14482,7 @@
       <c r="G294" s="1">
         <v>250</v>
       </c>
-      <c r="H294">
+      <c r="H294" s="1">
         <v>122</v>
       </c>
       <c r="I294" t="s">
@@ -14477,7 +14511,7 @@
       <c r="G295" s="1">
         <v>101.89</v>
       </c>
-      <c r="H295">
+      <c r="H295" s="1">
         <v>71</v>
       </c>
       <c r="I295" t="s">
@@ -14509,7 +14543,7 @@
       <c r="G296" s="1">
         <v>96</v>
       </c>
-      <c r="H296">
+      <c r="H296" s="1">
         <v>632</v>
       </c>
       <c r="I296" t="s">
@@ -14519,7 +14553,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -14541,7 +14575,7 @@
       <c r="G297" s="1">
         <v>6.08</v>
       </c>
-      <c r="H297">
+      <c r="H297" s="1">
         <v>650</v>
       </c>
       <c r="I297" t="s">
@@ -14570,7 +14604,7 @@
       <c r="G298" s="1">
         <v>199.76</v>
       </c>
-      <c r="H298">
+      <c r="H298" s="1">
         <v>1933</v>
       </c>
       <c r="I298" t="s">
@@ -14580,7 +14614,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -14602,7 +14636,7 @@
       <c r="G299" s="1">
         <v>197.9</v>
       </c>
-      <c r="H299">
+      <c r="H299" s="1">
         <v>196</v>
       </c>
       <c r="I299" t="s">
@@ -14631,7 +14665,7 @@
       <c r="G300" s="1">
         <v>11.89</v>
       </c>
-      <c r="H300">
+      <c r="H300" s="1">
         <v>36</v>
       </c>
       <c r="I300" t="s">
@@ -14663,7 +14697,7 @@
       <c r="G301" s="1">
         <v>12.7</v>
       </c>
-      <c r="H301">
+      <c r="H301" s="1">
         <v>172</v>
       </c>
       <c r="I301" t="s">
@@ -14673,7 +14707,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -14695,14 +14729,14 @@
       <c r="G302" s="1">
         <v>5.93</v>
       </c>
-      <c r="H302">
+      <c r="H302" s="1">
         <v>6360</v>
       </c>
       <c r="I302" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -14724,14 +14758,14 @@
       <c r="G303" s="1">
         <v>53.14</v>
       </c>
-      <c r="H303">
+      <c r="H303" s="1">
         <v>37</v>
       </c>
       <c r="I303" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -14753,7 +14787,7 @@
       <c r="G304" s="1">
         <v>14.37</v>
       </c>
-      <c r="H304">
+      <c r="H304" s="1">
         <v>191</v>
       </c>
       <c r="I304" t="s">
@@ -14782,7 +14816,7 @@
       <c r="G305" s="1">
         <v>19.5</v>
       </c>
-      <c r="H305">
+      <c r="H305" s="1">
         <v>196</v>
       </c>
       <c r="I305" t="s">
@@ -14792,7 +14826,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -14814,14 +14848,14 @@
       <c r="G306" s="1">
         <v>9.01</v>
       </c>
-      <c r="H306">
+      <c r="H306" s="1">
         <v>3389</v>
       </c>
       <c r="I306" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -14840,10 +14874,4712 @@
       <c r="G307" s="1">
         <v>470.08</v>
       </c>
-      <c r="H307">
+      <c r="H307" s="1">
         <v>14</v>
       </c>
       <c r="I307" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D308" t="s">
+        <v>12</v>
+      </c>
+      <c r="E308" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H308" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I308">
+        <v>78</v>
+      </c>
+      <c r="J308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D309" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" t="s">
+        <v>20</v>
+      </c>
+      <c r="F309" t="s">
+        <v>21</v>
+      </c>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I309">
+        <v>69</v>
+      </c>
+      <c r="J309" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D310" t="s">
+        <v>25</v>
+      </c>
+      <c r="E310" t="s">
+        <v>26</v>
+      </c>
+      <c r="F310" t="s">
+        <v>27</v>
+      </c>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I310">
+        <v>229</v>
+      </c>
+      <c r="J310" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D311" t="s">
+        <v>31</v>
+      </c>
+      <c r="E311" t="s">
+        <v>32</v>
+      </c>
+      <c r="F311" t="s">
+        <v>33</v>
+      </c>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I311">
+        <v>110</v>
+      </c>
+      <c r="J311" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D312" t="s">
+        <v>37</v>
+      </c>
+      <c r="E312" t="s">
+        <v>38</v>
+      </c>
+      <c r="F312" t="s">
+        <v>39</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H312" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I312">
+        <v>114</v>
+      </c>
+      <c r="J312" t="s">
+        <v>43</v>
+      </c>
+      <c r="K312" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D313" t="s">
+        <v>44</v>
+      </c>
+      <c r="E313" t="s">
+        <v>45</v>
+      </c>
+      <c r="F313" t="s">
+        <v>46</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H313" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I313">
+        <v>50</v>
+      </c>
+      <c r="J313" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D314" t="s">
+        <v>51</v>
+      </c>
+      <c r="E314" t="s">
+        <v>52</v>
+      </c>
+      <c r="F314" t="s">
+        <v>53</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H314" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I314">
+        <v>42</v>
+      </c>
+      <c r="J314" t="s">
+        <v>57</v>
+      </c>
+      <c r="K314" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D315" t="s">
+        <v>58</v>
+      </c>
+      <c r="E315" t="s">
+        <v>59</v>
+      </c>
+      <c r="F315" t="s">
+        <v>60</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H315" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I315">
+        <v>212</v>
+      </c>
+      <c r="J315" t="s">
+        <v>64</v>
+      </c>
+      <c r="K315" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D316" t="s">
+        <v>65</v>
+      </c>
+      <c r="E316" t="s">
+        <v>66</v>
+      </c>
+      <c r="F316" t="s">
+        <v>67</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H316" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I316">
+        <v>75</v>
+      </c>
+      <c r="J316" t="s">
+        <v>71</v>
+      </c>
+      <c r="K316" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D317" t="s">
+        <v>72</v>
+      </c>
+      <c r="E317" t="s">
+        <v>73</v>
+      </c>
+      <c r="F317" t="s">
+        <v>74</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H317" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I317">
+        <v>206</v>
+      </c>
+      <c r="J317" t="s">
+        <v>78</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D318" t="s">
+        <v>79</v>
+      </c>
+      <c r="E318" t="s">
+        <v>80</v>
+      </c>
+      <c r="F318" t="s">
+        <v>81</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H318" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I318">
+        <v>16</v>
+      </c>
+      <c r="J318" t="s">
+        <v>85</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D319" t="s">
+        <v>86</v>
+      </c>
+      <c r="E319" t="s">
+        <v>87</v>
+      </c>
+      <c r="F319" t="s">
+        <v>88</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H319" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I319">
+        <v>60</v>
+      </c>
+      <c r="J319" t="s">
+        <v>92</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D320" t="s">
+        <v>93</v>
+      </c>
+      <c r="E320" t="s">
+        <v>94</v>
+      </c>
+      <c r="F320" t="s">
+        <v>95</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H320" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I320">
+        <v>438</v>
+      </c>
+      <c r="J320" t="s">
+        <v>99</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D321" t="s">
+        <v>100</v>
+      </c>
+      <c r="E321" t="s">
+        <v>101</v>
+      </c>
+      <c r="F321" t="s">
+        <v>102</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H321" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I321">
+        <v>30</v>
+      </c>
+      <c r="J321" t="s">
+        <v>106</v>
+      </c>
+      <c r="K321" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D322" t="s">
+        <v>107</v>
+      </c>
+      <c r="E322" t="s">
+        <v>108</v>
+      </c>
+      <c r="F322" t="s">
+        <v>109</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H322" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I322">
+        <v>115</v>
+      </c>
+      <c r="J322" t="s">
+        <v>113</v>
+      </c>
+      <c r="K322" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D323" t="s">
+        <v>114</v>
+      </c>
+      <c r="E323" t="s">
+        <v>115</v>
+      </c>
+      <c r="F323" t="s">
+        <v>116</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H323" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I323">
+        <v>63</v>
+      </c>
+      <c r="J323" t="s">
+        <v>120</v>
+      </c>
+      <c r="K323" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D324" t="s">
+        <v>121</v>
+      </c>
+      <c r="E324" t="s">
+        <v>122</v>
+      </c>
+      <c r="F324" t="s">
+        <v>123</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H324" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I324">
+        <v>37</v>
+      </c>
+      <c r="J324" t="s">
+        <v>127</v>
+      </c>
+      <c r="K324" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D325" t="s">
+        <v>128</v>
+      </c>
+      <c r="E325" t="s">
+        <v>129</v>
+      </c>
+      <c r="F325" t="s">
+        <v>130</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H325" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I325">
+        <v>16</v>
+      </c>
+      <c r="J325" t="s">
+        <v>133</v>
+      </c>
+      <c r="K325" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D326" t="s">
+        <v>134</v>
+      </c>
+      <c r="E326" t="s">
+        <v>135</v>
+      </c>
+      <c r="F326" t="s">
+        <v>136</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H326" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I326">
+        <v>76</v>
+      </c>
+      <c r="J326" t="s">
+        <v>140</v>
+      </c>
+      <c r="K326" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D327" t="s">
+        <v>141</v>
+      </c>
+      <c r="E327" t="s">
+        <v>142</v>
+      </c>
+      <c r="F327" t="s">
+        <v>143</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H327" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I327">
+        <v>171</v>
+      </c>
+      <c r="J327" t="s">
+        <v>147</v>
+      </c>
+      <c r="K327" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D328" t="s">
+        <v>148</v>
+      </c>
+      <c r="E328" t="s">
+        <v>149</v>
+      </c>
+      <c r="F328" t="s">
+        <v>150</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H328" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I328">
+        <v>76</v>
+      </c>
+      <c r="J328" t="s">
+        <v>153</v>
+      </c>
+      <c r="K328" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D329" t="s">
+        <v>154</v>
+      </c>
+      <c r="E329" t="s">
+        <v>155</v>
+      </c>
+      <c r="F329" t="s">
+        <v>156</v>
+      </c>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I329">
+        <v>120</v>
+      </c>
+      <c r="J329" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D330" t="s">
+        <v>160</v>
+      </c>
+      <c r="E330" t="s">
+        <v>161</v>
+      </c>
+      <c r="F330" t="s">
+        <v>162</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H330" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I330">
+        <v>84</v>
+      </c>
+      <c r="J330" t="s">
+        <v>166</v>
+      </c>
+      <c r="K330" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D331" t="s">
+        <v>167</v>
+      </c>
+      <c r="E331" t="s">
+        <v>168</v>
+      </c>
+      <c r="F331" t="s">
+        <v>169</v>
+      </c>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I331">
+        <v>31</v>
+      </c>
+      <c r="J331" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D332" t="s">
+        <v>173</v>
+      </c>
+      <c r="E332" t="s">
+        <v>174</v>
+      </c>
+      <c r="F332" t="s">
+        <v>175</v>
+      </c>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I332">
+        <v>66</v>
+      </c>
+      <c r="J332" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D333" t="s">
+        <v>178</v>
+      </c>
+      <c r="E333" t="s">
+        <v>179</v>
+      </c>
+      <c r="F333" t="s">
+        <v>180</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H333" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I333">
+        <v>40</v>
+      </c>
+      <c r="J333" t="s">
+        <v>184</v>
+      </c>
+      <c r="K333" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D334" t="s">
+        <v>185</v>
+      </c>
+      <c r="E334" t="s">
+        <v>186</v>
+      </c>
+      <c r="F334" t="s">
+        <v>187</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H334" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I334">
+        <v>397</v>
+      </c>
+      <c r="J334" t="s">
+        <v>191</v>
+      </c>
+      <c r="K334" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D335" t="s">
+        <v>192</v>
+      </c>
+      <c r="E335" t="s">
+        <v>193</v>
+      </c>
+      <c r="F335" t="s">
+        <v>194</v>
+      </c>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I335">
+        <v>27</v>
+      </c>
+      <c r="J335" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D336" t="s">
+        <v>198</v>
+      </c>
+      <c r="E336" t="s">
+        <v>199</v>
+      </c>
+      <c r="F336" t="s">
+        <v>200</v>
+      </c>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I336">
+        <v>38</v>
+      </c>
+      <c r="J336" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D337" t="s">
+        <v>204</v>
+      </c>
+      <c r="E337" t="s">
+        <v>205</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H337" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I337">
+        <v>805</v>
+      </c>
+      <c r="J337" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D338" t="s">
+        <v>211</v>
+      </c>
+      <c r="E338" t="s">
+        <v>212</v>
+      </c>
+      <c r="F338" t="s">
+        <v>213</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H338" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I338">
+        <v>54</v>
+      </c>
+      <c r="J338" t="s">
+        <v>217</v>
+      </c>
+      <c r="K338" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D339" t="s">
+        <v>218</v>
+      </c>
+      <c r="E339" t="s">
+        <v>219</v>
+      </c>
+      <c r="F339" t="s">
+        <v>220</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H339" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I339">
+        <v>221</v>
+      </c>
+      <c r="J339" t="s">
+        <v>224</v>
+      </c>
+      <c r="K339" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D340" t="s">
+        <v>225</v>
+      </c>
+      <c r="E340" t="s">
+        <v>226</v>
+      </c>
+      <c r="F340" t="s">
+        <v>227</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H340" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I340">
+        <v>377</v>
+      </c>
+      <c r="J340" t="s">
+        <v>231</v>
+      </c>
+      <c r="K340" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D341" t="s">
+        <v>232</v>
+      </c>
+      <c r="E341" t="s">
+        <v>233</v>
+      </c>
+      <c r="F341" t="s">
+        <v>234</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H341" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I341">
+        <v>101</v>
+      </c>
+      <c r="J341" t="s">
+        <v>238</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D342" t="s">
+        <v>239</v>
+      </c>
+      <c r="E342" t="s">
+        <v>240</v>
+      </c>
+      <c r="F342" t="s">
+        <v>241</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H342" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I342">
+        <v>344</v>
+      </c>
+      <c r="J342" t="s">
+        <v>245</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D343" t="s">
+        <v>246</v>
+      </c>
+      <c r="E343" t="s">
+        <v>247</v>
+      </c>
+      <c r="F343" t="s">
+        <v>248</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H343" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I343">
+        <v>710</v>
+      </c>
+      <c r="J343" t="s">
+        <v>251</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D344" t="s">
+        <v>252</v>
+      </c>
+      <c r="E344" t="s">
+        <v>253</v>
+      </c>
+      <c r="F344" t="s">
+        <v>254</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H344" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I344">
+        <v>241</v>
+      </c>
+      <c r="J344" t="s">
+        <v>257</v>
+      </c>
+      <c r="K344" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D345" t="s">
+        <v>258</v>
+      </c>
+      <c r="E345" t="s">
+        <v>259</v>
+      </c>
+      <c r="F345" t="s">
+        <v>260</v>
+      </c>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I345">
+        <v>71</v>
+      </c>
+      <c r="J345" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D346" t="s">
+        <v>264</v>
+      </c>
+      <c r="E346" t="s">
+        <v>265</v>
+      </c>
+      <c r="F346" t="s">
+        <v>266</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H346" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I346">
+        <v>186</v>
+      </c>
+      <c r="J346" t="s">
+        <v>270</v>
+      </c>
+      <c r="K346" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D347" t="s">
+        <v>271</v>
+      </c>
+      <c r="E347" t="s">
+        <v>272</v>
+      </c>
+      <c r="F347" t="s">
+        <v>273</v>
+      </c>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I347">
+        <v>21</v>
+      </c>
+      <c r="J347" t="s">
+        <v>276</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D348" t="s">
+        <v>277</v>
+      </c>
+      <c r="E348" t="s">
+        <v>278</v>
+      </c>
+      <c r="F348" t="s">
+        <v>279</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H348" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I348">
+        <v>192</v>
+      </c>
+      <c r="J348" t="s">
+        <v>283</v>
+      </c>
+      <c r="K348" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D349" t="s">
+        <v>284</v>
+      </c>
+      <c r="E349" t="s">
+        <v>285</v>
+      </c>
+      <c r="F349" t="s">
+        <v>286</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H349" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I349">
+        <v>118</v>
+      </c>
+      <c r="J349" t="s">
+        <v>290</v>
+      </c>
+      <c r="K349" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D350" t="s">
+        <v>291</v>
+      </c>
+      <c r="E350" t="s">
+        <v>292</v>
+      </c>
+      <c r="F350" t="s">
+        <v>293</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H350" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I350">
+        <v>40</v>
+      </c>
+      <c r="J350" t="s">
+        <v>296</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D351" t="s">
+        <v>297</v>
+      </c>
+      <c r="E351" t="s">
+        <v>298</v>
+      </c>
+      <c r="F351" t="s">
+        <v>299</v>
+      </c>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I351">
+        <v>34</v>
+      </c>
+      <c r="J351" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D352" t="s">
+        <v>303</v>
+      </c>
+      <c r="E352" t="s">
+        <v>304</v>
+      </c>
+      <c r="F352" t="s">
+        <v>305</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H352" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I352">
+        <v>424</v>
+      </c>
+      <c r="J352" t="s">
+        <v>309</v>
+      </c>
+      <c r="K352" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D353" t="s">
+        <v>310</v>
+      </c>
+      <c r="E353" t="s">
+        <v>311</v>
+      </c>
+      <c r="F353" t="s">
+        <v>312</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H353" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I353">
+        <v>121</v>
+      </c>
+      <c r="J353" t="s">
+        <v>316</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D354" t="s">
+        <v>317</v>
+      </c>
+      <c r="E354" t="s">
+        <v>318</v>
+      </c>
+      <c r="F354" t="s">
+        <v>319</v>
+      </c>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I354">
+        <v>45</v>
+      </c>
+      <c r="J354" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D355" t="s">
+        <v>323</v>
+      </c>
+      <c r="E355" t="s">
+        <v>324</v>
+      </c>
+      <c r="F355" t="s">
+        <v>325</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H355" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I355">
+        <v>12</v>
+      </c>
+      <c r="J355" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D356" t="s">
+        <v>330</v>
+      </c>
+      <c r="E356" t="s">
+        <v>331</v>
+      </c>
+      <c r="F356" t="s">
+        <v>332</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H356" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I356">
+        <v>660</v>
+      </c>
+      <c r="J356" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D357" t="s">
+        <v>337</v>
+      </c>
+      <c r="E357" t="s">
+        <v>338</v>
+      </c>
+      <c r="F357" t="s">
+        <v>339</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H357" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I357">
+        <v>25</v>
+      </c>
+      <c r="J357" t="s">
+        <v>343</v>
+      </c>
+      <c r="K357" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D358" t="s">
+        <v>344</v>
+      </c>
+      <c r="E358" t="s">
+        <v>345</v>
+      </c>
+      <c r="F358" t="s">
+        <v>346</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H358" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I358">
+        <v>579</v>
+      </c>
+      <c r="J358" t="s">
+        <v>349</v>
+      </c>
+      <c r="K358" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D359" t="s">
+        <v>350</v>
+      </c>
+      <c r="E359" t="s">
+        <v>351</v>
+      </c>
+      <c r="F359" t="s">
+        <v>352</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H359" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I359">
+        <v>1380</v>
+      </c>
+      <c r="J359" t="s">
+        <v>356</v>
+      </c>
+      <c r="K359" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D360" t="s">
+        <v>357</v>
+      </c>
+      <c r="E360" t="s">
+        <v>358</v>
+      </c>
+      <c r="F360" t="s">
+        <v>359</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H360" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I360">
+        <v>104</v>
+      </c>
+      <c r="J360" t="s">
+        <v>363</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D361" t="s">
+        <v>364</v>
+      </c>
+      <c r="E361" t="s">
+        <v>365</v>
+      </c>
+      <c r="F361" t="s">
+        <v>366</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H361" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I361">
+        <v>55</v>
+      </c>
+      <c r="J361" t="s">
+        <v>370</v>
+      </c>
+      <c r="K361" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D362" t="s">
+        <v>371</v>
+      </c>
+      <c r="E362" t="s">
+        <v>372</v>
+      </c>
+      <c r="F362" t="s">
+        <v>373</v>
+      </c>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I362">
+        <v>154</v>
+      </c>
+      <c r="J362" t="s">
+        <v>376</v>
+      </c>
+      <c r="K362" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D363" t="s">
+        <v>377</v>
+      </c>
+      <c r="E363" t="s">
+        <v>378</v>
+      </c>
+      <c r="F363" t="s">
+        <v>379</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H363" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I363">
+        <v>52</v>
+      </c>
+      <c r="J363" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D364" t="s">
+        <v>384</v>
+      </c>
+      <c r="E364" t="s">
+        <v>385</v>
+      </c>
+      <c r="F364" t="s">
+        <v>386</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H364" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I364">
+        <v>398</v>
+      </c>
+      <c r="J364" t="s">
+        <v>390</v>
+      </c>
+      <c r="K364" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D365" t="s">
+        <v>391</v>
+      </c>
+      <c r="E365" t="s">
+        <v>392</v>
+      </c>
+      <c r="F365" t="s">
+        <v>393</v>
+      </c>
+      <c r="G365" s="1"/>
+      <c r="H365" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I365">
+        <v>64</v>
+      </c>
+      <c r="J365" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D366" t="s">
+        <v>397</v>
+      </c>
+      <c r="E366" t="s">
+        <v>398</v>
+      </c>
+      <c r="F366" t="s">
+        <v>399</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H366" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I366">
+        <v>34</v>
+      </c>
+      <c r="J366" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D367" t="s">
+        <v>403</v>
+      </c>
+      <c r="E367" t="s">
+        <v>404</v>
+      </c>
+      <c r="F367" t="s">
+        <v>405</v>
+      </c>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I367">
+        <v>84</v>
+      </c>
+      <c r="J367" t="s">
+        <v>407</v>
+      </c>
+      <c r="K367" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D368" t="s">
+        <v>408</v>
+      </c>
+      <c r="E368" t="s">
+        <v>409</v>
+      </c>
+      <c r="F368" t="s">
+        <v>410</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H368" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I368">
+        <v>63</v>
+      </c>
+      <c r="J368" t="s">
+        <v>413</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D369" t="s">
+        <v>414</v>
+      </c>
+      <c r="E369" t="s">
+        <v>415</v>
+      </c>
+      <c r="F369" t="s">
+        <v>416</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H369" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I369">
+        <v>38</v>
+      </c>
+      <c r="J369" t="s">
+        <v>419</v>
+      </c>
+      <c r="K369" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D370" t="s">
+        <v>420</v>
+      </c>
+      <c r="E370" t="s">
+        <v>421</v>
+      </c>
+      <c r="F370" t="s">
+        <v>422</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H370" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I370">
+        <v>72</v>
+      </c>
+      <c r="J370" t="s">
+        <v>426</v>
+      </c>
+      <c r="K370" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D371" t="s">
+        <v>427</v>
+      </c>
+      <c r="E371" t="s">
+        <v>428</v>
+      </c>
+      <c r="F371" t="s">
+        <v>429</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H371" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I371">
+        <v>101</v>
+      </c>
+      <c r="J371" t="s">
+        <v>432</v>
+      </c>
+      <c r="K371" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D372" t="s">
+        <v>433</v>
+      </c>
+      <c r="E372" t="s">
+        <v>434</v>
+      </c>
+      <c r="F372" t="s">
+        <v>435</v>
+      </c>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I372">
+        <v>70</v>
+      </c>
+      <c r="J372" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D373" t="s">
+        <v>439</v>
+      </c>
+      <c r="E373" t="s">
+        <v>440</v>
+      </c>
+      <c r="F373" t="s">
+        <v>441</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H373" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I373">
+        <v>127</v>
+      </c>
+      <c r="J373" t="s">
+        <v>445</v>
+      </c>
+      <c r="K373" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D374" t="s">
+        <v>446</v>
+      </c>
+      <c r="E374" t="s">
+        <v>447</v>
+      </c>
+      <c r="F374" t="s">
+        <v>448</v>
+      </c>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I374">
+        <v>126</v>
+      </c>
+      <c r="J374" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D375" t="s">
+        <v>452</v>
+      </c>
+      <c r="E375" t="s">
+        <v>453</v>
+      </c>
+      <c r="F375" t="s">
+        <v>454</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H375" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I375">
+        <v>133</v>
+      </c>
+      <c r="J375" t="s">
+        <v>458</v>
+      </c>
+      <c r="K375" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D376" t="s">
+        <v>459</v>
+      </c>
+      <c r="E376" t="s">
+        <v>460</v>
+      </c>
+      <c r="F376" t="s">
+        <v>461</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H376" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I376">
+        <v>189</v>
+      </c>
+      <c r="J376" t="s">
+        <v>465</v>
+      </c>
+      <c r="K376" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D377" t="s">
+        <v>466</v>
+      </c>
+      <c r="E377" t="s">
+        <v>467</v>
+      </c>
+      <c r="F377" t="s">
+        <v>468</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H377" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I377">
+        <v>816</v>
+      </c>
+      <c r="J377" t="s">
+        <v>472</v>
+      </c>
+      <c r="K377" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D378" t="s">
+        <v>473</v>
+      </c>
+      <c r="E378" t="s">
+        <v>474</v>
+      </c>
+      <c r="F378" t="s">
+        <v>475</v>
+      </c>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I378">
+        <v>52</v>
+      </c>
+      <c r="J378" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D379" t="s">
+        <v>478</v>
+      </c>
+      <c r="E379" t="s">
+        <v>479</v>
+      </c>
+      <c r="F379" t="s">
+        <v>480</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H379" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I379">
+        <v>164</v>
+      </c>
+      <c r="J379" t="s">
+        <v>484</v>
+      </c>
+      <c r="K379" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D380" t="s">
+        <v>485</v>
+      </c>
+      <c r="E380" t="s">
+        <v>486</v>
+      </c>
+      <c r="F380" t="s">
+        <v>487</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I380">
+        <v>480</v>
+      </c>
+      <c r="J380" t="s">
+        <v>491</v>
+      </c>
+      <c r="K380" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D381" t="s">
+        <v>492</v>
+      </c>
+      <c r="E381" t="s">
+        <v>493</v>
+      </c>
+      <c r="F381" t="s">
+        <v>494</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H381" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I381">
+        <v>96</v>
+      </c>
+      <c r="J381" t="s">
+        <v>498</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D382" t="s">
+        <v>499</v>
+      </c>
+      <c r="E382" t="s">
+        <v>500</v>
+      </c>
+      <c r="F382" t="s">
+        <v>501</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H382" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I382">
+        <v>507</v>
+      </c>
+      <c r="J382" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D383" t="s">
+        <v>506</v>
+      </c>
+      <c r="E383" t="s">
+        <v>507</v>
+      </c>
+      <c r="F383" t="s">
+        <v>508</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H383" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I383">
+        <v>388</v>
+      </c>
+      <c r="J383" t="s">
+        <v>512</v>
+      </c>
+      <c r="K383" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D384" t="s">
+        <v>513</v>
+      </c>
+      <c r="E384" t="s">
+        <v>514</v>
+      </c>
+      <c r="F384" t="s">
+        <v>515</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H384" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I384">
+        <v>389</v>
+      </c>
+      <c r="J384" t="s">
+        <v>519</v>
+      </c>
+      <c r="K384" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D385" t="s">
+        <v>520</v>
+      </c>
+      <c r="E385" t="s">
+        <v>521</v>
+      </c>
+      <c r="F385" t="s">
+        <v>522</v>
+      </c>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I385">
+        <v>104</v>
+      </c>
+      <c r="J385" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D386" t="s">
+        <v>525</v>
+      </c>
+      <c r="E386" t="s">
+        <v>526</v>
+      </c>
+      <c r="F386" t="s">
+        <v>527</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H386" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I386">
+        <v>44</v>
+      </c>
+      <c r="J386" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D387" t="s">
+        <v>532</v>
+      </c>
+      <c r="E387" t="s">
+        <v>533</v>
+      </c>
+      <c r="F387" t="s">
+        <v>534</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H387" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I387">
+        <v>23</v>
+      </c>
+      <c r="J387" t="s">
+        <v>538</v>
+      </c>
+      <c r="K387" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D388" t="s">
+        <v>539</v>
+      </c>
+      <c r="E388" t="s">
+        <v>540</v>
+      </c>
+      <c r="F388" t="s">
+        <v>541</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H388" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I388">
+        <v>423</v>
+      </c>
+      <c r="J388" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D389" t="s">
+        <v>546</v>
+      </c>
+      <c r="E389" t="s">
+        <v>547</v>
+      </c>
+      <c r="F389" t="s">
+        <v>548</v>
+      </c>
+      <c r="G389" s="1"/>
+      <c r="H389" s="1">
+        <v>169</v>
+      </c>
+      <c r="I389">
+        <v>522</v>
+      </c>
+      <c r="J389" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D390" t="s">
+        <v>552</v>
+      </c>
+      <c r="E390" t="s">
+        <v>553</v>
+      </c>
+      <c r="F390" t="s">
+        <v>554</v>
+      </c>
+      <c r="G390" s="1"/>
+      <c r="H390" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J390" t="s">
+        <v>556</v>
+      </c>
+      <c r="K390" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D391" t="s">
+        <v>557</v>
+      </c>
+      <c r="E391" t="s">
+        <v>558</v>
+      </c>
+      <c r="F391" t="s">
+        <v>559</v>
+      </c>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I391">
+        <v>30</v>
+      </c>
+      <c r="J391" t="s">
+        <v>561</v>
+      </c>
+      <c r="K391" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>10</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D392" t="s">
+        <v>562</v>
+      </c>
+      <c r="E392" t="s">
+        <v>563</v>
+      </c>
+      <c r="F392" t="s">
+        <v>564</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H392" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I392">
+        <v>302</v>
+      </c>
+      <c r="J392" t="s">
+        <v>568</v>
+      </c>
+      <c r="K392" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>10</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D393" t="s">
+        <v>569</v>
+      </c>
+      <c r="E393" t="s">
+        <v>570</v>
+      </c>
+      <c r="F393" t="s">
+        <v>571</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H393" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I393">
+        <v>1435</v>
+      </c>
+      <c r="J393" t="s">
+        <v>575</v>
+      </c>
+      <c r="K393" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D394" t="s">
+        <v>576</v>
+      </c>
+      <c r="E394" t="s">
+        <v>577</v>
+      </c>
+      <c r="F394" t="s">
+        <v>578</v>
+      </c>
+      <c r="G394" s="1"/>
+      <c r="H394" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I394">
+        <v>101</v>
+      </c>
+      <c r="J394" t="s">
+        <v>580</v>
+      </c>
+      <c r="K394" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>10</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D395" t="s">
+        <v>581</v>
+      </c>
+      <c r="E395" t="s">
+        <v>582</v>
+      </c>
+      <c r="F395" t="s">
+        <v>583</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H395" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I395">
+        <v>135</v>
+      </c>
+      <c r="J395" t="s">
+        <v>587</v>
+      </c>
+      <c r="K395" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>10</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D396" t="s">
+        <v>588</v>
+      </c>
+      <c r="E396" t="s">
+        <v>589</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H396" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I396">
+        <v>231</v>
+      </c>
+      <c r="J396" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>10</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D397" t="s">
+        <v>595</v>
+      </c>
+      <c r="E397" t="s">
+        <v>596</v>
+      </c>
+      <c r="F397" t="s">
+        <v>597</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H397" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I397">
+        <v>29</v>
+      </c>
+      <c r="J397" t="s">
+        <v>601</v>
+      </c>
+      <c r="K397" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D398" t="s">
+        <v>602</v>
+      </c>
+      <c r="E398" t="s">
+        <v>603</v>
+      </c>
+      <c r="F398" t="s">
+        <v>604</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H398" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I398">
+        <v>75</v>
+      </c>
+      <c r="J398" t="s">
+        <v>607</v>
+      </c>
+      <c r="K398" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>10</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D399" t="s">
+        <v>608</v>
+      </c>
+      <c r="E399" t="s">
+        <v>609</v>
+      </c>
+      <c r="F399" t="s">
+        <v>610</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H399" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I399">
+        <v>27</v>
+      </c>
+      <c r="J399" t="s">
+        <v>613</v>
+      </c>
+      <c r="K399" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D400" t="s">
+        <v>614</v>
+      </c>
+      <c r="E400" t="s">
+        <v>615</v>
+      </c>
+      <c r="F400" t="s">
+        <v>616</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H400" s="1">
+        <v>6</v>
+      </c>
+      <c r="I400">
+        <v>30</v>
+      </c>
+      <c r="J400" t="s">
+        <v>619</v>
+      </c>
+      <c r="K400" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D401" t="s">
+        <v>620</v>
+      </c>
+      <c r="E401" t="s">
+        <v>621</v>
+      </c>
+      <c r="F401" t="s">
+        <v>622</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H401" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I401">
+        <v>209</v>
+      </c>
+      <c r="J401" t="s">
+        <v>626</v>
+      </c>
+      <c r="K401" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D402" t="s">
+        <v>627</v>
+      </c>
+      <c r="E402" t="s">
+        <v>628</v>
+      </c>
+      <c r="F402" t="s">
+        <v>629</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H402" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I402">
+        <v>18</v>
+      </c>
+      <c r="J402" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D403" t="s">
+        <v>634</v>
+      </c>
+      <c r="E403" t="s">
+        <v>635</v>
+      </c>
+      <c r="F403" t="s">
+        <v>636</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H403" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I403">
+        <v>403</v>
+      </c>
+      <c r="J403" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D404" t="s">
+        <v>641</v>
+      </c>
+      <c r="E404" t="s">
+        <v>642</v>
+      </c>
+      <c r="F404" t="s">
+        <v>643</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H404" s="1">
+        <v>203</v>
+      </c>
+      <c r="I404">
+        <v>193</v>
+      </c>
+      <c r="J404" t="s">
+        <v>647</v>
+      </c>
+      <c r="K404" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D405" t="s">
+        <v>648</v>
+      </c>
+      <c r="E405" t="s">
+        <v>649</v>
+      </c>
+      <c r="F405" t="s">
+        <v>650</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H405" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I405">
+        <v>99</v>
+      </c>
+      <c r="J405" t="s">
+        <v>654</v>
+      </c>
+      <c r="K405" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D406" t="s">
+        <v>655</v>
+      </c>
+      <c r="E406" t="s">
+        <v>656</v>
+      </c>
+      <c r="F406" t="s">
+        <v>657</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H406" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I406">
+        <v>386</v>
+      </c>
+      <c r="J406" t="s">
+        <v>660</v>
+      </c>
+      <c r="K406" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D407" t="s">
+        <v>661</v>
+      </c>
+      <c r="E407" t="s">
+        <v>662</v>
+      </c>
+      <c r="F407" t="s">
+        <v>663</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H407" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I407">
+        <v>1055</v>
+      </c>
+      <c r="J407" t="s">
+        <v>666</v>
+      </c>
+      <c r="K407" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D408" t="s">
+        <v>667</v>
+      </c>
+      <c r="E408" t="s">
+        <v>668</v>
+      </c>
+      <c r="F408" t="s">
+        <v>669</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H408" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I408">
+        <v>307</v>
+      </c>
+      <c r="J408" t="s">
+        <v>672</v>
+      </c>
+      <c r="K408" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>10</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D409" t="s">
+        <v>673</v>
+      </c>
+      <c r="E409" t="s">
+        <v>674</v>
+      </c>
+      <c r="F409" t="s">
+        <v>675</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H409" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I409">
+        <v>1172</v>
+      </c>
+      <c r="J409" t="s">
+        <v>679</v>
+      </c>
+      <c r="K409" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D410" t="s">
+        <v>680</v>
+      </c>
+      <c r="E410" t="s">
+        <v>681</v>
+      </c>
+      <c r="F410" t="s">
+        <v>682</v>
+      </c>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I410">
+        <v>156</v>
+      </c>
+      <c r="J410" t="s">
+        <v>685</v>
+      </c>
+      <c r="K410" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>10</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D411" t="s">
+        <v>686</v>
+      </c>
+      <c r="E411" t="s">
+        <v>687</v>
+      </c>
+      <c r="F411" t="s">
+        <v>688</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H411" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I411">
+        <v>31</v>
+      </c>
+      <c r="J411" t="s">
+        <v>691</v>
+      </c>
+      <c r="K411" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D412" t="s">
+        <v>692</v>
+      </c>
+      <c r="E412" t="s">
+        <v>693</v>
+      </c>
+      <c r="F412" t="s">
+        <v>694</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H412" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I412">
+        <v>471</v>
+      </c>
+      <c r="J412" t="s">
+        <v>697</v>
+      </c>
+      <c r="K412" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>10</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D413" t="s">
+        <v>698</v>
+      </c>
+      <c r="E413" t="s">
+        <v>699</v>
+      </c>
+      <c r="F413" t="s">
+        <v>700</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H413" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I413">
+        <v>37</v>
+      </c>
+      <c r="J413" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D414" t="s">
+        <v>704</v>
+      </c>
+      <c r="E414" t="s">
+        <v>705</v>
+      </c>
+      <c r="F414" t="s">
+        <v>706</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H414" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I414">
+        <v>58</v>
+      </c>
+      <c r="J414" t="s">
+        <v>710</v>
+      </c>
+      <c r="K414" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>10</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D415" t="s">
+        <v>711</v>
+      </c>
+      <c r="E415" t="s">
+        <v>712</v>
+      </c>
+      <c r="F415" t="s">
+        <v>713</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H415" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I415">
+        <v>624</v>
+      </c>
+      <c r="J415" t="s">
+        <v>717</v>
+      </c>
+      <c r="K415" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D416" t="s">
+        <v>718</v>
+      </c>
+      <c r="E416" t="s">
+        <v>719</v>
+      </c>
+      <c r="F416" t="s">
+        <v>720</v>
+      </c>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>1</v>
+      </c>
+      <c r="J416" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>10</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D417" t="s">
+        <v>724</v>
+      </c>
+      <c r="E417" t="s">
+        <v>725</v>
+      </c>
+      <c r="F417" t="s">
+        <v>726</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H417" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I417">
+        <v>69</v>
+      </c>
+      <c r="J417" t="s">
+        <v>729</v>
+      </c>
+      <c r="K417" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D418" t="s">
+        <v>730</v>
+      </c>
+      <c r="E418" t="s">
+        <v>731</v>
+      </c>
+      <c r="F418" t="s">
+        <v>732</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H418" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I418">
+        <v>979</v>
+      </c>
+      <c r="J418" t="s">
+        <v>736</v>
+      </c>
+      <c r="K418" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D419" t="s">
+        <v>737</v>
+      </c>
+      <c r="E419" t="s">
+        <v>738</v>
+      </c>
+      <c r="F419" t="s">
+        <v>739</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H419" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I419">
+        <v>320</v>
+      </c>
+      <c r="J419" t="s">
+        <v>743</v>
+      </c>
+      <c r="K419" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>10</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D420" t="s">
+        <v>744</v>
+      </c>
+      <c r="E420" t="s">
+        <v>745</v>
+      </c>
+      <c r="F420" t="s">
+        <v>746</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H420" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I420">
+        <v>610</v>
+      </c>
+      <c r="J420" t="s">
+        <v>750</v>
+      </c>
+      <c r="K420" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D421" t="s">
+        <v>751</v>
+      </c>
+      <c r="E421" t="s">
+        <v>752</v>
+      </c>
+      <c r="F421" t="s">
+        <v>753</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H421" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I421">
+        <v>128</v>
+      </c>
+      <c r="J421" t="s">
+        <v>757</v>
+      </c>
+      <c r="K421" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D422" t="s">
+        <v>758</v>
+      </c>
+      <c r="E422" t="s">
+        <v>759</v>
+      </c>
+      <c r="F422" t="s">
+        <v>760</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="H422" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I422">
+        <v>893</v>
+      </c>
+      <c r="J422" t="s">
+        <v>763</v>
+      </c>
+      <c r="K422" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D423" t="s">
+        <v>764</v>
+      </c>
+      <c r="E423" t="s">
+        <v>765</v>
+      </c>
+      <c r="F423" t="s">
+        <v>766</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H423" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I423">
+        <v>262</v>
+      </c>
+      <c r="J423" t="s">
+        <v>770</v>
+      </c>
+      <c r="K423" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D424" t="s">
+        <v>771</v>
+      </c>
+      <c r="E424" t="s">
+        <v>772</v>
+      </c>
+      <c r="F424" t="s">
+        <v>773</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H424" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I424">
+        <v>200</v>
+      </c>
+      <c r="J424" t="s">
+        <v>777</v>
+      </c>
+      <c r="K424" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>10</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D425" t="s">
+        <v>778</v>
+      </c>
+      <c r="E425" t="s">
+        <v>779</v>
+      </c>
+      <c r="F425" t="s">
+        <v>780</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H425" s="1">
+        <v>80</v>
+      </c>
+      <c r="I425">
+        <v>85</v>
+      </c>
+      <c r="J425" t="s">
+        <v>784</v>
+      </c>
+      <c r="K425" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>10</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D426" t="s">
+        <v>785</v>
+      </c>
+      <c r="E426" t="s">
+        <v>786</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H426" s="1">
+        <v>76</v>
+      </c>
+      <c r="I426">
+        <v>542</v>
+      </c>
+      <c r="J426" t="s">
+        <v>791</v>
+      </c>
+      <c r="K426" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>10</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D427" t="s">
+        <v>792</v>
+      </c>
+      <c r="E427" t="s">
+        <v>793</v>
+      </c>
+      <c r="F427" t="s">
+        <v>794</v>
+      </c>
+      <c r="G427" s="1"/>
+      <c r="H427" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I427">
+        <v>94</v>
+      </c>
+      <c r="J427" t="s">
+        <v>797</v>
+      </c>
+      <c r="K427" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D428" t="s">
+        <v>798</v>
+      </c>
+      <c r="E428" t="s">
+        <v>799</v>
+      </c>
+      <c r="F428" t="s">
+        <v>800</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H428" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I428">
+        <v>50</v>
+      </c>
+      <c r="J428" t="s">
+        <v>803</v>
+      </c>
+      <c r="K428" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>10</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D429" t="s">
+        <v>804</v>
+      </c>
+      <c r="E429" t="s">
+        <v>805</v>
+      </c>
+      <c r="F429" t="s">
+        <v>806</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H429" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I429">
+        <v>75</v>
+      </c>
+      <c r="J429" t="s">
+        <v>809</v>
+      </c>
+      <c r="K429" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>10</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D430" t="s">
+        <v>810</v>
+      </c>
+      <c r="E430" t="s">
+        <v>811</v>
+      </c>
+      <c r="F430" t="s">
+        <v>812</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H430" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I430">
+        <v>247</v>
+      </c>
+      <c r="J430" t="s">
+        <v>816</v>
+      </c>
+      <c r="K430" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>10</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D431" t="s">
+        <v>817</v>
+      </c>
+      <c r="E431" t="s">
+        <v>818</v>
+      </c>
+      <c r="F431" t="s">
+        <v>819</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H431" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I431">
+        <v>60</v>
+      </c>
+      <c r="J431" t="s">
+        <v>822</v>
+      </c>
+      <c r="K431" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>10</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D432" t="s">
+        <v>823</v>
+      </c>
+      <c r="E432" t="s">
+        <v>824</v>
+      </c>
+      <c r="F432" t="s">
+        <v>825</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H432" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I432">
+        <v>614</v>
+      </c>
+      <c r="J432" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D433" t="s">
+        <v>830</v>
+      </c>
+      <c r="E433" t="s">
+        <v>831</v>
+      </c>
+      <c r="F433" t="s">
+        <v>832</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H433" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I433">
+        <v>90</v>
+      </c>
+      <c r="J433" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>10</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D434" t="s">
+        <v>837</v>
+      </c>
+      <c r="E434" t="s">
+        <v>838</v>
+      </c>
+      <c r="F434" t="s">
+        <v>839</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H434" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I434">
+        <v>58</v>
+      </c>
+      <c r="J434" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>10</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D435" t="s">
+        <v>843</v>
+      </c>
+      <c r="E435" t="s">
+        <v>844</v>
+      </c>
+      <c r="F435" t="s">
+        <v>845</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="H435" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I435">
+        <v>577</v>
+      </c>
+      <c r="J435" t="s">
+        <v>849</v>
+      </c>
+      <c r="K435" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D436" t="s">
+        <v>850</v>
+      </c>
+      <c r="E436" t="s">
+        <v>851</v>
+      </c>
+      <c r="F436" t="s">
+        <v>852</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H436" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I436">
+        <v>56</v>
+      </c>
+      <c r="J436" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>10</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D437" t="s">
+        <v>539</v>
+      </c>
+      <c r="E437" t="s">
+        <v>857</v>
+      </c>
+      <c r="F437" t="s">
+        <v>858</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H437" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I437">
+        <v>819</v>
+      </c>
+      <c r="J437" t="s">
+        <v>862</v>
+      </c>
+      <c r="K437" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D438" t="s">
+        <v>863</v>
+      </c>
+      <c r="E438" t="s">
+        <v>864</v>
+      </c>
+      <c r="F438" t="s">
+        <v>865</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H438" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I438">
+        <v>1163</v>
+      </c>
+      <c r="J438" t="s">
+        <v>869</v>
+      </c>
+      <c r="K438" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>10</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D439" t="s">
+        <v>870</v>
+      </c>
+      <c r="E439" t="s">
+        <v>871</v>
+      </c>
+      <c r="F439" t="s">
+        <v>872</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H439" s="1">
+        <v>120</v>
+      </c>
+      <c r="I439">
+        <v>175</v>
+      </c>
+      <c r="J439" t="s">
+        <v>876</v>
+      </c>
+      <c r="K439" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D440" t="s">
+        <v>877</v>
+      </c>
+      <c r="E440" t="s">
+        <v>878</v>
+      </c>
+      <c r="F440" t="s">
+        <v>879</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H440" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I440">
+        <v>175</v>
+      </c>
+      <c r="J440" t="s">
+        <v>882</v>
+      </c>
+      <c r="K440" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>10</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D441" t="s">
+        <v>883</v>
+      </c>
+      <c r="E441" t="s">
+        <v>884</v>
+      </c>
+      <c r="F441" t="s">
+        <v>885</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H441" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I441">
+        <v>79</v>
+      </c>
+      <c r="J441" t="s">
+        <v>889</v>
+      </c>
+      <c r="K441" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D442" t="s">
+        <v>890</v>
+      </c>
+      <c r="E442" t="s">
+        <v>891</v>
+      </c>
+      <c r="F442" t="s">
+        <v>892</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="H442" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I442">
+        <v>401</v>
+      </c>
+      <c r="J442" t="s">
+        <v>896</v>
+      </c>
+      <c r="K442" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D443" t="s">
+        <v>897</v>
+      </c>
+      <c r="E443" t="s">
+        <v>898</v>
+      </c>
+      <c r="F443" t="s">
+        <v>899</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="H443" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I443">
+        <v>98</v>
+      </c>
+      <c r="J443" t="s">
+        <v>903</v>
+      </c>
+      <c r="K443" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D444" t="s">
+        <v>904</v>
+      </c>
+      <c r="E444" t="s">
+        <v>905</v>
+      </c>
+      <c r="F444" t="s">
+        <v>906</v>
+      </c>
+      <c r="G444" s="1"/>
+      <c r="H444" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I444">
+        <v>45</v>
+      </c>
+      <c r="J444" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>10</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D445" t="s">
+        <v>909</v>
+      </c>
+      <c r="E445" t="s">
+        <v>910</v>
+      </c>
+      <c r="F445" t="s">
+        <v>911</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H445" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I445">
+        <v>108</v>
+      </c>
+      <c r="J445" t="s">
+        <v>915</v>
+      </c>
+      <c r="K445" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D446" t="s">
+        <v>916</v>
+      </c>
+      <c r="E446" t="s">
+        <v>917</v>
+      </c>
+      <c r="F446" t="s">
+        <v>918</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H446" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I446">
+        <v>35</v>
+      </c>
+      <c r="J446" t="s">
+        <v>922</v>
+      </c>
+      <c r="K446" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>10</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D447" t="s">
+        <v>923</v>
+      </c>
+      <c r="E447" t="s">
+        <v>924</v>
+      </c>
+      <c r="F447" t="s">
+        <v>925</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H447" s="1">
+        <v>250</v>
+      </c>
+      <c r="I447">
+        <v>122</v>
+      </c>
+      <c r="J447" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D448" t="s">
+        <v>930</v>
+      </c>
+      <c r="E448" t="s">
+        <v>931</v>
+      </c>
+      <c r="F448" t="s">
+        <v>932</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H448" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I448">
+        <v>71</v>
+      </c>
+      <c r="J448" t="s">
+        <v>935</v>
+      </c>
+      <c r="K448" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D449" t="s">
+        <v>936</v>
+      </c>
+      <c r="E449" t="s">
+        <v>937</v>
+      </c>
+      <c r="F449" t="s">
+        <v>938</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H449" s="1">
+        <v>96</v>
+      </c>
+      <c r="I449">
+        <v>632</v>
+      </c>
+      <c r="J449" t="s">
+        <v>942</v>
+      </c>
+      <c r="K449" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B450" t="s">
+        <v>10</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D450" t="s">
+        <v>943</v>
+      </c>
+      <c r="E450" t="s">
+        <v>944</v>
+      </c>
+      <c r="F450" t="s">
+        <v>945</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="H450" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I450">
+        <v>650</v>
+      </c>
+      <c r="J450" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>10</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D451" t="s">
+        <v>950</v>
+      </c>
+      <c r="E451" t="s">
+        <v>951</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H451" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I451">
+        <v>1933</v>
+      </c>
+      <c r="J451" t="s">
+        <v>956</v>
+      </c>
+      <c r="K451" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D452" t="s">
+        <v>957</v>
+      </c>
+      <c r="E452" t="s">
+        <v>958</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="H452" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I452">
+        <v>196</v>
+      </c>
+      <c r="J452" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B453" t="s">
+        <v>10</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D453" t="s">
+        <v>963</v>
+      </c>
+      <c r="E453" t="s">
+        <v>964</v>
+      </c>
+      <c r="F453" t="s">
+        <v>965</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="H453" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I453">
+        <v>36</v>
+      </c>
+      <c r="J453" t="s">
+        <v>969</v>
+      </c>
+      <c r="K453" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B454" t="s">
+        <v>10</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D454" t="s">
+        <v>970</v>
+      </c>
+      <c r="E454" t="s">
+        <v>971</v>
+      </c>
+      <c r="F454" t="s">
+        <v>972</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="H454" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I454">
+        <v>172</v>
+      </c>
+      <c r="J454" t="s">
+        <v>976</v>
+      </c>
+      <c r="K454" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>10</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D455" t="s">
+        <v>977</v>
+      </c>
+      <c r="E455" t="s">
+        <v>978</v>
+      </c>
+      <c r="F455" t="s">
+        <v>979</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="H455" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I455">
+        <v>6360</v>
+      </c>
+      <c r="J455" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D456" t="s">
+        <v>983</v>
+      </c>
+      <c r="E456" t="s">
+        <v>984</v>
+      </c>
+      <c r="F456" t="s">
+        <v>985</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="H456" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I456">
+        <v>37</v>
+      </c>
+      <c r="J456" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B457" t="s">
+        <v>10</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D457" t="s">
+        <v>988</v>
+      </c>
+      <c r="E457" t="s">
+        <v>989</v>
+      </c>
+      <c r="F457" t="s">
+        <v>990</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="H457" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I457">
+        <v>191</v>
+      </c>
+      <c r="J457" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B458" t="s">
+        <v>10</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D458" t="s">
+        <v>995</v>
+      </c>
+      <c r="E458" t="s">
+        <v>996</v>
+      </c>
+      <c r="F458" t="s">
+        <v>997</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H458" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I458">
+        <v>196</v>
+      </c>
+      <c r="J458" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K458" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H459" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I459">
+        <v>3389</v>
+      </c>
+      <c r="J459" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B460" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G460" s="1"/>
+      <c r="H460" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I460">
+        <v>14</v>
+      </c>
+      <c r="J460" t="s">
         <v>1014</v>
       </c>
     </row>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="1080">
   <si>
     <t>DATE</t>
   </si>
@@ -5423,6 +5423,9 @@
 ADD TO CART
 ADD TO WISHLIST
  Pinit SharePost</t>
+  </si>
+  <si>
+    <t>03:49 PM PDT</t>
   </si>
 </sst>
 </file>
@@ -5803,7 +5806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K460"/>
+  <dimension ref="A1:L613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5818,8 +5821,7 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="100.33203125" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="80" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14881,7 +14883,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>10</v>
       </c>
@@ -14910,7 +14912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>10</v>
       </c>
@@ -14937,7 +14939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>10</v>
       </c>
@@ -14964,7 +14966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>10</v>
       </c>
@@ -15023,7 +15025,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>10</v>
       </c>
@@ -15532,7 +15534,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>10</v>
       </c>
@@ -15591,7 +15593,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>10</v>
       </c>
@@ -15618,7 +15620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>10</v>
       </c>
@@ -15709,7 +15711,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>10</v>
       </c>
@@ -15736,7 +15738,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>10</v>
       </c>
@@ -15763,7 +15765,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>10</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>10</v>
       </c>
@@ -16201,7 +16203,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>10</v>
       </c>
@@ -16292,7 +16294,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>10</v>
       </c>
@@ -16319,7 +16321,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>10</v>
       </c>
@@ -16348,7 +16350,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>10</v>
       </c>
@@ -16567,7 +16569,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>10</v>
       </c>
@@ -16628,7 +16630,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>10</v>
       </c>
@@ -16655,7 +16657,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>10</v>
       </c>
@@ -16842,7 +16844,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>10</v>
       </c>
@@ -16901,7 +16903,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>10</v>
       </c>
@@ -17024,7 +17026,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>10</v>
       </c>
@@ -17147,7 +17149,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>10</v>
       </c>
@@ -17240,7 +17242,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>10</v>
       </c>
@@ -17267,7 +17269,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>10</v>
       </c>
@@ -17328,7 +17330,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>10</v>
       </c>
@@ -17357,7 +17359,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>10</v>
       </c>
@@ -17567,7 +17569,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>10</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>10</v>
       </c>
@@ -17785,7 +17787,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>10</v>
       </c>
@@ -18100,7 +18102,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>10</v>
       </c>
@@ -18193,7 +18195,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>10</v>
       </c>
@@ -18698,7 +18700,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>10</v>
       </c>
@@ -18727,7 +18729,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>10</v>
       </c>
@@ -18756,7 +18758,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>10</v>
       </c>
@@ -18817,7 +18819,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>10</v>
       </c>
@@ -19070,7 +19072,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>10</v>
       </c>
@@ -19161,7 +19163,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>10</v>
       </c>
@@ -19254,7 +19256,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>10</v>
       </c>
@@ -19315,7 +19317,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>10</v>
       </c>
@@ -19408,7 +19410,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>10</v>
       </c>
@@ -19437,7 +19439,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
         <v>10</v>
       </c>
@@ -19466,7 +19468,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>10</v>
       </c>
@@ -19527,7 +19529,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>10</v>
       </c>
@@ -19556,7 +19558,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>10</v>
       </c>
@@ -19580,6 +19582,4708 @@
         <v>14</v>
       </c>
       <c r="J460" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="461" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C461" t="s">
+        <v>10</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E461" t="s">
+        <v>12</v>
+      </c>
+      <c r="F461" t="s">
+        <v>13</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I461">
+        <v>90.5</v>
+      </c>
+      <c r="J461">
+        <v>78</v>
+      </c>
+      <c r="K461" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="462" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C462" t="s">
+        <v>10</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E462" t="s">
+        <v>19</v>
+      </c>
+      <c r="F462" t="s">
+        <v>20</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H462" s="1"/>
+      <c r="I462">
+        <v>21.57</v>
+      </c>
+      <c r="J462">
+        <v>69</v>
+      </c>
+      <c r="K462" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="463" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C463" t="s">
+        <v>10</v>
+      </c>
+      <c r="D463" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E463" t="s">
+        <v>25</v>
+      </c>
+      <c r="F463" t="s">
+        <v>26</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H463" s="1"/>
+      <c r="I463">
+        <v>3.48</v>
+      </c>
+      <c r="J463">
+        <v>229</v>
+      </c>
+      <c r="K463" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="464" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C464" t="s">
+        <v>10</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E464" t="s">
+        <v>31</v>
+      </c>
+      <c r="F464" t="s">
+        <v>32</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H464" s="1"/>
+      <c r="I464">
+        <v>13.94</v>
+      </c>
+      <c r="J464">
+        <v>110</v>
+      </c>
+      <c r="K464" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="465" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C465" t="s">
+        <v>10</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E465" t="s">
+        <v>37</v>
+      </c>
+      <c r="F465" t="s">
+        <v>38</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I465">
+        <v>27.59</v>
+      </c>
+      <c r="J465">
+        <v>114</v>
+      </c>
+      <c r="K465" t="s">
+        <v>43</v>
+      </c>
+      <c r="L465" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="466" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C466" t="s">
+        <v>10</v>
+      </c>
+      <c r="D466" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E466" t="s">
+        <v>44</v>
+      </c>
+      <c r="F466" t="s">
+        <v>45</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I466">
+        <v>5.79</v>
+      </c>
+      <c r="J466">
+        <v>50</v>
+      </c>
+      <c r="K466" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="467" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C467" t="s">
+        <v>10</v>
+      </c>
+      <c r="D467" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E467" t="s">
+        <v>51</v>
+      </c>
+      <c r="F467" t="s">
+        <v>52</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I467">
+        <v>14.99</v>
+      </c>
+      <c r="J467">
+        <v>42</v>
+      </c>
+      <c r="K467" t="s">
+        <v>57</v>
+      </c>
+      <c r="L467" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="468" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C468" t="s">
+        <v>10</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E468" t="s">
+        <v>58</v>
+      </c>
+      <c r="F468" t="s">
+        <v>59</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I468">
+        <v>220.51</v>
+      </c>
+      <c r="J468">
+        <v>212</v>
+      </c>
+      <c r="K468" t="s">
+        <v>64</v>
+      </c>
+      <c r="L468" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="469" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C469" t="s">
+        <v>10</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E469" t="s">
+        <v>65</v>
+      </c>
+      <c r="F469" t="s">
+        <v>66</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I469">
+        <v>6.98</v>
+      </c>
+      <c r="J469">
+        <v>75</v>
+      </c>
+      <c r="K469" t="s">
+        <v>71</v>
+      </c>
+      <c r="L469" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="470" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C470" t="s">
+        <v>10</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E470" t="s">
+        <v>72</v>
+      </c>
+      <c r="F470" t="s">
+        <v>73</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I470">
+        <v>16.44</v>
+      </c>
+      <c r="J470">
+        <v>206</v>
+      </c>
+      <c r="K470" t="s">
+        <v>78</v>
+      </c>
+      <c r="L470" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="471" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C471" t="s">
+        <v>10</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E471" t="s">
+        <v>79</v>
+      </c>
+      <c r="F471" t="s">
+        <v>80</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I471">
+        <v>19.43</v>
+      </c>
+      <c r="J471">
+        <v>16</v>
+      </c>
+      <c r="K471" t="s">
+        <v>85</v>
+      </c>
+      <c r="L471" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="472" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
+        <v>10</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E472" t="s">
+        <v>86</v>
+      </c>
+      <c r="F472" t="s">
+        <v>87</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I472">
+        <v>18.16</v>
+      </c>
+      <c r="J472">
+        <v>60</v>
+      </c>
+      <c r="K472" t="s">
+        <v>92</v>
+      </c>
+      <c r="L472" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="473" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C473" t="s">
+        <v>10</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E473" t="s">
+        <v>93</v>
+      </c>
+      <c r="F473" t="s">
+        <v>94</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I473">
+        <v>110.36</v>
+      </c>
+      <c r="J473">
+        <v>438</v>
+      </c>
+      <c r="K473" t="s">
+        <v>99</v>
+      </c>
+      <c r="L473" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="474" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
+        <v>10</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E474" t="s">
+        <v>100</v>
+      </c>
+      <c r="F474" t="s">
+        <v>101</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I474">
+        <v>41.41</v>
+      </c>
+      <c r="J474">
+        <v>30</v>
+      </c>
+      <c r="K474" t="s">
+        <v>106</v>
+      </c>
+      <c r="L474" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="475" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
+        <v>10</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E475" t="s">
+        <v>107</v>
+      </c>
+      <c r="F475" t="s">
+        <v>108</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I475">
+        <v>6.53</v>
+      </c>
+      <c r="J475">
+        <v>115</v>
+      </c>
+      <c r="K475" t="s">
+        <v>113</v>
+      </c>
+      <c r="L475" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="476" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C476" t="s">
+        <v>10</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E476" t="s">
+        <v>114</v>
+      </c>
+      <c r="F476" t="s">
+        <v>115</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I476">
+        <v>2.15</v>
+      </c>
+      <c r="J476">
+        <v>63</v>
+      </c>
+      <c r="K476" t="s">
+        <v>120</v>
+      </c>
+      <c r="L476" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="477" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C477" t="s">
+        <v>10</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E477" t="s">
+        <v>121</v>
+      </c>
+      <c r="F477" t="s">
+        <v>122</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I477">
+        <v>2.76</v>
+      </c>
+      <c r="J477">
+        <v>37</v>
+      </c>
+      <c r="K477" t="s">
+        <v>127</v>
+      </c>
+      <c r="L477" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="478" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
+        <v>10</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E478" t="s">
+        <v>128</v>
+      </c>
+      <c r="F478" t="s">
+        <v>129</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I478">
+        <v>6.22</v>
+      </c>
+      <c r="J478">
+        <v>16</v>
+      </c>
+      <c r="K478" t="s">
+        <v>133</v>
+      </c>
+      <c r="L478" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="479" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
+        <v>10</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E479" t="s">
+        <v>134</v>
+      </c>
+      <c r="F479" t="s">
+        <v>135</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I479">
+        <v>4.24</v>
+      </c>
+      <c r="J479">
+        <v>76</v>
+      </c>
+      <c r="K479" t="s">
+        <v>140</v>
+      </c>
+      <c r="L479" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="480" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
+        <v>10</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E480" t="s">
+        <v>141</v>
+      </c>
+      <c r="F480" t="s">
+        <v>142</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I480">
+        <v>3.11</v>
+      </c>
+      <c r="J480">
+        <v>171</v>
+      </c>
+      <c r="K480" t="s">
+        <v>147</v>
+      </c>
+      <c r="L480" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="481" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C481" t="s">
+        <v>10</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E481" t="s">
+        <v>148</v>
+      </c>
+      <c r="F481" t="s">
+        <v>149</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I481">
+        <v>7.93</v>
+      </c>
+      <c r="J481">
+        <v>76</v>
+      </c>
+      <c r="K481" t="s">
+        <v>153</v>
+      </c>
+      <c r="L481" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="482" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C482" t="s">
+        <v>10</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E482" t="s">
+        <v>154</v>
+      </c>
+      <c r="F482" t="s">
+        <v>155</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H482" s="1"/>
+      <c r="I482">
+        <v>19.87</v>
+      </c>
+      <c r="J482">
+        <v>120</v>
+      </c>
+      <c r="K482" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="483" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C483" t="s">
+        <v>10</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E483" t="s">
+        <v>160</v>
+      </c>
+      <c r="F483" t="s">
+        <v>161</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I483">
+        <v>2.23</v>
+      </c>
+      <c r="J483">
+        <v>84</v>
+      </c>
+      <c r="K483" t="s">
+        <v>166</v>
+      </c>
+      <c r="L483" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="484" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>10</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E484" t="s">
+        <v>167</v>
+      </c>
+      <c r="F484" t="s">
+        <v>168</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H484" s="1"/>
+      <c r="I484">
+        <v>24.71</v>
+      </c>
+      <c r="J484">
+        <v>31</v>
+      </c>
+      <c r="K484" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="485" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C485" t="s">
+        <v>10</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E485" t="s">
+        <v>173</v>
+      </c>
+      <c r="F485" t="s">
+        <v>174</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H485" s="1"/>
+      <c r="I485">
+        <v>2.23</v>
+      </c>
+      <c r="J485">
+        <v>66</v>
+      </c>
+      <c r="K485" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="486" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C486" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E486" t="s">
+        <v>178</v>
+      </c>
+      <c r="F486" t="s">
+        <v>179</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I486">
+        <v>4.26</v>
+      </c>
+      <c r="J486">
+        <v>40</v>
+      </c>
+      <c r="K486" t="s">
+        <v>184</v>
+      </c>
+      <c r="L486" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="487" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>10</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E487" t="s">
+        <v>185</v>
+      </c>
+      <c r="F487" t="s">
+        <v>186</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I487">
+        <v>10.94</v>
+      </c>
+      <c r="J487">
+        <v>397</v>
+      </c>
+      <c r="K487" t="s">
+        <v>191</v>
+      </c>
+      <c r="L487" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="488" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C488" t="s">
+        <v>10</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E488" t="s">
+        <v>192</v>
+      </c>
+      <c r="F488" t="s">
+        <v>193</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H488" s="1"/>
+      <c r="I488">
+        <v>6.74</v>
+      </c>
+      <c r="J488">
+        <v>27</v>
+      </c>
+      <c r="K488" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="489" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C489" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E489" t="s">
+        <v>198</v>
+      </c>
+      <c r="F489" t="s">
+        <v>199</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H489" s="1"/>
+      <c r="I489">
+        <v>4.28</v>
+      </c>
+      <c r="J489">
+        <v>38</v>
+      </c>
+      <c r="K489" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="490" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C490" t="s">
+        <v>10</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E490" t="s">
+        <v>204</v>
+      </c>
+      <c r="F490" t="s">
+        <v>205</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I490">
+        <v>262.8</v>
+      </c>
+      <c r="J490">
+        <v>805</v>
+      </c>
+      <c r="K490" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="491" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C491" t="s">
+        <v>10</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E491" t="s">
+        <v>211</v>
+      </c>
+      <c r="F491" t="s">
+        <v>212</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I491">
+        <v>33.48</v>
+      </c>
+      <c r="J491">
+        <v>54</v>
+      </c>
+      <c r="K491" t="s">
+        <v>217</v>
+      </c>
+      <c r="L491" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="492" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C492" t="s">
+        <v>10</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E492" t="s">
+        <v>218</v>
+      </c>
+      <c r="F492" t="s">
+        <v>219</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I492">
+        <v>7.48</v>
+      </c>
+      <c r="J492">
+        <v>221</v>
+      </c>
+      <c r="K492" t="s">
+        <v>224</v>
+      </c>
+      <c r="L492" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="493" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E493" t="s">
+        <v>225</v>
+      </c>
+      <c r="F493" t="s">
+        <v>226</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I493">
+        <v>9.63</v>
+      </c>
+      <c r="J493">
+        <v>377</v>
+      </c>
+      <c r="K493" t="s">
+        <v>231</v>
+      </c>
+      <c r="L493" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="494" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C494" t="s">
+        <v>10</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E494" t="s">
+        <v>232</v>
+      </c>
+      <c r="F494" t="s">
+        <v>233</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I494">
+        <v>5.19</v>
+      </c>
+      <c r="J494">
+        <v>101</v>
+      </c>
+      <c r="K494" t="s">
+        <v>238</v>
+      </c>
+      <c r="L494" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="495" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C495" t="s">
+        <v>10</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E495" t="s">
+        <v>239</v>
+      </c>
+      <c r="F495" t="s">
+        <v>240</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I495">
+        <v>18.75</v>
+      </c>
+      <c r="J495">
+        <v>344</v>
+      </c>
+      <c r="K495" t="s">
+        <v>245</v>
+      </c>
+      <c r="L495" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="496" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C496" t="s">
+        <v>10</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E496" t="s">
+        <v>246</v>
+      </c>
+      <c r="F496" t="s">
+        <v>247</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I496">
+        <v>18.75</v>
+      </c>
+      <c r="J496">
+        <v>710</v>
+      </c>
+      <c r="K496" t="s">
+        <v>251</v>
+      </c>
+      <c r="L496" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="497" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C497" t="s">
+        <v>10</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E497" t="s">
+        <v>252</v>
+      </c>
+      <c r="F497" t="s">
+        <v>253</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I497">
+        <v>18.75</v>
+      </c>
+      <c r="J497">
+        <v>241</v>
+      </c>
+      <c r="K497" t="s">
+        <v>257</v>
+      </c>
+      <c r="L497" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="498" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C498" t="s">
+        <v>10</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E498" t="s">
+        <v>258</v>
+      </c>
+      <c r="F498" t="s">
+        <v>259</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H498" s="1"/>
+      <c r="I498">
+        <v>16.53</v>
+      </c>
+      <c r="J498">
+        <v>71</v>
+      </c>
+      <c r="K498" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="499" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C499" t="s">
+        <v>10</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E499" t="s">
+        <v>264</v>
+      </c>
+      <c r="F499" t="s">
+        <v>265</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I499">
+        <v>27.54</v>
+      </c>
+      <c r="J499">
+        <v>186</v>
+      </c>
+      <c r="K499" t="s">
+        <v>270</v>
+      </c>
+      <c r="L499" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="500" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C500" t="s">
+        <v>10</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E500" t="s">
+        <v>271</v>
+      </c>
+      <c r="F500" t="s">
+        <v>272</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H500" s="1"/>
+      <c r="I500">
+        <v>4.91</v>
+      </c>
+      <c r="J500">
+        <v>21</v>
+      </c>
+      <c r="K500" t="s">
+        <v>276</v>
+      </c>
+      <c r="L500" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="501" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C501" t="s">
+        <v>10</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E501" t="s">
+        <v>277</v>
+      </c>
+      <c r="F501" t="s">
+        <v>278</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I501">
+        <v>12.77</v>
+      </c>
+      <c r="J501">
+        <v>192</v>
+      </c>
+      <c r="K501" t="s">
+        <v>283</v>
+      </c>
+      <c r="L501" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="502" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C502" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E502" t="s">
+        <v>284</v>
+      </c>
+      <c r="F502" t="s">
+        <v>285</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I502">
+        <v>5.22</v>
+      </c>
+      <c r="J502">
+        <v>118</v>
+      </c>
+      <c r="K502" t="s">
+        <v>290</v>
+      </c>
+      <c r="L502" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="503" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C503" t="s">
+        <v>10</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E503" t="s">
+        <v>291</v>
+      </c>
+      <c r="F503" t="s">
+        <v>292</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I503">
+        <v>10.16</v>
+      </c>
+      <c r="J503">
+        <v>40</v>
+      </c>
+      <c r="K503" t="s">
+        <v>296</v>
+      </c>
+      <c r="L503" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="504" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C504" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E504" t="s">
+        <v>297</v>
+      </c>
+      <c r="F504" t="s">
+        <v>298</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H504" s="1"/>
+      <c r="I504">
+        <v>6.96</v>
+      </c>
+      <c r="J504">
+        <v>34</v>
+      </c>
+      <c r="K504" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="505" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
+        <v>10</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E505" t="s">
+        <v>303</v>
+      </c>
+      <c r="F505" t="s">
+        <v>304</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I505">
+        <v>55.65</v>
+      </c>
+      <c r="J505">
+        <v>424</v>
+      </c>
+      <c r="K505" t="s">
+        <v>309</v>
+      </c>
+      <c r="L505" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="506" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C506" t="s">
+        <v>10</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E506" t="s">
+        <v>310</v>
+      </c>
+      <c r="F506" t="s">
+        <v>311</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I506">
+        <v>12.31</v>
+      </c>
+      <c r="J506">
+        <v>121</v>
+      </c>
+      <c r="K506" t="s">
+        <v>316</v>
+      </c>
+      <c r="L506" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="507" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C507" t="s">
+        <v>10</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E507" t="s">
+        <v>317</v>
+      </c>
+      <c r="F507" t="s">
+        <v>318</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H507" s="1"/>
+      <c r="I507">
+        <v>39.73</v>
+      </c>
+      <c r="J507">
+        <v>45</v>
+      </c>
+      <c r="K507" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="508" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C508" t="s">
+        <v>10</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E508" t="s">
+        <v>323</v>
+      </c>
+      <c r="F508" t="s">
+        <v>324</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I508">
+        <v>683.47</v>
+      </c>
+      <c r="J508">
+        <v>12</v>
+      </c>
+      <c r="K508" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="509" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C509" t="s">
+        <v>10</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E509" t="s">
+        <v>330</v>
+      </c>
+      <c r="F509" t="s">
+        <v>331</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I509">
+        <v>60.5</v>
+      </c>
+      <c r="J509">
+        <v>660</v>
+      </c>
+      <c r="K509" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="510" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C510" t="s">
+        <v>10</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E510" t="s">
+        <v>337</v>
+      </c>
+      <c r="F510" t="s">
+        <v>338</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I510">
+        <v>5.85</v>
+      </c>
+      <c r="J510">
+        <v>25</v>
+      </c>
+      <c r="K510" t="s">
+        <v>343</v>
+      </c>
+      <c r="L510" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="511" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C511" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E511" t="s">
+        <v>344</v>
+      </c>
+      <c r="F511" t="s">
+        <v>345</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I511">
+        <v>9.63</v>
+      </c>
+      <c r="J511">
+        <v>579</v>
+      </c>
+      <c r="K511" t="s">
+        <v>349</v>
+      </c>
+      <c r="L511" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="512" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C512" t="s">
+        <v>10</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E512" t="s">
+        <v>350</v>
+      </c>
+      <c r="F512" t="s">
+        <v>351</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I512">
+        <v>10.2</v>
+      </c>
+      <c r="J512">
+        <v>1380</v>
+      </c>
+      <c r="K512" t="s">
+        <v>356</v>
+      </c>
+      <c r="L512" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="513" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C513" t="s">
+        <v>10</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E513" t="s">
+        <v>357</v>
+      </c>
+      <c r="F513" t="s">
+        <v>358</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I513">
+        <v>4.78</v>
+      </c>
+      <c r="J513">
+        <v>104</v>
+      </c>
+      <c r="K513" t="s">
+        <v>363</v>
+      </c>
+      <c r="L513" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="514" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C514" t="s">
+        <v>10</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E514" t="s">
+        <v>364</v>
+      </c>
+      <c r="F514" t="s">
+        <v>365</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I514">
+        <v>3.52</v>
+      </c>
+      <c r="J514">
+        <v>55</v>
+      </c>
+      <c r="K514" t="s">
+        <v>370</v>
+      </c>
+      <c r="L514" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="515" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C515" t="s">
+        <v>10</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E515" t="s">
+        <v>371</v>
+      </c>
+      <c r="F515" t="s">
+        <v>372</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H515" s="1"/>
+      <c r="I515">
+        <v>308.62</v>
+      </c>
+      <c r="J515">
+        <v>154</v>
+      </c>
+      <c r="K515" t="s">
+        <v>376</v>
+      </c>
+      <c r="L515" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="516" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C516" t="s">
+        <v>10</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E516" t="s">
+        <v>377</v>
+      </c>
+      <c r="F516" t="s">
+        <v>378</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I516">
+        <v>8.74</v>
+      </c>
+      <c r="J516">
+        <v>52</v>
+      </c>
+      <c r="K516" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="517" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>10</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E517" t="s">
+        <v>384</v>
+      </c>
+      <c r="F517" t="s">
+        <v>385</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I517">
+        <v>5.62</v>
+      </c>
+      <c r="J517">
+        <v>398</v>
+      </c>
+      <c r="K517" t="s">
+        <v>390</v>
+      </c>
+      <c r="L517" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="518" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C518" t="s">
+        <v>10</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E518" t="s">
+        <v>391</v>
+      </c>
+      <c r="F518" t="s">
+        <v>392</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H518" s="1"/>
+      <c r="I518">
+        <v>44.2</v>
+      </c>
+      <c r="J518">
+        <v>64</v>
+      </c>
+      <c r="K518" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="519" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C519" t="s">
+        <v>10</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E519" t="s">
+        <v>397</v>
+      </c>
+      <c r="F519" t="s">
+        <v>398</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I519">
+        <v>31.19</v>
+      </c>
+      <c r="J519">
+        <v>34</v>
+      </c>
+      <c r="K519" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="520" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>10</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E520" t="s">
+        <v>403</v>
+      </c>
+      <c r="F520" t="s">
+        <v>404</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H520" s="1"/>
+      <c r="I520">
+        <v>6.2</v>
+      </c>
+      <c r="J520">
+        <v>84</v>
+      </c>
+      <c r="K520" t="s">
+        <v>407</v>
+      </c>
+      <c r="L520" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="521" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C521" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E521" t="s">
+        <v>408</v>
+      </c>
+      <c r="F521" t="s">
+        <v>409</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I521">
+        <v>48.31</v>
+      </c>
+      <c r="J521">
+        <v>63</v>
+      </c>
+      <c r="K521" t="s">
+        <v>413</v>
+      </c>
+      <c r="L521" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="522" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C522" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E522" t="s">
+        <v>414</v>
+      </c>
+      <c r="F522" t="s">
+        <v>415</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I522">
+        <v>18.6</v>
+      </c>
+      <c r="J522">
+        <v>38</v>
+      </c>
+      <c r="K522" t="s">
+        <v>419</v>
+      </c>
+      <c r="L522" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="523" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C523" t="s">
+        <v>10</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E523" t="s">
+        <v>420</v>
+      </c>
+      <c r="F523" t="s">
+        <v>421</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I523">
+        <v>8.52</v>
+      </c>
+      <c r="J523">
+        <v>72</v>
+      </c>
+      <c r="K523" t="s">
+        <v>426</v>
+      </c>
+      <c r="L523" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="524" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C524" t="s">
+        <v>10</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E524" t="s">
+        <v>427</v>
+      </c>
+      <c r="F524" t="s">
+        <v>428</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I524">
+        <v>7.23</v>
+      </c>
+      <c r="J524">
+        <v>101</v>
+      </c>
+      <c r="K524" t="s">
+        <v>432</v>
+      </c>
+      <c r="L524" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="525" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C525" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E525" t="s">
+        <v>433</v>
+      </c>
+      <c r="F525" t="s">
+        <v>434</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H525" s="1"/>
+      <c r="I525">
+        <v>49.93</v>
+      </c>
+      <c r="J525">
+        <v>70</v>
+      </c>
+      <c r="K525" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="526" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>10</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E526" t="s">
+        <v>439</v>
+      </c>
+      <c r="F526" t="s">
+        <v>440</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I526">
+        <v>12.32</v>
+      </c>
+      <c r="J526">
+        <v>127</v>
+      </c>
+      <c r="K526" t="s">
+        <v>445</v>
+      </c>
+      <c r="L526" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="527" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>10</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E527" t="s">
+        <v>446</v>
+      </c>
+      <c r="F527" t="s">
+        <v>447</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H527" s="1"/>
+      <c r="I527">
+        <v>222.07</v>
+      </c>
+      <c r="J527">
+        <v>126</v>
+      </c>
+      <c r="K527" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="528" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C528" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E528" t="s">
+        <v>452</v>
+      </c>
+      <c r="F528" t="s">
+        <v>453</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I528">
+        <v>44.63</v>
+      </c>
+      <c r="J528">
+        <v>133</v>
+      </c>
+      <c r="K528" t="s">
+        <v>458</v>
+      </c>
+      <c r="L528" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="529" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E529" t="s">
+        <v>459</v>
+      </c>
+      <c r="F529" t="s">
+        <v>460</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I529">
+        <v>37.5</v>
+      </c>
+      <c r="J529">
+        <v>189</v>
+      </c>
+      <c r="K529" t="s">
+        <v>465</v>
+      </c>
+      <c r="L529" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="530" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C530" t="s">
+        <v>10</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E530" t="s">
+        <v>466</v>
+      </c>
+      <c r="F530" t="s">
+        <v>467</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I530">
+        <v>9.58</v>
+      </c>
+      <c r="J530">
+        <v>816</v>
+      </c>
+      <c r="K530" t="s">
+        <v>472</v>
+      </c>
+      <c r="L530" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="531" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C531" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E531" t="s">
+        <v>473</v>
+      </c>
+      <c r="F531" t="s">
+        <v>474</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H531" s="1"/>
+      <c r="I531">
+        <v>56.44</v>
+      </c>
+      <c r="J531">
+        <v>52</v>
+      </c>
+      <c r="K531" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="532" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E532" t="s">
+        <v>478</v>
+      </c>
+      <c r="F532" t="s">
+        <v>479</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I532">
+        <v>5.97</v>
+      </c>
+      <c r="J532">
+        <v>164</v>
+      </c>
+      <c r="K532" t="s">
+        <v>484</v>
+      </c>
+      <c r="L532" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="533" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C533" t="s">
+        <v>10</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E533" t="s">
+        <v>485</v>
+      </c>
+      <c r="F533" t="s">
+        <v>486</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I533">
+        <v>2.77</v>
+      </c>
+      <c r="J533">
+        <v>480</v>
+      </c>
+      <c r="K533" t="s">
+        <v>491</v>
+      </c>
+      <c r="L533" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="534" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E534" t="s">
+        <v>492</v>
+      </c>
+      <c r="F534" t="s">
+        <v>493</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I534">
+        <v>39.74</v>
+      </c>
+      <c r="J534">
+        <v>96</v>
+      </c>
+      <c r="K534" t="s">
+        <v>498</v>
+      </c>
+      <c r="L534" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="535" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C535" t="s">
+        <v>10</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E535" t="s">
+        <v>499</v>
+      </c>
+      <c r="F535" t="s">
+        <v>500</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I535">
+        <v>7.7</v>
+      </c>
+      <c r="J535">
+        <v>507</v>
+      </c>
+      <c r="K535" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="536" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C536" t="s">
+        <v>10</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E536" t="s">
+        <v>506</v>
+      </c>
+      <c r="F536" t="s">
+        <v>507</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I536">
+        <v>5.93</v>
+      </c>
+      <c r="J536">
+        <v>388</v>
+      </c>
+      <c r="K536" t="s">
+        <v>512</v>
+      </c>
+      <c r="L536" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="537" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C537" t="s">
+        <v>10</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E537" t="s">
+        <v>513</v>
+      </c>
+      <c r="F537" t="s">
+        <v>514</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I537">
+        <v>92.03</v>
+      </c>
+      <c r="J537">
+        <v>389</v>
+      </c>
+      <c r="K537" t="s">
+        <v>519</v>
+      </c>
+      <c r="L537" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="538" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C538" t="s">
+        <v>10</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E538" t="s">
+        <v>520</v>
+      </c>
+      <c r="F538" t="s">
+        <v>521</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H538" s="1"/>
+      <c r="I538">
+        <v>2.19</v>
+      </c>
+      <c r="J538">
+        <v>104</v>
+      </c>
+      <c r="K538" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="539" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C539" t="s">
+        <v>10</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E539" t="s">
+        <v>525</v>
+      </c>
+      <c r="F539" t="s">
+        <v>526</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I539">
+        <v>74.5</v>
+      </c>
+      <c r="J539">
+        <v>44</v>
+      </c>
+      <c r="K539" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="540" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C540" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E540" t="s">
+        <v>532</v>
+      </c>
+      <c r="F540" t="s">
+        <v>533</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I540">
+        <v>176.75</v>
+      </c>
+      <c r="J540">
+        <v>23</v>
+      </c>
+      <c r="K540" t="s">
+        <v>538</v>
+      </c>
+      <c r="L540" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="541" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C541" t="s">
+        <v>10</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E541" t="s">
+        <v>539</v>
+      </c>
+      <c r="F541" t="s">
+        <v>540</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I541">
+        <v>146.95</v>
+      </c>
+      <c r="J541">
+        <v>423</v>
+      </c>
+      <c r="K541" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="542" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C542" t="s">
+        <v>10</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E542" t="s">
+        <v>546</v>
+      </c>
+      <c r="F542" t="s">
+        <v>547</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H542" s="1"/>
+      <c r="I542">
+        <v>169</v>
+      </c>
+      <c r="J542">
+        <v>522</v>
+      </c>
+      <c r="K542" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="543" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C543" t="s">
+        <v>10</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E543" t="s">
+        <v>552</v>
+      </c>
+      <c r="F543" t="s">
+        <v>553</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H543" s="1"/>
+      <c r="I543">
+        <v>79.25</v>
+      </c>
+      <c r="K543" t="s">
+        <v>556</v>
+      </c>
+      <c r="L543" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="544" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C544" t="s">
+        <v>10</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E544" t="s">
+        <v>557</v>
+      </c>
+      <c r="F544" t="s">
+        <v>558</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H544" s="1"/>
+      <c r="I544">
+        <v>11.86</v>
+      </c>
+      <c r="J544">
+        <v>30</v>
+      </c>
+      <c r="K544" t="s">
+        <v>561</v>
+      </c>
+      <c r="L544" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="545" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C545" t="s">
+        <v>10</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E545" t="s">
+        <v>562</v>
+      </c>
+      <c r="F545" t="s">
+        <v>563</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I545">
+        <v>41.26</v>
+      </c>
+      <c r="J545">
+        <v>302</v>
+      </c>
+      <c r="K545" t="s">
+        <v>568</v>
+      </c>
+      <c r="L545" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="546" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C546" t="s">
+        <v>10</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E546" t="s">
+        <v>569</v>
+      </c>
+      <c r="F546" t="s">
+        <v>570</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I546">
+        <v>249.16</v>
+      </c>
+      <c r="J546">
+        <v>1435</v>
+      </c>
+      <c r="K546" t="s">
+        <v>575</v>
+      </c>
+      <c r="L546" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="547" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C547" t="s">
+        <v>10</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E547" t="s">
+        <v>576</v>
+      </c>
+      <c r="F547" t="s">
+        <v>577</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H547" s="1"/>
+      <c r="I547">
+        <v>9.29</v>
+      </c>
+      <c r="J547">
+        <v>101</v>
+      </c>
+      <c r="K547" t="s">
+        <v>580</v>
+      </c>
+      <c r="L547" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="548" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C548" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E548" t="s">
+        <v>581</v>
+      </c>
+      <c r="F548" t="s">
+        <v>582</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I548">
+        <v>4.01</v>
+      </c>
+      <c r="J548">
+        <v>135</v>
+      </c>
+      <c r="K548" t="s">
+        <v>587</v>
+      </c>
+      <c r="L548" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="549" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C549" t="s">
+        <v>10</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E549" t="s">
+        <v>588</v>
+      </c>
+      <c r="F549" t="s">
+        <v>589</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I549">
+        <v>15.51</v>
+      </c>
+      <c r="J549">
+        <v>231</v>
+      </c>
+      <c r="K549" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="550" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C550" t="s">
+        <v>10</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E550" t="s">
+        <v>595</v>
+      </c>
+      <c r="F550" t="s">
+        <v>596</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I550">
+        <v>27.74</v>
+      </c>
+      <c r="J550">
+        <v>29</v>
+      </c>
+      <c r="K550" t="s">
+        <v>601</v>
+      </c>
+      <c r="L550" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="551" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C551" t="s">
+        <v>10</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E551" t="s">
+        <v>602</v>
+      </c>
+      <c r="F551" t="s">
+        <v>603</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="I551">
+        <v>56.9</v>
+      </c>
+      <c r="J551">
+        <v>75</v>
+      </c>
+      <c r="K551" t="s">
+        <v>607</v>
+      </c>
+      <c r="L551" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="552" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C552" t="s">
+        <v>10</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E552" t="s">
+        <v>608</v>
+      </c>
+      <c r="F552" t="s">
+        <v>609</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I552">
+        <v>150.76</v>
+      </c>
+      <c r="J552">
+        <v>27</v>
+      </c>
+      <c r="K552" t="s">
+        <v>613</v>
+      </c>
+      <c r="L552" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="553" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C553" t="s">
+        <v>10</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E553" t="s">
+        <v>614</v>
+      </c>
+      <c r="F553" t="s">
+        <v>615</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I553">
+        <v>6</v>
+      </c>
+      <c r="J553">
+        <v>30</v>
+      </c>
+      <c r="K553" t="s">
+        <v>619</v>
+      </c>
+      <c r="L553" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="554" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C554" t="s">
+        <v>10</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E554" t="s">
+        <v>620</v>
+      </c>
+      <c r="F554" t="s">
+        <v>621</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I554">
+        <v>5.36</v>
+      </c>
+      <c r="J554">
+        <v>209</v>
+      </c>
+      <c r="K554" t="s">
+        <v>626</v>
+      </c>
+      <c r="L554" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="555" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C555" t="s">
+        <v>10</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E555" t="s">
+        <v>627</v>
+      </c>
+      <c r="F555" t="s">
+        <v>628</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I555">
+        <v>24.87</v>
+      </c>
+      <c r="J555">
+        <v>18</v>
+      </c>
+      <c r="K555" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="556" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C556" t="s">
+        <v>10</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E556" t="s">
+        <v>634</v>
+      </c>
+      <c r="F556" t="s">
+        <v>635</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I556">
+        <v>10.39</v>
+      </c>
+      <c r="J556">
+        <v>403</v>
+      </c>
+      <c r="K556" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="557" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C557" t="s">
+        <v>10</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E557" t="s">
+        <v>641</v>
+      </c>
+      <c r="F557" t="s">
+        <v>642</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I557">
+        <v>203</v>
+      </c>
+      <c r="J557">
+        <v>193</v>
+      </c>
+      <c r="K557" t="s">
+        <v>647</v>
+      </c>
+      <c r="L557" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="558" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E558" t="s">
+        <v>648</v>
+      </c>
+      <c r="F558" t="s">
+        <v>649</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I558">
+        <v>14.55</v>
+      </c>
+      <c r="J558">
+        <v>99</v>
+      </c>
+      <c r="K558" t="s">
+        <v>654</v>
+      </c>
+      <c r="L558" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="559" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C559" t="s">
+        <v>10</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E559" t="s">
+        <v>655</v>
+      </c>
+      <c r="F559" t="s">
+        <v>656</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I559">
+        <v>14.55</v>
+      </c>
+      <c r="J559">
+        <v>386</v>
+      </c>
+      <c r="K559" t="s">
+        <v>660</v>
+      </c>
+      <c r="L559" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="560" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C560" t="s">
+        <v>10</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E560" t="s">
+        <v>661</v>
+      </c>
+      <c r="F560" t="s">
+        <v>662</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I560">
+        <v>14.55</v>
+      </c>
+      <c r="J560">
+        <v>1055</v>
+      </c>
+      <c r="K560" t="s">
+        <v>666</v>
+      </c>
+      <c r="L560" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="561" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C561" t="s">
+        <v>10</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E561" t="s">
+        <v>667</v>
+      </c>
+      <c r="F561" t="s">
+        <v>668</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I561">
+        <v>14.55</v>
+      </c>
+      <c r="J561">
+        <v>307</v>
+      </c>
+      <c r="K561" t="s">
+        <v>672</v>
+      </c>
+      <c r="L561" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="562" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E562" t="s">
+        <v>673</v>
+      </c>
+      <c r="F562" t="s">
+        <v>674</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I562">
+        <v>13.82</v>
+      </c>
+      <c r="J562">
+        <v>1172</v>
+      </c>
+      <c r="K562" t="s">
+        <v>679</v>
+      </c>
+      <c r="L562" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="563" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C563" t="s">
+        <v>10</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E563" t="s">
+        <v>680</v>
+      </c>
+      <c r="F563" t="s">
+        <v>681</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H563" s="1"/>
+      <c r="I563">
+        <v>7.96</v>
+      </c>
+      <c r="J563">
+        <v>156</v>
+      </c>
+      <c r="K563" t="s">
+        <v>685</v>
+      </c>
+      <c r="L563" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="564" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C564" t="s">
+        <v>10</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E564" t="s">
+        <v>686</v>
+      </c>
+      <c r="F564" t="s">
+        <v>687</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I564">
+        <v>14.59</v>
+      </c>
+      <c r="J564">
+        <v>31</v>
+      </c>
+      <c r="K564" t="s">
+        <v>691</v>
+      </c>
+      <c r="L564" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="565" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C565" t="s">
+        <v>10</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E565" t="s">
+        <v>692</v>
+      </c>
+      <c r="F565" t="s">
+        <v>693</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I565">
+        <v>5.93</v>
+      </c>
+      <c r="J565">
+        <v>471</v>
+      </c>
+      <c r="K565" t="s">
+        <v>697</v>
+      </c>
+      <c r="L565" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="566" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C566" t="s">
+        <v>10</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E566" t="s">
+        <v>698</v>
+      </c>
+      <c r="F566" t="s">
+        <v>699</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I566">
+        <v>53.14</v>
+      </c>
+      <c r="J566">
+        <v>37</v>
+      </c>
+      <c r="K566" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="567" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C567" t="s">
+        <v>10</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E567" t="s">
+        <v>704</v>
+      </c>
+      <c r="F567" t="s">
+        <v>705</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="I567">
+        <v>4.57</v>
+      </c>
+      <c r="J567">
+        <v>58</v>
+      </c>
+      <c r="K567" t="s">
+        <v>710</v>
+      </c>
+      <c r="L567" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="568" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C568" t="s">
+        <v>10</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E568" t="s">
+        <v>711</v>
+      </c>
+      <c r="F568" t="s">
+        <v>712</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I568">
+        <v>20.8</v>
+      </c>
+      <c r="J568">
+        <v>624</v>
+      </c>
+      <c r="K568" t="s">
+        <v>717</v>
+      </c>
+      <c r="L568" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="569" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C569" t="s">
+        <v>10</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E569" t="s">
+        <v>718</v>
+      </c>
+      <c r="F569" t="s">
+        <v>719</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H569" s="1"/>
+      <c r="I569">
+        <v>0</v>
+      </c>
+      <c r="J569">
+        <v>1</v>
+      </c>
+      <c r="K569" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="570" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C570" t="s">
+        <v>10</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E570" t="s">
+        <v>724</v>
+      </c>
+      <c r="F570" t="s">
+        <v>725</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="I570">
+        <v>34.22</v>
+      </c>
+      <c r="J570">
+        <v>69</v>
+      </c>
+      <c r="K570" t="s">
+        <v>729</v>
+      </c>
+      <c r="L570" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="571" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C571" t="s">
+        <v>10</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E571" t="s">
+        <v>730</v>
+      </c>
+      <c r="F571" t="s">
+        <v>731</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I571">
+        <v>4.15</v>
+      </c>
+      <c r="J571">
+        <v>979</v>
+      </c>
+      <c r="K571" t="s">
+        <v>736</v>
+      </c>
+      <c r="L571" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="572" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C572" t="s">
+        <v>10</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E572" t="s">
+        <v>737</v>
+      </c>
+      <c r="F572" t="s">
+        <v>738</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="I572">
+        <v>4.79</v>
+      </c>
+      <c r="J572">
+        <v>320</v>
+      </c>
+      <c r="K572" t="s">
+        <v>743</v>
+      </c>
+      <c r="L572" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="573" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C573" t="s">
+        <v>10</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E573" t="s">
+        <v>744</v>
+      </c>
+      <c r="F573" t="s">
+        <v>745</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I573">
+        <v>131.6</v>
+      </c>
+      <c r="J573">
+        <v>610</v>
+      </c>
+      <c r="K573" t="s">
+        <v>750</v>
+      </c>
+      <c r="L573" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="574" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C574" t="s">
+        <v>10</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E574" t="s">
+        <v>751</v>
+      </c>
+      <c r="F574" t="s">
+        <v>752</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I574">
+        <v>6.41</v>
+      </c>
+      <c r="J574">
+        <v>128</v>
+      </c>
+      <c r="K574" t="s">
+        <v>757</v>
+      </c>
+      <c r="L574" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="575" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C575" t="s">
+        <v>10</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E575" t="s">
+        <v>758</v>
+      </c>
+      <c r="F575" t="s">
+        <v>759</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I575">
+        <v>18.75</v>
+      </c>
+      <c r="J575">
+        <v>893</v>
+      </c>
+      <c r="K575" t="s">
+        <v>763</v>
+      </c>
+      <c r="L575" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="576" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E576" t="s">
+        <v>764</v>
+      </c>
+      <c r="F576" t="s">
+        <v>765</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I576">
+        <v>9.98</v>
+      </c>
+      <c r="J576">
+        <v>262</v>
+      </c>
+      <c r="K576" t="s">
+        <v>770</v>
+      </c>
+      <c r="L576" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="577" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C577" t="s">
+        <v>10</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E577" t="s">
+        <v>771</v>
+      </c>
+      <c r="F577" t="s">
+        <v>772</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="I577">
+        <v>9.34</v>
+      </c>
+      <c r="J577">
+        <v>200</v>
+      </c>
+      <c r="K577" t="s">
+        <v>777</v>
+      </c>
+      <c r="L577" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="578" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C578" t="s">
+        <v>10</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E578" t="s">
+        <v>778</v>
+      </c>
+      <c r="F578" t="s">
+        <v>779</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I578">
+        <v>80</v>
+      </c>
+      <c r="J578">
+        <v>85</v>
+      </c>
+      <c r="K578" t="s">
+        <v>784</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="579" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C579" t="s">
+        <v>10</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E579" t="s">
+        <v>785</v>
+      </c>
+      <c r="F579" t="s">
+        <v>786</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I579">
+        <v>76</v>
+      </c>
+      <c r="J579">
+        <v>542</v>
+      </c>
+      <c r="K579" t="s">
+        <v>791</v>
+      </c>
+      <c r="L579" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="580" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C580" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E580" t="s">
+        <v>792</v>
+      </c>
+      <c r="F580" t="s">
+        <v>793</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H580" s="1"/>
+      <c r="I580">
+        <v>4.1</v>
+      </c>
+      <c r="J580">
+        <v>94</v>
+      </c>
+      <c r="K580" t="s">
+        <v>797</v>
+      </c>
+      <c r="L580" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="581" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C581" t="s">
+        <v>10</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E581" t="s">
+        <v>798</v>
+      </c>
+      <c r="F581" t="s">
+        <v>799</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I581">
+        <v>12.49</v>
+      </c>
+      <c r="J581">
+        <v>50</v>
+      </c>
+      <c r="K581" t="s">
+        <v>803</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="582" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C582" t="s">
+        <v>10</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E582" t="s">
+        <v>804</v>
+      </c>
+      <c r="F582" t="s">
+        <v>805</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="I582">
+        <v>5.95</v>
+      </c>
+      <c r="J582">
+        <v>75</v>
+      </c>
+      <c r="K582" t="s">
+        <v>809</v>
+      </c>
+      <c r="L582" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="583" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C583" t="s">
+        <v>10</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E583" t="s">
+        <v>810</v>
+      </c>
+      <c r="F583" t="s">
+        <v>811</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I583">
+        <v>23.34</v>
+      </c>
+      <c r="J583">
+        <v>247</v>
+      </c>
+      <c r="K583" t="s">
+        <v>816</v>
+      </c>
+      <c r="L583" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="584" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C584" t="s">
+        <v>10</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E584" t="s">
+        <v>817</v>
+      </c>
+      <c r="F584" t="s">
+        <v>818</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I584">
+        <v>73.62</v>
+      </c>
+      <c r="J584">
+        <v>60</v>
+      </c>
+      <c r="K584" t="s">
+        <v>822</v>
+      </c>
+      <c r="L584" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="585" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C585" t="s">
+        <v>10</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E585" t="s">
+        <v>823</v>
+      </c>
+      <c r="F585" t="s">
+        <v>824</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="I585">
+        <v>71.5</v>
+      </c>
+      <c r="J585">
+        <v>614</v>
+      </c>
+      <c r="K585" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="586" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C586" t="s">
+        <v>10</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E586" t="s">
+        <v>830</v>
+      </c>
+      <c r="F586" t="s">
+        <v>831</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="I586">
+        <v>68.75</v>
+      </c>
+      <c r="J586">
+        <v>90</v>
+      </c>
+      <c r="K586" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="587" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C587" t="s">
+        <v>10</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E587" t="s">
+        <v>837</v>
+      </c>
+      <c r="F587" t="s">
+        <v>838</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="I587">
+        <v>105.25</v>
+      </c>
+      <c r="J587">
+        <v>58</v>
+      </c>
+      <c r="K587" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="588" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C588" t="s">
+        <v>10</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E588" t="s">
+        <v>843</v>
+      </c>
+      <c r="F588" t="s">
+        <v>844</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="I588">
+        <v>117.5</v>
+      </c>
+      <c r="J588">
+        <v>577</v>
+      </c>
+      <c r="K588" t="s">
+        <v>849</v>
+      </c>
+      <c r="L588" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="589" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C589" t="s">
+        <v>10</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E589" t="s">
+        <v>850</v>
+      </c>
+      <c r="F589" t="s">
+        <v>851</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="I589">
+        <v>147.45</v>
+      </c>
+      <c r="J589">
+        <v>56</v>
+      </c>
+      <c r="K589" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="590" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C590" t="s">
+        <v>10</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E590" t="s">
+        <v>539</v>
+      </c>
+      <c r="F590" t="s">
+        <v>857</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I590">
+        <v>146.7</v>
+      </c>
+      <c r="J590">
+        <v>819</v>
+      </c>
+      <c r="K590" t="s">
+        <v>862</v>
+      </c>
+      <c r="L590" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="591" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C591" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E591" t="s">
+        <v>863</v>
+      </c>
+      <c r="F591" t="s">
+        <v>864</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="I591">
+        <v>106.5</v>
+      </c>
+      <c r="J591">
+        <v>1163</v>
+      </c>
+      <c r="K591" t="s">
+        <v>869</v>
+      </c>
+      <c r="L591" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="592" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C592" t="s">
+        <v>10</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E592" t="s">
+        <v>870</v>
+      </c>
+      <c r="F592" t="s">
+        <v>871</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="I592">
+        <v>120</v>
+      </c>
+      <c r="J592">
+        <v>175</v>
+      </c>
+      <c r="K592" t="s">
+        <v>876</v>
+      </c>
+      <c r="L592" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="593" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C593" t="s">
+        <v>10</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E593" t="s">
+        <v>877</v>
+      </c>
+      <c r="F593" t="s">
+        <v>878</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="I593">
+        <v>18.61</v>
+      </c>
+      <c r="J593">
+        <v>175</v>
+      </c>
+      <c r="K593" t="s">
+        <v>882</v>
+      </c>
+      <c r="L593" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="594" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E594" t="s">
+        <v>883</v>
+      </c>
+      <c r="F594" t="s">
+        <v>884</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="I594">
+        <v>34.12</v>
+      </c>
+      <c r="J594">
+        <v>79</v>
+      </c>
+      <c r="K594" t="s">
+        <v>889</v>
+      </c>
+      <c r="L594" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="595" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C595" t="s">
+        <v>10</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E595" t="s">
+        <v>890</v>
+      </c>
+      <c r="F595" t="s">
+        <v>891</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="I595">
+        <v>6.9</v>
+      </c>
+      <c r="J595">
+        <v>401</v>
+      </c>
+      <c r="K595" t="s">
+        <v>896</v>
+      </c>
+      <c r="L595" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="596" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C596" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E596" t="s">
+        <v>897</v>
+      </c>
+      <c r="F596" t="s">
+        <v>898</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="I596">
+        <v>14.93</v>
+      </c>
+      <c r="J596">
+        <v>98</v>
+      </c>
+      <c r="K596" t="s">
+        <v>903</v>
+      </c>
+      <c r="L596" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="597" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E597" t="s">
+        <v>904</v>
+      </c>
+      <c r="F597" t="s">
+        <v>905</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H597" s="1"/>
+      <c r="I597">
+        <v>65.82</v>
+      </c>
+      <c r="J597">
+        <v>45</v>
+      </c>
+      <c r="K597" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="598" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C598" t="s">
+        <v>10</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E598" t="s">
+        <v>909</v>
+      </c>
+      <c r="F598" t="s">
+        <v>910</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="I598">
+        <v>3.84</v>
+      </c>
+      <c r="J598">
+        <v>108</v>
+      </c>
+      <c r="K598" t="s">
+        <v>915</v>
+      </c>
+      <c r="L598" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="599" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C599" t="s">
+        <v>10</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E599" t="s">
+        <v>916</v>
+      </c>
+      <c r="F599" t="s">
+        <v>917</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="I599">
+        <v>152.49</v>
+      </c>
+      <c r="J599">
+        <v>35</v>
+      </c>
+      <c r="K599" t="s">
+        <v>922</v>
+      </c>
+      <c r="L599" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="600" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C600" t="s">
+        <v>10</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E600" t="s">
+        <v>923</v>
+      </c>
+      <c r="F600" t="s">
+        <v>924</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="I600">
+        <v>250</v>
+      </c>
+      <c r="J600">
+        <v>122</v>
+      </c>
+      <c r="K600" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="601" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C601" t="s">
+        <v>10</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E601" t="s">
+        <v>930</v>
+      </c>
+      <c r="F601" t="s">
+        <v>931</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I601">
+        <v>101.89</v>
+      </c>
+      <c r="J601">
+        <v>71</v>
+      </c>
+      <c r="K601" t="s">
+        <v>935</v>
+      </c>
+      <c r="L601" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="602" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C602" t="s">
+        <v>10</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E602" t="s">
+        <v>936</v>
+      </c>
+      <c r="F602" t="s">
+        <v>937</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="I602">
+        <v>96</v>
+      </c>
+      <c r="J602">
+        <v>632</v>
+      </c>
+      <c r="K602" t="s">
+        <v>942</v>
+      </c>
+      <c r="L602" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="603" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C603" t="s">
+        <v>10</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E603" t="s">
+        <v>943</v>
+      </c>
+      <c r="F603" t="s">
+        <v>944</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="I603">
+        <v>6.08</v>
+      </c>
+      <c r="J603">
+        <v>650</v>
+      </c>
+      <c r="K603" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="604" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C604" t="s">
+        <v>10</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E604" t="s">
+        <v>950</v>
+      </c>
+      <c r="F604" t="s">
+        <v>951</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="I604">
+        <v>199.76</v>
+      </c>
+      <c r="J604">
+        <v>1933</v>
+      </c>
+      <c r="K604" t="s">
+        <v>956</v>
+      </c>
+      <c r="L604" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="605" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C605" t="s">
+        <v>10</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E605" t="s">
+        <v>957</v>
+      </c>
+      <c r="F605" t="s">
+        <v>958</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="I605">
+        <v>197.9</v>
+      </c>
+      <c r="J605">
+        <v>196</v>
+      </c>
+      <c r="K605" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="606" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C606" t="s">
+        <v>10</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E606" t="s">
+        <v>963</v>
+      </c>
+      <c r="F606" t="s">
+        <v>964</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="I606">
+        <v>11.89</v>
+      </c>
+      <c r="J606">
+        <v>36</v>
+      </c>
+      <c r="K606" t="s">
+        <v>969</v>
+      </c>
+      <c r="L606" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="607" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C607" t="s">
+        <v>10</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E607" t="s">
+        <v>970</v>
+      </c>
+      <c r="F607" t="s">
+        <v>971</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="I607">
+        <v>12.7</v>
+      </c>
+      <c r="J607">
+        <v>172</v>
+      </c>
+      <c r="K607" t="s">
+        <v>976</v>
+      </c>
+      <c r="L607" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="608" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C608" t="s">
+        <v>10</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E608" t="s">
+        <v>977</v>
+      </c>
+      <c r="F608" t="s">
+        <v>978</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I608">
+        <v>5.93</v>
+      </c>
+      <c r="J608">
+        <v>6360</v>
+      </c>
+      <c r="K608" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="609" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C609" t="s">
+        <v>10</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E609" t="s">
+        <v>983</v>
+      </c>
+      <c r="F609" t="s">
+        <v>984</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="I609">
+        <v>53.14</v>
+      </c>
+      <c r="J609">
+        <v>37</v>
+      </c>
+      <c r="K609" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="610" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C610" t="s">
+        <v>10</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E610" t="s">
+        <v>988</v>
+      </c>
+      <c r="F610" t="s">
+        <v>989</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="I610">
+        <v>14.37</v>
+      </c>
+      <c r="J610">
+        <v>191</v>
+      </c>
+      <c r="K610" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="611" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C611" t="s">
+        <v>10</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E611" t="s">
+        <v>995</v>
+      </c>
+      <c r="F611" t="s">
+        <v>996</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="I611">
+        <v>19.5</v>
+      </c>
+      <c r="J611">
+        <v>196</v>
+      </c>
+      <c r="K611" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L611" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="612" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C612" t="s">
+        <v>10</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I612">
+        <v>9.01</v>
+      </c>
+      <c r="J612">
+        <v>3389</v>
+      </c>
+      <c r="K612" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="613" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C613" t="s">
+        <v>10</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H613" s="1"/>
+      <c r="I613">
+        <v>470.08</v>
+      </c>
+      <c r="J613">
+        <v>14</v>
+      </c>
+      <c r="K613" t="s">
         <v>1014</v>
       </c>
     </row>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FF3F0-BD72-A146-8C04-99666A03B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Products" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="1085">
   <si>
     <t>DATE</t>
   </si>
@@ -35,6 +34,9 @@
     <t>MPN</t>
   </si>
   <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
     <t>PRICE</t>
   </si>
   <si>
@@ -44,9 +46,6 @@
     <t>PRODUCT URL</t>
   </si>
   <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
     <t>08/14/2025</t>
   </si>
   <si>
@@ -59,7 +58,7 @@
     <t>TST-10PD-PD-3104</t>
   </si>
   <si>
-    <t>10 Panel Dip Card
+    <t xml:space="preserve">10 Panel Dip Card
 CLIA Waived
 Tests for:
 AMP
@@ -100,7 +99,7 @@
     <t>ORA-075G-GEL-144BX</t>
   </si>
   <si>
-    <t>Oral Anesthetic Gel - 20% Benzocaine - 0.75gram Packets - 144 Packets per Box - 1 Box/Each
+    <t xml:space="preserve">Oral Anesthetic Gel - 20% Benzocaine - 0.75gram Packets - 144 Packets per Box - 1 Box/Each
 $21.57
  This item is in stock and available today!
 Current Stock: 69
@@ -125,7 +124,7 @@
     <t>CRE-TOL-05OZ</t>
   </si>
   <si>
-    <t>¬†Tolnaftate Antifungal Cream - 0.5oz - 1% Strength
+    <t xml:space="preserve">¬†Tolnaftate Antifungal Cream - 0.5oz - 1% Strength
 Comparable to Tinactin Cream
 Proven clinically effective in the treatment of most athlete's foot (tinea pedis) and ringworm (tinea corporis)
 1 Tube Each
@@ -153,7 +152,7 @@
     <t>GLU-TAB-ORNG-4GM</t>
   </si>
   <si>
-    <t>Orange Flavor
+    <t xml:space="preserve">Orange Flavor
 Fat-Free
 Gluten-Free
 Caffeine-Free
@@ -184,7 +183,7 @@
     <t>SYR-TB-28G-100BX</t>
   </si>
   <si>
-    <t>TB Syringe
+    <t xml:space="preserve">TB Syringe
 28g x 1/2in
 1mL
 Safety
@@ -217,7 +216,7 @@
     <t>GAU-3IN-CNFRM-NS</t>
   </si>
   <si>
-    <t>Rayon/poly knitted stretch gauze bandage
+    <t xml:space="preserve">Rayon/poly knitted stretch gauze bandage
 Provides slight compression to the site while securely holding to any body contour
 Specifically designed not to slip while in use
 Unique weave construction and finished edges prevent unraveling and lining
@@ -257,7 +256,7 @@
     <t>MNTR-GLU-MED- 4001</t>
   </si>
   <si>
-    <t>Pro Glucose Meter/Monitor for Professional Use
+    <t xml:space="preserve">Pro Glucose Meter/Monitor for Professional Use
 Capillary Whole Blood Testing
 1 Unit Each 
 $14.99
@@ -287,7 +286,7 @@
     <t>Cap33-FOIL-All-HS130</t>
   </si>
   <si>
-    <t>33mm
+    <t xml:space="preserve">33mm
 Foil
 Child Resistant Closure - Fits 50cc, 60cc, 75cc Bottles
 2,300/CASE
@@ -318,7 +317,7 @@
     <t>BAND-2X4-DUK-033</t>
   </si>
   <si>
-    <t>Soft and flexible
+    <t xml:space="preserve">Soft and flexible
 Highly absorbent non-stick pad to protect the wound
 100% Ultrasonic micro perforations to prevent skin maceration
 Long lasting adhesive allows for safe and easy removal
@@ -355,7 +354,7 @@
     <t>WIPE-CAV-MET-131100</t>
   </si>
   <si>
-    <t>A convenient, ready-to-use, intermediate-level disinfecting wipe available in two sizes to fit all your needs
+    <t xml:space="preserve">A convenient, ready-to-use, intermediate-level disinfecting wipe available in two sizes to fit all your needs
 Towels stay fully saturated and will not dry out during use
 Effective against TB, HBV, and HIV. Towelette and CaviCide in one
 For use on nonporous surfaces
@@ -388,7 +387,7 @@
     <t>TEMP-STP-AME-180S</t>
   </si>
   <si>
-    <t>One of the simplest ways to ensure the validity of a specimen is to measure the temperature with self-adhesive temp strips
+    <t xml:space="preserve">One of the simplest ways to ensure the validity of a specimen is to measure the temperature with self-adhesive temp strips
 A temperature reading taken within four minutes of obtaining a viable specimen should be between 90 and 100 degrees Fahrenheit 
 These self-adhesive strips may be attached to any specimen collection container
 Measurements: 1¾" x ½"
@@ -422,7 +421,7 @@
     <t>SHA-8GAL-CAR-8980</t>
   </si>
   <si>
-    <t>Sharps Container
+    <t xml:space="preserve">Sharps Container
 8 Gallon
 Red
 Hinged Lid
@@ -455,7 +454,7 @@
     <t>SPECI-2OZ-STA-B6021YNL</t>
   </si>
   <si>
-    <t>Leakbuster 2oz/60mL Specimen Cup
+    <t xml:space="preserve">Leakbuster 2oz/60mL Specimen Cup
 No Label
 Yellow Screw on Lid
 NonSterile
@@ -487,7 +486,7 @@
     <t>RX-DISP-C2R-RX64</t>
   </si>
   <si>
-    <t>RX Destroyer - 64oz All Purpose Drug Disposal System 
+    <t xml:space="preserve">RX Destroyer - 64oz All Purpose Drug Disposal System 
 Leaves Medications Deactivated and Unavailable for Misuse
 Comes Ready-to-Use, No adding water
 Multiuse System, Continue to Add Until Full
@@ -519,7 +518,7 @@
     <t>SHRP-1.5QT-BD-305487</t>
   </si>
   <si>
-    <t>1.5qt BD Sharps Container 
+    <t xml:space="preserve">1.5qt BD Sharps Container 
 RED Base
 9in H x 4-1/2in W x 4in D
 Clear Lid Vertical Entry Hinged Snap On Lid 
@@ -554,7 +553,7 @@
     <t>STAP-KIT-HS-9199</t>
   </si>
   <si>
-    <t>Contents: (1) Skin Staple Remover Stainless Steel, (1) 3x3" Gauze Sponge
+    <t xml:space="preserve">Contents: (1) Skin Staple Remover Stainless Steel, (1) 3x3" Gauze Sponge
 Sterile - Packed in sealed plastic tray
 Disposable
 $2.15
@@ -584,7 +583,7 @@
     <t>PROX-16OZ-HYD-D0012</t>
   </si>
   <si>
-    <t>Ideal as a first aid antiseptic and cleanser
+    <t xml:space="preserve">Ideal as a first aid antiseptic and cleanser
 For use in hospitals, clinics, doctor's offices, by first responders and at home
 $2.76
  This item is in stock and available today!
@@ -613,7 +612,7 @@
     <t>STIR-BER-9041290</t>
   </si>
   <si>
-    <t>Distribute flavor evenly throughout your beverages with these wooden stirrers. Boasting a sturdy wooden construction, these Berkley Square stirrers stand up to vigorous use, and with 1,000 to a pack you have plenty on hand to restock the break room, coffee bar, or other areas.
+    <t xml:space="preserve">Distribute flavor evenly throughout your beverages with these wooden stirrers. Boasting a sturdy wooden construction, these Berkley Square stirrers stand up to vigorous use, and with 1,000 to a pack you have plenty on hand to restock the break room, coffee bar, or other areas.
 Coffee stirrers great for restaurants, bars, cafes, and more
 5.5" stirrer length
 Made from beige wood
@@ -642,7 +641,7 @@
     <t>NEB-KIT-VYA-2446</t>
   </si>
   <si>
-    <t>AirLife Misty Max Nebulizer Kit
+    <t xml:space="preserve">AirLife Misty Max Nebulizer Kit
 Small Volume Medication Cup
 Universal Mouthpiece
 7 Foot Oxygen Tube Length
@@ -674,7 +673,7 @@
     <t>SRKit-254A</t>
   </si>
   <si>
-    <t>Sterile Suture Removal Kit
+    <t xml:space="preserve">Sterile Suture Removal Kit
 Single-use kit that includes everything needed for safe and sanitary removal of sutures.
 Kit Includes:
 1 - Littauer Scissors
@@ -708,7 +707,7 @@
     <t>Gauze4x4-8pS</t>
   </si>
   <si>
-    <t>Color: White
+    <t xml:space="preserve">Color: White
 Latex Free, Cotton
 4 " x 4  "
 Sterility: Sterile
@@ -738,7 +737,7 @@
     <t>LAN-23G-HTL-7156</t>
   </si>
   <si>
-    <t>Safety Lancets
+    <t xml:space="preserve">Safety Lancets
 Top Button Activated
 23g x 1.8mm 
 BLUE - for Normal Blood Flow
@@ -767,7 +766,7 @@
     <t>Cannula239AH</t>
   </si>
   <si>
-    <t>Adult Softie Oxygen Cannula  
+    <t xml:space="preserve">Adult Softie Oxygen Cannula  
 7' Sure Flow Tubing - Kink Resistant
 Standard Connector
 Over Ear Type
@@ -799,7 +798,7 @@
     <t>CRE-HYD-GEN-144BX</t>
   </si>
   <si>
-    <t>Hydrocortisone Ointment
+    <t xml:space="preserve">Hydrocortisone Ointment
 1% Strength
 Individual 0.9g Packets
 144 Packets per Box
@@ -828,7 +827,7 @@
     <t>CLIP-NAIL-TOE-3IN</t>
   </si>
   <si>
-    <t>Toenail Clipper
+    <t xml:space="preserve">Toenail Clipper
 Without File
 3"
 Made of corrosion resistant carbon steel for durability and performance.
@@ -855,7 +854,7 @@
     <t>MCUP-MED-02102A</t>
   </si>
   <si>
-    <t>Graduated Medicine Cups
+    <t xml:space="preserve">Graduated Medicine Cups
 Graduations:  1/8 - 1/4 - 3/8 - 1/2 - 3/4 - 1 - 1-1/2 - 2oz
 2oz/60mL Capacity
 Polypropylene 
@@ -891,7 +890,7 @@
     <t>LAN-28G-MED-1002</t>
   </si>
   <si>
-    <t>28g x 1.88mm Safety Lancet
+    <t xml:space="preserve">28g x 1.88mm Safety Lancet
 Contact Activated
 Pink
 100 per Box
@@ -923,7 +922,7 @@
     <t>DROP-EAR-GEN-05OZ</t>
   </si>
   <si>
-    <t>Ear Wax Remover
+    <t xml:space="preserve">Ear Wax Remover
 6.5% Strength
 Carbamide Peroxide
 15mL Bottle
@@ -952,7 +951,7 @@
     <t>CRE-MICO-1OZ</t>
   </si>
   <si>
-    <t>Proven clinically effective in the treatment of most athlete‚Äôs foot, jock itch and ring worm. ¬†For effective relief of itching, scaling, burning and discomfort that can accompany these conditions.¬†
+    <t xml:space="preserve">Proven clinically effective in the treatment of most athlete‚Äôs foot, jock itch and ring worm. ¬†For effective relief of itching, scaling, burning and discomfort that can accompany these conditions.¬†
 Miconazole Nitrate Antifungal Cream
 2% Strength
 1oz Tube
@@ -981,7 +980,7 @@
     <t>Cap28-All-FOIL-S-HS130-Med</t>
   </si>
   <si>
-    <t>28mm Foil Child Resistant Cap
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
 Write On
 Push Down &amp; Turn Child Resistant Closure 
 Requires Sealing Machine
@@ -1015,7 +1014,7 @@
     <t>ENVE-PILL-DUK-4415</t>
   </si>
   <si>
-    <t>Heavy weight, imprinted envelopes
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
 Ample room for patient information
 3.5" x 2.25"
 1,000 per Box
@@ -1047,7 +1046,7 @@
     <t>WIPE-AMMO-SAF-62022</t>
   </si>
   <si>
-    <t>SAFETEC  Ammonia Inhalant Wipe
+    <t xml:space="preserve">SAFETEC  Ammonia Inhalant Wipe
 Use to Prevent or Treat Fainting
 15% - 30% Strength
 10 Individually Wrapped Wipes/Box
@@ -1078,7 +1077,7 @@
     <t>LBL-QL6-BRO-DK1201</t>
   </si>
   <si>
-    <t>For List of Brother Compatible Printers See Below
+    <t xml:space="preserve">For List of Brother Compatible Printers See Below
 OEM DK-1201
 Die-Cut Paper Labels
 White Standard Address Labels
@@ -1111,7 +1110,7 @@
     <t>BAND-COH-3M-1584</t>
   </si>
   <si>
-    <t>Dukal Cohesive Bandage - 4" x 5 Yds
+    <t xml:space="preserve">Dukal Cohesive Bandage - 4" x 5 Yds
 Tan 
 Self Adherent
 Non-Sterile
@@ -1145,7 +1144,7 @@
     <t>GLVNIT-M-4502</t>
   </si>
   <si>
-    <t>IMCO Blue Nitrile Medical Exam Gloves
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
 Fentanyl and Chemo Rated for Protection
 MEDIUM
 Powder Free
@@ -1180,7 +1179,7 @@
     <t>GLVNIT-L-4503</t>
   </si>
   <si>
-    <t>IMCO Blue Nitrile Medical Exam Gloves
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
 Fentanyl and Chemo Rated for Protection
 LARGE
 Powder Free
@@ -1212,7 +1211,7 @@
     <t>GLVNIT-XL-4504</t>
   </si>
   <si>
-    <t>IMCO Blue Nitrile Medical Exam Gloves
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
 Fentanyl and Chemo Rated for Protection
 X-LARGE
 Powder Free
@@ -1244,7 +1243,7 @@
     <t>IBUP-200MG-500CT</t>
   </si>
   <si>
-    <t>Sunmark 200mg Ibuprofen Coated Tablets
+    <t xml:space="preserve">Sunmark 200mg Ibuprofen Coated Tablets
 Ibuprofen is used to reduce fever
 Temporarily treat pain or inflammation caused by many conditions such as headache, toothache, back pain, arthritis, menstrual cramps, or minor injury
 Ibuprofen is a nonsteroidal anti-inflammatory drug (NSAID
@@ -1275,7 +1274,7 @@
     <t>SYR-29G-MED-2102</t>
   </si>
   <si>
-    <t>Insulin Syringe Needle
+    <t xml:space="preserve">Insulin Syringe Needle
 0.5mL
 29g x ¬Ω"
 Safety
@@ -1308,7 +1307,7 @@
     <t>MASK-NEB-MED-2885</t>
   </si>
   <si>
-    <t>Adult Nebulizer Mask Kit
+    <t xml:space="preserve">Adult Nebulizer Mask Kit
 7 Foot Oxygen Tube Length
 Small Volume Medication Bowl
 1 Kit Each
@@ -1336,7 +1335,7 @@
     <t>BAG-EME-GMX-GP800</t>
   </si>
   <si>
-    <t>With Collar Ring
+    <t xml:space="preserve">With Collar Ring
 Blue
 Plastic Disposable
 25 Bags per Pack 
@@ -1369,7 +1368,7 @@
     <t>BAND-1X3-DUK-0033</t>
   </si>
   <si>
-    <t>1" x 3"
+    <t xml:space="preserve">1" x 3"
 Highly Absorbent Non-stick Pad
 100% Ultrasonic Micro Perforations to Prevent Skin Maceration 
 Sterile 
@@ -1402,7 +1401,7 @@
     <t>DISP-DRUG-DET-7018</t>
   </si>
   <si>
-    <t>Provides safe, convenient and permanent disposal of unused, expired or unwanted medications
+    <t xml:space="preserve">Provides safe, convenient and permanent disposal of unused, expired or unwanted medications
 Medium
 45 Pill Capacity
 6oz Liquid Capacity
@@ -1430,7 +1429,7 @@
     <t>ANT-10MG-MAJ-9045</t>
   </si>
   <si>
-    <t>Antacid Heartburn Relief Tablets
+    <t xml:space="preserve">Antacid Heartburn Relief Tablets
 Famotidine
 10mg
 Compare to Pepcid AC
@@ -1460,7 +1459,7 @@
     <t>STRW-TRAN-FIS-5801</t>
   </si>
   <si>
-    <t>Urine Transfer Straw
+    <t xml:space="preserve">Urine Transfer Straw
 For USe With:    Urine Vacuum Tubes
 3"  (7.5cm)
 NonSterile
@@ -1495,7 +1494,7 @@
     <t>CLEAN-WOU6OZ-COL-1063</t>
   </si>
   <si>
-    <t>6oz Wound Cleanser
+    <t xml:space="preserve">6oz Wound Cleanser
 Spray Bottle
 No rinse
 NonSterile
@@ -1532,7 +1531,7 @@
     <t>THERM-INF-VIV-FR840</t>
   </si>
   <si>
-    <t>Thermometer - LCD Infrared Non Contact Forehead 
+    <t xml:space="preserve">Thermometer - LCD Infrared Non Contact Forehead 
 Fever Prompt 
 Auto Shut Off 
 Fast Reliable Readings in Seconds
@@ -1571,7 +1570,7 @@
     <t>PumpMTD-BRN341</t>
   </si>
   <si>
-    <t>Application: Manual Bottletop Dispenser Pump
+    <t xml:space="preserve">Application: Manual Bottletop Dispenser Pump
 Brand: Brandtech Scientific
 Adjustability Type: Digital
 Volume: 1-10mL
@@ -1604,7 +1603,7 @@
     <t>TST-FENT-DIP-CLIA</t>
   </si>
   <si>
-    <t>Fentanyl (FTY) Urine Dip Cassette Test Kit
+    <t xml:space="preserve">Fentanyl (FTY) Urine Dip Cassette Test Kit
 FDA/CLIA Waived POC ¬†¬†
 Ultra Sensitive Fentanyl Detection ¬†1 ng/ml
 Results in 5 Mins¬†
@@ -1637,7 +1636,7 @@
     <t>CRE-CLOT-1OZ</t>
   </si>
   <si>
-    <t>Antifungal Cream
+    <t xml:space="preserve">Antifungal Cream
 1% Clotrimazole
 1oz (30g) Tube
 1 Each
@@ -1669,7 +1668,7 @@
     <t>LBL-QL-BRO-DK1208</t>
   </si>
   <si>
-    <t>For List of Brother Compatible Printers See Below
+    <t xml:space="preserve">For List of Brother Compatible Printers See Below
 OEM DK-1208
 Die-Cut Paper Labels
 White Standard Address Labels
@@ -1699,7 +1698,7 @@
     <t>LBL-550-DYM-350R</t>
   </si>
   <si>
-    <t>Sold Per Roll (1 each)
+    <t xml:space="preserve">Sold Per Roll (1 each)
 350 Labels per Roll
 Authentic Dymo 550 LabelWriter Printer Labels
 Direct thermal printing technology does not use expensive ink or toner
@@ -1732,7 +1731,7 @@
     <t>ALCO16-HYD-D0042</t>
   </si>
   <si>
-    <t>Isopropyl Rubbing Alcohol
+    <t xml:space="preserve">Isopropyl Rubbing Alcohol
 16oz Screw Top Bottle
 Percentage: 91%
 First aid antiseptic to help prevent the risk of infection in minor cuts, scrapes or burns
@@ -1765,7 +1764,7 @@
     <t>OINT-ANTI-NWI-TAO1</t>
   </si>
   <si>
-    <t>Delivery: Ointment
+    <t xml:space="preserve">Delivery: Ointment
 Item: Triple Antibiotic
 Quantity: 1oz/Tube
 $3.52
@@ -1795,7 +1794,7 @@
     <t>Speci3CV</t>
   </si>
   <si>
-    <t>3.4oz (100mL) Vacuette Urine Specimen Collection Cup
+    <t xml:space="preserve">3.4oz (100mL) Vacuette Urine Specimen Collection Cup
 with Transfer Straw
 Patient Information 
 Sterile
@@ -1826,7 +1825,7 @@
     <t>BagZ2x2</t>
   </si>
   <si>
-    <t>2x2" Reclosable Zip-Style 2 Mil Poly Bags 
+    <t xml:space="preserve">2x2" Reclosable Zip-Style 2 Mil Poly Bags 
 Clear Line 
 1000/Case
 $8.74
@@ -1856,7 +1855,7 @@
     <t>LckK4120</t>
   </si>
   <si>
-    <t>Master Lock Solid Body Padlock
+    <t xml:space="preserve">Master Lock Solid Body Padlock
 ¾" W x 7/16" T
 4mm Hardened Steel Shackle
 Non-Keyable
@@ -1890,7 +1889,7 @@
     <t>Snack-Saltine500</t>
   </si>
   <si>
-    <t>Saltine Cracker Packs
+    <t xml:space="preserve">Saltine Cracker Packs
 2 original baked crackers per individually wrapped packet
 Perfect for snacking or with salad and soup
 Great for on-the go to keep you going
@@ -1922,7 +1921,7 @@
     <t>SENS-BREATHLZRPrismPREM</t>
   </si>
   <si>
-    <t>ATM-Premium Prism Sensor Module f / AlcoMate Premium Breathalyzer 
+    <t xml:space="preserve">ATM-Premium Prism Sensor Module f / AlcoMate Premium Breathalyzer 
 200 Tests per Each
 $31.19
  This item is in stock and available today!
@@ -1948,7 +1947,7 @@
     <t>HAND-SANI-KUT-8OZ</t>
   </si>
   <si>
-    <t>8oz Dial Professional Antibacterial Hand Sanitizer Gel with Pump
+    <t xml:space="preserve">8oz Dial Professional Antibacterial Hand Sanitizer Gel with Pump
 Fragrance-free
 Dye-free - Clear
 Kills 99.99% of Germs
@@ -1978,7 +1977,7 @@
     <t>BFLY-23G-MED-5061</t>
   </si>
   <si>
-    <t>Blue
+    <t xml:space="preserve">Blue
 Press &amp; Lock Safety Reliable Mechanism for Permanent Lock
 Ergonomic Wings for Ease of Use
 Ultra Sharp Needle for Patient Comfort
@@ -2010,7 +2009,7 @@
     <t>OINT-ANTI-NWI-TAOP9</t>
   </si>
   <si>
-    <t>Triple Antibiotic Ointment 0.9g
+    <t xml:space="preserve">Triple Antibiotic Ointment 0.9g
 Individual Packets
 Fragrance-free
 Phthalate-free
@@ -2044,7 +2043,7 @@
     <t>WIP-HAND-PDI-13472</t>
   </si>
   <si>
-    <t>Application: Instant Hand Sanitizing Wipes
+    <t xml:space="preserve">Application: Instant Hand Sanitizing Wipes
 Brand: PDI
 70% Ethyl Alcohol
 Wipe format removes dirt and soil better than gels and foams
@@ -2082,7 +2081,7 @@
     <t>SHAR-1QT-BEM-030</t>
   </si>
   <si>
-    <t>Application: Sharps Container
+    <t xml:space="preserve">Application: Sharps Container
 Color: Translucent Red
 Size: 1 Quart
 Brand: BEMIS
@@ -2113,7 +2112,7 @@
     <t>Syr-1mL27x12SF</t>
   </si>
   <si>
-    <t>TB Syringe 27g x 1/2in - 1mL
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
 w/Safety Shield
 Low Dead Space
 100 per Box - 1 Box Each
@@ -2142,7 +2141,7 @@
     <t>ElectrodeEKGrd</t>
   </si>
   <si>
-    <t>Red Dot ECG/EKG Resting Adult Electrode
+    <t xml:space="preserve">Red Dot ECG/EKG Resting Adult Electrode
 Conductive Adhesive Gel
 Contains Silver/Silver Chloride
 Tab Style 
@@ -2178,7 +2177,7 @@
     <t>Cap33-All-PS20-9S20P</t>
   </si>
   <si>
-    <t>33mm Pressure Sensitive Child Resistant Cap (CRC) 
+    <t xml:space="preserve">33mm Pressure Sensitive Child Resistant Cap (CRC) 
 White
 Fits 50cc, 60cc, and 75cc Bottles 
 2,300 per Case - 1 Case Each
@@ -2206,7 +2205,7 @@
     <t>BagCrshr</t>
   </si>
   <si>
-    <t>Silent Knight Pill Crusher Pouch Bags
+    <t xml:space="preserve">Silent Knight Pill Crusher Pouch Bags
 Curved Base Opening
 LDPE Material
 Pouch Size:   2 x 4 ½"
@@ -2240,7 +2239,7 @@
     <t>TST-HCG-PD-25SE</t>
   </si>
   <si>
-    <t>hCG Pregnancy Test Strip
+    <t xml:space="preserve">hCG Pregnancy Test Strip
 Results in 5 Minutes
 25 per Box
 CLIA Waived
@@ -2271,7 +2270,7 @@
     <t>STRP-GLU-MED-4002</t>
   </si>
   <si>
-    <t>One-Care Pro Glucose Meter Test Strips
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
 Professional Use
 50 Strips per Box 
 1 Box Each
@@ -2302,7 +2301,7 @@
     <t>SHAK-VAN-GEN-8OZ</t>
   </si>
   <si>
-    <t>Vanilla Flavored
+    <t xml:space="preserve">Vanilla Flavored
 9g high-quality protein
 220 nutrient-rich calories with B-vitamins
 Contains vitamins C &amp; D, zinc, iron, and selenium, key nutrients for immune support
@@ -2332,7 +2331,7 @@
     <t>GAUZ-4X4-DUK-8509</t>
   </si>
   <si>
-    <t>Brand: Dukal
+    <t xml:space="preserve">Brand: Dukal
 Application: Gauze Sponge
 Ply: 8
 Size: 4x4
@@ -2366,7 +2365,7 @@
     <t>GAUZ-2X2-DUK-8505</t>
   </si>
   <si>
-    <t>Brand: Dukal
+    <t xml:space="preserve">Brand: Dukal
 Application: Gauze Sponge
 Ply: 8
 Size: 2x2
@@ -2400,7 +2399,7 @@
     <t>Tourniquet-18NL</t>
   </si>
   <si>
-    <t>Tourniquet  1" x 18" 
+    <t xml:space="preserve">Tourniquet  1" x 18" 
 Slip Resistant Textured Grip
 BLUE
 Latex Free
@@ -2435,7 +2434,7 @@
     <t>Lbl-Dym-334W</t>
   </si>
   <si>
-    <t>Sold Per Roll (1 Each)
+    <t xml:space="preserve">Sold Per Roll (1 Each)
 Labels Per Roll: 1,000
 Label Width: 2-1/4"
 Label Height: 1-¼"
@@ -2469,7 +2468,7 @@
     <t>ALC-32OZ-HYD-D0024</t>
   </si>
   <si>
-    <t>Application: Isopropyl Rubbing Alcohol  
+    <t xml:space="preserve">Application: Isopropyl Rubbing Alcohol  
 Size: 32oz
 Percentage: 70%
 Cleans minor cuts, scrapes and burns while it helps reduce the risk of infection
@@ -2501,7 +2500,7 @@
     <t>BOT60-STRPLX-RS060F6-N</t>
   </si>
   <si>
-    <t>60cc Bottle
+    <t xml:space="preserve">60cc Bottle
 Made in the USA
 Color: Natural
 Type: Round
@@ -2533,7 +2532,7 @@
     <t>PAPERTissFacial</t>
   </si>
   <si>
-    <t>Facial Tissues
+    <t xml:space="preserve">Facial Tissues
 8" x 8.25"
 White
 2 Ply
@@ -2561,7 +2560,7 @@
     <t>TST-6PD-PD-865</t>
   </si>
   <si>
-    <t>6 Panel Urine Dip Card
+    <t xml:space="preserve">6 Panel Urine Dip Card
 Sample Type: Urine
 Format: Dip Card
 Time to Results: 5 minutes
@@ -2604,7 +2603,7 @@
     <t>TST-14PC-PD-T1144</t>
   </si>
   <si>
-    <t>14 Panel Drug Test Cup
+    <t xml:space="preserve">14 Panel Drug Test Cup
 CLIA Waived
 Tests for:
 AMP
@@ -2649,7 +2648,7 @@
     <t>TST-12PC-PD-C6125A3</t>
   </si>
   <si>
-    <t>Sample Type: Urine
+    <t xml:space="preserve">Sample Type: Urine
 Contains: Adulterants
 Format: T-Cup Compact with temperature strip
 Volume: 120mL
@@ -2701,7 +2700,7 @@
     <t>TST-14PC-AT-FTYL</t>
   </si>
   <si>
-    <t>Rapid Drug Test Cup
+    <t xml:space="preserve">Rapid Drug Test Cup
 CLIA Waived
 510K Approved
 Accurate Results within 5 Minutes
@@ -2746,7 +2745,7 @@
     <t>SHA-5QT-RCVY</t>
   </si>
   <si>
-    <t>Recovery system Includes:
+    <t xml:space="preserve">Recovery system Includes:
 5 Quart Sharps Container (2.25″ L x 4.75″ W x 10.5″ H)
 Protective Plastic Liner and Tie 
 Specially Designed &amp; Approved Inner Carton
@@ -2779,7 +2778,7 @@
     <t>HLDR-TUBE-BLD-COLL</t>
   </si>
   <si>
-    <t>Blood Collection Tube Holders
+    <t xml:space="preserve">Blood Collection Tube Holders
 For 13 to 16mm Blood Collection Tubes
 Universal design for compatibility with blood collection needles and winged sets
 DEHP Free and Latex Free Materials
@@ -2808,7 +2807,7 @@
     <t>VAC-6ML-BD-6408</t>
   </si>
   <si>
-    <t>6mL Venous Blood Collection Tube
+    <t xml:space="preserve">6mL Venous Blood Collection Tube
 No Additive
 BD Hemogard Closure
 Silicone Coated Closure
@@ -2847,7 +2846,7 @@
     <t>Cap28-All-PS20P</t>
   </si>
   <si>
-    <t>Fits 30cc &amp; 45cc Bottles
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
 White
 2800 per Case
 1 Case Each
@@ -2878,7 +2877,7 @@
     <t>MASK-BLU-ASP-15120BX</t>
   </si>
   <si>
-    <t>Blue Earloop Procedure Face Masks
+    <t xml:space="preserve">Blue Earloop Procedure Face Masks
 ASTM Level 1
 3 Layer - 4 Fold Pleat
 Ultra Soft Inner Liner
@@ -2908,7 +2907,7 @@
     <t>BAND-COH-2X5-ROLL</t>
   </si>
   <si>
-    <t>2" x 5yds Cohesive Elastic Bandage Wrap
+    <t xml:space="preserve">2" x 5yds Cohesive Elastic Bandage Wrap
 TAN
 Self Adherent
 Flexible
@@ -2942,7 +2941,7 @@
     <t>Lbl-DMX-351W</t>
   </si>
   <si>
-    <t>Datamax Compatible White Direct Thermal Labels 
+    <t xml:space="preserve">Datamax Compatible White Direct Thermal Labels 
 Sold Per Roll (1 Each)
 Qty: 1,380 per Roll
 3.5'' x 1''
@@ -2973,7 +2972,7 @@
     <t>COLDPK-DUK-9851</t>
   </si>
   <si>
-    <t>4" x 5" Instand Cold Pack
+    <t xml:space="preserve">4" x 5" Instand Cold Pack
 Flexible material conforms to body
 Helps reduce swelling
 Ideal for minor sprains, muscle spasms, headaches, and burns
@@ -3006,7 +3005,7 @@
     <t>Cup1-346</t>
   </si>
   <si>
-    <t>1oz Medicine Translucent Polypropylene Cup
+    <t xml:space="preserve">1oz Medicine Translucent Polypropylene Cup
 Easy Graduations
 Disposable
 Great for pill or liquid medication
@@ -3038,7 +3037,7 @@
     <t>Butterfly-GV096</t>
   </si>
   <si>
-    <t>23g x 3/4"  Safety Butterfly Blood Collection Set
+    <t xml:space="preserve">23g x 3/4"  Safety Butterfly Blood Collection Set
 with  Luer Adapter
 12" Tubing
 Single Packed
@@ -3070,7 +3069,7 @@
     <t>Bandg3-4x3SF</t>
   </si>
   <si>
-    <t>3" x ¾" Lightweight Flexible Fabric Bandage
+    <t xml:space="preserve">3" x ¾" Lightweight Flexible Fabric Bandage
 Tan
 Stat Strip Adhesive Bandage
 100/Box
@@ -3099,7 +3098,7 @@
     <t>Bandg1x3SF</t>
   </si>
   <si>
-    <t>Adhesive Bandage
+    <t xml:space="preserve">Adhesive Bandage
 Sterile
 Lightweight
 Designed to provide comfortable protection
@@ -3137,7 +3136,7 @@
     <t>BagZ4x6</t>
   </si>
   <si>
-    <t>An economical choice for short term, lightweight or refrigerated storage
+    <t xml:space="preserve">An economical choice for short term, lightweight or refrigerated storage
 Bags are packed in inner dispenser packs of 100 bags each for cleanliness and convenience
 Cases and inner packs are bar coded and clearly labeled for easy identification
 Meet FDA requirements for use in food applications
@@ -3173,7 +3172,7 @@
     <t>BagMed-855NB</t>
   </si>
   <si>
-    <t>Medium 8" x 5.5" Lockable Medication Bag
+    <t xml:space="preserve">Medium 8" x 5.5" Lockable Medication Bag
 Made of Denier Fabric and Laminated Nylon 
 Navy Blue
 1 Each
@@ -3205,7 +3204,7 @@
     <t>TST-16PC-PD-C9165</t>
   </si>
   <si>
-    <t>16-Panel T-Cup Compact - 4oz Cup
+    <t xml:space="preserve">16-Panel T-Cup Compact - 4oz Cup
 Sample Type: Urine
 Format: T-Cup Compact with temperature strip
 Volume: 120mL
@@ -3260,7 +3259,7 @@
     <t>GLV-NIT-SEM-B105XL</t>
   </si>
   <si>
-    <t>Powder Free
+    <t xml:space="preserve">Powder Free
 Latex Free
 3 mil Thickness
 Textured Fingertips
@@ -3306,7 +3305,7 @@
     <t>GLV-NIT-SEM-B104L</t>
   </si>
   <si>
-    <t>Powder Free
+    <t xml:space="preserve">Powder Free
 Latex Free
 3 mil Thickness
 Textured Fingertips
@@ -3349,7 +3348,7 @@
     <t>GLV-NIT-SEM-B103M</t>
   </si>
   <si>
-    <t>Powder Free
+    <t xml:space="preserve">Powder Free
 Latex Free
 3 mil Thickness
 Textured Fingertips
@@ -3392,7 +3391,7 @@
     <t>GLV-NIT-SEM-B102S</t>
   </si>
   <si>
-    <t>Powder Free
+    <t xml:space="preserve">Powder Free
 Latex Free
 3 mil Thickness
 Textured Fingertips
@@ -3435,7 +3434,7 @@
     <t>VAC-6ML-GRE-6085</t>
   </si>
   <si>
-    <t>Plain 6mL Blood Collection Tube
+    <t xml:space="preserve">Plain 6mL Blood Collection Tube
 Z No Additives
 WHITE Cap with BLACK Ring
 13 x 100mm
@@ -3470,7 +3469,7 @@
     <t>WIPE-DIS-LYS-77182</t>
   </si>
   <si>
-    <t>Lysol Disinfecting Wipes 
+    <t xml:space="preserve">Lysol Disinfecting Wipes 
 Kills 99.9% of viruses and bacteria, including 8 cold and flu viruses
 Cleans AND disinfects your household surfaces
 Safe to use on electronics including Smartphones, Tablets and Remote Controls
@@ -3504,7 +3503,7 @@
     <t>WIPE-MIC-M60034</t>
   </si>
   <si>
-    <t>Medical Grade Disinfectant Wipes
+    <t xml:space="preserve">Medical Grade Disinfectant Wipes
 Kills 99.9% of Viruses and Bacteria
  Fragrance Free
  6" x 6.75"
@@ -3534,7 +3533,7 @@
     <t>PadABD-8x75S</t>
   </si>
   <si>
-    <t>8" Sterile ABD Pad
+    <t xml:space="preserve">8" Sterile ABD Pad
 8" x 7.5" 
 20 Pads per Box 
 1 Box Each
@@ -3564,7 +3563,7 @@
     <t>Mix-TE959-Orng</t>
   </si>
   <si>
-    <t>Drink Mix Thirst Ease
+    <t xml:space="preserve">Drink Mix Thirst Ease
 Orange Powder
 Wood Fruitticher #010959.
 12 - 2gal packets per case = 1 Case Each
@@ -3593,7 +3592,7 @@
     <t>Gauze2x2-12p</t>
   </si>
   <si>
-    <t>2 x 2 Cotton Gauze Pads - 12 Ply
+    <t xml:space="preserve">2 x 2 Cotton Gauze Pads - 12 Ply
 NonSterile
 100% Woven Cotton
 200 per Pack
@@ -3624,7 +3623,7 @@
     <t>BREATHLYZRMthpcAlco</t>
   </si>
   <si>
-    <t>Mouthpiece Fits AlcoMate Breathalyzers
+    <t xml:space="preserve">Mouthpiece Fits AlcoMate Breathalyzers
 50 Mouthpieces per Bag
 1 Bag Each
 $20.80
@@ -3654,7 +3653,7 @@
     <t>vitadone-mat</t>
   </si>
   <si>
-    <t>Helps patients manage their side effects
+    <t xml:space="preserve">Helps patients manage their side effects
 Vitadone helps to appreciably reduce the bad side effects of methadone dosing
 Helps with excessive sweating, irregularity, sugar cravings and fatigue
 Quantity Discounts
@@ -3687,7 +3686,7 @@
     <t>TST-STRP-GER-51100</t>
   </si>
   <si>
-    <t>General Chemistry Urine Reagent Test Strips
+    <t xml:space="preserve">General Chemistry Urine Reagent Test Strips
 CLIA Waived
 Tests Urine for
 Glucose¬†
@@ -3728,7 +3727,7 @@
     <t>PAD-ALC-GEN-MED</t>
   </si>
   <si>
-    <t>Isopropyl Alcohol 70%
+    <t xml:space="preserve">Isopropyl Alcohol 70%
  Sterile Alcohol Prep Pad
 Dimensions: 1 X 1 1/4 Inch
 Individual Packets
@@ -3767,7 +3766,7 @@
     <t>PAD-ALC-GEN-LG</t>
   </si>
   <si>
-    <t>Saturated with 70% isopropyl alcohol
+    <t xml:space="preserve">Saturated with 70% isopropyl alcohol
 2-Ply Non-Woven Pads
 1.75" x 3.3"
 100 per Box
@@ -3799,7 +3798,7 @@
     <t>Bot30Pack-E6-N</t>
   </si>
   <si>
-    <t>30cc Wide - Mouth Round
+    <t xml:space="preserve">30cc Wide - Mouth Round
 Neck Finish: 28/400
 1500 per Case
 1 Case Each
@@ -3830,7 +3829,7 @@
     <t>GAUZE-DUK-2104</t>
   </si>
   <si>
-    <t>4in x 4in Gauze Sponge 4 Ply
+    <t xml:space="preserve">4in x 4in Gauze Sponge 4 Ply
 Nonwoven
 Highly Absorbent
 Non-Linting
@@ -3865,7 +3864,7 @@
     <t>GLVNIT-S-4501</t>
   </si>
   <si>
-    <t>IMCO Blue Nitrile Medical Exam Gloves
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
 Fentanyl and Chemo Rated for Protection
 SMALL
 Powder Free
@@ -3897,7 +3896,7 @@
     <t>WipeSani-172</t>
   </si>
   <si>
-    <t>Super Sani-Cloth Surface Disinfectant Cleaner Wipe
+    <t xml:space="preserve">Super Sani-Cloth Surface Disinfectant Cleaner Wipe
 6" x 6.75"
 Premoistened Germicidal Wipe
 Quaternary Ammonium / Isopropyl Alcohol
@@ -3931,7 +3930,7 @@
     <t>BagZ2x3</t>
   </si>
   <si>
-    <t>Keep your items clean and dry with our reclosable poly bags. These 2 mil bags are made of low-density polyethylene (LDPE) and feature a superior zipper closure to keep your items safe. The single track zipper is easy to pull open and pinch shut, so you can be sure that your items are sealed and protected from dirt and moisture.
+    <t xml:space="preserve">Keep your items clean and dry with our reclosable poly bags. These 2 mil bags are made of low-density polyethylene (LDPE) and feature a superior zipper closure to keep your items safe. The single track zipper is easy to pull open and pinch shut, so you can be sure that your items are sealed and protected from dirt and moisture.
 $9.34
  This item is in stock and available today!
 Current Stock: 200
@@ -3959,7 +3958,7 @@
     <t>VAC-BLD-BD-367988</t>
   </si>
   <si>
-    <t>The Vacutainer SST Blood Collection Tube was designed to make serum sample preparation more efficient and improve laboratory workflow.
+    <t xml:space="preserve">The Vacutainer SST Blood Collection Tube was designed to make serum sample preparation more efficient and improve laboratory workflow.
 $80.00
  This item is in stock and available today!
 Current Stock: 85
@@ -3987,7 +3986,7 @@
     <t>CUP-3OZ-GMX-GP58030</t>
   </si>
   <si>
-    <t>Application: Clear Plastic Cup
+    <t xml:space="preserve">Application: Clear Plastic Cup
 Brand: GMAX
 Color: Translucent
 Volume: 3oz
@@ -4021,7 +4020,7 @@
     <t>StrawStir-Blk</t>
   </si>
   <si>
-    <t>Plastic Coffee Stir/Straw
+    <t xml:space="preserve">Plastic Coffee Stir/Straw
 Black
 5-1/2" Polypropylene (PP)
 Unwrapped
@@ -4052,7 +4051,7 @@
     <t>DisnfctntSpry-469</t>
   </si>
   <si>
-    <t>PRO Commercial Lysol Disinfectant Spray
+    <t xml:space="preserve">PRO Commercial Lysol Disinfectant Spray
 19oz Can
 Kills 99.9% illness causing germs, viruses and bacteria
 Disinfects hard non-porous surfaces and soft surfaces
@@ -4082,7 +4081,7 @@
     <t>TST-COV19-GER-118B5</t>
   </si>
   <si>
-    <t>*** CLEARANCE ¬†ITEM - ONLY While Supplies Last ***
+    <t xml:space="preserve">*** CLEARANCE ¬†ITEM - ONLY While Supplies Last ***
 A rapid test for the detection of SARS-CoV-2 nucleocapsid antigens in anterior nasal swab specimens. For in vitro diagnostic use only. For Emergency Use Authorization only
 Visual Read
 Results in 15 mins
@@ -4122,7 +4121,7 @@
     <t>TEST-ARK-500050</t>
   </si>
   <si>
-    <t>Precise and accurate test strip chemistry is augmented by auto-coding, reducing the chance of error
+    <t xml:space="preserve">Precise and accurate test strip chemistry is augmented by auto-coding, reducing the chance of error
 Feature loaded and made for multi-resident use, it helps keep you in compliance with state regulations and eases infection control concerns
 Precise and accurate strip chemistry is augmented by auto-coding, which can reduce chances for user error
 $23.34
@@ -4152,7 +4151,7 @@
     <t>BagBioZ6x9</t>
   </si>
   <si>
-    <t>6" x 9" Lab-Loc Specimen Transport Bag 
+    <t xml:space="preserve">6" x 9" Lab-Loc Specimen Transport Bag 
 Clear
 Re-closeable 
 W/ 3-Wl
@@ -4181,7 +4180,7 @@
     <t>TST-FEN-PD-FT114</t>
   </si>
   <si>
-    <t>Sample Type: Urine
+    <t xml:space="preserve">Sample Type: Urine
 Forensic Use Only
 Format: Dip Card
 Time to Results: 5 minutes
@@ -4217,7 +4216,7 @@
     <t>TST-ETG-PD-TG114</t>
   </si>
   <si>
-    <t>Sample Type: Urine
+    <t xml:space="preserve">Sample Type: Urine
 Format: Dip Card
 Time to Results: 5 minutes
 Tests for: Ethyl Glucuronide (EtG)
@@ -4253,7 +4252,7 @@
     <t>TST-9PD-PD-994NT</t>
   </si>
   <si>
-    <t>9-Panel Urine Dip Card
+    <t xml:space="preserve">9-Panel Urine Dip Card
 Sample Type: Urine
 Format: Dip Card
 Time to Results: 5 minutes
@@ -4296,7 +4295,7 @@
     <t>TST-12PD-PD-6125</t>
   </si>
   <si>
-    <t>12 Panel Urine Dip Card
+    <t xml:space="preserve">12 Panel Urine Dip Card
 Sample Type: Urine
 Format: Dip Card
 Time to Results: 5 minutes
@@ -4333,7 +4332,7 @@
     <t>TST-12PC-PD-T6124</t>
   </si>
   <si>
-    <t>12 Panel Drug Test Cup
+    <t xml:space="preserve">12 Panel Drug Test Cup
 Sample Type: Urine
 Format: T-Cup Compact with temperature strip
 Volume: 120mL
@@ -4380,7 +4379,7 @@
     <t>TST-12PC-PD-C6125</t>
   </si>
   <si>
-    <t>12 Panel 4oz Compact Cup
+    <t xml:space="preserve">12 Panel 4oz Compact Cup
 Sample Type: Urine
 Format: T-Cup Compact with temperature strip
 Volume: 120mL
@@ -4418,7 +4417,7 @@
     <t>TST-10PD-PD-9104</t>
   </si>
   <si>
-    <t>10 Panel Dip Card
+    <t xml:space="preserve">10 Panel Dip Card
 Sample Type: Urine
 Format: Dip Card
 Time to Results: 5 minutes
@@ -4465,7 +4464,7 @@
     <t>TST-10PC-PD-C8105</t>
   </si>
   <si>
-    <t>Urine
+    <t xml:space="preserve">Urine
 4oz 120mL Volume Cup 
 Temperature Strip
 5 minutes Result Time
@@ -4514,7 +4513,7 @@
     <t>WIPE-SANI-PDI-P86984</t>
   </si>
   <si>
-    <t>Fast contact time allows for a quick room turnover
+    <t xml:space="preserve">Fast contact time allows for a quick room turnover
 Ideal for daily use in fast-paced environments that require short contact times and broad coverage of microorganisms
 Bactericidial, tuberculocidal, virucidal
 Effective against 30 microorganisms in 2 minutes
@@ -4546,7 +4545,7 @@
     <t>PULSEOX-FAB-121926</t>
   </si>
   <si>
-    <t>Baseline Finger Pulse Oximeter
+    <t xml:space="preserve">Baseline Finger Pulse Oximeter
 Visual Alarm
 LED Display
 Battery Operated - (2) AAA Included
@@ -4580,7 +4579,7 @@
     <t>Sharps5QtC-R</t>
   </si>
   <si>
-    <t>Sharps Collection/Disposal Container
+    <t xml:space="preserve">Sharps Collection/Disposal Container
  5 Quart Capacity
 Red
 Anti-Kickback Lid
@@ -4616,7 +4615,7 @@
     <t>Sharps2GC-R</t>
   </si>
   <si>
-    <t>Red Sharps Collection Container
+    <t xml:space="preserve">Red Sharps Collection Container
 White Horizontal Entry Counter Balanced Cylinder Lid
 Size: 2 Gallon
 Locking Lid
@@ -4651,7 +4650,7 @@
     <t>Cup2-200</t>
   </si>
   <si>
-    <t>Application: Plastic Souffle Cup
+    <t xml:space="preserve">Application: Plastic Souffle Cup
 Color: Translucent
 Volume: 2oz
 Made From: Plastic
@@ -4677,7 +4676,7 @@
     <t>ALC-ISO-HYD-D0022</t>
   </si>
   <si>
-    <t>Isopropyl Rubbing Alcohol 70%
+    <t xml:space="preserve">Isopropyl Rubbing Alcohol 70%
 16oz Bottle
 Antiseptic Liquid
 Helps prevent the risk of infection due to minor cuts, scrapes and burns
@@ -4710,7 +4709,7 @@
     <t>TUBING-NET-50FT</t>
   </si>
   <si>
-    <t>Application: Replacement Tubing
+    <t xml:space="preserve">Application: Replacement Tubing
 Compatibility: Intended for Use with SciLog Automatic Methadone Dispensing Pump
 Length: 50 Feet
 1 Each
@@ -4741,7 +4740,7 @@
     <t>Sealer500A</t>
   </si>
   <si>
-    <t>Manual Induction Sealer Machine
+    <t xml:space="preserve">Manual Induction Sealer Machine
 110V Electromagnetic
 Hand held operation w/ thumb switch
 Sealing time digital display (seconds and tenth of seconds)
@@ -4777,7 +4776,7 @@
     <t>PAN-SPECI-GMX-215</t>
   </si>
   <si>
-    <t>Deluxe Commode Specimen Pan Collector 
+    <t xml:space="preserve">Deluxe Commode Specimen Pan Collector 
 800mL
 Graduated
 White
@@ -4807,7 +4806,7 @@
     <t>CUP-5OZ-GMX-GP58050</t>
   </si>
   <si>
-    <t>5oz Clear Plastic Cup
+    <t xml:space="preserve">5oz Clear Plastic Cup
 Rolled Lip
 Disposable
 Latex Free
@@ -4840,7 +4839,7 @@
     <t>Lbl-Dym-321W</t>
   </si>
   <si>
-    <t>260 Labels per Roll
+    <t xml:space="preserve">260 Labels per Roll
 White
 30321 Dymo Compatible
 1-4/10" X 3.5" w/ Permanent Adhesive 
@@ -4873,7 +4872,7 @@
     <t>Bot45Sq-502</t>
   </si>
   <si>
-    <t>45cc
+    <t xml:space="preserve">45cc
 Natural Square Bottle
 1,505/Case
 $199.76
@@ -4903,7 +4902,7 @@
     <t>Bot30Rd-749</t>
   </si>
   <si>
-    <t>30cc 
+    <t xml:space="preserve">30cc 
 Natural Wide Mouth Round Bottle 
 1,900/Case
 $197.90
@@ -4930,7 +4929,7 @@
     <t>WIPE-DIS-CLO-31757</t>
   </si>
   <si>
-    <t>Clorox Heallthcare VersaSure Disinfectant Wipes
+    <t xml:space="preserve">Clorox Heallthcare VersaSure Disinfectant Wipes
 Alcohol Free
 Fragrance Free
 Fume Free
@@ -4967,7 +4966,7 @@
     <t>SPECI-3OZ-ALE-190058</t>
   </si>
   <si>
-    <t>90mL (3oz) Urine Specimen Cup
+    <t xml:space="preserve">90mL (3oz) Urine Specimen Cup
 with Graduations
 Temperature Strip
 Screw Top Cap
@@ -5002,7 +5001,7 @@
     <t>Lbl-Dym-252W</t>
   </si>
   <si>
-    <t>Sold Per Roll (1 Each)
+    <t xml:space="preserve">Sold Per Roll (1 Each)
 350 Labels per Roll
 Dymo Compatible White Direct Thermal Labels 
 1-1/8" x 3.5" w/ Permanent Adhesive 
@@ -5031,7 +5030,7 @@
     <t>Mix-Twist-892</t>
   </si>
   <si>
-    <t>Mix powder with two gallons of water in bubbler or large container
+    <t xml:space="preserve">Mix powder with two gallons of water in bubbler or large container
 Ingredients: Sugar, Citric Acid, Contains Less Than 2% Of Natural And Artificial Flavor, Ascorbic Acid (Vitamin C), Calcium Phosphate, Acesfulfame Potassium And Neotame (Sweeteners), Artificial Color, Red 40 BHA (Preserves Freshness)
 Qty: 12 two-gallon packets per case
 *Sold Only By the Case*
@@ -5057,7 +5056,7 @@
     <t>BagZ2x5</t>
   </si>
   <si>
-    <t>2in x 5in Clear Line Zipper Reclosable bags
+    <t xml:space="preserve">2in x 5in Clear Line Zipper Reclosable bags
  Meets FDA requirements
 2 mil Recyclable LDPE Material
 Bags are packed in inner dispenser packs of 100 bags each
@@ -5089,7 +5088,7 @@
     <t>TST-HCG-PD-W1C</t>
   </si>
   <si>
-    <t>hCG Pregnancy Test Cassette
+    <t xml:space="preserve">hCG Pregnancy Test Cassette
 Rapid Results in 5 mins
 Urine Sample
 CLIA Waived
@@ -5123,7 +5122,7 @@
     <t>Lbl-Zbr-1535W</t>
   </si>
   <si>
-    <t>Sold Per Roll (1 Each)
+    <t xml:space="preserve">Sold Per Roll (1 Each)
 Qty: 420 labels per Roll
 1.5" X 3.5"
 Zebra Compatible White Direct Thermal Labels
@@ -5154,7 +5153,7 @@
     <t>Vitadone</t>
   </si>
   <si>
-    <t>Helps patients manage their side effects
+    <t xml:space="preserve">Helps patients manage their side effects
 Vitadone helps to appreciably reduce the bad side effects of methadone dosing
 Helps with excessive sweating, irregularity, sugar cravings and¬†fatigue
 24 Bottles per Case
@@ -5315,7 +5314,7 @@
     <t>Elkay</t>
   </si>
   <si>
-    <t>Application: Clear Plastic Cup
+    <t xml:space="preserve">Application: Clear Plastic Cup
 Brand: GMAX
 Color: Translucent
 Volume: 3oz
@@ -5361,7 +5360,7 @@
     <t>SciLog</t>
   </si>
   <si>
-    <t>45cc
+    <t xml:space="preserve">45cc
 Natural Square Bottle
 1,505/Case
 $199.76
@@ -5376,7 +5375,7 @@
     <t>Berry Global</t>
   </si>
   <si>
-    <t>30cc 
+    <t xml:space="preserve">30cc 
 Natural Wide Mouth Round Bottle 
 1,900/Case
 $197.90
@@ -5393,21 +5392,164 @@
   <si>
     <t>Abbott</t>
   </si>
+  <si>
+    <t>04:33 PM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 793
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Isopropyl Rubbing Alcohol  
+Size: 32oz
+Percentage: 70%
+Cleans minor cuts, scrapes and burns while it helps reduce the risk of infection
+1 Each
+$5.93
+ This item is in stock and available today!
+Current Stock: 383
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datamax Compatible White Direct Thermal Labels 
+Sold Per Roll (1 Each)
+Qty: 1,380 per Roll
+3.5'' x 1''
+$15.51
+ This item is in stock and available today!
+Current Stock: 227
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 1050
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 304
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+$76.00
+ This item is in stock and available today!
+Current Stock: 539
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Replacement Tubing
+Compatibility: Intended for Use with SciLog Automatic Methadone Dispensing Pump
+Length: 50 Feet
+1 Each
+$152.49
+ This item is in stock and available today!
+Current Stock: 33
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cc
+Natural Square Bottle
+1,505/Case
+$199.76
+ This item is in stock and available today!
+Current Stock: 1921
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5771,59 +5913,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K307"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A308" sqref="A308"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="100.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="80" customWidth="1"/>
+    <col min="5" max="5" width="80" customWidth="1"/>
+    <col min="6" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5852,7 +5998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5878,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5904,7 +6050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5930,7 +6076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5959,7 +6105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5988,7 +6134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6017,7 +6163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6046,7 +6192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6075,7 +6221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6104,7 +6250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6133,7 +6279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6162,7 +6308,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -6191,7 +6337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -6220,7 +6366,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6249,7 +6395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6278,7 +6424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6307,7 +6453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +6482,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6365,7 +6511,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -6394,7 +6540,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -6423,7 +6569,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -6449,7 +6595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -6478,7 +6624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +6650,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -6530,7 +6676,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -6559,7 +6705,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6588,7 +6734,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +6760,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6640,7 +6786,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -6669,7 +6815,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -6698,7 +6844,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6873,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -6756,7 +6902,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -6785,7 +6931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6960,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -6843,7 +6989,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +7018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -6898,7 +7044,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -6927,7 +7073,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -6953,7 +7099,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -6982,7 +7128,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -7011,7 +7157,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -7040,7 +7186,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -7066,7 +7212,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7095,7 +7241,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -7124,7 +7270,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7150,7 +7296,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7179,7 +7325,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7208,7 +7354,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7237,7 +7383,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7266,7 +7412,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7295,7 +7441,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -7324,7 +7470,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -7353,7 +7499,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7379,7 +7525,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -7408,7 +7554,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -7437,7 +7583,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7463,7 +7609,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -7492,7 +7638,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -7518,7 +7664,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -7547,7 +7693,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -7576,7 +7722,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -7605,7 +7751,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -7634,7 +7780,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -7660,7 +7806,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -7689,7 +7835,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -7715,7 +7861,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -7744,7 +7890,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -7773,7 +7919,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -7802,7 +7948,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -7828,7 +7974,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -7857,7 +8003,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -7886,7 +8032,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -7915,7 +8061,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -7944,7 +8090,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -7973,7 +8119,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -8002,7 +8148,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -8028,7 +8174,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -8057,7 +8203,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -8086,7 +8232,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -8115,7 +8261,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -8141,7 +8287,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -8160,11 +8306,12 @@
       <c r="G84" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="H84" s="1"/>
       <c r="I84" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -8190,7 +8337,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -8219,7 +8366,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -8248,7 +8395,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -8274,7 +8421,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -8303,7 +8450,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -8332,7 +8479,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -8361,7 +8508,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -8390,7 +8537,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -8419,7 +8566,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -8448,7 +8595,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -8477,7 +8624,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -8506,7 +8653,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -8535,7 +8682,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8711,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -8593,7 +8740,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -8622,7 +8769,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -8651,7 +8798,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -8680,7 +8827,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -8709,7 +8856,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -8735,7 +8882,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -8764,7 +8911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8793,7 +8940,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -8822,7 +8969,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -8851,7 +8998,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -8880,7 +9027,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -8906,7 +9053,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -8935,7 +9082,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -8964,7 +9111,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -8993,7 +9140,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -9022,7 +9169,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -9051,7 +9198,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -9080,7 +9227,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -9109,7 +9256,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -9138,7 +9285,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -9167,7 +9314,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -9196,7 +9343,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -9222,7 +9369,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -9251,7 +9398,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -9280,7 +9427,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -9309,7 +9456,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -9338,7 +9485,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -9367,7 +9514,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -9396,7 +9543,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -9425,7 +9572,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -9454,7 +9601,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -9483,7 +9630,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -9512,7 +9659,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -9541,7 +9688,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -9570,7 +9717,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -9599,7 +9746,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -9628,7 +9775,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -9657,7 +9804,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -9686,7 +9833,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -9712,7 +9859,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -9741,7 +9888,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -9770,7 +9917,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -9799,7 +9946,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -9828,7 +9975,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -9857,7 +10004,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -9886,7 +10033,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -9915,7 +10062,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -9944,7 +10091,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -9973,7 +10120,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -10002,7 +10149,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -10031,7 +10178,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -10060,7 +10207,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -10089,7 +10236,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -10118,7 +10265,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -10147,7 +10294,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -10173,7 +10320,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -10202,7 +10349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -10228,7 +10375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -10254,7 +10401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -10280,7 +10427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -10312,7 +10459,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -10341,7 +10488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -10373,7 +10520,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -10405,7 +10552,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -10437,7 +10584,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -10457,7 +10604,7 @@
         <v>75</v>
       </c>
       <c r="G164" s="1">
-        <v>16.440000000000001</v>
+        <v>16.44</v>
       </c>
       <c r="H164" s="1">
         <v>206</v>
@@ -10469,7 +10616,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -10501,7 +10648,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -10533,7 +10680,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -10565,7 +10712,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -10597,7 +10744,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -10629,7 +10776,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -10661,7 +10808,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -10693,7 +10840,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -10725,7 +10872,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -10757,7 +10904,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -10789,7 +10936,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -10821,7 +10968,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -10847,7 +10994,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -10879,7 +11026,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -10905,7 +11052,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -10931,7 +11078,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -10963,7 +11110,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -10995,7 +11142,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -11021,7 +11168,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -11047,7 +11194,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -11076,7 +11223,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -11096,7 +11243,7 @@
         <v>214</v>
       </c>
       <c r="G185" s="1">
-        <v>33.479999999999997</v>
+        <v>33.48</v>
       </c>
       <c r="H185" s="1">
         <v>54</v>
@@ -11108,7 +11255,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -11140,7 +11287,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -11160,7 +11307,7 @@
         <v>228</v>
       </c>
       <c r="G187" s="1">
-        <v>9.6300000000000008</v>
+        <v>9.63</v>
       </c>
       <c r="H187" s="1">
         <v>377</v>
@@ -11172,7 +11319,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -11204,7 +11351,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -11236,7 +11383,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -11268,7 +11415,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -11300,7 +11447,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -11326,7 +11473,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -11358,7 +11505,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -11387,7 +11534,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -11419,7 +11566,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -11451,7 +11598,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -11483,7 +11630,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -11509,7 +11656,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -11541,7 +11688,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -11573,7 +11720,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -11590,7 +11737,7 @@
         <v>319</v>
       </c>
       <c r="G201" s="1">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="H201" s="1">
         <v>45</v>
@@ -11599,7 +11746,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -11628,7 +11775,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>10</v>
       </c>
@@ -11657,7 +11804,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -11689,7 +11836,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -11709,7 +11856,7 @@
         <v>347</v>
       </c>
       <c r="G205" s="1">
-        <v>9.6300000000000008</v>
+        <v>9.63</v>
       </c>
       <c r="H205" s="1">
         <v>579</v>
@@ -11721,7 +11868,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -11741,7 +11888,7 @@
         <v>353</v>
       </c>
       <c r="G206" s="1">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="H206" s="1">
         <v>1380</v>
@@ -11753,7 +11900,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -11785,7 +11932,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -11817,7 +11964,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -11846,7 +11993,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -11875,7 +12022,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -11907,7 +12054,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -11933,7 +12080,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -11962,7 +12109,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>10</v>
       </c>
@@ -11991,7 +12138,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -12023,7 +12170,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -12043,7 +12190,7 @@
         <v>417</v>
       </c>
       <c r="G216" s="1">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="H216" s="1">
         <v>38</v>
@@ -12055,7 +12202,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -12087,7 +12234,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -12119,7 +12266,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -12145,7 +12292,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -12177,7 +12324,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -12203,7 +12350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -12235,7 +12382,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -12267,7 +12414,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -12299,7 +12446,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -12325,7 +12472,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -12357,7 +12504,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>10</v>
       </c>
@@ -12389,7 +12536,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -12421,7 +12568,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -12450,7 +12597,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -12482,7 +12629,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -12514,7 +12661,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -12540,7 +12687,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -12569,7 +12716,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -12601,7 +12748,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -12621,7 +12768,7 @@
         <v>542</v>
       </c>
       <c r="G235" s="1">
-        <v>146.94999999999999</v>
+        <v>146.95</v>
       </c>
       <c r="H235" s="1">
         <v>423</v>
@@ -12630,7 +12777,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -12656,7 +12803,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -12675,6 +12822,7 @@
       <c r="G237" s="1">
         <v>79.25</v>
       </c>
+      <c r="H237" s="1"/>
       <c r="I237" t="s">
         <v>556</v>
       </c>
@@ -12682,7 +12830,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -12711,7 +12859,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -12743,7 +12891,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -12775,7 +12923,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -12792,7 +12940,7 @@
         <v>578</v>
       </c>
       <c r="G241" s="1">
-        <v>9.2899999999999991</v>
+        <v>9.29</v>
       </c>
       <c r="H241" s="1">
         <v>101</v>
@@ -12804,7 +12952,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -12836,7 +12984,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -12865,7 +13013,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -12897,7 +13045,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>10</v>
       </c>
@@ -12929,7 +13077,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -12961,7 +13109,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -12993,7 +13141,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -13025,7 +13173,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -13054,7 +13202,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -13083,7 +13231,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>10</v>
       </c>
@@ -13115,7 +13263,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>10</v>
       </c>
@@ -13147,7 +13295,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>10</v>
       </c>
@@ -13179,7 +13327,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -13211,7 +13359,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>10</v>
       </c>
@@ -13243,7 +13391,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -13275,7 +13423,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>10</v>
       </c>
@@ -13304,7 +13452,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -13336,7 +13484,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -13368,7 +13516,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -13397,7 +13545,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>10</v>
       </c>
@@ -13429,7 +13577,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>10</v>
       </c>
@@ -13461,7 +13609,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -13487,7 +13635,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>10</v>
       </c>
@@ -13519,7 +13667,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>10</v>
       </c>
@@ -13539,7 +13687,7 @@
         <v>733</v>
       </c>
       <c r="G265" s="1">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="H265" s="1">
         <v>979</v>
@@ -13551,7 +13699,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -13583,7 +13731,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>10</v>
       </c>
@@ -13615,7 +13763,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>10</v>
       </c>
@@ -13647,7 +13795,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>10</v>
       </c>
@@ -13679,7 +13827,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -13711,7 +13859,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>10</v>
       </c>
@@ -13743,7 +13891,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>10</v>
       </c>
@@ -13775,7 +13923,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>10</v>
       </c>
@@ -13807,7 +13955,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -13824,7 +13972,7 @@
         <v>794</v>
       </c>
       <c r="G274" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="H274" s="1">
         <v>94</v>
@@ -13836,7 +13984,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>10</v>
       </c>
@@ -13868,7 +14016,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>10</v>
       </c>
@@ -13900,7 +14048,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>10</v>
       </c>
@@ -13932,7 +14080,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -13964,7 +14112,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>10</v>
       </c>
@@ -13993,7 +14141,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>10</v>
       </c>
@@ -14022,7 +14170,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>10</v>
       </c>
@@ -14051,7 +14199,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -14083,7 +14231,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -14103,7 +14251,7 @@
         <v>853</v>
       </c>
       <c r="G283" s="1">
-        <v>147.44999999999999</v>
+        <v>147.45</v>
       </c>
       <c r="H283" s="1">
         <v>56</v>
@@ -14112,7 +14260,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -14132,7 +14280,7 @@
         <v>859</v>
       </c>
       <c r="G284" s="1">
-        <v>146.69999999999999</v>
+        <v>146.7</v>
       </c>
       <c r="H284" s="1">
         <v>819</v>
@@ -14144,7 +14292,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -14176,7 +14324,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>10</v>
       </c>
@@ -14208,7 +14356,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>10</v>
       </c>
@@ -14240,7 +14388,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>10</v>
       </c>
@@ -14260,7 +14408,7 @@
         <v>886</v>
       </c>
       <c r="G288" s="1">
-        <v>34.119999999999997</v>
+        <v>34.12</v>
       </c>
       <c r="H288" s="1">
         <v>79</v>
@@ -14272,7 +14420,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>10</v>
       </c>
@@ -14304,7 +14452,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>10</v>
       </c>
@@ -14336,7 +14484,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>10</v>
       </c>
@@ -14353,7 +14501,7 @@
         <v>906</v>
       </c>
       <c r="G291" s="1">
-        <v>65.819999999999993</v>
+        <v>65.82</v>
       </c>
       <c r="H291" s="1">
         <v>45</v>
@@ -14362,7 +14510,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>10</v>
       </c>
@@ -14394,7 +14542,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>10</v>
       </c>
@@ -14426,7 +14574,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -14455,7 +14603,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -14487,7 +14635,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -14519,7 +14667,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -14548,7 +14696,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>10</v>
       </c>
@@ -14580,7 +14728,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>10</v>
       </c>
@@ -14609,7 +14757,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>10</v>
       </c>
@@ -14641,7 +14789,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>10</v>
       </c>
@@ -14673,7 +14821,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>10</v>
       </c>
@@ -14702,7 +14850,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>10</v>
       </c>
@@ -14731,7 +14879,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -14760,7 +14908,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -14792,7 +14940,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -14821,7 +14969,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -14847,8 +14995,4682 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>14</v>
+      </c>
+      <c r="F308" t="s">
+        <v>15</v>
+      </c>
+      <c r="H308" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I308">
+        <v>78</v>
+      </c>
+      <c r="J308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C309" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" t="s">
+        <v>20</v>
+      </c>
+      <c r="E309" t="s">
+        <v>21</v>
+      </c>
+      <c r="H309" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I309">
+        <v>69</v>
+      </c>
+      <c r="J309" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C310" t="s">
+        <v>25</v>
+      </c>
+      <c r="D310" t="s">
+        <v>26</v>
+      </c>
+      <c r="E310" t="s">
+        <v>27</v>
+      </c>
+      <c r="H310" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I310">
+        <v>229</v>
+      </c>
+      <c r="J310" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C311" t="s">
+        <v>31</v>
+      </c>
+      <c r="D311" t="s">
+        <v>32</v>
+      </c>
+      <c r="E311" t="s">
+        <v>33</v>
+      </c>
+      <c r="H311" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I311">
+        <v>110</v>
+      </c>
+      <c r="J311" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C312" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" t="s">
+        <v>38</v>
+      </c>
+      <c r="E312" t="s">
+        <v>39</v>
+      </c>
+      <c r="F312" t="s">
+        <v>40</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H312" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I312">
+        <v>114</v>
+      </c>
+      <c r="J312" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C313" t="s">
+        <v>44</v>
+      </c>
+      <c r="D313" t="s">
+        <v>45</v>
+      </c>
+      <c r="E313" t="s">
+        <v>46</v>
+      </c>
+      <c r="F313" t="s">
+        <v>47</v>
+      </c>
+      <c r="H313" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I313">
+        <v>50</v>
+      </c>
+      <c r="J313" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C314" t="s">
+        <v>51</v>
+      </c>
+      <c r="D314" t="s">
+        <v>52</v>
+      </c>
+      <c r="E314" t="s">
+        <v>53</v>
+      </c>
+      <c r="F314" t="s">
+        <v>54</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H314" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I314">
+        <v>42</v>
+      </c>
+      <c r="J314" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C315" t="s">
+        <v>58</v>
+      </c>
+      <c r="D315" t="s">
+        <v>59</v>
+      </c>
+      <c r="E315" t="s">
+        <v>60</v>
+      </c>
+      <c r="F315" t="s">
+        <v>61</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H315" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I315">
+        <v>212</v>
+      </c>
+      <c r="J315" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C316" t="s">
+        <v>65</v>
+      </c>
+      <c r="D316" t="s">
+        <v>66</v>
+      </c>
+      <c r="E316" t="s">
+        <v>67</v>
+      </c>
+      <c r="F316" t="s">
+        <v>68</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H316" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I316">
+        <v>75</v>
+      </c>
+      <c r="J316" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C317" t="s">
+        <v>72</v>
+      </c>
+      <c r="D317" t="s">
+        <v>73</v>
+      </c>
+      <c r="E317" t="s">
+        <v>74</v>
+      </c>
+      <c r="F317" t="s">
+        <v>75</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H317" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I317">
+        <v>206</v>
+      </c>
+      <c r="J317" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C318" t="s">
+        <v>79</v>
+      </c>
+      <c r="D318" t="s">
+        <v>80</v>
+      </c>
+      <c r="E318" t="s">
+        <v>81</v>
+      </c>
+      <c r="F318" t="s">
+        <v>82</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H318" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I318">
+        <v>16</v>
+      </c>
+      <c r="J318" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C319" t="s">
+        <v>86</v>
+      </c>
+      <c r="D319" t="s">
+        <v>87</v>
+      </c>
+      <c r="E319" t="s">
+        <v>88</v>
+      </c>
+      <c r="F319" t="s">
+        <v>89</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H319" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I319">
+        <v>60</v>
+      </c>
+      <c r="J319" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C320" t="s">
+        <v>93</v>
+      </c>
+      <c r="D320" t="s">
+        <v>94</v>
+      </c>
+      <c r="E320" t="s">
+        <v>95</v>
+      </c>
+      <c r="F320" t="s">
+        <v>96</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H320" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I320">
+        <v>438</v>
+      </c>
+      <c r="J320" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C321" t="s">
+        <v>100</v>
+      </c>
+      <c r="D321" t="s">
+        <v>101</v>
+      </c>
+      <c r="E321" t="s">
+        <v>102</v>
+      </c>
+      <c r="F321" t="s">
+        <v>103</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H321" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I321">
+        <v>30</v>
+      </c>
+      <c r="J321" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D322" t="s">
+        <v>108</v>
+      </c>
+      <c r="E322" t="s">
+        <v>109</v>
+      </c>
+      <c r="F322" t="s">
+        <v>110</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H322" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I322">
+        <v>115</v>
+      </c>
+      <c r="J322" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C323" t="s">
+        <v>114</v>
+      </c>
+      <c r="D323" t="s">
+        <v>115</v>
+      </c>
+      <c r="E323" t="s">
+        <v>116</v>
+      </c>
+      <c r="F323" t="s">
+        <v>117</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H323" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I323">
+        <v>63</v>
+      </c>
+      <c r="J323" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C324" t="s">
+        <v>121</v>
+      </c>
+      <c r="D324" t="s">
+        <v>122</v>
+      </c>
+      <c r="E324" t="s">
+        <v>123</v>
+      </c>
+      <c r="F324" t="s">
+        <v>124</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H324" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I324">
+        <v>37</v>
+      </c>
+      <c r="J324" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C325" t="s">
+        <v>128</v>
+      </c>
+      <c r="D325" t="s">
+        <v>129</v>
+      </c>
+      <c r="E325" t="s">
+        <v>130</v>
+      </c>
+      <c r="F325" t="s">
+        <v>131</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H325" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I325">
+        <v>16</v>
+      </c>
+      <c r="J325" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C326" t="s">
+        <v>134</v>
+      </c>
+      <c r="D326" t="s">
+        <v>135</v>
+      </c>
+      <c r="E326" t="s">
+        <v>136</v>
+      </c>
+      <c r="F326" t="s">
+        <v>137</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H326" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I326">
+        <v>76</v>
+      </c>
+      <c r="J326" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C327" t="s">
+        <v>141</v>
+      </c>
+      <c r="D327" t="s">
+        <v>142</v>
+      </c>
+      <c r="E327" t="s">
+        <v>143</v>
+      </c>
+      <c r="F327" t="s">
+        <v>144</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H327" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I327">
+        <v>171</v>
+      </c>
+      <c r="J327" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C328" t="s">
+        <v>148</v>
+      </c>
+      <c r="D328" t="s">
+        <v>149</v>
+      </c>
+      <c r="E328" t="s">
+        <v>150</v>
+      </c>
+      <c r="F328" t="s">
+        <v>151</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H328" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I328">
+        <v>76</v>
+      </c>
+      <c r="J328" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C329" t="s">
+        <v>154</v>
+      </c>
+      <c r="D329" t="s">
+        <v>155</v>
+      </c>
+      <c r="E329" t="s">
+        <v>156</v>
+      </c>
+      <c r="H329" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I329">
+        <v>120</v>
+      </c>
+      <c r="J329" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C330" t="s">
+        <v>160</v>
+      </c>
+      <c r="D330" t="s">
+        <v>161</v>
+      </c>
+      <c r="E330" t="s">
+        <v>162</v>
+      </c>
+      <c r="F330" t="s">
+        <v>163</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H330" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I330">
+        <v>84</v>
+      </c>
+      <c r="J330" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C331" t="s">
+        <v>167</v>
+      </c>
+      <c r="D331" t="s">
+        <v>168</v>
+      </c>
+      <c r="E331" t="s">
+        <v>169</v>
+      </c>
+      <c r="H331" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I331">
+        <v>31</v>
+      </c>
+      <c r="J331" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C332" t="s">
+        <v>173</v>
+      </c>
+      <c r="D332" t="s">
+        <v>174</v>
+      </c>
+      <c r="E332" t="s">
+        <v>175</v>
+      </c>
+      <c r="H332" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I332">
+        <v>66</v>
+      </c>
+      <c r="J332" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C333" t="s">
+        <v>178</v>
+      </c>
+      <c r="D333" t="s">
+        <v>179</v>
+      </c>
+      <c r="E333" t="s">
+        <v>180</v>
+      </c>
+      <c r="F333" t="s">
+        <v>181</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H333" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I333">
+        <v>40</v>
+      </c>
+      <c r="J333" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C334" t="s">
+        <v>185</v>
+      </c>
+      <c r="D334" t="s">
+        <v>186</v>
+      </c>
+      <c r="E334" t="s">
+        <v>187</v>
+      </c>
+      <c r="F334" t="s">
+        <v>188</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H334" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I334">
+        <v>397</v>
+      </c>
+      <c r="J334" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C335" t="s">
+        <v>192</v>
+      </c>
+      <c r="D335" t="s">
+        <v>193</v>
+      </c>
+      <c r="E335" t="s">
+        <v>194</v>
+      </c>
+      <c r="H335" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I335">
+        <v>27</v>
+      </c>
+      <c r="J335" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C336" t="s">
+        <v>198</v>
+      </c>
+      <c r="D336" t="s">
+        <v>199</v>
+      </c>
+      <c r="E336" t="s">
+        <v>200</v>
+      </c>
+      <c r="H336" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I336">
+        <v>38</v>
+      </c>
+      <c r="J336" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C337" t="s">
+        <v>204</v>
+      </c>
+      <c r="D337" t="s">
+        <v>205</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F337" t="s">
+        <v>207</v>
+      </c>
+      <c r="H337" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I337">
+        <v>793</v>
+      </c>
+      <c r="J337" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C338" t="s">
+        <v>211</v>
+      </c>
+      <c r="D338" t="s">
+        <v>212</v>
+      </c>
+      <c r="E338" t="s">
+        <v>213</v>
+      </c>
+      <c r="F338" t="s">
+        <v>214</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H338" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I338">
+        <v>54</v>
+      </c>
+      <c r="J338" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C339" t="s">
+        <v>218</v>
+      </c>
+      <c r="D339" t="s">
+        <v>219</v>
+      </c>
+      <c r="E339" t="s">
+        <v>220</v>
+      </c>
+      <c r="F339" t="s">
+        <v>221</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H339" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I339">
+        <v>221</v>
+      </c>
+      <c r="J339" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C340" t="s">
+        <v>225</v>
+      </c>
+      <c r="D340" t="s">
+        <v>226</v>
+      </c>
+      <c r="E340" t="s">
+        <v>227</v>
+      </c>
+      <c r="F340" t="s">
+        <v>228</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H340" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I340">
+        <v>377</v>
+      </c>
+      <c r="J340" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C341" t="s">
+        <v>232</v>
+      </c>
+      <c r="D341" t="s">
+        <v>233</v>
+      </c>
+      <c r="E341" t="s">
+        <v>234</v>
+      </c>
+      <c r="F341" t="s">
+        <v>235</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H341" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I341">
+        <v>101</v>
+      </c>
+      <c r="J341" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C342" t="s">
+        <v>239</v>
+      </c>
+      <c r="D342" t="s">
+        <v>240</v>
+      </c>
+      <c r="E342" t="s">
+        <v>241</v>
+      </c>
+      <c r="F342" t="s">
+        <v>242</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H342" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I342">
+        <v>344</v>
+      </c>
+      <c r="J342" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C343" t="s">
+        <v>246</v>
+      </c>
+      <c r="D343" t="s">
+        <v>247</v>
+      </c>
+      <c r="E343" t="s">
+        <v>248</v>
+      </c>
+      <c r="F343" t="s">
+        <v>249</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H343" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I343">
+        <v>710</v>
+      </c>
+      <c r="J343" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C344" t="s">
+        <v>252</v>
+      </c>
+      <c r="D344" t="s">
+        <v>253</v>
+      </c>
+      <c r="E344" t="s">
+        <v>254</v>
+      </c>
+      <c r="F344" t="s">
+        <v>255</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H344" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I344">
+        <v>241</v>
+      </c>
+      <c r="J344" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C345" t="s">
+        <v>258</v>
+      </c>
+      <c r="D345" t="s">
+        <v>259</v>
+      </c>
+      <c r="E345" t="s">
+        <v>260</v>
+      </c>
+      <c r="H345" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I345">
+        <v>71</v>
+      </c>
+      <c r="J345" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C346" t="s">
+        <v>264</v>
+      </c>
+      <c r="D346" t="s">
+        <v>265</v>
+      </c>
+      <c r="E346" t="s">
+        <v>266</v>
+      </c>
+      <c r="F346" t="s">
+        <v>267</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H346" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I346">
+        <v>186</v>
+      </c>
+      <c r="J346" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C347" t="s">
+        <v>271</v>
+      </c>
+      <c r="D347" t="s">
+        <v>272</v>
+      </c>
+      <c r="E347" t="s">
+        <v>273</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H347" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I347">
+        <v>21</v>
+      </c>
+      <c r="J347" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C348" t="s">
+        <v>277</v>
+      </c>
+      <c r="D348" t="s">
+        <v>278</v>
+      </c>
+      <c r="E348" t="s">
+        <v>279</v>
+      </c>
+      <c r="F348" t="s">
+        <v>280</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H348" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I348">
+        <v>192</v>
+      </c>
+      <c r="J348" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C349" t="s">
+        <v>284</v>
+      </c>
+      <c r="D349" t="s">
+        <v>285</v>
+      </c>
+      <c r="E349" t="s">
+        <v>286</v>
+      </c>
+      <c r="F349" t="s">
+        <v>287</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H349" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I349">
+        <v>118</v>
+      </c>
+      <c r="J349" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C350" t="s">
+        <v>291</v>
+      </c>
+      <c r="D350" t="s">
+        <v>292</v>
+      </c>
+      <c r="E350" t="s">
+        <v>293</v>
+      </c>
+      <c r="F350" t="s">
+        <v>294</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H350" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I350">
+        <v>40</v>
+      </c>
+      <c r="J350" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C351" t="s">
+        <v>297</v>
+      </c>
+      <c r="D351" t="s">
+        <v>298</v>
+      </c>
+      <c r="E351" t="s">
+        <v>299</v>
+      </c>
+      <c r="H351" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I351">
+        <v>34</v>
+      </c>
+      <c r="J351" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C352" t="s">
+        <v>303</v>
+      </c>
+      <c r="D352" t="s">
+        <v>304</v>
+      </c>
+      <c r="E352" t="s">
+        <v>305</v>
+      </c>
+      <c r="F352" t="s">
+        <v>306</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H352" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I352">
+        <v>424</v>
+      </c>
+      <c r="J352" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C353" t="s">
+        <v>310</v>
+      </c>
+      <c r="D353" t="s">
+        <v>311</v>
+      </c>
+      <c r="E353" t="s">
+        <v>312</v>
+      </c>
+      <c r="F353" t="s">
+        <v>313</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H353" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I353">
+        <v>121</v>
+      </c>
+      <c r="J353" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C354" t="s">
+        <v>317</v>
+      </c>
+      <c r="D354" t="s">
+        <v>318</v>
+      </c>
+      <c r="E354" t="s">
+        <v>319</v>
+      </c>
+      <c r="H354" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I354">
+        <v>45</v>
+      </c>
+      <c r="J354" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C355" t="s">
+        <v>323</v>
+      </c>
+      <c r="D355" t="s">
+        <v>324</v>
+      </c>
+      <c r="E355" t="s">
+        <v>325</v>
+      </c>
+      <c r="F355" t="s">
+        <v>326</v>
+      </c>
+      <c r="H355" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I355">
+        <v>12</v>
+      </c>
+      <c r="J355" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C356" t="s">
+        <v>330</v>
+      </c>
+      <c r="D356" t="s">
+        <v>331</v>
+      </c>
+      <c r="E356" t="s">
+        <v>332</v>
+      </c>
+      <c r="F356" t="s">
+        <v>333</v>
+      </c>
+      <c r="H356" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I356">
+        <v>660</v>
+      </c>
+      <c r="J356" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C357" t="s">
+        <v>337</v>
+      </c>
+      <c r="D357" t="s">
+        <v>338</v>
+      </c>
+      <c r="E357" t="s">
+        <v>339</v>
+      </c>
+      <c r="F357" t="s">
+        <v>340</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H357" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I357">
+        <v>25</v>
+      </c>
+      <c r="J357" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>10</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C358" t="s">
+        <v>344</v>
+      </c>
+      <c r="D358" t="s">
+        <v>345</v>
+      </c>
+      <c r="E358" t="s">
+        <v>346</v>
+      </c>
+      <c r="F358" t="s">
+        <v>347</v>
+      </c>
+      <c r="G358" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H358" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I358">
+        <v>579</v>
+      </c>
+      <c r="J358" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C359" t="s">
+        <v>350</v>
+      </c>
+      <c r="D359" t="s">
+        <v>351</v>
+      </c>
+      <c r="E359" t="s">
+        <v>352</v>
+      </c>
+      <c r="F359" t="s">
+        <v>353</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H359" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I359">
+        <v>1380</v>
+      </c>
+      <c r="J359" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C360" t="s">
+        <v>357</v>
+      </c>
+      <c r="D360" t="s">
+        <v>358</v>
+      </c>
+      <c r="E360" t="s">
+        <v>359</v>
+      </c>
+      <c r="F360" t="s">
+        <v>360</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H360" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I360">
+        <v>104</v>
+      </c>
+      <c r="J360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C361" t="s">
+        <v>364</v>
+      </c>
+      <c r="D361" t="s">
+        <v>365</v>
+      </c>
+      <c r="E361" t="s">
+        <v>366</v>
+      </c>
+      <c r="F361" t="s">
+        <v>367</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H361" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I361">
+        <v>55</v>
+      </c>
+      <c r="J361" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C362" t="s">
+        <v>371</v>
+      </c>
+      <c r="D362" t="s">
+        <v>372</v>
+      </c>
+      <c r="E362" t="s">
+        <v>373</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H362" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I362">
+        <v>154</v>
+      </c>
+      <c r="J362" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C363" t="s">
+        <v>377</v>
+      </c>
+      <c r="D363" t="s">
+        <v>378</v>
+      </c>
+      <c r="E363" t="s">
+        <v>379</v>
+      </c>
+      <c r="F363" t="s">
+        <v>380</v>
+      </c>
+      <c r="H363" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I363">
+        <v>52</v>
+      </c>
+      <c r="J363" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C364" t="s">
+        <v>384</v>
+      </c>
+      <c r="D364" t="s">
+        <v>385</v>
+      </c>
+      <c r="E364" t="s">
+        <v>386</v>
+      </c>
+      <c r="F364" t="s">
+        <v>387</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H364" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I364">
+        <v>398</v>
+      </c>
+      <c r="J364" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C365" t="s">
+        <v>391</v>
+      </c>
+      <c r="D365" t="s">
+        <v>392</v>
+      </c>
+      <c r="E365" t="s">
+        <v>393</v>
+      </c>
+      <c r="H365" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I365">
+        <v>64</v>
+      </c>
+      <c r="J365" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C366" t="s">
+        <v>397</v>
+      </c>
+      <c r="D366" t="s">
+        <v>398</v>
+      </c>
+      <c r="E366" t="s">
+        <v>399</v>
+      </c>
+      <c r="F366" t="s">
+        <v>400</v>
+      </c>
+      <c r="H366" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I366">
+        <v>34</v>
+      </c>
+      <c r="J366" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C367" t="s">
+        <v>403</v>
+      </c>
+      <c r="D367" t="s">
+        <v>404</v>
+      </c>
+      <c r="E367" t="s">
+        <v>405</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H367" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I367">
+        <v>84</v>
+      </c>
+      <c r="J367" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C368" t="s">
+        <v>408</v>
+      </c>
+      <c r="D368" t="s">
+        <v>409</v>
+      </c>
+      <c r="E368" t="s">
+        <v>410</v>
+      </c>
+      <c r="F368" t="s">
+        <v>411</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H368" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I368">
+        <v>63</v>
+      </c>
+      <c r="J368" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C369" t="s">
+        <v>414</v>
+      </c>
+      <c r="D369" t="s">
+        <v>415</v>
+      </c>
+      <c r="E369" t="s">
+        <v>416</v>
+      </c>
+      <c r="F369" t="s">
+        <v>417</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H369" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I369">
+        <v>38</v>
+      </c>
+      <c r="J369" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C370" t="s">
+        <v>420</v>
+      </c>
+      <c r="D370" t="s">
+        <v>421</v>
+      </c>
+      <c r="E370" t="s">
+        <v>422</v>
+      </c>
+      <c r="F370" t="s">
+        <v>423</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H370" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I370">
+        <v>72</v>
+      </c>
+      <c r="J370" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>10</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C371" t="s">
+        <v>427</v>
+      </c>
+      <c r="D371" t="s">
+        <v>428</v>
+      </c>
+      <c r="E371" t="s">
+        <v>429</v>
+      </c>
+      <c r="F371" t="s">
+        <v>430</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H371" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I371">
+        <v>101</v>
+      </c>
+      <c r="J371" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C372" t="s">
+        <v>433</v>
+      </c>
+      <c r="D372" t="s">
+        <v>434</v>
+      </c>
+      <c r="E372" t="s">
+        <v>435</v>
+      </c>
+      <c r="H372" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I372">
+        <v>70</v>
+      </c>
+      <c r="J372" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C373" t="s">
+        <v>439</v>
+      </c>
+      <c r="D373" t="s">
+        <v>440</v>
+      </c>
+      <c r="E373" t="s">
+        <v>441</v>
+      </c>
+      <c r="F373" t="s">
+        <v>442</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H373" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I373">
+        <v>127</v>
+      </c>
+      <c r="J373" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C374" t="s">
+        <v>446</v>
+      </c>
+      <c r="D374" t="s">
+        <v>447</v>
+      </c>
+      <c r="E374" t="s">
+        <v>448</v>
+      </c>
+      <c r="H374" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I374">
+        <v>126</v>
+      </c>
+      <c r="J374" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C375" t="s">
+        <v>452</v>
+      </c>
+      <c r="D375" t="s">
+        <v>453</v>
+      </c>
+      <c r="E375" t="s">
+        <v>454</v>
+      </c>
+      <c r="F375" t="s">
+        <v>455</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H375" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I375">
+        <v>133</v>
+      </c>
+      <c r="J375" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C376" t="s">
+        <v>459</v>
+      </c>
+      <c r="D376" t="s">
+        <v>460</v>
+      </c>
+      <c r="E376" t="s">
+        <v>461</v>
+      </c>
+      <c r="F376" t="s">
+        <v>462</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H376" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I376">
+        <v>189</v>
+      </c>
+      <c r="J376" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C377" t="s">
+        <v>466</v>
+      </c>
+      <c r="D377" t="s">
+        <v>467</v>
+      </c>
+      <c r="E377" t="s">
+        <v>468</v>
+      </c>
+      <c r="F377" t="s">
+        <v>469</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H377" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I377">
+        <v>816</v>
+      </c>
+      <c r="J377" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C378" t="s">
+        <v>473</v>
+      </c>
+      <c r="D378" t="s">
+        <v>474</v>
+      </c>
+      <c r="E378" t="s">
+        <v>475</v>
+      </c>
+      <c r="H378" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I378">
+        <v>52</v>
+      </c>
+      <c r="J378" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C379" t="s">
+        <v>478</v>
+      </c>
+      <c r="D379" t="s">
+        <v>479</v>
+      </c>
+      <c r="E379" t="s">
+        <v>480</v>
+      </c>
+      <c r="F379" t="s">
+        <v>481</v>
+      </c>
+      <c r="G379" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H379" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I379">
+        <v>164</v>
+      </c>
+      <c r="J379" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>10</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C380" t="s">
+        <v>485</v>
+      </c>
+      <c r="D380" t="s">
+        <v>486</v>
+      </c>
+      <c r="E380" t="s">
+        <v>487</v>
+      </c>
+      <c r="F380" t="s">
+        <v>488</v>
+      </c>
+      <c r="G380" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I380">
+        <v>480</v>
+      </c>
+      <c r="J380" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C381" t="s">
+        <v>492</v>
+      </c>
+      <c r="D381" t="s">
+        <v>493</v>
+      </c>
+      <c r="E381" t="s">
+        <v>494</v>
+      </c>
+      <c r="F381" t="s">
+        <v>495</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H381" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I381">
+        <v>96</v>
+      </c>
+      <c r="J381" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C382" t="s">
+        <v>499</v>
+      </c>
+      <c r="D382" t="s">
+        <v>500</v>
+      </c>
+      <c r="E382" t="s">
+        <v>501</v>
+      </c>
+      <c r="F382" t="s">
+        <v>502</v>
+      </c>
+      <c r="H382" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I382">
+        <v>507</v>
+      </c>
+      <c r="J382" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C383" t="s">
+        <v>506</v>
+      </c>
+      <c r="D383" t="s">
+        <v>507</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F383" t="s">
+        <v>509</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H383" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I383">
+        <v>383</v>
+      </c>
+      <c r="J383" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C384" t="s">
+        <v>513</v>
+      </c>
+      <c r="D384" t="s">
+        <v>514</v>
+      </c>
+      <c r="E384" t="s">
+        <v>515</v>
+      </c>
+      <c r="F384" t="s">
+        <v>516</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H384" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I384">
+        <v>389</v>
+      </c>
+      <c r="J384" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C385" t="s">
+        <v>520</v>
+      </c>
+      <c r="D385" t="s">
+        <v>521</v>
+      </c>
+      <c r="E385" t="s">
+        <v>522</v>
+      </c>
+      <c r="H385" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I385">
+        <v>104</v>
+      </c>
+      <c r="J385" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C386" t="s">
+        <v>525</v>
+      </c>
+      <c r="D386" t="s">
+        <v>526</v>
+      </c>
+      <c r="E386" t="s">
+        <v>527</v>
+      </c>
+      <c r="F386" t="s">
+        <v>528</v>
+      </c>
+      <c r="H386" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I386">
+        <v>44</v>
+      </c>
+      <c r="J386" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C387" t="s">
+        <v>532</v>
+      </c>
+      <c r="D387" t="s">
+        <v>533</v>
+      </c>
+      <c r="E387" t="s">
+        <v>534</v>
+      </c>
+      <c r="F387" t="s">
+        <v>535</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H387" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I387">
+        <v>23</v>
+      </c>
+      <c r="J387" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C388" t="s">
+        <v>539</v>
+      </c>
+      <c r="D388" t="s">
+        <v>540</v>
+      </c>
+      <c r="E388" t="s">
+        <v>541</v>
+      </c>
+      <c r="F388" t="s">
+        <v>542</v>
+      </c>
+      <c r="H388" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I388">
+        <v>423</v>
+      </c>
+      <c r="J388" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C389" t="s">
+        <v>546</v>
+      </c>
+      <c r="D389" t="s">
+        <v>547</v>
+      </c>
+      <c r="E389" t="s">
+        <v>548</v>
+      </c>
+      <c r="H389" s="1">
+        <v>169</v>
+      </c>
+      <c r="I389">
+        <v>522</v>
+      </c>
+      <c r="J389" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C390" t="s">
+        <v>552</v>
+      </c>
+      <c r="D390" t="s">
+        <v>553</v>
+      </c>
+      <c r="E390" t="s">
+        <v>554</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H390" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J390" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C391" t="s">
+        <v>557</v>
+      </c>
+      <c r="D391" t="s">
+        <v>558</v>
+      </c>
+      <c r="E391" t="s">
+        <v>559</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H391" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I391">
+        <v>30</v>
+      </c>
+      <c r="J391" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C392" t="s">
+        <v>562</v>
+      </c>
+      <c r="D392" t="s">
+        <v>563</v>
+      </c>
+      <c r="E392" t="s">
+        <v>564</v>
+      </c>
+      <c r="F392" t="s">
+        <v>565</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H392" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I392">
+        <v>302</v>
+      </c>
+      <c r="J392" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C393" t="s">
+        <v>569</v>
+      </c>
+      <c r="D393" t="s">
+        <v>570</v>
+      </c>
+      <c r="E393" t="s">
+        <v>571</v>
+      </c>
+      <c r="F393" t="s">
+        <v>572</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H393" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I393">
+        <v>1435</v>
+      </c>
+      <c r="J393" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C394" t="s">
+        <v>576</v>
+      </c>
+      <c r="D394" t="s">
+        <v>577</v>
+      </c>
+      <c r="E394" t="s">
+        <v>578</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H394" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I394">
+        <v>101</v>
+      </c>
+      <c r="J394" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C395" t="s">
+        <v>581</v>
+      </c>
+      <c r="D395" t="s">
+        <v>582</v>
+      </c>
+      <c r="E395" t="s">
+        <v>583</v>
+      </c>
+      <c r="F395" t="s">
+        <v>584</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H395" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I395">
+        <v>135</v>
+      </c>
+      <c r="J395" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C396" t="s">
+        <v>588</v>
+      </c>
+      <c r="D396" t="s">
+        <v>589</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F396" t="s">
+        <v>591</v>
+      </c>
+      <c r="H396" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I396">
+        <v>227</v>
+      </c>
+      <c r="J396" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C397" t="s">
+        <v>595</v>
+      </c>
+      <c r="D397" t="s">
+        <v>596</v>
+      </c>
+      <c r="E397" t="s">
+        <v>597</v>
+      </c>
+      <c r="F397" t="s">
+        <v>598</v>
+      </c>
+      <c r="G397" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H397" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I397">
+        <v>29</v>
+      </c>
+      <c r="J397" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C398" t="s">
+        <v>602</v>
+      </c>
+      <c r="D398" t="s">
+        <v>603</v>
+      </c>
+      <c r="E398" t="s">
+        <v>604</v>
+      </c>
+      <c r="F398" t="s">
+        <v>605</v>
+      </c>
+      <c r="G398" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H398" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I398">
+        <v>75</v>
+      </c>
+      <c r="J398" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>10</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C399" t="s">
+        <v>608</v>
+      </c>
+      <c r="D399" t="s">
+        <v>609</v>
+      </c>
+      <c r="E399" t="s">
+        <v>610</v>
+      </c>
+      <c r="F399" t="s">
+        <v>611</v>
+      </c>
+      <c r="G399" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H399" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I399">
+        <v>27</v>
+      </c>
+      <c r="J399" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C400" t="s">
+        <v>614</v>
+      </c>
+      <c r="D400" t="s">
+        <v>615</v>
+      </c>
+      <c r="E400" t="s">
+        <v>616</v>
+      </c>
+      <c r="F400" t="s">
+        <v>617</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H400" s="1">
+        <v>6</v>
+      </c>
+      <c r="I400">
+        <v>30</v>
+      </c>
+      <c r="J400" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C401" t="s">
+        <v>620</v>
+      </c>
+      <c r="D401" t="s">
+        <v>621</v>
+      </c>
+      <c r="E401" t="s">
+        <v>622</v>
+      </c>
+      <c r="F401" t="s">
+        <v>623</v>
+      </c>
+      <c r="G401" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H401" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I401">
+        <v>209</v>
+      </c>
+      <c r="J401" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C402" t="s">
+        <v>627</v>
+      </c>
+      <c r="D402" t="s">
+        <v>628</v>
+      </c>
+      <c r="E402" t="s">
+        <v>629</v>
+      </c>
+      <c r="F402" t="s">
+        <v>630</v>
+      </c>
+      <c r="H402" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I402">
+        <v>18</v>
+      </c>
+      <c r="J402" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C403" t="s">
+        <v>634</v>
+      </c>
+      <c r="D403" t="s">
+        <v>635</v>
+      </c>
+      <c r="E403" t="s">
+        <v>636</v>
+      </c>
+      <c r="F403" t="s">
+        <v>637</v>
+      </c>
+      <c r="H403" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I403">
+        <v>403</v>
+      </c>
+      <c r="J403" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>10</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C404" t="s">
+        <v>641</v>
+      </c>
+      <c r="D404" t="s">
+        <v>642</v>
+      </c>
+      <c r="E404" t="s">
+        <v>643</v>
+      </c>
+      <c r="F404" t="s">
+        <v>644</v>
+      </c>
+      <c r="G404" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H404" s="1">
+        <v>203</v>
+      </c>
+      <c r="I404">
+        <v>193</v>
+      </c>
+      <c r="J404" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C405" t="s">
+        <v>648</v>
+      </c>
+      <c r="D405" t="s">
+        <v>649</v>
+      </c>
+      <c r="E405" t="s">
+        <v>650</v>
+      </c>
+      <c r="F405" t="s">
+        <v>651</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H405" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I405">
+        <v>99</v>
+      </c>
+      <c r="J405" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C406" t="s">
+        <v>655</v>
+      </c>
+      <c r="D406" t="s">
+        <v>656</v>
+      </c>
+      <c r="E406" t="s">
+        <v>657</v>
+      </c>
+      <c r="F406" t="s">
+        <v>658</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H406" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I406">
+        <v>386</v>
+      </c>
+      <c r="J406" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>10</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C407" t="s">
+        <v>661</v>
+      </c>
+      <c r="D407" t="s">
+        <v>662</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F407" t="s">
+        <v>664</v>
+      </c>
+      <c r="G407" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H407" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I407">
+        <v>1050</v>
+      </c>
+      <c r="J407" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>10</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C408" t="s">
+        <v>667</v>
+      </c>
+      <c r="D408" t="s">
+        <v>668</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F408" t="s">
+        <v>670</v>
+      </c>
+      <c r="G408" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H408" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I408">
+        <v>304</v>
+      </c>
+      <c r="J408" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C409" t="s">
+        <v>673</v>
+      </c>
+      <c r="D409" t="s">
+        <v>674</v>
+      </c>
+      <c r="E409" t="s">
+        <v>675</v>
+      </c>
+      <c r="F409" t="s">
+        <v>676</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H409" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I409">
+        <v>1172</v>
+      </c>
+      <c r="J409" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C410" t="s">
+        <v>680</v>
+      </c>
+      <c r="D410" t="s">
+        <v>681</v>
+      </c>
+      <c r="E410" t="s">
+        <v>682</v>
+      </c>
+      <c r="G410" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H410" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I410">
+        <v>156</v>
+      </c>
+      <c r="J410" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C411" t="s">
+        <v>686</v>
+      </c>
+      <c r="D411" t="s">
+        <v>687</v>
+      </c>
+      <c r="E411" t="s">
+        <v>688</v>
+      </c>
+      <c r="F411" t="s">
+        <v>689</v>
+      </c>
+      <c r="G411" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H411" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I411">
+        <v>31</v>
+      </c>
+      <c r="J411" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>10</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C412" t="s">
+        <v>692</v>
+      </c>
+      <c r="D412" t="s">
+        <v>693</v>
+      </c>
+      <c r="E412" t="s">
+        <v>694</v>
+      </c>
+      <c r="F412" t="s">
+        <v>695</v>
+      </c>
+      <c r="G412" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H412" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I412">
+        <v>471</v>
+      </c>
+      <c r="J412" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C413" t="s">
+        <v>698</v>
+      </c>
+      <c r="D413" t="s">
+        <v>699</v>
+      </c>
+      <c r="E413" t="s">
+        <v>700</v>
+      </c>
+      <c r="F413" t="s">
+        <v>701</v>
+      </c>
+      <c r="H413" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I413">
+        <v>37</v>
+      </c>
+      <c r="J413" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C414" t="s">
+        <v>704</v>
+      </c>
+      <c r="D414" t="s">
+        <v>705</v>
+      </c>
+      <c r="E414" t="s">
+        <v>706</v>
+      </c>
+      <c r="F414" t="s">
+        <v>707</v>
+      </c>
+      <c r="G414" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H414" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I414">
+        <v>58</v>
+      </c>
+      <c r="J414" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C415" t="s">
+        <v>711</v>
+      </c>
+      <c r="D415" t="s">
+        <v>712</v>
+      </c>
+      <c r="E415" t="s">
+        <v>713</v>
+      </c>
+      <c r="F415" t="s">
+        <v>714</v>
+      </c>
+      <c r="G415" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H415" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I415">
+        <v>624</v>
+      </c>
+      <c r="J415" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>10</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C416" t="s">
+        <v>718</v>
+      </c>
+      <c r="D416" t="s">
+        <v>719</v>
+      </c>
+      <c r="E416" t="s">
+        <v>720</v>
+      </c>
+      <c r="H416" s="1">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>1</v>
+      </c>
+      <c r="J416" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>10</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C417" t="s">
+        <v>724</v>
+      </c>
+      <c r="D417" t="s">
+        <v>725</v>
+      </c>
+      <c r="E417" t="s">
+        <v>726</v>
+      </c>
+      <c r="F417" t="s">
+        <v>727</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H417" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I417">
+        <v>69</v>
+      </c>
+      <c r="J417" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C418" t="s">
+        <v>730</v>
+      </c>
+      <c r="D418" t="s">
+        <v>731</v>
+      </c>
+      <c r="E418" t="s">
+        <v>732</v>
+      </c>
+      <c r="F418" t="s">
+        <v>733</v>
+      </c>
+      <c r="G418" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H418" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I418">
+        <v>979</v>
+      </c>
+      <c r="J418" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C419" t="s">
+        <v>737</v>
+      </c>
+      <c r="D419" t="s">
+        <v>738</v>
+      </c>
+      <c r="E419" t="s">
+        <v>739</v>
+      </c>
+      <c r="F419" t="s">
+        <v>740</v>
+      </c>
+      <c r="G419" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H419" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I419">
+        <v>320</v>
+      </c>
+      <c r="J419" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>10</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C420" t="s">
+        <v>744</v>
+      </c>
+      <c r="D420" t="s">
+        <v>745</v>
+      </c>
+      <c r="E420" t="s">
+        <v>746</v>
+      </c>
+      <c r="F420" t="s">
+        <v>747</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H420" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I420">
+        <v>610</v>
+      </c>
+      <c r="J420" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>10</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C421" t="s">
+        <v>751</v>
+      </c>
+      <c r="D421" t="s">
+        <v>752</v>
+      </c>
+      <c r="E421" t="s">
+        <v>753</v>
+      </c>
+      <c r="F421" t="s">
+        <v>754</v>
+      </c>
+      <c r="G421" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H421" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I421">
+        <v>128</v>
+      </c>
+      <c r="J421" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C422" t="s">
+        <v>758</v>
+      </c>
+      <c r="D422" t="s">
+        <v>759</v>
+      </c>
+      <c r="E422" t="s">
+        <v>760</v>
+      </c>
+      <c r="F422" t="s">
+        <v>761</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H422" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I422">
+        <v>893</v>
+      </c>
+      <c r="J422" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C423" t="s">
+        <v>764</v>
+      </c>
+      <c r="D423" t="s">
+        <v>765</v>
+      </c>
+      <c r="E423" t="s">
+        <v>766</v>
+      </c>
+      <c r="F423" t="s">
+        <v>767</v>
+      </c>
+      <c r="G423" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H423" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I423">
+        <v>262</v>
+      </c>
+      <c r="J423" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C424" t="s">
+        <v>771</v>
+      </c>
+      <c r="D424" t="s">
+        <v>772</v>
+      </c>
+      <c r="E424" t="s">
+        <v>773</v>
+      </c>
+      <c r="F424" t="s">
+        <v>774</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H424" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I424">
+        <v>200</v>
+      </c>
+      <c r="J424" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C425" t="s">
+        <v>778</v>
+      </c>
+      <c r="D425" t="s">
+        <v>779</v>
+      </c>
+      <c r="E425" t="s">
+        <v>780</v>
+      </c>
+      <c r="F425" t="s">
+        <v>781</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H425" s="1">
+        <v>80</v>
+      </c>
+      <c r="I425">
+        <v>85</v>
+      </c>
+      <c r="J425" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C426" t="s">
+        <v>785</v>
+      </c>
+      <c r="D426" t="s">
+        <v>786</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F426" t="s">
+        <v>788</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H426" s="1">
+        <v>76</v>
+      </c>
+      <c r="I426">
+        <v>539</v>
+      </c>
+      <c r="J426" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C427" t="s">
+        <v>792</v>
+      </c>
+      <c r="D427" t="s">
+        <v>793</v>
+      </c>
+      <c r="E427" t="s">
+        <v>794</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H427" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I427">
+        <v>94</v>
+      </c>
+      <c r="J427" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>10</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C428" t="s">
+        <v>798</v>
+      </c>
+      <c r="D428" t="s">
+        <v>799</v>
+      </c>
+      <c r="E428" t="s">
+        <v>800</v>
+      </c>
+      <c r="F428" t="s">
+        <v>801</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H428" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I428">
+        <v>50</v>
+      </c>
+      <c r="J428" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>10</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C429" t="s">
+        <v>804</v>
+      </c>
+      <c r="D429" t="s">
+        <v>805</v>
+      </c>
+      <c r="E429" t="s">
+        <v>806</v>
+      </c>
+      <c r="F429" t="s">
+        <v>807</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H429" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I429">
+        <v>75</v>
+      </c>
+      <c r="J429" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>10</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C430" t="s">
+        <v>810</v>
+      </c>
+      <c r="D430" t="s">
+        <v>811</v>
+      </c>
+      <c r="E430" t="s">
+        <v>812</v>
+      </c>
+      <c r="F430" t="s">
+        <v>813</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H430" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I430">
+        <v>247</v>
+      </c>
+      <c r="J430" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>10</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C431" t="s">
+        <v>817</v>
+      </c>
+      <c r="D431" t="s">
+        <v>818</v>
+      </c>
+      <c r="E431" t="s">
+        <v>819</v>
+      </c>
+      <c r="F431" t="s">
+        <v>820</v>
+      </c>
+      <c r="G431" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H431" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I431">
+        <v>60</v>
+      </c>
+      <c r="J431" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>10</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C432" t="s">
+        <v>823</v>
+      </c>
+      <c r="D432" t="s">
+        <v>824</v>
+      </c>
+      <c r="E432" t="s">
+        <v>825</v>
+      </c>
+      <c r="F432" t="s">
+        <v>826</v>
+      </c>
+      <c r="H432" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I432">
+        <v>614</v>
+      </c>
+      <c r="J432" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C433" t="s">
+        <v>830</v>
+      </c>
+      <c r="D433" t="s">
+        <v>831</v>
+      </c>
+      <c r="E433" t="s">
+        <v>832</v>
+      </c>
+      <c r="F433" t="s">
+        <v>833</v>
+      </c>
+      <c r="H433" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I433">
+        <v>90</v>
+      </c>
+      <c r="J433" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>10</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C434" t="s">
+        <v>837</v>
+      </c>
+      <c r="D434" t="s">
+        <v>838</v>
+      </c>
+      <c r="E434" t="s">
+        <v>839</v>
+      </c>
+      <c r="F434" t="s">
+        <v>840</v>
+      </c>
+      <c r="H434" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I434">
+        <v>58</v>
+      </c>
+      <c r="J434" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>10</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C435" t="s">
+        <v>843</v>
+      </c>
+      <c r="D435" t="s">
+        <v>844</v>
+      </c>
+      <c r="E435" t="s">
+        <v>845</v>
+      </c>
+      <c r="F435" t="s">
+        <v>846</v>
+      </c>
+      <c r="G435" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H435" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I435">
+        <v>577</v>
+      </c>
+      <c r="J435" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C436" t="s">
+        <v>850</v>
+      </c>
+      <c r="D436" t="s">
+        <v>851</v>
+      </c>
+      <c r="E436" t="s">
+        <v>852</v>
+      </c>
+      <c r="F436" t="s">
+        <v>853</v>
+      </c>
+      <c r="H436" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I436">
+        <v>56</v>
+      </c>
+      <c r="J436" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C437" t="s">
+        <v>539</v>
+      </c>
+      <c r="D437" t="s">
+        <v>857</v>
+      </c>
+      <c r="E437" t="s">
+        <v>858</v>
+      </c>
+      <c r="F437" t="s">
+        <v>859</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H437" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I437">
+        <v>819</v>
+      </c>
+      <c r="J437" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>10</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C438" t="s">
+        <v>863</v>
+      </c>
+      <c r="D438" t="s">
+        <v>864</v>
+      </c>
+      <c r="E438" t="s">
+        <v>865</v>
+      </c>
+      <c r="F438" t="s">
+        <v>866</v>
+      </c>
+      <c r="G438" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H438" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I438">
+        <v>1163</v>
+      </c>
+      <c r="J438" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C439" t="s">
+        <v>870</v>
+      </c>
+      <c r="D439" t="s">
+        <v>871</v>
+      </c>
+      <c r="E439" t="s">
+        <v>872</v>
+      </c>
+      <c r="F439" t="s">
+        <v>873</v>
+      </c>
+      <c r="G439" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H439" s="1">
+        <v>120</v>
+      </c>
+      <c r="I439">
+        <v>175</v>
+      </c>
+      <c r="J439" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>10</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C440" t="s">
+        <v>877</v>
+      </c>
+      <c r="D440" t="s">
+        <v>878</v>
+      </c>
+      <c r="E440" t="s">
+        <v>879</v>
+      </c>
+      <c r="F440" t="s">
+        <v>880</v>
+      </c>
+      <c r="G440" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H440" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I440">
+        <v>175</v>
+      </c>
+      <c r="J440" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C441" t="s">
+        <v>883</v>
+      </c>
+      <c r="D441" t="s">
+        <v>884</v>
+      </c>
+      <c r="E441" t="s">
+        <v>885</v>
+      </c>
+      <c r="F441" t="s">
+        <v>886</v>
+      </c>
+      <c r="G441" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H441" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I441">
+        <v>79</v>
+      </c>
+      <c r="J441" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C442" t="s">
+        <v>890</v>
+      </c>
+      <c r="D442" t="s">
+        <v>891</v>
+      </c>
+      <c r="E442" t="s">
+        <v>892</v>
+      </c>
+      <c r="F442" t="s">
+        <v>893</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H442" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I442">
+        <v>401</v>
+      </c>
+      <c r="J442" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>10</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C443" t="s">
+        <v>897</v>
+      </c>
+      <c r="D443" t="s">
+        <v>898</v>
+      </c>
+      <c r="E443" t="s">
+        <v>899</v>
+      </c>
+      <c r="F443" t="s">
+        <v>900</v>
+      </c>
+      <c r="G443" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H443" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I443">
+        <v>98</v>
+      </c>
+      <c r="J443" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>10</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C444" t="s">
+        <v>904</v>
+      </c>
+      <c r="D444" t="s">
+        <v>905</v>
+      </c>
+      <c r="E444" t="s">
+        <v>906</v>
+      </c>
+      <c r="H444" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I444">
+        <v>45</v>
+      </c>
+      <c r="J444" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>10</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C445" t="s">
+        <v>909</v>
+      </c>
+      <c r="D445" t="s">
+        <v>910</v>
+      </c>
+      <c r="E445" t="s">
+        <v>911</v>
+      </c>
+      <c r="F445" t="s">
+        <v>912</v>
+      </c>
+      <c r="G445" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H445" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I445">
+        <v>108</v>
+      </c>
+      <c r="J445" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C446" t="s">
+        <v>916</v>
+      </c>
+      <c r="D446" t="s">
+        <v>917</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F446" t="s">
+        <v>919</v>
+      </c>
+      <c r="G446" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H446" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I446">
+        <v>33</v>
+      </c>
+      <c r="J446" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>10</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C447" t="s">
+        <v>923</v>
+      </c>
+      <c r="D447" t="s">
+        <v>924</v>
+      </c>
+      <c r="E447" t="s">
+        <v>925</v>
+      </c>
+      <c r="F447" t="s">
+        <v>926</v>
+      </c>
+      <c r="H447" s="1">
+        <v>250</v>
+      </c>
+      <c r="I447">
+        <v>122</v>
+      </c>
+      <c r="J447" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>10</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C448" t="s">
+        <v>930</v>
+      </c>
+      <c r="D448" t="s">
+        <v>931</v>
+      </c>
+      <c r="E448" t="s">
+        <v>932</v>
+      </c>
+      <c r="F448" t="s">
+        <v>933</v>
+      </c>
+      <c r="G448" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H448" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I448">
+        <v>71</v>
+      </c>
+      <c r="J448" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>10</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C449" t="s">
+        <v>936</v>
+      </c>
+      <c r="D449" t="s">
+        <v>937</v>
+      </c>
+      <c r="E449" t="s">
+        <v>938</v>
+      </c>
+      <c r="F449" t="s">
+        <v>939</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H449" s="1">
+        <v>96</v>
+      </c>
+      <c r="I449">
+        <v>632</v>
+      </c>
+      <c r="J449" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C450" t="s">
+        <v>943</v>
+      </c>
+      <c r="D450" t="s">
+        <v>944</v>
+      </c>
+      <c r="E450" t="s">
+        <v>945</v>
+      </c>
+      <c r="F450" t="s">
+        <v>946</v>
+      </c>
+      <c r="H450" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I450">
+        <v>650</v>
+      </c>
+      <c r="J450" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C451" t="s">
+        <v>950</v>
+      </c>
+      <c r="D451" t="s">
+        <v>951</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F451" t="s">
+        <v>953</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H451" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I451">
+        <v>1921</v>
+      </c>
+      <c r="J451" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>10</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C452" t="s">
+        <v>957</v>
+      </c>
+      <c r="D452" t="s">
+        <v>958</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F452" t="s">
+        <v>960</v>
+      </c>
+      <c r="H452" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I452">
+        <v>196</v>
+      </c>
+      <c r="J452" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>10</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C453" t="s">
+        <v>963</v>
+      </c>
+      <c r="D453" t="s">
+        <v>964</v>
+      </c>
+      <c r="E453" t="s">
+        <v>965</v>
+      </c>
+      <c r="F453" t="s">
+        <v>966</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H453" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I453">
+        <v>36</v>
+      </c>
+      <c r="J453" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C454" t="s">
+        <v>970</v>
+      </c>
+      <c r="D454" t="s">
+        <v>971</v>
+      </c>
+      <c r="E454" t="s">
+        <v>972</v>
+      </c>
+      <c r="F454" t="s">
+        <v>973</v>
+      </c>
+      <c r="G454" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H454" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I454">
+        <v>172</v>
+      </c>
+      <c r="J454" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>10</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C455" t="s">
+        <v>977</v>
+      </c>
+      <c r="D455" t="s">
+        <v>978</v>
+      </c>
+      <c r="E455" t="s">
+        <v>979</v>
+      </c>
+      <c r="F455" t="s">
+        <v>980</v>
+      </c>
+      <c r="H455" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I455">
+        <v>6360</v>
+      </c>
+      <c r="J455" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>10</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C456" t="s">
+        <v>983</v>
+      </c>
+      <c r="D456" t="s">
+        <v>984</v>
+      </c>
+      <c r="E456" t="s">
+        <v>985</v>
+      </c>
+      <c r="F456" t="s">
+        <v>986</v>
+      </c>
+      <c r="H456" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I456">
+        <v>37</v>
+      </c>
+      <c r="J456" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>10</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C457" t="s">
+        <v>988</v>
+      </c>
+      <c r="D457" t="s">
+        <v>989</v>
+      </c>
+      <c r="E457" t="s">
+        <v>990</v>
+      </c>
+      <c r="F457" t="s">
+        <v>991</v>
+      </c>
+      <c r="H457" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I457">
+        <v>191</v>
+      </c>
+      <c r="J457" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>10</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C458" t="s">
+        <v>995</v>
+      </c>
+      <c r="D458" t="s">
+        <v>996</v>
+      </c>
+      <c r="E458" t="s">
+        <v>997</v>
+      </c>
+      <c r="F458" t="s">
+        <v>998</v>
+      </c>
+      <c r="G458" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H458" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I458">
+        <v>196</v>
+      </c>
+      <c r="J458" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>10</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H459" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I459">
+        <v>3389</v>
+      </c>
+      <c r="J459" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>10</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H460" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I460">
+        <v>14</v>
+      </c>
+      <c r="J460" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="854">
   <si>
     <t>DATE</t>
   </si>
@@ -4655,6 +4655,666 @@
 $197.90
  This item is in stock and available today!
 Current Stock: 182
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>08/15/2025</t>
+  </si>
+  <si>
+    <t>06:04 AM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¬†Tolnaftate Antifungal Cream - 0.5oz - 1% Strength
+Comparable to Tinactin Cream
+Proven clinically effective in the treatment of most athlete's foot (tinea pedis) and ringworm (tinea corporis)
+1 Tube Each
+$3.48
+ This item is in stock and available today!
+Current Stock: 214
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft and flexible
+Highly absorbent non-stick pad to protect the wound
+100% Ultrasonic micro perforations to prevent skin maceration
+Long lasting adhesive allows for safe and easy removal
+Multi-purpose protection
+Sterile
+Latex Free
+2"x4"
+50 per box
+1 box
+$6.98
+ This item is in stock and available today!
+Current Stock: 73
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX Destroyer - 64oz All Purpose Drug Disposal System 
+Leaves Medications Deactivated and Unavailable for Misuse
+Comes Ready-to-Use, No adding water
+Multiuse System, Continue to Add Until Full
+1 Bottle Each
+$41.41
+ This item is in stock and available today!
+Current Stock: 27
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal as a first aid antiseptic and cleanser
+For use in hospitals, clinics, doctor's offices, by first responders and at home
+$2.76
+ This item is in stock and available today!
+Current Stock: 35
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterile Suture Removal Kit
+Single-use kit that includes everything needed for safe and sanitary removal of sutures.
+Kit Includes:
+1 - Littauer Scissors
+1 - 3" x 3" Gauze pad
+1 - Plastic Serrated Forceps
+1 Kit Each
+$3.11
+ This item is in stock and available today!
+Current Stock: 167
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28g x 1.88mm Safety Lancet
+Contact Activated
+Pink
+100 per Box
+1 Box Each
+$10.94
+ This item is in stock and available today!
+Current Stock: 389
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 779
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukal Cohesive Bandage - 4" x 5 Yds
+Tan 
+Self Adherent
+Non-Sterile
+Latex Free
+Standard Compression
+1 Roll Each
+$5.19
+ This item is in stock and available today!
+Current Stock: 97
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+MEDIUM
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 332
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6oz Wound Cleanser
+Spray Bottle
+No rinse
+NonSterile
+pH Balanced 
+Non-Irritating
+1 Bottle Each
+***New  Wound  Cleanser  COMING  SOON***
+~~  6oz Coloplast Wound Cleanser is being MFR Discontinued. ~~
+(Being replaced with Smith and Nephew 8oz Dermal Wound Cleanser #59449200)
+$12.31
+ This item is in stock and available today!
+Current Stock: 117
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermometer - LCD Infrared Non Contact Forehead 
+Fever Prompt 
+Auto Shut Off 
+Fast Reliable Readings in Seconds
+Stores up to 32 Readings
+Color Coded Temp Readings:
+GREEN = Normal
+YELLOW = Mild Fever
+RED = High Fever
+Included in Box:
+~ Thermometer
+~ Carry Bag
+~ Manual
+Uses (2) AAA Batteries
+1 Each
+$39.73
+ This item is in stock and available today!
+Current Stock: 43
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fentanyl (FTY) Urine Dip Cassette Test Kit
+FDA/CLIA Waived POC ¬†¬†
+Ultra Sensitive Fentanyl Detection ¬†1 ng/ml
+Results in 5 Mins¬†
+25 Tests per Box¬†
+1 Box Each
+$60.50
+ This item is in stock and available today!
+Current Stock: 657
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
+w/Safety Shield
+Low Dead Space
+100 per Box - 1 Box Each
+(Case Packed - 5 Boxes per Case)
+$49.93
+ This item is in stock and available today!
+Current Stock: 69
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Dot ECG/EKG Resting Adult Electrode
+Conductive Adhesive Gel
+Contains Silver/Silver Chloride
+Tab Style 
+2cm W x 2cm L
+10 Tabs per Card 
+10 Cards per Bag = 100 Tabs per Bag
+1 Bag Each
+*WARNING: Image may not be an exact representation of the the product*
+$12.32
+ This item is in stock and available today!
+Current Stock: 123
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 179
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
+Professional Use
+50 Strips per Box 
+1 Box Each
+$9.58
+ This item is in stock and available today!
+Current Stock: 799
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Dukal
+Application: Gauze Sponge
+Ply: 8
+Size: 4x4
+Sterility: Non-Sterile
+100% Woven Cotton
+200/Pack
+$5.97
+ This item is in stock and available today!
+Current Stock: 158
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Dukal
+Application: Gauze Sponge
+Ply: 8
+Size: 2x2
+Sterility: Non-Sterile
+100% Woven Cotton
+200/Pack
+$2.77
+ This item is in stock and available today!
+Current Stock: 464
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid Drug Test Cup
+CLIA Waived
+510K Approved
+Accurate Results within 5 Minutes
+Test Panels Include:
+AMP 500
+BAR 300
+BZO 300
+BUP 10
+COC 150
+FYL 1
+MDMA 500
+MET 500
+MOP 300
+MTD 300
+OXY 100
+PCP 25
+TCA 1000
+THC 50
+25 per Box 
+1 Box Each
+$169.00
+ This item is in stock and available today!
+Current Stock: 519
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+$249.16
+ This item is in stock and available today!
+Current Stock: 1428
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3" x ¾" Lightweight Flexible Fabric Bandage
+Tan
+Stat Strip Adhesive Bandage
+100/Box
+1 Box Each
+$6.00
+ This item is in stock and available today!
+Current Stock: 28
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhesive Bandage
+Sterile
+Lightweight
+Designed to provide comfortable protection
+The highly absorbent pad will not stick to the wound
+Long lasting adhesive gently sticks to skin
+Pre-folded wrapper tabs make them easy to open
+The soft weaved material bends easily and conforms to the body, staying on even when wet
+100 Bandages per Box
+1 Box Each
+To Order a Case, Please Order 12 Boxes.
+$5.36
+ This item is in stock and available today!
+Current Stock: 205
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 383
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 1048
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouthpiece Fits AlcoMate Breathalyzers
+50 Mouthpieces per Bag
+1 Bag Each
+$20.80
+ This item is in stock and available today!
+Current Stock: 622
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturated with 70% isopropyl alcohol
+2-Ply Non-Woven Pads
+1.75" x 3.3"
+100 per Box
+1 Box Each
+$4.79
+ This item is in stock and available today!
+Current Stock: 301
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+SMALL
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 891
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Sani-Cloth Surface Disinfectant Cleaner Wipe
+6" x 6.75"
+Premoistened Germicidal Wipe
+Quaternary Ammonium / Isopropyl Alcohol
+Alcohol Scent
+160 Wipes per Canister
+1 Canister Each
+$9.98
+ This item is in stock and available today!
+Current Stock: 250
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+$76.00
+ This item is in stock and available today!
+Current Stock: 526
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Forensic Use Only
+Format: Dip Card
+Time to Results: 5 minutes
+Tests for: Fentanyl (FTY)
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+25 per Box
+$71.50
+ This item is in stock and available today!
+Current Stock: 610
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Tests for: Ethyl Glucuronide (EtG)
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate: Forensic use Only
+25 per Box
+$68.75
+ This item is in stock and available today!
+Current Stock: 88
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Panel Urine Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+MET
+MTD
+OPI
+OXY
+25 per Box
+$105.25
+ This item is in stock and available today!
+Current Stock: 54
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Panel Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MTD
+OPI
+OXY
+THC
+25 per Box
+$106.50
+ This item is in stock and available today!
+Current Stock: 1160
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharps Collection/Disposal Container
+ 5 Quart Capacity
+Red
+Anti-Kickback Lid
+Horizontal Entry
+Automatic Shut Off to Prevent Overflow
+Locking Tabs
+Dimensions: 10.75" x 10.5" x 4.75"
+1 Each
+$6.90
+ This item is in stock and available today!
+Current Stock: 385
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cc
+Natural Square Bottle
+1,505/Case
+$199.76
+ This item is in stock and available today!
+Current Stock: 1912
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc 
+Natural Wide Mouth Round Bottle 
+1,900/Case
+$197.90
+ This item is in stock and available today!
+Current Stock: 171
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+350 Labels per Roll
+Dymo Compatible White Direct Thermal Labels 
+1-1/8" x 3.5" w/ Permanent Adhesive 
+** These labels are not compatible with the Dymo 550 **
+$5.93
+ This item is in stock and available today!
+Current Stock: 6316
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Qty: 420 labels per Roll
+1.5" X 3.5"
+Zebra Compatible White Direct Thermal Labels
+$9.01
+ This item is in stock and available today!
+Current Stock: 3339
 Quantity
 ADD TO CART
 ADD TO WISHLIST
@@ -5048,7 +5708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5081,7 +5741,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -5090,13 +5750,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -14448,6 +15108,4680 @@
         <v>14</v>
       </c>
       <c r="J307" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>814</v>
+      </c>
+      <c r="B308" t="s">
+        <v>815</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>14</v>
+      </c>
+      <c r="F308" t="s">
+        <v>15</v>
+      </c>
+      <c r="H308" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I308">
+        <v>78</v>
+      </c>
+      <c r="J308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>814</v>
+      </c>
+      <c r="B309" t="s">
+        <v>815</v>
+      </c>
+      <c r="C309" t="s">
+        <v>17</v>
+      </c>
+      <c r="D309" t="s">
+        <v>18</v>
+      </c>
+      <c r="E309" t="s">
+        <v>806</v>
+      </c>
+      <c r="H309" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I309">
+        <v>68</v>
+      </c>
+      <c r="J309" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>814</v>
+      </c>
+      <c r="B310" t="s">
+        <v>815</v>
+      </c>
+      <c r="C310" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310" t="s">
+        <v>816</v>
+      </c>
+      <c r="H310" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I310">
+        <v>214</v>
+      </c>
+      <c r="J310" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>814</v>
+      </c>
+      <c r="B311" t="s">
+        <v>815</v>
+      </c>
+      <c r="C311" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311" t="s">
+        <v>26</v>
+      </c>
+      <c r="E311" t="s">
+        <v>27</v>
+      </c>
+      <c r="H311" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I311">
+        <v>110</v>
+      </c>
+      <c r="J311" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>814</v>
+      </c>
+      <c r="B312" t="s">
+        <v>815</v>
+      </c>
+      <c r="C312" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312" t="s">
+        <v>30</v>
+      </c>
+      <c r="E312" t="s">
+        <v>31</v>
+      </c>
+      <c r="F312" t="s">
+        <v>32</v>
+      </c>
+      <c r="G312" t="s">
+        <v>33</v>
+      </c>
+      <c r="H312" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I312">
+        <v>114</v>
+      </c>
+      <c r="J312" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>814</v>
+      </c>
+      <c r="B313" t="s">
+        <v>815</v>
+      </c>
+      <c r="C313" t="s">
+        <v>35</v>
+      </c>
+      <c r="D313" t="s">
+        <v>36</v>
+      </c>
+      <c r="E313" t="s">
+        <v>37</v>
+      </c>
+      <c r="F313" t="s">
+        <v>38</v>
+      </c>
+      <c r="H313" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I313">
+        <v>50</v>
+      </c>
+      <c r="J313" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>814</v>
+      </c>
+      <c r="B314" t="s">
+        <v>815</v>
+      </c>
+      <c r="C314" t="s">
+        <v>40</v>
+      </c>
+      <c r="D314" t="s">
+        <v>41</v>
+      </c>
+      <c r="E314" t="s">
+        <v>42</v>
+      </c>
+      <c r="F314" t="s">
+        <v>43</v>
+      </c>
+      <c r="G314" t="s">
+        <v>44</v>
+      </c>
+      <c r="H314" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I314">
+        <v>42</v>
+      </c>
+      <c r="J314" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>814</v>
+      </c>
+      <c r="B315" t="s">
+        <v>815</v>
+      </c>
+      <c r="C315" t="s">
+        <v>46</v>
+      </c>
+      <c r="D315" t="s">
+        <v>47</v>
+      </c>
+      <c r="E315" t="s">
+        <v>48</v>
+      </c>
+      <c r="F315" t="s">
+        <v>49</v>
+      </c>
+      <c r="G315" t="s">
+        <v>50</v>
+      </c>
+      <c r="H315" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I315">
+        <v>212</v>
+      </c>
+      <c r="J315" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>814</v>
+      </c>
+      <c r="B316" t="s">
+        <v>815</v>
+      </c>
+      <c r="C316" t="s">
+        <v>52</v>
+      </c>
+      <c r="D316" t="s">
+        <v>53</v>
+      </c>
+      <c r="E316" t="s">
+        <v>817</v>
+      </c>
+      <c r="F316" t="s">
+        <v>55</v>
+      </c>
+      <c r="G316" t="s">
+        <v>56</v>
+      </c>
+      <c r="H316" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I316">
+        <v>73</v>
+      </c>
+      <c r="J316" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>814</v>
+      </c>
+      <c r="B317" t="s">
+        <v>815</v>
+      </c>
+      <c r="C317" t="s">
+        <v>58</v>
+      </c>
+      <c r="D317" t="s">
+        <v>59</v>
+      </c>
+      <c r="E317" t="s">
+        <v>60</v>
+      </c>
+      <c r="F317" t="s">
+        <v>61</v>
+      </c>
+      <c r="G317" t="s">
+        <v>62</v>
+      </c>
+      <c r="H317" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I317">
+        <v>206</v>
+      </c>
+      <c r="J317" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>814</v>
+      </c>
+      <c r="B318" t="s">
+        <v>815</v>
+      </c>
+      <c r="C318" t="s">
+        <v>64</v>
+      </c>
+      <c r="D318" t="s">
+        <v>65</v>
+      </c>
+      <c r="E318" t="s">
+        <v>66</v>
+      </c>
+      <c r="F318" t="s">
+        <v>67</v>
+      </c>
+      <c r="G318" t="s">
+        <v>68</v>
+      </c>
+      <c r="H318" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I318">
+        <v>16</v>
+      </c>
+      <c r="J318" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>814</v>
+      </c>
+      <c r="B319" t="s">
+        <v>815</v>
+      </c>
+      <c r="C319" t="s">
+        <v>70</v>
+      </c>
+      <c r="D319" t="s">
+        <v>71</v>
+      </c>
+      <c r="E319" t="s">
+        <v>72</v>
+      </c>
+      <c r="F319" t="s">
+        <v>73</v>
+      </c>
+      <c r="G319" t="s">
+        <v>74</v>
+      </c>
+      <c r="H319" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I319">
+        <v>60</v>
+      </c>
+      <c r="J319" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>814</v>
+      </c>
+      <c r="B320" t="s">
+        <v>815</v>
+      </c>
+      <c r="C320" t="s">
+        <v>76</v>
+      </c>
+      <c r="D320" t="s">
+        <v>77</v>
+      </c>
+      <c r="E320" t="s">
+        <v>78</v>
+      </c>
+      <c r="F320" t="s">
+        <v>79</v>
+      </c>
+      <c r="G320" t="s">
+        <v>80</v>
+      </c>
+      <c r="H320" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I320">
+        <v>438</v>
+      </c>
+      <c r="J320" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>814</v>
+      </c>
+      <c r="B321" t="s">
+        <v>815</v>
+      </c>
+      <c r="C321" t="s">
+        <v>82</v>
+      </c>
+      <c r="D321" t="s">
+        <v>83</v>
+      </c>
+      <c r="E321" t="s">
+        <v>818</v>
+      </c>
+      <c r="F321" t="s">
+        <v>85</v>
+      </c>
+      <c r="G321" t="s">
+        <v>86</v>
+      </c>
+      <c r="H321" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I321">
+        <v>27</v>
+      </c>
+      <c r="J321" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>814</v>
+      </c>
+      <c r="B322" t="s">
+        <v>815</v>
+      </c>
+      <c r="C322" t="s">
+        <v>88</v>
+      </c>
+      <c r="D322" t="s">
+        <v>89</v>
+      </c>
+      <c r="E322" t="s">
+        <v>90</v>
+      </c>
+      <c r="F322" t="s">
+        <v>91</v>
+      </c>
+      <c r="G322" t="s">
+        <v>92</v>
+      </c>
+      <c r="H322" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I322">
+        <v>115</v>
+      </c>
+      <c r="J322" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>814</v>
+      </c>
+      <c r="B323" t="s">
+        <v>815</v>
+      </c>
+      <c r="C323" t="s">
+        <v>94</v>
+      </c>
+      <c r="D323" t="s">
+        <v>95</v>
+      </c>
+      <c r="E323" t="s">
+        <v>96</v>
+      </c>
+      <c r="F323" t="s">
+        <v>97</v>
+      </c>
+      <c r="G323" t="s">
+        <v>98</v>
+      </c>
+      <c r="H323" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I323">
+        <v>63</v>
+      </c>
+      <c r="J323" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>814</v>
+      </c>
+      <c r="B324" t="s">
+        <v>815</v>
+      </c>
+      <c r="C324" t="s">
+        <v>100</v>
+      </c>
+      <c r="D324" t="s">
+        <v>101</v>
+      </c>
+      <c r="E324" t="s">
+        <v>819</v>
+      </c>
+      <c r="F324" t="s">
+        <v>103</v>
+      </c>
+      <c r="G324" t="s">
+        <v>104</v>
+      </c>
+      <c r="H324" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I324">
+        <v>35</v>
+      </c>
+      <c r="J324" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>814</v>
+      </c>
+      <c r="B325" t="s">
+        <v>815</v>
+      </c>
+      <c r="C325" t="s">
+        <v>106</v>
+      </c>
+      <c r="D325" t="s">
+        <v>107</v>
+      </c>
+      <c r="E325" t="s">
+        <v>108</v>
+      </c>
+      <c r="F325" t="s">
+        <v>109</v>
+      </c>
+      <c r="G325" t="s">
+        <v>110</v>
+      </c>
+      <c r="H325" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I325">
+        <v>16</v>
+      </c>
+      <c r="J325" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>814</v>
+      </c>
+      <c r="B326" t="s">
+        <v>815</v>
+      </c>
+      <c r="C326" t="s">
+        <v>112</v>
+      </c>
+      <c r="D326" t="s">
+        <v>113</v>
+      </c>
+      <c r="E326" t="s">
+        <v>114</v>
+      </c>
+      <c r="F326" t="s">
+        <v>115</v>
+      </c>
+      <c r="G326" t="s">
+        <v>116</v>
+      </c>
+      <c r="H326" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I326">
+        <v>76</v>
+      </c>
+      <c r="J326" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>814</v>
+      </c>
+      <c r="B327" t="s">
+        <v>815</v>
+      </c>
+      <c r="C327" t="s">
+        <v>118</v>
+      </c>
+      <c r="D327" t="s">
+        <v>119</v>
+      </c>
+      <c r="E327" t="s">
+        <v>820</v>
+      </c>
+      <c r="F327" t="s">
+        <v>121</v>
+      </c>
+      <c r="G327" t="s">
+        <v>122</v>
+      </c>
+      <c r="H327" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I327">
+        <v>167</v>
+      </c>
+      <c r="J327" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>814</v>
+      </c>
+      <c r="B328" t="s">
+        <v>815</v>
+      </c>
+      <c r="C328" t="s">
+        <v>124</v>
+      </c>
+      <c r="D328" t="s">
+        <v>125</v>
+      </c>
+      <c r="E328" t="s">
+        <v>126</v>
+      </c>
+      <c r="F328" t="s">
+        <v>127</v>
+      </c>
+      <c r="G328" t="s">
+        <v>56</v>
+      </c>
+      <c r="H328" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I328">
+        <v>76</v>
+      </c>
+      <c r="J328" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>814</v>
+      </c>
+      <c r="B329" t="s">
+        <v>815</v>
+      </c>
+      <c r="C329" t="s">
+        <v>129</v>
+      </c>
+      <c r="D329" t="s">
+        <v>130</v>
+      </c>
+      <c r="E329" t="s">
+        <v>131</v>
+      </c>
+      <c r="H329" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I329">
+        <v>120</v>
+      </c>
+      <c r="J329" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>814</v>
+      </c>
+      <c r="B330" t="s">
+        <v>815</v>
+      </c>
+      <c r="C330" t="s">
+        <v>133</v>
+      </c>
+      <c r="D330" t="s">
+        <v>134</v>
+      </c>
+      <c r="E330" t="s">
+        <v>135</v>
+      </c>
+      <c r="F330" t="s">
+        <v>136</v>
+      </c>
+      <c r="G330" t="s">
+        <v>137</v>
+      </c>
+      <c r="H330" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I330">
+        <v>84</v>
+      </c>
+      <c r="J330" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>814</v>
+      </c>
+      <c r="B331" t="s">
+        <v>815</v>
+      </c>
+      <c r="C331" t="s">
+        <v>139</v>
+      </c>
+      <c r="D331" t="s">
+        <v>140</v>
+      </c>
+      <c r="E331" t="s">
+        <v>141</v>
+      </c>
+      <c r="H331" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I331">
+        <v>31</v>
+      </c>
+      <c r="J331" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>814</v>
+      </c>
+      <c r="B332" t="s">
+        <v>815</v>
+      </c>
+      <c r="C332" t="s">
+        <v>143</v>
+      </c>
+      <c r="D332" t="s">
+        <v>144</v>
+      </c>
+      <c r="E332" t="s">
+        <v>145</v>
+      </c>
+      <c r="H332" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I332">
+        <v>66</v>
+      </c>
+      <c r="J332" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>814</v>
+      </c>
+      <c r="B333" t="s">
+        <v>815</v>
+      </c>
+      <c r="C333" t="s">
+        <v>147</v>
+      </c>
+      <c r="D333" t="s">
+        <v>148</v>
+      </c>
+      <c r="E333" t="s">
+        <v>149</v>
+      </c>
+      <c r="F333" t="s">
+        <v>150</v>
+      </c>
+      <c r="G333" t="s">
+        <v>151</v>
+      </c>
+      <c r="H333" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I333">
+        <v>40</v>
+      </c>
+      <c r="J333" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>814</v>
+      </c>
+      <c r="B334" t="s">
+        <v>815</v>
+      </c>
+      <c r="C334" t="s">
+        <v>153</v>
+      </c>
+      <c r="D334" t="s">
+        <v>154</v>
+      </c>
+      <c r="E334" t="s">
+        <v>821</v>
+      </c>
+      <c r="F334" t="s">
+        <v>156</v>
+      </c>
+      <c r="G334" t="s">
+        <v>44</v>
+      </c>
+      <c r="H334" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I334">
+        <v>389</v>
+      </c>
+      <c r="J334" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>814</v>
+      </c>
+      <c r="B335" t="s">
+        <v>815</v>
+      </c>
+      <c r="C335" t="s">
+        <v>158</v>
+      </c>
+      <c r="D335" t="s">
+        <v>159</v>
+      </c>
+      <c r="E335" t="s">
+        <v>160</v>
+      </c>
+      <c r="H335" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I335">
+        <v>27</v>
+      </c>
+      <c r="J335" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>814</v>
+      </c>
+      <c r="B336" t="s">
+        <v>815</v>
+      </c>
+      <c r="C336" t="s">
+        <v>162</v>
+      </c>
+      <c r="D336" t="s">
+        <v>163</v>
+      </c>
+      <c r="E336" t="s">
+        <v>164</v>
+      </c>
+      <c r="H336" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I336">
+        <v>38</v>
+      </c>
+      <c r="J336" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>814</v>
+      </c>
+      <c r="B337" t="s">
+        <v>815</v>
+      </c>
+      <c r="C337" t="s">
+        <v>166</v>
+      </c>
+      <c r="D337" t="s">
+        <v>167</v>
+      </c>
+      <c r="E337" t="s">
+        <v>822</v>
+      </c>
+      <c r="F337" t="s">
+        <v>169</v>
+      </c>
+      <c r="H337" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I337">
+        <v>779</v>
+      </c>
+      <c r="J337" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>814</v>
+      </c>
+      <c r="B338" t="s">
+        <v>815</v>
+      </c>
+      <c r="C338" t="s">
+        <v>171</v>
+      </c>
+      <c r="D338" t="s">
+        <v>172</v>
+      </c>
+      <c r="E338" t="s">
+        <v>173</v>
+      </c>
+      <c r="F338" t="s">
+        <v>174</v>
+      </c>
+      <c r="G338" t="s">
+        <v>122</v>
+      </c>
+      <c r="H338" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I338">
+        <v>54</v>
+      </c>
+      <c r="J338" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>814</v>
+      </c>
+      <c r="B339" t="s">
+        <v>815</v>
+      </c>
+      <c r="C339" t="s">
+        <v>176</v>
+      </c>
+      <c r="D339" t="s">
+        <v>177</v>
+      </c>
+      <c r="E339" t="s">
+        <v>178</v>
+      </c>
+      <c r="F339" t="s">
+        <v>179</v>
+      </c>
+      <c r="G339" t="s">
+        <v>180</v>
+      </c>
+      <c r="H339" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I339">
+        <v>221</v>
+      </c>
+      <c r="J339" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>814</v>
+      </c>
+      <c r="B340" t="s">
+        <v>815</v>
+      </c>
+      <c r="C340" t="s">
+        <v>182</v>
+      </c>
+      <c r="D340" t="s">
+        <v>183</v>
+      </c>
+      <c r="E340" t="s">
+        <v>184</v>
+      </c>
+      <c r="F340" t="s">
+        <v>185</v>
+      </c>
+      <c r="G340" t="s">
+        <v>186</v>
+      </c>
+      <c r="H340" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I340">
+        <v>377</v>
+      </c>
+      <c r="J340" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>814</v>
+      </c>
+      <c r="B341" t="s">
+        <v>815</v>
+      </c>
+      <c r="C341" t="s">
+        <v>188</v>
+      </c>
+      <c r="D341" t="s">
+        <v>189</v>
+      </c>
+      <c r="E341" t="s">
+        <v>823</v>
+      </c>
+      <c r="F341" t="s">
+        <v>191</v>
+      </c>
+      <c r="G341" t="s">
+        <v>56</v>
+      </c>
+      <c r="H341" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I341">
+        <v>97</v>
+      </c>
+      <c r="J341" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>814</v>
+      </c>
+      <c r="B342" t="s">
+        <v>815</v>
+      </c>
+      <c r="C342" t="s">
+        <v>193</v>
+      </c>
+      <c r="D342" t="s">
+        <v>194</v>
+      </c>
+      <c r="E342" t="s">
+        <v>824</v>
+      </c>
+      <c r="F342" t="s">
+        <v>196</v>
+      </c>
+      <c r="G342" t="s">
+        <v>197</v>
+      </c>
+      <c r="H342" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I342">
+        <v>332</v>
+      </c>
+      <c r="J342" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>814</v>
+      </c>
+      <c r="B343" t="s">
+        <v>815</v>
+      </c>
+      <c r="C343" t="s">
+        <v>199</v>
+      </c>
+      <c r="D343" t="s">
+        <v>200</v>
+      </c>
+      <c r="E343" t="s">
+        <v>201</v>
+      </c>
+      <c r="F343" t="s">
+        <v>202</v>
+      </c>
+      <c r="G343" t="s">
+        <v>197</v>
+      </c>
+      <c r="H343" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I343">
+        <v>710</v>
+      </c>
+      <c r="J343" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>814</v>
+      </c>
+      <c r="B344" t="s">
+        <v>815</v>
+      </c>
+      <c r="C344" t="s">
+        <v>204</v>
+      </c>
+      <c r="D344" t="s">
+        <v>205</v>
+      </c>
+      <c r="E344" t="s">
+        <v>206</v>
+      </c>
+      <c r="F344" t="s">
+        <v>207</v>
+      </c>
+      <c r="G344" t="s">
+        <v>197</v>
+      </c>
+      <c r="H344" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I344">
+        <v>241</v>
+      </c>
+      <c r="J344" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>814</v>
+      </c>
+      <c r="B345" t="s">
+        <v>815</v>
+      </c>
+      <c r="C345" t="s">
+        <v>209</v>
+      </c>
+      <c r="D345" t="s">
+        <v>210</v>
+      </c>
+      <c r="E345" t="s">
+        <v>211</v>
+      </c>
+      <c r="H345" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I345">
+        <v>71</v>
+      </c>
+      <c r="J345" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>814</v>
+      </c>
+      <c r="B346" t="s">
+        <v>815</v>
+      </c>
+      <c r="C346" t="s">
+        <v>213</v>
+      </c>
+      <c r="D346" t="s">
+        <v>214</v>
+      </c>
+      <c r="E346" t="s">
+        <v>215</v>
+      </c>
+      <c r="F346" t="s">
+        <v>216</v>
+      </c>
+      <c r="G346" t="s">
+        <v>44</v>
+      </c>
+      <c r="H346" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I346">
+        <v>186</v>
+      </c>
+      <c r="J346" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>814</v>
+      </c>
+      <c r="B347" t="s">
+        <v>815</v>
+      </c>
+      <c r="C347" t="s">
+        <v>218</v>
+      </c>
+      <c r="D347" t="s">
+        <v>219</v>
+      </c>
+      <c r="E347" t="s">
+        <v>220</v>
+      </c>
+      <c r="G347" t="s">
+        <v>137</v>
+      </c>
+      <c r="H347" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I347">
+        <v>21</v>
+      </c>
+      <c r="J347" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>814</v>
+      </c>
+      <c r="B348" t="s">
+        <v>815</v>
+      </c>
+      <c r="C348" t="s">
+        <v>222</v>
+      </c>
+      <c r="D348" t="s">
+        <v>223</v>
+      </c>
+      <c r="E348" t="s">
+        <v>224</v>
+      </c>
+      <c r="F348" t="s">
+        <v>225</v>
+      </c>
+      <c r="G348" t="s">
+        <v>226</v>
+      </c>
+      <c r="H348" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I348">
+        <v>192</v>
+      </c>
+      <c r="J348" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>814</v>
+      </c>
+      <c r="B349" t="s">
+        <v>815</v>
+      </c>
+      <c r="C349" t="s">
+        <v>228</v>
+      </c>
+      <c r="D349" t="s">
+        <v>229</v>
+      </c>
+      <c r="E349" t="s">
+        <v>230</v>
+      </c>
+      <c r="F349" t="s">
+        <v>231</v>
+      </c>
+      <c r="G349" t="s">
+        <v>56</v>
+      </c>
+      <c r="H349" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I349">
+        <v>118</v>
+      </c>
+      <c r="J349" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>814</v>
+      </c>
+      <c r="B350" t="s">
+        <v>815</v>
+      </c>
+      <c r="C350" t="s">
+        <v>233</v>
+      </c>
+      <c r="D350" t="s">
+        <v>234</v>
+      </c>
+      <c r="E350" t="s">
+        <v>235</v>
+      </c>
+      <c r="F350" t="s">
+        <v>236</v>
+      </c>
+      <c r="G350" t="s">
+        <v>237</v>
+      </c>
+      <c r="H350" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I350">
+        <v>40</v>
+      </c>
+      <c r="J350" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>814</v>
+      </c>
+      <c r="B351" t="s">
+        <v>815</v>
+      </c>
+      <c r="C351" t="s">
+        <v>239</v>
+      </c>
+      <c r="D351" t="s">
+        <v>240</v>
+      </c>
+      <c r="E351" t="s">
+        <v>241</v>
+      </c>
+      <c r="H351" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I351">
+        <v>34</v>
+      </c>
+      <c r="J351" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>814</v>
+      </c>
+      <c r="B352" t="s">
+        <v>815</v>
+      </c>
+      <c r="C352" t="s">
+        <v>243</v>
+      </c>
+      <c r="D352" t="s">
+        <v>244</v>
+      </c>
+      <c r="E352" t="s">
+        <v>245</v>
+      </c>
+      <c r="F352" t="s">
+        <v>246</v>
+      </c>
+      <c r="G352" t="s">
+        <v>247</v>
+      </c>
+      <c r="H352" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I352">
+        <v>424</v>
+      </c>
+      <c r="J352" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>814</v>
+      </c>
+      <c r="B353" t="s">
+        <v>815</v>
+      </c>
+      <c r="C353" t="s">
+        <v>249</v>
+      </c>
+      <c r="D353" t="s">
+        <v>250</v>
+      </c>
+      <c r="E353" t="s">
+        <v>825</v>
+      </c>
+      <c r="F353" t="s">
+        <v>252</v>
+      </c>
+      <c r="G353" t="s">
+        <v>253</v>
+      </c>
+      <c r="H353" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I353">
+        <v>117</v>
+      </c>
+      <c r="J353" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>814</v>
+      </c>
+      <c r="B354" t="s">
+        <v>815</v>
+      </c>
+      <c r="C354" t="s">
+        <v>255</v>
+      </c>
+      <c r="D354" t="s">
+        <v>256</v>
+      </c>
+      <c r="E354" t="s">
+        <v>826</v>
+      </c>
+      <c r="H354" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I354">
+        <v>43</v>
+      </c>
+      <c r="J354" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>814</v>
+      </c>
+      <c r="B355" t="s">
+        <v>815</v>
+      </c>
+      <c r="C355" t="s">
+        <v>259</v>
+      </c>
+      <c r="D355" t="s">
+        <v>260</v>
+      </c>
+      <c r="E355" t="s">
+        <v>261</v>
+      </c>
+      <c r="F355" t="s">
+        <v>262</v>
+      </c>
+      <c r="H355" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I355">
+        <v>12</v>
+      </c>
+      <c r="J355" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>814</v>
+      </c>
+      <c r="B356" t="s">
+        <v>815</v>
+      </c>
+      <c r="C356" t="s">
+        <v>264</v>
+      </c>
+      <c r="D356" t="s">
+        <v>265</v>
+      </c>
+      <c r="E356" t="s">
+        <v>827</v>
+      </c>
+      <c r="F356" t="s">
+        <v>267</v>
+      </c>
+      <c r="H356" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I356">
+        <v>657</v>
+      </c>
+      <c r="J356" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>814</v>
+      </c>
+      <c r="B357" t="s">
+        <v>815</v>
+      </c>
+      <c r="C357" t="s">
+        <v>269</v>
+      </c>
+      <c r="D357" t="s">
+        <v>270</v>
+      </c>
+      <c r="E357" t="s">
+        <v>271</v>
+      </c>
+      <c r="F357" t="s">
+        <v>272</v>
+      </c>
+      <c r="G357" t="s">
+        <v>273</v>
+      </c>
+      <c r="H357" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I357">
+        <v>25</v>
+      </c>
+      <c r="J357" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>814</v>
+      </c>
+      <c r="B358" t="s">
+        <v>815</v>
+      </c>
+      <c r="C358" t="s">
+        <v>275</v>
+      </c>
+      <c r="D358" t="s">
+        <v>276</v>
+      </c>
+      <c r="E358" t="s">
+        <v>277</v>
+      </c>
+      <c r="F358" t="s">
+        <v>278</v>
+      </c>
+      <c r="G358" t="s">
+        <v>186</v>
+      </c>
+      <c r="H358" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I358">
+        <v>579</v>
+      </c>
+      <c r="J358" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>814</v>
+      </c>
+      <c r="B359" t="s">
+        <v>815</v>
+      </c>
+      <c r="C359" t="s">
+        <v>280</v>
+      </c>
+      <c r="D359" t="s">
+        <v>281</v>
+      </c>
+      <c r="E359" t="s">
+        <v>282</v>
+      </c>
+      <c r="F359" t="s">
+        <v>283</v>
+      </c>
+      <c r="G359" t="s">
+        <v>284</v>
+      </c>
+      <c r="H359" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I359">
+        <v>1380</v>
+      </c>
+      <c r="J359" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>814</v>
+      </c>
+      <c r="B360" t="s">
+        <v>815</v>
+      </c>
+      <c r="C360" t="s">
+        <v>286</v>
+      </c>
+      <c r="D360" t="s">
+        <v>287</v>
+      </c>
+      <c r="E360" t="s">
+        <v>288</v>
+      </c>
+      <c r="F360" t="s">
+        <v>289</v>
+      </c>
+      <c r="G360" t="s">
+        <v>104</v>
+      </c>
+      <c r="H360" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I360">
+        <v>104</v>
+      </c>
+      <c r="J360" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>814</v>
+      </c>
+      <c r="B361" t="s">
+        <v>815</v>
+      </c>
+      <c r="C361" t="s">
+        <v>291</v>
+      </c>
+      <c r="D361" t="s">
+        <v>292</v>
+      </c>
+      <c r="E361" t="s">
+        <v>293</v>
+      </c>
+      <c r="F361" t="s">
+        <v>294</v>
+      </c>
+      <c r="G361" t="s">
+        <v>273</v>
+      </c>
+      <c r="H361" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I361">
+        <v>55</v>
+      </c>
+      <c r="J361" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>814</v>
+      </c>
+      <c r="B362" t="s">
+        <v>815</v>
+      </c>
+      <c r="C362" t="s">
+        <v>296</v>
+      </c>
+      <c r="D362" t="s">
+        <v>297</v>
+      </c>
+      <c r="E362" t="s">
+        <v>298</v>
+      </c>
+      <c r="G362" t="s">
+        <v>299</v>
+      </c>
+      <c r="H362" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I362">
+        <v>154</v>
+      </c>
+      <c r="J362" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>814</v>
+      </c>
+      <c r="B363" t="s">
+        <v>815</v>
+      </c>
+      <c r="C363" t="s">
+        <v>301</v>
+      </c>
+      <c r="D363" t="s">
+        <v>302</v>
+      </c>
+      <c r="E363" t="s">
+        <v>303</v>
+      </c>
+      <c r="F363" t="s">
+        <v>304</v>
+      </c>
+      <c r="H363" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I363">
+        <v>52</v>
+      </c>
+      <c r="J363" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>814</v>
+      </c>
+      <c r="B364" t="s">
+        <v>815</v>
+      </c>
+      <c r="C364" t="s">
+        <v>306</v>
+      </c>
+      <c r="D364" t="s">
+        <v>307</v>
+      </c>
+      <c r="E364" t="s">
+        <v>308</v>
+      </c>
+      <c r="F364" t="s">
+        <v>309</v>
+      </c>
+      <c r="G364" t="s">
+        <v>310</v>
+      </c>
+      <c r="H364" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I364">
+        <v>398</v>
+      </c>
+      <c r="J364" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>814</v>
+      </c>
+      <c r="B365" t="s">
+        <v>815</v>
+      </c>
+      <c r="C365" t="s">
+        <v>312</v>
+      </c>
+      <c r="D365" t="s">
+        <v>313</v>
+      </c>
+      <c r="E365" t="s">
+        <v>314</v>
+      </c>
+      <c r="H365" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I365">
+        <v>64</v>
+      </c>
+      <c r="J365" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>814</v>
+      </c>
+      <c r="B366" t="s">
+        <v>815</v>
+      </c>
+      <c r="C366" t="s">
+        <v>316</v>
+      </c>
+      <c r="D366" t="s">
+        <v>317</v>
+      </c>
+      <c r="E366" t="s">
+        <v>318</v>
+      </c>
+      <c r="F366" t="s">
+        <v>319</v>
+      </c>
+      <c r="H366" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I366">
+        <v>34</v>
+      </c>
+      <c r="J366" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>814</v>
+      </c>
+      <c r="B367" t="s">
+        <v>815</v>
+      </c>
+      <c r="C367" t="s">
+        <v>321</v>
+      </c>
+      <c r="D367" t="s">
+        <v>322</v>
+      </c>
+      <c r="E367" t="s">
+        <v>323</v>
+      </c>
+      <c r="G367" t="s">
+        <v>324</v>
+      </c>
+      <c r="H367" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I367">
+        <v>84</v>
+      </c>
+      <c r="J367" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>814</v>
+      </c>
+      <c r="B368" t="s">
+        <v>815</v>
+      </c>
+      <c r="C368" t="s">
+        <v>326</v>
+      </c>
+      <c r="D368" t="s">
+        <v>327</v>
+      </c>
+      <c r="E368" t="s">
+        <v>328</v>
+      </c>
+      <c r="F368" t="s">
+        <v>329</v>
+      </c>
+      <c r="G368" t="s">
+        <v>44</v>
+      </c>
+      <c r="H368" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I368">
+        <v>63</v>
+      </c>
+      <c r="J368" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>814</v>
+      </c>
+      <c r="B369" t="s">
+        <v>815</v>
+      </c>
+      <c r="C369" t="s">
+        <v>331</v>
+      </c>
+      <c r="D369" t="s">
+        <v>332</v>
+      </c>
+      <c r="E369" t="s">
+        <v>333</v>
+      </c>
+      <c r="F369" t="s">
+        <v>334</v>
+      </c>
+      <c r="G369" t="s">
+        <v>273</v>
+      </c>
+      <c r="H369" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I369">
+        <v>38</v>
+      </c>
+      <c r="J369" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>814</v>
+      </c>
+      <c r="B370" t="s">
+        <v>815</v>
+      </c>
+      <c r="C370" t="s">
+        <v>336</v>
+      </c>
+      <c r="D370" t="s">
+        <v>337</v>
+      </c>
+      <c r="E370" t="s">
+        <v>338</v>
+      </c>
+      <c r="F370" t="s">
+        <v>339</v>
+      </c>
+      <c r="G370" t="s">
+        <v>340</v>
+      </c>
+      <c r="H370" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I370">
+        <v>72</v>
+      </c>
+      <c r="J370" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>814</v>
+      </c>
+      <c r="B371" t="s">
+        <v>815</v>
+      </c>
+      <c r="C371" t="s">
+        <v>342</v>
+      </c>
+      <c r="D371" t="s">
+        <v>343</v>
+      </c>
+      <c r="E371" t="s">
+        <v>344</v>
+      </c>
+      <c r="F371" t="s">
+        <v>345</v>
+      </c>
+      <c r="G371" t="s">
+        <v>346</v>
+      </c>
+      <c r="H371" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I371">
+        <v>101</v>
+      </c>
+      <c r="J371" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>814</v>
+      </c>
+      <c r="B372" t="s">
+        <v>815</v>
+      </c>
+      <c r="C372" t="s">
+        <v>348</v>
+      </c>
+      <c r="D372" t="s">
+        <v>349</v>
+      </c>
+      <c r="E372" t="s">
+        <v>828</v>
+      </c>
+      <c r="H372" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I372">
+        <v>69</v>
+      </c>
+      <c r="J372" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>814</v>
+      </c>
+      <c r="B373" t="s">
+        <v>815</v>
+      </c>
+      <c r="C373" t="s">
+        <v>352</v>
+      </c>
+      <c r="D373" t="s">
+        <v>353</v>
+      </c>
+      <c r="E373" t="s">
+        <v>829</v>
+      </c>
+      <c r="F373" t="s">
+        <v>355</v>
+      </c>
+      <c r="G373" t="s">
+        <v>356</v>
+      </c>
+      <c r="H373" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I373">
+        <v>123</v>
+      </c>
+      <c r="J373" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>814</v>
+      </c>
+      <c r="B374" t="s">
+        <v>815</v>
+      </c>
+      <c r="C374" t="s">
+        <v>358</v>
+      </c>
+      <c r="D374" t="s">
+        <v>359</v>
+      </c>
+      <c r="E374" t="s">
+        <v>360</v>
+      </c>
+      <c r="H374" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I374">
+        <v>126</v>
+      </c>
+      <c r="J374" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>814</v>
+      </c>
+      <c r="B375" t="s">
+        <v>815</v>
+      </c>
+      <c r="C375" t="s">
+        <v>362</v>
+      </c>
+      <c r="D375" t="s">
+        <v>363</v>
+      </c>
+      <c r="E375" t="s">
+        <v>364</v>
+      </c>
+      <c r="F375" t="s">
+        <v>365</v>
+      </c>
+      <c r="G375" t="s">
+        <v>366</v>
+      </c>
+      <c r="H375" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I375">
+        <v>133</v>
+      </c>
+      <c r="J375" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>814</v>
+      </c>
+      <c r="B376" t="s">
+        <v>815</v>
+      </c>
+      <c r="C376" t="s">
+        <v>368</v>
+      </c>
+      <c r="D376" t="s">
+        <v>369</v>
+      </c>
+      <c r="E376" t="s">
+        <v>830</v>
+      </c>
+      <c r="F376" t="s">
+        <v>371</v>
+      </c>
+      <c r="G376" t="s">
+        <v>372</v>
+      </c>
+      <c r="H376" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I376">
+        <v>179</v>
+      </c>
+      <c r="J376" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>814</v>
+      </c>
+      <c r="B377" t="s">
+        <v>815</v>
+      </c>
+      <c r="C377" t="s">
+        <v>374</v>
+      </c>
+      <c r="D377" t="s">
+        <v>375</v>
+      </c>
+      <c r="E377" t="s">
+        <v>831</v>
+      </c>
+      <c r="F377" t="s">
+        <v>377</v>
+      </c>
+      <c r="G377" t="s">
+        <v>44</v>
+      </c>
+      <c r="H377" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I377">
+        <v>799</v>
+      </c>
+      <c r="J377" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>814</v>
+      </c>
+      <c r="B378" t="s">
+        <v>815</v>
+      </c>
+      <c r="C378" t="s">
+        <v>379</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+      <c r="E378" t="s">
+        <v>381</v>
+      </c>
+      <c r="H378" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I378">
+        <v>52</v>
+      </c>
+      <c r="J378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>814</v>
+      </c>
+      <c r="B379" t="s">
+        <v>815</v>
+      </c>
+      <c r="C379" t="s">
+        <v>383</v>
+      </c>
+      <c r="D379" t="s">
+        <v>384</v>
+      </c>
+      <c r="E379" t="s">
+        <v>832</v>
+      </c>
+      <c r="F379" t="s">
+        <v>386</v>
+      </c>
+      <c r="G379" t="s">
+        <v>122</v>
+      </c>
+      <c r="H379" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I379">
+        <v>158</v>
+      </c>
+      <c r="J379" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>814</v>
+      </c>
+      <c r="B380" t="s">
+        <v>815</v>
+      </c>
+      <c r="C380" t="s">
+        <v>388</v>
+      </c>
+      <c r="D380" t="s">
+        <v>389</v>
+      </c>
+      <c r="E380" t="s">
+        <v>833</v>
+      </c>
+      <c r="F380" t="s">
+        <v>391</v>
+      </c>
+      <c r="G380" t="s">
+        <v>122</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I380">
+        <v>464</v>
+      </c>
+      <c r="J380" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>814</v>
+      </c>
+      <c r="B381" t="s">
+        <v>815</v>
+      </c>
+      <c r="C381" t="s">
+        <v>393</v>
+      </c>
+      <c r="D381" t="s">
+        <v>394</v>
+      </c>
+      <c r="E381" t="s">
+        <v>395</v>
+      </c>
+      <c r="F381" t="s">
+        <v>396</v>
+      </c>
+      <c r="G381" t="s">
+        <v>122</v>
+      </c>
+      <c r="H381" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I381">
+        <v>96</v>
+      </c>
+      <c r="J381" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>814</v>
+      </c>
+      <c r="B382" t="s">
+        <v>815</v>
+      </c>
+      <c r="C382" t="s">
+        <v>398</v>
+      </c>
+      <c r="D382" t="s">
+        <v>399</v>
+      </c>
+      <c r="E382" t="s">
+        <v>400</v>
+      </c>
+      <c r="F382" t="s">
+        <v>401</v>
+      </c>
+      <c r="H382" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I382">
+        <v>507</v>
+      </c>
+      <c r="J382" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>814</v>
+      </c>
+      <c r="B383" t="s">
+        <v>815</v>
+      </c>
+      <c r="C383" t="s">
+        <v>403</v>
+      </c>
+      <c r="D383" t="s">
+        <v>404</v>
+      </c>
+      <c r="E383" t="s">
+        <v>405</v>
+      </c>
+      <c r="F383" t="s">
+        <v>406</v>
+      </c>
+      <c r="G383" t="s">
+        <v>407</v>
+      </c>
+      <c r="H383" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I383">
+        <v>383</v>
+      </c>
+      <c r="J383" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>814</v>
+      </c>
+      <c r="B384" t="s">
+        <v>815</v>
+      </c>
+      <c r="C384" t="s">
+        <v>409</v>
+      </c>
+      <c r="D384" t="s">
+        <v>410</v>
+      </c>
+      <c r="E384" t="s">
+        <v>411</v>
+      </c>
+      <c r="F384" t="s">
+        <v>412</v>
+      </c>
+      <c r="G384" t="s">
+        <v>413</v>
+      </c>
+      <c r="H384" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I384">
+        <v>389</v>
+      </c>
+      <c r="J384" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>814</v>
+      </c>
+      <c r="B385" t="s">
+        <v>815</v>
+      </c>
+      <c r="C385" t="s">
+        <v>415</v>
+      </c>
+      <c r="D385" t="s">
+        <v>416</v>
+      </c>
+      <c r="E385" t="s">
+        <v>417</v>
+      </c>
+      <c r="H385" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I385">
+        <v>104</v>
+      </c>
+      <c r="J385" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>814</v>
+      </c>
+      <c r="B386" t="s">
+        <v>815</v>
+      </c>
+      <c r="C386" t="s">
+        <v>419</v>
+      </c>
+      <c r="D386" t="s">
+        <v>420</v>
+      </c>
+      <c r="E386" t="s">
+        <v>421</v>
+      </c>
+      <c r="F386" t="s">
+        <v>422</v>
+      </c>
+      <c r="H386" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I386">
+        <v>44</v>
+      </c>
+      <c r="J386" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>814</v>
+      </c>
+      <c r="B387" t="s">
+        <v>815</v>
+      </c>
+      <c r="C387" t="s">
+        <v>424</v>
+      </c>
+      <c r="D387" t="s">
+        <v>425</v>
+      </c>
+      <c r="E387" t="s">
+        <v>426</v>
+      </c>
+      <c r="F387" t="s">
+        <v>427</v>
+      </c>
+      <c r="G387" t="s">
+        <v>372</v>
+      </c>
+      <c r="H387" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I387">
+        <v>23</v>
+      </c>
+      <c r="J387" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>814</v>
+      </c>
+      <c r="B388" t="s">
+        <v>815</v>
+      </c>
+      <c r="C388" t="s">
+        <v>429</v>
+      </c>
+      <c r="D388" t="s">
+        <v>430</v>
+      </c>
+      <c r="E388" t="s">
+        <v>431</v>
+      </c>
+      <c r="F388" t="s">
+        <v>432</v>
+      </c>
+      <c r="H388" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I388">
+        <v>423</v>
+      </c>
+      <c r="J388" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>814</v>
+      </c>
+      <c r="B389" t="s">
+        <v>815</v>
+      </c>
+      <c r="C389" t="s">
+        <v>434</v>
+      </c>
+      <c r="D389" t="s">
+        <v>435</v>
+      </c>
+      <c r="E389" t="s">
+        <v>834</v>
+      </c>
+      <c r="H389" s="1">
+        <v>169</v>
+      </c>
+      <c r="I389">
+        <v>519</v>
+      </c>
+      <c r="J389" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>814</v>
+      </c>
+      <c r="B390" t="s">
+        <v>815</v>
+      </c>
+      <c r="C390" t="s">
+        <v>438</v>
+      </c>
+      <c r="D390" t="s">
+        <v>439</v>
+      </c>
+      <c r="E390" t="s">
+        <v>440</v>
+      </c>
+      <c r="G390" t="s">
+        <v>441</v>
+      </c>
+      <c r="H390" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J390" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>814</v>
+      </c>
+      <c r="B391" t="s">
+        <v>815</v>
+      </c>
+      <c r="C391" t="s">
+        <v>443</v>
+      </c>
+      <c r="D391" t="s">
+        <v>444</v>
+      </c>
+      <c r="E391" t="s">
+        <v>445</v>
+      </c>
+      <c r="G391" t="s">
+        <v>299</v>
+      </c>
+      <c r="H391" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I391">
+        <v>30</v>
+      </c>
+      <c r="J391" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>814</v>
+      </c>
+      <c r="B392" t="s">
+        <v>815</v>
+      </c>
+      <c r="C392" t="s">
+        <v>447</v>
+      </c>
+      <c r="D392" t="s">
+        <v>448</v>
+      </c>
+      <c r="E392" t="s">
+        <v>449</v>
+      </c>
+      <c r="F392" t="s">
+        <v>450</v>
+      </c>
+      <c r="G392" t="s">
+        <v>92</v>
+      </c>
+      <c r="H392" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I392">
+        <v>302</v>
+      </c>
+      <c r="J392" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>814</v>
+      </c>
+      <c r="B393" t="s">
+        <v>815</v>
+      </c>
+      <c r="C393" t="s">
+        <v>452</v>
+      </c>
+      <c r="D393" t="s">
+        <v>453</v>
+      </c>
+      <c r="E393" t="s">
+        <v>835</v>
+      </c>
+      <c r="F393" t="s">
+        <v>455</v>
+      </c>
+      <c r="G393" t="s">
+        <v>50</v>
+      </c>
+      <c r="H393" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I393">
+        <v>1428</v>
+      </c>
+      <c r="J393" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>814</v>
+      </c>
+      <c r="B394" t="s">
+        <v>815</v>
+      </c>
+      <c r="C394" t="s">
+        <v>457</v>
+      </c>
+      <c r="D394" t="s">
+        <v>458</v>
+      </c>
+      <c r="E394" t="s">
+        <v>459</v>
+      </c>
+      <c r="G394" t="s">
+        <v>56</v>
+      </c>
+      <c r="H394" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I394">
+        <v>101</v>
+      </c>
+      <c r="J394" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>814</v>
+      </c>
+      <c r="B395" t="s">
+        <v>815</v>
+      </c>
+      <c r="C395" t="s">
+        <v>461</v>
+      </c>
+      <c r="D395" t="s">
+        <v>462</v>
+      </c>
+      <c r="E395" t="s">
+        <v>463</v>
+      </c>
+      <c r="F395" t="s">
+        <v>464</v>
+      </c>
+      <c r="G395" t="s">
+        <v>56</v>
+      </c>
+      <c r="H395" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I395">
+        <v>135</v>
+      </c>
+      <c r="J395" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>814</v>
+      </c>
+      <c r="B396" t="s">
+        <v>815</v>
+      </c>
+      <c r="C396" t="s">
+        <v>466</v>
+      </c>
+      <c r="D396" t="s">
+        <v>467</v>
+      </c>
+      <c r="E396" t="s">
+        <v>468</v>
+      </c>
+      <c r="F396" t="s">
+        <v>469</v>
+      </c>
+      <c r="H396" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I396">
+        <v>227</v>
+      </c>
+      <c r="J396" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>814</v>
+      </c>
+      <c r="B397" t="s">
+        <v>815</v>
+      </c>
+      <c r="C397" t="s">
+        <v>471</v>
+      </c>
+      <c r="D397" t="s">
+        <v>472</v>
+      </c>
+      <c r="E397" t="s">
+        <v>473</v>
+      </c>
+      <c r="F397" t="s">
+        <v>474</v>
+      </c>
+      <c r="G397" t="s">
+        <v>56</v>
+      </c>
+      <c r="H397" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I397">
+        <v>29</v>
+      </c>
+      <c r="J397" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>814</v>
+      </c>
+      <c r="B398" t="s">
+        <v>815</v>
+      </c>
+      <c r="C398" t="s">
+        <v>476</v>
+      </c>
+      <c r="D398" t="s">
+        <v>477</v>
+      </c>
+      <c r="E398" t="s">
+        <v>478</v>
+      </c>
+      <c r="F398" t="s">
+        <v>479</v>
+      </c>
+      <c r="G398" t="s">
+        <v>122</v>
+      </c>
+      <c r="H398" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I398">
+        <v>75</v>
+      </c>
+      <c r="J398" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>814</v>
+      </c>
+      <c r="B399" t="s">
+        <v>815</v>
+      </c>
+      <c r="C399" t="s">
+        <v>481</v>
+      </c>
+      <c r="D399" t="s">
+        <v>482</v>
+      </c>
+      <c r="E399" t="s">
+        <v>483</v>
+      </c>
+      <c r="F399" t="s">
+        <v>484</v>
+      </c>
+      <c r="G399" t="s">
+        <v>485</v>
+      </c>
+      <c r="H399" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I399">
+        <v>27</v>
+      </c>
+      <c r="J399" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>814</v>
+      </c>
+      <c r="B400" t="s">
+        <v>815</v>
+      </c>
+      <c r="C400" t="s">
+        <v>487</v>
+      </c>
+      <c r="D400" t="s">
+        <v>488</v>
+      </c>
+      <c r="E400" t="s">
+        <v>836</v>
+      </c>
+      <c r="F400" t="s">
+        <v>490</v>
+      </c>
+      <c r="G400" t="s">
+        <v>56</v>
+      </c>
+      <c r="H400" s="1">
+        <v>6</v>
+      </c>
+      <c r="I400">
+        <v>28</v>
+      </c>
+      <c r="J400" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>814</v>
+      </c>
+      <c r="B401" t="s">
+        <v>815</v>
+      </c>
+      <c r="C401" t="s">
+        <v>492</v>
+      </c>
+      <c r="D401" t="s">
+        <v>493</v>
+      </c>
+      <c r="E401" t="s">
+        <v>837</v>
+      </c>
+      <c r="F401" t="s">
+        <v>495</v>
+      </c>
+      <c r="G401" t="s">
+        <v>122</v>
+      </c>
+      <c r="H401" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I401">
+        <v>205</v>
+      </c>
+      <c r="J401" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>814</v>
+      </c>
+      <c r="B402" t="s">
+        <v>815</v>
+      </c>
+      <c r="C402" t="s">
+        <v>497</v>
+      </c>
+      <c r="D402" t="s">
+        <v>498</v>
+      </c>
+      <c r="E402" t="s">
+        <v>499</v>
+      </c>
+      <c r="F402" t="s">
+        <v>500</v>
+      </c>
+      <c r="H402" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I402">
+        <v>18</v>
+      </c>
+      <c r="J402" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>814</v>
+      </c>
+      <c r="B403" t="s">
+        <v>815</v>
+      </c>
+      <c r="C403" t="s">
+        <v>502</v>
+      </c>
+      <c r="D403" t="s">
+        <v>503</v>
+      </c>
+      <c r="E403" t="s">
+        <v>504</v>
+      </c>
+      <c r="F403" t="s">
+        <v>505</v>
+      </c>
+      <c r="H403" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I403">
+        <v>403</v>
+      </c>
+      <c r="J403" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>814</v>
+      </c>
+      <c r="B404" t="s">
+        <v>815</v>
+      </c>
+      <c r="C404" t="s">
+        <v>507</v>
+      </c>
+      <c r="D404" t="s">
+        <v>508</v>
+      </c>
+      <c r="E404" t="s">
+        <v>509</v>
+      </c>
+      <c r="F404" t="s">
+        <v>510</v>
+      </c>
+      <c r="G404" t="s">
+        <v>372</v>
+      </c>
+      <c r="H404" s="1">
+        <v>203</v>
+      </c>
+      <c r="I404">
+        <v>193</v>
+      </c>
+      <c r="J404" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>814</v>
+      </c>
+      <c r="B405" t="s">
+        <v>815</v>
+      </c>
+      <c r="C405" t="s">
+        <v>512</v>
+      </c>
+      <c r="D405" t="s">
+        <v>513</v>
+      </c>
+      <c r="E405" t="s">
+        <v>514</v>
+      </c>
+      <c r="F405" t="s">
+        <v>515</v>
+      </c>
+      <c r="G405" t="s">
+        <v>197</v>
+      </c>
+      <c r="H405" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I405">
+        <v>99</v>
+      </c>
+      <c r="J405" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>814</v>
+      </c>
+      <c r="B406" t="s">
+        <v>815</v>
+      </c>
+      <c r="C406" t="s">
+        <v>517</v>
+      </c>
+      <c r="D406" t="s">
+        <v>518</v>
+      </c>
+      <c r="E406" t="s">
+        <v>838</v>
+      </c>
+      <c r="F406" t="s">
+        <v>520</v>
+      </c>
+      <c r="G406" t="s">
+        <v>197</v>
+      </c>
+      <c r="H406" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I406">
+        <v>383</v>
+      </c>
+      <c r="J406" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>814</v>
+      </c>
+      <c r="B407" t="s">
+        <v>815</v>
+      </c>
+      <c r="C407" t="s">
+        <v>522</v>
+      </c>
+      <c r="D407" t="s">
+        <v>523</v>
+      </c>
+      <c r="E407" t="s">
+        <v>839</v>
+      </c>
+      <c r="F407" t="s">
+        <v>525</v>
+      </c>
+      <c r="G407" t="s">
+        <v>197</v>
+      </c>
+      <c r="H407" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I407">
+        <v>1048</v>
+      </c>
+      <c r="J407" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>814</v>
+      </c>
+      <c r="B408" t="s">
+        <v>815</v>
+      </c>
+      <c r="C408" t="s">
+        <v>527</v>
+      </c>
+      <c r="D408" t="s">
+        <v>528</v>
+      </c>
+      <c r="E408" t="s">
+        <v>529</v>
+      </c>
+      <c r="F408" t="s">
+        <v>530</v>
+      </c>
+      <c r="G408" t="s">
+        <v>197</v>
+      </c>
+      <c r="H408" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I408">
+        <v>304</v>
+      </c>
+      <c r="J408" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>814</v>
+      </c>
+      <c r="B409" t="s">
+        <v>815</v>
+      </c>
+      <c r="C409" t="s">
+        <v>532</v>
+      </c>
+      <c r="D409" t="s">
+        <v>533</v>
+      </c>
+      <c r="E409" t="s">
+        <v>534</v>
+      </c>
+      <c r="F409" t="s">
+        <v>535</v>
+      </c>
+      <c r="G409" t="s">
+        <v>485</v>
+      </c>
+      <c r="H409" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I409">
+        <v>1172</v>
+      </c>
+      <c r="J409" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>814</v>
+      </c>
+      <c r="B410" t="s">
+        <v>815</v>
+      </c>
+      <c r="C410" t="s">
+        <v>537</v>
+      </c>
+      <c r="D410" t="s">
+        <v>538</v>
+      </c>
+      <c r="E410" t="s">
+        <v>539</v>
+      </c>
+      <c r="G410" t="s">
+        <v>540</v>
+      </c>
+      <c r="H410" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I410">
+        <v>156</v>
+      </c>
+      <c r="J410" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>814</v>
+      </c>
+      <c r="B411" t="s">
+        <v>815</v>
+      </c>
+      <c r="C411" t="s">
+        <v>542</v>
+      </c>
+      <c r="D411" t="s">
+        <v>543</v>
+      </c>
+      <c r="E411" t="s">
+        <v>544</v>
+      </c>
+      <c r="F411" t="s">
+        <v>545</v>
+      </c>
+      <c r="G411" t="s">
+        <v>546</v>
+      </c>
+      <c r="H411" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I411">
+        <v>31</v>
+      </c>
+      <c r="J411" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>814</v>
+      </c>
+      <c r="B412" t="s">
+        <v>815</v>
+      </c>
+      <c r="C412" t="s">
+        <v>548</v>
+      </c>
+      <c r="D412" t="s">
+        <v>549</v>
+      </c>
+      <c r="E412" t="s">
+        <v>550</v>
+      </c>
+      <c r="F412" t="s">
+        <v>551</v>
+      </c>
+      <c r="G412" t="s">
+        <v>552</v>
+      </c>
+      <c r="H412" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I412">
+        <v>471</v>
+      </c>
+      <c r="J412" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>814</v>
+      </c>
+      <c r="B413" t="s">
+        <v>815</v>
+      </c>
+      <c r="C413" t="s">
+        <v>554</v>
+      </c>
+      <c r="D413" t="s">
+        <v>555</v>
+      </c>
+      <c r="E413" t="s">
+        <v>556</v>
+      </c>
+      <c r="F413" t="s">
+        <v>557</v>
+      </c>
+      <c r="H413" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I413">
+        <v>37</v>
+      </c>
+      <c r="J413" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>814</v>
+      </c>
+      <c r="B414" t="s">
+        <v>815</v>
+      </c>
+      <c r="C414" t="s">
+        <v>559</v>
+      </c>
+      <c r="D414" t="s">
+        <v>560</v>
+      </c>
+      <c r="E414" t="s">
+        <v>561</v>
+      </c>
+      <c r="F414" t="s">
+        <v>562</v>
+      </c>
+      <c r="G414" t="s">
+        <v>122</v>
+      </c>
+      <c r="H414" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I414">
+        <v>58</v>
+      </c>
+      <c r="J414" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>814</v>
+      </c>
+      <c r="B415" t="s">
+        <v>815</v>
+      </c>
+      <c r="C415" t="s">
+        <v>564</v>
+      </c>
+      <c r="D415" t="s">
+        <v>565</v>
+      </c>
+      <c r="E415" t="s">
+        <v>840</v>
+      </c>
+      <c r="F415" t="s">
+        <v>567</v>
+      </c>
+      <c r="G415" t="s">
+        <v>568</v>
+      </c>
+      <c r="H415" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I415">
+        <v>622</v>
+      </c>
+      <c r="J415" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>814</v>
+      </c>
+      <c r="B416" t="s">
+        <v>815</v>
+      </c>
+      <c r="C416" t="s">
+        <v>570</v>
+      </c>
+      <c r="D416" t="s">
+        <v>571</v>
+      </c>
+      <c r="E416" t="s">
+        <v>572</v>
+      </c>
+      <c r="H416" s="1">
+        <v>0</v>
+      </c>
+      <c r="I416">
+        <v>1</v>
+      </c>
+      <c r="J416" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>814</v>
+      </c>
+      <c r="B417" t="s">
+        <v>815</v>
+      </c>
+      <c r="C417" t="s">
+        <v>574</v>
+      </c>
+      <c r="D417" t="s">
+        <v>575</v>
+      </c>
+      <c r="E417" t="s">
+        <v>576</v>
+      </c>
+      <c r="F417" t="s">
+        <v>577</v>
+      </c>
+      <c r="G417" t="s">
+        <v>578</v>
+      </c>
+      <c r="H417" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I417">
+        <v>69</v>
+      </c>
+      <c r="J417" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>814</v>
+      </c>
+      <c r="B418" t="s">
+        <v>815</v>
+      </c>
+      <c r="C418" t="s">
+        <v>580</v>
+      </c>
+      <c r="D418" t="s">
+        <v>581</v>
+      </c>
+      <c r="E418" t="s">
+        <v>582</v>
+      </c>
+      <c r="F418" t="s">
+        <v>583</v>
+      </c>
+      <c r="G418" t="s">
+        <v>122</v>
+      </c>
+      <c r="H418" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I418">
+        <v>979</v>
+      </c>
+      <c r="J418" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>814</v>
+      </c>
+      <c r="B419" t="s">
+        <v>815</v>
+      </c>
+      <c r="C419" t="s">
+        <v>585</v>
+      </c>
+      <c r="D419" t="s">
+        <v>586</v>
+      </c>
+      <c r="E419" t="s">
+        <v>841</v>
+      </c>
+      <c r="F419" t="s">
+        <v>588</v>
+      </c>
+      <c r="G419" t="s">
+        <v>56</v>
+      </c>
+      <c r="H419" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I419">
+        <v>301</v>
+      </c>
+      <c r="J419" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>814</v>
+      </c>
+      <c r="B420" t="s">
+        <v>815</v>
+      </c>
+      <c r="C420" t="s">
+        <v>590</v>
+      </c>
+      <c r="D420" t="s">
+        <v>591</v>
+      </c>
+      <c r="E420" t="s">
+        <v>592</v>
+      </c>
+      <c r="F420" t="s">
+        <v>593</v>
+      </c>
+      <c r="G420" t="s">
+        <v>80</v>
+      </c>
+      <c r="H420" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I420">
+        <v>610</v>
+      </c>
+      <c r="J420" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>814</v>
+      </c>
+      <c r="B421" t="s">
+        <v>815</v>
+      </c>
+      <c r="C421" t="s">
+        <v>595</v>
+      </c>
+      <c r="D421" t="s">
+        <v>596</v>
+      </c>
+      <c r="E421" t="s">
+        <v>597</v>
+      </c>
+      <c r="F421" t="s">
+        <v>598</v>
+      </c>
+      <c r="G421" t="s">
+        <v>56</v>
+      </c>
+      <c r="H421" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I421">
+        <v>128</v>
+      </c>
+      <c r="J421" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>814</v>
+      </c>
+      <c r="B422" t="s">
+        <v>815</v>
+      </c>
+      <c r="C422" t="s">
+        <v>600</v>
+      </c>
+      <c r="D422" t="s">
+        <v>601</v>
+      </c>
+      <c r="E422" t="s">
+        <v>842</v>
+      </c>
+      <c r="F422" t="s">
+        <v>603</v>
+      </c>
+      <c r="G422" t="s">
+        <v>197</v>
+      </c>
+      <c r="H422" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I422">
+        <v>891</v>
+      </c>
+      <c r="J422" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>814</v>
+      </c>
+      <c r="B423" t="s">
+        <v>815</v>
+      </c>
+      <c r="C423" t="s">
+        <v>605</v>
+      </c>
+      <c r="D423" t="s">
+        <v>606</v>
+      </c>
+      <c r="E423" t="s">
+        <v>843</v>
+      </c>
+      <c r="F423" t="s">
+        <v>608</v>
+      </c>
+      <c r="G423" t="s">
+        <v>340</v>
+      </c>
+      <c r="H423" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I423">
+        <v>250</v>
+      </c>
+      <c r="J423" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>814</v>
+      </c>
+      <c r="B424" t="s">
+        <v>815</v>
+      </c>
+      <c r="C424" t="s">
+        <v>610</v>
+      </c>
+      <c r="D424" t="s">
+        <v>611</v>
+      </c>
+      <c r="E424" t="s">
+        <v>612</v>
+      </c>
+      <c r="F424" t="s">
+        <v>613</v>
+      </c>
+      <c r="G424" t="s">
+        <v>614</v>
+      </c>
+      <c r="H424" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I424">
+        <v>200</v>
+      </c>
+      <c r="J424" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>814</v>
+      </c>
+      <c r="B425" t="s">
+        <v>815</v>
+      </c>
+      <c r="C425" t="s">
+        <v>616</v>
+      </c>
+      <c r="D425" t="s">
+        <v>617</v>
+      </c>
+      <c r="E425" t="s">
+        <v>618</v>
+      </c>
+      <c r="F425" t="s">
+        <v>619</v>
+      </c>
+      <c r="G425" t="s">
+        <v>92</v>
+      </c>
+      <c r="H425" s="1">
+        <v>80</v>
+      </c>
+      <c r="I425">
+        <v>85</v>
+      </c>
+      <c r="J425" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>814</v>
+      </c>
+      <c r="B426" t="s">
+        <v>815</v>
+      </c>
+      <c r="C426" t="s">
+        <v>621</v>
+      </c>
+      <c r="D426" t="s">
+        <v>622</v>
+      </c>
+      <c r="E426" t="s">
+        <v>844</v>
+      </c>
+      <c r="F426" t="s">
+        <v>624</v>
+      </c>
+      <c r="G426" t="s">
+        <v>625</v>
+      </c>
+      <c r="H426" s="1">
+        <v>76</v>
+      </c>
+      <c r="I426">
+        <v>526</v>
+      </c>
+      <c r="J426" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>814</v>
+      </c>
+      <c r="B427" t="s">
+        <v>815</v>
+      </c>
+      <c r="C427" t="s">
+        <v>627</v>
+      </c>
+      <c r="D427" t="s">
+        <v>628</v>
+      </c>
+      <c r="E427" t="s">
+        <v>629</v>
+      </c>
+      <c r="G427" t="s">
+        <v>630</v>
+      </c>
+      <c r="H427" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I427">
+        <v>94</v>
+      </c>
+      <c r="J427" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>814</v>
+      </c>
+      <c r="B428" t="s">
+        <v>815</v>
+      </c>
+      <c r="C428" t="s">
+        <v>632</v>
+      </c>
+      <c r="D428" t="s">
+        <v>633</v>
+      </c>
+      <c r="E428" t="s">
+        <v>634</v>
+      </c>
+      <c r="F428" t="s">
+        <v>635</v>
+      </c>
+      <c r="G428" t="s">
+        <v>636</v>
+      </c>
+      <c r="H428" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I428">
+        <v>50</v>
+      </c>
+      <c r="J428" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>814</v>
+      </c>
+      <c r="B429" t="s">
+        <v>815</v>
+      </c>
+      <c r="C429" t="s">
+        <v>638</v>
+      </c>
+      <c r="D429" t="s">
+        <v>639</v>
+      </c>
+      <c r="E429" t="s">
+        <v>640</v>
+      </c>
+      <c r="F429" t="s">
+        <v>641</v>
+      </c>
+      <c r="G429" t="s">
+        <v>642</v>
+      </c>
+      <c r="H429" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I429">
+        <v>75</v>
+      </c>
+      <c r="J429" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>814</v>
+      </c>
+      <c r="B430" t="s">
+        <v>815</v>
+      </c>
+      <c r="C430" t="s">
+        <v>644</v>
+      </c>
+      <c r="D430" t="s">
+        <v>645</v>
+      </c>
+      <c r="E430" t="s">
+        <v>646</v>
+      </c>
+      <c r="F430" t="s">
+        <v>647</v>
+      </c>
+      <c r="G430" t="s">
+        <v>648</v>
+      </c>
+      <c r="H430" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I430">
+        <v>247</v>
+      </c>
+      <c r="J430" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>814</v>
+      </c>
+      <c r="B431" t="s">
+        <v>815</v>
+      </c>
+      <c r="C431" t="s">
+        <v>650</v>
+      </c>
+      <c r="D431" t="s">
+        <v>651</v>
+      </c>
+      <c r="E431" t="s">
+        <v>652</v>
+      </c>
+      <c r="F431" t="s">
+        <v>653</v>
+      </c>
+      <c r="G431" t="s">
+        <v>614</v>
+      </c>
+      <c r="H431" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I431">
+        <v>60</v>
+      </c>
+      <c r="J431" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>814</v>
+      </c>
+      <c r="B432" t="s">
+        <v>815</v>
+      </c>
+      <c r="C432" t="s">
+        <v>655</v>
+      </c>
+      <c r="D432" t="s">
+        <v>656</v>
+      </c>
+      <c r="E432" t="s">
+        <v>845</v>
+      </c>
+      <c r="F432" t="s">
+        <v>658</v>
+      </c>
+      <c r="H432" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I432">
+        <v>610</v>
+      </c>
+      <c r="J432" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>814</v>
+      </c>
+      <c r="B433" t="s">
+        <v>815</v>
+      </c>
+      <c r="C433" t="s">
+        <v>660</v>
+      </c>
+      <c r="D433" t="s">
+        <v>661</v>
+      </c>
+      <c r="E433" t="s">
+        <v>846</v>
+      </c>
+      <c r="F433" t="s">
+        <v>663</v>
+      </c>
+      <c r="H433" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I433">
+        <v>88</v>
+      </c>
+      <c r="J433" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>814</v>
+      </c>
+      <c r="B434" t="s">
+        <v>815</v>
+      </c>
+      <c r="C434" t="s">
+        <v>665</v>
+      </c>
+      <c r="D434" t="s">
+        <v>666</v>
+      </c>
+      <c r="E434" t="s">
+        <v>847</v>
+      </c>
+      <c r="F434" t="s">
+        <v>668</v>
+      </c>
+      <c r="H434" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I434">
+        <v>54</v>
+      </c>
+      <c r="J434" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>814</v>
+      </c>
+      <c r="B435" t="s">
+        <v>815</v>
+      </c>
+      <c r="C435" t="s">
+        <v>670</v>
+      </c>
+      <c r="D435" t="s">
+        <v>671</v>
+      </c>
+      <c r="E435" t="s">
+        <v>672</v>
+      </c>
+      <c r="F435" t="s">
+        <v>673</v>
+      </c>
+      <c r="G435" t="s">
+        <v>372</v>
+      </c>
+      <c r="H435" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I435">
+        <v>577</v>
+      </c>
+      <c r="J435" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>814</v>
+      </c>
+      <c r="B436" t="s">
+        <v>815</v>
+      </c>
+      <c r="C436" t="s">
+        <v>675</v>
+      </c>
+      <c r="D436" t="s">
+        <v>676</v>
+      </c>
+      <c r="E436" t="s">
+        <v>677</v>
+      </c>
+      <c r="F436" t="s">
+        <v>678</v>
+      </c>
+      <c r="H436" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I436">
+        <v>56</v>
+      </c>
+      <c r="J436" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>814</v>
+      </c>
+      <c r="B437" t="s">
+        <v>815</v>
+      </c>
+      <c r="C437" t="s">
+        <v>429</v>
+      </c>
+      <c r="D437" t="s">
+        <v>680</v>
+      </c>
+      <c r="E437" t="s">
+        <v>681</v>
+      </c>
+      <c r="F437" t="s">
+        <v>682</v>
+      </c>
+      <c r="G437" t="s">
+        <v>372</v>
+      </c>
+      <c r="H437" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I437">
+        <v>819</v>
+      </c>
+      <c r="J437" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>814</v>
+      </c>
+      <c r="B438" t="s">
+        <v>815</v>
+      </c>
+      <c r="C438" t="s">
+        <v>684</v>
+      </c>
+      <c r="D438" t="s">
+        <v>685</v>
+      </c>
+      <c r="E438" t="s">
+        <v>848</v>
+      </c>
+      <c r="F438" t="s">
+        <v>687</v>
+      </c>
+      <c r="G438" t="s">
+        <v>372</v>
+      </c>
+      <c r="H438" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I438">
+        <v>1160</v>
+      </c>
+      <c r="J438" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>814</v>
+      </c>
+      <c r="B439" t="s">
+        <v>815</v>
+      </c>
+      <c r="C439" t="s">
+        <v>689</v>
+      </c>
+      <c r="D439" t="s">
+        <v>690</v>
+      </c>
+      <c r="E439" t="s">
+        <v>691</v>
+      </c>
+      <c r="F439" t="s">
+        <v>692</v>
+      </c>
+      <c r="G439" t="s">
+        <v>372</v>
+      </c>
+      <c r="H439" s="1">
+        <v>120</v>
+      </c>
+      <c r="I439">
+        <v>175</v>
+      </c>
+      <c r="J439" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>814</v>
+      </c>
+      <c r="B440" t="s">
+        <v>815</v>
+      </c>
+      <c r="C440" t="s">
+        <v>694</v>
+      </c>
+      <c r="D440" t="s">
+        <v>695</v>
+      </c>
+      <c r="E440" t="s">
+        <v>696</v>
+      </c>
+      <c r="F440" t="s">
+        <v>697</v>
+      </c>
+      <c r="G440" t="s">
+        <v>698</v>
+      </c>
+      <c r="H440" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I440">
+        <v>175</v>
+      </c>
+      <c r="J440" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>814</v>
+      </c>
+      <c r="B441" t="s">
+        <v>815</v>
+      </c>
+      <c r="C441" t="s">
+        <v>700</v>
+      </c>
+      <c r="D441" t="s">
+        <v>701</v>
+      </c>
+      <c r="E441" t="s">
+        <v>702</v>
+      </c>
+      <c r="F441" t="s">
+        <v>703</v>
+      </c>
+      <c r="G441" t="s">
+        <v>704</v>
+      </c>
+      <c r="H441" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I441">
+        <v>79</v>
+      </c>
+      <c r="J441" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>814</v>
+      </c>
+      <c r="B442" t="s">
+        <v>815</v>
+      </c>
+      <c r="C442" t="s">
+        <v>706</v>
+      </c>
+      <c r="D442" t="s">
+        <v>707</v>
+      </c>
+      <c r="E442" t="s">
+        <v>849</v>
+      </c>
+      <c r="F442" t="s">
+        <v>709</v>
+      </c>
+      <c r="G442" t="s">
+        <v>710</v>
+      </c>
+      <c r="H442" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I442">
+        <v>385</v>
+      </c>
+      <c r="J442" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>814</v>
+      </c>
+      <c r="B443" t="s">
+        <v>815</v>
+      </c>
+      <c r="C443" t="s">
+        <v>712</v>
+      </c>
+      <c r="D443" t="s">
+        <v>713</v>
+      </c>
+      <c r="E443" t="s">
+        <v>714</v>
+      </c>
+      <c r="F443" t="s">
+        <v>715</v>
+      </c>
+      <c r="G443" t="s">
+        <v>92</v>
+      </c>
+      <c r="H443" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I443">
+        <v>98</v>
+      </c>
+      <c r="J443" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>814</v>
+      </c>
+      <c r="B444" t="s">
+        <v>815</v>
+      </c>
+      <c r="C444" t="s">
+        <v>717</v>
+      </c>
+      <c r="D444" t="s">
+        <v>718</v>
+      </c>
+      <c r="E444" t="s">
+        <v>719</v>
+      </c>
+      <c r="H444" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I444">
+        <v>45</v>
+      </c>
+      <c r="J444" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>814</v>
+      </c>
+      <c r="B445" t="s">
+        <v>815</v>
+      </c>
+      <c r="C445" t="s">
+        <v>721</v>
+      </c>
+      <c r="D445" t="s">
+        <v>722</v>
+      </c>
+      <c r="E445" t="s">
+        <v>723</v>
+      </c>
+      <c r="F445" t="s">
+        <v>724</v>
+      </c>
+      <c r="G445" t="s">
+        <v>725</v>
+      </c>
+      <c r="H445" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I445">
+        <v>108</v>
+      </c>
+      <c r="J445" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>814</v>
+      </c>
+      <c r="B446" t="s">
+        <v>815</v>
+      </c>
+      <c r="C446" t="s">
+        <v>727</v>
+      </c>
+      <c r="D446" t="s">
+        <v>728</v>
+      </c>
+      <c r="E446" t="s">
+        <v>729</v>
+      </c>
+      <c r="F446" t="s">
+        <v>730</v>
+      </c>
+      <c r="G446" t="s">
+        <v>731</v>
+      </c>
+      <c r="H446" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I446">
+        <v>33</v>
+      </c>
+      <c r="J446" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>814</v>
+      </c>
+      <c r="B447" t="s">
+        <v>815</v>
+      </c>
+      <c r="C447" t="s">
+        <v>733</v>
+      </c>
+      <c r="D447" t="s">
+        <v>734</v>
+      </c>
+      <c r="E447" t="s">
+        <v>735</v>
+      </c>
+      <c r="F447" t="s">
+        <v>736</v>
+      </c>
+      <c r="H447" s="1">
+        <v>250</v>
+      </c>
+      <c r="I447">
+        <v>122</v>
+      </c>
+      <c r="J447" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>814</v>
+      </c>
+      <c r="B448" t="s">
+        <v>815</v>
+      </c>
+      <c r="C448" t="s">
+        <v>738</v>
+      </c>
+      <c r="D448" t="s">
+        <v>739</v>
+      </c>
+      <c r="E448" t="s">
+        <v>740</v>
+      </c>
+      <c r="F448" t="s">
+        <v>741</v>
+      </c>
+      <c r="G448" t="s">
+        <v>226</v>
+      </c>
+      <c r="H448" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I448">
+        <v>71</v>
+      </c>
+      <c r="J448" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>814</v>
+      </c>
+      <c r="B449" t="s">
+        <v>815</v>
+      </c>
+      <c r="C449" t="s">
+        <v>743</v>
+      </c>
+      <c r="D449" t="s">
+        <v>744</v>
+      </c>
+      <c r="E449" t="s">
+        <v>745</v>
+      </c>
+      <c r="F449" t="s">
+        <v>746</v>
+      </c>
+      <c r="G449" t="s">
+        <v>625</v>
+      </c>
+      <c r="H449" s="1">
+        <v>96</v>
+      </c>
+      <c r="I449">
+        <v>632</v>
+      </c>
+      <c r="J449" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>814</v>
+      </c>
+      <c r="B450" t="s">
+        <v>815</v>
+      </c>
+      <c r="C450" t="s">
+        <v>748</v>
+      </c>
+      <c r="D450" t="s">
+        <v>749</v>
+      </c>
+      <c r="E450" t="s">
+        <v>750</v>
+      </c>
+      <c r="F450" t="s">
+        <v>751</v>
+      </c>
+      <c r="H450" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I450">
+        <v>650</v>
+      </c>
+      <c r="J450" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>814</v>
+      </c>
+      <c r="B451" t="s">
+        <v>815</v>
+      </c>
+      <c r="C451" t="s">
+        <v>753</v>
+      </c>
+      <c r="D451" t="s">
+        <v>754</v>
+      </c>
+      <c r="E451" t="s">
+        <v>850</v>
+      </c>
+      <c r="F451" t="s">
+        <v>756</v>
+      </c>
+      <c r="G451" t="s">
+        <v>757</v>
+      </c>
+      <c r="H451" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I451">
+        <v>1912</v>
+      </c>
+      <c r="J451" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>814</v>
+      </c>
+      <c r="B452" t="s">
+        <v>815</v>
+      </c>
+      <c r="C452" t="s">
+        <v>759</v>
+      </c>
+      <c r="D452" t="s">
+        <v>760</v>
+      </c>
+      <c r="E452" t="s">
+        <v>851</v>
+      </c>
+      <c r="F452" t="s">
+        <v>762</v>
+      </c>
+      <c r="H452" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I452">
+        <v>171</v>
+      </c>
+      <c r="J452" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>814</v>
+      </c>
+      <c r="B453" t="s">
+        <v>815</v>
+      </c>
+      <c r="C453" t="s">
+        <v>764</v>
+      </c>
+      <c r="D453" t="s">
+        <v>765</v>
+      </c>
+      <c r="E453" t="s">
+        <v>766</v>
+      </c>
+      <c r="F453" t="s">
+        <v>767</v>
+      </c>
+      <c r="G453" t="s">
+        <v>768</v>
+      </c>
+      <c r="H453" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I453">
+        <v>36</v>
+      </c>
+      <c r="J453" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>814</v>
+      </c>
+      <c r="B454" t="s">
+        <v>815</v>
+      </c>
+      <c r="C454" t="s">
+        <v>770</v>
+      </c>
+      <c r="D454" t="s">
+        <v>771</v>
+      </c>
+      <c r="E454" t="s">
+        <v>772</v>
+      </c>
+      <c r="F454" t="s">
+        <v>773</v>
+      </c>
+      <c r="G454" t="s">
+        <v>774</v>
+      </c>
+      <c r="H454" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I454">
+        <v>172</v>
+      </c>
+      <c r="J454" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>814</v>
+      </c>
+      <c r="B455" t="s">
+        <v>815</v>
+      </c>
+      <c r="C455" t="s">
+        <v>776</v>
+      </c>
+      <c r="D455" t="s">
+        <v>777</v>
+      </c>
+      <c r="E455" t="s">
+        <v>852</v>
+      </c>
+      <c r="F455" t="s">
+        <v>779</v>
+      </c>
+      <c r="H455" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I455">
+        <v>6316</v>
+      </c>
+      <c r="J455" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>814</v>
+      </c>
+      <c r="B456" t="s">
+        <v>815</v>
+      </c>
+      <c r="C456" t="s">
+        <v>781</v>
+      </c>
+      <c r="D456" t="s">
+        <v>782</v>
+      </c>
+      <c r="E456" t="s">
+        <v>783</v>
+      </c>
+      <c r="F456" t="s">
+        <v>784</v>
+      </c>
+      <c r="H456" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I456">
+        <v>37</v>
+      </c>
+      <c r="J456" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>814</v>
+      </c>
+      <c r="B457" t="s">
+        <v>815</v>
+      </c>
+      <c r="C457" t="s">
+        <v>786</v>
+      </c>
+      <c r="D457" t="s">
+        <v>787</v>
+      </c>
+      <c r="E457" t="s">
+        <v>788</v>
+      </c>
+      <c r="F457" t="s">
+        <v>789</v>
+      </c>
+      <c r="H457" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I457">
+        <v>191</v>
+      </c>
+      <c r="J457" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>814</v>
+      </c>
+      <c r="B458" t="s">
+        <v>815</v>
+      </c>
+      <c r="C458" t="s">
+        <v>791</v>
+      </c>
+      <c r="D458" t="s">
+        <v>792</v>
+      </c>
+      <c r="E458" t="s">
+        <v>793</v>
+      </c>
+      <c r="F458" t="s">
+        <v>794</v>
+      </c>
+      <c r="G458" t="s">
+        <v>372</v>
+      </c>
+      <c r="H458" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I458">
+        <v>196</v>
+      </c>
+      <c r="J458" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>814</v>
+      </c>
+      <c r="B459" t="s">
+        <v>815</v>
+      </c>
+      <c r="C459" t="s">
+        <v>796</v>
+      </c>
+      <c r="D459" t="s">
+        <v>797</v>
+      </c>
+      <c r="E459" t="s">
+        <v>853</v>
+      </c>
+      <c r="F459" t="s">
+        <v>799</v>
+      </c>
+      <c r="H459" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I459">
+        <v>3339</v>
+      </c>
+      <c r="J459" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>814</v>
+      </c>
+      <c r="B460" t="s">
+        <v>815</v>
+      </c>
+      <c r="C460" t="s">
+        <v>801</v>
+      </c>
+      <c r="D460" t="s">
+        <v>802</v>
+      </c>
+      <c r="E460" t="s">
+        <v>803</v>
+      </c>
+      <c r="H460" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I460">
+        <v>14</v>
+      </c>
+      <c r="J460" t="s">
         <v>804</v>
       </c>
     </row>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="909">
   <si>
     <t>DATE</t>
   </si>
@@ -5315,6 +5315,910 @@
 $9.01
  This item is in stock and available today!
 Current Stock: 3339
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>11:48 AM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe
+28g x 1/2in
+1mL
+Safety
+BROWN
+100/Box
+$27.59
+ This item is in stock and available today!
+Current Stock: 112
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal as a first aid antiseptic and cleanser
+For use in hospitals, clinics, doctor's offices, by first responders and at home
+$2.76
+ This item is in stock and available today!
+Current Stock: 33
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterile Suture Removal Kit
+Single-use kit that includes everything needed for safe and sanitary removal of sutures.
+Kit Includes:
+1 - Littauer Scissors
+1 - 3" x 3" Gauze pad
+1 - Plastic Serrated Forceps
+1 Kit Each
+$3.11
+ This item is in stock and available today!
+Current Stock: 164
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Lancets
+Top Button Activated
+23g x 1.8mm 
+BLUE - for Normal Blood Flow
+100 Lancets per Box
+$19.87
+ This item is in stock and available today!
+Current Stock: 118
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 746
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+$33.48
+ This item is in stock and available today!
+Current Stock: 52
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+MEDIUM
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 327
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 708
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulin Syringe Needle
+0.5mL
+29g x ¬Ω"
+Safety
+100 per Box
+1 Box Each
+$27.54
+ This item is in stock and available today!
+Current Stock: 174
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine Transfer Straw
+For USe With:    Urine Vacuum Tubes
+3"  (7.5cm)
+NonSterile
+Transparent Hub and Straw
+100/Bag
+1 Bag Each
+*** Case Packed:   8 Bags per Case ***
+$55.65
+ This item is in stock and available today!
+Current Stock: 422
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fentanyl (FTY) Urine Dip Cassette Test Kit
+FDA/CLIA Waived POC ¬†¬†
+Ultra Sensitive Fentanyl Detection ¬†1 ng/ml
+Results in 5 Mins¬†
+25 Tests per Box¬†
+1 Box Each
+$60.50
+ This item is in stock and available today!
+Current Stock: 652
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 each)
+350 Labels per Roll
+Authentic Dymo 550 LabelWriter Printer Labels
+Direct thermal printing technology does not use expensive ink or toner
+Strong self-adhesive backing
+Labels Compatible with: DYMO LabelWriter 450, 450 Duo, 450 Turbo, 450 Twin Turbo, Wireless, 4XL, 550, 550 Turbo, 5XL
+$10.20
+ This item is in stock and available today!
+Current Stock: 1376
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4oz (100mL) Vacuette Urine Specimen Collection Cup
+with Transfer Straw
+Patient Information 
+Sterile
+Graduated
+300/Case
+1 Case Each
+$308.62
+ This item is in stock and available today!
+Current Stock: 150
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltine Cracker Packs
+2 original baked crackers per individually wrapped packet
+Perfect for snacking or with salad and soup
+Great for on-the go to keep you going
+No saturated fat, no trans fat and no cholesterol
+500 Packs per Case
+1 Case Each
+**  ALL Food Related Items are NON-RETURNABLE  **
+$44.20
+ This item is in stock and available today!
+Current Stock: 62
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8oz Dial Professional Antibacterial Hand Sanitizer Gel with Pump
+Fragrance-free
+Dye-free - Clear
+Kills 99.99% of Germs
+Tested on Latex, Vinyl and Nitrile Gloves
+Dermatologist Tested
+Hypoallergenic
+Moisturizing Skin Conditioners
+1 Bottle Each
+$6.20
+ This item is in stock and available today!
+Current Stock: 80
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue
+Press &amp; Lock Safety Reliable Mechanism for Permanent Lock
+Ergonomic Wings for Ease of Use
+Ultra Sharp Needle for Patient Comfort
+Sterile Single Packs for Single Use
+US FDA 510K Approved
+50 per Box 
+1 Box Each
+$48.31
+ This item is in stock and available today!
+Current Stock: 62
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
+w/Safety Shield
+Low Dead Space
+100 per Box - 1 Box Each
+(Case Packed - 5 Boxes per Case)
+$49.93
+ This item is in stock and available today!
+Current Stock: 67
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Dot ECG/EKG Resting Adult Electrode
+Conductive Adhesive Gel
+Contains Silver/Silver Chloride
+Tab Style 
+2cm W x 2cm L
+10 Tabs per Card 
+10 Cards per Bag = 100 Tabs per Bag
+1 Bag Each
+*WARNING: Image may not be an exact representation of the the product*
+$12.32
+ This item is in stock and available today!
+Current Stock: 122
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33mm Pressure Sensitive Child Resistant Cap (CRC) 
+White
+Fits 50cc, 60cc, and 75cc Bottles 
+2,300 per Case - 1 Case Each
+$222.07
+ This item is in stock and available today!
+Current Stock: 124
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 173
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
+Professional Use
+50 Strips per Box 
+1 Box Each
+$9.58
+ This item is in stock and available today!
+Current Stock: 779
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Flavored
+9g high-quality protein
+220 nutrient-rich calories with B-vitamins
+Contains vitamins C &amp; D, zinc, iron, and selenium, key nutrients for immune support
+8 Ounce Bottles
+No Artificial sweeteners, flavors &amp; colors
+24 Bottles per Case
+***  Brand may vary depending on availability *** 
+**  ALL Food Related Items are NON-RETURNABLE  **
+$56.44
+ This item is in stock and available today!
+Current Stock: 51
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourniquet  1" x 18" 
+Slip Resistant Textured Grip
+BLUE
+Latex Free
+100 Rolled and Banded per Bag 
+1 Bag Each
+*** New MFR and Packaging COMING SOON ***
+(250 Rolls per Pack)
+$39.74
+ This item is in stock and available today!
+Current Stock: 94
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Isopropyl Rubbing Alcohol  
+Size: 32oz
+Percentage: 70%
+Cleans minor cuts, scrapes and burns while it helps reduce the risk of infection
+1 Each
+$5.93
+ This item is in stock and available today!
+Current Stock: 375
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60cc Bottle
+Made in the USA
+Color: Natural
+Type: Round
+1,000/Case
+$92.03
+ This item is in stock and available today!
+Current Stock: 382
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Collection Tube Holders
+For 13 to 16mm Blood Collection Tubes
+Universal design for compatibility with blood collection needles and winged sets
+DEHP Free and Latex Free Materials
+Made of Polypropylene
+Transparent
+100 Holders per Pack
+1 Pack Each
+$11.86
+ This item is in stock and available today!
+Current Stock: 28
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mL Venous Blood Collection Tube
+No Additive
+BD Hemogard Closure
+Silicone Coated Closure
+Without Color Coding
+13 X 100 mm
+Polyethylene Terephthalate (PET) Tube
+Sterile
+Clear Tube
+100 per Box 
+1 Box Each
+***  (Case Packed:  10 Boxes/Case) ***
+$41.26
+ This item is in stock and available today!
+Current Stock: 292
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+$249.16
+ This item is in stock and available today!
+Current Stock: 1402
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datamax Compatible White Direct Thermal Labels 
+Sold Per Roll (1 Each)
+Qty: 1,380 per Roll
+3.5'' x 1''
+$15.51
+ This item is in stock and available today!
+Current Stock: 204
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1oz Medicine Translucent Polypropylene Cup
+Easy Graduations
+Disposable
+Great for pill or liquid medication
+100 cups per sleeve
+50 sleeves per case
+Packed 5,000 cups per case
+1 Case Each
+$56.90
+ This item is in stock and available today!
+Current Stock: 71
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23g x 3/4"  Safety Butterfly Blood Collection Set
+with  Luer Adapter
+12" Tubing
+Single Packed
+Sterile
+Thin Wall
+90 per Box
+1 Box Each 
+$150.76
+ This item is in stock and available today!
+Current Stock: 26
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhesive Bandage
+Sterile
+Lightweight
+Designed to provide comfortable protection
+The highly absorbent pad will not stick to the wound
+Long lasting adhesive gently sticks to skin
+Pre-folded wrapper tabs make them easy to open
+The soft weaved material bends easily and conforms to the body, staying on even when wet
+100 Bandages per Box
+1 Box Each
+To Order a Case, Please Order 12 Boxes.
+$5.36
+ This item is in stock and available today!
+Current Stock: 203
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Panel T-Cup Compact - 4oz Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions:¬†39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:¬†Forensic Use Only
+Tests for the following drug panels:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP
+MTD
+OXY
+PCP
+THC
+ETG
+FTY
+TRA
+K2
+25 per Box
+1 Box Each
+$203.00
+ This item is in stock and available today!
+Current Stock: 187
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 1034
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Alcohol 70%
+ Sterile Alcohol Prep Pad
+Dimensions: 1 X 1 1/4 Inch
+Individual Packets
+NonWoven Gauze
+ 2 - Ply
+Scent: Alcohol Scent
+Sterility: Sterile
+Size: Medium
+200 Pads per Box
+(PACKED:  ​​​​​​20 Boxes/Case)
+Brand may vary based on availability. Includes brands such as Webcol, Dukal, or similar. 
+$4.15
+ This item is in stock and available today!
+Current Stock: 977
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturated with 70% isopropyl alcohol
+2-Ply Non-Woven Pads
+1.75" x 3.3"
+100 per Box
+1 Box Each
+$4.79
+ This item is in stock and available today!
+Current Stock: 292
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc Wide - Mouth Round
+Neck Finish: 28/400
+1500 per Case
+1 Case Each
+$131.60
+ This item is in stock and available today!
+Current Stock: 602
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vacutainer SST Blood Collection Tube was designed to make serum sample preparation more efficient and improve laboratory workflow.
+$80.00
+ This item is in stock and available today!
+Current Stock: 81
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+$76.00
+ This item is in stock and available today!
+Current Stock: 494
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO Commercial Lysol Disinfectant Spray
+19oz Can
+Kills 99.9% illness causing germs, viruses and bacteria
+Disinfects hard non-porous surfaces and soft surfaces
+CDC and OSHA Certified
+1 Can Each
+$12.49
+ This item is in stock and available today!
+Current Stock: 49
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel Drug Test Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate: CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MTD
+OPI
+OXY
+PCP
+THC
+25/Box
+$147.45
+ This item is in stock and available today!
+Current Stock: 52
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel 4oz Compact Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for: AMP / BAR / BUP / BZO / COC / mAMP / MDMA / MOP / MTD / OXY / PCP / THC
+25 per Box
+$146.70
+ This item is in stock and available today!
+Current Stock: 795
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Panel Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MTD
+OPI
+OXY
+THC
+25 per Box
+$106.50
+ This item is in stock and available today!
+Current Stock: 1155
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast contact time allows for a quick room turnover
+Ideal for daily use in fast-paced environments that require short contact times and broad coverage of microorganisms
+Bactericidial, tuberculocidal, virucidal
+Effective against 30 microorganisms in 2 minutes
+Multi-count canister accommodates frequent usage
+Perfect wipe size for larger surface areas
+75 / canister
+1 Each
+$18.61
+ This item is in stock and available today!
+Current Stock: 174
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Sharps Collection Container
+White Horizontal Entry Counter Balanced Cylinder Lid
+Size: 2 Gallon
+Locking Lid
+Free Standing
+12-1/2 H X 10-7/10 W X 6 D Inch
+1/Each
+** Wire Wall Mount Bracket Option Available - Contact your sales rep for more information. **
+$14.93
+ This item is in stock and available today!
+Current Stock: 96
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Plastic Souffle Cup
+Color: Translucent
+Volume: 2oz
+Made From: Plastic
+2,500/Case
+$65.82
+ This item is in stock and available today!
+Current Stock: 44
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Induction Sealer Machine
+110V Electromagnetic
+Hand held operation w/ thumb switch
+Sealing time digital display (seconds and tenth of seconds)
+Self-protection from overheating
+Seals induction caps 20 to 100mm in diameter
+1 Year Warranty
+1 Unit Each
+*Ships separately*
+$250.00
+ This item is in stock and available today!
+Current Stock: 121
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cc
+Natural Square Bottle
+1,505/Case
+$199.76
+ This item is in stock and available today!
+Current Stock: 2030
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc 
+Natural Wide Mouth Round Bottle 
+1,900/Case
+$197.90
+ This item is in stock and available today!
+Current Stock: 337
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90mL (3oz) Urine Specimen Cup
+with Graduations
+Temperature Strip
+Screw Top Cap
+Patient Information Label
+Sterile
+25 Cups per Box 
+1 Box Each
+$12.70
+ This item is in stock and available today!
+Current Stock: 169
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+350 Labels per Roll
+Dymo Compatible White Direct Thermal Labels 
+1-1/8" x 3.5" w/ Permanent Adhesive 
+** These labels are not compatible with the Dymo 550 **
+$5.93
+ This item is in stock and available today!
+Current Stock: 6251
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix powder with two gallons of water in bubbler or large container
+Ingredients: Sugar, Citric Acid, Contains Less Than 2% Of Natural And Artificial Flavor, Ascorbic Acid (Vitamin C), Calcium Phosphate, Acesfulfame Potassium And Neotame (Sweeteners), Artificial Color, Red 40 BHA (Preserves Freshness)
+Qty: 12 two-gallon packets per case
+*Sold Only By the Case*
+**  ALL Food Related Items are NON-RETURNABLE  **
+$53.14
+ This item is in stock and available today!
+Current Stock: 35
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Cassette
+Rapid Results in 5 mins
+Urine Sample
+CLIA Waived
+25mIU/mL Sensitivity
+25 per Box
+1 Box Each
+$19.50
+ This item is in stock and available today!
+Current Stock: 194
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Qty: 420 labels per Roll
+1.5" X 3.5"
+Zebra Compatible White Direct Thermal Labels
+$9.01
+ This item is in stock and available today!
+Current Stock: 3315
 Quantity
 ADD TO CART
 ADD TO WISHLIST
@@ -5708,7 +6612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K460"/>
+  <dimension ref="A1:K613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19785,6 +20689,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>814</v>
+      </c>
+      <c r="B461" t="s">
+        <v>854</v>
+      </c>
+      <c r="C461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" t="s">
+        <v>13</v>
+      </c>
+      <c r="E461" t="s">
+        <v>14</v>
+      </c>
+      <c r="F461" t="s">
+        <v>15</v>
+      </c>
+      <c r="H461" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I461">
+        <v>78</v>
+      </c>
+      <c r="J461" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>814</v>
+      </c>
+      <c r="B462" t="s">
+        <v>854</v>
+      </c>
+      <c r="C462" t="s">
+        <v>17</v>
+      </c>
+      <c r="D462" t="s">
+        <v>18</v>
+      </c>
+      <c r="E462" t="s">
+        <v>806</v>
+      </c>
+      <c r="H462" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I462">
+        <v>68</v>
+      </c>
+      <c r="J462" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>814</v>
+      </c>
+      <c r="B463" t="s">
+        <v>854</v>
+      </c>
+      <c r="C463" t="s">
+        <v>21</v>
+      </c>
+      <c r="D463" t="s">
+        <v>22</v>
+      </c>
+      <c r="E463" t="s">
+        <v>816</v>
+      </c>
+      <c r="H463" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I463">
+        <v>214</v>
+      </c>
+      <c r="J463" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>814</v>
+      </c>
+      <c r="B464" t="s">
+        <v>854</v>
+      </c>
+      <c r="C464" t="s">
+        <v>25</v>
+      </c>
+      <c r="D464" t="s">
+        <v>26</v>
+      </c>
+      <c r="E464" t="s">
+        <v>27</v>
+      </c>
+      <c r="H464" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I464">
+        <v>110</v>
+      </c>
+      <c r="J464" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>814</v>
+      </c>
+      <c r="B465" t="s">
+        <v>854</v>
+      </c>
+      <c r="C465" t="s">
+        <v>29</v>
+      </c>
+      <c r="D465" t="s">
+        <v>30</v>
+      </c>
+      <c r="E465" t="s">
+        <v>855</v>
+      </c>
+      <c r="F465" t="s">
+        <v>32</v>
+      </c>
+      <c r="G465" t="s">
+        <v>33</v>
+      </c>
+      <c r="H465" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I465">
+        <v>112</v>
+      </c>
+      <c r="J465" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>814</v>
+      </c>
+      <c r="B466" t="s">
+        <v>854</v>
+      </c>
+      <c r="C466" t="s">
+        <v>35</v>
+      </c>
+      <c r="D466" t="s">
+        <v>36</v>
+      </c>
+      <c r="E466" t="s">
+        <v>37</v>
+      </c>
+      <c r="F466" t="s">
+        <v>38</v>
+      </c>
+      <c r="H466" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I466">
+        <v>50</v>
+      </c>
+      <c r="J466" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>814</v>
+      </c>
+      <c r="B467" t="s">
+        <v>854</v>
+      </c>
+      <c r="C467" t="s">
+        <v>40</v>
+      </c>
+      <c r="D467" t="s">
+        <v>41</v>
+      </c>
+      <c r="E467" t="s">
+        <v>42</v>
+      </c>
+      <c r="F467" t="s">
+        <v>43</v>
+      </c>
+      <c r="G467" t="s">
+        <v>44</v>
+      </c>
+      <c r="H467" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I467">
+        <v>42</v>
+      </c>
+      <c r="J467" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>814</v>
+      </c>
+      <c r="B468" t="s">
+        <v>854</v>
+      </c>
+      <c r="C468" t="s">
+        <v>46</v>
+      </c>
+      <c r="D468" t="s">
+        <v>47</v>
+      </c>
+      <c r="E468" t="s">
+        <v>48</v>
+      </c>
+      <c r="F468" t="s">
+        <v>49</v>
+      </c>
+      <c r="G468" t="s">
+        <v>50</v>
+      </c>
+      <c r="H468" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I468">
+        <v>212</v>
+      </c>
+      <c r="J468" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>814</v>
+      </c>
+      <c r="B469" t="s">
+        <v>854</v>
+      </c>
+      <c r="C469" t="s">
+        <v>52</v>
+      </c>
+      <c r="D469" t="s">
+        <v>53</v>
+      </c>
+      <c r="E469" t="s">
+        <v>817</v>
+      </c>
+      <c r="F469" t="s">
+        <v>55</v>
+      </c>
+      <c r="G469" t="s">
+        <v>56</v>
+      </c>
+      <c r="H469" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I469">
+        <v>73</v>
+      </c>
+      <c r="J469" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>814</v>
+      </c>
+      <c r="B470" t="s">
+        <v>854</v>
+      </c>
+      <c r="C470" t="s">
+        <v>58</v>
+      </c>
+      <c r="D470" t="s">
+        <v>59</v>
+      </c>
+      <c r="E470" t="s">
+        <v>60</v>
+      </c>
+      <c r="F470" t="s">
+        <v>61</v>
+      </c>
+      <c r="G470" t="s">
+        <v>62</v>
+      </c>
+      <c r="H470" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I470">
+        <v>206</v>
+      </c>
+      <c r="J470" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>814</v>
+      </c>
+      <c r="B471" t="s">
+        <v>854</v>
+      </c>
+      <c r="C471" t="s">
+        <v>64</v>
+      </c>
+      <c r="D471" t="s">
+        <v>65</v>
+      </c>
+      <c r="E471" t="s">
+        <v>66</v>
+      </c>
+      <c r="F471" t="s">
+        <v>67</v>
+      </c>
+      <c r="G471" t="s">
+        <v>68</v>
+      </c>
+      <c r="H471" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I471">
+        <v>16</v>
+      </c>
+      <c r="J471" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>814</v>
+      </c>
+      <c r="B472" t="s">
+        <v>854</v>
+      </c>
+      <c r="C472" t="s">
+        <v>70</v>
+      </c>
+      <c r="D472" t="s">
+        <v>71</v>
+      </c>
+      <c r="E472" t="s">
+        <v>72</v>
+      </c>
+      <c r="F472" t="s">
+        <v>73</v>
+      </c>
+      <c r="G472" t="s">
+        <v>74</v>
+      </c>
+      <c r="H472" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I472">
+        <v>60</v>
+      </c>
+      <c r="J472" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>814</v>
+      </c>
+      <c r="B473" t="s">
+        <v>854</v>
+      </c>
+      <c r="C473" t="s">
+        <v>76</v>
+      </c>
+      <c r="D473" t="s">
+        <v>77</v>
+      </c>
+      <c r="E473" t="s">
+        <v>78</v>
+      </c>
+      <c r="F473" t="s">
+        <v>79</v>
+      </c>
+      <c r="G473" t="s">
+        <v>80</v>
+      </c>
+      <c r="H473" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I473">
+        <v>438</v>
+      </c>
+      <c r="J473" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>814</v>
+      </c>
+      <c r="B474" t="s">
+        <v>854</v>
+      </c>
+      <c r="C474" t="s">
+        <v>82</v>
+      </c>
+      <c r="D474" t="s">
+        <v>83</v>
+      </c>
+      <c r="E474" t="s">
+        <v>818</v>
+      </c>
+      <c r="F474" t="s">
+        <v>85</v>
+      </c>
+      <c r="G474" t="s">
+        <v>86</v>
+      </c>
+      <c r="H474" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I474">
+        <v>27</v>
+      </c>
+      <c r="J474" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>814</v>
+      </c>
+      <c r="B475" t="s">
+        <v>854</v>
+      </c>
+      <c r="C475" t="s">
+        <v>88</v>
+      </c>
+      <c r="D475" t="s">
+        <v>89</v>
+      </c>
+      <c r="E475" t="s">
+        <v>90</v>
+      </c>
+      <c r="F475" t="s">
+        <v>91</v>
+      </c>
+      <c r="G475" t="s">
+        <v>92</v>
+      </c>
+      <c r="H475" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I475">
+        <v>115</v>
+      </c>
+      <c r="J475" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>814</v>
+      </c>
+      <c r="B476" t="s">
+        <v>854</v>
+      </c>
+      <c r="C476" t="s">
+        <v>94</v>
+      </c>
+      <c r="D476" t="s">
+        <v>95</v>
+      </c>
+      <c r="E476" t="s">
+        <v>96</v>
+      </c>
+      <c r="F476" t="s">
+        <v>97</v>
+      </c>
+      <c r="G476" t="s">
+        <v>98</v>
+      </c>
+      <c r="H476" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I476">
+        <v>63</v>
+      </c>
+      <c r="J476" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>814</v>
+      </c>
+      <c r="B477" t="s">
+        <v>854</v>
+      </c>
+      <c r="C477" t="s">
+        <v>100</v>
+      </c>
+      <c r="D477" t="s">
+        <v>101</v>
+      </c>
+      <c r="E477" t="s">
+        <v>856</v>
+      </c>
+      <c r="F477" t="s">
+        <v>103</v>
+      </c>
+      <c r="G477" t="s">
+        <v>104</v>
+      </c>
+      <c r="H477" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I477">
+        <v>33</v>
+      </c>
+      <c r="J477" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>814</v>
+      </c>
+      <c r="B478" t="s">
+        <v>854</v>
+      </c>
+      <c r="C478" t="s">
+        <v>106</v>
+      </c>
+      <c r="D478" t="s">
+        <v>107</v>
+      </c>
+      <c r="E478" t="s">
+        <v>108</v>
+      </c>
+      <c r="F478" t="s">
+        <v>109</v>
+      </c>
+      <c r="G478" t="s">
+        <v>110</v>
+      </c>
+      <c r="H478" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I478">
+        <v>16</v>
+      </c>
+      <c r="J478" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>814</v>
+      </c>
+      <c r="B479" t="s">
+        <v>854</v>
+      </c>
+      <c r="C479" t="s">
+        <v>112</v>
+      </c>
+      <c r="D479" t="s">
+        <v>113</v>
+      </c>
+      <c r="E479" t="s">
+        <v>114</v>
+      </c>
+      <c r="F479" t="s">
+        <v>115</v>
+      </c>
+      <c r="G479" t="s">
+        <v>116</v>
+      </c>
+      <c r="H479" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I479">
+        <v>76</v>
+      </c>
+      <c r="J479" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>814</v>
+      </c>
+      <c r="B480" t="s">
+        <v>854</v>
+      </c>
+      <c r="C480" t="s">
+        <v>118</v>
+      </c>
+      <c r="D480" t="s">
+        <v>119</v>
+      </c>
+      <c r="E480" t="s">
+        <v>857</v>
+      </c>
+      <c r="F480" t="s">
+        <v>121</v>
+      </c>
+      <c r="G480" t="s">
+        <v>122</v>
+      </c>
+      <c r="H480" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I480">
+        <v>164</v>
+      </c>
+      <c r="J480" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>814</v>
+      </c>
+      <c r="B481" t="s">
+        <v>854</v>
+      </c>
+      <c r="C481" t="s">
+        <v>124</v>
+      </c>
+      <c r="D481" t="s">
+        <v>125</v>
+      </c>
+      <c r="E481" t="s">
+        <v>126</v>
+      </c>
+      <c r="F481" t="s">
+        <v>127</v>
+      </c>
+      <c r="G481" t="s">
+        <v>56</v>
+      </c>
+      <c r="H481" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I481">
+        <v>76</v>
+      </c>
+      <c r="J481" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>814</v>
+      </c>
+      <c r="B482" t="s">
+        <v>854</v>
+      </c>
+      <c r="C482" t="s">
+        <v>129</v>
+      </c>
+      <c r="D482" t="s">
+        <v>130</v>
+      </c>
+      <c r="E482" t="s">
+        <v>858</v>
+      </c>
+      <c r="H482" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I482">
+        <v>118</v>
+      </c>
+      <c r="J482" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>814</v>
+      </c>
+      <c r="B483" t="s">
+        <v>854</v>
+      </c>
+      <c r="C483" t="s">
+        <v>133</v>
+      </c>
+      <c r="D483" t="s">
+        <v>134</v>
+      </c>
+      <c r="E483" t="s">
+        <v>135</v>
+      </c>
+      <c r="F483" t="s">
+        <v>136</v>
+      </c>
+      <c r="G483" t="s">
+        <v>137</v>
+      </c>
+      <c r="H483" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I483">
+        <v>84</v>
+      </c>
+      <c r="J483" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>814</v>
+      </c>
+      <c r="B484" t="s">
+        <v>854</v>
+      </c>
+      <c r="C484" t="s">
+        <v>139</v>
+      </c>
+      <c r="D484" t="s">
+        <v>140</v>
+      </c>
+      <c r="E484" t="s">
+        <v>141</v>
+      </c>
+      <c r="H484" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I484">
+        <v>31</v>
+      </c>
+      <c r="J484" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>814</v>
+      </c>
+      <c r="B485" t="s">
+        <v>854</v>
+      </c>
+      <c r="C485" t="s">
+        <v>143</v>
+      </c>
+      <c r="D485" t="s">
+        <v>144</v>
+      </c>
+      <c r="E485" t="s">
+        <v>145</v>
+      </c>
+      <c r="H485" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I485">
+        <v>66</v>
+      </c>
+      <c r="J485" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>814</v>
+      </c>
+      <c r="B486" t="s">
+        <v>854</v>
+      </c>
+      <c r="C486" t="s">
+        <v>147</v>
+      </c>
+      <c r="D486" t="s">
+        <v>148</v>
+      </c>
+      <c r="E486" t="s">
+        <v>149</v>
+      </c>
+      <c r="F486" t="s">
+        <v>150</v>
+      </c>
+      <c r="G486" t="s">
+        <v>151</v>
+      </c>
+      <c r="H486" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I486">
+        <v>40</v>
+      </c>
+      <c r="J486" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>814</v>
+      </c>
+      <c r="B487" t="s">
+        <v>854</v>
+      </c>
+      <c r="C487" t="s">
+        <v>153</v>
+      </c>
+      <c r="D487" t="s">
+        <v>154</v>
+      </c>
+      <c r="E487" t="s">
+        <v>821</v>
+      </c>
+      <c r="F487" t="s">
+        <v>156</v>
+      </c>
+      <c r="G487" t="s">
+        <v>44</v>
+      </c>
+      <c r="H487" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I487">
+        <v>389</v>
+      </c>
+      <c r="J487" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>814</v>
+      </c>
+      <c r="B488" t="s">
+        <v>854</v>
+      </c>
+      <c r="C488" t="s">
+        <v>158</v>
+      </c>
+      <c r="D488" t="s">
+        <v>159</v>
+      </c>
+      <c r="E488" t="s">
+        <v>160</v>
+      </c>
+      <c r="H488" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I488">
+        <v>27</v>
+      </c>
+      <c r="J488" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>814</v>
+      </c>
+      <c r="B489" t="s">
+        <v>854</v>
+      </c>
+      <c r="C489" t="s">
+        <v>162</v>
+      </c>
+      <c r="D489" t="s">
+        <v>163</v>
+      </c>
+      <c r="E489" t="s">
+        <v>164</v>
+      </c>
+      <c r="H489" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I489">
+        <v>38</v>
+      </c>
+      <c r="J489" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>814</v>
+      </c>
+      <c r="B490" t="s">
+        <v>854</v>
+      </c>
+      <c r="C490" t="s">
+        <v>166</v>
+      </c>
+      <c r="D490" t="s">
+        <v>167</v>
+      </c>
+      <c r="E490" t="s">
+        <v>859</v>
+      </c>
+      <c r="F490" t="s">
+        <v>169</v>
+      </c>
+      <c r="H490" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I490">
+        <v>746</v>
+      </c>
+      <c r="J490" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>814</v>
+      </c>
+      <c r="B491" t="s">
+        <v>854</v>
+      </c>
+      <c r="C491" t="s">
+        <v>171</v>
+      </c>
+      <c r="D491" t="s">
+        <v>172</v>
+      </c>
+      <c r="E491" t="s">
+        <v>860</v>
+      </c>
+      <c r="F491" t="s">
+        <v>174</v>
+      </c>
+      <c r="G491" t="s">
+        <v>122</v>
+      </c>
+      <c r="H491" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I491">
+        <v>52</v>
+      </c>
+      <c r="J491" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>814</v>
+      </c>
+      <c r="B492" t="s">
+        <v>854</v>
+      </c>
+      <c r="C492" t="s">
+        <v>176</v>
+      </c>
+      <c r="D492" t="s">
+        <v>177</v>
+      </c>
+      <c r="E492" t="s">
+        <v>178</v>
+      </c>
+      <c r="F492" t="s">
+        <v>179</v>
+      </c>
+      <c r="G492" t="s">
+        <v>180</v>
+      </c>
+      <c r="H492" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I492">
+        <v>221</v>
+      </c>
+      <c r="J492" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>814</v>
+      </c>
+      <c r="B493" t="s">
+        <v>854</v>
+      </c>
+      <c r="C493" t="s">
+        <v>182</v>
+      </c>
+      <c r="D493" t="s">
+        <v>183</v>
+      </c>
+      <c r="E493" t="s">
+        <v>184</v>
+      </c>
+      <c r="F493" t="s">
+        <v>185</v>
+      </c>
+      <c r="G493" t="s">
+        <v>186</v>
+      </c>
+      <c r="H493" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I493">
+        <v>377</v>
+      </c>
+      <c r="J493" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>814</v>
+      </c>
+      <c r="B494" t="s">
+        <v>854</v>
+      </c>
+      <c r="C494" t="s">
+        <v>188</v>
+      </c>
+      <c r="D494" t="s">
+        <v>189</v>
+      </c>
+      <c r="E494" t="s">
+        <v>823</v>
+      </c>
+      <c r="F494" t="s">
+        <v>191</v>
+      </c>
+      <c r="G494" t="s">
+        <v>56</v>
+      </c>
+      <c r="H494" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I494">
+        <v>97</v>
+      </c>
+      <c r="J494" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>814</v>
+      </c>
+      <c r="B495" t="s">
+        <v>854</v>
+      </c>
+      <c r="C495" t="s">
+        <v>193</v>
+      </c>
+      <c r="D495" t="s">
+        <v>194</v>
+      </c>
+      <c r="E495" t="s">
+        <v>861</v>
+      </c>
+      <c r="F495" t="s">
+        <v>196</v>
+      </c>
+      <c r="G495" t="s">
+        <v>197</v>
+      </c>
+      <c r="H495" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I495">
+        <v>327</v>
+      </c>
+      <c r="J495" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>814</v>
+      </c>
+      <c r="B496" t="s">
+        <v>854</v>
+      </c>
+      <c r="C496" t="s">
+        <v>199</v>
+      </c>
+      <c r="D496" t="s">
+        <v>200</v>
+      </c>
+      <c r="E496" t="s">
+        <v>862</v>
+      </c>
+      <c r="F496" t="s">
+        <v>202</v>
+      </c>
+      <c r="G496" t="s">
+        <v>197</v>
+      </c>
+      <c r="H496" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I496">
+        <v>708</v>
+      </c>
+      <c r="J496" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>814</v>
+      </c>
+      <c r="B497" t="s">
+        <v>854</v>
+      </c>
+      <c r="C497" t="s">
+        <v>204</v>
+      </c>
+      <c r="D497" t="s">
+        <v>205</v>
+      </c>
+      <c r="E497" t="s">
+        <v>206</v>
+      </c>
+      <c r="F497" t="s">
+        <v>207</v>
+      </c>
+      <c r="G497" t="s">
+        <v>197</v>
+      </c>
+      <c r="H497" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I497">
+        <v>241</v>
+      </c>
+      <c r="J497" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>814</v>
+      </c>
+      <c r="B498" t="s">
+        <v>854</v>
+      </c>
+      <c r="C498" t="s">
+        <v>209</v>
+      </c>
+      <c r="D498" t="s">
+        <v>210</v>
+      </c>
+      <c r="E498" t="s">
+        <v>211</v>
+      </c>
+      <c r="H498" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I498">
+        <v>71</v>
+      </c>
+      <c r="J498" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>814</v>
+      </c>
+      <c r="B499" t="s">
+        <v>854</v>
+      </c>
+      <c r="C499" t="s">
+        <v>213</v>
+      </c>
+      <c r="D499" t="s">
+        <v>214</v>
+      </c>
+      <c r="E499" t="s">
+        <v>863</v>
+      </c>
+      <c r="F499" t="s">
+        <v>216</v>
+      </c>
+      <c r="G499" t="s">
+        <v>44</v>
+      </c>
+      <c r="H499" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I499">
+        <v>174</v>
+      </c>
+      <c r="J499" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>814</v>
+      </c>
+      <c r="B500" t="s">
+        <v>854</v>
+      </c>
+      <c r="C500" t="s">
+        <v>218</v>
+      </c>
+      <c r="D500" t="s">
+        <v>219</v>
+      </c>
+      <c r="E500" t="s">
+        <v>220</v>
+      </c>
+      <c r="G500" t="s">
+        <v>137</v>
+      </c>
+      <c r="H500" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I500">
+        <v>21</v>
+      </c>
+      <c r="J500" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>814</v>
+      </c>
+      <c r="B501" t="s">
+        <v>854</v>
+      </c>
+      <c r="C501" t="s">
+        <v>222</v>
+      </c>
+      <c r="D501" t="s">
+        <v>223</v>
+      </c>
+      <c r="E501" t="s">
+        <v>224</v>
+      </c>
+      <c r="F501" t="s">
+        <v>225</v>
+      </c>
+      <c r="G501" t="s">
+        <v>226</v>
+      </c>
+      <c r="H501" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I501">
+        <v>192</v>
+      </c>
+      <c r="J501" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>814</v>
+      </c>
+      <c r="B502" t="s">
+        <v>854</v>
+      </c>
+      <c r="C502" t="s">
+        <v>228</v>
+      </c>
+      <c r="D502" t="s">
+        <v>229</v>
+      </c>
+      <c r="E502" t="s">
+        <v>230</v>
+      </c>
+      <c r="F502" t="s">
+        <v>231</v>
+      </c>
+      <c r="G502" t="s">
+        <v>56</v>
+      </c>
+      <c r="H502" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I502">
+        <v>118</v>
+      </c>
+      <c r="J502" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>814</v>
+      </c>
+      <c r="B503" t="s">
+        <v>854</v>
+      </c>
+      <c r="C503" t="s">
+        <v>233</v>
+      </c>
+      <c r="D503" t="s">
+        <v>234</v>
+      </c>
+      <c r="E503" t="s">
+        <v>235</v>
+      </c>
+      <c r="F503" t="s">
+        <v>236</v>
+      </c>
+      <c r="G503" t="s">
+        <v>237</v>
+      </c>
+      <c r="H503" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I503">
+        <v>40</v>
+      </c>
+      <c r="J503" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>814</v>
+      </c>
+      <c r="B504" t="s">
+        <v>854</v>
+      </c>
+      <c r="C504" t="s">
+        <v>239</v>
+      </c>
+      <c r="D504" t="s">
+        <v>240</v>
+      </c>
+      <c r="E504" t="s">
+        <v>241</v>
+      </c>
+      <c r="H504" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I504">
+        <v>34</v>
+      </c>
+      <c r="J504" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>814</v>
+      </c>
+      <c r="B505" t="s">
+        <v>854</v>
+      </c>
+      <c r="C505" t="s">
+        <v>243</v>
+      </c>
+      <c r="D505" t="s">
+        <v>244</v>
+      </c>
+      <c r="E505" t="s">
+        <v>864</v>
+      </c>
+      <c r="F505" t="s">
+        <v>246</v>
+      </c>
+      <c r="G505" t="s">
+        <v>247</v>
+      </c>
+      <c r="H505" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I505">
+        <v>422</v>
+      </c>
+      <c r="J505" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>814</v>
+      </c>
+      <c r="B506" t="s">
+        <v>854</v>
+      </c>
+      <c r="C506" t="s">
+        <v>249</v>
+      </c>
+      <c r="D506" t="s">
+        <v>250</v>
+      </c>
+      <c r="E506" t="s">
+        <v>825</v>
+      </c>
+      <c r="F506" t="s">
+        <v>252</v>
+      </c>
+      <c r="G506" t="s">
+        <v>253</v>
+      </c>
+      <c r="H506" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I506">
+        <v>117</v>
+      </c>
+      <c r="J506" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>814</v>
+      </c>
+      <c r="B507" t="s">
+        <v>854</v>
+      </c>
+      <c r="C507" t="s">
+        <v>255</v>
+      </c>
+      <c r="D507" t="s">
+        <v>256</v>
+      </c>
+      <c r="E507" t="s">
+        <v>826</v>
+      </c>
+      <c r="H507" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I507">
+        <v>43</v>
+      </c>
+      <c r="J507" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>814</v>
+      </c>
+      <c r="B508" t="s">
+        <v>854</v>
+      </c>
+      <c r="C508" t="s">
+        <v>259</v>
+      </c>
+      <c r="D508" t="s">
+        <v>260</v>
+      </c>
+      <c r="E508" t="s">
+        <v>261</v>
+      </c>
+      <c r="F508" t="s">
+        <v>262</v>
+      </c>
+      <c r="H508" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I508">
+        <v>12</v>
+      </c>
+      <c r="J508" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>814</v>
+      </c>
+      <c r="B509" t="s">
+        <v>854</v>
+      </c>
+      <c r="C509" t="s">
+        <v>264</v>
+      </c>
+      <c r="D509" t="s">
+        <v>265</v>
+      </c>
+      <c r="E509" t="s">
+        <v>865</v>
+      </c>
+      <c r="F509" t="s">
+        <v>267</v>
+      </c>
+      <c r="H509" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I509">
+        <v>652</v>
+      </c>
+      <c r="J509" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>814</v>
+      </c>
+      <c r="B510" t="s">
+        <v>854</v>
+      </c>
+      <c r="C510" t="s">
+        <v>269</v>
+      </c>
+      <c r="D510" t="s">
+        <v>270</v>
+      </c>
+      <c r="E510" t="s">
+        <v>271</v>
+      </c>
+      <c r="F510" t="s">
+        <v>272</v>
+      </c>
+      <c r="G510" t="s">
+        <v>273</v>
+      </c>
+      <c r="H510" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I510">
+        <v>25</v>
+      </c>
+      <c r="J510" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>814</v>
+      </c>
+      <c r="B511" t="s">
+        <v>854</v>
+      </c>
+      <c r="C511" t="s">
+        <v>275</v>
+      </c>
+      <c r="D511" t="s">
+        <v>276</v>
+      </c>
+      <c r="E511" t="s">
+        <v>277</v>
+      </c>
+      <c r="F511" t="s">
+        <v>278</v>
+      </c>
+      <c r="G511" t="s">
+        <v>186</v>
+      </c>
+      <c r="H511" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I511">
+        <v>579</v>
+      </c>
+      <c r="J511" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>814</v>
+      </c>
+      <c r="B512" t="s">
+        <v>854</v>
+      </c>
+      <c r="C512" t="s">
+        <v>280</v>
+      </c>
+      <c r="D512" t="s">
+        <v>281</v>
+      </c>
+      <c r="E512" t="s">
+        <v>866</v>
+      </c>
+      <c r="F512" t="s">
+        <v>283</v>
+      </c>
+      <c r="G512" t="s">
+        <v>284</v>
+      </c>
+      <c r="H512" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I512">
+        <v>1376</v>
+      </c>
+      <c r="J512" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>814</v>
+      </c>
+      <c r="B513" t="s">
+        <v>854</v>
+      </c>
+      <c r="C513" t="s">
+        <v>286</v>
+      </c>
+      <c r="D513" t="s">
+        <v>287</v>
+      </c>
+      <c r="E513" t="s">
+        <v>288</v>
+      </c>
+      <c r="F513" t="s">
+        <v>289</v>
+      </c>
+      <c r="G513" t="s">
+        <v>104</v>
+      </c>
+      <c r="H513" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I513">
+        <v>104</v>
+      </c>
+      <c r="J513" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>814</v>
+      </c>
+      <c r="B514" t="s">
+        <v>854</v>
+      </c>
+      <c r="C514" t="s">
+        <v>291</v>
+      </c>
+      <c r="D514" t="s">
+        <v>292</v>
+      </c>
+      <c r="E514" t="s">
+        <v>293</v>
+      </c>
+      <c r="F514" t="s">
+        <v>294</v>
+      </c>
+      <c r="G514" t="s">
+        <v>273</v>
+      </c>
+      <c r="H514" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I514">
+        <v>55</v>
+      </c>
+      <c r="J514" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>814</v>
+      </c>
+      <c r="B515" t="s">
+        <v>854</v>
+      </c>
+      <c r="C515" t="s">
+        <v>296</v>
+      </c>
+      <c r="D515" t="s">
+        <v>297</v>
+      </c>
+      <c r="E515" t="s">
+        <v>867</v>
+      </c>
+      <c r="G515" t="s">
+        <v>299</v>
+      </c>
+      <c r="H515" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I515">
+        <v>150</v>
+      </c>
+      <c r="J515" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>814</v>
+      </c>
+      <c r="B516" t="s">
+        <v>854</v>
+      </c>
+      <c r="C516" t="s">
+        <v>301</v>
+      </c>
+      <c r="D516" t="s">
+        <v>302</v>
+      </c>
+      <c r="E516" t="s">
+        <v>303</v>
+      </c>
+      <c r="F516" t="s">
+        <v>304</v>
+      </c>
+      <c r="H516" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I516">
+        <v>52</v>
+      </c>
+      <c r="J516" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>814</v>
+      </c>
+      <c r="B517" t="s">
+        <v>854</v>
+      </c>
+      <c r="C517" t="s">
+        <v>306</v>
+      </c>
+      <c r="D517" t="s">
+        <v>307</v>
+      </c>
+      <c r="E517" t="s">
+        <v>308</v>
+      </c>
+      <c r="F517" t="s">
+        <v>309</v>
+      </c>
+      <c r="G517" t="s">
+        <v>310</v>
+      </c>
+      <c r="H517" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I517">
+        <v>398</v>
+      </c>
+      <c r="J517" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>814</v>
+      </c>
+      <c r="B518" t="s">
+        <v>854</v>
+      </c>
+      <c r="C518" t="s">
+        <v>312</v>
+      </c>
+      <c r="D518" t="s">
+        <v>313</v>
+      </c>
+      <c r="E518" t="s">
+        <v>868</v>
+      </c>
+      <c r="H518" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I518">
+        <v>62</v>
+      </c>
+      <c r="J518" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>814</v>
+      </c>
+      <c r="B519" t="s">
+        <v>854</v>
+      </c>
+      <c r="C519" t="s">
+        <v>316</v>
+      </c>
+      <c r="D519" t="s">
+        <v>317</v>
+      </c>
+      <c r="E519" t="s">
+        <v>318</v>
+      </c>
+      <c r="F519" t="s">
+        <v>319</v>
+      </c>
+      <c r="H519" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I519">
+        <v>34</v>
+      </c>
+      <c r="J519" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>814</v>
+      </c>
+      <c r="B520" t="s">
+        <v>854</v>
+      </c>
+      <c r="C520" t="s">
+        <v>321</v>
+      </c>
+      <c r="D520" t="s">
+        <v>322</v>
+      </c>
+      <c r="E520" t="s">
+        <v>869</v>
+      </c>
+      <c r="G520" t="s">
+        <v>324</v>
+      </c>
+      <c r="H520" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I520">
+        <v>80</v>
+      </c>
+      <c r="J520" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>814</v>
+      </c>
+      <c r="B521" t="s">
+        <v>854</v>
+      </c>
+      <c r="C521" t="s">
+        <v>326</v>
+      </c>
+      <c r="D521" t="s">
+        <v>327</v>
+      </c>
+      <c r="E521" t="s">
+        <v>870</v>
+      </c>
+      <c r="F521" t="s">
+        <v>329</v>
+      </c>
+      <c r="G521" t="s">
+        <v>44</v>
+      </c>
+      <c r="H521" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I521">
+        <v>62</v>
+      </c>
+      <c r="J521" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>814</v>
+      </c>
+      <c r="B522" t="s">
+        <v>854</v>
+      </c>
+      <c r="C522" t="s">
+        <v>331</v>
+      </c>
+      <c r="D522" t="s">
+        <v>332</v>
+      </c>
+      <c r="E522" t="s">
+        <v>333</v>
+      </c>
+      <c r="F522" t="s">
+        <v>334</v>
+      </c>
+      <c r="G522" t="s">
+        <v>273</v>
+      </c>
+      <c r="H522" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I522">
+        <v>38</v>
+      </c>
+      <c r="J522" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>814</v>
+      </c>
+      <c r="B523" t="s">
+        <v>854</v>
+      </c>
+      <c r="C523" t="s">
+        <v>336</v>
+      </c>
+      <c r="D523" t="s">
+        <v>337</v>
+      </c>
+      <c r="E523" t="s">
+        <v>338</v>
+      </c>
+      <c r="F523" t="s">
+        <v>339</v>
+      </c>
+      <c r="G523" t="s">
+        <v>340</v>
+      </c>
+      <c r="H523" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I523">
+        <v>72</v>
+      </c>
+      <c r="J523" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>814</v>
+      </c>
+      <c r="B524" t="s">
+        <v>854</v>
+      </c>
+      <c r="C524" t="s">
+        <v>342</v>
+      </c>
+      <c r="D524" t="s">
+        <v>343</v>
+      </c>
+      <c r="E524" t="s">
+        <v>344</v>
+      </c>
+      <c r="F524" t="s">
+        <v>345</v>
+      </c>
+      <c r="G524" t="s">
+        <v>346</v>
+      </c>
+      <c r="H524" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I524">
+        <v>101</v>
+      </c>
+      <c r="J524" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>814</v>
+      </c>
+      <c r="B525" t="s">
+        <v>854</v>
+      </c>
+      <c r="C525" t="s">
+        <v>348</v>
+      </c>
+      <c r="D525" t="s">
+        <v>349</v>
+      </c>
+      <c r="E525" t="s">
+        <v>871</v>
+      </c>
+      <c r="H525" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I525">
+        <v>67</v>
+      </c>
+      <c r="J525" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>814</v>
+      </c>
+      <c r="B526" t="s">
+        <v>854</v>
+      </c>
+      <c r="C526" t="s">
+        <v>352</v>
+      </c>
+      <c r="D526" t="s">
+        <v>353</v>
+      </c>
+      <c r="E526" t="s">
+        <v>872</v>
+      </c>
+      <c r="F526" t="s">
+        <v>355</v>
+      </c>
+      <c r="G526" t="s">
+        <v>356</v>
+      </c>
+      <c r="H526" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I526">
+        <v>122</v>
+      </c>
+      <c r="J526" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>814</v>
+      </c>
+      <c r="B527" t="s">
+        <v>854</v>
+      </c>
+      <c r="C527" t="s">
+        <v>358</v>
+      </c>
+      <c r="D527" t="s">
+        <v>359</v>
+      </c>
+      <c r="E527" t="s">
+        <v>873</v>
+      </c>
+      <c r="H527" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I527">
+        <v>124</v>
+      </c>
+      <c r="J527" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>814</v>
+      </c>
+      <c r="B528" t="s">
+        <v>854</v>
+      </c>
+      <c r="C528" t="s">
+        <v>362</v>
+      </c>
+      <c r="D528" t="s">
+        <v>363</v>
+      </c>
+      <c r="E528" t="s">
+        <v>364</v>
+      </c>
+      <c r="F528" t="s">
+        <v>365</v>
+      </c>
+      <c r="G528" t="s">
+        <v>366</v>
+      </c>
+      <c r="H528" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I528">
+        <v>133</v>
+      </c>
+      <c r="J528" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>814</v>
+      </c>
+      <c r="B529" t="s">
+        <v>854</v>
+      </c>
+      <c r="C529" t="s">
+        <v>368</v>
+      </c>
+      <c r="D529" t="s">
+        <v>369</v>
+      </c>
+      <c r="E529" t="s">
+        <v>874</v>
+      </c>
+      <c r="F529" t="s">
+        <v>371</v>
+      </c>
+      <c r="G529" t="s">
+        <v>372</v>
+      </c>
+      <c r="H529" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I529">
+        <v>173</v>
+      </c>
+      <c r="J529" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>814</v>
+      </c>
+      <c r="B530" t="s">
+        <v>854</v>
+      </c>
+      <c r="C530" t="s">
+        <v>374</v>
+      </c>
+      <c r="D530" t="s">
+        <v>375</v>
+      </c>
+      <c r="E530" t="s">
+        <v>875</v>
+      </c>
+      <c r="F530" t="s">
+        <v>377</v>
+      </c>
+      <c r="G530" t="s">
+        <v>44</v>
+      </c>
+      <c r="H530" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I530">
+        <v>779</v>
+      </c>
+      <c r="J530" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>814</v>
+      </c>
+      <c r="B531" t="s">
+        <v>854</v>
+      </c>
+      <c r="C531" t="s">
+        <v>379</v>
+      </c>
+      <c r="D531" t="s">
+        <v>380</v>
+      </c>
+      <c r="E531" t="s">
+        <v>876</v>
+      </c>
+      <c r="H531" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I531">
+        <v>51</v>
+      </c>
+      <c r="J531" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>814</v>
+      </c>
+      <c r="B532" t="s">
+        <v>854</v>
+      </c>
+      <c r="C532" t="s">
+        <v>383</v>
+      </c>
+      <c r="D532" t="s">
+        <v>384</v>
+      </c>
+      <c r="E532" t="s">
+        <v>832</v>
+      </c>
+      <c r="F532" t="s">
+        <v>386</v>
+      </c>
+      <c r="G532" t="s">
+        <v>122</v>
+      </c>
+      <c r="H532" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I532">
+        <v>158</v>
+      </c>
+      <c r="J532" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>814</v>
+      </c>
+      <c r="B533" t="s">
+        <v>854</v>
+      </c>
+      <c r="C533" t="s">
+        <v>388</v>
+      </c>
+      <c r="D533" t="s">
+        <v>389</v>
+      </c>
+      <c r="E533" t="s">
+        <v>833</v>
+      </c>
+      <c r="F533" t="s">
+        <v>391</v>
+      </c>
+      <c r="G533" t="s">
+        <v>122</v>
+      </c>
+      <c r="H533" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I533">
+        <v>464</v>
+      </c>
+      <c r="J533" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>814</v>
+      </c>
+      <c r="B534" t="s">
+        <v>854</v>
+      </c>
+      <c r="C534" t="s">
+        <v>393</v>
+      </c>
+      <c r="D534" t="s">
+        <v>394</v>
+      </c>
+      <c r="E534" t="s">
+        <v>877</v>
+      </c>
+      <c r="F534" t="s">
+        <v>396</v>
+      </c>
+      <c r="G534" t="s">
+        <v>122</v>
+      </c>
+      <c r="H534" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I534">
+        <v>94</v>
+      </c>
+      <c r="J534" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>814</v>
+      </c>
+      <c r="B535" t="s">
+        <v>854</v>
+      </c>
+      <c r="C535" t="s">
+        <v>398</v>
+      </c>
+      <c r="D535" t="s">
+        <v>399</v>
+      </c>
+      <c r="E535" t="s">
+        <v>400</v>
+      </c>
+      <c r="F535" t="s">
+        <v>401</v>
+      </c>
+      <c r="H535" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I535">
+        <v>507</v>
+      </c>
+      <c r="J535" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>814</v>
+      </c>
+      <c r="B536" t="s">
+        <v>854</v>
+      </c>
+      <c r="C536" t="s">
+        <v>403</v>
+      </c>
+      <c r="D536" t="s">
+        <v>404</v>
+      </c>
+      <c r="E536" t="s">
+        <v>878</v>
+      </c>
+      <c r="F536" t="s">
+        <v>406</v>
+      </c>
+      <c r="G536" t="s">
+        <v>407</v>
+      </c>
+      <c r="H536" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I536">
+        <v>375</v>
+      </c>
+      <c r="J536" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>814</v>
+      </c>
+      <c r="B537" t="s">
+        <v>854</v>
+      </c>
+      <c r="C537" t="s">
+        <v>409</v>
+      </c>
+      <c r="D537" t="s">
+        <v>410</v>
+      </c>
+      <c r="E537" t="s">
+        <v>879</v>
+      </c>
+      <c r="F537" t="s">
+        <v>412</v>
+      </c>
+      <c r="G537" t="s">
+        <v>413</v>
+      </c>
+      <c r="H537" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I537">
+        <v>382</v>
+      </c>
+      <c r="J537" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>814</v>
+      </c>
+      <c r="B538" t="s">
+        <v>854</v>
+      </c>
+      <c r="C538" t="s">
+        <v>415</v>
+      </c>
+      <c r="D538" t="s">
+        <v>416</v>
+      </c>
+      <c r="E538" t="s">
+        <v>417</v>
+      </c>
+      <c r="H538" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I538">
+        <v>104</v>
+      </c>
+      <c r="J538" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>814</v>
+      </c>
+      <c r="B539" t="s">
+        <v>854</v>
+      </c>
+      <c r="C539" t="s">
+        <v>419</v>
+      </c>
+      <c r="D539" t="s">
+        <v>420</v>
+      </c>
+      <c r="E539" t="s">
+        <v>421</v>
+      </c>
+      <c r="F539" t="s">
+        <v>422</v>
+      </c>
+      <c r="H539" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I539">
+        <v>44</v>
+      </c>
+      <c r="J539" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>814</v>
+      </c>
+      <c r="B540" t="s">
+        <v>854</v>
+      </c>
+      <c r="C540" t="s">
+        <v>424</v>
+      </c>
+      <c r="D540" t="s">
+        <v>425</v>
+      </c>
+      <c r="E540" t="s">
+        <v>426</v>
+      </c>
+      <c r="F540" t="s">
+        <v>427</v>
+      </c>
+      <c r="G540" t="s">
+        <v>372</v>
+      </c>
+      <c r="H540" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I540">
+        <v>23</v>
+      </c>
+      <c r="J540" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>814</v>
+      </c>
+      <c r="B541" t="s">
+        <v>854</v>
+      </c>
+      <c r="C541" t="s">
+        <v>429</v>
+      </c>
+      <c r="D541" t="s">
+        <v>430</v>
+      </c>
+      <c r="E541" t="s">
+        <v>431</v>
+      </c>
+      <c r="F541" t="s">
+        <v>432</v>
+      </c>
+      <c r="H541" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I541">
+        <v>423</v>
+      </c>
+      <c r="J541" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>814</v>
+      </c>
+      <c r="B542" t="s">
+        <v>854</v>
+      </c>
+      <c r="C542" t="s">
+        <v>434</v>
+      </c>
+      <c r="D542" t="s">
+        <v>435</v>
+      </c>
+      <c r="E542" t="s">
+        <v>834</v>
+      </c>
+      <c r="H542" s="1">
+        <v>169</v>
+      </c>
+      <c r="I542">
+        <v>519</v>
+      </c>
+      <c r="J542" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>814</v>
+      </c>
+      <c r="B543" t="s">
+        <v>854</v>
+      </c>
+      <c r="C543" t="s">
+        <v>438</v>
+      </c>
+      <c r="D543" t="s">
+        <v>439</v>
+      </c>
+      <c r="E543" t="s">
+        <v>440</v>
+      </c>
+      <c r="G543" t="s">
+        <v>441</v>
+      </c>
+      <c r="H543" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J543" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>814</v>
+      </c>
+      <c r="B544" t="s">
+        <v>854</v>
+      </c>
+      <c r="C544" t="s">
+        <v>443</v>
+      </c>
+      <c r="D544" t="s">
+        <v>444</v>
+      </c>
+      <c r="E544" t="s">
+        <v>880</v>
+      </c>
+      <c r="G544" t="s">
+        <v>299</v>
+      </c>
+      <c r="H544" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I544">
+        <v>28</v>
+      </c>
+      <c r="J544" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>814</v>
+      </c>
+      <c r="B545" t="s">
+        <v>854</v>
+      </c>
+      <c r="C545" t="s">
+        <v>447</v>
+      </c>
+      <c r="D545" t="s">
+        <v>448</v>
+      </c>
+      <c r="E545" t="s">
+        <v>881</v>
+      </c>
+      <c r="F545" t="s">
+        <v>450</v>
+      </c>
+      <c r="G545" t="s">
+        <v>92</v>
+      </c>
+      <c r="H545" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I545">
+        <v>292</v>
+      </c>
+      <c r="J545" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>814</v>
+      </c>
+      <c r="B546" t="s">
+        <v>854</v>
+      </c>
+      <c r="C546" t="s">
+        <v>452</v>
+      </c>
+      <c r="D546" t="s">
+        <v>453</v>
+      </c>
+      <c r="E546" t="s">
+        <v>882</v>
+      </c>
+      <c r="F546" t="s">
+        <v>455</v>
+      </c>
+      <c r="G546" t="s">
+        <v>50</v>
+      </c>
+      <c r="H546" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I546">
+        <v>1402</v>
+      </c>
+      <c r="J546" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>814</v>
+      </c>
+      <c r="B547" t="s">
+        <v>854</v>
+      </c>
+      <c r="C547" t="s">
+        <v>457</v>
+      </c>
+      <c r="D547" t="s">
+        <v>458</v>
+      </c>
+      <c r="E547" t="s">
+        <v>459</v>
+      </c>
+      <c r="G547" t="s">
+        <v>56</v>
+      </c>
+      <c r="H547" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I547">
+        <v>101</v>
+      </c>
+      <c r="J547" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>814</v>
+      </c>
+      <c r="B548" t="s">
+        <v>854</v>
+      </c>
+      <c r="C548" t="s">
+        <v>461</v>
+      </c>
+      <c r="D548" t="s">
+        <v>462</v>
+      </c>
+      <c r="E548" t="s">
+        <v>463</v>
+      </c>
+      <c r="F548" t="s">
+        <v>464</v>
+      </c>
+      <c r="G548" t="s">
+        <v>56</v>
+      </c>
+      <c r="H548" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I548">
+        <v>135</v>
+      </c>
+      <c r="J548" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>814</v>
+      </c>
+      <c r="B549" t="s">
+        <v>854</v>
+      </c>
+      <c r="C549" t="s">
+        <v>466</v>
+      </c>
+      <c r="D549" t="s">
+        <v>467</v>
+      </c>
+      <c r="E549" t="s">
+        <v>883</v>
+      </c>
+      <c r="F549" t="s">
+        <v>469</v>
+      </c>
+      <c r="H549" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I549">
+        <v>204</v>
+      </c>
+      <c r="J549" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>814</v>
+      </c>
+      <c r="B550" t="s">
+        <v>854</v>
+      </c>
+      <c r="C550" t="s">
+        <v>471</v>
+      </c>
+      <c r="D550" t="s">
+        <v>472</v>
+      </c>
+      <c r="E550" t="s">
+        <v>473</v>
+      </c>
+      <c r="F550" t="s">
+        <v>474</v>
+      </c>
+      <c r="G550" t="s">
+        <v>56</v>
+      </c>
+      <c r="H550" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I550">
+        <v>29</v>
+      </c>
+      <c r="J550" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>814</v>
+      </c>
+      <c r="B551" t="s">
+        <v>854</v>
+      </c>
+      <c r="C551" t="s">
+        <v>476</v>
+      </c>
+      <c r="D551" t="s">
+        <v>477</v>
+      </c>
+      <c r="E551" t="s">
+        <v>884</v>
+      </c>
+      <c r="F551" t="s">
+        <v>479</v>
+      </c>
+      <c r="G551" t="s">
+        <v>122</v>
+      </c>
+      <c r="H551" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I551">
+        <v>71</v>
+      </c>
+      <c r="J551" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>814</v>
+      </c>
+      <c r="B552" t="s">
+        <v>854</v>
+      </c>
+      <c r="C552" t="s">
+        <v>481</v>
+      </c>
+      <c r="D552" t="s">
+        <v>482</v>
+      </c>
+      <c r="E552" t="s">
+        <v>885</v>
+      </c>
+      <c r="F552" t="s">
+        <v>484</v>
+      </c>
+      <c r="G552" t="s">
+        <v>485</v>
+      </c>
+      <c r="H552" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I552">
+        <v>26</v>
+      </c>
+      <c r="J552" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>814</v>
+      </c>
+      <c r="B553" t="s">
+        <v>854</v>
+      </c>
+      <c r="C553" t="s">
+        <v>487</v>
+      </c>
+      <c r="D553" t="s">
+        <v>488</v>
+      </c>
+      <c r="E553" t="s">
+        <v>836</v>
+      </c>
+      <c r="F553" t="s">
+        <v>490</v>
+      </c>
+      <c r="G553" t="s">
+        <v>56</v>
+      </c>
+      <c r="H553" s="1">
+        <v>6</v>
+      </c>
+      <c r="I553">
+        <v>28</v>
+      </c>
+      <c r="J553" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>814</v>
+      </c>
+      <c r="B554" t="s">
+        <v>854</v>
+      </c>
+      <c r="C554" t="s">
+        <v>492</v>
+      </c>
+      <c r="D554" t="s">
+        <v>493</v>
+      </c>
+      <c r="E554" t="s">
+        <v>886</v>
+      </c>
+      <c r="F554" t="s">
+        <v>495</v>
+      </c>
+      <c r="G554" t="s">
+        <v>122</v>
+      </c>
+      <c r="H554" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I554">
+        <v>203</v>
+      </c>
+      <c r="J554" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>814</v>
+      </c>
+      <c r="B555" t="s">
+        <v>854</v>
+      </c>
+      <c r="C555" t="s">
+        <v>497</v>
+      </c>
+      <c r="D555" t="s">
+        <v>498</v>
+      </c>
+      <c r="E555" t="s">
+        <v>499</v>
+      </c>
+      <c r="F555" t="s">
+        <v>500</v>
+      </c>
+      <c r="H555" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I555">
+        <v>18</v>
+      </c>
+      <c r="J555" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>814</v>
+      </c>
+      <c r="B556" t="s">
+        <v>854</v>
+      </c>
+      <c r="C556" t="s">
+        <v>502</v>
+      </c>
+      <c r="D556" t="s">
+        <v>503</v>
+      </c>
+      <c r="E556" t="s">
+        <v>504</v>
+      </c>
+      <c r="F556" t="s">
+        <v>505</v>
+      </c>
+      <c r="H556" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I556">
+        <v>403</v>
+      </c>
+      <c r="J556" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>814</v>
+      </c>
+      <c r="B557" t="s">
+        <v>854</v>
+      </c>
+      <c r="C557" t="s">
+        <v>507</v>
+      </c>
+      <c r="D557" t="s">
+        <v>508</v>
+      </c>
+      <c r="E557" t="s">
+        <v>887</v>
+      </c>
+      <c r="F557" t="s">
+        <v>510</v>
+      </c>
+      <c r="G557" t="s">
+        <v>372</v>
+      </c>
+      <c r="H557" s="1">
+        <v>203</v>
+      </c>
+      <c r="I557">
+        <v>187</v>
+      </c>
+      <c r="J557" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>814</v>
+      </c>
+      <c r="B558" t="s">
+        <v>854</v>
+      </c>
+      <c r="C558" t="s">
+        <v>512</v>
+      </c>
+      <c r="D558" t="s">
+        <v>513</v>
+      </c>
+      <c r="E558" t="s">
+        <v>514</v>
+      </c>
+      <c r="F558" t="s">
+        <v>515</v>
+      </c>
+      <c r="G558" t="s">
+        <v>197</v>
+      </c>
+      <c r="H558" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I558">
+        <v>99</v>
+      </c>
+      <c r="J558" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>814</v>
+      </c>
+      <c r="B559" t="s">
+        <v>854</v>
+      </c>
+      <c r="C559" t="s">
+        <v>517</v>
+      </c>
+      <c r="D559" t="s">
+        <v>518</v>
+      </c>
+      <c r="E559" t="s">
+        <v>838</v>
+      </c>
+      <c r="F559" t="s">
+        <v>520</v>
+      </c>
+      <c r="G559" t="s">
+        <v>197</v>
+      </c>
+      <c r="H559" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I559">
+        <v>383</v>
+      </c>
+      <c r="J559" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>814</v>
+      </c>
+      <c r="B560" t="s">
+        <v>854</v>
+      </c>
+      <c r="C560" t="s">
+        <v>522</v>
+      </c>
+      <c r="D560" t="s">
+        <v>523</v>
+      </c>
+      <c r="E560" t="s">
+        <v>888</v>
+      </c>
+      <c r="F560" t="s">
+        <v>525</v>
+      </c>
+      <c r="G560" t="s">
+        <v>197</v>
+      </c>
+      <c r="H560" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I560">
+        <v>1034</v>
+      </c>
+      <c r="J560" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>814</v>
+      </c>
+      <c r="B561" t="s">
+        <v>854</v>
+      </c>
+      <c r="C561" t="s">
+        <v>527</v>
+      </c>
+      <c r="D561" t="s">
+        <v>528</v>
+      </c>
+      <c r="E561" t="s">
+        <v>529</v>
+      </c>
+      <c r="F561" t="s">
+        <v>530</v>
+      </c>
+      <c r="G561" t="s">
+        <v>197</v>
+      </c>
+      <c r="H561" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I561">
+        <v>304</v>
+      </c>
+      <c r="J561" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>814</v>
+      </c>
+      <c r="B562" t="s">
+        <v>854</v>
+      </c>
+      <c r="C562" t="s">
+        <v>532</v>
+      </c>
+      <c r="D562" t="s">
+        <v>533</v>
+      </c>
+      <c r="E562" t="s">
+        <v>534</v>
+      </c>
+      <c r="F562" t="s">
+        <v>535</v>
+      </c>
+      <c r="G562" t="s">
+        <v>485</v>
+      </c>
+      <c r="H562" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I562">
+        <v>1172</v>
+      </c>
+      <c r="J562" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>814</v>
+      </c>
+      <c r="B563" t="s">
+        <v>854</v>
+      </c>
+      <c r="C563" t="s">
+        <v>537</v>
+      </c>
+      <c r="D563" t="s">
+        <v>538</v>
+      </c>
+      <c r="E563" t="s">
+        <v>539</v>
+      </c>
+      <c r="G563" t="s">
+        <v>540</v>
+      </c>
+      <c r="H563" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I563">
+        <v>156</v>
+      </c>
+      <c r="J563" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>814</v>
+      </c>
+      <c r="B564" t="s">
+        <v>854</v>
+      </c>
+      <c r="C564" t="s">
+        <v>542</v>
+      </c>
+      <c r="D564" t="s">
+        <v>543</v>
+      </c>
+      <c r="E564" t="s">
+        <v>544</v>
+      </c>
+      <c r="F564" t="s">
+        <v>545</v>
+      </c>
+      <c r="G564" t="s">
+        <v>546</v>
+      </c>
+      <c r="H564" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I564">
+        <v>31</v>
+      </c>
+      <c r="J564" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>814</v>
+      </c>
+      <c r="B565" t="s">
+        <v>854</v>
+      </c>
+      <c r="C565" t="s">
+        <v>548</v>
+      </c>
+      <c r="D565" t="s">
+        <v>549</v>
+      </c>
+      <c r="E565" t="s">
+        <v>550</v>
+      </c>
+      <c r="F565" t="s">
+        <v>551</v>
+      </c>
+      <c r="G565" t="s">
+        <v>552</v>
+      </c>
+      <c r="H565" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I565">
+        <v>471</v>
+      </c>
+      <c r="J565" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>814</v>
+      </c>
+      <c r="B566" t="s">
+        <v>854</v>
+      </c>
+      <c r="C566" t="s">
+        <v>554</v>
+      </c>
+      <c r="D566" t="s">
+        <v>555</v>
+      </c>
+      <c r="E566" t="s">
+        <v>556</v>
+      </c>
+      <c r="F566" t="s">
+        <v>557</v>
+      </c>
+      <c r="H566" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I566">
+        <v>37</v>
+      </c>
+      <c r="J566" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>814</v>
+      </c>
+      <c r="B567" t="s">
+        <v>854</v>
+      </c>
+      <c r="C567" t="s">
+        <v>559</v>
+      </c>
+      <c r="D567" t="s">
+        <v>560</v>
+      </c>
+      <c r="E567" t="s">
+        <v>561</v>
+      </c>
+      <c r="F567" t="s">
+        <v>562</v>
+      </c>
+      <c r="G567" t="s">
+        <v>122</v>
+      </c>
+      <c r="H567" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I567">
+        <v>58</v>
+      </c>
+      <c r="J567" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>814</v>
+      </c>
+      <c r="B568" t="s">
+        <v>854</v>
+      </c>
+      <c r="C568" t="s">
+        <v>564</v>
+      </c>
+      <c r="D568" t="s">
+        <v>565</v>
+      </c>
+      <c r="E568" t="s">
+        <v>840</v>
+      </c>
+      <c r="F568" t="s">
+        <v>567</v>
+      </c>
+      <c r="G568" t="s">
+        <v>568</v>
+      </c>
+      <c r="H568" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I568">
+        <v>622</v>
+      </c>
+      <c r="J568" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>814</v>
+      </c>
+      <c r="B569" t="s">
+        <v>854</v>
+      </c>
+      <c r="C569" t="s">
+        <v>570</v>
+      </c>
+      <c r="D569" t="s">
+        <v>571</v>
+      </c>
+      <c r="E569" t="s">
+        <v>572</v>
+      </c>
+      <c r="H569" s="1">
+        <v>0</v>
+      </c>
+      <c r="I569">
+        <v>1</v>
+      </c>
+      <c r="J569" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>814</v>
+      </c>
+      <c r="B570" t="s">
+        <v>854</v>
+      </c>
+      <c r="C570" t="s">
+        <v>574</v>
+      </c>
+      <c r="D570" t="s">
+        <v>575</v>
+      </c>
+      <c r="E570" t="s">
+        <v>576</v>
+      </c>
+      <c r="F570" t="s">
+        <v>577</v>
+      </c>
+      <c r="G570" t="s">
+        <v>578</v>
+      </c>
+      <c r="H570" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I570">
+        <v>69</v>
+      </c>
+      <c r="J570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>814</v>
+      </c>
+      <c r="B571" t="s">
+        <v>854</v>
+      </c>
+      <c r="C571" t="s">
+        <v>580</v>
+      </c>
+      <c r="D571" t="s">
+        <v>581</v>
+      </c>
+      <c r="E571" t="s">
+        <v>889</v>
+      </c>
+      <c r="F571" t="s">
+        <v>583</v>
+      </c>
+      <c r="G571" t="s">
+        <v>122</v>
+      </c>
+      <c r="H571" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I571">
+        <v>977</v>
+      </c>
+      <c r="J571" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>814</v>
+      </c>
+      <c r="B572" t="s">
+        <v>854</v>
+      </c>
+      <c r="C572" t="s">
+        <v>585</v>
+      </c>
+      <c r="D572" t="s">
+        <v>586</v>
+      </c>
+      <c r="E572" t="s">
+        <v>890</v>
+      </c>
+      <c r="F572" t="s">
+        <v>588</v>
+      </c>
+      <c r="G572" t="s">
+        <v>56</v>
+      </c>
+      <c r="H572" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I572">
+        <v>292</v>
+      </c>
+      <c r="J572" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>814</v>
+      </c>
+      <c r="B573" t="s">
+        <v>854</v>
+      </c>
+      <c r="C573" t="s">
+        <v>590</v>
+      </c>
+      <c r="D573" t="s">
+        <v>591</v>
+      </c>
+      <c r="E573" t="s">
+        <v>891</v>
+      </c>
+      <c r="F573" t="s">
+        <v>593</v>
+      </c>
+      <c r="G573" t="s">
+        <v>80</v>
+      </c>
+      <c r="H573" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I573">
+        <v>602</v>
+      </c>
+      <c r="J573" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>814</v>
+      </c>
+      <c r="B574" t="s">
+        <v>854</v>
+      </c>
+      <c r="C574" t="s">
+        <v>595</v>
+      </c>
+      <c r="D574" t="s">
+        <v>596</v>
+      </c>
+      <c r="E574" t="s">
+        <v>597</v>
+      </c>
+      <c r="F574" t="s">
+        <v>598</v>
+      </c>
+      <c r="G574" t="s">
+        <v>56</v>
+      </c>
+      <c r="H574" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I574">
+        <v>128</v>
+      </c>
+      <c r="J574" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>814</v>
+      </c>
+      <c r="B575" t="s">
+        <v>854</v>
+      </c>
+      <c r="C575" t="s">
+        <v>600</v>
+      </c>
+      <c r="D575" t="s">
+        <v>601</v>
+      </c>
+      <c r="E575" t="s">
+        <v>842</v>
+      </c>
+      <c r="F575" t="s">
+        <v>603</v>
+      </c>
+      <c r="G575" t="s">
+        <v>197</v>
+      </c>
+      <c r="H575" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I575">
+        <v>891</v>
+      </c>
+      <c r="J575" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>814</v>
+      </c>
+      <c r="B576" t="s">
+        <v>854</v>
+      </c>
+      <c r="C576" t="s">
+        <v>605</v>
+      </c>
+      <c r="D576" t="s">
+        <v>606</v>
+      </c>
+      <c r="E576" t="s">
+        <v>843</v>
+      </c>
+      <c r="F576" t="s">
+        <v>608</v>
+      </c>
+      <c r="G576" t="s">
+        <v>340</v>
+      </c>
+      <c r="H576" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I576">
+        <v>250</v>
+      </c>
+      <c r="J576" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>814</v>
+      </c>
+      <c r="B577" t="s">
+        <v>854</v>
+      </c>
+      <c r="C577" t="s">
+        <v>610</v>
+      </c>
+      <c r="D577" t="s">
+        <v>611</v>
+      </c>
+      <c r="E577" t="s">
+        <v>612</v>
+      </c>
+      <c r="F577" t="s">
+        <v>613</v>
+      </c>
+      <c r="G577" t="s">
+        <v>614</v>
+      </c>
+      <c r="H577" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I577">
+        <v>200</v>
+      </c>
+      <c r="J577" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>814</v>
+      </c>
+      <c r="B578" t="s">
+        <v>854</v>
+      </c>
+      <c r="C578" t="s">
+        <v>616</v>
+      </c>
+      <c r="D578" t="s">
+        <v>617</v>
+      </c>
+      <c r="E578" t="s">
+        <v>892</v>
+      </c>
+      <c r="F578" t="s">
+        <v>619</v>
+      </c>
+      <c r="G578" t="s">
+        <v>92</v>
+      </c>
+      <c r="H578" s="1">
+        <v>80</v>
+      </c>
+      <c r="I578">
+        <v>81</v>
+      </c>
+      <c r="J578" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>814</v>
+      </c>
+      <c r="B579" t="s">
+        <v>854</v>
+      </c>
+      <c r="C579" t="s">
+        <v>621</v>
+      </c>
+      <c r="D579" t="s">
+        <v>622</v>
+      </c>
+      <c r="E579" t="s">
+        <v>893</v>
+      </c>
+      <c r="F579" t="s">
+        <v>624</v>
+      </c>
+      <c r="G579" t="s">
+        <v>625</v>
+      </c>
+      <c r="H579" s="1">
+        <v>76</v>
+      </c>
+      <c r="I579">
+        <v>494</v>
+      </c>
+      <c r="J579" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>814</v>
+      </c>
+      <c r="B580" t="s">
+        <v>854</v>
+      </c>
+      <c r="C580" t="s">
+        <v>627</v>
+      </c>
+      <c r="D580" t="s">
+        <v>628</v>
+      </c>
+      <c r="E580" t="s">
+        <v>629</v>
+      </c>
+      <c r="G580" t="s">
+        <v>630</v>
+      </c>
+      <c r="H580" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I580">
+        <v>94</v>
+      </c>
+      <c r="J580" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>814</v>
+      </c>
+      <c r="B581" t="s">
+        <v>854</v>
+      </c>
+      <c r="C581" t="s">
+        <v>632</v>
+      </c>
+      <c r="D581" t="s">
+        <v>633</v>
+      </c>
+      <c r="E581" t="s">
+        <v>894</v>
+      </c>
+      <c r="F581" t="s">
+        <v>635</v>
+      </c>
+      <c r="G581" t="s">
+        <v>636</v>
+      </c>
+      <c r="H581" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I581">
+        <v>49</v>
+      </c>
+      <c r="J581" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>814</v>
+      </c>
+      <c r="B582" t="s">
+        <v>854</v>
+      </c>
+      <c r="C582" t="s">
+        <v>638</v>
+      </c>
+      <c r="D582" t="s">
+        <v>639</v>
+      </c>
+      <c r="E582" t="s">
+        <v>640</v>
+      </c>
+      <c r="F582" t="s">
+        <v>641</v>
+      </c>
+      <c r="G582" t="s">
+        <v>642</v>
+      </c>
+      <c r="H582" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I582">
+        <v>75</v>
+      </c>
+      <c r="J582" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>814</v>
+      </c>
+      <c r="B583" t="s">
+        <v>854</v>
+      </c>
+      <c r="C583" t="s">
+        <v>644</v>
+      </c>
+      <c r="D583" t="s">
+        <v>645</v>
+      </c>
+      <c r="E583" t="s">
+        <v>646</v>
+      </c>
+      <c r="F583" t="s">
+        <v>647</v>
+      </c>
+      <c r="G583" t="s">
+        <v>648</v>
+      </c>
+      <c r="H583" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I583">
+        <v>247</v>
+      </c>
+      <c r="J583" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>814</v>
+      </c>
+      <c r="B584" t="s">
+        <v>854</v>
+      </c>
+      <c r="C584" t="s">
+        <v>650</v>
+      </c>
+      <c r="D584" t="s">
+        <v>651</v>
+      </c>
+      <c r="E584" t="s">
+        <v>652</v>
+      </c>
+      <c r="F584" t="s">
+        <v>653</v>
+      </c>
+      <c r="G584" t="s">
+        <v>614</v>
+      </c>
+      <c r="H584" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I584">
+        <v>60</v>
+      </c>
+      <c r="J584" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>814</v>
+      </c>
+      <c r="B585" t="s">
+        <v>854</v>
+      </c>
+      <c r="C585" t="s">
+        <v>655</v>
+      </c>
+      <c r="D585" t="s">
+        <v>656</v>
+      </c>
+      <c r="E585" t="s">
+        <v>845</v>
+      </c>
+      <c r="F585" t="s">
+        <v>658</v>
+      </c>
+      <c r="H585" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I585">
+        <v>610</v>
+      </c>
+      <c r="J585" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>814</v>
+      </c>
+      <c r="B586" t="s">
+        <v>854</v>
+      </c>
+      <c r="C586" t="s">
+        <v>660</v>
+      </c>
+      <c r="D586" t="s">
+        <v>661</v>
+      </c>
+      <c r="E586" t="s">
+        <v>846</v>
+      </c>
+      <c r="F586" t="s">
+        <v>663</v>
+      </c>
+      <c r="H586" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I586">
+        <v>88</v>
+      </c>
+      <c r="J586" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>814</v>
+      </c>
+      <c r="B587" t="s">
+        <v>854</v>
+      </c>
+      <c r="C587" t="s">
+        <v>665</v>
+      </c>
+      <c r="D587" t="s">
+        <v>666</v>
+      </c>
+      <c r="E587" t="s">
+        <v>847</v>
+      </c>
+      <c r="F587" t="s">
+        <v>668</v>
+      </c>
+      <c r="H587" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I587">
+        <v>54</v>
+      </c>
+      <c r="J587" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>814</v>
+      </c>
+      <c r="B588" t="s">
+        <v>854</v>
+      </c>
+      <c r="C588" t="s">
+        <v>670</v>
+      </c>
+      <c r="D588" t="s">
+        <v>671</v>
+      </c>
+      <c r="E588" t="s">
+        <v>672</v>
+      </c>
+      <c r="F588" t="s">
+        <v>673</v>
+      </c>
+      <c r="G588" t="s">
+        <v>372</v>
+      </c>
+      <c r="H588" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I588">
+        <v>577</v>
+      </c>
+      <c r="J588" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>814</v>
+      </c>
+      <c r="B589" t="s">
+        <v>854</v>
+      </c>
+      <c r="C589" t="s">
+        <v>675</v>
+      </c>
+      <c r="D589" t="s">
+        <v>676</v>
+      </c>
+      <c r="E589" t="s">
+        <v>895</v>
+      </c>
+      <c r="F589" t="s">
+        <v>678</v>
+      </c>
+      <c r="H589" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I589">
+        <v>52</v>
+      </c>
+      <c r="J589" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>814</v>
+      </c>
+      <c r="B590" t="s">
+        <v>854</v>
+      </c>
+      <c r="C590" t="s">
+        <v>429</v>
+      </c>
+      <c r="D590" t="s">
+        <v>680</v>
+      </c>
+      <c r="E590" t="s">
+        <v>896</v>
+      </c>
+      <c r="F590" t="s">
+        <v>682</v>
+      </c>
+      <c r="G590" t="s">
+        <v>372</v>
+      </c>
+      <c r="H590" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I590">
+        <v>795</v>
+      </c>
+      <c r="J590" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>814</v>
+      </c>
+      <c r="B591" t="s">
+        <v>854</v>
+      </c>
+      <c r="C591" t="s">
+        <v>684</v>
+      </c>
+      <c r="D591" t="s">
+        <v>685</v>
+      </c>
+      <c r="E591" t="s">
+        <v>897</v>
+      </c>
+      <c r="F591" t="s">
+        <v>687</v>
+      </c>
+      <c r="G591" t="s">
+        <v>372</v>
+      </c>
+      <c r="H591" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I591">
+        <v>1155</v>
+      </c>
+      <c r="J591" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>814</v>
+      </c>
+      <c r="B592" t="s">
+        <v>854</v>
+      </c>
+      <c r="C592" t="s">
+        <v>689</v>
+      </c>
+      <c r="D592" t="s">
+        <v>690</v>
+      </c>
+      <c r="E592" t="s">
+        <v>691</v>
+      </c>
+      <c r="F592" t="s">
+        <v>692</v>
+      </c>
+      <c r="G592" t="s">
+        <v>372</v>
+      </c>
+      <c r="H592" s="1">
+        <v>120</v>
+      </c>
+      <c r="I592">
+        <v>175</v>
+      </c>
+      <c r="J592" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>814</v>
+      </c>
+      <c r="B593" t="s">
+        <v>854</v>
+      </c>
+      <c r="C593" t="s">
+        <v>694</v>
+      </c>
+      <c r="D593" t="s">
+        <v>695</v>
+      </c>
+      <c r="E593" t="s">
+        <v>898</v>
+      </c>
+      <c r="F593" t="s">
+        <v>697</v>
+      </c>
+      <c r="G593" t="s">
+        <v>698</v>
+      </c>
+      <c r="H593" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I593">
+        <v>174</v>
+      </c>
+      <c r="J593" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>814</v>
+      </c>
+      <c r="B594" t="s">
+        <v>854</v>
+      </c>
+      <c r="C594" t="s">
+        <v>700</v>
+      </c>
+      <c r="D594" t="s">
+        <v>701</v>
+      </c>
+      <c r="E594" t="s">
+        <v>702</v>
+      </c>
+      <c r="F594" t="s">
+        <v>703</v>
+      </c>
+      <c r="G594" t="s">
+        <v>704</v>
+      </c>
+      <c r="H594" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I594">
+        <v>79</v>
+      </c>
+      <c r="J594" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>814</v>
+      </c>
+      <c r="B595" t="s">
+        <v>854</v>
+      </c>
+      <c r="C595" t="s">
+        <v>706</v>
+      </c>
+      <c r="D595" t="s">
+        <v>707</v>
+      </c>
+      <c r="E595" t="s">
+        <v>849</v>
+      </c>
+      <c r="F595" t="s">
+        <v>709</v>
+      </c>
+      <c r="G595" t="s">
+        <v>710</v>
+      </c>
+      <c r="H595" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I595">
+        <v>385</v>
+      </c>
+      <c r="J595" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>814</v>
+      </c>
+      <c r="B596" t="s">
+        <v>854</v>
+      </c>
+      <c r="C596" t="s">
+        <v>712</v>
+      </c>
+      <c r="D596" t="s">
+        <v>713</v>
+      </c>
+      <c r="E596" t="s">
+        <v>899</v>
+      </c>
+      <c r="F596" t="s">
+        <v>715</v>
+      </c>
+      <c r="G596" t="s">
+        <v>92</v>
+      </c>
+      <c r="H596" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I596">
+        <v>96</v>
+      </c>
+      <c r="J596" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>814</v>
+      </c>
+      <c r="B597" t="s">
+        <v>854</v>
+      </c>
+      <c r="C597" t="s">
+        <v>717</v>
+      </c>
+      <c r="D597" t="s">
+        <v>718</v>
+      </c>
+      <c r="E597" t="s">
+        <v>900</v>
+      </c>
+      <c r="H597" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I597">
+        <v>44</v>
+      </c>
+      <c r="J597" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>814</v>
+      </c>
+      <c r="B598" t="s">
+        <v>854</v>
+      </c>
+      <c r="C598" t="s">
+        <v>721</v>
+      </c>
+      <c r="D598" t="s">
+        <v>722</v>
+      </c>
+      <c r="E598" t="s">
+        <v>723</v>
+      </c>
+      <c r="F598" t="s">
+        <v>724</v>
+      </c>
+      <c r="G598" t="s">
+        <v>725</v>
+      </c>
+      <c r="H598" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I598">
+        <v>108</v>
+      </c>
+      <c r="J598" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>814</v>
+      </c>
+      <c r="B599" t="s">
+        <v>854</v>
+      </c>
+      <c r="C599" t="s">
+        <v>727</v>
+      </c>
+      <c r="D599" t="s">
+        <v>728</v>
+      </c>
+      <c r="E599" t="s">
+        <v>729</v>
+      </c>
+      <c r="F599" t="s">
+        <v>730</v>
+      </c>
+      <c r="G599" t="s">
+        <v>731</v>
+      </c>
+      <c r="H599" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I599">
+        <v>33</v>
+      </c>
+      <c r="J599" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>814</v>
+      </c>
+      <c r="B600" t="s">
+        <v>854</v>
+      </c>
+      <c r="C600" t="s">
+        <v>733</v>
+      </c>
+      <c r="D600" t="s">
+        <v>734</v>
+      </c>
+      <c r="E600" t="s">
+        <v>901</v>
+      </c>
+      <c r="F600" t="s">
+        <v>736</v>
+      </c>
+      <c r="H600" s="1">
+        <v>250</v>
+      </c>
+      <c r="I600">
+        <v>121</v>
+      </c>
+      <c r="J600" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>814</v>
+      </c>
+      <c r="B601" t="s">
+        <v>854</v>
+      </c>
+      <c r="C601" t="s">
+        <v>738</v>
+      </c>
+      <c r="D601" t="s">
+        <v>739</v>
+      </c>
+      <c r="E601" t="s">
+        <v>740</v>
+      </c>
+      <c r="F601" t="s">
+        <v>741</v>
+      </c>
+      <c r="G601" t="s">
+        <v>226</v>
+      </c>
+      <c r="H601" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I601">
+        <v>71</v>
+      </c>
+      <c r="J601" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>814</v>
+      </c>
+      <c r="B602" t="s">
+        <v>854</v>
+      </c>
+      <c r="C602" t="s">
+        <v>743</v>
+      </c>
+      <c r="D602" t="s">
+        <v>744</v>
+      </c>
+      <c r="E602" t="s">
+        <v>745</v>
+      </c>
+      <c r="F602" t="s">
+        <v>746</v>
+      </c>
+      <c r="G602" t="s">
+        <v>625</v>
+      </c>
+      <c r="H602" s="1">
+        <v>96</v>
+      </c>
+      <c r="I602">
+        <v>632</v>
+      </c>
+      <c r="J602" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>814</v>
+      </c>
+      <c r="B603" t="s">
+        <v>854</v>
+      </c>
+      <c r="C603" t="s">
+        <v>748</v>
+      </c>
+      <c r="D603" t="s">
+        <v>749</v>
+      </c>
+      <c r="E603" t="s">
+        <v>750</v>
+      </c>
+      <c r="F603" t="s">
+        <v>751</v>
+      </c>
+      <c r="H603" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I603">
+        <v>650</v>
+      </c>
+      <c r="J603" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>814</v>
+      </c>
+      <c r="B604" t="s">
+        <v>854</v>
+      </c>
+      <c r="C604" t="s">
+        <v>753</v>
+      </c>
+      <c r="D604" t="s">
+        <v>754</v>
+      </c>
+      <c r="E604" t="s">
+        <v>902</v>
+      </c>
+      <c r="F604" t="s">
+        <v>756</v>
+      </c>
+      <c r="G604" t="s">
+        <v>757</v>
+      </c>
+      <c r="H604" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I604">
+        <v>2030</v>
+      </c>
+      <c r="J604" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>814</v>
+      </c>
+      <c r="B605" t="s">
+        <v>854</v>
+      </c>
+      <c r="C605" t="s">
+        <v>759</v>
+      </c>
+      <c r="D605" t="s">
+        <v>760</v>
+      </c>
+      <c r="E605" t="s">
+        <v>903</v>
+      </c>
+      <c r="F605" t="s">
+        <v>762</v>
+      </c>
+      <c r="H605" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I605">
+        <v>337</v>
+      </c>
+      <c r="J605" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>814</v>
+      </c>
+      <c r="B606" t="s">
+        <v>854</v>
+      </c>
+      <c r="C606" t="s">
+        <v>764</v>
+      </c>
+      <c r="D606" t="s">
+        <v>765</v>
+      </c>
+      <c r="E606" t="s">
+        <v>766</v>
+      </c>
+      <c r="F606" t="s">
+        <v>767</v>
+      </c>
+      <c r="G606" t="s">
+        <v>768</v>
+      </c>
+      <c r="H606" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I606">
+        <v>36</v>
+      </c>
+      <c r="J606" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>814</v>
+      </c>
+      <c r="B607" t="s">
+        <v>854</v>
+      </c>
+      <c r="C607" t="s">
+        <v>770</v>
+      </c>
+      <c r="D607" t="s">
+        <v>771</v>
+      </c>
+      <c r="E607" t="s">
+        <v>904</v>
+      </c>
+      <c r="F607" t="s">
+        <v>773</v>
+      </c>
+      <c r="G607" t="s">
+        <v>774</v>
+      </c>
+      <c r="H607" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I607">
+        <v>169</v>
+      </c>
+      <c r="J607" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>814</v>
+      </c>
+      <c r="B608" t="s">
+        <v>854</v>
+      </c>
+      <c r="C608" t="s">
+        <v>776</v>
+      </c>
+      <c r="D608" t="s">
+        <v>777</v>
+      </c>
+      <c r="E608" t="s">
+        <v>905</v>
+      </c>
+      <c r="F608" t="s">
+        <v>779</v>
+      </c>
+      <c r="H608" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I608">
+        <v>6251</v>
+      </c>
+      <c r="J608" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>814</v>
+      </c>
+      <c r="B609" t="s">
+        <v>854</v>
+      </c>
+      <c r="C609" t="s">
+        <v>781</v>
+      </c>
+      <c r="D609" t="s">
+        <v>782</v>
+      </c>
+      <c r="E609" t="s">
+        <v>906</v>
+      </c>
+      <c r="F609" t="s">
+        <v>784</v>
+      </c>
+      <c r="H609" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I609">
+        <v>35</v>
+      </c>
+      <c r="J609" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>814</v>
+      </c>
+      <c r="B610" t="s">
+        <v>854</v>
+      </c>
+      <c r="C610" t="s">
+        <v>786</v>
+      </c>
+      <c r="D610" t="s">
+        <v>787</v>
+      </c>
+      <c r="E610" t="s">
+        <v>788</v>
+      </c>
+      <c r="F610" t="s">
+        <v>789</v>
+      </c>
+      <c r="H610" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I610">
+        <v>191</v>
+      </c>
+      <c r="J610" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>814</v>
+      </c>
+      <c r="B611" t="s">
+        <v>854</v>
+      </c>
+      <c r="C611" t="s">
+        <v>791</v>
+      </c>
+      <c r="D611" t="s">
+        <v>792</v>
+      </c>
+      <c r="E611" t="s">
+        <v>907</v>
+      </c>
+      <c r="F611" t="s">
+        <v>794</v>
+      </c>
+      <c r="G611" t="s">
+        <v>372</v>
+      </c>
+      <c r="H611" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I611">
+        <v>194</v>
+      </c>
+      <c r="J611" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>814</v>
+      </c>
+      <c r="B612" t="s">
+        <v>854</v>
+      </c>
+      <c r="C612" t="s">
+        <v>796</v>
+      </c>
+      <c r="D612" t="s">
+        <v>797</v>
+      </c>
+      <c r="E612" t="s">
+        <v>908</v>
+      </c>
+      <c r="F612" t="s">
+        <v>799</v>
+      </c>
+      <c r="H612" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I612">
+        <v>3315</v>
+      </c>
+      <c r="J612" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>814</v>
+      </c>
+      <c r="B613" t="s">
+        <v>854</v>
+      </c>
+      <c r="C613" t="s">
+        <v>801</v>
+      </c>
+      <c r="D613" t="s">
+        <v>802</v>
+      </c>
+      <c r="E613" t="s">
+        <v>803</v>
+      </c>
+      <c r="H613" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I613">
+        <v>14</v>
+      </c>
+      <c r="J613" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="929">
   <si>
     <t>DATE</t>
   </si>
@@ -6219,6 +6219,334 @@
 $9.01
  This item is in stock and available today!
 Current Stock: 3315
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>07:14 PM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe
+28g x 1/2in
+1mL
+Safety
+BROWN
+100/Box
+$27.59
+ This item is in stock and available today!
+Current Stock: 109
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color: White
+Latex Free, Cotton
+4 " x 4  "
+Sterility: Sterile
+100 per box
+Brand: Dukal
+$7.93
+ This item is in stock and available today!
+Current Stock: 72
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+$33.48
+ This item is in stock and available today!
+Current Stock: 49
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+MEDIUM
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 324
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 705
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1" x 3"
+Highly Absorbent Non-stick Pad
+100% Ultrasonic Micro Perforations to Prevent Skin Maceration 
+Sterile 
+100 per Box
+1 Box Each
+$5.22
+ This item is in stock and available today!
+Current Stock: 114
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine Transfer Straw
+For USe With:    Urine Vacuum Tubes
+3"  (7.5cm)
+NonSterile
+Transparent Hub and Straw
+100/Bag
+1 Bag Each
+*** Case Packed:   8 Bags per Case ***
+$55.65
+ This item is in stock and available today!
+Current Stock: 412
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antifungal Cream
+1% Clotrimazole
+1oz (30g) Tube
+1 Each
+*Brand May Vary Depending on Availability*
+$5.85
+ This item is in stock and available today!
+Current Stock: 74
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Rubbing Alcohol
+16oz Screw Top Bottle
+Percentage: 91%
+First aid antiseptic to help prevent the risk of infection in minor cuts, scrapes or burns
+1 Each
+$4.78
+Quantity discounts available 
+ This item is in stock and available today!
+Current Stock: 212
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue
+Press &amp; Lock Safety Reliable Mechanism for Permanent Lock
+Ergonomic Wings for Ease of Use
+Ultra Sharp Needle for Patient Comfort
+Sterile Single Packs for Single Use
+US FDA 510K Approved
+50 per Box 
+1 Box Each
+$48.31
+ This item is in stock and available today!
+Current Stock: 58
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
+w/Safety Shield
+Low Dead Space
+100 per Box - 1 Box Each
+(Case Packed - 5 Boxes per Case)
+$49.93
+ This item is in stock and available today!
+Current Stock: 66
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 167
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Contains: Adulterants
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39F to 86F (4C to 30C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate: CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for following drug panels:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP
+MTD
+OXY
+PCP
+THC
+w/3 Adulterants
+25 per Box
+1 Box Each
+$146.95
+ This item is in stock and available today!
+Current Stock: 411
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Collection Tube Holders
+For 13 to 16mm Blood Collection Tubes
+Universal design for compatibility with blood collection needles and winged sets
+DEHP Free and Latex Free Materials
+Made of Polypropylene
+Transparent
+100 Holders per Pack
+1 Pack Each
+$11.86
+ This item is in stock and available today!
+Current Stock: 25
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+$249.16
+ This item is in stock and available today!
+Current Stock: 1401
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain 6mL Blood Collection Tube
+Z No Additives
+WHITE Cap with BLACK Ring
+13 x 100mm
+PET Clear Plastic Tube
+Sterile
+50 Tubes per Pack
+1 Pack Each
+$13.82
+ This item is in stock and available today!
+Current Stock: 1158
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Chemistry Urine Reagent Test Strips
+CLIA Waived
+Tests Urine for
+Glucose¬†
+Bilirubin¬†
+Ketone
+Specific Gravity¬†
+Blood¬†
+pH¬†
+Protein
+Urobilinogen¬†
+Nitrite
+Leukocytes
+For Use with AimStrip¬Æ Urine Analyzer or Visual Read
+Store at Room Temperature
+100 per Box
+1 Box Each
+$34.22
+ This item is in stock and available today!
+Current Stock: 68
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+SMALL
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 888
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharps Collection/Disposal Container
+ 5 Quart Capacity
+Red
+Anti-Kickback Lid
+Horizontal Entry
+Automatic Shut Off to Prevent Overflow
+Locking Tabs
+Dimensions: 10.75" x 10.5" x 4.75"
+1 Each
+$6.90
+ This item is in stock and available today!
+Current Stock: 382
 Quantity
 ADD TO CART
 ADD TO WISHLIST
@@ -6612,7 +6940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K613"/>
+  <dimension ref="A1:K766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25363,6 +25691,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>814</v>
+      </c>
+      <c r="B614" t="s">
+        <v>909</v>
+      </c>
+      <c r="C614" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614" t="s">
+        <v>13</v>
+      </c>
+      <c r="E614" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614" t="s">
+        <v>15</v>
+      </c>
+      <c r="H614" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I614">
+        <v>78</v>
+      </c>
+      <c r="J614" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>814</v>
+      </c>
+      <c r="B615" t="s">
+        <v>909</v>
+      </c>
+      <c r="C615" t="s">
+        <v>17</v>
+      </c>
+      <c r="D615" t="s">
+        <v>18</v>
+      </c>
+      <c r="E615" t="s">
+        <v>806</v>
+      </c>
+      <c r="H615" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I615">
+        <v>68</v>
+      </c>
+      <c r="J615" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>814</v>
+      </c>
+      <c r="B616" t="s">
+        <v>909</v>
+      </c>
+      <c r="C616" t="s">
+        <v>21</v>
+      </c>
+      <c r="D616" t="s">
+        <v>22</v>
+      </c>
+      <c r="E616" t="s">
+        <v>816</v>
+      </c>
+      <c r="H616" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I616">
+        <v>214</v>
+      </c>
+      <c r="J616" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>814</v>
+      </c>
+      <c r="B617" t="s">
+        <v>909</v>
+      </c>
+      <c r="C617" t="s">
+        <v>25</v>
+      </c>
+      <c r="D617" t="s">
+        <v>26</v>
+      </c>
+      <c r="E617" t="s">
+        <v>27</v>
+      </c>
+      <c r="H617" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I617">
+        <v>110</v>
+      </c>
+      <c r="J617" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>814</v>
+      </c>
+      <c r="B618" t="s">
+        <v>909</v>
+      </c>
+      <c r="C618" t="s">
+        <v>29</v>
+      </c>
+      <c r="D618" t="s">
+        <v>30</v>
+      </c>
+      <c r="E618" t="s">
+        <v>910</v>
+      </c>
+      <c r="F618" t="s">
+        <v>32</v>
+      </c>
+      <c r="G618" t="s">
+        <v>33</v>
+      </c>
+      <c r="H618" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I618">
+        <v>109</v>
+      </c>
+      <c r="J618" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>814</v>
+      </c>
+      <c r="B619" t="s">
+        <v>909</v>
+      </c>
+      <c r="C619" t="s">
+        <v>35</v>
+      </c>
+      <c r="D619" t="s">
+        <v>36</v>
+      </c>
+      <c r="E619" t="s">
+        <v>37</v>
+      </c>
+      <c r="F619" t="s">
+        <v>38</v>
+      </c>
+      <c r="H619" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I619">
+        <v>50</v>
+      </c>
+      <c r="J619" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>814</v>
+      </c>
+      <c r="B620" t="s">
+        <v>909</v>
+      </c>
+      <c r="C620" t="s">
+        <v>40</v>
+      </c>
+      <c r="D620" t="s">
+        <v>41</v>
+      </c>
+      <c r="E620" t="s">
+        <v>42</v>
+      </c>
+      <c r="F620" t="s">
+        <v>43</v>
+      </c>
+      <c r="G620" t="s">
+        <v>44</v>
+      </c>
+      <c r="H620" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I620">
+        <v>42</v>
+      </c>
+      <c r="J620" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>814</v>
+      </c>
+      <c r="B621" t="s">
+        <v>909</v>
+      </c>
+      <c r="C621" t="s">
+        <v>46</v>
+      </c>
+      <c r="D621" t="s">
+        <v>47</v>
+      </c>
+      <c r="E621" t="s">
+        <v>48</v>
+      </c>
+      <c r="F621" t="s">
+        <v>49</v>
+      </c>
+      <c r="G621" t="s">
+        <v>50</v>
+      </c>
+      <c r="H621" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I621">
+        <v>212</v>
+      </c>
+      <c r="J621" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>814</v>
+      </c>
+      <c r="B622" t="s">
+        <v>909</v>
+      </c>
+      <c r="C622" t="s">
+        <v>52</v>
+      </c>
+      <c r="D622" t="s">
+        <v>53</v>
+      </c>
+      <c r="E622" t="s">
+        <v>817</v>
+      </c>
+      <c r="F622" t="s">
+        <v>55</v>
+      </c>
+      <c r="G622" t="s">
+        <v>56</v>
+      </c>
+      <c r="H622" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I622">
+        <v>73</v>
+      </c>
+      <c r="J622" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>814</v>
+      </c>
+      <c r="B623" t="s">
+        <v>909</v>
+      </c>
+      <c r="C623" t="s">
+        <v>58</v>
+      </c>
+      <c r="D623" t="s">
+        <v>59</v>
+      </c>
+      <c r="E623" t="s">
+        <v>60</v>
+      </c>
+      <c r="F623" t="s">
+        <v>61</v>
+      </c>
+      <c r="G623" t="s">
+        <v>62</v>
+      </c>
+      <c r="H623" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I623">
+        <v>206</v>
+      </c>
+      <c r="J623" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>814</v>
+      </c>
+      <c r="B624" t="s">
+        <v>909</v>
+      </c>
+      <c r="C624" t="s">
+        <v>64</v>
+      </c>
+      <c r="D624" t="s">
+        <v>65</v>
+      </c>
+      <c r="E624" t="s">
+        <v>66</v>
+      </c>
+      <c r="F624" t="s">
+        <v>67</v>
+      </c>
+      <c r="G624" t="s">
+        <v>68</v>
+      </c>
+      <c r="H624" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I624">
+        <v>16</v>
+      </c>
+      <c r="J624" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>814</v>
+      </c>
+      <c r="B625" t="s">
+        <v>909</v>
+      </c>
+      <c r="C625" t="s">
+        <v>70</v>
+      </c>
+      <c r="D625" t="s">
+        <v>71</v>
+      </c>
+      <c r="E625" t="s">
+        <v>72</v>
+      </c>
+      <c r="F625" t="s">
+        <v>73</v>
+      </c>
+      <c r="G625" t="s">
+        <v>74</v>
+      </c>
+      <c r="H625" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I625">
+        <v>60</v>
+      </c>
+      <c r="J625" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>814</v>
+      </c>
+      <c r="B626" t="s">
+        <v>909</v>
+      </c>
+      <c r="C626" t="s">
+        <v>76</v>
+      </c>
+      <c r="D626" t="s">
+        <v>77</v>
+      </c>
+      <c r="E626" t="s">
+        <v>78</v>
+      </c>
+      <c r="F626" t="s">
+        <v>79</v>
+      </c>
+      <c r="G626" t="s">
+        <v>80</v>
+      </c>
+      <c r="H626" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I626">
+        <v>438</v>
+      </c>
+      <c r="J626" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>814</v>
+      </c>
+      <c r="B627" t="s">
+        <v>909</v>
+      </c>
+      <c r="C627" t="s">
+        <v>82</v>
+      </c>
+      <c r="D627" t="s">
+        <v>83</v>
+      </c>
+      <c r="E627" t="s">
+        <v>818</v>
+      </c>
+      <c r="F627" t="s">
+        <v>85</v>
+      </c>
+      <c r="G627" t="s">
+        <v>86</v>
+      </c>
+      <c r="H627" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I627">
+        <v>27</v>
+      </c>
+      <c r="J627" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>814</v>
+      </c>
+      <c r="B628" t="s">
+        <v>909</v>
+      </c>
+      <c r="C628" t="s">
+        <v>88</v>
+      </c>
+      <c r="D628" t="s">
+        <v>89</v>
+      </c>
+      <c r="E628" t="s">
+        <v>90</v>
+      </c>
+      <c r="F628" t="s">
+        <v>91</v>
+      </c>
+      <c r="G628" t="s">
+        <v>92</v>
+      </c>
+      <c r="H628" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I628">
+        <v>115</v>
+      </c>
+      <c r="J628" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>814</v>
+      </c>
+      <c r="B629" t="s">
+        <v>909</v>
+      </c>
+      <c r="C629" t="s">
+        <v>94</v>
+      </c>
+      <c r="D629" t="s">
+        <v>95</v>
+      </c>
+      <c r="E629" t="s">
+        <v>96</v>
+      </c>
+      <c r="F629" t="s">
+        <v>97</v>
+      </c>
+      <c r="G629" t="s">
+        <v>98</v>
+      </c>
+      <c r="H629" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I629">
+        <v>63</v>
+      </c>
+      <c r="J629" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>814</v>
+      </c>
+      <c r="B630" t="s">
+        <v>909</v>
+      </c>
+      <c r="C630" t="s">
+        <v>100</v>
+      </c>
+      <c r="D630" t="s">
+        <v>101</v>
+      </c>
+      <c r="E630" t="s">
+        <v>856</v>
+      </c>
+      <c r="F630" t="s">
+        <v>103</v>
+      </c>
+      <c r="G630" t="s">
+        <v>104</v>
+      </c>
+      <c r="H630" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I630">
+        <v>33</v>
+      </c>
+      <c r="J630" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>814</v>
+      </c>
+      <c r="B631" t="s">
+        <v>909</v>
+      </c>
+      <c r="C631" t="s">
+        <v>106</v>
+      </c>
+      <c r="D631" t="s">
+        <v>107</v>
+      </c>
+      <c r="E631" t="s">
+        <v>108</v>
+      </c>
+      <c r="F631" t="s">
+        <v>109</v>
+      </c>
+      <c r="G631" t="s">
+        <v>110</v>
+      </c>
+      <c r="H631" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I631">
+        <v>16</v>
+      </c>
+      <c r="J631" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>814</v>
+      </c>
+      <c r="B632" t="s">
+        <v>909</v>
+      </c>
+      <c r="C632" t="s">
+        <v>112</v>
+      </c>
+      <c r="D632" t="s">
+        <v>113</v>
+      </c>
+      <c r="E632" t="s">
+        <v>114</v>
+      </c>
+      <c r="F632" t="s">
+        <v>115</v>
+      </c>
+      <c r="G632" t="s">
+        <v>116</v>
+      </c>
+      <c r="H632" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I632">
+        <v>76</v>
+      </c>
+      <c r="J632" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>814</v>
+      </c>
+      <c r="B633" t="s">
+        <v>909</v>
+      </c>
+      <c r="C633" t="s">
+        <v>118</v>
+      </c>
+      <c r="D633" t="s">
+        <v>119</v>
+      </c>
+      <c r="E633" t="s">
+        <v>857</v>
+      </c>
+      <c r="F633" t="s">
+        <v>121</v>
+      </c>
+      <c r="G633" t="s">
+        <v>122</v>
+      </c>
+      <c r="H633" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I633">
+        <v>164</v>
+      </c>
+      <c r="J633" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>814</v>
+      </c>
+      <c r="B634" t="s">
+        <v>909</v>
+      </c>
+      <c r="C634" t="s">
+        <v>124</v>
+      </c>
+      <c r="D634" t="s">
+        <v>125</v>
+      </c>
+      <c r="E634" t="s">
+        <v>911</v>
+      </c>
+      <c r="F634" t="s">
+        <v>127</v>
+      </c>
+      <c r="G634" t="s">
+        <v>56</v>
+      </c>
+      <c r="H634" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I634">
+        <v>72</v>
+      </c>
+      <c r="J634" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>814</v>
+      </c>
+      <c r="B635" t="s">
+        <v>909</v>
+      </c>
+      <c r="C635" t="s">
+        <v>129</v>
+      </c>
+      <c r="D635" t="s">
+        <v>130</v>
+      </c>
+      <c r="E635" t="s">
+        <v>858</v>
+      </c>
+      <c r="H635" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I635">
+        <v>118</v>
+      </c>
+      <c r="J635" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>814</v>
+      </c>
+      <c r="B636" t="s">
+        <v>909</v>
+      </c>
+      <c r="C636" t="s">
+        <v>133</v>
+      </c>
+      <c r="D636" t="s">
+        <v>134</v>
+      </c>
+      <c r="E636" t="s">
+        <v>135</v>
+      </c>
+      <c r="F636" t="s">
+        <v>136</v>
+      </c>
+      <c r="G636" t="s">
+        <v>137</v>
+      </c>
+      <c r="H636" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I636">
+        <v>84</v>
+      </c>
+      <c r="J636" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>814</v>
+      </c>
+      <c r="B637" t="s">
+        <v>909</v>
+      </c>
+      <c r="C637" t="s">
+        <v>139</v>
+      </c>
+      <c r="D637" t="s">
+        <v>140</v>
+      </c>
+      <c r="E637" t="s">
+        <v>141</v>
+      </c>
+      <c r="H637" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I637">
+        <v>31</v>
+      </c>
+      <c r="J637" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>814</v>
+      </c>
+      <c r="B638" t="s">
+        <v>909</v>
+      </c>
+      <c r="C638" t="s">
+        <v>143</v>
+      </c>
+      <c r="D638" t="s">
+        <v>144</v>
+      </c>
+      <c r="E638" t="s">
+        <v>145</v>
+      </c>
+      <c r="H638" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I638">
+        <v>66</v>
+      </c>
+      <c r="J638" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>814</v>
+      </c>
+      <c r="B639" t="s">
+        <v>909</v>
+      </c>
+      <c r="C639" t="s">
+        <v>147</v>
+      </c>
+      <c r="D639" t="s">
+        <v>148</v>
+      </c>
+      <c r="E639" t="s">
+        <v>149</v>
+      </c>
+      <c r="F639" t="s">
+        <v>150</v>
+      </c>
+      <c r="G639" t="s">
+        <v>151</v>
+      </c>
+      <c r="H639" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I639">
+        <v>40</v>
+      </c>
+      <c r="J639" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>814</v>
+      </c>
+      <c r="B640" t="s">
+        <v>909</v>
+      </c>
+      <c r="C640" t="s">
+        <v>153</v>
+      </c>
+      <c r="D640" t="s">
+        <v>154</v>
+      </c>
+      <c r="E640" t="s">
+        <v>821</v>
+      </c>
+      <c r="F640" t="s">
+        <v>156</v>
+      </c>
+      <c r="G640" t="s">
+        <v>44</v>
+      </c>
+      <c r="H640" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I640">
+        <v>389</v>
+      </c>
+      <c r="J640" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>814</v>
+      </c>
+      <c r="B641" t="s">
+        <v>909</v>
+      </c>
+      <c r="C641" t="s">
+        <v>158</v>
+      </c>
+      <c r="D641" t="s">
+        <v>159</v>
+      </c>
+      <c r="E641" t="s">
+        <v>160</v>
+      </c>
+      <c r="H641" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I641">
+        <v>27</v>
+      </c>
+      <c r="J641" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>814</v>
+      </c>
+      <c r="B642" t="s">
+        <v>909</v>
+      </c>
+      <c r="C642" t="s">
+        <v>162</v>
+      </c>
+      <c r="D642" t="s">
+        <v>163</v>
+      </c>
+      <c r="E642" t="s">
+        <v>164</v>
+      </c>
+      <c r="H642" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I642">
+        <v>38</v>
+      </c>
+      <c r="J642" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>814</v>
+      </c>
+      <c r="B643" t="s">
+        <v>909</v>
+      </c>
+      <c r="C643" t="s">
+        <v>166</v>
+      </c>
+      <c r="D643" t="s">
+        <v>167</v>
+      </c>
+      <c r="E643" t="s">
+        <v>859</v>
+      </c>
+      <c r="F643" t="s">
+        <v>169</v>
+      </c>
+      <c r="H643" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I643">
+        <v>746</v>
+      </c>
+      <c r="J643" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>814</v>
+      </c>
+      <c r="B644" t="s">
+        <v>909</v>
+      </c>
+      <c r="C644" t="s">
+        <v>171</v>
+      </c>
+      <c r="D644" t="s">
+        <v>172</v>
+      </c>
+      <c r="E644" t="s">
+        <v>912</v>
+      </c>
+      <c r="F644" t="s">
+        <v>174</v>
+      </c>
+      <c r="G644" t="s">
+        <v>122</v>
+      </c>
+      <c r="H644" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I644">
+        <v>49</v>
+      </c>
+      <c r="J644" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>814</v>
+      </c>
+      <c r="B645" t="s">
+        <v>909</v>
+      </c>
+      <c r="C645" t="s">
+        <v>176</v>
+      </c>
+      <c r="D645" t="s">
+        <v>177</v>
+      </c>
+      <c r="E645" t="s">
+        <v>178</v>
+      </c>
+      <c r="F645" t="s">
+        <v>179</v>
+      </c>
+      <c r="G645" t="s">
+        <v>180</v>
+      </c>
+      <c r="H645" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I645">
+        <v>221</v>
+      </c>
+      <c r="J645" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>814</v>
+      </c>
+      <c r="B646" t="s">
+        <v>909</v>
+      </c>
+      <c r="C646" t="s">
+        <v>182</v>
+      </c>
+      <c r="D646" t="s">
+        <v>183</v>
+      </c>
+      <c r="E646" t="s">
+        <v>184</v>
+      </c>
+      <c r="F646" t="s">
+        <v>185</v>
+      </c>
+      <c r="G646" t="s">
+        <v>186</v>
+      </c>
+      <c r="H646" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I646">
+        <v>377</v>
+      </c>
+      <c r="J646" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>814</v>
+      </c>
+      <c r="B647" t="s">
+        <v>909</v>
+      </c>
+      <c r="C647" t="s">
+        <v>188</v>
+      </c>
+      <c r="D647" t="s">
+        <v>189</v>
+      </c>
+      <c r="E647" t="s">
+        <v>823</v>
+      </c>
+      <c r="F647" t="s">
+        <v>191</v>
+      </c>
+      <c r="G647" t="s">
+        <v>56</v>
+      </c>
+      <c r="H647" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I647">
+        <v>97</v>
+      </c>
+      <c r="J647" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>814</v>
+      </c>
+      <c r="B648" t="s">
+        <v>909</v>
+      </c>
+      <c r="C648" t="s">
+        <v>193</v>
+      </c>
+      <c r="D648" t="s">
+        <v>194</v>
+      </c>
+      <c r="E648" t="s">
+        <v>913</v>
+      </c>
+      <c r="F648" t="s">
+        <v>196</v>
+      </c>
+      <c r="G648" t="s">
+        <v>197</v>
+      </c>
+      <c r="H648" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I648">
+        <v>324</v>
+      </c>
+      <c r="J648" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>814</v>
+      </c>
+      <c r="B649" t="s">
+        <v>909</v>
+      </c>
+      <c r="C649" t="s">
+        <v>199</v>
+      </c>
+      <c r="D649" t="s">
+        <v>200</v>
+      </c>
+      <c r="E649" t="s">
+        <v>914</v>
+      </c>
+      <c r="F649" t="s">
+        <v>202</v>
+      </c>
+      <c r="G649" t="s">
+        <v>197</v>
+      </c>
+      <c r="H649" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I649">
+        <v>705</v>
+      </c>
+      <c r="J649" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>814</v>
+      </c>
+      <c r="B650" t="s">
+        <v>909</v>
+      </c>
+      <c r="C650" t="s">
+        <v>204</v>
+      </c>
+      <c r="D650" t="s">
+        <v>205</v>
+      </c>
+      <c r="E650" t="s">
+        <v>206</v>
+      </c>
+      <c r="F650" t="s">
+        <v>207</v>
+      </c>
+      <c r="G650" t="s">
+        <v>197</v>
+      </c>
+      <c r="H650" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I650">
+        <v>241</v>
+      </c>
+      <c r="J650" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>814</v>
+      </c>
+      <c r="B651" t="s">
+        <v>909</v>
+      </c>
+      <c r="C651" t="s">
+        <v>209</v>
+      </c>
+      <c r="D651" t="s">
+        <v>210</v>
+      </c>
+      <c r="E651" t="s">
+        <v>211</v>
+      </c>
+      <c r="H651" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I651">
+        <v>71</v>
+      </c>
+      <c r="J651" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>814</v>
+      </c>
+      <c r="B652" t="s">
+        <v>909</v>
+      </c>
+      <c r="C652" t="s">
+        <v>213</v>
+      </c>
+      <c r="D652" t="s">
+        <v>214</v>
+      </c>
+      <c r="E652" t="s">
+        <v>863</v>
+      </c>
+      <c r="F652" t="s">
+        <v>216</v>
+      </c>
+      <c r="G652" t="s">
+        <v>44</v>
+      </c>
+      <c r="H652" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I652">
+        <v>174</v>
+      </c>
+      <c r="J652" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>814</v>
+      </c>
+      <c r="B653" t="s">
+        <v>909</v>
+      </c>
+      <c r="C653" t="s">
+        <v>218</v>
+      </c>
+      <c r="D653" t="s">
+        <v>219</v>
+      </c>
+      <c r="E653" t="s">
+        <v>220</v>
+      </c>
+      <c r="G653" t="s">
+        <v>137</v>
+      </c>
+      <c r="H653" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I653">
+        <v>21</v>
+      </c>
+      <c r="J653" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>814</v>
+      </c>
+      <c r="B654" t="s">
+        <v>909</v>
+      </c>
+      <c r="C654" t="s">
+        <v>222</v>
+      </c>
+      <c r="D654" t="s">
+        <v>223</v>
+      </c>
+      <c r="E654" t="s">
+        <v>224</v>
+      </c>
+      <c r="F654" t="s">
+        <v>225</v>
+      </c>
+      <c r="G654" t="s">
+        <v>226</v>
+      </c>
+      <c r="H654" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I654">
+        <v>192</v>
+      </c>
+      <c r="J654" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>814</v>
+      </c>
+      <c r="B655" t="s">
+        <v>909</v>
+      </c>
+      <c r="C655" t="s">
+        <v>228</v>
+      </c>
+      <c r="D655" t="s">
+        <v>229</v>
+      </c>
+      <c r="E655" t="s">
+        <v>915</v>
+      </c>
+      <c r="F655" t="s">
+        <v>231</v>
+      </c>
+      <c r="G655" t="s">
+        <v>56</v>
+      </c>
+      <c r="H655" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I655">
+        <v>114</v>
+      </c>
+      <c r="J655" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>814</v>
+      </c>
+      <c r="B656" t="s">
+        <v>909</v>
+      </c>
+      <c r="C656" t="s">
+        <v>233</v>
+      </c>
+      <c r="D656" t="s">
+        <v>234</v>
+      </c>
+      <c r="E656" t="s">
+        <v>235</v>
+      </c>
+      <c r="F656" t="s">
+        <v>236</v>
+      </c>
+      <c r="G656" t="s">
+        <v>237</v>
+      </c>
+      <c r="H656" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I656">
+        <v>40</v>
+      </c>
+      <c r="J656" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>814</v>
+      </c>
+      <c r="B657" t="s">
+        <v>909</v>
+      </c>
+      <c r="C657" t="s">
+        <v>239</v>
+      </c>
+      <c r="D657" t="s">
+        <v>240</v>
+      </c>
+      <c r="E657" t="s">
+        <v>241</v>
+      </c>
+      <c r="H657" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I657">
+        <v>34</v>
+      </c>
+      <c r="J657" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>814</v>
+      </c>
+      <c r="B658" t="s">
+        <v>909</v>
+      </c>
+      <c r="C658" t="s">
+        <v>243</v>
+      </c>
+      <c r="D658" t="s">
+        <v>244</v>
+      </c>
+      <c r="E658" t="s">
+        <v>916</v>
+      </c>
+      <c r="F658" t="s">
+        <v>246</v>
+      </c>
+      <c r="G658" t="s">
+        <v>247</v>
+      </c>
+      <c r="H658" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I658">
+        <v>412</v>
+      </c>
+      <c r="J658" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>814</v>
+      </c>
+      <c r="B659" t="s">
+        <v>909</v>
+      </c>
+      <c r="C659" t="s">
+        <v>249</v>
+      </c>
+      <c r="D659" t="s">
+        <v>250</v>
+      </c>
+      <c r="E659" t="s">
+        <v>825</v>
+      </c>
+      <c r="F659" t="s">
+        <v>252</v>
+      </c>
+      <c r="G659" t="s">
+        <v>253</v>
+      </c>
+      <c r="H659" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I659">
+        <v>117</v>
+      </c>
+      <c r="J659" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>814</v>
+      </c>
+      <c r="B660" t="s">
+        <v>909</v>
+      </c>
+      <c r="C660" t="s">
+        <v>255</v>
+      </c>
+      <c r="D660" t="s">
+        <v>256</v>
+      </c>
+      <c r="E660" t="s">
+        <v>826</v>
+      </c>
+      <c r="H660" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I660">
+        <v>43</v>
+      </c>
+      <c r="J660" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>814</v>
+      </c>
+      <c r="B661" t="s">
+        <v>909</v>
+      </c>
+      <c r="C661" t="s">
+        <v>259</v>
+      </c>
+      <c r="D661" t="s">
+        <v>260</v>
+      </c>
+      <c r="E661" t="s">
+        <v>261</v>
+      </c>
+      <c r="F661" t="s">
+        <v>262</v>
+      </c>
+      <c r="H661" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I661">
+        <v>12</v>
+      </c>
+      <c r="J661" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>814</v>
+      </c>
+      <c r="B662" t="s">
+        <v>909</v>
+      </c>
+      <c r="C662" t="s">
+        <v>264</v>
+      </c>
+      <c r="D662" t="s">
+        <v>265</v>
+      </c>
+      <c r="E662" t="s">
+        <v>865</v>
+      </c>
+      <c r="F662" t="s">
+        <v>267</v>
+      </c>
+      <c r="H662" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I662">
+        <v>652</v>
+      </c>
+      <c r="J662" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>814</v>
+      </c>
+      <c r="B663" t="s">
+        <v>909</v>
+      </c>
+      <c r="C663" t="s">
+        <v>269</v>
+      </c>
+      <c r="D663" t="s">
+        <v>270</v>
+      </c>
+      <c r="E663" t="s">
+        <v>917</v>
+      </c>
+      <c r="F663" t="s">
+        <v>272</v>
+      </c>
+      <c r="G663" t="s">
+        <v>273</v>
+      </c>
+      <c r="H663" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I663">
+        <v>74</v>
+      </c>
+      <c r="J663" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>814</v>
+      </c>
+      <c r="B664" t="s">
+        <v>909</v>
+      </c>
+      <c r="C664" t="s">
+        <v>275</v>
+      </c>
+      <c r="D664" t="s">
+        <v>276</v>
+      </c>
+      <c r="E664" t="s">
+        <v>277</v>
+      </c>
+      <c r="F664" t="s">
+        <v>278</v>
+      </c>
+      <c r="G664" t="s">
+        <v>186</v>
+      </c>
+      <c r="H664" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I664">
+        <v>579</v>
+      </c>
+      <c r="J664" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>814</v>
+      </c>
+      <c r="B665" t="s">
+        <v>909</v>
+      </c>
+      <c r="C665" t="s">
+        <v>280</v>
+      </c>
+      <c r="D665" t="s">
+        <v>281</v>
+      </c>
+      <c r="E665" t="s">
+        <v>866</v>
+      </c>
+      <c r="F665" t="s">
+        <v>283</v>
+      </c>
+      <c r="G665" t="s">
+        <v>284</v>
+      </c>
+      <c r="H665" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I665">
+        <v>1376</v>
+      </c>
+      <c r="J665" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>814</v>
+      </c>
+      <c r="B666" t="s">
+        <v>909</v>
+      </c>
+      <c r="C666" t="s">
+        <v>286</v>
+      </c>
+      <c r="D666" t="s">
+        <v>287</v>
+      </c>
+      <c r="E666" t="s">
+        <v>918</v>
+      </c>
+      <c r="F666" t="s">
+        <v>289</v>
+      </c>
+      <c r="G666" t="s">
+        <v>104</v>
+      </c>
+      <c r="H666" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I666">
+        <v>212</v>
+      </c>
+      <c r="J666" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>814</v>
+      </c>
+      <c r="B667" t="s">
+        <v>909</v>
+      </c>
+      <c r="C667" t="s">
+        <v>291</v>
+      </c>
+      <c r="D667" t="s">
+        <v>292</v>
+      </c>
+      <c r="E667" t="s">
+        <v>293</v>
+      </c>
+      <c r="F667" t="s">
+        <v>294</v>
+      </c>
+      <c r="G667" t="s">
+        <v>273</v>
+      </c>
+      <c r="H667" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I667">
+        <v>55</v>
+      </c>
+      <c r="J667" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>814</v>
+      </c>
+      <c r="B668" t="s">
+        <v>909</v>
+      </c>
+      <c r="C668" t="s">
+        <v>296</v>
+      </c>
+      <c r="D668" t="s">
+        <v>297</v>
+      </c>
+      <c r="E668" t="s">
+        <v>867</v>
+      </c>
+      <c r="G668" t="s">
+        <v>299</v>
+      </c>
+      <c r="H668" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I668">
+        <v>150</v>
+      </c>
+      <c r="J668" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>814</v>
+      </c>
+      <c r="B669" t="s">
+        <v>909</v>
+      </c>
+      <c r="C669" t="s">
+        <v>301</v>
+      </c>
+      <c r="D669" t="s">
+        <v>302</v>
+      </c>
+      <c r="E669" t="s">
+        <v>303</v>
+      </c>
+      <c r="F669" t="s">
+        <v>304</v>
+      </c>
+      <c r="H669" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I669">
+        <v>52</v>
+      </c>
+      <c r="J669" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>814</v>
+      </c>
+      <c r="B670" t="s">
+        <v>909</v>
+      </c>
+      <c r="C670" t="s">
+        <v>306</v>
+      </c>
+      <c r="D670" t="s">
+        <v>307</v>
+      </c>
+      <c r="E670" t="s">
+        <v>308</v>
+      </c>
+      <c r="F670" t="s">
+        <v>309</v>
+      </c>
+      <c r="G670" t="s">
+        <v>310</v>
+      </c>
+      <c r="H670" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I670">
+        <v>398</v>
+      </c>
+      <c r="J670" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>814</v>
+      </c>
+      <c r="B671" t="s">
+        <v>909</v>
+      </c>
+      <c r="C671" t="s">
+        <v>312</v>
+      </c>
+      <c r="D671" t="s">
+        <v>313</v>
+      </c>
+      <c r="E671" t="s">
+        <v>868</v>
+      </c>
+      <c r="H671" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I671">
+        <v>62</v>
+      </c>
+      <c r="J671" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>814</v>
+      </c>
+      <c r="B672" t="s">
+        <v>909</v>
+      </c>
+      <c r="C672" t="s">
+        <v>316</v>
+      </c>
+      <c r="D672" t="s">
+        <v>317</v>
+      </c>
+      <c r="E672" t="s">
+        <v>318</v>
+      </c>
+      <c r="F672" t="s">
+        <v>319</v>
+      </c>
+      <c r="H672" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I672">
+        <v>34</v>
+      </c>
+      <c r="J672" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>814</v>
+      </c>
+      <c r="B673" t="s">
+        <v>909</v>
+      </c>
+      <c r="C673" t="s">
+        <v>321</v>
+      </c>
+      <c r="D673" t="s">
+        <v>322</v>
+      </c>
+      <c r="E673" t="s">
+        <v>869</v>
+      </c>
+      <c r="G673" t="s">
+        <v>324</v>
+      </c>
+      <c r="H673" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I673">
+        <v>80</v>
+      </c>
+      <c r="J673" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>814</v>
+      </c>
+      <c r="B674" t="s">
+        <v>909</v>
+      </c>
+      <c r="C674" t="s">
+        <v>326</v>
+      </c>
+      <c r="D674" t="s">
+        <v>327</v>
+      </c>
+      <c r="E674" t="s">
+        <v>919</v>
+      </c>
+      <c r="F674" t="s">
+        <v>329</v>
+      </c>
+      <c r="G674" t="s">
+        <v>44</v>
+      </c>
+      <c r="H674" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I674">
+        <v>58</v>
+      </c>
+      <c r="J674" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>814</v>
+      </c>
+      <c r="B675" t="s">
+        <v>909</v>
+      </c>
+      <c r="C675" t="s">
+        <v>331</v>
+      </c>
+      <c r="D675" t="s">
+        <v>332</v>
+      </c>
+      <c r="E675" t="s">
+        <v>333</v>
+      </c>
+      <c r="F675" t="s">
+        <v>334</v>
+      </c>
+      <c r="G675" t="s">
+        <v>273</v>
+      </c>
+      <c r="H675" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I675">
+        <v>38</v>
+      </c>
+      <c r="J675" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>814</v>
+      </c>
+      <c r="B676" t="s">
+        <v>909</v>
+      </c>
+      <c r="C676" t="s">
+        <v>336</v>
+      </c>
+      <c r="D676" t="s">
+        <v>337</v>
+      </c>
+      <c r="E676" t="s">
+        <v>338</v>
+      </c>
+      <c r="F676" t="s">
+        <v>339</v>
+      </c>
+      <c r="G676" t="s">
+        <v>340</v>
+      </c>
+      <c r="H676" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I676">
+        <v>72</v>
+      </c>
+      <c r="J676" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>814</v>
+      </c>
+      <c r="B677" t="s">
+        <v>909</v>
+      </c>
+      <c r="C677" t="s">
+        <v>342</v>
+      </c>
+      <c r="D677" t="s">
+        <v>343</v>
+      </c>
+      <c r="E677" t="s">
+        <v>344</v>
+      </c>
+      <c r="F677" t="s">
+        <v>345</v>
+      </c>
+      <c r="G677" t="s">
+        <v>346</v>
+      </c>
+      <c r="H677" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I677">
+        <v>101</v>
+      </c>
+      <c r="J677" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>814</v>
+      </c>
+      <c r="B678" t="s">
+        <v>909</v>
+      </c>
+      <c r="C678" t="s">
+        <v>348</v>
+      </c>
+      <c r="D678" t="s">
+        <v>349</v>
+      </c>
+      <c r="E678" t="s">
+        <v>920</v>
+      </c>
+      <c r="H678" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I678">
+        <v>66</v>
+      </c>
+      <c r="J678" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>814</v>
+      </c>
+      <c r="B679" t="s">
+        <v>909</v>
+      </c>
+      <c r="C679" t="s">
+        <v>352</v>
+      </c>
+      <c r="D679" t="s">
+        <v>353</v>
+      </c>
+      <c r="E679" t="s">
+        <v>872</v>
+      </c>
+      <c r="F679" t="s">
+        <v>355</v>
+      </c>
+      <c r="G679" t="s">
+        <v>356</v>
+      </c>
+      <c r="H679" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I679">
+        <v>122</v>
+      </c>
+      <c r="J679" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>814</v>
+      </c>
+      <c r="B680" t="s">
+        <v>909</v>
+      </c>
+      <c r="C680" t="s">
+        <v>358</v>
+      </c>
+      <c r="D680" t="s">
+        <v>359</v>
+      </c>
+      <c r="E680" t="s">
+        <v>873</v>
+      </c>
+      <c r="H680" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I680">
+        <v>124</v>
+      </c>
+      <c r="J680" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>814</v>
+      </c>
+      <c r="B681" t="s">
+        <v>909</v>
+      </c>
+      <c r="C681" t="s">
+        <v>362</v>
+      </c>
+      <c r="D681" t="s">
+        <v>363</v>
+      </c>
+      <c r="E681" t="s">
+        <v>364</v>
+      </c>
+      <c r="F681" t="s">
+        <v>365</v>
+      </c>
+      <c r="G681" t="s">
+        <v>366</v>
+      </c>
+      <c r="H681" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I681">
+        <v>133</v>
+      </c>
+      <c r="J681" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>814</v>
+      </c>
+      <c r="B682" t="s">
+        <v>909</v>
+      </c>
+      <c r="C682" t="s">
+        <v>368</v>
+      </c>
+      <c r="D682" t="s">
+        <v>369</v>
+      </c>
+      <c r="E682" t="s">
+        <v>921</v>
+      </c>
+      <c r="F682" t="s">
+        <v>371</v>
+      </c>
+      <c r="G682" t="s">
+        <v>372</v>
+      </c>
+      <c r="H682" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I682">
+        <v>167</v>
+      </c>
+      <c r="J682" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>814</v>
+      </c>
+      <c r="B683" t="s">
+        <v>909</v>
+      </c>
+      <c r="C683" t="s">
+        <v>374</v>
+      </c>
+      <c r="D683" t="s">
+        <v>375</v>
+      </c>
+      <c r="E683" t="s">
+        <v>875</v>
+      </c>
+      <c r="F683" t="s">
+        <v>377</v>
+      </c>
+      <c r="G683" t="s">
+        <v>44</v>
+      </c>
+      <c r="H683" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I683">
+        <v>779</v>
+      </c>
+      <c r="J683" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>814</v>
+      </c>
+      <c r="B684" t="s">
+        <v>909</v>
+      </c>
+      <c r="C684" t="s">
+        <v>379</v>
+      </c>
+      <c r="D684" t="s">
+        <v>380</v>
+      </c>
+      <c r="E684" t="s">
+        <v>876</v>
+      </c>
+      <c r="H684" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I684">
+        <v>51</v>
+      </c>
+      <c r="J684" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>814</v>
+      </c>
+      <c r="B685" t="s">
+        <v>909</v>
+      </c>
+      <c r="C685" t="s">
+        <v>383</v>
+      </c>
+      <c r="D685" t="s">
+        <v>384</v>
+      </c>
+      <c r="E685" t="s">
+        <v>832</v>
+      </c>
+      <c r="F685" t="s">
+        <v>386</v>
+      </c>
+      <c r="G685" t="s">
+        <v>122</v>
+      </c>
+      <c r="H685" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I685">
+        <v>158</v>
+      </c>
+      <c r="J685" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>814</v>
+      </c>
+      <c r="B686" t="s">
+        <v>909</v>
+      </c>
+      <c r="C686" t="s">
+        <v>388</v>
+      </c>
+      <c r="D686" t="s">
+        <v>389</v>
+      </c>
+      <c r="E686" t="s">
+        <v>833</v>
+      </c>
+      <c r="F686" t="s">
+        <v>391</v>
+      </c>
+      <c r="G686" t="s">
+        <v>122</v>
+      </c>
+      <c r="H686" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I686">
+        <v>464</v>
+      </c>
+      <c r="J686" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>814</v>
+      </c>
+      <c r="B687" t="s">
+        <v>909</v>
+      </c>
+      <c r="C687" t="s">
+        <v>393</v>
+      </c>
+      <c r="D687" t="s">
+        <v>394</v>
+      </c>
+      <c r="E687" t="s">
+        <v>877</v>
+      </c>
+      <c r="F687" t="s">
+        <v>396</v>
+      </c>
+      <c r="G687" t="s">
+        <v>122</v>
+      </c>
+      <c r="H687" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I687">
+        <v>94</v>
+      </c>
+      <c r="J687" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>814</v>
+      </c>
+      <c r="B688" t="s">
+        <v>909</v>
+      </c>
+      <c r="C688" t="s">
+        <v>398</v>
+      </c>
+      <c r="D688" t="s">
+        <v>399</v>
+      </c>
+      <c r="E688" t="s">
+        <v>400</v>
+      </c>
+      <c r="F688" t="s">
+        <v>401</v>
+      </c>
+      <c r="H688" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I688">
+        <v>507</v>
+      </c>
+      <c r="J688" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>814</v>
+      </c>
+      <c r="B689" t="s">
+        <v>909</v>
+      </c>
+      <c r="C689" t="s">
+        <v>403</v>
+      </c>
+      <c r="D689" t="s">
+        <v>404</v>
+      </c>
+      <c r="E689" t="s">
+        <v>878</v>
+      </c>
+      <c r="F689" t="s">
+        <v>406</v>
+      </c>
+      <c r="G689" t="s">
+        <v>407</v>
+      </c>
+      <c r="H689" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I689">
+        <v>375</v>
+      </c>
+      <c r="J689" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>814</v>
+      </c>
+      <c r="B690" t="s">
+        <v>909</v>
+      </c>
+      <c r="C690" t="s">
+        <v>409</v>
+      </c>
+      <c r="D690" t="s">
+        <v>410</v>
+      </c>
+      <c r="E690" t="s">
+        <v>879</v>
+      </c>
+      <c r="F690" t="s">
+        <v>412</v>
+      </c>
+      <c r="G690" t="s">
+        <v>413</v>
+      </c>
+      <c r="H690" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I690">
+        <v>382</v>
+      </c>
+      <c r="J690" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>814</v>
+      </c>
+      <c r="B691" t="s">
+        <v>909</v>
+      </c>
+      <c r="C691" t="s">
+        <v>415</v>
+      </c>
+      <c r="D691" t="s">
+        <v>416</v>
+      </c>
+      <c r="E691" t="s">
+        <v>417</v>
+      </c>
+      <c r="H691" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I691">
+        <v>104</v>
+      </c>
+      <c r="J691" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>814</v>
+      </c>
+      <c r="B692" t="s">
+        <v>909</v>
+      </c>
+      <c r="C692" t="s">
+        <v>419</v>
+      </c>
+      <c r="D692" t="s">
+        <v>420</v>
+      </c>
+      <c r="E692" t="s">
+        <v>421</v>
+      </c>
+      <c r="F692" t="s">
+        <v>422</v>
+      </c>
+      <c r="H692" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I692">
+        <v>44</v>
+      </c>
+      <c r="J692" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>814</v>
+      </c>
+      <c r="B693" t="s">
+        <v>909</v>
+      </c>
+      <c r="C693" t="s">
+        <v>424</v>
+      </c>
+      <c r="D693" t="s">
+        <v>425</v>
+      </c>
+      <c r="E693" t="s">
+        <v>426</v>
+      </c>
+      <c r="F693" t="s">
+        <v>427</v>
+      </c>
+      <c r="G693" t="s">
+        <v>372</v>
+      </c>
+      <c r="H693" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I693">
+        <v>23</v>
+      </c>
+      <c r="J693" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>814</v>
+      </c>
+      <c r="B694" t="s">
+        <v>909</v>
+      </c>
+      <c r="C694" t="s">
+        <v>429</v>
+      </c>
+      <c r="D694" t="s">
+        <v>430</v>
+      </c>
+      <c r="E694" t="s">
+        <v>922</v>
+      </c>
+      <c r="F694" t="s">
+        <v>432</v>
+      </c>
+      <c r="H694" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I694">
+        <v>411</v>
+      </c>
+      <c r="J694" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>814</v>
+      </c>
+      <c r="B695" t="s">
+        <v>909</v>
+      </c>
+      <c r="C695" t="s">
+        <v>434</v>
+      </c>
+      <c r="D695" t="s">
+        <v>435</v>
+      </c>
+      <c r="E695" t="s">
+        <v>834</v>
+      </c>
+      <c r="H695" s="1">
+        <v>169</v>
+      </c>
+      <c r="I695">
+        <v>519</v>
+      </c>
+      <c r="J695" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>814</v>
+      </c>
+      <c r="B696" t="s">
+        <v>909</v>
+      </c>
+      <c r="C696" t="s">
+        <v>438</v>
+      </c>
+      <c r="D696" t="s">
+        <v>439</v>
+      </c>
+      <c r="E696" t="s">
+        <v>440</v>
+      </c>
+      <c r="G696" t="s">
+        <v>441</v>
+      </c>
+      <c r="H696" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J696" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>814</v>
+      </c>
+      <c r="B697" t="s">
+        <v>909</v>
+      </c>
+      <c r="C697" t="s">
+        <v>443</v>
+      </c>
+      <c r="D697" t="s">
+        <v>444</v>
+      </c>
+      <c r="E697" t="s">
+        <v>923</v>
+      </c>
+      <c r="G697" t="s">
+        <v>299</v>
+      </c>
+      <c r="H697" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I697">
+        <v>25</v>
+      </c>
+      <c r="J697" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>814</v>
+      </c>
+      <c r="B698" t="s">
+        <v>909</v>
+      </c>
+      <c r="C698" t="s">
+        <v>447</v>
+      </c>
+      <c r="D698" t="s">
+        <v>448</v>
+      </c>
+      <c r="E698" t="s">
+        <v>881</v>
+      </c>
+      <c r="F698" t="s">
+        <v>450</v>
+      </c>
+      <c r="G698" t="s">
+        <v>92</v>
+      </c>
+      <c r="H698" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I698">
+        <v>292</v>
+      </c>
+      <c r="J698" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>814</v>
+      </c>
+      <c r="B699" t="s">
+        <v>909</v>
+      </c>
+      <c r="C699" t="s">
+        <v>452</v>
+      </c>
+      <c r="D699" t="s">
+        <v>453</v>
+      </c>
+      <c r="E699" t="s">
+        <v>924</v>
+      </c>
+      <c r="F699" t="s">
+        <v>455</v>
+      </c>
+      <c r="G699" t="s">
+        <v>50</v>
+      </c>
+      <c r="H699" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I699">
+        <v>1401</v>
+      </c>
+      <c r="J699" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>814</v>
+      </c>
+      <c r="B700" t="s">
+        <v>909</v>
+      </c>
+      <c r="C700" t="s">
+        <v>457</v>
+      </c>
+      <c r="D700" t="s">
+        <v>458</v>
+      </c>
+      <c r="E700" t="s">
+        <v>459</v>
+      </c>
+      <c r="G700" t="s">
+        <v>56</v>
+      </c>
+      <c r="H700" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I700">
+        <v>101</v>
+      </c>
+      <c r="J700" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>814</v>
+      </c>
+      <c r="B701" t="s">
+        <v>909</v>
+      </c>
+      <c r="C701" t="s">
+        <v>461</v>
+      </c>
+      <c r="D701" t="s">
+        <v>462</v>
+      </c>
+      <c r="E701" t="s">
+        <v>463</v>
+      </c>
+      <c r="F701" t="s">
+        <v>464</v>
+      </c>
+      <c r="G701" t="s">
+        <v>56</v>
+      </c>
+      <c r="H701" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I701">
+        <v>135</v>
+      </c>
+      <c r="J701" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>814</v>
+      </c>
+      <c r="B702" t="s">
+        <v>909</v>
+      </c>
+      <c r="C702" t="s">
+        <v>466</v>
+      </c>
+      <c r="D702" t="s">
+        <v>467</v>
+      </c>
+      <c r="E702" t="s">
+        <v>883</v>
+      </c>
+      <c r="F702" t="s">
+        <v>469</v>
+      </c>
+      <c r="H702" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I702">
+        <v>204</v>
+      </c>
+      <c r="J702" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>814</v>
+      </c>
+      <c r="B703" t="s">
+        <v>909</v>
+      </c>
+      <c r="C703" t="s">
+        <v>471</v>
+      </c>
+      <c r="D703" t="s">
+        <v>472</v>
+      </c>
+      <c r="E703" t="s">
+        <v>473</v>
+      </c>
+      <c r="F703" t="s">
+        <v>474</v>
+      </c>
+      <c r="G703" t="s">
+        <v>56</v>
+      </c>
+      <c r="H703" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I703">
+        <v>29</v>
+      </c>
+      <c r="J703" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>814</v>
+      </c>
+      <c r="B704" t="s">
+        <v>909</v>
+      </c>
+      <c r="C704" t="s">
+        <v>476</v>
+      </c>
+      <c r="D704" t="s">
+        <v>477</v>
+      </c>
+      <c r="E704" t="s">
+        <v>884</v>
+      </c>
+      <c r="F704" t="s">
+        <v>479</v>
+      </c>
+      <c r="G704" t="s">
+        <v>122</v>
+      </c>
+      <c r="H704" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I704">
+        <v>71</v>
+      </c>
+      <c r="J704" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>814</v>
+      </c>
+      <c r="B705" t="s">
+        <v>909</v>
+      </c>
+      <c r="C705" t="s">
+        <v>481</v>
+      </c>
+      <c r="D705" t="s">
+        <v>482</v>
+      </c>
+      <c r="E705" t="s">
+        <v>885</v>
+      </c>
+      <c r="F705" t="s">
+        <v>484</v>
+      </c>
+      <c r="G705" t="s">
+        <v>485</v>
+      </c>
+      <c r="H705" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I705">
+        <v>26</v>
+      </c>
+      <c r="J705" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>814</v>
+      </c>
+      <c r="B706" t="s">
+        <v>909</v>
+      </c>
+      <c r="C706" t="s">
+        <v>487</v>
+      </c>
+      <c r="D706" t="s">
+        <v>488</v>
+      </c>
+      <c r="E706" t="s">
+        <v>836</v>
+      </c>
+      <c r="F706" t="s">
+        <v>490</v>
+      </c>
+      <c r="G706" t="s">
+        <v>56</v>
+      </c>
+      <c r="H706" s="1">
+        <v>6</v>
+      </c>
+      <c r="I706">
+        <v>28</v>
+      </c>
+      <c r="J706" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>814</v>
+      </c>
+      <c r="B707" t="s">
+        <v>909</v>
+      </c>
+      <c r="C707" t="s">
+        <v>492</v>
+      </c>
+      <c r="D707" t="s">
+        <v>493</v>
+      </c>
+      <c r="E707" t="s">
+        <v>886</v>
+      </c>
+      <c r="F707" t="s">
+        <v>495</v>
+      </c>
+      <c r="G707" t="s">
+        <v>122</v>
+      </c>
+      <c r="H707" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I707">
+        <v>203</v>
+      </c>
+      <c r="J707" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>814</v>
+      </c>
+      <c r="B708" t="s">
+        <v>909</v>
+      </c>
+      <c r="C708" t="s">
+        <v>497</v>
+      </c>
+      <c r="D708" t="s">
+        <v>498</v>
+      </c>
+      <c r="E708" t="s">
+        <v>499</v>
+      </c>
+      <c r="F708" t="s">
+        <v>500</v>
+      </c>
+      <c r="H708" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I708">
+        <v>18</v>
+      </c>
+      <c r="J708" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>814</v>
+      </c>
+      <c r="B709" t="s">
+        <v>909</v>
+      </c>
+      <c r="C709" t="s">
+        <v>502</v>
+      </c>
+      <c r="D709" t="s">
+        <v>503</v>
+      </c>
+      <c r="E709" t="s">
+        <v>504</v>
+      </c>
+      <c r="F709" t="s">
+        <v>505</v>
+      </c>
+      <c r="H709" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I709">
+        <v>403</v>
+      </c>
+      <c r="J709" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>814</v>
+      </c>
+      <c r="B710" t="s">
+        <v>909</v>
+      </c>
+      <c r="C710" t="s">
+        <v>507</v>
+      </c>
+      <c r="D710" t="s">
+        <v>508</v>
+      </c>
+      <c r="E710" t="s">
+        <v>887</v>
+      </c>
+      <c r="F710" t="s">
+        <v>510</v>
+      </c>
+      <c r="G710" t="s">
+        <v>372</v>
+      </c>
+      <c r="H710" s="1">
+        <v>203</v>
+      </c>
+      <c r="I710">
+        <v>187</v>
+      </c>
+      <c r="J710" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>814</v>
+      </c>
+      <c r="B711" t="s">
+        <v>909</v>
+      </c>
+      <c r="C711" t="s">
+        <v>512</v>
+      </c>
+      <c r="D711" t="s">
+        <v>513</v>
+      </c>
+      <c r="E711" t="s">
+        <v>514</v>
+      </c>
+      <c r="F711" t="s">
+        <v>515</v>
+      </c>
+      <c r="G711" t="s">
+        <v>197</v>
+      </c>
+      <c r="H711" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I711">
+        <v>99</v>
+      </c>
+      <c r="J711" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>814</v>
+      </c>
+      <c r="B712" t="s">
+        <v>909</v>
+      </c>
+      <c r="C712" t="s">
+        <v>517</v>
+      </c>
+      <c r="D712" t="s">
+        <v>518</v>
+      </c>
+      <c r="E712" t="s">
+        <v>838</v>
+      </c>
+      <c r="F712" t="s">
+        <v>520</v>
+      </c>
+      <c r="G712" t="s">
+        <v>197</v>
+      </c>
+      <c r="H712" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I712">
+        <v>383</v>
+      </c>
+      <c r="J712" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>814</v>
+      </c>
+      <c r="B713" t="s">
+        <v>909</v>
+      </c>
+      <c r="C713" t="s">
+        <v>522</v>
+      </c>
+      <c r="D713" t="s">
+        <v>523</v>
+      </c>
+      <c r="E713" t="s">
+        <v>888</v>
+      </c>
+      <c r="F713" t="s">
+        <v>525</v>
+      </c>
+      <c r="G713" t="s">
+        <v>197</v>
+      </c>
+      <c r="H713" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I713">
+        <v>1034</v>
+      </c>
+      <c r="J713" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>814</v>
+      </c>
+      <c r="B714" t="s">
+        <v>909</v>
+      </c>
+      <c r="C714" t="s">
+        <v>527</v>
+      </c>
+      <c r="D714" t="s">
+        <v>528</v>
+      </c>
+      <c r="E714" t="s">
+        <v>529</v>
+      </c>
+      <c r="F714" t="s">
+        <v>530</v>
+      </c>
+      <c r="G714" t="s">
+        <v>197</v>
+      </c>
+      <c r="H714" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I714">
+        <v>304</v>
+      </c>
+      <c r="J714" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>814</v>
+      </c>
+      <c r="B715" t="s">
+        <v>909</v>
+      </c>
+      <c r="C715" t="s">
+        <v>532</v>
+      </c>
+      <c r="D715" t="s">
+        <v>533</v>
+      </c>
+      <c r="E715" t="s">
+        <v>925</v>
+      </c>
+      <c r="F715" t="s">
+        <v>535</v>
+      </c>
+      <c r="G715" t="s">
+        <v>485</v>
+      </c>
+      <c r="H715" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I715">
+        <v>1158</v>
+      </c>
+      <c r="J715" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>814</v>
+      </c>
+      <c r="B716" t="s">
+        <v>909</v>
+      </c>
+      <c r="C716" t="s">
+        <v>537</v>
+      </c>
+      <c r="D716" t="s">
+        <v>538</v>
+      </c>
+      <c r="E716" t="s">
+        <v>539</v>
+      </c>
+      <c r="G716" t="s">
+        <v>540</v>
+      </c>
+      <c r="H716" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I716">
+        <v>156</v>
+      </c>
+      <c r="J716" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>814</v>
+      </c>
+      <c r="B717" t="s">
+        <v>909</v>
+      </c>
+      <c r="C717" t="s">
+        <v>542</v>
+      </c>
+      <c r="D717" t="s">
+        <v>543</v>
+      </c>
+      <c r="E717" t="s">
+        <v>544</v>
+      </c>
+      <c r="F717" t="s">
+        <v>545</v>
+      </c>
+      <c r="G717" t="s">
+        <v>546</v>
+      </c>
+      <c r="H717" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I717">
+        <v>31</v>
+      </c>
+      <c r="J717" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>814</v>
+      </c>
+      <c r="B718" t="s">
+        <v>909</v>
+      </c>
+      <c r="C718" t="s">
+        <v>548</v>
+      </c>
+      <c r="D718" t="s">
+        <v>549</v>
+      </c>
+      <c r="E718" t="s">
+        <v>550</v>
+      </c>
+      <c r="F718" t="s">
+        <v>551</v>
+      </c>
+      <c r="G718" t="s">
+        <v>552</v>
+      </c>
+      <c r="H718" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I718">
+        <v>471</v>
+      </c>
+      <c r="J718" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>814</v>
+      </c>
+      <c r="B719" t="s">
+        <v>909</v>
+      </c>
+      <c r="C719" t="s">
+        <v>554</v>
+      </c>
+      <c r="D719" t="s">
+        <v>555</v>
+      </c>
+      <c r="E719" t="s">
+        <v>556</v>
+      </c>
+      <c r="F719" t="s">
+        <v>557</v>
+      </c>
+      <c r="H719" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I719">
+        <v>37</v>
+      </c>
+      <c r="J719" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>814</v>
+      </c>
+      <c r="B720" t="s">
+        <v>909</v>
+      </c>
+      <c r="C720" t="s">
+        <v>559</v>
+      </c>
+      <c r="D720" t="s">
+        <v>560</v>
+      </c>
+      <c r="E720" t="s">
+        <v>561</v>
+      </c>
+      <c r="F720" t="s">
+        <v>562</v>
+      </c>
+      <c r="G720" t="s">
+        <v>122</v>
+      </c>
+      <c r="H720" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I720">
+        <v>58</v>
+      </c>
+      <c r="J720" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>814</v>
+      </c>
+      <c r="B721" t="s">
+        <v>909</v>
+      </c>
+      <c r="C721" t="s">
+        <v>564</v>
+      </c>
+      <c r="D721" t="s">
+        <v>565</v>
+      </c>
+      <c r="E721" t="s">
+        <v>840</v>
+      </c>
+      <c r="F721" t="s">
+        <v>567</v>
+      </c>
+      <c r="G721" t="s">
+        <v>568</v>
+      </c>
+      <c r="H721" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I721">
+        <v>622</v>
+      </c>
+      <c r="J721" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>814</v>
+      </c>
+      <c r="B722" t="s">
+        <v>909</v>
+      </c>
+      <c r="C722" t="s">
+        <v>570</v>
+      </c>
+      <c r="D722" t="s">
+        <v>571</v>
+      </c>
+      <c r="E722" t="s">
+        <v>572</v>
+      </c>
+      <c r="H722" s="1">
+        <v>0</v>
+      </c>
+      <c r="I722">
+        <v>1</v>
+      </c>
+      <c r="J722" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>814</v>
+      </c>
+      <c r="B723" t="s">
+        <v>909</v>
+      </c>
+      <c r="C723" t="s">
+        <v>574</v>
+      </c>
+      <c r="D723" t="s">
+        <v>575</v>
+      </c>
+      <c r="E723" t="s">
+        <v>926</v>
+      </c>
+      <c r="F723" t="s">
+        <v>577</v>
+      </c>
+      <c r="G723" t="s">
+        <v>578</v>
+      </c>
+      <c r="H723" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I723">
+        <v>68</v>
+      </c>
+      <c r="J723" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>814</v>
+      </c>
+      <c r="B724" t="s">
+        <v>909</v>
+      </c>
+      <c r="C724" t="s">
+        <v>580</v>
+      </c>
+      <c r="D724" t="s">
+        <v>581</v>
+      </c>
+      <c r="E724" t="s">
+        <v>889</v>
+      </c>
+      <c r="F724" t="s">
+        <v>583</v>
+      </c>
+      <c r="G724" t="s">
+        <v>122</v>
+      </c>
+      <c r="H724" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I724">
+        <v>977</v>
+      </c>
+      <c r="J724" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>814</v>
+      </c>
+      <c r="B725" t="s">
+        <v>909</v>
+      </c>
+      <c r="C725" t="s">
+        <v>585</v>
+      </c>
+      <c r="D725" t="s">
+        <v>586</v>
+      </c>
+      <c r="E725" t="s">
+        <v>890</v>
+      </c>
+      <c r="F725" t="s">
+        <v>588</v>
+      </c>
+      <c r="G725" t="s">
+        <v>56</v>
+      </c>
+      <c r="H725" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I725">
+        <v>292</v>
+      </c>
+      <c r="J725" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>814</v>
+      </c>
+      <c r="B726" t="s">
+        <v>909</v>
+      </c>
+      <c r="C726" t="s">
+        <v>590</v>
+      </c>
+      <c r="D726" t="s">
+        <v>591</v>
+      </c>
+      <c r="E726" t="s">
+        <v>891</v>
+      </c>
+      <c r="F726" t="s">
+        <v>593</v>
+      </c>
+      <c r="G726" t="s">
+        <v>80</v>
+      </c>
+      <c r="H726" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I726">
+        <v>602</v>
+      </c>
+      <c r="J726" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>814</v>
+      </c>
+      <c r="B727" t="s">
+        <v>909</v>
+      </c>
+      <c r="C727" t="s">
+        <v>595</v>
+      </c>
+      <c r="D727" t="s">
+        <v>596</v>
+      </c>
+      <c r="E727" t="s">
+        <v>597</v>
+      </c>
+      <c r="F727" t="s">
+        <v>598</v>
+      </c>
+      <c r="G727" t="s">
+        <v>56</v>
+      </c>
+      <c r="H727" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I727">
+        <v>128</v>
+      </c>
+      <c r="J727" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>814</v>
+      </c>
+      <c r="B728" t="s">
+        <v>909</v>
+      </c>
+      <c r="C728" t="s">
+        <v>600</v>
+      </c>
+      <c r="D728" t="s">
+        <v>601</v>
+      </c>
+      <c r="E728" t="s">
+        <v>927</v>
+      </c>
+      <c r="F728" t="s">
+        <v>603</v>
+      </c>
+      <c r="G728" t="s">
+        <v>197</v>
+      </c>
+      <c r="H728" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I728">
+        <v>888</v>
+      </c>
+      <c r="J728" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>814</v>
+      </c>
+      <c r="B729" t="s">
+        <v>909</v>
+      </c>
+      <c r="C729" t="s">
+        <v>605</v>
+      </c>
+      <c r="D729" t="s">
+        <v>606</v>
+      </c>
+      <c r="E729" t="s">
+        <v>843</v>
+      </c>
+      <c r="F729" t="s">
+        <v>608</v>
+      </c>
+      <c r="G729" t="s">
+        <v>340</v>
+      </c>
+      <c r="H729" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I729">
+        <v>250</v>
+      </c>
+      <c r="J729" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>814</v>
+      </c>
+      <c r="B730" t="s">
+        <v>909</v>
+      </c>
+      <c r="C730" t="s">
+        <v>610</v>
+      </c>
+      <c r="D730" t="s">
+        <v>611</v>
+      </c>
+      <c r="E730" t="s">
+        <v>612</v>
+      </c>
+      <c r="F730" t="s">
+        <v>613</v>
+      </c>
+      <c r="G730" t="s">
+        <v>614</v>
+      </c>
+      <c r="H730" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I730">
+        <v>200</v>
+      </c>
+      <c r="J730" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>814</v>
+      </c>
+      <c r="B731" t="s">
+        <v>909</v>
+      </c>
+      <c r="C731" t="s">
+        <v>616</v>
+      </c>
+      <c r="D731" t="s">
+        <v>617</v>
+      </c>
+      <c r="E731" t="s">
+        <v>892</v>
+      </c>
+      <c r="F731" t="s">
+        <v>619</v>
+      </c>
+      <c r="G731" t="s">
+        <v>92</v>
+      </c>
+      <c r="H731" s="1">
+        <v>80</v>
+      </c>
+      <c r="I731">
+        <v>81</v>
+      </c>
+      <c r="J731" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>814</v>
+      </c>
+      <c r="B732" t="s">
+        <v>909</v>
+      </c>
+      <c r="C732" t="s">
+        <v>621</v>
+      </c>
+      <c r="D732" t="s">
+        <v>622</v>
+      </c>
+      <c r="E732" t="s">
+        <v>893</v>
+      </c>
+      <c r="F732" t="s">
+        <v>624</v>
+      </c>
+      <c r="G732" t="s">
+        <v>625</v>
+      </c>
+      <c r="H732" s="1">
+        <v>76</v>
+      </c>
+      <c r="I732">
+        <v>494</v>
+      </c>
+      <c r="J732" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>814</v>
+      </c>
+      <c r="B733" t="s">
+        <v>909</v>
+      </c>
+      <c r="C733" t="s">
+        <v>627</v>
+      </c>
+      <c r="D733" t="s">
+        <v>628</v>
+      </c>
+      <c r="E733" t="s">
+        <v>629</v>
+      </c>
+      <c r="G733" t="s">
+        <v>630</v>
+      </c>
+      <c r="H733" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I733">
+        <v>94</v>
+      </c>
+      <c r="J733" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>814</v>
+      </c>
+      <c r="B734" t="s">
+        <v>909</v>
+      </c>
+      <c r="C734" t="s">
+        <v>632</v>
+      </c>
+      <c r="D734" t="s">
+        <v>633</v>
+      </c>
+      <c r="E734" t="s">
+        <v>894</v>
+      </c>
+      <c r="F734" t="s">
+        <v>635</v>
+      </c>
+      <c r="G734" t="s">
+        <v>636</v>
+      </c>
+      <c r="H734" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I734">
+        <v>49</v>
+      </c>
+      <c r="J734" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>814</v>
+      </c>
+      <c r="B735" t="s">
+        <v>909</v>
+      </c>
+      <c r="C735" t="s">
+        <v>638</v>
+      </c>
+      <c r="D735" t="s">
+        <v>639</v>
+      </c>
+      <c r="E735" t="s">
+        <v>640</v>
+      </c>
+      <c r="F735" t="s">
+        <v>641</v>
+      </c>
+      <c r="G735" t="s">
+        <v>642</v>
+      </c>
+      <c r="H735" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I735">
+        <v>75</v>
+      </c>
+      <c r="J735" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>814</v>
+      </c>
+      <c r="B736" t="s">
+        <v>909</v>
+      </c>
+      <c r="C736" t="s">
+        <v>644</v>
+      </c>
+      <c r="D736" t="s">
+        <v>645</v>
+      </c>
+      <c r="E736" t="s">
+        <v>646</v>
+      </c>
+      <c r="F736" t="s">
+        <v>647</v>
+      </c>
+      <c r="G736" t="s">
+        <v>648</v>
+      </c>
+      <c r="H736" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I736">
+        <v>247</v>
+      </c>
+      <c r="J736" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>814</v>
+      </c>
+      <c r="B737" t="s">
+        <v>909</v>
+      </c>
+      <c r="C737" t="s">
+        <v>650</v>
+      </c>
+      <c r="D737" t="s">
+        <v>651</v>
+      </c>
+      <c r="E737" t="s">
+        <v>652</v>
+      </c>
+      <c r="F737" t="s">
+        <v>653</v>
+      </c>
+      <c r="G737" t="s">
+        <v>614</v>
+      </c>
+      <c r="H737" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I737">
+        <v>60</v>
+      </c>
+      <c r="J737" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>814</v>
+      </c>
+      <c r="B738" t="s">
+        <v>909</v>
+      </c>
+      <c r="C738" t="s">
+        <v>655</v>
+      </c>
+      <c r="D738" t="s">
+        <v>656</v>
+      </c>
+      <c r="E738" t="s">
+        <v>845</v>
+      </c>
+      <c r="F738" t="s">
+        <v>658</v>
+      </c>
+      <c r="H738" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I738">
+        <v>610</v>
+      </c>
+      <c r="J738" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>814</v>
+      </c>
+      <c r="B739" t="s">
+        <v>909</v>
+      </c>
+      <c r="C739" t="s">
+        <v>660</v>
+      </c>
+      <c r="D739" t="s">
+        <v>661</v>
+      </c>
+      <c r="E739" t="s">
+        <v>846</v>
+      </c>
+      <c r="F739" t="s">
+        <v>663</v>
+      </c>
+      <c r="H739" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I739">
+        <v>88</v>
+      </c>
+      <c r="J739" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>814</v>
+      </c>
+      <c r="B740" t="s">
+        <v>909</v>
+      </c>
+      <c r="C740" t="s">
+        <v>665</v>
+      </c>
+      <c r="D740" t="s">
+        <v>666</v>
+      </c>
+      <c r="E740" t="s">
+        <v>847</v>
+      </c>
+      <c r="F740" t="s">
+        <v>668</v>
+      </c>
+      <c r="H740" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I740">
+        <v>54</v>
+      </c>
+      <c r="J740" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>814</v>
+      </c>
+      <c r="B741" t="s">
+        <v>909</v>
+      </c>
+      <c r="C741" t="s">
+        <v>670</v>
+      </c>
+      <c r="D741" t="s">
+        <v>671</v>
+      </c>
+      <c r="E741" t="s">
+        <v>672</v>
+      </c>
+      <c r="F741" t="s">
+        <v>673</v>
+      </c>
+      <c r="G741" t="s">
+        <v>372</v>
+      </c>
+      <c r="H741" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I741">
+        <v>577</v>
+      </c>
+      <c r="J741" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>814</v>
+      </c>
+      <c r="B742" t="s">
+        <v>909</v>
+      </c>
+      <c r="C742" t="s">
+        <v>675</v>
+      </c>
+      <c r="D742" t="s">
+        <v>676</v>
+      </c>
+      <c r="E742" t="s">
+        <v>895</v>
+      </c>
+      <c r="F742" t="s">
+        <v>678</v>
+      </c>
+      <c r="H742" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I742">
+        <v>52</v>
+      </c>
+      <c r="J742" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>814</v>
+      </c>
+      <c r="B743" t="s">
+        <v>909</v>
+      </c>
+      <c r="C743" t="s">
+        <v>429</v>
+      </c>
+      <c r="D743" t="s">
+        <v>680</v>
+      </c>
+      <c r="E743" t="s">
+        <v>896</v>
+      </c>
+      <c r="F743" t="s">
+        <v>682</v>
+      </c>
+      <c r="G743" t="s">
+        <v>372</v>
+      </c>
+      <c r="H743" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I743">
+        <v>795</v>
+      </c>
+      <c r="J743" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>814</v>
+      </c>
+      <c r="B744" t="s">
+        <v>909</v>
+      </c>
+      <c r="C744" t="s">
+        <v>684</v>
+      </c>
+      <c r="D744" t="s">
+        <v>685</v>
+      </c>
+      <c r="E744" t="s">
+        <v>897</v>
+      </c>
+      <c r="F744" t="s">
+        <v>687</v>
+      </c>
+      <c r="G744" t="s">
+        <v>372</v>
+      </c>
+      <c r="H744" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I744">
+        <v>1155</v>
+      </c>
+      <c r="J744" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>814</v>
+      </c>
+      <c r="B745" t="s">
+        <v>909</v>
+      </c>
+      <c r="C745" t="s">
+        <v>689</v>
+      </c>
+      <c r="D745" t="s">
+        <v>690</v>
+      </c>
+      <c r="E745" t="s">
+        <v>691</v>
+      </c>
+      <c r="F745" t="s">
+        <v>692</v>
+      </c>
+      <c r="G745" t="s">
+        <v>372</v>
+      </c>
+      <c r="H745" s="1">
+        <v>120</v>
+      </c>
+      <c r="I745">
+        <v>175</v>
+      </c>
+      <c r="J745" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>814</v>
+      </c>
+      <c r="B746" t="s">
+        <v>909</v>
+      </c>
+      <c r="C746" t="s">
+        <v>694</v>
+      </c>
+      <c r="D746" t="s">
+        <v>695</v>
+      </c>
+      <c r="E746" t="s">
+        <v>898</v>
+      </c>
+      <c r="F746" t="s">
+        <v>697</v>
+      </c>
+      <c r="G746" t="s">
+        <v>698</v>
+      </c>
+      <c r="H746" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I746">
+        <v>174</v>
+      </c>
+      <c r="J746" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>814</v>
+      </c>
+      <c r="B747" t="s">
+        <v>909</v>
+      </c>
+      <c r="C747" t="s">
+        <v>700</v>
+      </c>
+      <c r="D747" t="s">
+        <v>701</v>
+      </c>
+      <c r="E747" t="s">
+        <v>702</v>
+      </c>
+      <c r="F747" t="s">
+        <v>703</v>
+      </c>
+      <c r="G747" t="s">
+        <v>704</v>
+      </c>
+      <c r="H747" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I747">
+        <v>79</v>
+      </c>
+      <c r="J747" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>814</v>
+      </c>
+      <c r="B748" t="s">
+        <v>909</v>
+      </c>
+      <c r="C748" t="s">
+        <v>706</v>
+      </c>
+      <c r="D748" t="s">
+        <v>707</v>
+      </c>
+      <c r="E748" t="s">
+        <v>928</v>
+      </c>
+      <c r="F748" t="s">
+        <v>709</v>
+      </c>
+      <c r="G748" t="s">
+        <v>710</v>
+      </c>
+      <c r="H748" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I748">
+        <v>382</v>
+      </c>
+      <c r="J748" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>814</v>
+      </c>
+      <c r="B749" t="s">
+        <v>909</v>
+      </c>
+      <c r="C749" t="s">
+        <v>712</v>
+      </c>
+      <c r="D749" t="s">
+        <v>713</v>
+      </c>
+      <c r="E749" t="s">
+        <v>899</v>
+      </c>
+      <c r="F749" t="s">
+        <v>715</v>
+      </c>
+      <c r="G749" t="s">
+        <v>92</v>
+      </c>
+      <c r="H749" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I749">
+        <v>96</v>
+      </c>
+      <c r="J749" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>814</v>
+      </c>
+      <c r="B750" t="s">
+        <v>909</v>
+      </c>
+      <c r="C750" t="s">
+        <v>717</v>
+      </c>
+      <c r="D750" t="s">
+        <v>718</v>
+      </c>
+      <c r="E750" t="s">
+        <v>900</v>
+      </c>
+      <c r="H750" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I750">
+        <v>44</v>
+      </c>
+      <c r="J750" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>814</v>
+      </c>
+      <c r="B751" t="s">
+        <v>909</v>
+      </c>
+      <c r="C751" t="s">
+        <v>721</v>
+      </c>
+      <c r="D751" t="s">
+        <v>722</v>
+      </c>
+      <c r="E751" t="s">
+        <v>723</v>
+      </c>
+      <c r="F751" t="s">
+        <v>724</v>
+      </c>
+      <c r="G751" t="s">
+        <v>725</v>
+      </c>
+      <c r="H751" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I751">
+        <v>108</v>
+      </c>
+      <c r="J751" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>814</v>
+      </c>
+      <c r="B752" t="s">
+        <v>909</v>
+      </c>
+      <c r="C752" t="s">
+        <v>727</v>
+      </c>
+      <c r="D752" t="s">
+        <v>728</v>
+      </c>
+      <c r="E752" t="s">
+        <v>729</v>
+      </c>
+      <c r="F752" t="s">
+        <v>730</v>
+      </c>
+      <c r="G752" t="s">
+        <v>731</v>
+      </c>
+      <c r="H752" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I752">
+        <v>33</v>
+      </c>
+      <c r="J752" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>814</v>
+      </c>
+      <c r="B753" t="s">
+        <v>909</v>
+      </c>
+      <c r="C753" t="s">
+        <v>733</v>
+      </c>
+      <c r="D753" t="s">
+        <v>734</v>
+      </c>
+      <c r="E753" t="s">
+        <v>901</v>
+      </c>
+      <c r="F753" t="s">
+        <v>736</v>
+      </c>
+      <c r="H753" s="1">
+        <v>250</v>
+      </c>
+      <c r="I753">
+        <v>121</v>
+      </c>
+      <c r="J753" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>814</v>
+      </c>
+      <c r="B754" t="s">
+        <v>909</v>
+      </c>
+      <c r="C754" t="s">
+        <v>738</v>
+      </c>
+      <c r="D754" t="s">
+        <v>739</v>
+      </c>
+      <c r="E754" t="s">
+        <v>740</v>
+      </c>
+      <c r="F754" t="s">
+        <v>741</v>
+      </c>
+      <c r="G754" t="s">
+        <v>226</v>
+      </c>
+      <c r="H754" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I754">
+        <v>71</v>
+      </c>
+      <c r="J754" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>814</v>
+      </c>
+      <c r="B755" t="s">
+        <v>909</v>
+      </c>
+      <c r="C755" t="s">
+        <v>743</v>
+      </c>
+      <c r="D755" t="s">
+        <v>744</v>
+      </c>
+      <c r="E755" t="s">
+        <v>745</v>
+      </c>
+      <c r="F755" t="s">
+        <v>746</v>
+      </c>
+      <c r="G755" t="s">
+        <v>625</v>
+      </c>
+      <c r="H755" s="1">
+        <v>96</v>
+      </c>
+      <c r="I755">
+        <v>632</v>
+      </c>
+      <c r="J755" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>814</v>
+      </c>
+      <c r="B756" t="s">
+        <v>909</v>
+      </c>
+      <c r="C756" t="s">
+        <v>748</v>
+      </c>
+      <c r="D756" t="s">
+        <v>749</v>
+      </c>
+      <c r="E756" t="s">
+        <v>750</v>
+      </c>
+      <c r="F756" t="s">
+        <v>751</v>
+      </c>
+      <c r="H756" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I756">
+        <v>650</v>
+      </c>
+      <c r="J756" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>814</v>
+      </c>
+      <c r="B757" t="s">
+        <v>909</v>
+      </c>
+      <c r="C757" t="s">
+        <v>753</v>
+      </c>
+      <c r="D757" t="s">
+        <v>754</v>
+      </c>
+      <c r="E757" t="s">
+        <v>902</v>
+      </c>
+      <c r="F757" t="s">
+        <v>756</v>
+      </c>
+      <c r="G757" t="s">
+        <v>757</v>
+      </c>
+      <c r="H757" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I757">
+        <v>2030</v>
+      </c>
+      <c r="J757" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>814</v>
+      </c>
+      <c r="B758" t="s">
+        <v>909</v>
+      </c>
+      <c r="C758" t="s">
+        <v>759</v>
+      </c>
+      <c r="D758" t="s">
+        <v>760</v>
+      </c>
+      <c r="E758" t="s">
+        <v>903</v>
+      </c>
+      <c r="F758" t="s">
+        <v>762</v>
+      </c>
+      <c r="H758" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I758">
+        <v>337</v>
+      </c>
+      <c r="J758" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>814</v>
+      </c>
+      <c r="B759" t="s">
+        <v>909</v>
+      </c>
+      <c r="C759" t="s">
+        <v>764</v>
+      </c>
+      <c r="D759" t="s">
+        <v>765</v>
+      </c>
+      <c r="E759" t="s">
+        <v>766</v>
+      </c>
+      <c r="F759" t="s">
+        <v>767</v>
+      </c>
+      <c r="G759" t="s">
+        <v>768</v>
+      </c>
+      <c r="H759" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I759">
+        <v>36</v>
+      </c>
+      <c r="J759" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>814</v>
+      </c>
+      <c r="B760" t="s">
+        <v>909</v>
+      </c>
+      <c r="C760" t="s">
+        <v>770</v>
+      </c>
+      <c r="D760" t="s">
+        <v>771</v>
+      </c>
+      <c r="E760" t="s">
+        <v>904</v>
+      </c>
+      <c r="F760" t="s">
+        <v>773</v>
+      </c>
+      <c r="G760" t="s">
+        <v>774</v>
+      </c>
+      <c r="H760" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I760">
+        <v>169</v>
+      </c>
+      <c r="J760" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>814</v>
+      </c>
+      <c r="B761" t="s">
+        <v>909</v>
+      </c>
+      <c r="C761" t="s">
+        <v>776</v>
+      </c>
+      <c r="D761" t="s">
+        <v>777</v>
+      </c>
+      <c r="E761" t="s">
+        <v>905</v>
+      </c>
+      <c r="F761" t="s">
+        <v>779</v>
+      </c>
+      <c r="H761" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I761">
+        <v>6251</v>
+      </c>
+      <c r="J761" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>814</v>
+      </c>
+      <c r="B762" t="s">
+        <v>909</v>
+      </c>
+      <c r="C762" t="s">
+        <v>781</v>
+      </c>
+      <c r="D762" t="s">
+        <v>782</v>
+      </c>
+      <c r="E762" t="s">
+        <v>906</v>
+      </c>
+      <c r="F762" t="s">
+        <v>784</v>
+      </c>
+      <c r="H762" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I762">
+        <v>35</v>
+      </c>
+      <c r="J762" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>814</v>
+      </c>
+      <c r="B763" t="s">
+        <v>909</v>
+      </c>
+      <c r="C763" t="s">
+        <v>786</v>
+      </c>
+      <c r="D763" t="s">
+        <v>787</v>
+      </c>
+      <c r="E763" t="s">
+        <v>788</v>
+      </c>
+      <c r="F763" t="s">
+        <v>789</v>
+      </c>
+      <c r="H763" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I763">
+        <v>191</v>
+      </c>
+      <c r="J763" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>814</v>
+      </c>
+      <c r="B764" t="s">
+        <v>909</v>
+      </c>
+      <c r="C764" t="s">
+        <v>791</v>
+      </c>
+      <c r="D764" t="s">
+        <v>792</v>
+      </c>
+      <c r="E764" t="s">
+        <v>907</v>
+      </c>
+      <c r="F764" t="s">
+        <v>794</v>
+      </c>
+      <c r="G764" t="s">
+        <v>372</v>
+      </c>
+      <c r="H764" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I764">
+        <v>194</v>
+      </c>
+      <c r="J764" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>814</v>
+      </c>
+      <c r="B765" t="s">
+        <v>909</v>
+      </c>
+      <c r="C765" t="s">
+        <v>796</v>
+      </c>
+      <c r="D765" t="s">
+        <v>797</v>
+      </c>
+      <c r="E765" t="s">
+        <v>908</v>
+      </c>
+      <c r="F765" t="s">
+        <v>799</v>
+      </c>
+      <c r="H765" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I765">
+        <v>3315</v>
+      </c>
+      <c r="J765" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>814</v>
+      </c>
+      <c r="B766" t="s">
+        <v>909</v>
+      </c>
+      <c r="C766" t="s">
+        <v>801</v>
+      </c>
+      <c r="D766" t="s">
+        <v>802</v>
+      </c>
+      <c r="E766" t="s">
+        <v>803</v>
+      </c>
+      <c r="H766" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I766">
+        <v>14</v>
+      </c>
+      <c r="J766" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6917" uniqueCount="930">
   <si>
     <t>DATE</t>
   </si>
@@ -6551,6 +6551,9 @@
 ADD TO CART
 ADD TO WISHLIST
  Pinit SharePost</t>
+  </si>
+  <si>
+    <t>11:43 PM PDT</t>
   </si>
 </sst>
 </file>
@@ -6940,7 +6943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K766"/>
+  <dimension ref="A1:K919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30365,6 +30368,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>814</v>
+      </c>
+      <c r="B767" t="s">
+        <v>929</v>
+      </c>
+      <c r="C767" t="s">
+        <v>12</v>
+      </c>
+      <c r="D767" t="s">
+        <v>13</v>
+      </c>
+      <c r="E767" t="s">
+        <v>14</v>
+      </c>
+      <c r="F767" t="s">
+        <v>15</v>
+      </c>
+      <c r="H767" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I767">
+        <v>78</v>
+      </c>
+      <c r="J767" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>814</v>
+      </c>
+      <c r="B768" t="s">
+        <v>929</v>
+      </c>
+      <c r="C768" t="s">
+        <v>17</v>
+      </c>
+      <c r="D768" t="s">
+        <v>18</v>
+      </c>
+      <c r="E768" t="s">
+        <v>806</v>
+      </c>
+      <c r="H768" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I768">
+        <v>68</v>
+      </c>
+      <c r="J768" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>814</v>
+      </c>
+      <c r="B769" t="s">
+        <v>929</v>
+      </c>
+      <c r="C769" t="s">
+        <v>21</v>
+      </c>
+      <c r="D769" t="s">
+        <v>22</v>
+      </c>
+      <c r="E769" t="s">
+        <v>816</v>
+      </c>
+      <c r="H769" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I769">
+        <v>214</v>
+      </c>
+      <c r="J769" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>814</v>
+      </c>
+      <c r="B770" t="s">
+        <v>929</v>
+      </c>
+      <c r="C770" t="s">
+        <v>25</v>
+      </c>
+      <c r="D770" t="s">
+        <v>26</v>
+      </c>
+      <c r="E770" t="s">
+        <v>27</v>
+      </c>
+      <c r="H770" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I770">
+        <v>110</v>
+      </c>
+      <c r="J770" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>814</v>
+      </c>
+      <c r="B771" t="s">
+        <v>929</v>
+      </c>
+      <c r="C771" t="s">
+        <v>29</v>
+      </c>
+      <c r="D771" t="s">
+        <v>30</v>
+      </c>
+      <c r="E771" t="s">
+        <v>910</v>
+      </c>
+      <c r="F771" t="s">
+        <v>32</v>
+      </c>
+      <c r="G771" t="s">
+        <v>33</v>
+      </c>
+      <c r="H771" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I771">
+        <v>109</v>
+      </c>
+      <c r="J771" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>814</v>
+      </c>
+      <c r="B772" t="s">
+        <v>929</v>
+      </c>
+      <c r="C772" t="s">
+        <v>35</v>
+      </c>
+      <c r="D772" t="s">
+        <v>36</v>
+      </c>
+      <c r="E772" t="s">
+        <v>37</v>
+      </c>
+      <c r="F772" t="s">
+        <v>38</v>
+      </c>
+      <c r="H772" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I772">
+        <v>50</v>
+      </c>
+      <c r="J772" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>814</v>
+      </c>
+      <c r="B773" t="s">
+        <v>929</v>
+      </c>
+      <c r="C773" t="s">
+        <v>40</v>
+      </c>
+      <c r="D773" t="s">
+        <v>41</v>
+      </c>
+      <c r="E773" t="s">
+        <v>42</v>
+      </c>
+      <c r="F773" t="s">
+        <v>43</v>
+      </c>
+      <c r="G773" t="s">
+        <v>44</v>
+      </c>
+      <c r="H773" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I773">
+        <v>42</v>
+      </c>
+      <c r="J773" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>814</v>
+      </c>
+      <c r="B774" t="s">
+        <v>929</v>
+      </c>
+      <c r="C774" t="s">
+        <v>46</v>
+      </c>
+      <c r="D774" t="s">
+        <v>47</v>
+      </c>
+      <c r="E774" t="s">
+        <v>48</v>
+      </c>
+      <c r="F774" t="s">
+        <v>49</v>
+      </c>
+      <c r="G774" t="s">
+        <v>50</v>
+      </c>
+      <c r="H774" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I774">
+        <v>212</v>
+      </c>
+      <c r="J774" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>814</v>
+      </c>
+      <c r="B775" t="s">
+        <v>929</v>
+      </c>
+      <c r="C775" t="s">
+        <v>52</v>
+      </c>
+      <c r="D775" t="s">
+        <v>53</v>
+      </c>
+      <c r="E775" t="s">
+        <v>817</v>
+      </c>
+      <c r="F775" t="s">
+        <v>55</v>
+      </c>
+      <c r="G775" t="s">
+        <v>56</v>
+      </c>
+      <c r="H775" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I775">
+        <v>73</v>
+      </c>
+      <c r="J775" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>814</v>
+      </c>
+      <c r="B776" t="s">
+        <v>929</v>
+      </c>
+      <c r="C776" t="s">
+        <v>58</v>
+      </c>
+      <c r="D776" t="s">
+        <v>59</v>
+      </c>
+      <c r="E776" t="s">
+        <v>60</v>
+      </c>
+      <c r="F776" t="s">
+        <v>61</v>
+      </c>
+      <c r="G776" t="s">
+        <v>62</v>
+      </c>
+      <c r="H776" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I776">
+        <v>206</v>
+      </c>
+      <c r="J776" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>814</v>
+      </c>
+      <c r="B777" t="s">
+        <v>929</v>
+      </c>
+      <c r="C777" t="s">
+        <v>64</v>
+      </c>
+      <c r="D777" t="s">
+        <v>65</v>
+      </c>
+      <c r="E777" t="s">
+        <v>66</v>
+      </c>
+      <c r="F777" t="s">
+        <v>67</v>
+      </c>
+      <c r="G777" t="s">
+        <v>68</v>
+      </c>
+      <c r="H777" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I777">
+        <v>16</v>
+      </c>
+      <c r="J777" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>814</v>
+      </c>
+      <c r="B778" t="s">
+        <v>929</v>
+      </c>
+      <c r="C778" t="s">
+        <v>70</v>
+      </c>
+      <c r="D778" t="s">
+        <v>71</v>
+      </c>
+      <c r="E778" t="s">
+        <v>72</v>
+      </c>
+      <c r="F778" t="s">
+        <v>73</v>
+      </c>
+      <c r="G778" t="s">
+        <v>74</v>
+      </c>
+      <c r="H778" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I778">
+        <v>60</v>
+      </c>
+      <c r="J778" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>814</v>
+      </c>
+      <c r="B779" t="s">
+        <v>929</v>
+      </c>
+      <c r="C779" t="s">
+        <v>76</v>
+      </c>
+      <c r="D779" t="s">
+        <v>77</v>
+      </c>
+      <c r="E779" t="s">
+        <v>78</v>
+      </c>
+      <c r="F779" t="s">
+        <v>79</v>
+      </c>
+      <c r="G779" t="s">
+        <v>80</v>
+      </c>
+      <c r="H779" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I779">
+        <v>438</v>
+      </c>
+      <c r="J779" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>814</v>
+      </c>
+      <c r="B780" t="s">
+        <v>929</v>
+      </c>
+      <c r="C780" t="s">
+        <v>82</v>
+      </c>
+      <c r="D780" t="s">
+        <v>83</v>
+      </c>
+      <c r="E780" t="s">
+        <v>818</v>
+      </c>
+      <c r="F780" t="s">
+        <v>85</v>
+      </c>
+      <c r="G780" t="s">
+        <v>86</v>
+      </c>
+      <c r="H780" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I780">
+        <v>27</v>
+      </c>
+      <c r="J780" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>814</v>
+      </c>
+      <c r="B781" t="s">
+        <v>929</v>
+      </c>
+      <c r="C781" t="s">
+        <v>88</v>
+      </c>
+      <c r="D781" t="s">
+        <v>89</v>
+      </c>
+      <c r="E781" t="s">
+        <v>90</v>
+      </c>
+      <c r="F781" t="s">
+        <v>91</v>
+      </c>
+      <c r="G781" t="s">
+        <v>92</v>
+      </c>
+      <c r="H781" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I781">
+        <v>115</v>
+      </c>
+      <c r="J781" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>814</v>
+      </c>
+      <c r="B782" t="s">
+        <v>929</v>
+      </c>
+      <c r="C782" t="s">
+        <v>94</v>
+      </c>
+      <c r="D782" t="s">
+        <v>95</v>
+      </c>
+      <c r="E782" t="s">
+        <v>96</v>
+      </c>
+      <c r="F782" t="s">
+        <v>97</v>
+      </c>
+      <c r="G782" t="s">
+        <v>98</v>
+      </c>
+      <c r="H782" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I782">
+        <v>63</v>
+      </c>
+      <c r="J782" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>814</v>
+      </c>
+      <c r="B783" t="s">
+        <v>929</v>
+      </c>
+      <c r="C783" t="s">
+        <v>100</v>
+      </c>
+      <c r="D783" t="s">
+        <v>101</v>
+      </c>
+      <c r="E783" t="s">
+        <v>856</v>
+      </c>
+      <c r="F783" t="s">
+        <v>103</v>
+      </c>
+      <c r="G783" t="s">
+        <v>104</v>
+      </c>
+      <c r="H783" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I783">
+        <v>33</v>
+      </c>
+      <c r="J783" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>814</v>
+      </c>
+      <c r="B784" t="s">
+        <v>929</v>
+      </c>
+      <c r="C784" t="s">
+        <v>106</v>
+      </c>
+      <c r="D784" t="s">
+        <v>107</v>
+      </c>
+      <c r="E784" t="s">
+        <v>108</v>
+      </c>
+      <c r="F784" t="s">
+        <v>109</v>
+      </c>
+      <c r="G784" t="s">
+        <v>110</v>
+      </c>
+      <c r="H784" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I784">
+        <v>16</v>
+      </c>
+      <c r="J784" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>814</v>
+      </c>
+      <c r="B785" t="s">
+        <v>929</v>
+      </c>
+      <c r="C785" t="s">
+        <v>112</v>
+      </c>
+      <c r="D785" t="s">
+        <v>113</v>
+      </c>
+      <c r="E785" t="s">
+        <v>114</v>
+      </c>
+      <c r="F785" t="s">
+        <v>115</v>
+      </c>
+      <c r="G785" t="s">
+        <v>116</v>
+      </c>
+      <c r="H785" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I785">
+        <v>76</v>
+      </c>
+      <c r="J785" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>814</v>
+      </c>
+      <c r="B786" t="s">
+        <v>929</v>
+      </c>
+      <c r="C786" t="s">
+        <v>118</v>
+      </c>
+      <c r="D786" t="s">
+        <v>119</v>
+      </c>
+      <c r="E786" t="s">
+        <v>857</v>
+      </c>
+      <c r="F786" t="s">
+        <v>121</v>
+      </c>
+      <c r="G786" t="s">
+        <v>122</v>
+      </c>
+      <c r="H786" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I786">
+        <v>164</v>
+      </c>
+      <c r="J786" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>814</v>
+      </c>
+      <c r="B787" t="s">
+        <v>929</v>
+      </c>
+      <c r="C787" t="s">
+        <v>124</v>
+      </c>
+      <c r="D787" t="s">
+        <v>125</v>
+      </c>
+      <c r="E787" t="s">
+        <v>911</v>
+      </c>
+      <c r="F787" t="s">
+        <v>127</v>
+      </c>
+      <c r="G787" t="s">
+        <v>56</v>
+      </c>
+      <c r="H787" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I787">
+        <v>72</v>
+      </c>
+      <c r="J787" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>814</v>
+      </c>
+      <c r="B788" t="s">
+        <v>929</v>
+      </c>
+      <c r="C788" t="s">
+        <v>129</v>
+      </c>
+      <c r="D788" t="s">
+        <v>130</v>
+      </c>
+      <c r="E788" t="s">
+        <v>858</v>
+      </c>
+      <c r="H788" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I788">
+        <v>118</v>
+      </c>
+      <c r="J788" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>814</v>
+      </c>
+      <c r="B789" t="s">
+        <v>929</v>
+      </c>
+      <c r="C789" t="s">
+        <v>133</v>
+      </c>
+      <c r="D789" t="s">
+        <v>134</v>
+      </c>
+      <c r="E789" t="s">
+        <v>135</v>
+      </c>
+      <c r="F789" t="s">
+        <v>136</v>
+      </c>
+      <c r="G789" t="s">
+        <v>137</v>
+      </c>
+      <c r="H789" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I789">
+        <v>84</v>
+      </c>
+      <c r="J789" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>814</v>
+      </c>
+      <c r="B790" t="s">
+        <v>929</v>
+      </c>
+      <c r="C790" t="s">
+        <v>139</v>
+      </c>
+      <c r="D790" t="s">
+        <v>140</v>
+      </c>
+      <c r="E790" t="s">
+        <v>141</v>
+      </c>
+      <c r="H790" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I790">
+        <v>31</v>
+      </c>
+      <c r="J790" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>814</v>
+      </c>
+      <c r="B791" t="s">
+        <v>929</v>
+      </c>
+      <c r="C791" t="s">
+        <v>143</v>
+      </c>
+      <c r="D791" t="s">
+        <v>144</v>
+      </c>
+      <c r="E791" t="s">
+        <v>145</v>
+      </c>
+      <c r="H791" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I791">
+        <v>66</v>
+      </c>
+      <c r="J791" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>814</v>
+      </c>
+      <c r="B792" t="s">
+        <v>929</v>
+      </c>
+      <c r="C792" t="s">
+        <v>147</v>
+      </c>
+      <c r="D792" t="s">
+        <v>148</v>
+      </c>
+      <c r="E792" t="s">
+        <v>149</v>
+      </c>
+      <c r="F792" t="s">
+        <v>150</v>
+      </c>
+      <c r="G792" t="s">
+        <v>151</v>
+      </c>
+      <c r="H792" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I792">
+        <v>40</v>
+      </c>
+      <c r="J792" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>814</v>
+      </c>
+      <c r="B793" t="s">
+        <v>929</v>
+      </c>
+      <c r="C793" t="s">
+        <v>153</v>
+      </c>
+      <c r="D793" t="s">
+        <v>154</v>
+      </c>
+      <c r="E793" t="s">
+        <v>821</v>
+      </c>
+      <c r="F793" t="s">
+        <v>156</v>
+      </c>
+      <c r="G793" t="s">
+        <v>44</v>
+      </c>
+      <c r="H793" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I793">
+        <v>389</v>
+      </c>
+      <c r="J793" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>814</v>
+      </c>
+      <c r="B794" t="s">
+        <v>929</v>
+      </c>
+      <c r="C794" t="s">
+        <v>158</v>
+      </c>
+      <c r="D794" t="s">
+        <v>159</v>
+      </c>
+      <c r="E794" t="s">
+        <v>160</v>
+      </c>
+      <c r="H794" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I794">
+        <v>27</v>
+      </c>
+      <c r="J794" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>814</v>
+      </c>
+      <c r="B795" t="s">
+        <v>929</v>
+      </c>
+      <c r="C795" t="s">
+        <v>162</v>
+      </c>
+      <c r="D795" t="s">
+        <v>163</v>
+      </c>
+      <c r="E795" t="s">
+        <v>164</v>
+      </c>
+      <c r="H795" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I795">
+        <v>38</v>
+      </c>
+      <c r="J795" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>814</v>
+      </c>
+      <c r="B796" t="s">
+        <v>929</v>
+      </c>
+      <c r="C796" t="s">
+        <v>166</v>
+      </c>
+      <c r="D796" t="s">
+        <v>167</v>
+      </c>
+      <c r="E796" t="s">
+        <v>859</v>
+      </c>
+      <c r="F796" t="s">
+        <v>169</v>
+      </c>
+      <c r="H796" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I796">
+        <v>746</v>
+      </c>
+      <c r="J796" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>814</v>
+      </c>
+      <c r="B797" t="s">
+        <v>929</v>
+      </c>
+      <c r="C797" t="s">
+        <v>171</v>
+      </c>
+      <c r="D797" t="s">
+        <v>172</v>
+      </c>
+      <c r="E797" t="s">
+        <v>912</v>
+      </c>
+      <c r="F797" t="s">
+        <v>174</v>
+      </c>
+      <c r="G797" t="s">
+        <v>122</v>
+      </c>
+      <c r="H797" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I797">
+        <v>49</v>
+      </c>
+      <c r="J797" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>814</v>
+      </c>
+      <c r="B798" t="s">
+        <v>929</v>
+      </c>
+      <c r="C798" t="s">
+        <v>176</v>
+      </c>
+      <c r="D798" t="s">
+        <v>177</v>
+      </c>
+      <c r="E798" t="s">
+        <v>178</v>
+      </c>
+      <c r="F798" t="s">
+        <v>179</v>
+      </c>
+      <c r="G798" t="s">
+        <v>180</v>
+      </c>
+      <c r="H798" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I798">
+        <v>221</v>
+      </c>
+      <c r="J798" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>814</v>
+      </c>
+      <c r="B799" t="s">
+        <v>929</v>
+      </c>
+      <c r="C799" t="s">
+        <v>182</v>
+      </c>
+      <c r="D799" t="s">
+        <v>183</v>
+      </c>
+      <c r="E799" t="s">
+        <v>184</v>
+      </c>
+      <c r="F799" t="s">
+        <v>185</v>
+      </c>
+      <c r="G799" t="s">
+        <v>186</v>
+      </c>
+      <c r="H799" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I799">
+        <v>377</v>
+      </c>
+      <c r="J799" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>814</v>
+      </c>
+      <c r="B800" t="s">
+        <v>929</v>
+      </c>
+      <c r="C800" t="s">
+        <v>188</v>
+      </c>
+      <c r="D800" t="s">
+        <v>189</v>
+      </c>
+      <c r="E800" t="s">
+        <v>823</v>
+      </c>
+      <c r="F800" t="s">
+        <v>191</v>
+      </c>
+      <c r="G800" t="s">
+        <v>56</v>
+      </c>
+      <c r="H800" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I800">
+        <v>97</v>
+      </c>
+      <c r="J800" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>814</v>
+      </c>
+      <c r="B801" t="s">
+        <v>929</v>
+      </c>
+      <c r="C801" t="s">
+        <v>193</v>
+      </c>
+      <c r="D801" t="s">
+        <v>194</v>
+      </c>
+      <c r="E801" t="s">
+        <v>913</v>
+      </c>
+      <c r="F801" t="s">
+        <v>196</v>
+      </c>
+      <c r="G801" t="s">
+        <v>197</v>
+      </c>
+      <c r="H801" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I801">
+        <v>324</v>
+      </c>
+      <c r="J801" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>814</v>
+      </c>
+      <c r="B802" t="s">
+        <v>929</v>
+      </c>
+      <c r="C802" t="s">
+        <v>199</v>
+      </c>
+      <c r="D802" t="s">
+        <v>200</v>
+      </c>
+      <c r="E802" t="s">
+        <v>914</v>
+      </c>
+      <c r="F802" t="s">
+        <v>202</v>
+      </c>
+      <c r="G802" t="s">
+        <v>197</v>
+      </c>
+      <c r="H802" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I802">
+        <v>705</v>
+      </c>
+      <c r="J802" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>814</v>
+      </c>
+      <c r="B803" t="s">
+        <v>929</v>
+      </c>
+      <c r="C803" t="s">
+        <v>204</v>
+      </c>
+      <c r="D803" t="s">
+        <v>205</v>
+      </c>
+      <c r="E803" t="s">
+        <v>206</v>
+      </c>
+      <c r="F803" t="s">
+        <v>207</v>
+      </c>
+      <c r="G803" t="s">
+        <v>197</v>
+      </c>
+      <c r="H803" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I803">
+        <v>241</v>
+      </c>
+      <c r="J803" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>814</v>
+      </c>
+      <c r="B804" t="s">
+        <v>929</v>
+      </c>
+      <c r="C804" t="s">
+        <v>209</v>
+      </c>
+      <c r="D804" t="s">
+        <v>210</v>
+      </c>
+      <c r="E804" t="s">
+        <v>211</v>
+      </c>
+      <c r="H804" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I804">
+        <v>71</v>
+      </c>
+      <c r="J804" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>814</v>
+      </c>
+      <c r="B805" t="s">
+        <v>929</v>
+      </c>
+      <c r="C805" t="s">
+        <v>213</v>
+      </c>
+      <c r="D805" t="s">
+        <v>214</v>
+      </c>
+      <c r="E805" t="s">
+        <v>863</v>
+      </c>
+      <c r="F805" t="s">
+        <v>216</v>
+      </c>
+      <c r="G805" t="s">
+        <v>44</v>
+      </c>
+      <c r="H805" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I805">
+        <v>174</v>
+      </c>
+      <c r="J805" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>814</v>
+      </c>
+      <c r="B806" t="s">
+        <v>929</v>
+      </c>
+      <c r="C806" t="s">
+        <v>218</v>
+      </c>
+      <c r="D806" t="s">
+        <v>219</v>
+      </c>
+      <c r="E806" t="s">
+        <v>220</v>
+      </c>
+      <c r="G806" t="s">
+        <v>137</v>
+      </c>
+      <c r="H806" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I806">
+        <v>21</v>
+      </c>
+      <c r="J806" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>814</v>
+      </c>
+      <c r="B807" t="s">
+        <v>929</v>
+      </c>
+      <c r="C807" t="s">
+        <v>222</v>
+      </c>
+      <c r="D807" t="s">
+        <v>223</v>
+      </c>
+      <c r="E807" t="s">
+        <v>224</v>
+      </c>
+      <c r="F807" t="s">
+        <v>225</v>
+      </c>
+      <c r="G807" t="s">
+        <v>226</v>
+      </c>
+      <c r="H807" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I807">
+        <v>192</v>
+      </c>
+      <c r="J807" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>814</v>
+      </c>
+      <c r="B808" t="s">
+        <v>929</v>
+      </c>
+      <c r="C808" t="s">
+        <v>228</v>
+      </c>
+      <c r="D808" t="s">
+        <v>229</v>
+      </c>
+      <c r="E808" t="s">
+        <v>915</v>
+      </c>
+      <c r="F808" t="s">
+        <v>231</v>
+      </c>
+      <c r="G808" t="s">
+        <v>56</v>
+      </c>
+      <c r="H808" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I808">
+        <v>114</v>
+      </c>
+      <c r="J808" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>814</v>
+      </c>
+      <c r="B809" t="s">
+        <v>929</v>
+      </c>
+      <c r="C809" t="s">
+        <v>233</v>
+      </c>
+      <c r="D809" t="s">
+        <v>234</v>
+      </c>
+      <c r="E809" t="s">
+        <v>235</v>
+      </c>
+      <c r="F809" t="s">
+        <v>236</v>
+      </c>
+      <c r="G809" t="s">
+        <v>237</v>
+      </c>
+      <c r="H809" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I809">
+        <v>40</v>
+      </c>
+      <c r="J809" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>814</v>
+      </c>
+      <c r="B810" t="s">
+        <v>929</v>
+      </c>
+      <c r="C810" t="s">
+        <v>239</v>
+      </c>
+      <c r="D810" t="s">
+        <v>240</v>
+      </c>
+      <c r="E810" t="s">
+        <v>241</v>
+      </c>
+      <c r="H810" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I810">
+        <v>34</v>
+      </c>
+      <c r="J810" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>814</v>
+      </c>
+      <c r="B811" t="s">
+        <v>929</v>
+      </c>
+      <c r="C811" t="s">
+        <v>243</v>
+      </c>
+      <c r="D811" t="s">
+        <v>244</v>
+      </c>
+      <c r="E811" t="s">
+        <v>916</v>
+      </c>
+      <c r="F811" t="s">
+        <v>246</v>
+      </c>
+      <c r="G811" t="s">
+        <v>247</v>
+      </c>
+      <c r="H811" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I811">
+        <v>412</v>
+      </c>
+      <c r="J811" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>814</v>
+      </c>
+      <c r="B812" t="s">
+        <v>929</v>
+      </c>
+      <c r="C812" t="s">
+        <v>249</v>
+      </c>
+      <c r="D812" t="s">
+        <v>250</v>
+      </c>
+      <c r="E812" t="s">
+        <v>825</v>
+      </c>
+      <c r="F812" t="s">
+        <v>252</v>
+      </c>
+      <c r="G812" t="s">
+        <v>253</v>
+      </c>
+      <c r="H812" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I812">
+        <v>117</v>
+      </c>
+      <c r="J812" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>814</v>
+      </c>
+      <c r="B813" t="s">
+        <v>929</v>
+      </c>
+      <c r="C813" t="s">
+        <v>255</v>
+      </c>
+      <c r="D813" t="s">
+        <v>256</v>
+      </c>
+      <c r="E813" t="s">
+        <v>826</v>
+      </c>
+      <c r="H813" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I813">
+        <v>43</v>
+      </c>
+      <c r="J813" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>814</v>
+      </c>
+      <c r="B814" t="s">
+        <v>929</v>
+      </c>
+      <c r="C814" t="s">
+        <v>259</v>
+      </c>
+      <c r="D814" t="s">
+        <v>260</v>
+      </c>
+      <c r="E814" t="s">
+        <v>261</v>
+      </c>
+      <c r="F814" t="s">
+        <v>262</v>
+      </c>
+      <c r="H814" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I814">
+        <v>12</v>
+      </c>
+      <c r="J814" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+      <c r="B815" t="s">
+        <v>929</v>
+      </c>
+      <c r="C815" t="s">
+        <v>264</v>
+      </c>
+      <c r="D815" t="s">
+        <v>265</v>
+      </c>
+      <c r="E815" t="s">
+        <v>865</v>
+      </c>
+      <c r="F815" t="s">
+        <v>267</v>
+      </c>
+      <c r="H815" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I815">
+        <v>652</v>
+      </c>
+      <c r="J815" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>814</v>
+      </c>
+      <c r="B816" t="s">
+        <v>929</v>
+      </c>
+      <c r="C816" t="s">
+        <v>269</v>
+      </c>
+      <c r="D816" t="s">
+        <v>270</v>
+      </c>
+      <c r="E816" t="s">
+        <v>917</v>
+      </c>
+      <c r="F816" t="s">
+        <v>272</v>
+      </c>
+      <c r="G816" t="s">
+        <v>273</v>
+      </c>
+      <c r="H816" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I816">
+        <v>74</v>
+      </c>
+      <c r="J816" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>814</v>
+      </c>
+      <c r="B817" t="s">
+        <v>929</v>
+      </c>
+      <c r="C817" t="s">
+        <v>275</v>
+      </c>
+      <c r="D817" t="s">
+        <v>276</v>
+      </c>
+      <c r="E817" t="s">
+        <v>277</v>
+      </c>
+      <c r="F817" t="s">
+        <v>278</v>
+      </c>
+      <c r="G817" t="s">
+        <v>186</v>
+      </c>
+      <c r="H817" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I817">
+        <v>579</v>
+      </c>
+      <c r="J817" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>814</v>
+      </c>
+      <c r="B818" t="s">
+        <v>929</v>
+      </c>
+      <c r="C818" t="s">
+        <v>280</v>
+      </c>
+      <c r="D818" t="s">
+        <v>281</v>
+      </c>
+      <c r="E818" t="s">
+        <v>866</v>
+      </c>
+      <c r="F818" t="s">
+        <v>283</v>
+      </c>
+      <c r="G818" t="s">
+        <v>284</v>
+      </c>
+      <c r="H818" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I818">
+        <v>1376</v>
+      </c>
+      <c r="J818" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>814</v>
+      </c>
+      <c r="B819" t="s">
+        <v>929</v>
+      </c>
+      <c r="C819" t="s">
+        <v>286</v>
+      </c>
+      <c r="D819" t="s">
+        <v>287</v>
+      </c>
+      <c r="E819" t="s">
+        <v>918</v>
+      </c>
+      <c r="F819" t="s">
+        <v>289</v>
+      </c>
+      <c r="G819" t="s">
+        <v>104</v>
+      </c>
+      <c r="H819" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I819">
+        <v>212</v>
+      </c>
+      <c r="J819" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>814</v>
+      </c>
+      <c r="B820" t="s">
+        <v>929</v>
+      </c>
+      <c r="C820" t="s">
+        <v>291</v>
+      </c>
+      <c r="D820" t="s">
+        <v>292</v>
+      </c>
+      <c r="E820" t="s">
+        <v>293</v>
+      </c>
+      <c r="F820" t="s">
+        <v>294</v>
+      </c>
+      <c r="G820" t="s">
+        <v>273</v>
+      </c>
+      <c r="H820" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I820">
+        <v>55</v>
+      </c>
+      <c r="J820" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>814</v>
+      </c>
+      <c r="B821" t="s">
+        <v>929</v>
+      </c>
+      <c r="C821" t="s">
+        <v>296</v>
+      </c>
+      <c r="D821" t="s">
+        <v>297</v>
+      </c>
+      <c r="E821" t="s">
+        <v>867</v>
+      </c>
+      <c r="G821" t="s">
+        <v>299</v>
+      </c>
+      <c r="H821" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I821">
+        <v>150</v>
+      </c>
+      <c r="J821" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>814</v>
+      </c>
+      <c r="B822" t="s">
+        <v>929</v>
+      </c>
+      <c r="C822" t="s">
+        <v>301</v>
+      </c>
+      <c r="D822" t="s">
+        <v>302</v>
+      </c>
+      <c r="E822" t="s">
+        <v>303</v>
+      </c>
+      <c r="F822" t="s">
+        <v>304</v>
+      </c>
+      <c r="H822" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I822">
+        <v>52</v>
+      </c>
+      <c r="J822" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>814</v>
+      </c>
+      <c r="B823" t="s">
+        <v>929</v>
+      </c>
+      <c r="C823" t="s">
+        <v>306</v>
+      </c>
+      <c r="D823" t="s">
+        <v>307</v>
+      </c>
+      <c r="E823" t="s">
+        <v>308</v>
+      </c>
+      <c r="F823" t="s">
+        <v>309</v>
+      </c>
+      <c r="G823" t="s">
+        <v>310</v>
+      </c>
+      <c r="H823" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I823">
+        <v>398</v>
+      </c>
+      <c r="J823" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>814</v>
+      </c>
+      <c r="B824" t="s">
+        <v>929</v>
+      </c>
+      <c r="C824" t="s">
+        <v>312</v>
+      </c>
+      <c r="D824" t="s">
+        <v>313</v>
+      </c>
+      <c r="E824" t="s">
+        <v>868</v>
+      </c>
+      <c r="H824" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I824">
+        <v>62</v>
+      </c>
+      <c r="J824" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>814</v>
+      </c>
+      <c r="B825" t="s">
+        <v>929</v>
+      </c>
+      <c r="C825" t="s">
+        <v>316</v>
+      </c>
+      <c r="D825" t="s">
+        <v>317</v>
+      </c>
+      <c r="E825" t="s">
+        <v>318</v>
+      </c>
+      <c r="F825" t="s">
+        <v>319</v>
+      </c>
+      <c r="H825" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I825">
+        <v>34</v>
+      </c>
+      <c r="J825" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>814</v>
+      </c>
+      <c r="B826" t="s">
+        <v>929</v>
+      </c>
+      <c r="C826" t="s">
+        <v>321</v>
+      </c>
+      <c r="D826" t="s">
+        <v>322</v>
+      </c>
+      <c r="E826" t="s">
+        <v>869</v>
+      </c>
+      <c r="G826" t="s">
+        <v>324</v>
+      </c>
+      <c r="H826" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I826">
+        <v>80</v>
+      </c>
+      <c r="J826" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>814</v>
+      </c>
+      <c r="B827" t="s">
+        <v>929</v>
+      </c>
+      <c r="C827" t="s">
+        <v>326</v>
+      </c>
+      <c r="D827" t="s">
+        <v>327</v>
+      </c>
+      <c r="E827" t="s">
+        <v>919</v>
+      </c>
+      <c r="F827" t="s">
+        <v>329</v>
+      </c>
+      <c r="G827" t="s">
+        <v>44</v>
+      </c>
+      <c r="H827" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I827">
+        <v>58</v>
+      </c>
+      <c r="J827" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>814</v>
+      </c>
+      <c r="B828" t="s">
+        <v>929</v>
+      </c>
+      <c r="C828" t="s">
+        <v>331</v>
+      </c>
+      <c r="D828" t="s">
+        <v>332</v>
+      </c>
+      <c r="E828" t="s">
+        <v>333</v>
+      </c>
+      <c r="F828" t="s">
+        <v>334</v>
+      </c>
+      <c r="G828" t="s">
+        <v>273</v>
+      </c>
+      <c r="H828" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I828">
+        <v>38</v>
+      </c>
+      <c r="J828" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>814</v>
+      </c>
+      <c r="B829" t="s">
+        <v>929</v>
+      </c>
+      <c r="C829" t="s">
+        <v>336</v>
+      </c>
+      <c r="D829" t="s">
+        <v>337</v>
+      </c>
+      <c r="E829" t="s">
+        <v>338</v>
+      </c>
+      <c r="F829" t="s">
+        <v>339</v>
+      </c>
+      <c r="G829" t="s">
+        <v>340</v>
+      </c>
+      <c r="H829" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I829">
+        <v>72</v>
+      </c>
+      <c r="J829" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>814</v>
+      </c>
+      <c r="B830" t="s">
+        <v>929</v>
+      </c>
+      <c r="C830" t="s">
+        <v>342</v>
+      </c>
+      <c r="D830" t="s">
+        <v>343</v>
+      </c>
+      <c r="E830" t="s">
+        <v>344</v>
+      </c>
+      <c r="F830" t="s">
+        <v>345</v>
+      </c>
+      <c r="G830" t="s">
+        <v>346</v>
+      </c>
+      <c r="H830" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I830">
+        <v>101</v>
+      </c>
+      <c r="J830" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>814</v>
+      </c>
+      <c r="B831" t="s">
+        <v>929</v>
+      </c>
+      <c r="C831" t="s">
+        <v>348</v>
+      </c>
+      <c r="D831" t="s">
+        <v>349</v>
+      </c>
+      <c r="E831" t="s">
+        <v>920</v>
+      </c>
+      <c r="H831" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I831">
+        <v>66</v>
+      </c>
+      <c r="J831" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>814</v>
+      </c>
+      <c r="B832" t="s">
+        <v>929</v>
+      </c>
+      <c r="C832" t="s">
+        <v>352</v>
+      </c>
+      <c r="D832" t="s">
+        <v>353</v>
+      </c>
+      <c r="E832" t="s">
+        <v>872</v>
+      </c>
+      <c r="F832" t="s">
+        <v>355</v>
+      </c>
+      <c r="G832" t="s">
+        <v>356</v>
+      </c>
+      <c r="H832" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I832">
+        <v>122</v>
+      </c>
+      <c r="J832" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>814</v>
+      </c>
+      <c r="B833" t="s">
+        <v>929</v>
+      </c>
+      <c r="C833" t="s">
+        <v>358</v>
+      </c>
+      <c r="D833" t="s">
+        <v>359</v>
+      </c>
+      <c r="E833" t="s">
+        <v>873</v>
+      </c>
+      <c r="H833" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I833">
+        <v>124</v>
+      </c>
+      <c r="J833" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>814</v>
+      </c>
+      <c r="B834" t="s">
+        <v>929</v>
+      </c>
+      <c r="C834" t="s">
+        <v>362</v>
+      </c>
+      <c r="D834" t="s">
+        <v>363</v>
+      </c>
+      <c r="E834" t="s">
+        <v>364</v>
+      </c>
+      <c r="F834" t="s">
+        <v>365</v>
+      </c>
+      <c r="G834" t="s">
+        <v>366</v>
+      </c>
+      <c r="H834" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I834">
+        <v>133</v>
+      </c>
+      <c r="J834" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>814</v>
+      </c>
+      <c r="B835" t="s">
+        <v>929</v>
+      </c>
+      <c r="C835" t="s">
+        <v>368</v>
+      </c>
+      <c r="D835" t="s">
+        <v>369</v>
+      </c>
+      <c r="E835" t="s">
+        <v>921</v>
+      </c>
+      <c r="F835" t="s">
+        <v>371</v>
+      </c>
+      <c r="G835" t="s">
+        <v>372</v>
+      </c>
+      <c r="H835" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I835">
+        <v>167</v>
+      </c>
+      <c r="J835" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>814</v>
+      </c>
+      <c r="B836" t="s">
+        <v>929</v>
+      </c>
+      <c r="C836" t="s">
+        <v>374</v>
+      </c>
+      <c r="D836" t="s">
+        <v>375</v>
+      </c>
+      <c r="E836" t="s">
+        <v>875</v>
+      </c>
+      <c r="F836" t="s">
+        <v>377</v>
+      </c>
+      <c r="G836" t="s">
+        <v>44</v>
+      </c>
+      <c r="H836" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I836">
+        <v>779</v>
+      </c>
+      <c r="J836" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>814</v>
+      </c>
+      <c r="B837" t="s">
+        <v>929</v>
+      </c>
+      <c r="C837" t="s">
+        <v>379</v>
+      </c>
+      <c r="D837" t="s">
+        <v>380</v>
+      </c>
+      <c r="E837" t="s">
+        <v>876</v>
+      </c>
+      <c r="H837" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I837">
+        <v>51</v>
+      </c>
+      <c r="J837" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>814</v>
+      </c>
+      <c r="B838" t="s">
+        <v>929</v>
+      </c>
+      <c r="C838" t="s">
+        <v>383</v>
+      </c>
+      <c r="D838" t="s">
+        <v>384</v>
+      </c>
+      <c r="E838" t="s">
+        <v>832</v>
+      </c>
+      <c r="F838" t="s">
+        <v>386</v>
+      </c>
+      <c r="G838" t="s">
+        <v>122</v>
+      </c>
+      <c r="H838" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I838">
+        <v>158</v>
+      </c>
+      <c r="J838" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>814</v>
+      </c>
+      <c r="B839" t="s">
+        <v>929</v>
+      </c>
+      <c r="C839" t="s">
+        <v>388</v>
+      </c>
+      <c r="D839" t="s">
+        <v>389</v>
+      </c>
+      <c r="E839" t="s">
+        <v>833</v>
+      </c>
+      <c r="F839" t="s">
+        <v>391</v>
+      </c>
+      <c r="G839" t="s">
+        <v>122</v>
+      </c>
+      <c r="H839" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I839">
+        <v>464</v>
+      </c>
+      <c r="J839" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>814</v>
+      </c>
+      <c r="B840" t="s">
+        <v>929</v>
+      </c>
+      <c r="C840" t="s">
+        <v>393</v>
+      </c>
+      <c r="D840" t="s">
+        <v>394</v>
+      </c>
+      <c r="E840" t="s">
+        <v>877</v>
+      </c>
+      <c r="F840" t="s">
+        <v>396</v>
+      </c>
+      <c r="G840" t="s">
+        <v>122</v>
+      </c>
+      <c r="H840" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I840">
+        <v>94</v>
+      </c>
+      <c r="J840" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>814</v>
+      </c>
+      <c r="B841" t="s">
+        <v>929</v>
+      </c>
+      <c r="C841" t="s">
+        <v>398</v>
+      </c>
+      <c r="D841" t="s">
+        <v>399</v>
+      </c>
+      <c r="E841" t="s">
+        <v>400</v>
+      </c>
+      <c r="F841" t="s">
+        <v>401</v>
+      </c>
+      <c r="H841" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I841">
+        <v>507</v>
+      </c>
+      <c r="J841" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>814</v>
+      </c>
+      <c r="B842" t="s">
+        <v>929</v>
+      </c>
+      <c r="C842" t="s">
+        <v>403</v>
+      </c>
+      <c r="D842" t="s">
+        <v>404</v>
+      </c>
+      <c r="E842" t="s">
+        <v>878</v>
+      </c>
+      <c r="F842" t="s">
+        <v>406</v>
+      </c>
+      <c r="G842" t="s">
+        <v>407</v>
+      </c>
+      <c r="H842" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I842">
+        <v>375</v>
+      </c>
+      <c r="J842" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>814</v>
+      </c>
+      <c r="B843" t="s">
+        <v>929</v>
+      </c>
+      <c r="C843" t="s">
+        <v>409</v>
+      </c>
+      <c r="D843" t="s">
+        <v>410</v>
+      </c>
+      <c r="E843" t="s">
+        <v>879</v>
+      </c>
+      <c r="F843" t="s">
+        <v>412</v>
+      </c>
+      <c r="G843" t="s">
+        <v>413</v>
+      </c>
+      <c r="H843" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I843">
+        <v>382</v>
+      </c>
+      <c r="J843" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>814</v>
+      </c>
+      <c r="B844" t="s">
+        <v>929</v>
+      </c>
+      <c r="C844" t="s">
+        <v>415</v>
+      </c>
+      <c r="D844" t="s">
+        <v>416</v>
+      </c>
+      <c r="E844" t="s">
+        <v>417</v>
+      </c>
+      <c r="H844" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I844">
+        <v>104</v>
+      </c>
+      <c r="J844" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>814</v>
+      </c>
+      <c r="B845" t="s">
+        <v>929</v>
+      </c>
+      <c r="C845" t="s">
+        <v>419</v>
+      </c>
+      <c r="D845" t="s">
+        <v>420</v>
+      </c>
+      <c r="E845" t="s">
+        <v>421</v>
+      </c>
+      <c r="F845" t="s">
+        <v>422</v>
+      </c>
+      <c r="H845" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I845">
+        <v>44</v>
+      </c>
+      <c r="J845" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>814</v>
+      </c>
+      <c r="B846" t="s">
+        <v>929</v>
+      </c>
+      <c r="C846" t="s">
+        <v>424</v>
+      </c>
+      <c r="D846" t="s">
+        <v>425</v>
+      </c>
+      <c r="E846" t="s">
+        <v>426</v>
+      </c>
+      <c r="F846" t="s">
+        <v>427</v>
+      </c>
+      <c r="G846" t="s">
+        <v>372</v>
+      </c>
+      <c r="H846" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I846">
+        <v>23</v>
+      </c>
+      <c r="J846" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>814</v>
+      </c>
+      <c r="B847" t="s">
+        <v>929</v>
+      </c>
+      <c r="C847" t="s">
+        <v>429</v>
+      </c>
+      <c r="D847" t="s">
+        <v>430</v>
+      </c>
+      <c r="E847" t="s">
+        <v>922</v>
+      </c>
+      <c r="F847" t="s">
+        <v>432</v>
+      </c>
+      <c r="H847" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I847">
+        <v>411</v>
+      </c>
+      <c r="J847" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>814</v>
+      </c>
+      <c r="B848" t="s">
+        <v>929</v>
+      </c>
+      <c r="C848" t="s">
+        <v>434</v>
+      </c>
+      <c r="D848" t="s">
+        <v>435</v>
+      </c>
+      <c r="E848" t="s">
+        <v>834</v>
+      </c>
+      <c r="H848" s="1">
+        <v>169</v>
+      </c>
+      <c r="I848">
+        <v>519</v>
+      </c>
+      <c r="J848" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>814</v>
+      </c>
+      <c r="B849" t="s">
+        <v>929</v>
+      </c>
+      <c r="C849" t="s">
+        <v>438</v>
+      </c>
+      <c r="D849" t="s">
+        <v>439</v>
+      </c>
+      <c r="E849" t="s">
+        <v>440</v>
+      </c>
+      <c r="G849" t="s">
+        <v>441</v>
+      </c>
+      <c r="H849" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J849" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>814</v>
+      </c>
+      <c r="B850" t="s">
+        <v>929</v>
+      </c>
+      <c r="C850" t="s">
+        <v>443</v>
+      </c>
+      <c r="D850" t="s">
+        <v>444</v>
+      </c>
+      <c r="E850" t="s">
+        <v>923</v>
+      </c>
+      <c r="G850" t="s">
+        <v>299</v>
+      </c>
+      <c r="H850" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I850">
+        <v>25</v>
+      </c>
+      <c r="J850" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>814</v>
+      </c>
+      <c r="B851" t="s">
+        <v>929</v>
+      </c>
+      <c r="C851" t="s">
+        <v>447</v>
+      </c>
+      <c r="D851" t="s">
+        <v>448</v>
+      </c>
+      <c r="E851" t="s">
+        <v>881</v>
+      </c>
+      <c r="F851" t="s">
+        <v>450</v>
+      </c>
+      <c r="G851" t="s">
+        <v>92</v>
+      </c>
+      <c r="H851" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I851">
+        <v>292</v>
+      </c>
+      <c r="J851" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>814</v>
+      </c>
+      <c r="B852" t="s">
+        <v>929</v>
+      </c>
+      <c r="C852" t="s">
+        <v>452</v>
+      </c>
+      <c r="D852" t="s">
+        <v>453</v>
+      </c>
+      <c r="E852" t="s">
+        <v>924</v>
+      </c>
+      <c r="F852" t="s">
+        <v>455</v>
+      </c>
+      <c r="G852" t="s">
+        <v>50</v>
+      </c>
+      <c r="H852" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I852">
+        <v>1401</v>
+      </c>
+      <c r="J852" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>814</v>
+      </c>
+      <c r="B853" t="s">
+        <v>929</v>
+      </c>
+      <c r="C853" t="s">
+        <v>457</v>
+      </c>
+      <c r="D853" t="s">
+        <v>458</v>
+      </c>
+      <c r="E853" t="s">
+        <v>459</v>
+      </c>
+      <c r="G853" t="s">
+        <v>56</v>
+      </c>
+      <c r="H853" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I853">
+        <v>101</v>
+      </c>
+      <c r="J853" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>814</v>
+      </c>
+      <c r="B854" t="s">
+        <v>929</v>
+      </c>
+      <c r="C854" t="s">
+        <v>461</v>
+      </c>
+      <c r="D854" t="s">
+        <v>462</v>
+      </c>
+      <c r="E854" t="s">
+        <v>463</v>
+      </c>
+      <c r="F854" t="s">
+        <v>464</v>
+      </c>
+      <c r="G854" t="s">
+        <v>56</v>
+      </c>
+      <c r="H854" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I854">
+        <v>135</v>
+      </c>
+      <c r="J854" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>814</v>
+      </c>
+      <c r="B855" t="s">
+        <v>929</v>
+      </c>
+      <c r="C855" t="s">
+        <v>466</v>
+      </c>
+      <c r="D855" t="s">
+        <v>467</v>
+      </c>
+      <c r="E855" t="s">
+        <v>883</v>
+      </c>
+      <c r="F855" t="s">
+        <v>469</v>
+      </c>
+      <c r="H855" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I855">
+        <v>204</v>
+      </c>
+      <c r="J855" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>814</v>
+      </c>
+      <c r="B856" t="s">
+        <v>929</v>
+      </c>
+      <c r="C856" t="s">
+        <v>471</v>
+      </c>
+      <c r="D856" t="s">
+        <v>472</v>
+      </c>
+      <c r="E856" t="s">
+        <v>473</v>
+      </c>
+      <c r="F856" t="s">
+        <v>474</v>
+      </c>
+      <c r="G856" t="s">
+        <v>56</v>
+      </c>
+      <c r="H856" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I856">
+        <v>29</v>
+      </c>
+      <c r="J856" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>814</v>
+      </c>
+      <c r="B857" t="s">
+        <v>929</v>
+      </c>
+      <c r="C857" t="s">
+        <v>476</v>
+      </c>
+      <c r="D857" t="s">
+        <v>477</v>
+      </c>
+      <c r="E857" t="s">
+        <v>884</v>
+      </c>
+      <c r="F857" t="s">
+        <v>479</v>
+      </c>
+      <c r="G857" t="s">
+        <v>122</v>
+      </c>
+      <c r="H857" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I857">
+        <v>71</v>
+      </c>
+      <c r="J857" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>814</v>
+      </c>
+      <c r="B858" t="s">
+        <v>929</v>
+      </c>
+      <c r="C858" t="s">
+        <v>481</v>
+      </c>
+      <c r="D858" t="s">
+        <v>482</v>
+      </c>
+      <c r="E858" t="s">
+        <v>885</v>
+      </c>
+      <c r="F858" t="s">
+        <v>484</v>
+      </c>
+      <c r="G858" t="s">
+        <v>485</v>
+      </c>
+      <c r="H858" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I858">
+        <v>26</v>
+      </c>
+      <c r="J858" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>814</v>
+      </c>
+      <c r="B859" t="s">
+        <v>929</v>
+      </c>
+      <c r="C859" t="s">
+        <v>487</v>
+      </c>
+      <c r="D859" t="s">
+        <v>488</v>
+      </c>
+      <c r="E859" t="s">
+        <v>836</v>
+      </c>
+      <c r="F859" t="s">
+        <v>490</v>
+      </c>
+      <c r="G859" t="s">
+        <v>56</v>
+      </c>
+      <c r="H859" s="1">
+        <v>6</v>
+      </c>
+      <c r="I859">
+        <v>28</v>
+      </c>
+      <c r="J859" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>814</v>
+      </c>
+      <c r="B860" t="s">
+        <v>929</v>
+      </c>
+      <c r="C860" t="s">
+        <v>492</v>
+      </c>
+      <c r="D860" t="s">
+        <v>493</v>
+      </c>
+      <c r="E860" t="s">
+        <v>886</v>
+      </c>
+      <c r="F860" t="s">
+        <v>495</v>
+      </c>
+      <c r="G860" t="s">
+        <v>122</v>
+      </c>
+      <c r="H860" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I860">
+        <v>203</v>
+      </c>
+      <c r="J860" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>814</v>
+      </c>
+      <c r="B861" t="s">
+        <v>929</v>
+      </c>
+      <c r="C861" t="s">
+        <v>497</v>
+      </c>
+      <c r="D861" t="s">
+        <v>498</v>
+      </c>
+      <c r="E861" t="s">
+        <v>499</v>
+      </c>
+      <c r="F861" t="s">
+        <v>500</v>
+      </c>
+      <c r="H861" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I861">
+        <v>18</v>
+      </c>
+      <c r="J861" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>814</v>
+      </c>
+      <c r="B862" t="s">
+        <v>929</v>
+      </c>
+      <c r="C862" t="s">
+        <v>502</v>
+      </c>
+      <c r="D862" t="s">
+        <v>503</v>
+      </c>
+      <c r="E862" t="s">
+        <v>504</v>
+      </c>
+      <c r="F862" t="s">
+        <v>505</v>
+      </c>
+      <c r="H862" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I862">
+        <v>403</v>
+      </c>
+      <c r="J862" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>814</v>
+      </c>
+      <c r="B863" t="s">
+        <v>929</v>
+      </c>
+      <c r="C863" t="s">
+        <v>507</v>
+      </c>
+      <c r="D863" t="s">
+        <v>508</v>
+      </c>
+      <c r="E863" t="s">
+        <v>887</v>
+      </c>
+      <c r="F863" t="s">
+        <v>510</v>
+      </c>
+      <c r="G863" t="s">
+        <v>372</v>
+      </c>
+      <c r="H863" s="1">
+        <v>203</v>
+      </c>
+      <c r="I863">
+        <v>187</v>
+      </c>
+      <c r="J863" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>814</v>
+      </c>
+      <c r="B864" t="s">
+        <v>929</v>
+      </c>
+      <c r="C864" t="s">
+        <v>512</v>
+      </c>
+      <c r="D864" t="s">
+        <v>513</v>
+      </c>
+      <c r="E864" t="s">
+        <v>514</v>
+      </c>
+      <c r="F864" t="s">
+        <v>515</v>
+      </c>
+      <c r="G864" t="s">
+        <v>197</v>
+      </c>
+      <c r="H864" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I864">
+        <v>99</v>
+      </c>
+      <c r="J864" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>814</v>
+      </c>
+      <c r="B865" t="s">
+        <v>929</v>
+      </c>
+      <c r="C865" t="s">
+        <v>517</v>
+      </c>
+      <c r="D865" t="s">
+        <v>518</v>
+      </c>
+      <c r="E865" t="s">
+        <v>838</v>
+      </c>
+      <c r="F865" t="s">
+        <v>520</v>
+      </c>
+      <c r="G865" t="s">
+        <v>197</v>
+      </c>
+      <c r="H865" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I865">
+        <v>383</v>
+      </c>
+      <c r="J865" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>814</v>
+      </c>
+      <c r="B866" t="s">
+        <v>929</v>
+      </c>
+      <c r="C866" t="s">
+        <v>522</v>
+      </c>
+      <c r="D866" t="s">
+        <v>523</v>
+      </c>
+      <c r="E866" t="s">
+        <v>888</v>
+      </c>
+      <c r="F866" t="s">
+        <v>525</v>
+      </c>
+      <c r="G866" t="s">
+        <v>197</v>
+      </c>
+      <c r="H866" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I866">
+        <v>1034</v>
+      </c>
+      <c r="J866" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>814</v>
+      </c>
+      <c r="B867" t="s">
+        <v>929</v>
+      </c>
+      <c r="C867" t="s">
+        <v>527</v>
+      </c>
+      <c r="D867" t="s">
+        <v>528</v>
+      </c>
+      <c r="E867" t="s">
+        <v>529</v>
+      </c>
+      <c r="F867" t="s">
+        <v>530</v>
+      </c>
+      <c r="G867" t="s">
+        <v>197</v>
+      </c>
+      <c r="H867" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I867">
+        <v>304</v>
+      </c>
+      <c r="J867" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>814</v>
+      </c>
+      <c r="B868" t="s">
+        <v>929</v>
+      </c>
+      <c r="C868" t="s">
+        <v>532</v>
+      </c>
+      <c r="D868" t="s">
+        <v>533</v>
+      </c>
+      <c r="E868" t="s">
+        <v>925</v>
+      </c>
+      <c r="F868" t="s">
+        <v>535</v>
+      </c>
+      <c r="G868" t="s">
+        <v>485</v>
+      </c>
+      <c r="H868" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I868">
+        <v>1158</v>
+      </c>
+      <c r="J868" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>814</v>
+      </c>
+      <c r="B869" t="s">
+        <v>929</v>
+      </c>
+      <c r="C869" t="s">
+        <v>537</v>
+      </c>
+      <c r="D869" t="s">
+        <v>538</v>
+      </c>
+      <c r="E869" t="s">
+        <v>539</v>
+      </c>
+      <c r="G869" t="s">
+        <v>540</v>
+      </c>
+      <c r="H869" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I869">
+        <v>156</v>
+      </c>
+      <c r="J869" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>814</v>
+      </c>
+      <c r="B870" t="s">
+        <v>929</v>
+      </c>
+      <c r="C870" t="s">
+        <v>542</v>
+      </c>
+      <c r="D870" t="s">
+        <v>543</v>
+      </c>
+      <c r="E870" t="s">
+        <v>544</v>
+      </c>
+      <c r="F870" t="s">
+        <v>545</v>
+      </c>
+      <c r="G870" t="s">
+        <v>546</v>
+      </c>
+      <c r="H870" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I870">
+        <v>31</v>
+      </c>
+      <c r="J870" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>814</v>
+      </c>
+      <c r="B871" t="s">
+        <v>929</v>
+      </c>
+      <c r="C871" t="s">
+        <v>548</v>
+      </c>
+      <c r="D871" t="s">
+        <v>549</v>
+      </c>
+      <c r="E871" t="s">
+        <v>550</v>
+      </c>
+      <c r="F871" t="s">
+        <v>551</v>
+      </c>
+      <c r="G871" t="s">
+        <v>552</v>
+      </c>
+      <c r="H871" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I871">
+        <v>471</v>
+      </c>
+      <c r="J871" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>814</v>
+      </c>
+      <c r="B872" t="s">
+        <v>929</v>
+      </c>
+      <c r="C872" t="s">
+        <v>554</v>
+      </c>
+      <c r="D872" t="s">
+        <v>555</v>
+      </c>
+      <c r="E872" t="s">
+        <v>556</v>
+      </c>
+      <c r="F872" t="s">
+        <v>557</v>
+      </c>
+      <c r="H872" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I872">
+        <v>37</v>
+      </c>
+      <c r="J872" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>814</v>
+      </c>
+      <c r="B873" t="s">
+        <v>929</v>
+      </c>
+      <c r="C873" t="s">
+        <v>559</v>
+      </c>
+      <c r="D873" t="s">
+        <v>560</v>
+      </c>
+      <c r="E873" t="s">
+        <v>561</v>
+      </c>
+      <c r="F873" t="s">
+        <v>562</v>
+      </c>
+      <c r="G873" t="s">
+        <v>122</v>
+      </c>
+      <c r="H873" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I873">
+        <v>58</v>
+      </c>
+      <c r="J873" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>814</v>
+      </c>
+      <c r="B874" t="s">
+        <v>929</v>
+      </c>
+      <c r="C874" t="s">
+        <v>564</v>
+      </c>
+      <c r="D874" t="s">
+        <v>565</v>
+      </c>
+      <c r="E874" t="s">
+        <v>840</v>
+      </c>
+      <c r="F874" t="s">
+        <v>567</v>
+      </c>
+      <c r="G874" t="s">
+        <v>568</v>
+      </c>
+      <c r="H874" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I874">
+        <v>622</v>
+      </c>
+      <c r="J874" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>814</v>
+      </c>
+      <c r="B875" t="s">
+        <v>929</v>
+      </c>
+      <c r="C875" t="s">
+        <v>570</v>
+      </c>
+      <c r="D875" t="s">
+        <v>571</v>
+      </c>
+      <c r="E875" t="s">
+        <v>572</v>
+      </c>
+      <c r="H875" s="1">
+        <v>0</v>
+      </c>
+      <c r="I875">
+        <v>1</v>
+      </c>
+      <c r="J875" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>814</v>
+      </c>
+      <c r="B876" t="s">
+        <v>929</v>
+      </c>
+      <c r="C876" t="s">
+        <v>574</v>
+      </c>
+      <c r="D876" t="s">
+        <v>575</v>
+      </c>
+      <c r="E876" t="s">
+        <v>926</v>
+      </c>
+      <c r="F876" t="s">
+        <v>577</v>
+      </c>
+      <c r="G876" t="s">
+        <v>578</v>
+      </c>
+      <c r="H876" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I876">
+        <v>68</v>
+      </c>
+      <c r="J876" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>814</v>
+      </c>
+      <c r="B877" t="s">
+        <v>929</v>
+      </c>
+      <c r="C877" t="s">
+        <v>580</v>
+      </c>
+      <c r="D877" t="s">
+        <v>581</v>
+      </c>
+      <c r="E877" t="s">
+        <v>889</v>
+      </c>
+      <c r="F877" t="s">
+        <v>583</v>
+      </c>
+      <c r="G877" t="s">
+        <v>122</v>
+      </c>
+      <c r="H877" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I877">
+        <v>977</v>
+      </c>
+      <c r="J877" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>814</v>
+      </c>
+      <c r="B878" t="s">
+        <v>929</v>
+      </c>
+      <c r="C878" t="s">
+        <v>585</v>
+      </c>
+      <c r="D878" t="s">
+        <v>586</v>
+      </c>
+      <c r="E878" t="s">
+        <v>890</v>
+      </c>
+      <c r="F878" t="s">
+        <v>588</v>
+      </c>
+      <c r="G878" t="s">
+        <v>56</v>
+      </c>
+      <c r="H878" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I878">
+        <v>292</v>
+      </c>
+      <c r="J878" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>814</v>
+      </c>
+      <c r="B879" t="s">
+        <v>929</v>
+      </c>
+      <c r="C879" t="s">
+        <v>590</v>
+      </c>
+      <c r="D879" t="s">
+        <v>591</v>
+      </c>
+      <c r="E879" t="s">
+        <v>891</v>
+      </c>
+      <c r="F879" t="s">
+        <v>593</v>
+      </c>
+      <c r="G879" t="s">
+        <v>80</v>
+      </c>
+      <c r="H879" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I879">
+        <v>602</v>
+      </c>
+      <c r="J879" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>814</v>
+      </c>
+      <c r="B880" t="s">
+        <v>929</v>
+      </c>
+      <c r="C880" t="s">
+        <v>595</v>
+      </c>
+      <c r="D880" t="s">
+        <v>596</v>
+      </c>
+      <c r="E880" t="s">
+        <v>597</v>
+      </c>
+      <c r="F880" t="s">
+        <v>598</v>
+      </c>
+      <c r="G880" t="s">
+        <v>56</v>
+      </c>
+      <c r="H880" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I880">
+        <v>128</v>
+      </c>
+      <c r="J880" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>814</v>
+      </c>
+      <c r="B881" t="s">
+        <v>929</v>
+      </c>
+      <c r="C881" t="s">
+        <v>600</v>
+      </c>
+      <c r="D881" t="s">
+        <v>601</v>
+      </c>
+      <c r="E881" t="s">
+        <v>927</v>
+      </c>
+      <c r="F881" t="s">
+        <v>603</v>
+      </c>
+      <c r="G881" t="s">
+        <v>197</v>
+      </c>
+      <c r="H881" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I881">
+        <v>888</v>
+      </c>
+      <c r="J881" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>814</v>
+      </c>
+      <c r="B882" t="s">
+        <v>929</v>
+      </c>
+      <c r="C882" t="s">
+        <v>605</v>
+      </c>
+      <c r="D882" t="s">
+        <v>606</v>
+      </c>
+      <c r="E882" t="s">
+        <v>843</v>
+      </c>
+      <c r="F882" t="s">
+        <v>608</v>
+      </c>
+      <c r="G882" t="s">
+        <v>340</v>
+      </c>
+      <c r="H882" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I882">
+        <v>250</v>
+      </c>
+      <c r="J882" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>814</v>
+      </c>
+      <c r="B883" t="s">
+        <v>929</v>
+      </c>
+      <c r="C883" t="s">
+        <v>610</v>
+      </c>
+      <c r="D883" t="s">
+        <v>611</v>
+      </c>
+      <c r="E883" t="s">
+        <v>612</v>
+      </c>
+      <c r="F883" t="s">
+        <v>613</v>
+      </c>
+      <c r="G883" t="s">
+        <v>614</v>
+      </c>
+      <c r="H883" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I883">
+        <v>200</v>
+      </c>
+      <c r="J883" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>814</v>
+      </c>
+      <c r="B884" t="s">
+        <v>929</v>
+      </c>
+      <c r="C884" t="s">
+        <v>616</v>
+      </c>
+      <c r="D884" t="s">
+        <v>617</v>
+      </c>
+      <c r="E884" t="s">
+        <v>892</v>
+      </c>
+      <c r="F884" t="s">
+        <v>619</v>
+      </c>
+      <c r="G884" t="s">
+        <v>92</v>
+      </c>
+      <c r="H884" s="1">
+        <v>80</v>
+      </c>
+      <c r="I884">
+        <v>81</v>
+      </c>
+      <c r="J884" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>814</v>
+      </c>
+      <c r="B885" t="s">
+        <v>929</v>
+      </c>
+      <c r="C885" t="s">
+        <v>621</v>
+      </c>
+      <c r="D885" t="s">
+        <v>622</v>
+      </c>
+      <c r="E885" t="s">
+        <v>893</v>
+      </c>
+      <c r="F885" t="s">
+        <v>624</v>
+      </c>
+      <c r="G885" t="s">
+        <v>625</v>
+      </c>
+      <c r="H885" s="1">
+        <v>76</v>
+      </c>
+      <c r="I885">
+        <v>494</v>
+      </c>
+      <c r="J885" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>814</v>
+      </c>
+      <c r="B886" t="s">
+        <v>929</v>
+      </c>
+      <c r="C886" t="s">
+        <v>627</v>
+      </c>
+      <c r="D886" t="s">
+        <v>628</v>
+      </c>
+      <c r="E886" t="s">
+        <v>629</v>
+      </c>
+      <c r="G886" t="s">
+        <v>630</v>
+      </c>
+      <c r="H886" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I886">
+        <v>94</v>
+      </c>
+      <c r="J886" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>814</v>
+      </c>
+      <c r="B887" t="s">
+        <v>929</v>
+      </c>
+      <c r="C887" t="s">
+        <v>632</v>
+      </c>
+      <c r="D887" t="s">
+        <v>633</v>
+      </c>
+      <c r="E887" t="s">
+        <v>894</v>
+      </c>
+      <c r="F887" t="s">
+        <v>635</v>
+      </c>
+      <c r="G887" t="s">
+        <v>636</v>
+      </c>
+      <c r="H887" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I887">
+        <v>49</v>
+      </c>
+      <c r="J887" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>814</v>
+      </c>
+      <c r="B888" t="s">
+        <v>929</v>
+      </c>
+      <c r="C888" t="s">
+        <v>638</v>
+      </c>
+      <c r="D888" t="s">
+        <v>639</v>
+      </c>
+      <c r="E888" t="s">
+        <v>640</v>
+      </c>
+      <c r="F888" t="s">
+        <v>641</v>
+      </c>
+      <c r="G888" t="s">
+        <v>642</v>
+      </c>
+      <c r="H888" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I888">
+        <v>75</v>
+      </c>
+      <c r="J888" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>814</v>
+      </c>
+      <c r="B889" t="s">
+        <v>929</v>
+      </c>
+      <c r="C889" t="s">
+        <v>644</v>
+      </c>
+      <c r="D889" t="s">
+        <v>645</v>
+      </c>
+      <c r="E889" t="s">
+        <v>646</v>
+      </c>
+      <c r="F889" t="s">
+        <v>647</v>
+      </c>
+      <c r="G889" t="s">
+        <v>648</v>
+      </c>
+      <c r="H889" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I889">
+        <v>247</v>
+      </c>
+      <c r="J889" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>814</v>
+      </c>
+      <c r="B890" t="s">
+        <v>929</v>
+      </c>
+      <c r="C890" t="s">
+        <v>650</v>
+      </c>
+      <c r="D890" t="s">
+        <v>651</v>
+      </c>
+      <c r="E890" t="s">
+        <v>652</v>
+      </c>
+      <c r="F890" t="s">
+        <v>653</v>
+      </c>
+      <c r="G890" t="s">
+        <v>614</v>
+      </c>
+      <c r="H890" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I890">
+        <v>60</v>
+      </c>
+      <c r="J890" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>814</v>
+      </c>
+      <c r="B891" t="s">
+        <v>929</v>
+      </c>
+      <c r="C891" t="s">
+        <v>655</v>
+      </c>
+      <c r="D891" t="s">
+        <v>656</v>
+      </c>
+      <c r="E891" t="s">
+        <v>845</v>
+      </c>
+      <c r="F891" t="s">
+        <v>658</v>
+      </c>
+      <c r="H891" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I891">
+        <v>610</v>
+      </c>
+      <c r="J891" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>814</v>
+      </c>
+      <c r="B892" t="s">
+        <v>929</v>
+      </c>
+      <c r="C892" t="s">
+        <v>660</v>
+      </c>
+      <c r="D892" t="s">
+        <v>661</v>
+      </c>
+      <c r="E892" t="s">
+        <v>846</v>
+      </c>
+      <c r="F892" t="s">
+        <v>663</v>
+      </c>
+      <c r="H892" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I892">
+        <v>88</v>
+      </c>
+      <c r="J892" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>814</v>
+      </c>
+      <c r="B893" t="s">
+        <v>929</v>
+      </c>
+      <c r="C893" t="s">
+        <v>665</v>
+      </c>
+      <c r="D893" t="s">
+        <v>666</v>
+      </c>
+      <c r="E893" t="s">
+        <v>847</v>
+      </c>
+      <c r="F893" t="s">
+        <v>668</v>
+      </c>
+      <c r="H893" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I893">
+        <v>54</v>
+      </c>
+      <c r="J893" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>814</v>
+      </c>
+      <c r="B894" t="s">
+        <v>929</v>
+      </c>
+      <c r="C894" t="s">
+        <v>670</v>
+      </c>
+      <c r="D894" t="s">
+        <v>671</v>
+      </c>
+      <c r="E894" t="s">
+        <v>672</v>
+      </c>
+      <c r="F894" t="s">
+        <v>673</v>
+      </c>
+      <c r="G894" t="s">
+        <v>372</v>
+      </c>
+      <c r="H894" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I894">
+        <v>577</v>
+      </c>
+      <c r="J894" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>814</v>
+      </c>
+      <c r="B895" t="s">
+        <v>929</v>
+      </c>
+      <c r="C895" t="s">
+        <v>675</v>
+      </c>
+      <c r="D895" t="s">
+        <v>676</v>
+      </c>
+      <c r="E895" t="s">
+        <v>895</v>
+      </c>
+      <c r="F895" t="s">
+        <v>678</v>
+      </c>
+      <c r="H895" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I895">
+        <v>52</v>
+      </c>
+      <c r="J895" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>814</v>
+      </c>
+      <c r="B896" t="s">
+        <v>929</v>
+      </c>
+      <c r="C896" t="s">
+        <v>429</v>
+      </c>
+      <c r="D896" t="s">
+        <v>680</v>
+      </c>
+      <c r="E896" t="s">
+        <v>896</v>
+      </c>
+      <c r="F896" t="s">
+        <v>682</v>
+      </c>
+      <c r="G896" t="s">
+        <v>372</v>
+      </c>
+      <c r="H896" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I896">
+        <v>795</v>
+      </c>
+      <c r="J896" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>814</v>
+      </c>
+      <c r="B897" t="s">
+        <v>929</v>
+      </c>
+      <c r="C897" t="s">
+        <v>684</v>
+      </c>
+      <c r="D897" t="s">
+        <v>685</v>
+      </c>
+      <c r="E897" t="s">
+        <v>897</v>
+      </c>
+      <c r="F897" t="s">
+        <v>687</v>
+      </c>
+      <c r="G897" t="s">
+        <v>372</v>
+      </c>
+      <c r="H897" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I897">
+        <v>1155</v>
+      </c>
+      <c r="J897" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>814</v>
+      </c>
+      <c r="B898" t="s">
+        <v>929</v>
+      </c>
+      <c r="C898" t="s">
+        <v>689</v>
+      </c>
+      <c r="D898" t="s">
+        <v>690</v>
+      </c>
+      <c r="E898" t="s">
+        <v>691</v>
+      </c>
+      <c r="F898" t="s">
+        <v>692</v>
+      </c>
+      <c r="G898" t="s">
+        <v>372</v>
+      </c>
+      <c r="H898" s="1">
+        <v>120</v>
+      </c>
+      <c r="I898">
+        <v>175</v>
+      </c>
+      <c r="J898" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>814</v>
+      </c>
+      <c r="B899" t="s">
+        <v>929</v>
+      </c>
+      <c r="C899" t="s">
+        <v>694</v>
+      </c>
+      <c r="D899" t="s">
+        <v>695</v>
+      </c>
+      <c r="E899" t="s">
+        <v>898</v>
+      </c>
+      <c r="F899" t="s">
+        <v>697</v>
+      </c>
+      <c r="G899" t="s">
+        <v>698</v>
+      </c>
+      <c r="H899" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I899">
+        <v>174</v>
+      </c>
+      <c r="J899" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>814</v>
+      </c>
+      <c r="B900" t="s">
+        <v>929</v>
+      </c>
+      <c r="C900" t="s">
+        <v>700</v>
+      </c>
+      <c r="D900" t="s">
+        <v>701</v>
+      </c>
+      <c r="E900" t="s">
+        <v>702</v>
+      </c>
+      <c r="F900" t="s">
+        <v>703</v>
+      </c>
+      <c r="G900" t="s">
+        <v>704</v>
+      </c>
+      <c r="H900" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I900">
+        <v>79</v>
+      </c>
+      <c r="J900" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>814</v>
+      </c>
+      <c r="B901" t="s">
+        <v>929</v>
+      </c>
+      <c r="C901" t="s">
+        <v>706</v>
+      </c>
+      <c r="D901" t="s">
+        <v>707</v>
+      </c>
+      <c r="E901" t="s">
+        <v>928</v>
+      </c>
+      <c r="F901" t="s">
+        <v>709</v>
+      </c>
+      <c r="G901" t="s">
+        <v>710</v>
+      </c>
+      <c r="H901" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I901">
+        <v>382</v>
+      </c>
+      <c r="J901" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>814</v>
+      </c>
+      <c r="B902" t="s">
+        <v>929</v>
+      </c>
+      <c r="C902" t="s">
+        <v>712</v>
+      </c>
+      <c r="D902" t="s">
+        <v>713</v>
+      </c>
+      <c r="E902" t="s">
+        <v>899</v>
+      </c>
+      <c r="F902" t="s">
+        <v>715</v>
+      </c>
+      <c r="G902" t="s">
+        <v>92</v>
+      </c>
+      <c r="H902" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I902">
+        <v>96</v>
+      </c>
+      <c r="J902" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>814</v>
+      </c>
+      <c r="B903" t="s">
+        <v>929</v>
+      </c>
+      <c r="C903" t="s">
+        <v>717</v>
+      </c>
+      <c r="D903" t="s">
+        <v>718</v>
+      </c>
+      <c r="E903" t="s">
+        <v>900</v>
+      </c>
+      <c r="H903" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I903">
+        <v>44</v>
+      </c>
+      <c r="J903" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>814</v>
+      </c>
+      <c r="B904" t="s">
+        <v>929</v>
+      </c>
+      <c r="C904" t="s">
+        <v>721</v>
+      </c>
+      <c r="D904" t="s">
+        <v>722</v>
+      </c>
+      <c r="E904" t="s">
+        <v>723</v>
+      </c>
+      <c r="F904" t="s">
+        <v>724</v>
+      </c>
+      <c r="G904" t="s">
+        <v>725</v>
+      </c>
+      <c r="H904" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I904">
+        <v>108</v>
+      </c>
+      <c r="J904" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>814</v>
+      </c>
+      <c r="B905" t="s">
+        <v>929</v>
+      </c>
+      <c r="C905" t="s">
+        <v>727</v>
+      </c>
+      <c r="D905" t="s">
+        <v>728</v>
+      </c>
+      <c r="E905" t="s">
+        <v>729</v>
+      </c>
+      <c r="F905" t="s">
+        <v>730</v>
+      </c>
+      <c r="G905" t="s">
+        <v>731</v>
+      </c>
+      <c r="H905" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I905">
+        <v>33</v>
+      </c>
+      <c r="J905" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>814</v>
+      </c>
+      <c r="B906" t="s">
+        <v>929</v>
+      </c>
+      <c r="C906" t="s">
+        <v>733</v>
+      </c>
+      <c r="D906" t="s">
+        <v>734</v>
+      </c>
+      <c r="E906" t="s">
+        <v>901</v>
+      </c>
+      <c r="F906" t="s">
+        <v>736</v>
+      </c>
+      <c r="H906" s="1">
+        <v>250</v>
+      </c>
+      <c r="I906">
+        <v>121</v>
+      </c>
+      <c r="J906" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>814</v>
+      </c>
+      <c r="B907" t="s">
+        <v>929</v>
+      </c>
+      <c r="C907" t="s">
+        <v>738</v>
+      </c>
+      <c r="D907" t="s">
+        <v>739</v>
+      </c>
+      <c r="E907" t="s">
+        <v>740</v>
+      </c>
+      <c r="F907" t="s">
+        <v>741</v>
+      </c>
+      <c r="G907" t="s">
+        <v>226</v>
+      </c>
+      <c r="H907" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I907">
+        <v>71</v>
+      </c>
+      <c r="J907" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>814</v>
+      </c>
+      <c r="B908" t="s">
+        <v>929</v>
+      </c>
+      <c r="C908" t="s">
+        <v>743</v>
+      </c>
+      <c r="D908" t="s">
+        <v>744</v>
+      </c>
+      <c r="E908" t="s">
+        <v>745</v>
+      </c>
+      <c r="F908" t="s">
+        <v>746</v>
+      </c>
+      <c r="G908" t="s">
+        <v>625</v>
+      </c>
+      <c r="H908" s="1">
+        <v>96</v>
+      </c>
+      <c r="I908">
+        <v>632</v>
+      </c>
+      <c r="J908" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>814</v>
+      </c>
+      <c r="B909" t="s">
+        <v>929</v>
+      </c>
+      <c r="C909" t="s">
+        <v>748</v>
+      </c>
+      <c r="D909" t="s">
+        <v>749</v>
+      </c>
+      <c r="E909" t="s">
+        <v>750</v>
+      </c>
+      <c r="F909" t="s">
+        <v>751</v>
+      </c>
+      <c r="H909" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I909">
+        <v>650</v>
+      </c>
+      <c r="J909" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>814</v>
+      </c>
+      <c r="B910" t="s">
+        <v>929</v>
+      </c>
+      <c r="C910" t="s">
+        <v>753</v>
+      </c>
+      <c r="D910" t="s">
+        <v>754</v>
+      </c>
+      <c r="E910" t="s">
+        <v>902</v>
+      </c>
+      <c r="F910" t="s">
+        <v>756</v>
+      </c>
+      <c r="G910" t="s">
+        <v>757</v>
+      </c>
+      <c r="H910" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I910">
+        <v>2030</v>
+      </c>
+      <c r="J910" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>814</v>
+      </c>
+      <c r="B911" t="s">
+        <v>929</v>
+      </c>
+      <c r="C911" t="s">
+        <v>759</v>
+      </c>
+      <c r="D911" t="s">
+        <v>760</v>
+      </c>
+      <c r="E911" t="s">
+        <v>903</v>
+      </c>
+      <c r="F911" t="s">
+        <v>762</v>
+      </c>
+      <c r="H911" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I911">
+        <v>337</v>
+      </c>
+      <c r="J911" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>814</v>
+      </c>
+      <c r="B912" t="s">
+        <v>929</v>
+      </c>
+      <c r="C912" t="s">
+        <v>764</v>
+      </c>
+      <c r="D912" t="s">
+        <v>765</v>
+      </c>
+      <c r="E912" t="s">
+        <v>766</v>
+      </c>
+      <c r="F912" t="s">
+        <v>767</v>
+      </c>
+      <c r="G912" t="s">
+        <v>768</v>
+      </c>
+      <c r="H912" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I912">
+        <v>36</v>
+      </c>
+      <c r="J912" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>814</v>
+      </c>
+      <c r="B913" t="s">
+        <v>929</v>
+      </c>
+      <c r="C913" t="s">
+        <v>770</v>
+      </c>
+      <c r="D913" t="s">
+        <v>771</v>
+      </c>
+      <c r="E913" t="s">
+        <v>904</v>
+      </c>
+      <c r="F913" t="s">
+        <v>773</v>
+      </c>
+      <c r="G913" t="s">
+        <v>774</v>
+      </c>
+      <c r="H913" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I913">
+        <v>169</v>
+      </c>
+      <c r="J913" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>814</v>
+      </c>
+      <c r="B914" t="s">
+        <v>929</v>
+      </c>
+      <c r="C914" t="s">
+        <v>776</v>
+      </c>
+      <c r="D914" t="s">
+        <v>777</v>
+      </c>
+      <c r="E914" t="s">
+        <v>905</v>
+      </c>
+      <c r="F914" t="s">
+        <v>779</v>
+      </c>
+      <c r="H914" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I914">
+        <v>6251</v>
+      </c>
+      <c r="J914" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>814</v>
+      </c>
+      <c r="B915" t="s">
+        <v>929</v>
+      </c>
+      <c r="C915" t="s">
+        <v>781</v>
+      </c>
+      <c r="D915" t="s">
+        <v>782</v>
+      </c>
+      <c r="E915" t="s">
+        <v>906</v>
+      </c>
+      <c r="F915" t="s">
+        <v>784</v>
+      </c>
+      <c r="H915" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I915">
+        <v>35</v>
+      </c>
+      <c r="J915" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>814</v>
+      </c>
+      <c r="B916" t="s">
+        <v>929</v>
+      </c>
+      <c r="C916" t="s">
+        <v>786</v>
+      </c>
+      <c r="D916" t="s">
+        <v>787</v>
+      </c>
+      <c r="E916" t="s">
+        <v>788</v>
+      </c>
+      <c r="F916" t="s">
+        <v>789</v>
+      </c>
+      <c r="H916" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I916">
+        <v>191</v>
+      </c>
+      <c r="J916" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>814</v>
+      </c>
+      <c r="B917" t="s">
+        <v>929</v>
+      </c>
+      <c r="C917" t="s">
+        <v>791</v>
+      </c>
+      <c r="D917" t="s">
+        <v>792</v>
+      </c>
+      <c r="E917" t="s">
+        <v>907</v>
+      </c>
+      <c r="F917" t="s">
+        <v>794</v>
+      </c>
+      <c r="G917" t="s">
+        <v>372</v>
+      </c>
+      <c r="H917" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I917">
+        <v>194</v>
+      </c>
+      <c r="J917" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>814</v>
+      </c>
+      <c r="B918" t="s">
+        <v>929</v>
+      </c>
+      <c r="C918" t="s">
+        <v>796</v>
+      </c>
+      <c r="D918" t="s">
+        <v>797</v>
+      </c>
+      <c r="E918" t="s">
+        <v>908</v>
+      </c>
+      <c r="F918" t="s">
+        <v>799</v>
+      </c>
+      <c r="H918" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I918">
+        <v>3315</v>
+      </c>
+      <c r="J918" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>814</v>
+      </c>
+      <c r="B919" t="s">
+        <v>929</v>
+      </c>
+      <c r="C919" t="s">
+        <v>801</v>
+      </c>
+      <c r="D919" t="s">
+        <v>802</v>
+      </c>
+      <c r="E919" t="s">
+        <v>803</v>
+      </c>
+      <c r="H919" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I919">
+        <v>14</v>
+      </c>
+      <c r="J919" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6917" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="932">
   <si>
     <t>DATE</t>
   </si>
@@ -6554,6 +6554,12 @@
   </si>
   <si>
     <t>11:43 PM PDT</t>
+  </si>
+  <si>
+    <t>08/16/2025</t>
+  </si>
+  <si>
+    <t>06:00 AM PDT</t>
   </si>
 </sst>
 </file>
@@ -6943,7 +6949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K919"/>
+  <dimension ref="A1:K1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35042,6 +35048,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>930</v>
+      </c>
+      <c r="B920" t="s">
+        <v>931</v>
+      </c>
+      <c r="C920" t="s">
+        <v>12</v>
+      </c>
+      <c r="D920" t="s">
+        <v>13</v>
+      </c>
+      <c r="E920" t="s">
+        <v>14</v>
+      </c>
+      <c r="F920" t="s">
+        <v>15</v>
+      </c>
+      <c r="H920" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I920">
+        <v>78</v>
+      </c>
+      <c r="J920" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>930</v>
+      </c>
+      <c r="B921" t="s">
+        <v>931</v>
+      </c>
+      <c r="C921" t="s">
+        <v>17</v>
+      </c>
+      <c r="D921" t="s">
+        <v>18</v>
+      </c>
+      <c r="E921" t="s">
+        <v>806</v>
+      </c>
+      <c r="H921" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I921">
+        <v>68</v>
+      </c>
+      <c r="J921" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>930</v>
+      </c>
+      <c r="B922" t="s">
+        <v>931</v>
+      </c>
+      <c r="C922" t="s">
+        <v>21</v>
+      </c>
+      <c r="D922" t="s">
+        <v>22</v>
+      </c>
+      <c r="E922" t="s">
+        <v>816</v>
+      </c>
+      <c r="H922" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I922">
+        <v>214</v>
+      </c>
+      <c r="J922" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>930</v>
+      </c>
+      <c r="B923" t="s">
+        <v>931</v>
+      </c>
+      <c r="C923" t="s">
+        <v>25</v>
+      </c>
+      <c r="D923" t="s">
+        <v>26</v>
+      </c>
+      <c r="E923" t="s">
+        <v>27</v>
+      </c>
+      <c r="H923" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I923">
+        <v>110</v>
+      </c>
+      <c r="J923" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>930</v>
+      </c>
+      <c r="B924" t="s">
+        <v>931</v>
+      </c>
+      <c r="C924" t="s">
+        <v>29</v>
+      </c>
+      <c r="D924" t="s">
+        <v>30</v>
+      </c>
+      <c r="E924" t="s">
+        <v>910</v>
+      </c>
+      <c r="F924" t="s">
+        <v>32</v>
+      </c>
+      <c r="G924" t="s">
+        <v>33</v>
+      </c>
+      <c r="H924" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I924">
+        <v>109</v>
+      </c>
+      <c r="J924" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>930</v>
+      </c>
+      <c r="B925" t="s">
+        <v>931</v>
+      </c>
+      <c r="C925" t="s">
+        <v>35</v>
+      </c>
+      <c r="D925" t="s">
+        <v>36</v>
+      </c>
+      <c r="E925" t="s">
+        <v>37</v>
+      </c>
+      <c r="F925" t="s">
+        <v>38</v>
+      </c>
+      <c r="H925" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I925">
+        <v>50</v>
+      </c>
+      <c r="J925" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>930</v>
+      </c>
+      <c r="B926" t="s">
+        <v>931</v>
+      </c>
+      <c r="C926" t="s">
+        <v>40</v>
+      </c>
+      <c r="D926" t="s">
+        <v>41</v>
+      </c>
+      <c r="E926" t="s">
+        <v>42</v>
+      </c>
+      <c r="F926" t="s">
+        <v>43</v>
+      </c>
+      <c r="G926" t="s">
+        <v>44</v>
+      </c>
+      <c r="H926" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I926">
+        <v>42</v>
+      </c>
+      <c r="J926" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>930</v>
+      </c>
+      <c r="B927" t="s">
+        <v>931</v>
+      </c>
+      <c r="C927" t="s">
+        <v>46</v>
+      </c>
+      <c r="D927" t="s">
+        <v>47</v>
+      </c>
+      <c r="E927" t="s">
+        <v>48</v>
+      </c>
+      <c r="F927" t="s">
+        <v>49</v>
+      </c>
+      <c r="G927" t="s">
+        <v>50</v>
+      </c>
+      <c r="H927" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I927">
+        <v>212</v>
+      </c>
+      <c r="J927" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>930</v>
+      </c>
+      <c r="B928" t="s">
+        <v>931</v>
+      </c>
+      <c r="C928" t="s">
+        <v>52</v>
+      </c>
+      <c r="D928" t="s">
+        <v>53</v>
+      </c>
+      <c r="E928" t="s">
+        <v>817</v>
+      </c>
+      <c r="F928" t="s">
+        <v>55</v>
+      </c>
+      <c r="G928" t="s">
+        <v>56</v>
+      </c>
+      <c r="H928" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I928">
+        <v>73</v>
+      </c>
+      <c r="J928" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>930</v>
+      </c>
+      <c r="B929" t="s">
+        <v>931</v>
+      </c>
+      <c r="C929" t="s">
+        <v>58</v>
+      </c>
+      <c r="D929" t="s">
+        <v>59</v>
+      </c>
+      <c r="E929" t="s">
+        <v>60</v>
+      </c>
+      <c r="F929" t="s">
+        <v>61</v>
+      </c>
+      <c r="G929" t="s">
+        <v>62</v>
+      </c>
+      <c r="H929" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I929">
+        <v>206</v>
+      </c>
+      <c r="J929" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>930</v>
+      </c>
+      <c r="B930" t="s">
+        <v>931</v>
+      </c>
+      <c r="C930" t="s">
+        <v>64</v>
+      </c>
+      <c r="D930" t="s">
+        <v>65</v>
+      </c>
+      <c r="E930" t="s">
+        <v>66</v>
+      </c>
+      <c r="F930" t="s">
+        <v>67</v>
+      </c>
+      <c r="G930" t="s">
+        <v>68</v>
+      </c>
+      <c r="H930" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I930">
+        <v>16</v>
+      </c>
+      <c r="J930" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>930</v>
+      </c>
+      <c r="B931" t="s">
+        <v>931</v>
+      </c>
+      <c r="C931" t="s">
+        <v>70</v>
+      </c>
+      <c r="D931" t="s">
+        <v>71</v>
+      </c>
+      <c r="E931" t="s">
+        <v>72</v>
+      </c>
+      <c r="F931" t="s">
+        <v>73</v>
+      </c>
+      <c r="G931" t="s">
+        <v>74</v>
+      </c>
+      <c r="H931" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I931">
+        <v>60</v>
+      </c>
+      <c r="J931" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>930</v>
+      </c>
+      <c r="B932" t="s">
+        <v>931</v>
+      </c>
+      <c r="C932" t="s">
+        <v>76</v>
+      </c>
+      <c r="D932" t="s">
+        <v>77</v>
+      </c>
+      <c r="E932" t="s">
+        <v>78</v>
+      </c>
+      <c r="F932" t="s">
+        <v>79</v>
+      </c>
+      <c r="G932" t="s">
+        <v>80</v>
+      </c>
+      <c r="H932" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I932">
+        <v>438</v>
+      </c>
+      <c r="J932" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>930</v>
+      </c>
+      <c r="B933" t="s">
+        <v>931</v>
+      </c>
+      <c r="C933" t="s">
+        <v>82</v>
+      </c>
+      <c r="D933" t="s">
+        <v>83</v>
+      </c>
+      <c r="E933" t="s">
+        <v>818</v>
+      </c>
+      <c r="F933" t="s">
+        <v>85</v>
+      </c>
+      <c r="G933" t="s">
+        <v>86</v>
+      </c>
+      <c r="H933" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I933">
+        <v>27</v>
+      </c>
+      <c r="J933" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>930</v>
+      </c>
+      <c r="B934" t="s">
+        <v>931</v>
+      </c>
+      <c r="C934" t="s">
+        <v>88</v>
+      </c>
+      <c r="D934" t="s">
+        <v>89</v>
+      </c>
+      <c r="E934" t="s">
+        <v>90</v>
+      </c>
+      <c r="F934" t="s">
+        <v>91</v>
+      </c>
+      <c r="G934" t="s">
+        <v>92</v>
+      </c>
+      <c r="H934" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I934">
+        <v>115</v>
+      </c>
+      <c r="J934" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>930</v>
+      </c>
+      <c r="B935" t="s">
+        <v>931</v>
+      </c>
+      <c r="C935" t="s">
+        <v>94</v>
+      </c>
+      <c r="D935" t="s">
+        <v>95</v>
+      </c>
+      <c r="E935" t="s">
+        <v>96</v>
+      </c>
+      <c r="F935" t="s">
+        <v>97</v>
+      </c>
+      <c r="G935" t="s">
+        <v>98</v>
+      </c>
+      <c r="H935" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I935">
+        <v>63</v>
+      </c>
+      <c r="J935" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>930</v>
+      </c>
+      <c r="B936" t="s">
+        <v>931</v>
+      </c>
+      <c r="C936" t="s">
+        <v>100</v>
+      </c>
+      <c r="D936" t="s">
+        <v>101</v>
+      </c>
+      <c r="E936" t="s">
+        <v>856</v>
+      </c>
+      <c r="F936" t="s">
+        <v>103</v>
+      </c>
+      <c r="G936" t="s">
+        <v>104</v>
+      </c>
+      <c r="H936" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I936">
+        <v>33</v>
+      </c>
+      <c r="J936" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>930</v>
+      </c>
+      <c r="B937" t="s">
+        <v>931</v>
+      </c>
+      <c r="C937" t="s">
+        <v>106</v>
+      </c>
+      <c r="D937" t="s">
+        <v>107</v>
+      </c>
+      <c r="E937" t="s">
+        <v>108</v>
+      </c>
+      <c r="F937" t="s">
+        <v>109</v>
+      </c>
+      <c r="G937" t="s">
+        <v>110</v>
+      </c>
+      <c r="H937" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I937">
+        <v>16</v>
+      </c>
+      <c r="J937" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>930</v>
+      </c>
+      <c r="B938" t="s">
+        <v>931</v>
+      </c>
+      <c r="C938" t="s">
+        <v>112</v>
+      </c>
+      <c r="D938" t="s">
+        <v>113</v>
+      </c>
+      <c r="E938" t="s">
+        <v>114</v>
+      </c>
+      <c r="F938" t="s">
+        <v>115</v>
+      </c>
+      <c r="G938" t="s">
+        <v>116</v>
+      </c>
+      <c r="H938" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I938">
+        <v>76</v>
+      </c>
+      <c r="J938" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>930</v>
+      </c>
+      <c r="B939" t="s">
+        <v>931</v>
+      </c>
+      <c r="C939" t="s">
+        <v>118</v>
+      </c>
+      <c r="D939" t="s">
+        <v>119</v>
+      </c>
+      <c r="E939" t="s">
+        <v>857</v>
+      </c>
+      <c r="F939" t="s">
+        <v>121</v>
+      </c>
+      <c r="G939" t="s">
+        <v>122</v>
+      </c>
+      <c r="H939" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I939">
+        <v>164</v>
+      </c>
+      <c r="J939" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>930</v>
+      </c>
+      <c r="B940" t="s">
+        <v>931</v>
+      </c>
+      <c r="C940" t="s">
+        <v>124</v>
+      </c>
+      <c r="D940" t="s">
+        <v>125</v>
+      </c>
+      <c r="E940" t="s">
+        <v>911</v>
+      </c>
+      <c r="F940" t="s">
+        <v>127</v>
+      </c>
+      <c r="G940" t="s">
+        <v>56</v>
+      </c>
+      <c r="H940" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I940">
+        <v>72</v>
+      </c>
+      <c r="J940" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>930</v>
+      </c>
+      <c r="B941" t="s">
+        <v>931</v>
+      </c>
+      <c r="C941" t="s">
+        <v>129</v>
+      </c>
+      <c r="D941" t="s">
+        <v>130</v>
+      </c>
+      <c r="E941" t="s">
+        <v>858</v>
+      </c>
+      <c r="H941" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I941">
+        <v>118</v>
+      </c>
+      <c r="J941" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>930</v>
+      </c>
+      <c r="B942" t="s">
+        <v>931</v>
+      </c>
+      <c r="C942" t="s">
+        <v>133</v>
+      </c>
+      <c r="D942" t="s">
+        <v>134</v>
+      </c>
+      <c r="E942" t="s">
+        <v>135</v>
+      </c>
+      <c r="F942" t="s">
+        <v>136</v>
+      </c>
+      <c r="G942" t="s">
+        <v>137</v>
+      </c>
+      <c r="H942" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I942">
+        <v>84</v>
+      </c>
+      <c r="J942" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>930</v>
+      </c>
+      <c r="B943" t="s">
+        <v>931</v>
+      </c>
+      <c r="C943" t="s">
+        <v>139</v>
+      </c>
+      <c r="D943" t="s">
+        <v>140</v>
+      </c>
+      <c r="E943" t="s">
+        <v>141</v>
+      </c>
+      <c r="H943" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I943">
+        <v>31</v>
+      </c>
+      <c r="J943" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>930</v>
+      </c>
+      <c r="B944" t="s">
+        <v>931</v>
+      </c>
+      <c r="C944" t="s">
+        <v>143</v>
+      </c>
+      <c r="D944" t="s">
+        <v>144</v>
+      </c>
+      <c r="E944" t="s">
+        <v>145</v>
+      </c>
+      <c r="H944" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I944">
+        <v>66</v>
+      </c>
+      <c r="J944" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>930</v>
+      </c>
+      <c r="B945" t="s">
+        <v>931</v>
+      </c>
+      <c r="C945" t="s">
+        <v>147</v>
+      </c>
+      <c r="D945" t="s">
+        <v>148</v>
+      </c>
+      <c r="E945" t="s">
+        <v>149</v>
+      </c>
+      <c r="F945" t="s">
+        <v>150</v>
+      </c>
+      <c r="G945" t="s">
+        <v>151</v>
+      </c>
+      <c r="H945" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I945">
+        <v>40</v>
+      </c>
+      <c r="J945" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>930</v>
+      </c>
+      <c r="B946" t="s">
+        <v>931</v>
+      </c>
+      <c r="C946" t="s">
+        <v>153</v>
+      </c>
+      <c r="D946" t="s">
+        <v>154</v>
+      </c>
+      <c r="E946" t="s">
+        <v>821</v>
+      </c>
+      <c r="F946" t="s">
+        <v>156</v>
+      </c>
+      <c r="G946" t="s">
+        <v>44</v>
+      </c>
+      <c r="H946" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I946">
+        <v>389</v>
+      </c>
+      <c r="J946" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>930</v>
+      </c>
+      <c r="B947" t="s">
+        <v>931</v>
+      </c>
+      <c r="C947" t="s">
+        <v>158</v>
+      </c>
+      <c r="D947" t="s">
+        <v>159</v>
+      </c>
+      <c r="E947" t="s">
+        <v>160</v>
+      </c>
+      <c r="H947" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I947">
+        <v>27</v>
+      </c>
+      <c r="J947" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>930</v>
+      </c>
+      <c r="B948" t="s">
+        <v>931</v>
+      </c>
+      <c r="C948" t="s">
+        <v>162</v>
+      </c>
+      <c r="D948" t="s">
+        <v>163</v>
+      </c>
+      <c r="E948" t="s">
+        <v>164</v>
+      </c>
+      <c r="H948" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I948">
+        <v>38</v>
+      </c>
+      <c r="J948" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>930</v>
+      </c>
+      <c r="B949" t="s">
+        <v>931</v>
+      </c>
+      <c r="C949" t="s">
+        <v>166</v>
+      </c>
+      <c r="D949" t="s">
+        <v>167</v>
+      </c>
+      <c r="E949" t="s">
+        <v>859</v>
+      </c>
+      <c r="F949" t="s">
+        <v>169</v>
+      </c>
+      <c r="H949" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I949">
+        <v>746</v>
+      </c>
+      <c r="J949" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>930</v>
+      </c>
+      <c r="B950" t="s">
+        <v>931</v>
+      </c>
+      <c r="C950" t="s">
+        <v>171</v>
+      </c>
+      <c r="D950" t="s">
+        <v>172</v>
+      </c>
+      <c r="E950" t="s">
+        <v>912</v>
+      </c>
+      <c r="F950" t="s">
+        <v>174</v>
+      </c>
+      <c r="G950" t="s">
+        <v>122</v>
+      </c>
+      <c r="H950" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I950">
+        <v>49</v>
+      </c>
+      <c r="J950" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>930</v>
+      </c>
+      <c r="B951" t="s">
+        <v>931</v>
+      </c>
+      <c r="C951" t="s">
+        <v>176</v>
+      </c>
+      <c r="D951" t="s">
+        <v>177</v>
+      </c>
+      <c r="E951" t="s">
+        <v>178</v>
+      </c>
+      <c r="F951" t="s">
+        <v>179</v>
+      </c>
+      <c r="G951" t="s">
+        <v>180</v>
+      </c>
+      <c r="H951" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I951">
+        <v>221</v>
+      </c>
+      <c r="J951" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>930</v>
+      </c>
+      <c r="B952" t="s">
+        <v>931</v>
+      </c>
+      <c r="C952" t="s">
+        <v>182</v>
+      </c>
+      <c r="D952" t="s">
+        <v>183</v>
+      </c>
+      <c r="E952" t="s">
+        <v>184</v>
+      </c>
+      <c r="F952" t="s">
+        <v>185</v>
+      </c>
+      <c r="G952" t="s">
+        <v>186</v>
+      </c>
+      <c r="H952" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I952">
+        <v>377</v>
+      </c>
+      <c r="J952" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>930</v>
+      </c>
+      <c r="B953" t="s">
+        <v>931</v>
+      </c>
+      <c r="C953" t="s">
+        <v>188</v>
+      </c>
+      <c r="D953" t="s">
+        <v>189</v>
+      </c>
+      <c r="E953" t="s">
+        <v>823</v>
+      </c>
+      <c r="F953" t="s">
+        <v>191</v>
+      </c>
+      <c r="G953" t="s">
+        <v>56</v>
+      </c>
+      <c r="H953" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I953">
+        <v>97</v>
+      </c>
+      <c r="J953" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>930</v>
+      </c>
+      <c r="B954" t="s">
+        <v>931</v>
+      </c>
+      <c r="C954" t="s">
+        <v>193</v>
+      </c>
+      <c r="D954" t="s">
+        <v>194</v>
+      </c>
+      <c r="E954" t="s">
+        <v>913</v>
+      </c>
+      <c r="F954" t="s">
+        <v>196</v>
+      </c>
+      <c r="G954" t="s">
+        <v>197</v>
+      </c>
+      <c r="H954" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I954">
+        <v>324</v>
+      </c>
+      <c r="J954" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>930</v>
+      </c>
+      <c r="B955" t="s">
+        <v>931</v>
+      </c>
+      <c r="C955" t="s">
+        <v>199</v>
+      </c>
+      <c r="D955" t="s">
+        <v>200</v>
+      </c>
+      <c r="E955" t="s">
+        <v>914</v>
+      </c>
+      <c r="F955" t="s">
+        <v>202</v>
+      </c>
+      <c r="G955" t="s">
+        <v>197</v>
+      </c>
+      <c r="H955" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I955">
+        <v>705</v>
+      </c>
+      <c r="J955" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>930</v>
+      </c>
+      <c r="B956" t="s">
+        <v>931</v>
+      </c>
+      <c r="C956" t="s">
+        <v>204</v>
+      </c>
+      <c r="D956" t="s">
+        <v>205</v>
+      </c>
+      <c r="E956" t="s">
+        <v>206</v>
+      </c>
+      <c r="F956" t="s">
+        <v>207</v>
+      </c>
+      <c r="G956" t="s">
+        <v>197</v>
+      </c>
+      <c r="H956" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I956">
+        <v>241</v>
+      </c>
+      <c r="J956" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>930</v>
+      </c>
+      <c r="B957" t="s">
+        <v>931</v>
+      </c>
+      <c r="C957" t="s">
+        <v>209</v>
+      </c>
+      <c r="D957" t="s">
+        <v>210</v>
+      </c>
+      <c r="E957" t="s">
+        <v>211</v>
+      </c>
+      <c r="H957" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I957">
+        <v>71</v>
+      </c>
+      <c r="J957" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>930</v>
+      </c>
+      <c r="B958" t="s">
+        <v>931</v>
+      </c>
+      <c r="C958" t="s">
+        <v>213</v>
+      </c>
+      <c r="D958" t="s">
+        <v>214</v>
+      </c>
+      <c r="E958" t="s">
+        <v>863</v>
+      </c>
+      <c r="F958" t="s">
+        <v>216</v>
+      </c>
+      <c r="G958" t="s">
+        <v>44</v>
+      </c>
+      <c r="H958" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I958">
+        <v>174</v>
+      </c>
+      <c r="J958" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>930</v>
+      </c>
+      <c r="B959" t="s">
+        <v>931</v>
+      </c>
+      <c r="C959" t="s">
+        <v>218</v>
+      </c>
+      <c r="D959" t="s">
+        <v>219</v>
+      </c>
+      <c r="E959" t="s">
+        <v>220</v>
+      </c>
+      <c r="G959" t="s">
+        <v>137</v>
+      </c>
+      <c r="H959" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I959">
+        <v>21</v>
+      </c>
+      <c r="J959" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>930</v>
+      </c>
+      <c r="B960" t="s">
+        <v>931</v>
+      </c>
+      <c r="C960" t="s">
+        <v>222</v>
+      </c>
+      <c r="D960" t="s">
+        <v>223</v>
+      </c>
+      <c r="E960" t="s">
+        <v>224</v>
+      </c>
+      <c r="F960" t="s">
+        <v>225</v>
+      </c>
+      <c r="G960" t="s">
+        <v>226</v>
+      </c>
+      <c r="H960" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I960">
+        <v>192</v>
+      </c>
+      <c r="J960" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>930</v>
+      </c>
+      <c r="B961" t="s">
+        <v>931</v>
+      </c>
+      <c r="C961" t="s">
+        <v>228</v>
+      </c>
+      <c r="D961" t="s">
+        <v>229</v>
+      </c>
+      <c r="E961" t="s">
+        <v>915</v>
+      </c>
+      <c r="F961" t="s">
+        <v>231</v>
+      </c>
+      <c r="G961" t="s">
+        <v>56</v>
+      </c>
+      <c r="H961" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I961">
+        <v>114</v>
+      </c>
+      <c r="J961" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>930</v>
+      </c>
+      <c r="B962" t="s">
+        <v>931</v>
+      </c>
+      <c r="C962" t="s">
+        <v>233</v>
+      </c>
+      <c r="D962" t="s">
+        <v>234</v>
+      </c>
+      <c r="E962" t="s">
+        <v>235</v>
+      </c>
+      <c r="F962" t="s">
+        <v>236</v>
+      </c>
+      <c r="G962" t="s">
+        <v>237</v>
+      </c>
+      <c r="H962" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I962">
+        <v>40</v>
+      </c>
+      <c r="J962" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>930</v>
+      </c>
+      <c r="B963" t="s">
+        <v>931</v>
+      </c>
+      <c r="C963" t="s">
+        <v>239</v>
+      </c>
+      <c r="D963" t="s">
+        <v>240</v>
+      </c>
+      <c r="E963" t="s">
+        <v>241</v>
+      </c>
+      <c r="H963" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I963">
+        <v>34</v>
+      </c>
+      <c r="J963" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>930</v>
+      </c>
+      <c r="B964" t="s">
+        <v>931</v>
+      </c>
+      <c r="C964" t="s">
+        <v>243</v>
+      </c>
+      <c r="D964" t="s">
+        <v>244</v>
+      </c>
+      <c r="E964" t="s">
+        <v>916</v>
+      </c>
+      <c r="F964" t="s">
+        <v>246</v>
+      </c>
+      <c r="G964" t="s">
+        <v>247</v>
+      </c>
+      <c r="H964" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I964">
+        <v>412</v>
+      </c>
+      <c r="J964" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>930</v>
+      </c>
+      <c r="B965" t="s">
+        <v>931</v>
+      </c>
+      <c r="C965" t="s">
+        <v>249</v>
+      </c>
+      <c r="D965" t="s">
+        <v>250</v>
+      </c>
+      <c r="E965" t="s">
+        <v>825</v>
+      </c>
+      <c r="F965" t="s">
+        <v>252</v>
+      </c>
+      <c r="G965" t="s">
+        <v>253</v>
+      </c>
+      <c r="H965" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I965">
+        <v>117</v>
+      </c>
+      <c r="J965" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>930</v>
+      </c>
+      <c r="B966" t="s">
+        <v>931</v>
+      </c>
+      <c r="C966" t="s">
+        <v>255</v>
+      </c>
+      <c r="D966" t="s">
+        <v>256</v>
+      </c>
+      <c r="E966" t="s">
+        <v>826</v>
+      </c>
+      <c r="H966" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I966">
+        <v>43</v>
+      </c>
+      <c r="J966" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>930</v>
+      </c>
+      <c r="B967" t="s">
+        <v>931</v>
+      </c>
+      <c r="C967" t="s">
+        <v>259</v>
+      </c>
+      <c r="D967" t="s">
+        <v>260</v>
+      </c>
+      <c r="E967" t="s">
+        <v>261</v>
+      </c>
+      <c r="F967" t="s">
+        <v>262</v>
+      </c>
+      <c r="H967" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I967">
+        <v>12</v>
+      </c>
+      <c r="J967" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>930</v>
+      </c>
+      <c r="B968" t="s">
+        <v>931</v>
+      </c>
+      <c r="C968" t="s">
+        <v>264</v>
+      </c>
+      <c r="D968" t="s">
+        <v>265</v>
+      </c>
+      <c r="E968" t="s">
+        <v>865</v>
+      </c>
+      <c r="F968" t="s">
+        <v>267</v>
+      </c>
+      <c r="H968" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I968">
+        <v>652</v>
+      </c>
+      <c r="J968" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>930</v>
+      </c>
+      <c r="B969" t="s">
+        <v>931</v>
+      </c>
+      <c r="C969" t="s">
+        <v>269</v>
+      </c>
+      <c r="D969" t="s">
+        <v>270</v>
+      </c>
+      <c r="E969" t="s">
+        <v>917</v>
+      </c>
+      <c r="F969" t="s">
+        <v>272</v>
+      </c>
+      <c r="G969" t="s">
+        <v>273</v>
+      </c>
+      <c r="H969" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I969">
+        <v>74</v>
+      </c>
+      <c r="J969" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>930</v>
+      </c>
+      <c r="B970" t="s">
+        <v>931</v>
+      </c>
+      <c r="C970" t="s">
+        <v>275</v>
+      </c>
+      <c r="D970" t="s">
+        <v>276</v>
+      </c>
+      <c r="E970" t="s">
+        <v>277</v>
+      </c>
+      <c r="F970" t="s">
+        <v>278</v>
+      </c>
+      <c r="G970" t="s">
+        <v>186</v>
+      </c>
+      <c r="H970" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I970">
+        <v>579</v>
+      </c>
+      <c r="J970" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>930</v>
+      </c>
+      <c r="B971" t="s">
+        <v>931</v>
+      </c>
+      <c r="C971" t="s">
+        <v>280</v>
+      </c>
+      <c r="D971" t="s">
+        <v>281</v>
+      </c>
+      <c r="E971" t="s">
+        <v>866</v>
+      </c>
+      <c r="F971" t="s">
+        <v>283</v>
+      </c>
+      <c r="G971" t="s">
+        <v>284</v>
+      </c>
+      <c r="H971" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I971">
+        <v>1376</v>
+      </c>
+      <c r="J971" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>930</v>
+      </c>
+      <c r="B972" t="s">
+        <v>931</v>
+      </c>
+      <c r="C972" t="s">
+        <v>286</v>
+      </c>
+      <c r="D972" t="s">
+        <v>287</v>
+      </c>
+      <c r="E972" t="s">
+        <v>918</v>
+      </c>
+      <c r="F972" t="s">
+        <v>289</v>
+      </c>
+      <c r="G972" t="s">
+        <v>104</v>
+      </c>
+      <c r="H972" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I972">
+        <v>212</v>
+      </c>
+      <c r="J972" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>930</v>
+      </c>
+      <c r="B973" t="s">
+        <v>931</v>
+      </c>
+      <c r="C973" t="s">
+        <v>291</v>
+      </c>
+      <c r="D973" t="s">
+        <v>292</v>
+      </c>
+      <c r="E973" t="s">
+        <v>293</v>
+      </c>
+      <c r="F973" t="s">
+        <v>294</v>
+      </c>
+      <c r="G973" t="s">
+        <v>273</v>
+      </c>
+      <c r="H973" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I973">
+        <v>55</v>
+      </c>
+      <c r="J973" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>930</v>
+      </c>
+      <c r="B974" t="s">
+        <v>931</v>
+      </c>
+      <c r="C974" t="s">
+        <v>296</v>
+      </c>
+      <c r="D974" t="s">
+        <v>297</v>
+      </c>
+      <c r="E974" t="s">
+        <v>867</v>
+      </c>
+      <c r="G974" t="s">
+        <v>299</v>
+      </c>
+      <c r="H974" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I974">
+        <v>150</v>
+      </c>
+      <c r="J974" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>930</v>
+      </c>
+      <c r="B975" t="s">
+        <v>931</v>
+      </c>
+      <c r="C975" t="s">
+        <v>301</v>
+      </c>
+      <c r="D975" t="s">
+        <v>302</v>
+      </c>
+      <c r="E975" t="s">
+        <v>303</v>
+      </c>
+      <c r="F975" t="s">
+        <v>304</v>
+      </c>
+      <c r="H975" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I975">
+        <v>52</v>
+      </c>
+      <c r="J975" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>930</v>
+      </c>
+      <c r="B976" t="s">
+        <v>931</v>
+      </c>
+      <c r="C976" t="s">
+        <v>306</v>
+      </c>
+      <c r="D976" t="s">
+        <v>307</v>
+      </c>
+      <c r="E976" t="s">
+        <v>308</v>
+      </c>
+      <c r="F976" t="s">
+        <v>309</v>
+      </c>
+      <c r="G976" t="s">
+        <v>310</v>
+      </c>
+      <c r="H976" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I976">
+        <v>398</v>
+      </c>
+      <c r="J976" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>930</v>
+      </c>
+      <c r="B977" t="s">
+        <v>931</v>
+      </c>
+      <c r="C977" t="s">
+        <v>312</v>
+      </c>
+      <c r="D977" t="s">
+        <v>313</v>
+      </c>
+      <c r="E977" t="s">
+        <v>868</v>
+      </c>
+      <c r="H977" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I977">
+        <v>62</v>
+      </c>
+      <c r="J977" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>930</v>
+      </c>
+      <c r="B978" t="s">
+        <v>931</v>
+      </c>
+      <c r="C978" t="s">
+        <v>316</v>
+      </c>
+      <c r="D978" t="s">
+        <v>317</v>
+      </c>
+      <c r="E978" t="s">
+        <v>318</v>
+      </c>
+      <c r="F978" t="s">
+        <v>319</v>
+      </c>
+      <c r="H978" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I978">
+        <v>34</v>
+      </c>
+      <c r="J978" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>930</v>
+      </c>
+      <c r="B979" t="s">
+        <v>931</v>
+      </c>
+      <c r="C979" t="s">
+        <v>321</v>
+      </c>
+      <c r="D979" t="s">
+        <v>322</v>
+      </c>
+      <c r="E979" t="s">
+        <v>869</v>
+      </c>
+      <c r="G979" t="s">
+        <v>324</v>
+      </c>
+      <c r="H979" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I979">
+        <v>80</v>
+      </c>
+      <c r="J979" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="980" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>930</v>
+      </c>
+      <c r="B980" t="s">
+        <v>931</v>
+      </c>
+      <c r="C980" t="s">
+        <v>326</v>
+      </c>
+      <c r="D980" t="s">
+        <v>327</v>
+      </c>
+      <c r="E980" t="s">
+        <v>919</v>
+      </c>
+      <c r="F980" t="s">
+        <v>329</v>
+      </c>
+      <c r="G980" t="s">
+        <v>44</v>
+      </c>
+      <c r="H980" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I980">
+        <v>58</v>
+      </c>
+      <c r="J980" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="981" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>930</v>
+      </c>
+      <c r="B981" t="s">
+        <v>931</v>
+      </c>
+      <c r="C981" t="s">
+        <v>331</v>
+      </c>
+      <c r="D981" t="s">
+        <v>332</v>
+      </c>
+      <c r="E981" t="s">
+        <v>333</v>
+      </c>
+      <c r="F981" t="s">
+        <v>334</v>
+      </c>
+      <c r="G981" t="s">
+        <v>273</v>
+      </c>
+      <c r="H981" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I981">
+        <v>38</v>
+      </c>
+      <c r="J981" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="982" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>930</v>
+      </c>
+      <c r="B982" t="s">
+        <v>931</v>
+      </c>
+      <c r="C982" t="s">
+        <v>336</v>
+      </c>
+      <c r="D982" t="s">
+        <v>337</v>
+      </c>
+      <c r="E982" t="s">
+        <v>338</v>
+      </c>
+      <c r="F982" t="s">
+        <v>339</v>
+      </c>
+      <c r="G982" t="s">
+        <v>340</v>
+      </c>
+      <c r="H982" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I982">
+        <v>72</v>
+      </c>
+      <c r="J982" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="983" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>930</v>
+      </c>
+      <c r="B983" t="s">
+        <v>931</v>
+      </c>
+      <c r="C983" t="s">
+        <v>342</v>
+      </c>
+      <c r="D983" t="s">
+        <v>343</v>
+      </c>
+      <c r="E983" t="s">
+        <v>344</v>
+      </c>
+      <c r="F983" t="s">
+        <v>345</v>
+      </c>
+      <c r="G983" t="s">
+        <v>346</v>
+      </c>
+      <c r="H983" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I983">
+        <v>101</v>
+      </c>
+      <c r="J983" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="984" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>930</v>
+      </c>
+      <c r="B984" t="s">
+        <v>931</v>
+      </c>
+      <c r="C984" t="s">
+        <v>348</v>
+      </c>
+      <c r="D984" t="s">
+        <v>349</v>
+      </c>
+      <c r="E984" t="s">
+        <v>920</v>
+      </c>
+      <c r="H984" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I984">
+        <v>66</v>
+      </c>
+      <c r="J984" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="985" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>930</v>
+      </c>
+      <c r="B985" t="s">
+        <v>931</v>
+      </c>
+      <c r="C985" t="s">
+        <v>352</v>
+      </c>
+      <c r="D985" t="s">
+        <v>353</v>
+      </c>
+      <c r="E985" t="s">
+        <v>872</v>
+      </c>
+      <c r="F985" t="s">
+        <v>355</v>
+      </c>
+      <c r="G985" t="s">
+        <v>356</v>
+      </c>
+      <c r="H985" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I985">
+        <v>122</v>
+      </c>
+      <c r="J985" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="986" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>930</v>
+      </c>
+      <c r="B986" t="s">
+        <v>931</v>
+      </c>
+      <c r="C986" t="s">
+        <v>358</v>
+      </c>
+      <c r="D986" t="s">
+        <v>359</v>
+      </c>
+      <c r="E986" t="s">
+        <v>873</v>
+      </c>
+      <c r="H986" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I986">
+        <v>124</v>
+      </c>
+      <c r="J986" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="987" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>930</v>
+      </c>
+      <c r="B987" t="s">
+        <v>931</v>
+      </c>
+      <c r="C987" t="s">
+        <v>362</v>
+      </c>
+      <c r="D987" t="s">
+        <v>363</v>
+      </c>
+      <c r="E987" t="s">
+        <v>364</v>
+      </c>
+      <c r="F987" t="s">
+        <v>365</v>
+      </c>
+      <c r="G987" t="s">
+        <v>366</v>
+      </c>
+      <c r="H987" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I987">
+        <v>133</v>
+      </c>
+      <c r="J987" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="988" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>930</v>
+      </c>
+      <c r="B988" t="s">
+        <v>931</v>
+      </c>
+      <c r="C988" t="s">
+        <v>368</v>
+      </c>
+      <c r="D988" t="s">
+        <v>369</v>
+      </c>
+      <c r="E988" t="s">
+        <v>921</v>
+      </c>
+      <c r="F988" t="s">
+        <v>371</v>
+      </c>
+      <c r="G988" t="s">
+        <v>372</v>
+      </c>
+      <c r="H988" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I988">
+        <v>167</v>
+      </c>
+      <c r="J988" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="989" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>930</v>
+      </c>
+      <c r="B989" t="s">
+        <v>931</v>
+      </c>
+      <c r="C989" t="s">
+        <v>374</v>
+      </c>
+      <c r="D989" t="s">
+        <v>375</v>
+      </c>
+      <c r="E989" t="s">
+        <v>875</v>
+      </c>
+      <c r="F989" t="s">
+        <v>377</v>
+      </c>
+      <c r="G989" t="s">
+        <v>44</v>
+      </c>
+      <c r="H989" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I989">
+        <v>779</v>
+      </c>
+      <c r="J989" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="990" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>930</v>
+      </c>
+      <c r="B990" t="s">
+        <v>931</v>
+      </c>
+      <c r="C990" t="s">
+        <v>379</v>
+      </c>
+      <c r="D990" t="s">
+        <v>380</v>
+      </c>
+      <c r="E990" t="s">
+        <v>876</v>
+      </c>
+      <c r="H990" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I990">
+        <v>51</v>
+      </c>
+      <c r="J990" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="991" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>930</v>
+      </c>
+      <c r="B991" t="s">
+        <v>931</v>
+      </c>
+      <c r="C991" t="s">
+        <v>383</v>
+      </c>
+      <c r="D991" t="s">
+        <v>384</v>
+      </c>
+      <c r="E991" t="s">
+        <v>832</v>
+      </c>
+      <c r="F991" t="s">
+        <v>386</v>
+      </c>
+      <c r="G991" t="s">
+        <v>122</v>
+      </c>
+      <c r="H991" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I991">
+        <v>158</v>
+      </c>
+      <c r="J991" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="992" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>930</v>
+      </c>
+      <c r="B992" t="s">
+        <v>931</v>
+      </c>
+      <c r="C992" t="s">
+        <v>388</v>
+      </c>
+      <c r="D992" t="s">
+        <v>389</v>
+      </c>
+      <c r="E992" t="s">
+        <v>833</v>
+      </c>
+      <c r="F992" t="s">
+        <v>391</v>
+      </c>
+      <c r="G992" t="s">
+        <v>122</v>
+      </c>
+      <c r="H992" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I992">
+        <v>464</v>
+      </c>
+      <c r="J992" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="993" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>930</v>
+      </c>
+      <c r="B993" t="s">
+        <v>931</v>
+      </c>
+      <c r="C993" t="s">
+        <v>393</v>
+      </c>
+      <c r="D993" t="s">
+        <v>394</v>
+      </c>
+      <c r="E993" t="s">
+        <v>877</v>
+      </c>
+      <c r="F993" t="s">
+        <v>396</v>
+      </c>
+      <c r="G993" t="s">
+        <v>122</v>
+      </c>
+      <c r="H993" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I993">
+        <v>94</v>
+      </c>
+      <c r="J993" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="994" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>930</v>
+      </c>
+      <c r="B994" t="s">
+        <v>931</v>
+      </c>
+      <c r="C994" t="s">
+        <v>398</v>
+      </c>
+      <c r="D994" t="s">
+        <v>399</v>
+      </c>
+      <c r="E994" t="s">
+        <v>400</v>
+      </c>
+      <c r="F994" t="s">
+        <v>401</v>
+      </c>
+      <c r="H994" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I994">
+        <v>507</v>
+      </c>
+      <c r="J994" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="995" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>930</v>
+      </c>
+      <c r="B995" t="s">
+        <v>931</v>
+      </c>
+      <c r="C995" t="s">
+        <v>403</v>
+      </c>
+      <c r="D995" t="s">
+        <v>404</v>
+      </c>
+      <c r="E995" t="s">
+        <v>878</v>
+      </c>
+      <c r="F995" t="s">
+        <v>406</v>
+      </c>
+      <c r="G995" t="s">
+        <v>407</v>
+      </c>
+      <c r="H995" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I995">
+        <v>375</v>
+      </c>
+      <c r="J995" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>930</v>
+      </c>
+      <c r="B996" t="s">
+        <v>931</v>
+      </c>
+      <c r="C996" t="s">
+        <v>409</v>
+      </c>
+      <c r="D996" t="s">
+        <v>410</v>
+      </c>
+      <c r="E996" t="s">
+        <v>879</v>
+      </c>
+      <c r="F996" t="s">
+        <v>412</v>
+      </c>
+      <c r="G996" t="s">
+        <v>413</v>
+      </c>
+      <c r="H996" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I996">
+        <v>382</v>
+      </c>
+      <c r="J996" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>930</v>
+      </c>
+      <c r="B997" t="s">
+        <v>931</v>
+      </c>
+      <c r="C997" t="s">
+        <v>415</v>
+      </c>
+      <c r="D997" t="s">
+        <v>416</v>
+      </c>
+      <c r="E997" t="s">
+        <v>417</v>
+      </c>
+      <c r="H997" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I997">
+        <v>104</v>
+      </c>
+      <c r="J997" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>930</v>
+      </c>
+      <c r="B998" t="s">
+        <v>931</v>
+      </c>
+      <c r="C998" t="s">
+        <v>419</v>
+      </c>
+      <c r="D998" t="s">
+        <v>420</v>
+      </c>
+      <c r="E998" t="s">
+        <v>421</v>
+      </c>
+      <c r="F998" t="s">
+        <v>422</v>
+      </c>
+      <c r="H998" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I998">
+        <v>44</v>
+      </c>
+      <c r="J998" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="999" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>930</v>
+      </c>
+      <c r="B999" t="s">
+        <v>931</v>
+      </c>
+      <c r="C999" t="s">
+        <v>424</v>
+      </c>
+      <c r="D999" t="s">
+        <v>425</v>
+      </c>
+      <c r="E999" t="s">
+        <v>426</v>
+      </c>
+      <c r="F999" t="s">
+        <v>427</v>
+      </c>
+      <c r="G999" t="s">
+        <v>372</v>
+      </c>
+      <c r="H999" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I999">
+        <v>23</v>
+      </c>
+      <c r="J999" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1000" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I1000">
+        <v>411</v>
+      </c>
+      <c r="J1000" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1001" s="1">
+        <v>169</v>
+      </c>
+      <c r="I1001">
+        <v>519</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1002" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1003" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I1003">
+        <v>25</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1004" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I1004">
+        <v>292</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1005" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I1005">
+        <v>1401</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1006" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I1006">
+        <v>101</v>
+      </c>
+      <c r="J1006" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1007" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I1007">
+        <v>135</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1008" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I1008">
+        <v>204</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1009" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I1009">
+        <v>29</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1010" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I1010">
+        <v>71</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>885</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1011" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I1011">
+        <v>26</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>836</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1012" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1012">
+        <v>28</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1013" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I1013">
+        <v>203</v>
+      </c>
+      <c r="J1013" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1014" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I1014">
+        <v>18</v>
+      </c>
+      <c r="J1014" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1015" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I1015">
+        <v>403</v>
+      </c>
+      <c r="J1015" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1016" s="1">
+        <v>203</v>
+      </c>
+      <c r="I1016">
+        <v>187</v>
+      </c>
+      <c r="J1016" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1017" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1017">
+        <v>99</v>
+      </c>
+      <c r="J1017" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1018" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1018">
+        <v>383</v>
+      </c>
+      <c r="J1018" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>888</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1019" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1019">
+        <v>1034</v>
+      </c>
+      <c r="J1019" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1020" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1020">
+        <v>304</v>
+      </c>
+      <c r="J1020" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1021" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I1021">
+        <v>1158</v>
+      </c>
+      <c r="J1021" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1022" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I1022">
+        <v>156</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1023" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I1023">
+        <v>31</v>
+      </c>
+      <c r="J1023" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1024" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1024">
+        <v>471</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1025" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1025">
+        <v>37</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1026" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I1026">
+        <v>58</v>
+      </c>
+      <c r="J1026" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1027" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I1027">
+        <v>622</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1028" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1028">
+        <v>1</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1029" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I1029">
+        <v>68</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1030" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I1030">
+        <v>977</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1031" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I1031">
+        <v>292</v>
+      </c>
+      <c r="J1031" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>891</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1032" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I1032">
+        <v>602</v>
+      </c>
+      <c r="J1032" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1033" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I1033">
+        <v>128</v>
+      </c>
+      <c r="J1033" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1034" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1034">
+        <v>888</v>
+      </c>
+      <c r="J1034" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1035" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I1035">
+        <v>250</v>
+      </c>
+      <c r="J1035" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1036" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I1036">
+        <v>200</v>
+      </c>
+      <c r="J1036" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1037" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1037">
+        <v>81</v>
+      </c>
+      <c r="J1037" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1038" s="1">
+        <v>76</v>
+      </c>
+      <c r="I1038">
+        <v>494</v>
+      </c>
+      <c r="J1038" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1039" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I1039">
+        <v>94</v>
+      </c>
+      <c r="J1039" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1040" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I1040">
+        <v>49</v>
+      </c>
+      <c r="J1040" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1041" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I1041">
+        <v>75</v>
+      </c>
+      <c r="J1041" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1042" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I1042">
+        <v>247</v>
+      </c>
+      <c r="J1042" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1043" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I1043">
+        <v>60</v>
+      </c>
+      <c r="J1043" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1044" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I1044">
+        <v>610</v>
+      </c>
+      <c r="J1044" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1045" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I1045">
+        <v>88</v>
+      </c>
+      <c r="J1045" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1046" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I1046">
+        <v>54</v>
+      </c>
+      <c r="J1046" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1047" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I1047">
+        <v>577</v>
+      </c>
+      <c r="J1047" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1048" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I1048">
+        <v>52</v>
+      </c>
+      <c r="J1048" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>896</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1049" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I1049">
+        <v>795</v>
+      </c>
+      <c r="J1049" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>897</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1050" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I1050">
+        <v>1155</v>
+      </c>
+      <c r="J1050" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1051" s="1">
+        <v>120</v>
+      </c>
+      <c r="I1051">
+        <v>175</v>
+      </c>
+      <c r="J1051" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1052" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I1052">
+        <v>174</v>
+      </c>
+      <c r="J1052" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1053" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I1053">
+        <v>79</v>
+      </c>
+      <c r="J1053" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1054" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I1054">
+        <v>382</v>
+      </c>
+      <c r="J1054" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1055" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I1055">
+        <v>96</v>
+      </c>
+      <c r="J1055" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1056" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I1056">
+        <v>44</v>
+      </c>
+      <c r="J1056" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1057" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I1057">
+        <v>108</v>
+      </c>
+      <c r="J1057" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1058" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I1058">
+        <v>33</v>
+      </c>
+      <c r="J1058" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1059" s="1">
+        <v>250</v>
+      </c>
+      <c r="I1059">
+        <v>121</v>
+      </c>
+      <c r="J1059" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1060" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I1060">
+        <v>71</v>
+      </c>
+      <c r="J1060" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1061" s="1">
+        <v>96</v>
+      </c>
+      <c r="I1061">
+        <v>632</v>
+      </c>
+      <c r="J1061" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1062" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I1062">
+        <v>650</v>
+      </c>
+      <c r="J1062" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1063" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I1063">
+        <v>2030</v>
+      </c>
+      <c r="J1063" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1064" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I1064">
+        <v>337</v>
+      </c>
+      <c r="J1064" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1065" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I1065">
+        <v>36</v>
+      </c>
+      <c r="J1065" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1066" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I1066">
+        <v>169</v>
+      </c>
+      <c r="J1066" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1067" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1067">
+        <v>6251</v>
+      </c>
+      <c r="J1067" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1068" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1068">
+        <v>35</v>
+      </c>
+      <c r="J1068" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1069" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I1069">
+        <v>191</v>
+      </c>
+      <c r="J1069" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1070" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I1070">
+        <v>194</v>
+      </c>
+      <c r="J1070" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1071" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I1071">
+        <v>3315</v>
+      </c>
+      <c r="J1071" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1072" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I1072">
+        <v>14</v>
+      </c>
+      <c r="J1072" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9219" uniqueCount="1086">
   <si>
     <t>DATE</t>
   </si>
@@ -6560,6 +6560,2125 @@
   </si>
   <si>
     <t>06:00 AM PDT</t>
+  </si>
+  <si>
+    <t>11:43 AM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Panel Dip Card
+CLIA Waived
+Tests for:
+AMP
+BAR
+BZO
+COC
+mAMP
+MDMA
+MTD
+OPI
+PCP
+THC
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 78
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Anesthetic Gel - 20% Benzocaine - 0.75gram Packets - 144 Packets per Box - 1 Box/Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 68
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¬†Tolnaftate Antifungal Cream - 0.5oz - 1% Strength
+Comparable to Tinactin Cream
+Proven clinically effective in the treatment of most athlete's foot (tinea pedis) and ringworm (tinea corporis)
+1 Tube Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 214
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange Flavor
+Fat-Free
+Gluten-Free
+Caffeine-Free
+Sodium-Free
+10 Tablets per Bottle
+1 Bottle Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 110
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe
+28g x 1/2in
+1mL
+Safety
+BROWN
+100/Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 109
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayon/poly knitted stretch gauze bandage
+Provides slight compression to the site while securely holding to any body contour
+Specifically designed not to slip while in use
+Unique weave construction and finished edges prevent unraveling and lining
+Lighter, economical version of the DUKAL Conforming Stretch Gauze
+Single channel construction
+SPECIFICATIONS:
+3" x 4.1yd Conforming Stretch Gauze Bandage
+Latex Free
+Rayon/Poly Blend
+Single Channel Construction
+12 Rolls per Bag
+1 Bag/Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 50
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro Glucose Meter/Monitor for Professional Use
+Capillary Whole Blood Testing
+1 Unit Each 
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 42
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33mm
+Foil
+Child Resistant Closure - Fits 50cc, 60cc, 75cc Bottles
+2,300/CASE
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 212
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft and flexible
+Highly absorbent non-stick pad to protect the wound
+100% Ultrasonic micro perforations to prevent skin maceration
+Long lasting adhesive allows for safe and easy removal
+Multi-purpose protection
+Sterile
+Latex Free
+2"x4"
+50 per box
+1 box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 73
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A convenient, ready-to-use, intermediate-level disinfecting wipe available in two sizes to fit all your needs
+Towels stay fully saturated and will not dry out during use
+Effective against TB, HBV, and HIV. Towelette and CaviCide in one
+For use on nonporous surfaces
+Sturdy and durable, nonwoven towelette will not bunch up or tear during use
+160 Wipes per Canister
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 206
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the simplest ways to ensure the validity of a specimen is to measure the temperature with self-adhesive temp strips
+A temperature reading taken within four minutes of obtaining a viable specimen should be between 90 and 100 degrees Fahrenheit 
+These self-adhesive strips may be attached to any specimen collection container
+Measurements: 1¾" x ½"
+Dual Scales for F°/C° (Fahrenheit &amp; Celsius)
+Shelf Life: Two years from date of manufacture
+180 Strips per sheet
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 16
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharps Container
+8 Gallon
+Red
+Hinged Lid
+Sold 1 Each 
+Packed 10/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 60
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leakbuster 2oz/60mL Specimen Cup
+No Label
+Yellow Screw on Lid
+NonSterile
+500 per Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 438
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX Destroyer - 64oz All Purpose Drug Disposal System 
+Leaves Medications Deactivated and Unavailable for Misuse
+Comes Ready-to-Use, No adding water
+Multiuse System, Continue to Add Until Full
+1 Bottle Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 27
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5qt BD Sharps Container 
+RED Base
+9in H x 4-1/2in W x 4in D
+Clear Lid Vertical Entry Hinged Snap On Lid 
+Locking Lid
+Needle Notch Lid Opening
+Non-Sterile
+ 1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 115
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contents: (1) Skin Staple Remover Stainless Steel, (1) 3x3" Gauze Sponge
+Sterile - Packed in sealed plastic tray
+Disposable
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 63
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal as a first aid antiseptic and cleanser
+For use in hospitals, clinics, doctor's offices, by first responders and at home
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 33
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribute flavor evenly throughout your beverages with these wooden stirrers. Boasting a sturdy wooden construction, these Berkley Square stirrers stand up to vigorous use, and with 1,000 to a pack you have plenty on hand to restock the break room, coffee bar, or other areas.
+Coffee stirrers great for restaurants, bars, cafes, and more
+5.5" stirrer length
+Made from beige wood
+1000 stirrers per pack
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 16
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AirLife Misty Max Nebulizer Kit
+Small Volume Medication Cup
+Universal Mouthpiece
+7 Foot Oxygen Tube Length
+1 Kit Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 76
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterile Suture Removal Kit
+Single-use kit that includes everything needed for safe and sanitary removal of sutures.
+Kit Includes:
+1 - Littauer Scissors
+1 - 3" x 3" Gauze pad
+1 - Plastic Serrated Forceps
+1 Kit Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 164
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color: White
+Latex Free, Cotton
+4 " x 4  "
+Sterility: Sterile
+100 per box
+Brand: Dukal
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 72
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Lancets
+Top Button Activated
+23g x 1.8mm 
+BLUE - for Normal Blood Flow
+100 Lancets per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 118
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Softie Oxygen Cannula  
+7' Sure Flow Tubing - Kink Resistant
+Standard Connector
+Over Ear Type
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 84
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocortisone Ointment
+1% Strength
+Individual 0.9g Packets
+144 Packets per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 31
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toenail Clipper
+Without File
+3"
+Made of corrosion resistant carbon steel for durability and performance.
+1 Each
+*Brand May Vary Depending on Availability*
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 66
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduated Medicine Cups
+Graduations:  1/8 - 1/4 - 3/8 - 1/2 - 3/4 - 1 - 1-1/2 - 2oz
+2oz/60mL Capacity
+Polypropylene 
+Clear/Translucent
+Rolled Rim
+NonSterile
+25 Cups per Sleeve
+1 Sleeve Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 40
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28g x 1.88mm Safety Lancet
+Contact Activated
+Pink
+100 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 389
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ear Wax Remover
+6.5% Strength
+Carbamide Peroxide
+15mL Bottle
+1 per Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 27
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proven clinically effective in the treatment of most athlete‚Äôs foot, jock itch and ring worm. ¬†For effective relief of itching, scaling, burning and discomfort that can accompany these conditions.¬†
+Miconazole Nitrate Antifungal Cream
+2% Strength
+1oz Tube
+1/Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 38
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 746
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 49
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFETEC  Ammonia Inhalant Wipe
+Use to Prevent or Treat Fainting
+15% - 30% Strength
+10 Individually Wrapped Wipes/Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 221
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For List of Brother Compatible Printers See Below
+OEM DK-1201
+Die-Cut Paper Labels
+White Standard Address Labels
+400 Rolls per Label
+1 Roll Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 377
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukal Cohesive Bandage - 4" x 5 Yds
+Tan 
+Self Adherent
+Non-Sterile
+Latex Free
+Standard Compression
+1 Roll Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 97
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+MEDIUM
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 324
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 705
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+X-LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+180 per box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 241
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunmark 200mg Ibuprofen Coated Tablets
+Ibuprofen is used to reduce fever
+Temporarily treat pain or inflammation caused by many conditions such as headache, toothache, back pain, arthritis, menstrual cramps, or minor injury
+Ibuprofen is a nonsteroidal anti-inflammatory drug (NSAID
+Gluten Free
+Compares to the active ingredient in Advil.
+500 Tablets Per Bottle
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 71
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insulin Syringe Needle
+0.5mL
+29g x ¬Ω"
+Safety
+100 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 174
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Nebulizer Mask Kit
+7 Foot Oxygen Tube Length
+Small Volume Medication Bowl
+1 Kit Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 21
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With Collar Ring
+Blue
+Plastic Disposable
+25 Bags per Pack 
+1 Pack Each
+To Order a Case, Please Order 4 Packs.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 192
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1" x 3"
+Highly Absorbent Non-stick Pad
+100% Ultrasonic Micro Perforations to Prevent Skin Maceration 
+Sterile 
+100 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 114
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides safe, convenient and permanent disposal of unused, expired or unwanted medications
+Medium
+45 Pill Capacity
+6oz Liquid Capacity
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 40
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antacid Heartburn Relief Tablets
+Famotidine
+10mg
+Compare to Pepcid AC
+30 Tablets per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 34
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine Transfer Straw
+For USe With:    Urine Vacuum Tubes
+3"  (7.5cm)
+NonSterile
+Transparent Hub and Straw
+100/Bag
+1 Bag Each
+*** Case Packed:   8 Bags per Case ***
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 412
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6oz Wound Cleanser
+Spray Bottle
+No rinse
+NonSterile
+pH Balanced 
+Non-Irritating
+1 Bottle Each
+***New  Wound  Cleanser  COMING  SOON***
+~~  6oz Coloplast Wound Cleanser is being MFR Discontinued. ~~
+(Being replaced with Smith and Nephew 8oz Dermal Wound Cleanser #59449200)
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 117
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermometer - LCD Infrared Non Contact Forehead 
+Fever Prompt 
+Auto Shut Off 
+Fast Reliable Readings in Seconds
+Stores up to 32 Readings
+Color Coded Temp Readings:
+GREEN = Normal
+YELLOW = Mild Fever
+RED = High Fever
+Included in Box:
+~ Thermometer
+~ Carry Bag
+~ Manual
+Uses (2) AAA Batteries
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 43
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Manual Bottletop Dispenser Pump
+Brand: Brandtech Scientific
+Adjustability Type: Digital
+Volume: 1-10mL
+Recirculation Valve Included
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 12
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fentanyl (FTY) Urine Dip Cassette Test Kit
+FDA/CLIA Waived POC ¬†¬†
+Ultra Sensitive Fentanyl Detection ¬†1 ng/ml
+Results in 5 Mins¬†
+25 Tests per Box¬†
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 652
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antifungal Cream
+1% Clotrimazole
+1oz (30g) Tube
+1 Each
+*Brand May Vary Depending on Availability*
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 74
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For List of Brother Compatible Printers See Below
+OEM DK-1208
+Die-Cut Paper Labels
+White Standard Address Labels
+400 Labels per Roll
+1 Roll Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 579
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 each)
+350 Labels per Roll
+Authentic Dymo 550 LabelWriter Printer Labels
+Direct thermal printing technology does not use expensive ink or toner
+Strong self-adhesive backing
+Labels Compatible with: DYMO LabelWriter 450, 450 Duo, 450 Turbo, 450 Twin Turbo, Wireless, 4XL, 550, 550 Turbo, 5XL
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 1376
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Rubbing Alcohol
+16oz Screw Top Bottle
+Percentage: 91%
+First aid antiseptic to help prevent the risk of infection in minor cuts, scrapes or burns
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 212
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery: Ointment
+Item: Triple Antibiotic
+Quantity: 1oz/Tube
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 55
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4oz (100mL) Vacuette Urine Specimen Collection Cup
+with Transfer Straw
+Patient Information 
+Sterile
+Graduated
+300/Case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 150
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x2" Reclosable Zip-Style 2 Mil Poly Bags 
+Clear Line 
+1000/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 52
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Lock Solid Body Padlock
+¾" W x 7/16" T
+4mm Hardened Steel Shackle
+Non-Keyable
+3 Pin Tumbler Cylinder Provides Pick Resistance
+ Includes (2) Keys - Keyed Differently
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 398
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltine Cracker Packs
+2 original baked crackers per individually wrapped packet
+Perfect for snacking or with salad and soup
+Great for on-the go to keep you going
+No saturated fat, no trans fat and no cholesterol
+500 Packs per Case
+1 Case Each
+**  ALL Food Related Items are NON-RETURNABLE  **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 62
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM-Premium Prism Sensor Module f / AlcoMate Premium Breathalyzer 
+200 Tests per Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 34
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8oz Dial Professional Antibacterial Hand Sanitizer Gel with Pump
+Fragrance-free
+Dye-free - Clear
+Kills 99.99% of Germs
+Tested on Latex, Vinyl and Nitrile Gloves
+Dermatologist Tested
+Hypoallergenic
+Moisturizing Skin Conditioners
+1 Bottle Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 80
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue
+Press &amp; Lock Safety Reliable Mechanism for Permanent Lock
+Ergonomic Wings for Ease of Use
+Ultra Sharp Needle for Patient Comfort
+Sterile Single Packs for Single Use
+US FDA 510K Approved
+50 per Box 
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 58
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple Antibiotic Ointment 0.9g
+Individual Packets
+Fragrance-free
+Phthalate-free
+Paraben-free
+Dye-free
+Compare to the active ingredients in Neosporin®
+First aid to help prevent infection in minor cuts, scrapes and burns
+144 Packets/Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 38
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Instant Hand Sanitizing Wipes
+Brand: PDI
+70% Ethyl Alcohol
+Wipe format removes dirt and soil better than gels and foams
+Safe to use before eating and drinking
+Clinically proven to kill 99.99% of germs
+Meets OSHA Bloodborne Pathogen Standard 29 CFR Part 1910.1030
+Contains soothing Aloe and Vitamin E to moisturize the skin
+Made in the USA
+1 Canister Each
+135 Wipes/Canister
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 72
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Sharps Container
+Color: Translucent Red
+Size: 1 Quart
+Brand: BEMIS
+Dual Openings/Vertical Drop Lid
+Autoclavable
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 101
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
+w/Safety Shield
+Low Dead Space
+100 per Box - 1 Box Each
+(Case Packed - 5 Boxes per Case)
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 66
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Dot ECG/EKG Resting Adult Electrode
+Conductive Adhesive Gel
+Contains Silver/Silver Chloride
+Tab Style 
+2cm W x 2cm L
+10 Tabs per Card 
+10 Cards per Bag = 100 Tabs per Bag
+1 Bag Each
+*WARNING: Image may not be an exact representation of the the product*
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 122
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33mm Pressure Sensitive Child Resistant Cap (CRC) 
+White
+Fits 50cc, 60cc, and 75cc Bottles 
+2,300 per Case - 1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 124
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Knight Pill Crusher Pouch Bags
+Curved Base Opening
+LDPE Material
+Pouch Size:   2 x 4 ½"
+Pouch Holds up to 50 Pills
+1,000 Pouches/Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 133
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 167
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
+Professional Use
+50 Strips per Box 
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 779
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Flavored
+9g high-quality protein
+220 nutrient-rich calories with B-vitamins
+Contains vitamins C &amp; D, zinc, iron, and selenium, key nutrients for immune support
+8 Ounce Bottles
+No Artificial sweeteners, flavors &amp; colors
+24 Bottles per Case
+***  Brand may vary depending on availability *** 
+**  ALL Food Related Items are NON-RETURNABLE  **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 51
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Dukal
+Application: Gauze Sponge
+Ply: 8
+Size: 4x4
+Sterility: Non-Sterile
+100% Woven Cotton
+200/Pack
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 158
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Dukal
+Application: Gauze Sponge
+Ply: 8
+Size: 2x2
+Sterility: Non-Sterile
+100% Woven Cotton
+200/Pack
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 464
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourniquet  1" x 18" 
+Slip Resistant Textured Grip
+BLUE
+Latex Free
+100 Rolled and Banded per Bag 
+1 Bag Each
+*** New MFR and Packaging COMING SOON ***
+(250 Rolls per Pack)
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 94
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Labels Per Roll: 1,000
+Label Width: 2-1/4"
+Label Height: 1-¼"
+Wound: Out
+Compatible With: 30334
+Printer Technology: Direct Thermal
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 507
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Isopropyl Rubbing Alcohol  
+Size: 32oz
+Percentage: 70%
+Cleans minor cuts, scrapes and burns while it helps reduce the risk of infection
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 375
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60cc Bottle
+Made in the USA
+Color: Natural
+Type: Round
+1,000/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 382
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial Tissues
+8" x 8.25"
+White
+2 Ply
+Fragrance and Lotion Free
+90 Tissues per Flat Box = 1 Box Each
+*** Case Packed - 30 Boxes per Case ***
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 104
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Panel Urine Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+BUP
+BZO
+COC
+MOP
+MTD
+OXY
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 44
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Panel Drug Test Cup
+CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MTD
+OPI
+OXY
+PCP
+PPX
+TCA
+THC
+25/Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 23
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Contains: Adulterants
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39F to 86F (4C to 30C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate: CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for following drug panels:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP
+MTD
+OXY
+PCP
+THC
+w/3 Adulterants
+25 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 411
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid Drug Test Cup
+CLIA Waived
+510K Approved
+Accurate Results within 5 Minutes
+Test Panels Include:
+AMP 500
+BAR 300
+BZO 300
+BUP 10
+COC 150
+FYL 1
+MDMA 500
+MET 500
+MOP 300
+MTD 300
+OXY 100
+PCP 25
+TCA 1000
+THC 50
+25 per Box 
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 519
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery system Includes:
+5 Quart Sharps Container (2.25″ L x 4.75″ W x 10.5″ H)
+Protective Plastic Liner and Tie 
+Specially Designed &amp; Approved Inner Carton
+Pre-Paid UPS Return Shipping Carton  
+Water Resistant Sealing Tape 
+Shipping Manifest Form for Tracking and Certification of Destruction
+Clear &amp; Easy Instructions  
+1 Each
+This recovery system can be set-up on an auto-shipment.
+Need to schedule pick-up with USPS for your kit? Click Here.
+This item is a drop ship item sent directly from the manufacturer. It will be traced to your location and therefore can not be returned or refunded.  If you have questions about this item or policy, we ask that you reach out to our sales team at (706) 858-6260 prior to purchase.
+~~~ Please note: Customers located in Alaska and Hawaii may be subject to additional shipping charges ~~~
+Please log in to see price or purchase this item
+ Available to order
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Collection Tube Holders
+For 13 to 16mm Blood Collection Tubes
+Universal design for compatibility with blood collection needles and winged sets
+DEHP Free and Latex Free Materials
+Made of Polypropylene
+Transparent
+100 Holders per Pack
+1 Pack Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 25
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mL Venous Blood Collection Tube
+No Additive
+BD Hemogard Closure
+Silicone Coated Closure
+Without Color Coding
+13 X 100 mm
+Polyethylene Terephthalate (PET) Tube
+Sterile
+Clear Tube
+100 per Box 
+1 Box Each
+***  (Case Packed:  10 Boxes/Case) ***
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 292
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 1401
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Earloop Procedure Face Masks
+ASTM Level 1
+3 Layer - 4 Fold Pleat
+Ultra Soft Inner Liner
+Pop Out Flex Center Strip to Enhance Breathability and Reduce Mask Movement when Speaking
+Fluid Resistant
+50 Masks per Box
+1 Box Each
+To purchase a case of masks, order 20 boxes.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 101
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2" x 5yds Cohesive Elastic Bandage Wrap
+TAN
+Self Adherent
+Flexible
+Latex Free
+NonSterile
+1 Roll Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 135
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datamax Compatible White Direct Thermal Labels 
+Sold Per Roll (1 Each)
+Qty: 1,380 per Roll
+3.5'' x 1''
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 204
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4" x 5" Instand Cold Pack
+Flexible material conforms to body
+Helps reduce swelling
+Ideal for minor sprains, muscle spasms, headaches, and burns
+Our formula is non-toxic and safe to humans and to the environment.
+50 Packs/Case = 1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 29
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1oz Medicine Translucent Polypropylene Cup
+Easy Graduations
+Disposable
+Great for pill or liquid medication
+100 cups per sleeve
+50 sleeves per case
+Packed 5,000 cups per case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 71
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23g x 3/4"  Safety Butterfly Blood Collection Set
+with  Luer Adapter
+12" Tubing
+Single Packed
+Sterile
+Thin Wall
+90 per Box
+1 Box Each 
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 26
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3" x ¾" Lightweight Flexible Fabric Bandage
+Tan
+Stat Strip Adhesive Bandage
+100/Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 28
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhesive Bandage
+Sterile
+Lightweight
+Designed to provide comfortable protection
+The highly absorbent pad will not stick to the wound
+Long lasting adhesive gently sticks to skin
+Pre-folded wrapper tabs make them easy to open
+The soft weaved material bends easily and conforms to the body, staying on even when wet
+100 Bandages per Box
+1 Box Each
+To Order a Case, Please Order 12 Boxes.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 203
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An economical choice for short term, lightweight or refrigerated storage
+Bags are packed in inner dispenser packs of 100 bags each for cleanliness and convenience
+Cases and inner packs are bar coded and clearly labeled for easy identification
+Meet FDA requirements for use in food applications
+Elkay F20406
+2 mil Line Single Track Seal Top Bag
+4" x 6"
+Clear
+Qty: 1000 per case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 18
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium 8" x 5.5" Lockable Medication Bag
+Made of Denier Fabric and Laminated Nylon 
+Navy Blue
+1 Each
+*Color May Vary Depending on Stock Availability*
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 403
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Panel T-Cup Compact - 4oz Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions:¬†39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:¬†Forensic Use Only
+Tests for the following drug panels:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP
+MTD
+OXY
+PCP
+THC
+ETG
+FTY
+TRA
+K2
+25 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 187
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 99
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 383
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 1034
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 304
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain 6mL Blood Collection Tube
+Z No Additives
+WHITE Cap with BLACK Ring
+13 x 100mm
+PET Clear Plastic Tube
+Sterile
+50 Tubes per Pack
+1 Pack Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 1158
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysol Disinfecting Wipes 
+Kills 99.9% of viruses and bacteria, including 8 cold and flu viruses
+Cleans AND disinfects your household surfaces
+Safe to use on electronics including Smartphones, Tablets and Remote Controls
+7in x 7.25in
+Lemon and Lime Blossom/Citrus (or) Crisp Linen Scent 
+(Scent depends on availability.)
+80 wipes per canister
+1 Canister Each
+(Case Packed: 6 canisters/Case)
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 156
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Grade Disinfectant Wipes
+Kills 99.9% of Viruses and Bacteria
+ Fragrance Free
+ 6" x 6.75"
+160 Wipes/Canister
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 31
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8" Sterile ABD Pad
+8" x 7.5" 
+20 Pads per Box 
+1 Box Each
+Overstock Clearance Special! 
+Once overstock inventory is depleted, the sale price will no longer be available and any pending order will revert to regular pricing. Please call customer service or your account manager to confirm availability at 706-858-6260, option 1. 
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 471
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink Mix Thirst Ease
+Orange Powder
+Wood Fruitticher #010959.
+12 - 2gal packets per case = 1 Case Each
+**  ALL Food Related Items are NON-RETURNABLE  **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 37
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 2 Cotton Gauze Pads - 12 Ply
+NonSterile
+100% Woven Cotton
+200 per Pack
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 58
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouthpiece Fits AlcoMate Breathalyzers
+50 Mouthpieces per Bag
+1 Bag Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 622
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helps patients manage their side effects
+Vitadone helps to appreciably reduce the bad side effects of methadone dosing
+Helps with excessive sweating, irregularity, sugar cravings and fatigue
+Quantity Discounts
+Available as Singles and Case (24 bottles)
+Please log in to see price or purchase this item
+ Low stock, order now!
+Current Stock: 1
+Unit :
+- Select -
+Single Bottle
+Case
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Chemistry Urine Reagent Test Strips
+CLIA Waived
+Tests Urine for
+Glucose¬†
+Bilirubin¬†
+Ketone
+Specific Gravity¬†
+Blood¬†
+pH¬†
+Protein
+Urobilinogen¬†
+Nitrite
+Leukocytes
+For Use with AimStrip¬Æ Urine Analyzer or Visual Read
+Store at Room Temperature
+100 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 68
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Alcohol 70%
+ Sterile Alcohol Prep Pad
+Dimensions: 1 X 1 1/4 Inch
+Individual Packets
+NonWoven Gauze
+ 2 - Ply
+Scent: Alcohol Scent
+Sterility: Sterile
+Size: Medium
+200 Pads per Box
+(PACKED:  ​​​​​​20 Boxes/Case)
+Brand may vary based on availability. Includes brands such as Webcol, Dukal, or similar. 
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 977
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturated with 70% isopropyl alcohol
+2-Ply Non-Woven Pads
+1.75" x 3.3"
+100 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 292
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc Wide - Mouth Round
+Neck Finish: 28/400
+1500 per Case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 602
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4in x 4in Gauze Sponge 4 Ply
+Nonwoven
+Highly Absorbent
+Non-Linting
+WHITE
+NonSterile
+Multi-purpose for general cleaning/prepping and ointments
+200 per Pack - 1 Pack Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 128
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+SMALL
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 888
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Sani-Cloth Surface Disinfectant Cleaner Wipe
+6" x 6.75"
+Premoistened Germicidal Wipe
+Quaternary Ammonium / Isopropyl Alcohol
+Alcohol Scent
+160 Wipes per Canister
+1 Canister Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 250
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep your items clean and dry with our reclosable poly bags. These 2 mil bags are made of low-density polyethylene (LDPE) and feature a superior zipper closure to keep your items safe. The single track zipper is easy to pull open and pinch shut, so you can be sure that your items are sealed and protected from dirt and moisture.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 200
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vacutainer SST Blood Collection Tube was designed to make serum sample preparation more efficient and improve laboratory workflow.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 81
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 494
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic Coffee Stir/Straw
+Black
+5-1/2" Polypropylene (PP)
+Unwrapped
+Extra-rigid construction provides safe use with hot or cold drinks
+1,000/Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 94
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO Commercial Lysol Disinfectant Spray
+19oz Can
+Kills 99.9% illness causing germs, viruses and bacteria
+Disinfects hard non-porous surfaces and soft surfaces
+CDC and OSHA Certified
+1 Can Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 49
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** CLEARANCE ¬†ITEM - ONLY While Supplies Last ***
+A rapid test for the detection of SARS-CoV-2 nucleocapsid antigens in anterior nasal swab specimens. For in vitro diagnostic use only. For Emergency Use Authorization only
+Visual Read
+Results in 15 mins
+Included in Box:
+- Test Cassette
+- Disposable Nasal Swab¬†
+- Extraction Buffer Tube¬†
+- Package Insert
+1 Test per box¬†
+Quantity Discounts Available
+ITEM IS NOT REFUNDABLE
+** Instock &amp; Available to Ship **
+¬†
+¬†
+*** Contact Customer Service for Quantity Available ***
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 75
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precise and accurate test strip chemistry is augmented by auto-coding, reducing the chance of error
+Feature loaded and made for multi-resident use, it helps keep you in compliance with state regulations and eases infection control concerns
+Precise and accurate strip chemistry is augmented by auto-coding, which can reduce chances for user error
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 247
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6" x 9" Lab-Loc Specimen Transport Bag 
+Clear
+Re-closeable 
+W/ 3-Wl
+Qty: 1,000/Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 60
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Forensic Use Only
+Format: Dip Card
+Time to Results: 5 minutes
+Tests for: Fentanyl (FTY)
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 610
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Tests for: Ethyl Glucuronide (EtG)
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate: Forensic use Only
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 88
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Panel Urine Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+MET
+MTD
+OPI
+OXY
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 54
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel Urine Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for: AMP, BAR, BUP, BZO, COC, mAMP, MDMA, MOP, MTD, OXY, PCP, THC
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 577
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel Drug Test Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate: CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MTD
+OPI
+OXY
+PCP
+THC
+25/Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 52
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel 4oz Compact Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for: AMP / BAR / BUP / BZO / COC / mAMP / MDMA / MOP / MTD / OXY / PCP / THC
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 795
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Panel Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MTD
+OPI
+OXY
+THC
+25 per Box
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 1155
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine
+4oz 120mL Volume Cup 
+Temperature Strip
+5 minutes Result Time
+Store between 39°F to 86°F (4°C to 30°C)
+Over 99% Accuracy
+24 Month Shelf Life From Date of Manufacture
+CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for the Following:
+AMP
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP (OPI)
+MTD
+OXY
+THC
+25 Tests per Box
+1 Box Each
+To Order a Case, Please Order 4 Boxes.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 175
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast contact time allows for a quick room turnover
+Ideal for daily use in fast-paced environments that require short contact times and broad coverage of microorganisms
+Bactericidial, tuberculocidal, virucidal
+Effective against 30 microorganisms in 2 minutes
+Multi-count canister accommodates frequent usage
+Perfect wipe size for larger surface areas
+75 / canister
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 174
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline Finger Pulse Oximeter
+Visual Alarm
+LED Display
+Battery Operated - (2) AAA Included
+For Adult and Pediatric Patients
+Lightweight and Portable
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 79
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharps Collection/Disposal Container
+ 5 Quart Capacity
+Red
+Anti-Kickback Lid
+Horizontal Entry
+Automatic Shut Off to Prevent Overflow
+Locking Tabs
+Dimensions: 10.75" x 10.5" x 4.75"
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 382
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Sharps Collection Container
+White Horizontal Entry Counter Balanced Cylinder Lid
+Size: 2 Gallon
+Locking Lid
+Free Standing
+12-1/2 H X 10-7/10 W X 6 D Inch
+1/Each
+** Wire Wall Mount Bracket Option Available - Contact your sales rep for more information. **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 96
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Plastic Souffle Cup
+Color: Translucent
+Volume: 2oz
+Made From: Plastic
+2,500/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 44
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Rubbing Alcohol 70%
+16oz Bottle
+Antiseptic Liquid
+Helps prevent the risk of infection due to minor cuts, scrapes and burns
+Screw Top Cap
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 108
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Replacement Tubing
+Compatibility: Intended for Use with SciLog Automatic Methadone Dispensing Pump
+Length: 50 Feet
+1 Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 33
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Induction Sealer Machine
+110V Electromagnetic
+Hand held operation w/ thumb switch
+Sealing time digital display (seconds and tenth of seconds)
+Self-protection from overheating
+Seals induction caps 20 to 100mm in diameter
+1 Year Warranty
+1 Unit Each
+*Ships separately*
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 121
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deluxe Commode Specimen Pan Collector 
+800mL
+Graduated
+White
+100/Case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 71
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5oz Clear Plastic Cup
+Rolled Lip
+Disposable
+Latex Free
+100 per Pack - 25 Packs/Case = 2,500 Cups/Case
+1 Case Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 632
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260 Labels per Roll
+White
+30321 Dymo Compatible
+1-4/10" X 3.5" w/ Permanent Adhesive 
+1 Roll Each
+To Order a Case, Please Order 18 Rolls.
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 650
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cc
+Natural Square Bottle
+1,505/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 2030
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc 
+Natural Wide Mouth Round Bottle 
+1,900/Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 337
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clorox Heallthcare VersaSure Disinfectant Wipes
+Alcohol Free
+Fragrance Free
+Fume Free
+Low Odor
+Durable  8" L x 6.75" W
+Bacteria - Virus  &amp; Fungi Remover
+Multi-purpose Multi-surface Disinfectant 
+85 Wipes per Canister
+1 Canister Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 36
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90mL (3oz) Urine Specimen Cup
+with Graduations
+Temperature Strip
+Screw Top Cap
+Patient Information Label
+Sterile
+25 Cups per Box 
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 169
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+350 Labels per Roll
+Dymo Compatible White Direct Thermal Labels 
+1-1/8" x 3.5" w/ Permanent Adhesive 
+** These labels are not compatible with the Dymo 550 **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 6251
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix powder with two gallons of water in bubbler or large container
+Ingredients: Sugar, Citric Acid, Contains Less Than 2% Of Natural And Artificial Flavor, Ascorbic Acid (Vitamin C), Calcium Phosphate, Acesfulfame Potassium And Neotame (Sweeteners), Artificial Color, Red 40 BHA (Preserves Freshness)
+Qty: 12 two-gallon packets per case
+*Sold Only By the Case*
+**  ALL Food Related Items are NON-RETURNABLE  **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 35
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2in x 5in Clear Line Zipper Reclosable bags
+ Meets FDA requirements
+2 mil Recyclable LDPE Material
+Bags are packed in inner dispenser packs of 100 bags each
+1,000 Bags per Case
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 191
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Cassette
+Rapid Results in 5 mins
+Urine Sample
+CLIA Waived
+25mIU/mL Sensitivity
+25 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 194
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Qty: 420 labels per Roll
+1.5" X 3.5"
+Zebra Compatible White Direct Thermal Labels
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 3315
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helps patients manage their side effects
+Vitadone helps to appreciably reduce the bad side effects of methadone dosing
+Helps with excessive sweating, irregularity, sugar cravings and¬†fatigue
+24 Bottles per Case
+1 Case Each
+Volume Discounts are available for orders of 2 Cases or more. Volume savings will not display in the cart but it will be applied in your final invoice.
+*** Professional Office Purchases Only ***
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 14
+ Pinit SharePost</t>
   </si>
 </sst>
 </file>
@@ -6949,7 +9068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1072"/>
+  <dimension ref="A1:K1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -39722,6 +41841,4374 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1073" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1073" s="1"/>
+      <c r="I1073">
+        <v>78</v>
+      </c>
+      <c r="J1073" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>934</v>
+      </c>
+      <c r="H1074" s="1"/>
+      <c r="I1074">
+        <v>68</v>
+      </c>
+      <c r="J1074" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>935</v>
+      </c>
+      <c r="H1075" s="1"/>
+      <c r="I1075">
+        <v>214</v>
+      </c>
+      <c r="J1075" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>936</v>
+      </c>
+      <c r="H1076" s="1"/>
+      <c r="I1076">
+        <v>110</v>
+      </c>
+      <c r="J1076" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1077" s="1"/>
+      <c r="I1077">
+        <v>109</v>
+      </c>
+      <c r="J1077" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1078" s="1"/>
+      <c r="I1078">
+        <v>50</v>
+      </c>
+      <c r="J1078" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>939</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1079" s="1"/>
+      <c r="I1079">
+        <v>42</v>
+      </c>
+      <c r="J1079" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>940</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1080" s="1"/>
+      <c r="I1080">
+        <v>212</v>
+      </c>
+      <c r="J1080" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1081" s="1"/>
+      <c r="I1081">
+        <v>73</v>
+      </c>
+      <c r="J1081" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>942</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1082" s="1"/>
+      <c r="I1082">
+        <v>206</v>
+      </c>
+      <c r="J1082" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>943</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1083" s="1"/>
+      <c r="I1083">
+        <v>16</v>
+      </c>
+      <c r="J1083" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>944</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1084" s="1"/>
+      <c r="I1084">
+        <v>60</v>
+      </c>
+      <c r="J1084" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>945</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1085" s="1"/>
+      <c r="I1085">
+        <v>438</v>
+      </c>
+      <c r="J1085" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>946</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1086" s="1"/>
+      <c r="I1086">
+        <v>27</v>
+      </c>
+      <c r="J1086" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>947</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1087" s="1"/>
+      <c r="I1087">
+        <v>115</v>
+      </c>
+      <c r="J1087" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1088" s="1"/>
+      <c r="I1088">
+        <v>63</v>
+      </c>
+      <c r="J1088" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>949</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1089" s="1"/>
+      <c r="I1089">
+        <v>33</v>
+      </c>
+      <c r="J1089" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>950</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1090" s="1"/>
+      <c r="I1090">
+        <v>16</v>
+      </c>
+      <c r="J1090" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>951</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1091" s="1"/>
+      <c r="I1091">
+        <v>76</v>
+      </c>
+      <c r="J1091" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>952</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1092" s="1"/>
+      <c r="I1092">
+        <v>164</v>
+      </c>
+      <c r="J1092" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>953</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1093" s="1"/>
+      <c r="I1093">
+        <v>72</v>
+      </c>
+      <c r="J1093" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1094" s="1"/>
+      <c r="I1094">
+        <v>118</v>
+      </c>
+      <c r="J1094" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>955</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1095" s="1"/>
+      <c r="I1095">
+        <v>84</v>
+      </c>
+      <c r="J1095" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>956</v>
+      </c>
+      <c r="H1096" s="1"/>
+      <c r="I1096">
+        <v>31</v>
+      </c>
+      <c r="J1096" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1097" s="1"/>
+      <c r="I1097">
+        <v>66</v>
+      </c>
+      <c r="J1097" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>958</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1098" s="1"/>
+      <c r="I1098">
+        <v>40</v>
+      </c>
+      <c r="J1098" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>959</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1099" s="1"/>
+      <c r="I1099">
+        <v>389</v>
+      </c>
+      <c r="J1099" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>960</v>
+      </c>
+      <c r="H1100" s="1"/>
+      <c r="I1100">
+        <v>27</v>
+      </c>
+      <c r="J1100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>961</v>
+      </c>
+      <c r="H1101" s="1"/>
+      <c r="I1101">
+        <v>38</v>
+      </c>
+      <c r="J1101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>962</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1102" s="1"/>
+      <c r="I1102">
+        <v>746</v>
+      </c>
+      <c r="J1102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>963</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1103" s="1"/>
+      <c r="I1103">
+        <v>49</v>
+      </c>
+      <c r="J1103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>964</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1104" s="1"/>
+      <c r="I1104">
+        <v>221</v>
+      </c>
+      <c r="J1104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>965</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1105" s="1"/>
+      <c r="I1105">
+        <v>377</v>
+      </c>
+      <c r="J1105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>966</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1106" s="1"/>
+      <c r="I1106">
+        <v>97</v>
+      </c>
+      <c r="J1106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>967</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1107" s="1"/>
+      <c r="I1107">
+        <v>324</v>
+      </c>
+      <c r="J1107" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>968</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1108" s="1"/>
+      <c r="I1108">
+        <v>705</v>
+      </c>
+      <c r="J1108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>969</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1109" s="1"/>
+      <c r="I1109">
+        <v>241</v>
+      </c>
+      <c r="J1109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>970</v>
+      </c>
+      <c r="H1110" s="1"/>
+      <c r="I1110">
+        <v>71</v>
+      </c>
+      <c r="J1110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>971</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1111" s="1"/>
+      <c r="I1111">
+        <v>174</v>
+      </c>
+      <c r="J1111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>972</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1112" s="1"/>
+      <c r="I1112">
+        <v>21</v>
+      </c>
+      <c r="J1112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>973</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1113" s="1"/>
+      <c r="I1113">
+        <v>192</v>
+      </c>
+      <c r="J1113" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1114" s="1"/>
+      <c r="I1114">
+        <v>114</v>
+      </c>
+      <c r="J1114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>975</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1115" s="1"/>
+      <c r="I1115">
+        <v>40</v>
+      </c>
+      <c r="J1115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>976</v>
+      </c>
+      <c r="H1116" s="1"/>
+      <c r="I1116">
+        <v>34</v>
+      </c>
+      <c r="J1116" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>977</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1117" s="1"/>
+      <c r="I1117">
+        <v>412</v>
+      </c>
+      <c r="J1117" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>978</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1118" s="1"/>
+      <c r="I1118">
+        <v>117</v>
+      </c>
+      <c r="J1118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>979</v>
+      </c>
+      <c r="H1119" s="1"/>
+      <c r="I1119">
+        <v>43</v>
+      </c>
+      <c r="J1119" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>980</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1120" s="1"/>
+      <c r="I1120">
+        <v>12</v>
+      </c>
+      <c r="J1120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>981</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1121" s="1"/>
+      <c r="I1121">
+        <v>652</v>
+      </c>
+      <c r="J1121" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>982</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1122" s="1"/>
+      <c r="I1122">
+        <v>74</v>
+      </c>
+      <c r="J1122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>983</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1123" s="1"/>
+      <c r="I1123">
+        <v>579</v>
+      </c>
+      <c r="J1123" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>984</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1124" s="1"/>
+      <c r="I1124">
+        <v>1376</v>
+      </c>
+      <c r="J1124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>985</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1125" s="1"/>
+      <c r="I1125">
+        <v>212</v>
+      </c>
+      <c r="J1125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>986</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1126" s="1"/>
+      <c r="I1126">
+        <v>55</v>
+      </c>
+      <c r="J1126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>987</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1127" s="1"/>
+      <c r="I1127">
+        <v>150</v>
+      </c>
+      <c r="J1127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>988</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1128" s="1"/>
+      <c r="I1128">
+        <v>52</v>
+      </c>
+      <c r="J1128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>989</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1129" s="1"/>
+      <c r="I1129">
+        <v>398</v>
+      </c>
+      <c r="J1129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>990</v>
+      </c>
+      <c r="H1130" s="1"/>
+      <c r="I1130">
+        <v>62</v>
+      </c>
+      <c r="J1130" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>991</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1131" s="1"/>
+      <c r="I1131">
+        <v>34</v>
+      </c>
+      <c r="J1131" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>992</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1132" s="1"/>
+      <c r="I1132">
+        <v>80</v>
+      </c>
+      <c r="J1132" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>993</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1133" s="1"/>
+      <c r="I1133">
+        <v>58</v>
+      </c>
+      <c r="J1133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>994</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1134" s="1"/>
+      <c r="I1134">
+        <v>38</v>
+      </c>
+      <c r="J1134" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>995</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1135" s="1"/>
+      <c r="I1135">
+        <v>72</v>
+      </c>
+      <c r="J1135" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>996</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1136" s="1"/>
+      <c r="I1136">
+        <v>101</v>
+      </c>
+      <c r="J1136" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>997</v>
+      </c>
+      <c r="H1137" s="1"/>
+      <c r="I1137">
+        <v>66</v>
+      </c>
+      <c r="J1137" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>998</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1138" s="1"/>
+      <c r="I1138">
+        <v>122</v>
+      </c>
+      <c r="J1138" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>999</v>
+      </c>
+      <c r="H1139" s="1"/>
+      <c r="I1139">
+        <v>124</v>
+      </c>
+      <c r="J1139" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1140" s="1"/>
+      <c r="I1140">
+        <v>133</v>
+      </c>
+      <c r="J1140" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1141" s="1"/>
+      <c r="I1141">
+        <v>167</v>
+      </c>
+      <c r="J1141" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1142" s="1"/>
+      <c r="I1142">
+        <v>779</v>
+      </c>
+      <c r="J1142" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H1143" s="1"/>
+      <c r="I1143">
+        <v>51</v>
+      </c>
+      <c r="J1143" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1144" s="1"/>
+      <c r="I1144">
+        <v>158</v>
+      </c>
+      <c r="J1144" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1145" s="1"/>
+      <c r="I1145">
+        <v>464</v>
+      </c>
+      <c r="J1145" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1146" s="1"/>
+      <c r="I1146">
+        <v>94</v>
+      </c>
+      <c r="J1146" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1147" s="1"/>
+      <c r="I1147">
+        <v>507</v>
+      </c>
+      <c r="J1147" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1148" s="1"/>
+      <c r="I1148">
+        <v>375</v>
+      </c>
+      <c r="J1148" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1149" s="1"/>
+      <c r="I1149">
+        <v>382</v>
+      </c>
+      <c r="J1149" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H1150" s="1"/>
+      <c r="I1150">
+        <v>104</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1151" s="1"/>
+      <c r="I1151">
+        <v>44</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1152" s="1"/>
+      <c r="I1152">
+        <v>23</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1153" s="1"/>
+      <c r="I1153">
+        <v>411</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H1154" s="1"/>
+      <c r="I1154">
+        <v>519</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1155" s="1"/>
+      <c r="J1155" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1156" s="1"/>
+      <c r="I1156">
+        <v>25</v>
+      </c>
+      <c r="J1156" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1157" s="1"/>
+      <c r="I1157">
+        <v>292</v>
+      </c>
+      <c r="J1157" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1158" s="1"/>
+      <c r="I1158">
+        <v>1401</v>
+      </c>
+      <c r="J1158" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1159" s="1"/>
+      <c r="I1159">
+        <v>101</v>
+      </c>
+      <c r="J1159" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1160" s="1"/>
+      <c r="I1160">
+        <v>135</v>
+      </c>
+      <c r="J1160" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1161" s="1"/>
+      <c r="I1161">
+        <v>204</v>
+      </c>
+      <c r="J1161" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1162" s="1"/>
+      <c r="I1162">
+        <v>29</v>
+      </c>
+      <c r="J1162" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1163" s="1"/>
+      <c r="I1163">
+        <v>71</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1164" s="1"/>
+      <c r="I1164">
+        <v>26</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1165" s="1"/>
+      <c r="I1165">
+        <v>28</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1166" s="1"/>
+      <c r="I1166">
+        <v>203</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1167" s="1"/>
+      <c r="I1167">
+        <v>18</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1168" s="1"/>
+      <c r="I1168">
+        <v>403</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1169" s="1"/>
+      <c r="I1169">
+        <v>187</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1170" s="1"/>
+      <c r="I1170">
+        <v>99</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1171" s="1"/>
+      <c r="I1171">
+        <v>383</v>
+      </c>
+      <c r="J1171" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1172" s="1"/>
+      <c r="I1172">
+        <v>1034</v>
+      </c>
+      <c r="J1172" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1173" s="1"/>
+      <c r="I1173">
+        <v>304</v>
+      </c>
+      <c r="J1173" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1174" s="1"/>
+      <c r="I1174">
+        <v>1158</v>
+      </c>
+      <c r="J1174" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1175" s="1"/>
+      <c r="I1175">
+        <v>156</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1176" s="1"/>
+      <c r="I1176">
+        <v>31</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1177" s="1"/>
+      <c r="I1177">
+        <v>471</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1178" s="1"/>
+      <c r="I1178">
+        <v>37</v>
+      </c>
+      <c r="J1178" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1179" s="1"/>
+      <c r="I1179">
+        <v>58</v>
+      </c>
+      <c r="J1179" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1180" s="1"/>
+      <c r="I1180">
+        <v>622</v>
+      </c>
+      <c r="J1180" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H1181" s="1"/>
+      <c r="I1181">
+        <v>1</v>
+      </c>
+      <c r="J1181" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1182" s="1"/>
+      <c r="I1182">
+        <v>68</v>
+      </c>
+      <c r="J1182" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1183" s="1"/>
+      <c r="I1183">
+        <v>977</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1184" s="1"/>
+      <c r="I1184">
+        <v>292</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1185" s="1"/>
+      <c r="I1185">
+        <v>602</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1186" s="1"/>
+      <c r="I1186">
+        <v>128</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1187" s="1"/>
+      <c r="I1187">
+        <v>888</v>
+      </c>
+      <c r="J1187" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1188" s="1"/>
+      <c r="I1188">
+        <v>250</v>
+      </c>
+      <c r="J1188" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1189" s="1"/>
+      <c r="I1189">
+        <v>200</v>
+      </c>
+      <c r="J1189" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1190" s="1"/>
+      <c r="I1190">
+        <v>81</v>
+      </c>
+      <c r="J1190" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1191" s="1"/>
+      <c r="I1191">
+        <v>494</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1192" s="1"/>
+      <c r="I1192">
+        <v>94</v>
+      </c>
+      <c r="J1192" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1193" s="1"/>
+      <c r="I1193">
+        <v>49</v>
+      </c>
+      <c r="J1193" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1194" s="1"/>
+      <c r="I1194">
+        <v>75</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1195" s="1"/>
+      <c r="I1195">
+        <v>247</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1196" s="1"/>
+      <c r="I1196">
+        <v>60</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1197" s="1"/>
+      <c r="I1197">
+        <v>610</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1198" s="1"/>
+      <c r="I1198">
+        <v>88</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1199" s="1"/>
+      <c r="I1199">
+        <v>54</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1200" s="1"/>
+      <c r="I1200">
+        <v>577</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1201" s="1"/>
+      <c r="I1201">
+        <v>52</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1202" s="1"/>
+      <c r="I1202">
+        <v>795</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1203" s="1"/>
+      <c r="I1203">
+        <v>1155</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1204" s="1"/>
+      <c r="I1204">
+        <v>175</v>
+      </c>
+      <c r="J1204" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1205" s="1"/>
+      <c r="I1205">
+        <v>174</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1206" s="1"/>
+      <c r="I1206">
+        <v>79</v>
+      </c>
+      <c r="J1206" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1207" s="1"/>
+      <c r="I1207">
+        <v>382</v>
+      </c>
+      <c r="J1207" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1208" s="1"/>
+      <c r="I1208">
+        <v>96</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H1209" s="1"/>
+      <c r="I1209">
+        <v>44</v>
+      </c>
+      <c r="J1209" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1210" s="1"/>
+      <c r="I1210">
+        <v>108</v>
+      </c>
+      <c r="J1210" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1211" s="1"/>
+      <c r="I1211">
+        <v>33</v>
+      </c>
+      <c r="J1211" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1212" s="1"/>
+      <c r="I1212">
+        <v>121</v>
+      </c>
+      <c r="J1212" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1213" s="1"/>
+      <c r="I1213">
+        <v>71</v>
+      </c>
+      <c r="J1213" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1214" s="1"/>
+      <c r="I1214">
+        <v>632</v>
+      </c>
+      <c r="J1214" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1215" s="1"/>
+      <c r="I1215">
+        <v>650</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1216" s="1"/>
+      <c r="I1216">
+        <v>2030</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1217" s="1"/>
+      <c r="I1217">
+        <v>337</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1218" s="1"/>
+      <c r="I1218">
+        <v>36</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1219" s="1"/>
+      <c r="I1219">
+        <v>169</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1220" s="1"/>
+      <c r="I1220">
+        <v>6251</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1221" s="1"/>
+      <c r="I1221">
+        <v>35</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1222" s="1"/>
+      <c r="I1222">
+        <v>191</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1223" s="1"/>
+      <c r="I1223">
+        <v>194</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1224" s="1"/>
+      <c r="I1224">
+        <v>3315</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H1225" s="1"/>
+      <c r="I1225">
+        <v>14</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9219" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="1087">
   <si>
     <t>DATE</t>
   </si>
@@ -8679,6 +8679,9 @@
  This item is in stock and available today!
 Current Stock: 14
  Pinit SharePost</t>
+  </si>
+  <si>
+    <t>07:33 PM PDT</t>
   </si>
 </sst>
 </file>
@@ -9068,7 +9071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1225"/>
+  <dimension ref="A1:K1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -46209,6 +46212,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1226" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I1226">
+        <v>78</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>806</v>
+      </c>
+      <c r="H1227" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I1227">
+        <v>68</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1228" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I1228">
+        <v>214</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1229" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I1229">
+        <v>110</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1230" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I1230">
+        <v>109</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1231" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I1231">
+        <v>50</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1232" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I1232">
+        <v>42</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1233" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I1233">
+        <v>212</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1234" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I1234">
+        <v>73</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1235" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I1235">
+        <v>206</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1236" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I1236">
+        <v>16</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1237" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I1237">
+        <v>60</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1238" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I1238">
+        <v>438</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1239" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I1239">
+        <v>27</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1240" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I1240">
+        <v>115</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1241" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I1241">
+        <v>63</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>856</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1242" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I1242">
+        <v>33</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1243" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I1243">
+        <v>16</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1244" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I1244">
+        <v>76</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1245" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I1245">
+        <v>164</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>911</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1246" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I1246">
+        <v>72</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1247" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I1247">
+        <v>118</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1248" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1248">
+        <v>84</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1249" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I1249">
+        <v>31</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1250" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1250">
+        <v>66</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1251" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I1251">
+        <v>40</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1252" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I1252">
+        <v>389</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1253" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I1253">
+        <v>27</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1254" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I1254">
+        <v>38</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1255" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I1255">
+        <v>746</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1256" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I1256">
+        <v>49</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1257" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I1257">
+        <v>221</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1258" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1258">
+        <v>377</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1259" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I1259">
+        <v>97</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1260" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1260">
+        <v>324</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1261" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1261">
+        <v>705</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1262" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1262">
+        <v>241</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1263" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I1263">
+        <v>71</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1264" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I1264">
+        <v>174</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1265" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I1265">
+        <v>21</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1266" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I1266">
+        <v>192</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1267" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I1267">
+        <v>114</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1268" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I1268">
+        <v>40</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1269" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I1269">
+        <v>34</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1270" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I1270">
+        <v>412</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1271" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I1271">
+        <v>117</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>826</v>
+      </c>
+      <c r="H1272" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I1272">
+        <v>43</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1273" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I1273">
+        <v>12</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1274" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I1274">
+        <v>652</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1275" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I1275">
+        <v>74</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1276" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1276">
+        <v>579</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>866</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1277" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I1277">
+        <v>1376</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>918</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1278" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I1278">
+        <v>212</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1279" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I1279">
+        <v>55</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1280" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I1280">
+        <v>150</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1281" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I1281">
+        <v>52</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1282" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I1282">
+        <v>398</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1283" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I1283">
+        <v>62</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1284" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I1284">
+        <v>34</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1285" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I1285">
+        <v>80</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1286" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I1286">
+        <v>58</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1287" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I1287">
+        <v>38</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1288" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I1288">
+        <v>72</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1289" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I1289">
+        <v>101</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1290" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I1290">
+        <v>66</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>872</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1291" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I1291">
+        <v>122</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1292" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I1292">
+        <v>124</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1293" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I1293">
+        <v>133</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1294" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I1294">
+        <v>167</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>875</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1295" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I1295">
+        <v>779</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1296" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I1296">
+        <v>51</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>832</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1297" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I1297">
+        <v>158</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1298" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I1298">
+        <v>464</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>877</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1299" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I1299">
+        <v>94</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1300" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I1300">
+        <v>507</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1301" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1301">
+        <v>375</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1302" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I1302">
+        <v>382</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1303" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I1303">
+        <v>104</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1304" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I1304">
+        <v>44</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1305" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I1305">
+        <v>23</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1306" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I1306">
+        <v>411</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1307" s="1">
+        <v>169</v>
+      </c>
+      <c r="I1307">
+        <v>519</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1308" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1309" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I1309">
+        <v>25</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1310" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I1310">
+        <v>292</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1311" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I1311">
+        <v>1401</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1312" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I1312">
+        <v>101</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1313" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I1313">
+        <v>135</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1314" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I1314">
+        <v>204</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1315" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I1315">
+        <v>29</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1316" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I1316">
+        <v>71</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>885</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1317" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I1317">
+        <v>26</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>836</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1318" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1318">
+        <v>28</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1319" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I1319">
+        <v>203</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1320" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I1320">
+        <v>18</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1321" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I1321">
+        <v>403</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1322" s="1">
+        <v>203</v>
+      </c>
+      <c r="I1322">
+        <v>187</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1323" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1323">
+        <v>99</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1324" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1324">
+        <v>383</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>888</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1325" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1325">
+        <v>1034</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1326" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1326">
+        <v>304</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1327" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I1327">
+        <v>1158</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1328" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I1328">
+        <v>156</v>
+      </c>
+      <c r="J1328" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1329" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I1329">
+        <v>31</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1330" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1330">
+        <v>471</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1331" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1331">
+        <v>37</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1332" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I1332">
+        <v>58</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1333" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I1333">
+        <v>622</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1334" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1334">
+        <v>1</v>
+      </c>
+      <c r="J1334" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1335" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I1335">
+        <v>68</v>
+      </c>
+      <c r="J1335" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1336" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I1336">
+        <v>977</v>
+      </c>
+      <c r="J1336" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1337" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I1337">
+        <v>292</v>
+      </c>
+      <c r="J1337" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>891</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1338" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I1338">
+        <v>602</v>
+      </c>
+      <c r="J1338" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1339" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I1339">
+        <v>128</v>
+      </c>
+      <c r="J1339" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1340" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1340">
+        <v>888</v>
+      </c>
+      <c r="J1340" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1341" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I1341">
+        <v>250</v>
+      </c>
+      <c r="J1341" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1342" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I1342">
+        <v>200</v>
+      </c>
+      <c r="J1342" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1343" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1343">
+        <v>81</v>
+      </c>
+      <c r="J1343" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1344" s="1">
+        <v>76</v>
+      </c>
+      <c r="I1344">
+        <v>494</v>
+      </c>
+      <c r="J1344" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1345" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I1345">
+        <v>94</v>
+      </c>
+      <c r="J1345" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1346" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I1346">
+        <v>49</v>
+      </c>
+      <c r="J1346" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1347" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I1347">
+        <v>75</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1348" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I1348">
+        <v>247</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1349" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I1349">
+        <v>60</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1350" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I1350">
+        <v>610</v>
+      </c>
+      <c r="J1350" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1351" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I1351">
+        <v>88</v>
+      </c>
+      <c r="J1351" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1352" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I1352">
+        <v>54</v>
+      </c>
+      <c r="J1352" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1353" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I1353">
+        <v>577</v>
+      </c>
+      <c r="J1353" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1354" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I1354">
+        <v>52</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>896</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1355" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I1355">
+        <v>795</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>897</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1356" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I1356">
+        <v>1155</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1357" s="1">
+        <v>120</v>
+      </c>
+      <c r="I1357">
+        <v>175</v>
+      </c>
+      <c r="J1357" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1358" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I1358">
+        <v>174</v>
+      </c>
+      <c r="J1358" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1359" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I1359">
+        <v>79</v>
+      </c>
+      <c r="J1359" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1360" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I1360">
+        <v>382</v>
+      </c>
+      <c r="J1360" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1361" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I1361">
+        <v>96</v>
+      </c>
+      <c r="J1361" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1362" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I1362">
+        <v>44</v>
+      </c>
+      <c r="J1362" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1363" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I1363">
+        <v>108</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1364" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I1364">
+        <v>33</v>
+      </c>
+      <c r="J1364" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1365" s="1">
+        <v>250</v>
+      </c>
+      <c r="I1365">
+        <v>121</v>
+      </c>
+      <c r="J1365" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1366" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I1366">
+        <v>71</v>
+      </c>
+      <c r="J1366" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1367" s="1">
+        <v>96</v>
+      </c>
+      <c r="I1367">
+        <v>632</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1368" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I1368">
+        <v>650</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1369" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I1369">
+        <v>2030</v>
+      </c>
+      <c r="J1369" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1370" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I1370">
+        <v>337</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1371" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I1371">
+        <v>36</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1372" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I1372">
+        <v>169</v>
+      </c>
+      <c r="J1372" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1373" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1373">
+        <v>6251</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1374" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1374">
+        <v>35</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1375" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I1375">
+        <v>191</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1376" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I1376">
+        <v>194</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1377" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I1377">
+        <v>3315</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1378" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I1378">
+        <v>14</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10370" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11521" uniqueCount="1088">
   <si>
     <t>DATE</t>
   </si>
@@ -8682,6 +8682,9 @@
   </si>
   <si>
     <t>07:33 PM PDT</t>
+  </si>
+  <si>
+    <t>11:46 PM PDT</t>
   </si>
 </sst>
 </file>
@@ -9071,7 +9074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1378"/>
+  <dimension ref="A1:K1531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -50886,6 +50889,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1379" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I1379">
+        <v>78</v>
+      </c>
+      <c r="J1379" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>806</v>
+      </c>
+      <c r="H1380" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I1380">
+        <v>68</v>
+      </c>
+      <c r="J1380" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1381" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I1381">
+        <v>214</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1382" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I1382">
+        <v>110</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1383" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I1383">
+        <v>109</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1384" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I1384">
+        <v>50</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1385" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I1385">
+        <v>42</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1386" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I1386">
+        <v>212</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1387" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I1387">
+        <v>73</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1388" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I1388">
+        <v>206</v>
+      </c>
+      <c r="J1388" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1389" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I1389">
+        <v>16</v>
+      </c>
+      <c r="J1389" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1390" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I1390">
+        <v>60</v>
+      </c>
+      <c r="J1390" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1391" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I1391">
+        <v>438</v>
+      </c>
+      <c r="J1391" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1392" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I1392">
+        <v>27</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1393" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I1393">
+        <v>115</v>
+      </c>
+      <c r="J1393" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1394" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1394" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I1394">
+        <v>63</v>
+      </c>
+      <c r="J1394" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>856</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1395" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1395" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I1395">
+        <v>33</v>
+      </c>
+      <c r="J1395" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1396" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I1396">
+        <v>16</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1397" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I1397">
+        <v>76</v>
+      </c>
+      <c r="J1397" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1398" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I1398">
+        <v>164</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>911</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1399" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I1399">
+        <v>72</v>
+      </c>
+      <c r="J1399" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1400" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I1400">
+        <v>118</v>
+      </c>
+      <c r="J1400" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1401" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1401">
+        <v>84</v>
+      </c>
+      <c r="J1401" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1402" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I1402">
+        <v>31</v>
+      </c>
+      <c r="J1402" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1403" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1403">
+        <v>66</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1404" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I1404">
+        <v>40</v>
+      </c>
+      <c r="J1404" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1405" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I1405">
+        <v>389</v>
+      </c>
+      <c r="J1405" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1406" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I1406">
+        <v>27</v>
+      </c>
+      <c r="J1406" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1407" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I1407">
+        <v>38</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1408" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I1408">
+        <v>746</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1409" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I1409">
+        <v>49</v>
+      </c>
+      <c r="J1409" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1410" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I1410">
+        <v>221</v>
+      </c>
+      <c r="J1410" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1411" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1411">
+        <v>377</v>
+      </c>
+      <c r="J1411" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1412" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I1412">
+        <v>97</v>
+      </c>
+      <c r="J1412" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1413" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1413">
+        <v>324</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1414" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1414">
+        <v>705</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1415" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1415">
+        <v>241</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1416" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I1416">
+        <v>71</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1417" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I1417">
+        <v>174</v>
+      </c>
+      <c r="J1417" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1418" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I1418">
+        <v>21</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1419" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I1419">
+        <v>192</v>
+      </c>
+      <c r="J1419" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1420" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I1420">
+        <v>114</v>
+      </c>
+      <c r="J1420" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1421" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I1421">
+        <v>40</v>
+      </c>
+      <c r="J1421" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1422" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I1422">
+        <v>34</v>
+      </c>
+      <c r="J1422" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1423" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I1423">
+        <v>412</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1424" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I1424">
+        <v>117</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>826</v>
+      </c>
+      <c r="H1425" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I1425">
+        <v>43</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1426" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I1426">
+        <v>12</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1427" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I1427">
+        <v>652</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1428" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I1428">
+        <v>74</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1429" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1429">
+        <v>579</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>866</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1430" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I1430">
+        <v>1376</v>
+      </c>
+      <c r="J1430" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>918</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1431" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I1431">
+        <v>212</v>
+      </c>
+      <c r="J1431" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1432" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I1432">
+        <v>55</v>
+      </c>
+      <c r="J1432" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1433" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I1433">
+        <v>150</v>
+      </c>
+      <c r="J1433" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1434" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I1434">
+        <v>52</v>
+      </c>
+      <c r="J1434" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1435" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I1435">
+        <v>398</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1436" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I1436">
+        <v>62</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1437" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I1437">
+        <v>34</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1438" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I1438">
+        <v>80</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1439" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I1439">
+        <v>58</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1440" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I1440">
+        <v>38</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1441" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I1441">
+        <v>72</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1442" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I1442">
+        <v>101</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1443" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I1443">
+        <v>66</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>872</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1444" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I1444">
+        <v>122</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1445" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I1445">
+        <v>124</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1446" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I1446">
+        <v>133</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1447" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I1447">
+        <v>167</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>875</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1448" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I1448">
+        <v>779</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1449" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I1449">
+        <v>51</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>832</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1450" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I1450">
+        <v>158</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1451" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I1451">
+        <v>464</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>877</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1452" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I1452">
+        <v>94</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1453" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I1453">
+        <v>507</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1454" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1454">
+        <v>375</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1455" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I1455">
+        <v>382</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1456" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I1456">
+        <v>104</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1457" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I1457">
+        <v>44</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1458" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I1458">
+        <v>23</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1459" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I1459">
+        <v>411</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1460" s="1">
+        <v>169</v>
+      </c>
+      <c r="I1460">
+        <v>519</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1461" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1462" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I1462">
+        <v>25</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1463" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I1463">
+        <v>292</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1464" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I1464">
+        <v>1401</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1465" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I1465">
+        <v>101</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1466" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I1466">
+        <v>135</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1467" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I1467">
+        <v>204</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1468" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I1468">
+        <v>29</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1469" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I1469">
+        <v>71</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>885</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1470" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I1470">
+        <v>26</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>836</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1471" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1471">
+        <v>28</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1472" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I1472">
+        <v>203</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1473" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I1473">
+        <v>18</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1474" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I1474">
+        <v>403</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1475" s="1">
+        <v>203</v>
+      </c>
+      <c r="I1475">
+        <v>187</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1476" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1476">
+        <v>99</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1477" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1477">
+        <v>383</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>888</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1478" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1478">
+        <v>1034</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1479" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1479">
+        <v>304</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1480" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I1480">
+        <v>1158</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1481" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I1481">
+        <v>156</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1482" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I1482">
+        <v>31</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1483" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1483">
+        <v>471</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1484" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1484">
+        <v>37</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1485" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I1485">
+        <v>58</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1486" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I1486">
+        <v>622</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1487" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1487">
+        <v>1</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1488" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I1488">
+        <v>68</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1489" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I1489">
+        <v>977</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1490" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I1490">
+        <v>292</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1491" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>891</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1491" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I1491">
+        <v>602</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1492" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1492" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I1492">
+        <v>128</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1493" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1493" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1493">
+        <v>888</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1494" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1494" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I1494">
+        <v>250</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1495" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1495" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I1495">
+        <v>200</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1496" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1496" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1496">
+        <v>81</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1497" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1497" s="1">
+        <v>76</v>
+      </c>
+      <c r="I1497">
+        <v>494</v>
+      </c>
+      <c r="J1497" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1498" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1498" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I1498">
+        <v>94</v>
+      </c>
+      <c r="J1498" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1499" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1499" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I1499">
+        <v>49</v>
+      </c>
+      <c r="J1499" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1500" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1500" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I1500">
+        <v>75</v>
+      </c>
+      <c r="J1500" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1501" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1501" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I1501">
+        <v>247</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1502" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1502" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I1502">
+        <v>60</v>
+      </c>
+      <c r="J1502" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1503" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1503" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I1503">
+        <v>610</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1504" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1504" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I1504">
+        <v>88</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1505" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1505" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I1505">
+        <v>54</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1506" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1506" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I1506">
+        <v>577</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1507" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1507" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I1507">
+        <v>52</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1508" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>896</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1508" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I1508">
+        <v>795</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1509" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>897</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1509" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I1509">
+        <v>1155</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1510" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1510" s="1">
+        <v>120</v>
+      </c>
+      <c r="I1510">
+        <v>175</v>
+      </c>
+      <c r="J1510" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1511" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1511" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I1511">
+        <v>174</v>
+      </c>
+      <c r="J1511" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1512" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1512" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I1512">
+        <v>79</v>
+      </c>
+      <c r="J1512" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1513" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1513" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I1513">
+        <v>382</v>
+      </c>
+      <c r="J1513" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1514" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I1514">
+        <v>96</v>
+      </c>
+      <c r="J1514" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1515" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I1515">
+        <v>44</v>
+      </c>
+      <c r="J1515" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1516" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I1516">
+        <v>108</v>
+      </c>
+      <c r="J1516" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1517" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I1517">
+        <v>33</v>
+      </c>
+      <c r="J1517" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1518" s="1">
+        <v>250</v>
+      </c>
+      <c r="I1518">
+        <v>121</v>
+      </c>
+      <c r="J1518" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1519" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I1519">
+        <v>71</v>
+      </c>
+      <c r="J1519" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1520" s="1">
+        <v>96</v>
+      </c>
+      <c r="I1520">
+        <v>632</v>
+      </c>
+      <c r="J1520" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1521" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I1521">
+        <v>650</v>
+      </c>
+      <c r="J1521" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1522" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I1522">
+        <v>2030</v>
+      </c>
+      <c r="J1522" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1523" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I1523">
+        <v>337</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1524" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I1524">
+        <v>36</v>
+      </c>
+      <c r="J1524" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1525" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I1525">
+        <v>169</v>
+      </c>
+      <c r="J1525" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1526" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1526">
+        <v>6251</v>
+      </c>
+      <c r="J1526" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1527" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1527">
+        <v>35</v>
+      </c>
+      <c r="J1527" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1528" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I1528">
+        <v>191</v>
+      </c>
+      <c r="J1528" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1529" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I1529">
+        <v>194</v>
+      </c>
+      <c r="J1529" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1530" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I1530">
+        <v>3315</v>
+      </c>
+      <c r="J1530" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1531" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I1531">
+        <v>14</v>
+      </c>
+      <c r="J1531" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11521" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12672" uniqueCount="1090">
   <si>
     <t>DATE</t>
   </si>
@@ -8685,6 +8685,12 @@
   </si>
   <si>
     <t>11:46 PM PDT</t>
+  </si>
+  <si>
+    <t>08/17/2025</t>
+  </si>
+  <si>
+    <t>06:01 AM PDT</t>
   </si>
 </sst>
 </file>
@@ -9074,7 +9080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1531"/>
+  <dimension ref="A1:K1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -55563,6 +55569,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1532" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I1532">
+        <v>78</v>
+      </c>
+      <c r="J1532" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>806</v>
+      </c>
+      <c r="H1533" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I1533">
+        <v>68</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1534" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I1534">
+        <v>214</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1535" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I1535">
+        <v>110</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1536" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I1536">
+        <v>109</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1537" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I1537">
+        <v>50</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1538" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I1538">
+        <v>42</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1539" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I1539">
+        <v>212</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1540" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I1540">
+        <v>73</v>
+      </c>
+      <c r="J1540" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1541" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I1541">
+        <v>206</v>
+      </c>
+      <c r="J1541" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1542" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I1542">
+        <v>16</v>
+      </c>
+      <c r="J1542" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1543" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I1543">
+        <v>60</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1544" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I1544">
+        <v>438</v>
+      </c>
+      <c r="J1544" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1545" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I1545">
+        <v>27</v>
+      </c>
+      <c r="J1545" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1546" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I1546">
+        <v>115</v>
+      </c>
+      <c r="J1546" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1547" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I1547">
+        <v>63</v>
+      </c>
+      <c r="J1547" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>856</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1548" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I1548">
+        <v>33</v>
+      </c>
+      <c r="J1548" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1549" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I1549">
+        <v>16</v>
+      </c>
+      <c r="J1549" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1550" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I1550">
+        <v>76</v>
+      </c>
+      <c r="J1550" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1551" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I1551">
+        <v>164</v>
+      </c>
+      <c r="J1551" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>911</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1552" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I1552">
+        <v>72</v>
+      </c>
+      <c r="J1552" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1553" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I1553">
+        <v>118</v>
+      </c>
+      <c r="J1553" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1554" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1554">
+        <v>84</v>
+      </c>
+      <c r="J1554" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1555" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I1555">
+        <v>31</v>
+      </c>
+      <c r="J1555" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1556" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1556">
+        <v>66</v>
+      </c>
+      <c r="J1556" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1557" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I1557">
+        <v>40</v>
+      </c>
+      <c r="J1557" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1558" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I1558">
+        <v>389</v>
+      </c>
+      <c r="J1558" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1559" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I1559">
+        <v>27</v>
+      </c>
+      <c r="J1559" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1560" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I1560">
+        <v>38</v>
+      </c>
+      <c r="J1560" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1561" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I1561">
+        <v>746</v>
+      </c>
+      <c r="J1561" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1562" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I1562">
+        <v>49</v>
+      </c>
+      <c r="J1562" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1563" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I1563">
+        <v>221</v>
+      </c>
+      <c r="J1563" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1564" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1564">
+        <v>377</v>
+      </c>
+      <c r="J1564" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1565" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I1565">
+        <v>97</v>
+      </c>
+      <c r="J1565" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1566" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1566">
+        <v>324</v>
+      </c>
+      <c r="J1566" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1567" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1567">
+        <v>705</v>
+      </c>
+      <c r="J1567" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1568" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1568">
+        <v>241</v>
+      </c>
+      <c r="J1568" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1569" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I1569">
+        <v>71</v>
+      </c>
+      <c r="J1569" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1570" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I1570">
+        <v>174</v>
+      </c>
+      <c r="J1570" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1571" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I1571">
+        <v>21</v>
+      </c>
+      <c r="J1571" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1572" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I1572">
+        <v>192</v>
+      </c>
+      <c r="J1572" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1573" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I1573">
+        <v>114</v>
+      </c>
+      <c r="J1573" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1574" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I1574">
+        <v>40</v>
+      </c>
+      <c r="J1574" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1575" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I1575">
+        <v>34</v>
+      </c>
+      <c r="J1575" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1576" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I1576">
+        <v>412</v>
+      </c>
+      <c r="J1576" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1577" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I1577">
+        <v>117</v>
+      </c>
+      <c r="J1577" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>826</v>
+      </c>
+      <c r="H1578" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I1578">
+        <v>43</v>
+      </c>
+      <c r="J1578" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1579" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I1579">
+        <v>12</v>
+      </c>
+      <c r="J1579" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1580" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I1580">
+        <v>652</v>
+      </c>
+      <c r="J1580" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1581" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I1581">
+        <v>74</v>
+      </c>
+      <c r="J1581" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1582" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1582">
+        <v>579</v>
+      </c>
+      <c r="J1582" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>866</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1583" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I1583">
+        <v>1376</v>
+      </c>
+      <c r="J1583" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>918</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1584" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I1584">
+        <v>212</v>
+      </c>
+      <c r="J1584" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1585" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I1585">
+        <v>55</v>
+      </c>
+      <c r="J1585" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1586" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I1586">
+        <v>150</v>
+      </c>
+      <c r="J1586" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1587" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I1587">
+        <v>52</v>
+      </c>
+      <c r="J1587" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1588" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I1588">
+        <v>398</v>
+      </c>
+      <c r="J1588" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1589" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I1589">
+        <v>62</v>
+      </c>
+      <c r="J1589" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1590" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I1590">
+        <v>34</v>
+      </c>
+      <c r="J1590" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1591" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I1591">
+        <v>80</v>
+      </c>
+      <c r="J1591" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1592" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I1592">
+        <v>58</v>
+      </c>
+      <c r="J1592" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1593" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I1593">
+        <v>38</v>
+      </c>
+      <c r="J1593" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1594" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I1594">
+        <v>72</v>
+      </c>
+      <c r="J1594" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1595" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I1595">
+        <v>101</v>
+      </c>
+      <c r="J1595" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1596" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I1596">
+        <v>66</v>
+      </c>
+      <c r="J1596" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>872</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1597" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I1597">
+        <v>122</v>
+      </c>
+      <c r="J1597" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1598" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I1598">
+        <v>124</v>
+      </c>
+      <c r="J1598" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1599" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I1599">
+        <v>133</v>
+      </c>
+      <c r="J1599" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>921</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1600" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I1600">
+        <v>167</v>
+      </c>
+      <c r="J1600" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>875</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1601" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I1601">
+        <v>779</v>
+      </c>
+      <c r="J1601" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1602" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I1602">
+        <v>51</v>
+      </c>
+      <c r="J1602" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>832</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1603" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I1603">
+        <v>158</v>
+      </c>
+      <c r="J1603" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1604" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I1604">
+        <v>464</v>
+      </c>
+      <c r="J1604" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>877</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1605" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I1605">
+        <v>94</v>
+      </c>
+      <c r="J1605" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1606" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I1606">
+        <v>507</v>
+      </c>
+      <c r="J1606" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1607" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1607">
+        <v>375</v>
+      </c>
+      <c r="J1607" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1608" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I1608">
+        <v>382</v>
+      </c>
+      <c r="J1608" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1609" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I1609">
+        <v>104</v>
+      </c>
+      <c r="J1609" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1610" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I1610">
+        <v>44</v>
+      </c>
+      <c r="J1610" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1611" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I1611">
+        <v>23</v>
+      </c>
+      <c r="J1611" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1612" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I1612">
+        <v>411</v>
+      </c>
+      <c r="J1612" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1613" s="1">
+        <v>169</v>
+      </c>
+      <c r="I1613">
+        <v>519</v>
+      </c>
+      <c r="J1613" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1614" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J1614" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1615" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I1615">
+        <v>25</v>
+      </c>
+      <c r="J1615" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1616" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I1616">
+        <v>292</v>
+      </c>
+      <c r="J1616" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1617" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I1617">
+        <v>1401</v>
+      </c>
+      <c r="J1617" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1618" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I1618">
+        <v>101</v>
+      </c>
+      <c r="J1618" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1619" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I1619">
+        <v>135</v>
+      </c>
+      <c r="J1619" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1620" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I1620">
+        <v>204</v>
+      </c>
+      <c r="J1620" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1621" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I1621">
+        <v>29</v>
+      </c>
+      <c r="J1621" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1622" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I1622">
+        <v>71</v>
+      </c>
+      <c r="J1622" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>885</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1623" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I1623">
+        <v>26</v>
+      </c>
+      <c r="J1623" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>836</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1624" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1624">
+        <v>28</v>
+      </c>
+      <c r="J1624" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1625" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I1625">
+        <v>203</v>
+      </c>
+      <c r="J1625" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1626" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I1626">
+        <v>18</v>
+      </c>
+      <c r="J1626" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1627" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I1627">
+        <v>403</v>
+      </c>
+      <c r="J1627" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1628" s="1">
+        <v>203</v>
+      </c>
+      <c r="I1628">
+        <v>187</v>
+      </c>
+      <c r="J1628" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1629" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1629">
+        <v>99</v>
+      </c>
+      <c r="J1629" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1630" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1630" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1630">
+        <v>383</v>
+      </c>
+      <c r="J1630" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>888</v>
+      </c>
+      <c r="F1631" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1631" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1631">
+        <v>1034</v>
+      </c>
+      <c r="J1631" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1632" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1632" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1632">
+        <v>304</v>
+      </c>
+      <c r="J1632" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1633" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1633" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I1633">
+        <v>1158</v>
+      </c>
+      <c r="J1633" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1634" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I1634">
+        <v>156</v>
+      </c>
+      <c r="J1634" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1635" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1635" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I1635">
+        <v>31</v>
+      </c>
+      <c r="J1635" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1636" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1636" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1636">
+        <v>471</v>
+      </c>
+      <c r="J1636" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1637" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1637" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1637">
+        <v>37</v>
+      </c>
+      <c r="J1637" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1638" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1638" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I1638">
+        <v>58</v>
+      </c>
+      <c r="J1638" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1639" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1639" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I1639">
+        <v>622</v>
+      </c>
+      <c r="J1639" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1640" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1640">
+        <v>1</v>
+      </c>
+      <c r="J1640" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1641" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1641" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1641" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I1641">
+        <v>68</v>
+      </c>
+      <c r="J1641" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1642" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1642" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I1642">
+        <v>977</v>
+      </c>
+      <c r="J1642" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1643" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1643" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I1643">
+        <v>292</v>
+      </c>
+      <c r="J1643" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>891</v>
+      </c>
+      <c r="F1644" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1644" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1644" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I1644">
+        <v>602</v>
+      </c>
+      <c r="J1644" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1645" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I1645">
+        <v>128</v>
+      </c>
+      <c r="J1645" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1646" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1646" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1646" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1646">
+        <v>888</v>
+      </c>
+      <c r="J1646" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1647" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1647" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1647" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I1647">
+        <v>250</v>
+      </c>
+      <c r="J1647" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1648" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1648" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1648" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I1648">
+        <v>200</v>
+      </c>
+      <c r="J1648" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1649" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1649" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1649">
+        <v>81</v>
+      </c>
+      <c r="J1649" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1650" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1650" s="1">
+        <v>76</v>
+      </c>
+      <c r="I1650">
+        <v>494</v>
+      </c>
+      <c r="J1650" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1651" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1651" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I1651">
+        <v>94</v>
+      </c>
+      <c r="J1651" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1652" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I1652">
+        <v>49</v>
+      </c>
+      <c r="J1652" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1653" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1653" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1653" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I1653">
+        <v>75</v>
+      </c>
+      <c r="J1653" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1654" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1654" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1654" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I1654">
+        <v>247</v>
+      </c>
+      <c r="J1654" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1655" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1655" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1655" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I1655">
+        <v>60</v>
+      </c>
+      <c r="J1655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1656" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1656" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I1656">
+        <v>610</v>
+      </c>
+      <c r="J1656" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1657" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1657" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I1657">
+        <v>88</v>
+      </c>
+      <c r="J1657" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1658" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1658" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I1658">
+        <v>54</v>
+      </c>
+      <c r="J1658" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1659" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1659" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I1659">
+        <v>577</v>
+      </c>
+      <c r="J1659" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1660" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1660" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I1660">
+        <v>52</v>
+      </c>
+      <c r="J1660" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>896</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1661" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I1661">
+        <v>795</v>
+      </c>
+      <c r="J1661" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>897</v>
+      </c>
+      <c r="F1662" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1662" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I1662">
+        <v>1155</v>
+      </c>
+      <c r="J1662" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1663" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1663" s="1">
+        <v>120</v>
+      </c>
+      <c r="I1663">
+        <v>175</v>
+      </c>
+      <c r="J1663" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1664" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1664" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I1664">
+        <v>174</v>
+      </c>
+      <c r="J1664" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1665" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1665" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I1665">
+        <v>79</v>
+      </c>
+      <c r="J1665" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1666" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1666" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I1666">
+        <v>382</v>
+      </c>
+      <c r="J1666" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1667" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1667" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1667" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I1667">
+        <v>96</v>
+      </c>
+      <c r="J1667" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1668" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I1668">
+        <v>44</v>
+      </c>
+      <c r="J1668" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1669" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1669" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1669" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I1669">
+        <v>108</v>
+      </c>
+      <c r="J1669" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1670" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1670" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1670" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I1670">
+        <v>33</v>
+      </c>
+      <c r="J1670" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1671" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1671" s="1">
+        <v>250</v>
+      </c>
+      <c r="I1671">
+        <v>121</v>
+      </c>
+      <c r="J1671" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1672" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1672" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I1672">
+        <v>71</v>
+      </c>
+      <c r="J1672" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1673" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1673" s="1">
+        <v>96</v>
+      </c>
+      <c r="I1673">
+        <v>632</v>
+      </c>
+      <c r="J1673" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1674" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1674" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I1674">
+        <v>650</v>
+      </c>
+      <c r="J1674" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1675" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1675" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1675" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I1675">
+        <v>2030</v>
+      </c>
+      <c r="J1675" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1676" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1676" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I1676">
+        <v>337</v>
+      </c>
+      <c r="J1676" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1677" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1677" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1677" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I1677">
+        <v>36</v>
+      </c>
+      <c r="J1677" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1678" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1678" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1678" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I1678">
+        <v>169</v>
+      </c>
+      <c r="J1678" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1679" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1679" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1679">
+        <v>6251</v>
+      </c>
+      <c r="J1679" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1680" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1680" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1680">
+        <v>35</v>
+      </c>
+      <c r="J1680" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1681" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1681" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I1681">
+        <v>191</v>
+      </c>
+      <c r="J1681" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1682" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1682" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I1682">
+        <v>194</v>
+      </c>
+      <c r="J1682" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1683" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I1683">
+        <v>3315</v>
+      </c>
+      <c r="J1683" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1684" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I1684">
+        <v>14</v>
+      </c>
+      <c r="J1684" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12672" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13823" uniqueCount="1093">
   <si>
     <t>DATE</t>
   </si>
@@ -8691,6 +8691,32 @@
   </si>
   <si>
     <t>06:01 AM PDT</t>
+  </si>
+  <si>
+    <t>11:44 AM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Anesthetic Gel - 20% Benzocaine - 0.75gram Packets - 144 Packets per Box - 1 Box/Each
+$21.57
+ This item is in stock and available today!
+Current Stock: 67
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 166
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
   </si>
 </sst>
 </file>
@@ -9080,7 +9106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1684"/>
+  <dimension ref="A1:K1837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -60243,6 +60269,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1685" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1685" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1685" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I1685">
+        <v>78</v>
+      </c>
+      <c r="J1685" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H1686" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I1686">
+        <v>67</v>
+      </c>
+      <c r="J1686" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1687" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I1687">
+        <v>214</v>
+      </c>
+      <c r="J1687" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1688" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I1688">
+        <v>110</v>
+      </c>
+      <c r="J1688" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1689" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1689" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I1689">
+        <v>109</v>
+      </c>
+      <c r="J1689" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1690" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1690" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I1690">
+        <v>50</v>
+      </c>
+      <c r="J1690" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1691" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1691" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1691" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I1691">
+        <v>42</v>
+      </c>
+      <c r="J1691" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1692" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1692" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I1692">
+        <v>212</v>
+      </c>
+      <c r="J1692" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1693" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1693" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I1693">
+        <v>73</v>
+      </c>
+      <c r="J1693" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1694" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1694" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I1694">
+        <v>206</v>
+      </c>
+      <c r="J1694" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1695" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1695" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I1695">
+        <v>16</v>
+      </c>
+      <c r="J1695" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1696" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1696" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1696" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I1696">
+        <v>60</v>
+      </c>
+      <c r="J1696" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1697" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1697" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I1697">
+        <v>438</v>
+      </c>
+      <c r="J1697" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1698" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1698" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1698" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I1698">
+        <v>27</v>
+      </c>
+      <c r="J1698" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1699" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1699" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1699" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I1699">
+        <v>115</v>
+      </c>
+      <c r="J1699" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1700" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1700" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I1700">
+        <v>63</v>
+      </c>
+      <c r="J1700" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>856</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1701" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1701" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I1701">
+        <v>33</v>
+      </c>
+      <c r="J1701" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1702" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I1702">
+        <v>16</v>
+      </c>
+      <c r="J1702" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1703" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1703" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I1703">
+        <v>76</v>
+      </c>
+      <c r="J1703" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1704" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1704" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I1704">
+        <v>164</v>
+      </c>
+      <c r="J1704" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>911</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1705" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I1705">
+        <v>72</v>
+      </c>
+      <c r="J1705" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1706" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I1706">
+        <v>118</v>
+      </c>
+      <c r="J1706" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1707" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1707" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1707">
+        <v>84</v>
+      </c>
+      <c r="J1707" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1708" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I1708">
+        <v>31</v>
+      </c>
+      <c r="J1708" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1709" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1709">
+        <v>66</v>
+      </c>
+      <c r="J1709" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1710" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1710" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I1710">
+        <v>40</v>
+      </c>
+      <c r="J1710" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1711" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I1711">
+        <v>389</v>
+      </c>
+      <c r="J1711" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1712" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I1712">
+        <v>27</v>
+      </c>
+      <c r="J1712" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1713" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I1713">
+        <v>38</v>
+      </c>
+      <c r="J1713" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1714" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I1714">
+        <v>746</v>
+      </c>
+      <c r="J1714" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1715" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I1715">
+        <v>49</v>
+      </c>
+      <c r="J1715" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1716" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I1716">
+        <v>221</v>
+      </c>
+      <c r="J1716" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1717" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1717">
+        <v>377</v>
+      </c>
+      <c r="J1717" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1718" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1718" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I1718">
+        <v>97</v>
+      </c>
+      <c r="J1718" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1719" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1719" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1719">
+        <v>324</v>
+      </c>
+      <c r="J1719" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1720" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1720" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1720">
+        <v>705</v>
+      </c>
+      <c r="J1720" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1721" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1721" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1721">
+        <v>241</v>
+      </c>
+      <c r="J1721" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1722" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I1722">
+        <v>71</v>
+      </c>
+      <c r="J1722" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1723" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I1723">
+        <v>174</v>
+      </c>
+      <c r="J1723" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1724" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1724" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I1724">
+        <v>21</v>
+      </c>
+      <c r="J1724" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1725" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1725" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I1725">
+        <v>192</v>
+      </c>
+      <c r="J1725" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1726" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1726" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I1726">
+        <v>114</v>
+      </c>
+      <c r="J1726" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1727" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1727" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I1727">
+        <v>40</v>
+      </c>
+      <c r="J1727" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1728" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I1728">
+        <v>34</v>
+      </c>
+      <c r="J1728" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1729" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I1729">
+        <v>412</v>
+      </c>
+      <c r="J1729" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1730" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I1730">
+        <v>117</v>
+      </c>
+      <c r="J1730" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>826</v>
+      </c>
+      <c r="H1731" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I1731">
+        <v>43</v>
+      </c>
+      <c r="J1731" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1732" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I1732">
+        <v>12</v>
+      </c>
+      <c r="J1732" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1733" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I1733">
+        <v>652</v>
+      </c>
+      <c r="J1733" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1734" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1734" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I1734">
+        <v>74</v>
+      </c>
+      <c r="J1734" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1735" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1735" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1735">
+        <v>579</v>
+      </c>
+      <c r="J1735" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>866</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1736" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I1736">
+        <v>1376</v>
+      </c>
+      <c r="J1736" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>918</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1737" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I1737">
+        <v>212</v>
+      </c>
+      <c r="J1737" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1738" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1738" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I1738">
+        <v>55</v>
+      </c>
+      <c r="J1738" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1739" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I1739">
+        <v>150</v>
+      </c>
+      <c r="J1739" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1740" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I1740">
+        <v>52</v>
+      </c>
+      <c r="J1740" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1741" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I1741">
+        <v>398</v>
+      </c>
+      <c r="J1741" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1742" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I1742">
+        <v>62</v>
+      </c>
+      <c r="J1742" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1743" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I1743">
+        <v>34</v>
+      </c>
+      <c r="J1743" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1744" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I1744">
+        <v>80</v>
+      </c>
+      <c r="J1744" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1745" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1745" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I1745">
+        <v>58</v>
+      </c>
+      <c r="J1745" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1746" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1746" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I1746">
+        <v>38</v>
+      </c>
+      <c r="J1746" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1747" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1747" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I1747">
+        <v>72</v>
+      </c>
+      <c r="J1747" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1748" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I1748">
+        <v>101</v>
+      </c>
+      <c r="J1748" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1749" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I1749">
+        <v>66</v>
+      </c>
+      <c r="J1749" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>872</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1750" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1750" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I1750">
+        <v>122</v>
+      </c>
+      <c r="J1750" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1751" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I1751">
+        <v>124</v>
+      </c>
+      <c r="J1751" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1752" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1752" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I1752">
+        <v>133</v>
+      </c>
+      <c r="J1752" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1753" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1753" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I1753">
+        <v>166</v>
+      </c>
+      <c r="J1753" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>875</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1754" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1754" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I1754">
+        <v>779</v>
+      </c>
+      <c r="J1754" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1755" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I1755">
+        <v>51</v>
+      </c>
+      <c r="J1755" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>832</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1756" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1756" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I1756">
+        <v>158</v>
+      </c>
+      <c r="J1756" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1757" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I1757">
+        <v>464</v>
+      </c>
+      <c r="J1757" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>877</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1758" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I1758">
+        <v>94</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1759" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I1759">
+        <v>507</v>
+      </c>
+      <c r="J1759" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1760" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1760">
+        <v>375</v>
+      </c>
+      <c r="J1760" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1761" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I1761">
+        <v>382</v>
+      </c>
+      <c r="J1761" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1762" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I1762">
+        <v>104</v>
+      </c>
+      <c r="J1762" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1763" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I1763">
+        <v>44</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1764" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1764" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I1764">
+        <v>23</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1765" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I1765">
+        <v>411</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1766" s="1">
+        <v>169</v>
+      </c>
+      <c r="I1766">
+        <v>519</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1767" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1768" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I1768">
+        <v>25</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1769" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I1769">
+        <v>292</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1770" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I1770">
+        <v>1401</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1771" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I1771">
+        <v>101</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1772" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I1772">
+        <v>135</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1773" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I1773">
+        <v>204</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1774" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I1774">
+        <v>29</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1775" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I1775">
+        <v>71</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>885</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1776" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I1776">
+        <v>26</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>836</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1777" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1777">
+        <v>28</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1778" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I1778">
+        <v>203</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1779" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I1779">
+        <v>18</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1780" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I1780">
+        <v>403</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1781" s="1">
+        <v>203</v>
+      </c>
+      <c r="I1781">
+        <v>187</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1782" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1782">
+        <v>99</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1783" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1783">
+        <v>383</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>888</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1784" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1784">
+        <v>1034</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1785" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1785">
+        <v>304</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1786" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I1786">
+        <v>1158</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1787" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I1787">
+        <v>156</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1788" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I1788">
+        <v>31</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1789" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1789">
+        <v>471</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1790" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1790">
+        <v>37</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1791" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I1791">
+        <v>58</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1792" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I1792">
+        <v>622</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1793" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1793">
+        <v>1</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1794" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I1794">
+        <v>68</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1795" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I1795">
+        <v>977</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1796" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I1796">
+        <v>292</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>891</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1797" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I1797">
+        <v>602</v>
+      </c>
+      <c r="J1797" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1798" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I1798">
+        <v>128</v>
+      </c>
+      <c r="J1798" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1799" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1799">
+        <v>888</v>
+      </c>
+      <c r="J1799" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1800" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I1800">
+        <v>250</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1801" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I1801">
+        <v>200</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1802" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1802">
+        <v>81</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1803" s="1">
+        <v>76</v>
+      </c>
+      <c r="I1803">
+        <v>494</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1804" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I1804">
+        <v>94</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1805" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I1805">
+        <v>49</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1806" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I1806">
+        <v>75</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1807" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I1807">
+        <v>247</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1808" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I1808">
+        <v>60</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1809" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I1809">
+        <v>610</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1810" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I1810">
+        <v>88</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1811" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I1811">
+        <v>54</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1812" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I1812">
+        <v>577</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1813" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I1813">
+        <v>52</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>896</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1814" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I1814">
+        <v>795</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>897</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1815" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I1815">
+        <v>1155</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1816" s="1">
+        <v>120</v>
+      </c>
+      <c r="I1816">
+        <v>175</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1817" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I1817">
+        <v>174</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1818" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I1818">
+        <v>79</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1819" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I1819">
+        <v>382</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1820" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I1820">
+        <v>96</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1821" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I1821">
+        <v>44</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1822" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I1822">
+        <v>108</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1823" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I1823">
+        <v>33</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1824" s="1">
+        <v>250</v>
+      </c>
+      <c r="I1824">
+        <v>121</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1825" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I1825">
+        <v>71</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1826" s="1">
+        <v>96</v>
+      </c>
+      <c r="I1826">
+        <v>632</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1827" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I1827">
+        <v>650</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1828" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I1828">
+        <v>2030</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1829" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I1829">
+        <v>337</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1830" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I1830">
+        <v>36</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1831" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I1831">
+        <v>169</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1832" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1832">
+        <v>6251</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1833" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1833">
+        <v>35</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1834" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I1834">
+        <v>191</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1835" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1835" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I1835">
+        <v>194</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1836" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1836" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I1836">
+        <v>3315</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1837" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1837" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I1837">
+        <v>14</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13823" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14974" uniqueCount="1096">
   <si>
     <t>DATE</t>
   </si>
@@ -8713,6 +8713,41 @@
 $37.50
  This item is in stock and available today!
 Current Stock: 166
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>07:34 PM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+$33.48
+ This item is in stock and available today!
+Current Stock: 48
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Flavored
+9g high-quality protein
+220 nutrient-rich calories with B-vitamins
+Contains vitamins C &amp; D, zinc, iron, and selenium, key nutrients for immune support
+8 Ounce Bottles
+No Artificial sweeteners, flavors &amp; colors
+24 Bottles per Case
+***  Brand may vary depending on availability *** 
+**  ALL Food Related Items are NON-RETURNABLE  **
+$56.44
+ This item is in stock and available today!
+Current Stock: 49
 Quantity
 ADD TO CART
 ADD TO WISHLIST
@@ -9106,7 +9141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1837"/>
+  <dimension ref="A1:K1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -64943,6 +64978,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1838" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1838" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1838" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I1838">
+        <v>78</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1839" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H1839" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I1839">
+        <v>67</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>816</v>
+      </c>
+      <c r="H1840" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I1840">
+        <v>214</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1841" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1841" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I1841">
+        <v>110</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1842" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>910</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1842" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I1842">
+        <v>109</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1843" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1843" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I1843">
+        <v>50</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1844" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1844" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I1844">
+        <v>42</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1845" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1845" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I1845">
+        <v>212</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1846" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1846" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I1846">
+        <v>73</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1847" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1847" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I1847">
+        <v>206</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1848" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I1848">
+        <v>16</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1849" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I1849">
+        <v>60</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1850" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I1850">
+        <v>438</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1851" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I1851">
+        <v>27</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1852" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I1852">
+        <v>115</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1853" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I1853">
+        <v>63</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>856</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1854" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I1854">
+        <v>33</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1855" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I1855">
+        <v>16</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1856" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I1856">
+        <v>76</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1857" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I1857">
+        <v>164</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>911</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1858" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I1858">
+        <v>72</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>858</v>
+      </c>
+      <c r="H1859" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I1859">
+        <v>118</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1860" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1860">
+        <v>84</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1861" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I1861">
+        <v>31</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1862" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I1862">
+        <v>66</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1863" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I1863">
+        <v>40</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>821</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1864" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I1864">
+        <v>389</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1865" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I1865">
+        <v>27</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1866" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1866" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I1866">
+        <v>38</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1867" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I1867">
+        <v>746</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1868" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I1868">
+        <v>48</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1869" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I1869">
+        <v>221</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1870" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1870">
+        <v>377</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1871" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I1871">
+        <v>97</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1872" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1872">
+        <v>324</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>914</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1873" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1873">
+        <v>705</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1874" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1874">
+        <v>241</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1875" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I1875">
+        <v>71</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1876" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I1876">
+        <v>174</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1877" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I1877">
+        <v>21</v>
+      </c>
+      <c r="J1877" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1878" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I1878">
+        <v>192</v>
+      </c>
+      <c r="J1878" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1879" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I1879">
+        <v>114</v>
+      </c>
+      <c r="J1879" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1880" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I1880">
+        <v>40</v>
+      </c>
+      <c r="J1880" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1881" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I1881">
+        <v>34</v>
+      </c>
+      <c r="J1881" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>916</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1882" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I1882">
+        <v>412</v>
+      </c>
+      <c r="J1882" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1883" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I1883">
+        <v>117</v>
+      </c>
+      <c r="J1883" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>826</v>
+      </c>
+      <c r="H1884" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I1884">
+        <v>43</v>
+      </c>
+      <c r="J1884" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1885" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1885" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I1885">
+        <v>12</v>
+      </c>
+      <c r="J1885" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1886" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I1886">
+        <v>652</v>
+      </c>
+      <c r="J1886" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1887" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I1887">
+        <v>74</v>
+      </c>
+      <c r="J1887" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1888" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I1888">
+        <v>579</v>
+      </c>
+      <c r="J1888" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>866</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1889" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I1889">
+        <v>1376</v>
+      </c>
+      <c r="J1889" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>918</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1890" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I1890">
+        <v>212</v>
+      </c>
+      <c r="J1890" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1891" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I1891">
+        <v>55</v>
+      </c>
+      <c r="J1891" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1892" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I1892">
+        <v>150</v>
+      </c>
+      <c r="J1892" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1893" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I1893">
+        <v>52</v>
+      </c>
+      <c r="J1893" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1894" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I1894">
+        <v>398</v>
+      </c>
+      <c r="J1894" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>868</v>
+      </c>
+      <c r="H1895" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I1895">
+        <v>62</v>
+      </c>
+      <c r="J1895" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1896" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I1896">
+        <v>34</v>
+      </c>
+      <c r="J1896" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1897" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1897" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I1897">
+        <v>80</v>
+      </c>
+      <c r="J1897" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1898" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1898" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I1898">
+        <v>58</v>
+      </c>
+      <c r="J1898" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1899" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1899" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I1899">
+        <v>38</v>
+      </c>
+      <c r="J1899" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1900" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1900" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I1900">
+        <v>72</v>
+      </c>
+      <c r="J1900" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1901" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1901" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1901" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I1901">
+        <v>101</v>
+      </c>
+      <c r="J1901" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1902" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>920</v>
+      </c>
+      <c r="H1902" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I1902">
+        <v>66</v>
+      </c>
+      <c r="J1902" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1903" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>872</v>
+      </c>
+      <c r="F1903" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1903" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I1903">
+        <v>122</v>
+      </c>
+      <c r="J1903" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1904" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1904" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I1904">
+        <v>124</v>
+      </c>
+      <c r="J1904" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1905" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1905" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1905" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I1905">
+        <v>133</v>
+      </c>
+      <c r="J1905" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1906" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F1906" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1906" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I1906">
+        <v>166</v>
+      </c>
+      <c r="J1906" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1907" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1907" t="s">
+        <v>875</v>
+      </c>
+      <c r="F1907" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1907" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I1907">
+        <v>779</v>
+      </c>
+      <c r="J1907" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1908" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1908" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H1908" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I1908">
+        <v>49</v>
+      </c>
+      <c r="J1908" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1909" t="s">
+        <v>832</v>
+      </c>
+      <c r="F1909" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1909" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1909" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I1909">
+        <v>158</v>
+      </c>
+      <c r="J1909" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1910" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1910" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1910" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I1910">
+        <v>464</v>
+      </c>
+      <c r="J1910" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1911" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1911" t="s">
+        <v>877</v>
+      </c>
+      <c r="F1911" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1911" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I1911">
+        <v>94</v>
+      </c>
+      <c r="J1911" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1912" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1912" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1912" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1912" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I1912">
+        <v>507</v>
+      </c>
+      <c r="J1912" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1913" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1913" t="s">
+        <v>878</v>
+      </c>
+      <c r="F1913" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1913" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1913">
+        <v>375</v>
+      </c>
+      <c r="J1913" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1914" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1914" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1914" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1914" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I1914">
+        <v>382</v>
+      </c>
+      <c r="J1914" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1915" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1915" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1915" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I1915">
+        <v>104</v>
+      </c>
+      <c r="J1915" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1916" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1916" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1916" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I1916">
+        <v>44</v>
+      </c>
+      <c r="J1916" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1917" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1917" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1917" t="s">
+        <v>427</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1917" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I1917">
+        <v>23</v>
+      </c>
+      <c r="J1917" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1918" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1918" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1918" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1918" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I1918">
+        <v>411</v>
+      </c>
+      <c r="J1918" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1919" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1919" t="s">
+        <v>834</v>
+      </c>
+      <c r="H1919" s="1">
+        <v>169</v>
+      </c>
+      <c r="I1919">
+        <v>519</v>
+      </c>
+      <c r="J1919" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1920" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1920" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1920" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J1920" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1921" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1921" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1921" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I1921">
+        <v>25</v>
+      </c>
+      <c r="J1921" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1922" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1922" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1922" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1922" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I1922">
+        <v>292</v>
+      </c>
+      <c r="J1922" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1923" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1923" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1923" t="s">
+        <v>455</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1923" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I1923">
+        <v>1401</v>
+      </c>
+      <c r="J1923" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1924" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1924" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1924" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I1924">
+        <v>101</v>
+      </c>
+      <c r="J1924" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1925" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1925" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1925" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I1925">
+        <v>135</v>
+      </c>
+      <c r="J1925" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1926" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1926" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1926" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1926" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I1926">
+        <v>204</v>
+      </c>
+      <c r="J1926" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1927" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1927" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1927" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1927" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I1927">
+        <v>29</v>
+      </c>
+      <c r="J1927" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1928" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1928" t="s">
+        <v>884</v>
+      </c>
+      <c r="F1928" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1928" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I1928">
+        <v>71</v>
+      </c>
+      <c r="J1928" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1929" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1929" t="s">
+        <v>885</v>
+      </c>
+      <c r="F1929" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1929" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1929" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I1929">
+        <v>26</v>
+      </c>
+      <c r="J1929" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1930" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>836</v>
+      </c>
+      <c r="F1930" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1930" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1930">
+        <v>28</v>
+      </c>
+      <c r="J1930" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1931" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1931" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1931" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I1931">
+        <v>203</v>
+      </c>
+      <c r="J1931" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1932" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1932" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1932" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I1932">
+        <v>18</v>
+      </c>
+      <c r="J1932" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1933" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1933" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1933" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I1933">
+        <v>403</v>
+      </c>
+      <c r="J1933" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1934" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>887</v>
+      </c>
+      <c r="F1934" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1934" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1934" s="1">
+        <v>203</v>
+      </c>
+      <c r="I1934">
+        <v>187</v>
+      </c>
+      <c r="J1934" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1935" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1935" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1935" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1935" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1935">
+        <v>99</v>
+      </c>
+      <c r="J1935" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1936" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1936" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1936" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1936" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1936">
+        <v>383</v>
+      </c>
+      <c r="J1936" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1937" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>888</v>
+      </c>
+      <c r="F1937" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1937" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1937" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1937">
+        <v>1034</v>
+      </c>
+      <c r="J1937" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1938" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1938" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1938" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1938" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I1938">
+        <v>304</v>
+      </c>
+      <c r="J1938" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1939" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1939" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1939" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1939" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I1939">
+        <v>1158</v>
+      </c>
+      <c r="J1939" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1940" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>538</v>
+      </c>
+      <c r="E1940" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1940" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1940" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I1940">
+        <v>156</v>
+      </c>
+      <c r="J1940" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1941" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1941" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1941" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1941" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1941" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I1941">
+        <v>31</v>
+      </c>
+      <c r="J1941" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1942" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1942" t="s">
+        <v>551</v>
+      </c>
+      <c r="G1942" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1942" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1942">
+        <v>471</v>
+      </c>
+      <c r="J1942" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1943" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1943" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1943" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1943">
+        <v>37</v>
+      </c>
+      <c r="J1943" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1944" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1944" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1944" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I1944">
+        <v>58</v>
+      </c>
+      <c r="J1944" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1945" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1945" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1945" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I1945">
+        <v>622</v>
+      </c>
+      <c r="J1945" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1946" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>571</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1946" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1946">
+        <v>1</v>
+      </c>
+      <c r="J1946" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>575</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>926</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1947" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1947" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I1947">
+        <v>68</v>
+      </c>
+      <c r="J1947" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1948" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>889</v>
+      </c>
+      <c r="F1948" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1948" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1948" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I1948">
+        <v>977</v>
+      </c>
+      <c r="J1948" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1949" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>890</v>
+      </c>
+      <c r="F1949" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1949" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1949" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I1949">
+        <v>292</v>
+      </c>
+      <c r="J1949" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1950" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>891</v>
+      </c>
+      <c r="F1950" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1950" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1950" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I1950">
+        <v>602</v>
+      </c>
+      <c r="J1950" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1951" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1951" t="s">
+        <v>598</v>
+      </c>
+      <c r="G1951" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1951" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I1951">
+        <v>128</v>
+      </c>
+      <c r="J1951" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1952" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1952" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1952" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I1952">
+        <v>888</v>
+      </c>
+      <c r="J1952" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1953" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1953" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1953" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I1953">
+        <v>250</v>
+      </c>
+      <c r="J1953" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1954" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>610</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1954" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1954" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I1954">
+        <v>200</v>
+      </c>
+      <c r="J1954" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1955" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>616</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1955" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1955" t="s">
+        <v>619</v>
+      </c>
+      <c r="G1955" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1955" s="1">
+        <v>80</v>
+      </c>
+      <c r="I1955">
+        <v>81</v>
+      </c>
+      <c r="J1955" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1956" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1956" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1956" t="s">
+        <v>624</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1956" s="1">
+        <v>76</v>
+      </c>
+      <c r="I1956">
+        <v>494</v>
+      </c>
+      <c r="J1956" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1957" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>630</v>
+      </c>
+      <c r="H1957" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I1957">
+        <v>94</v>
+      </c>
+      <c r="J1957" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1958" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1958" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1958" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I1958">
+        <v>49</v>
+      </c>
+      <c r="J1958" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1959" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1959" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1959" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I1959">
+        <v>75</v>
+      </c>
+      <c r="J1959" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1960" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1960" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>648</v>
+      </c>
+      <c r="H1960" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I1960">
+        <v>247</v>
+      </c>
+      <c r="J1960" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1961" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1961" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1961" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I1961">
+        <v>60</v>
+      </c>
+      <c r="J1961" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1962" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1962" t="s">
+        <v>658</v>
+      </c>
+      <c r="H1962" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I1962">
+        <v>610</v>
+      </c>
+      <c r="J1962" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1963" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>660</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>846</v>
+      </c>
+      <c r="F1963" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1963" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I1963">
+        <v>88</v>
+      </c>
+      <c r="J1963" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1964" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>847</v>
+      </c>
+      <c r="F1964" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1964" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I1964">
+        <v>54</v>
+      </c>
+      <c r="J1964" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1965" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1965" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1965" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I1965">
+        <v>577</v>
+      </c>
+      <c r="J1965" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1966" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>675</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1966" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1966" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I1966">
+        <v>52</v>
+      </c>
+      <c r="J1966" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1967" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>896</v>
+      </c>
+      <c r="F1967" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1967" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I1967">
+        <v>795</v>
+      </c>
+      <c r="J1967" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1968" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>897</v>
+      </c>
+      <c r="F1968" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1968" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I1968">
+        <v>1155</v>
+      </c>
+      <c r="J1968" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1969" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1969" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1969" s="1">
+        <v>120</v>
+      </c>
+      <c r="I1969">
+        <v>175</v>
+      </c>
+      <c r="J1969" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1970" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>898</v>
+      </c>
+      <c r="F1970" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>698</v>
+      </c>
+      <c r="H1970" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I1970">
+        <v>174</v>
+      </c>
+      <c r="J1970" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1971" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1971" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1971" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I1971">
+        <v>79</v>
+      </c>
+      <c r="J1971" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1972" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1972" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1972" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I1972">
+        <v>382</v>
+      </c>
+      <c r="J1972" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1973" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>899</v>
+      </c>
+      <c r="F1973" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1973" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I1973">
+        <v>96</v>
+      </c>
+      <c r="J1973" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1974" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>900</v>
+      </c>
+      <c r="H1974" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I1974">
+        <v>44</v>
+      </c>
+      <c r="J1974" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1975" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1975" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1975" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I1975">
+        <v>108</v>
+      </c>
+      <c r="J1975" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1976" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>727</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1976" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1976" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I1976">
+        <v>33</v>
+      </c>
+      <c r="J1976" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1977" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1977" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1977" s="1">
+        <v>250</v>
+      </c>
+      <c r="I1977">
+        <v>121</v>
+      </c>
+      <c r="J1977" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1978" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>740</v>
+      </c>
+      <c r="F1978" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1978" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I1978">
+        <v>71</v>
+      </c>
+      <c r="J1978" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1979" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>743</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1979" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>625</v>
+      </c>
+      <c r="H1979" s="1">
+        <v>96</v>
+      </c>
+      <c r="I1979">
+        <v>632</v>
+      </c>
+      <c r="J1979" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1980" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>750</v>
+      </c>
+      <c r="F1980" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1980" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I1980">
+        <v>650</v>
+      </c>
+      <c r="J1980" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1981" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>902</v>
+      </c>
+      <c r="F1981" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1981" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1981" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I1981">
+        <v>2030</v>
+      </c>
+      <c r="J1981" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1982" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>759</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1982" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1982" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I1982">
+        <v>337</v>
+      </c>
+      <c r="J1982" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1983" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>766</v>
+      </c>
+      <c r="F1983" t="s">
+        <v>767</v>
+      </c>
+      <c r="G1983" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1983" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I1983">
+        <v>36</v>
+      </c>
+      <c r="J1983" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1984" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>904</v>
+      </c>
+      <c r="F1984" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1984" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1984" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I1984">
+        <v>169</v>
+      </c>
+      <c r="J1984" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1985" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1985" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1985" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I1985">
+        <v>6251</v>
+      </c>
+      <c r="J1985" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1986" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>781</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1986" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1986" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I1986">
+        <v>35</v>
+      </c>
+      <c r="J1986" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1987" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1987" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1987" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I1987">
+        <v>191</v>
+      </c>
+      <c r="J1987" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1988" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>792</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1988" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1988" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1988" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I1988">
+        <v>194</v>
+      </c>
+      <c r="J1988" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1989" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>908</v>
+      </c>
+      <c r="F1989" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1989" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I1989">
+        <v>3315</v>
+      </c>
+      <c r="J1989" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1990" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>801</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1990" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I1990">
+        <v>14</v>
+      </c>
+      <c r="J1990" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14974" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16125" uniqueCount="1101">
   <si>
     <t>DATE</t>
   </si>
@@ -8751,6 +8751,52 @@
 Quantity
 ADD TO CART
 ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>11:51 PM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Anesthetic Gel - 20% Benzocaine - 0.75gram Packets - 144 Packets per Box - 1 Box/Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 67
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 48
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 166
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Flavored
+9g high-quality protein
+220 nutrient-rich calories with B-vitamins
+Contains vitamins C &amp; D, zinc, iron, and selenium, key nutrients for immune support
+8 Ounce Bottles
+No Artificial sweeteners, flavors &amp; colors
+24 Bottles per Case
+***  Brand may vary depending on availability *** 
+**  ALL Food Related Items are NON-RETURNABLE  **
+Please log in to see price or purchase this item
+ This item is in stock and available today!
+Current Stock: 49
  Pinit SharePost</t>
   </si>
 </sst>
@@ -9141,7 +9187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1990"/>
+  <dimension ref="A1:K2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -69652,6 +69698,4374 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1991" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1991" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1991" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1991" s="1"/>
+      <c r="I1991">
+        <v>78</v>
+      </c>
+      <c r="J1991" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1992" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H1992" s="1"/>
+      <c r="I1992">
+        <v>67</v>
+      </c>
+      <c r="J1992" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1993" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>935</v>
+      </c>
+      <c r="H1993" s="1"/>
+      <c r="I1993">
+        <v>214</v>
+      </c>
+      <c r="J1993" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1994" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>936</v>
+      </c>
+      <c r="H1994" s="1"/>
+      <c r="I1994">
+        <v>110</v>
+      </c>
+      <c r="J1994" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1995" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>937</v>
+      </c>
+      <c r="F1995" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1995" s="1"/>
+      <c r="I1995">
+        <v>109</v>
+      </c>
+      <c r="J1995" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1996" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1996" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1996" s="1"/>
+      <c r="I1996">
+        <v>50</v>
+      </c>
+      <c r="J1996" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1997" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>939</v>
+      </c>
+      <c r="F1997" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1997" s="1"/>
+      <c r="I1997">
+        <v>42</v>
+      </c>
+      <c r="J1997" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1998" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>940</v>
+      </c>
+      <c r="F1998" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1998" s="1"/>
+      <c r="I1998">
+        <v>212</v>
+      </c>
+      <c r="J1998" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1999" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1999" s="1"/>
+      <c r="I1999">
+        <v>73</v>
+      </c>
+      <c r="J1999" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>942</v>
+      </c>
+      <c r="F2000" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2000" s="1"/>
+      <c r="I2000">
+        <v>206</v>
+      </c>
+      <c r="J2000" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>943</v>
+      </c>
+      <c r="F2001" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2001" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2001" s="1"/>
+      <c r="I2001">
+        <v>16</v>
+      </c>
+      <c r="J2001" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>944</v>
+      </c>
+      <c r="F2002" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2002" s="1"/>
+      <c r="I2002">
+        <v>60</v>
+      </c>
+      <c r="J2002" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>945</v>
+      </c>
+      <c r="F2003" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2003" s="1"/>
+      <c r="I2003">
+        <v>438</v>
+      </c>
+      <c r="J2003" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>946</v>
+      </c>
+      <c r="F2004" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2004" s="1"/>
+      <c r="I2004">
+        <v>27</v>
+      </c>
+      <c r="J2004" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>947</v>
+      </c>
+      <c r="F2005" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2005" s="1"/>
+      <c r="I2005">
+        <v>115</v>
+      </c>
+      <c r="J2005" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2006" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>948</v>
+      </c>
+      <c r="F2006" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2006" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2006" s="1"/>
+      <c r="I2006">
+        <v>63</v>
+      </c>
+      <c r="J2006" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2007" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>949</v>
+      </c>
+      <c r="F2007" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2007" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2007" s="1"/>
+      <c r="I2007">
+        <v>33</v>
+      </c>
+      <c r="J2007" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2008" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>950</v>
+      </c>
+      <c r="F2008" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2008" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2008" s="1"/>
+      <c r="I2008">
+        <v>16</v>
+      </c>
+      <c r="J2008" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2009" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>951</v>
+      </c>
+      <c r="F2009" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2009" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2009" s="1"/>
+      <c r="I2009">
+        <v>76</v>
+      </c>
+      <c r="J2009" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2010" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>952</v>
+      </c>
+      <c r="F2010" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2010" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2010" s="1"/>
+      <c r="I2010">
+        <v>164</v>
+      </c>
+      <c r="J2010" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2011" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>953</v>
+      </c>
+      <c r="F2011" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2011" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2011" s="1"/>
+      <c r="I2011">
+        <v>72</v>
+      </c>
+      <c r="J2011" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>954</v>
+      </c>
+      <c r="H2012" s="1"/>
+      <c r="I2012">
+        <v>118</v>
+      </c>
+      <c r="J2012" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>955</v>
+      </c>
+      <c r="F2013" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2013" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2013" s="1"/>
+      <c r="I2013">
+        <v>84</v>
+      </c>
+      <c r="J2013" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>956</v>
+      </c>
+      <c r="H2014" s="1"/>
+      <c r="I2014">
+        <v>31</v>
+      </c>
+      <c r="J2014" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>957</v>
+      </c>
+      <c r="H2015" s="1"/>
+      <c r="I2015">
+        <v>66</v>
+      </c>
+      <c r="J2015" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>958</v>
+      </c>
+      <c r="F2016" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2016" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2016" s="1"/>
+      <c r="I2016">
+        <v>40</v>
+      </c>
+      <c r="J2016" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>959</v>
+      </c>
+      <c r="F2017" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2017" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2017" s="1"/>
+      <c r="I2017">
+        <v>389</v>
+      </c>
+      <c r="J2017" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2018" t="s">
+        <v>960</v>
+      </c>
+      <c r="H2018" s="1"/>
+      <c r="I2018">
+        <v>27</v>
+      </c>
+      <c r="J2018" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2019" t="s">
+        <v>961</v>
+      </c>
+      <c r="H2019" s="1"/>
+      <c r="I2019">
+        <v>38</v>
+      </c>
+      <c r="J2019" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2020" t="s">
+        <v>962</v>
+      </c>
+      <c r="F2020" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2020" s="1"/>
+      <c r="I2020">
+        <v>746</v>
+      </c>
+      <c r="J2020" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2021" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F2021" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2021" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2021" s="1"/>
+      <c r="I2021">
+        <v>48</v>
+      </c>
+      <c r="J2021" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2022" t="s">
+        <v>964</v>
+      </c>
+      <c r="F2022" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2022" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2022" s="1"/>
+      <c r="I2022">
+        <v>221</v>
+      </c>
+      <c r="J2022" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2023" t="s">
+        <v>965</v>
+      </c>
+      <c r="F2023" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2023" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2023" s="1"/>
+      <c r="I2023">
+        <v>377</v>
+      </c>
+      <c r="J2023" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2024" t="s">
+        <v>966</v>
+      </c>
+      <c r="F2024" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2024" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2024" s="1"/>
+      <c r="I2024">
+        <v>97</v>
+      </c>
+      <c r="J2024" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2025" t="s">
+        <v>967</v>
+      </c>
+      <c r="F2025" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2025" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2025" s="1"/>
+      <c r="I2025">
+        <v>324</v>
+      </c>
+      <c r="J2025" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2026" t="s">
+        <v>968</v>
+      </c>
+      <c r="F2026" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2026" s="1"/>
+      <c r="I2026">
+        <v>705</v>
+      </c>
+      <c r="J2026" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2027" t="s">
+        <v>969</v>
+      </c>
+      <c r="F2027" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2027" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2027" s="1"/>
+      <c r="I2027">
+        <v>241</v>
+      </c>
+      <c r="J2027" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>970</v>
+      </c>
+      <c r="H2028" s="1"/>
+      <c r="I2028">
+        <v>71</v>
+      </c>
+      <c r="J2028" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2029" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>971</v>
+      </c>
+      <c r="F2029" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2029" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2029" s="1"/>
+      <c r="I2029">
+        <v>174</v>
+      </c>
+      <c r="J2029" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2030" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>972</v>
+      </c>
+      <c r="G2030" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2030" s="1"/>
+      <c r="I2030">
+        <v>21</v>
+      </c>
+      <c r="J2030" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2031" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>973</v>
+      </c>
+      <c r="F2031" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2031" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2031" s="1"/>
+      <c r="I2031">
+        <v>192</v>
+      </c>
+      <c r="J2031" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2032" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>974</v>
+      </c>
+      <c r="F2032" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2032" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2032" s="1"/>
+      <c r="I2032">
+        <v>114</v>
+      </c>
+      <c r="J2032" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2033" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>975</v>
+      </c>
+      <c r="F2033" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2033" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2033" s="1"/>
+      <c r="I2033">
+        <v>40</v>
+      </c>
+      <c r="J2033" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2034" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>976</v>
+      </c>
+      <c r="H2034" s="1"/>
+      <c r="I2034">
+        <v>34</v>
+      </c>
+      <c r="J2034" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2035" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2035" t="s">
+        <v>977</v>
+      </c>
+      <c r="F2035" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2035" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2035" s="1"/>
+      <c r="I2035">
+        <v>412</v>
+      </c>
+      <c r="J2035" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2036" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>978</v>
+      </c>
+      <c r="F2036" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2036" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2036" s="1"/>
+      <c r="I2036">
+        <v>117</v>
+      </c>
+      <c r="J2036" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2037" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>979</v>
+      </c>
+      <c r="H2037" s="1"/>
+      <c r="I2037">
+        <v>43</v>
+      </c>
+      <c r="J2037" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2038" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>980</v>
+      </c>
+      <c r="F2038" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2038" s="1"/>
+      <c r="I2038">
+        <v>12</v>
+      </c>
+      <c r="J2038" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2039" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>981</v>
+      </c>
+      <c r="F2039" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2039" s="1"/>
+      <c r="I2039">
+        <v>652</v>
+      </c>
+      <c r="J2039" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2040" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>982</v>
+      </c>
+      <c r="F2040" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2040" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2040" s="1"/>
+      <c r="I2040">
+        <v>74</v>
+      </c>
+      <c r="J2040" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2041" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>983</v>
+      </c>
+      <c r="F2041" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2041" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2041" s="1"/>
+      <c r="I2041">
+        <v>579</v>
+      </c>
+      <c r="J2041" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2042" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>984</v>
+      </c>
+      <c r="F2042" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2042" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2042" s="1"/>
+      <c r="I2042">
+        <v>1376</v>
+      </c>
+      <c r="J2042" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2043" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>985</v>
+      </c>
+      <c r="F2043" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2043" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2043" s="1"/>
+      <c r="I2043">
+        <v>212</v>
+      </c>
+      <c r="J2043" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2044" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>986</v>
+      </c>
+      <c r="F2044" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2044" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2044" s="1"/>
+      <c r="I2044">
+        <v>55</v>
+      </c>
+      <c r="J2044" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2045" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>987</v>
+      </c>
+      <c r="G2045" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2045" s="1"/>
+      <c r="I2045">
+        <v>150</v>
+      </c>
+      <c r="J2045" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2046" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>988</v>
+      </c>
+      <c r="F2046" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2046" s="1"/>
+      <c r="I2046">
+        <v>52</v>
+      </c>
+      <c r="J2046" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>989</v>
+      </c>
+      <c r="F2047" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2047" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2047" s="1"/>
+      <c r="I2047">
+        <v>398</v>
+      </c>
+      <c r="J2047" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>990</v>
+      </c>
+      <c r="H2048" s="1"/>
+      <c r="I2048">
+        <v>62</v>
+      </c>
+      <c r="J2048" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>991</v>
+      </c>
+      <c r="F2049" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2049" s="1"/>
+      <c r="I2049">
+        <v>34</v>
+      </c>
+      <c r="J2049" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>992</v>
+      </c>
+      <c r="G2050" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2050" s="1"/>
+      <c r="I2050">
+        <v>80</v>
+      </c>
+      <c r="J2050" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2051" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>993</v>
+      </c>
+      <c r="F2051" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2051" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2051" s="1"/>
+      <c r="I2051">
+        <v>58</v>
+      </c>
+      <c r="J2051" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2052" t="s">
+        <v>994</v>
+      </c>
+      <c r="F2052" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2052" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2052" s="1"/>
+      <c r="I2052">
+        <v>38</v>
+      </c>
+      <c r="J2052" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2053" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2053" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2053" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2053" s="1"/>
+      <c r="I2053">
+        <v>72</v>
+      </c>
+      <c r="J2053" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2054" t="s">
+        <v>996</v>
+      </c>
+      <c r="F2054" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2054" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2054" s="1"/>
+      <c r="I2054">
+        <v>101</v>
+      </c>
+      <c r="J2054" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2055" t="s">
+        <v>997</v>
+      </c>
+      <c r="H2055" s="1"/>
+      <c r="I2055">
+        <v>66</v>
+      </c>
+      <c r="J2055" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2056" t="s">
+        <v>998</v>
+      </c>
+      <c r="F2056" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2056" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2056" s="1"/>
+      <c r="I2056">
+        <v>122</v>
+      </c>
+      <c r="J2056" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2057" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2057" s="1"/>
+      <c r="I2057">
+        <v>124</v>
+      </c>
+      <c r="J2057" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2058" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F2058" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2058" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2058" s="1"/>
+      <c r="I2058">
+        <v>133</v>
+      </c>
+      <c r="J2058" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2059" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F2059" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2059" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2059" s="1"/>
+      <c r="I2059">
+        <v>166</v>
+      </c>
+      <c r="J2059" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2060" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F2060" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2060" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2060" s="1"/>
+      <c r="I2060">
+        <v>779</v>
+      </c>
+      <c r="J2060" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2061" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H2061" s="1"/>
+      <c r="I2061">
+        <v>49</v>
+      </c>
+      <c r="J2061" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2062" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F2062" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2062" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2062" s="1"/>
+      <c r="I2062">
+        <v>158</v>
+      </c>
+      <c r="J2062" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2063" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F2063" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2063" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2063" s="1"/>
+      <c r="I2063">
+        <v>464</v>
+      </c>
+      <c r="J2063" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2064" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2064" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F2064" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2064" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2064" s="1"/>
+      <c r="I2064">
+        <v>94</v>
+      </c>
+      <c r="J2064" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2065" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2065" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F2065" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2065" s="1"/>
+      <c r="I2065">
+        <v>507</v>
+      </c>
+      <c r="J2065" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2066" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2066" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F2066" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2066" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2066" s="1"/>
+      <c r="I2066">
+        <v>375</v>
+      </c>
+      <c r="J2066" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2067" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2067" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F2067" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2067" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2067" s="1"/>
+      <c r="I2067">
+        <v>382</v>
+      </c>
+      <c r="J2067" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2068" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2068" s="1"/>
+      <c r="I2068">
+        <v>104</v>
+      </c>
+      <c r="J2068" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2069" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F2069" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2069" s="1"/>
+      <c r="I2069">
+        <v>44</v>
+      </c>
+      <c r="J2069" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2070" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F2070" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2070" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2070" s="1"/>
+      <c r="I2070">
+        <v>23</v>
+      </c>
+      <c r="J2070" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2071" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F2071" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2071" s="1"/>
+      <c r="I2071">
+        <v>411</v>
+      </c>
+      <c r="J2071" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2072" s="1"/>
+      <c r="I2072">
+        <v>519</v>
+      </c>
+      <c r="J2072" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G2073" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2073" s="1"/>
+      <c r="J2073" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G2074" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2074" s="1"/>
+      <c r="I2074">
+        <v>25</v>
+      </c>
+      <c r="J2074" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2075" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F2075" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2075" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2075" s="1"/>
+      <c r="I2075">
+        <v>292</v>
+      </c>
+      <c r="J2075" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F2076" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2076" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2076" s="1"/>
+      <c r="I2076">
+        <v>1401</v>
+      </c>
+      <c r="J2076" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G2077" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2077" s="1"/>
+      <c r="I2077">
+        <v>101</v>
+      </c>
+      <c r="J2077" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F2078" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2078" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2078" s="1"/>
+      <c r="I2078">
+        <v>135</v>
+      </c>
+      <c r="J2078" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F2079" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2079" s="1"/>
+      <c r="I2079">
+        <v>204</v>
+      </c>
+      <c r="J2079" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2080" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2080" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2080" s="1"/>
+      <c r="I2080">
+        <v>29</v>
+      </c>
+      <c r="J2080" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F2081" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2081" s="1"/>
+      <c r="I2081">
+        <v>71</v>
+      </c>
+      <c r="J2081" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F2082" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2082" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2082" s="1"/>
+      <c r="I2082">
+        <v>26</v>
+      </c>
+      <c r="J2082" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F2083" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2083" s="1"/>
+      <c r="I2083">
+        <v>28</v>
+      </c>
+      <c r="J2083" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F2084" t="s">
+        <v>495</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2084" s="1"/>
+      <c r="I2084">
+        <v>203</v>
+      </c>
+      <c r="J2084" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F2085" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2085" s="1"/>
+      <c r="I2085">
+        <v>18</v>
+      </c>
+      <c r="J2085" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2086" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F2086" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2086" s="1"/>
+      <c r="I2086">
+        <v>403</v>
+      </c>
+      <c r="J2086" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2087" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F2087" t="s">
+        <v>510</v>
+      </c>
+      <c r="G2087" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2087" s="1"/>
+      <c r="I2087">
+        <v>187</v>
+      </c>
+      <c r="J2087" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2088" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F2088" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2088" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2088" s="1"/>
+      <c r="I2088">
+        <v>99</v>
+      </c>
+      <c r="J2088" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2089" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F2089" t="s">
+        <v>520</v>
+      </c>
+      <c r="G2089" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2089" s="1"/>
+      <c r="I2089">
+        <v>383</v>
+      </c>
+      <c r="J2089" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2090" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F2090" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2090" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2090" s="1"/>
+      <c r="I2090">
+        <v>1034</v>
+      </c>
+      <c r="J2090" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2091" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F2091" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2091" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2091" s="1"/>
+      <c r="I2091">
+        <v>304</v>
+      </c>
+      <c r="J2091" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2092" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F2092" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2092" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2092" s="1"/>
+      <c r="I2092">
+        <v>1158</v>
+      </c>
+      <c r="J2092" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2093" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G2093" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2093" s="1"/>
+      <c r="I2093">
+        <v>156</v>
+      </c>
+      <c r="J2093" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2094" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F2094" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2094" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2094" s="1"/>
+      <c r="I2094">
+        <v>31</v>
+      </c>
+      <c r="J2094" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2095" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F2095" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2095" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2095" s="1"/>
+      <c r="I2095">
+        <v>471</v>
+      </c>
+      <c r="J2095" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2096" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F2096" t="s">
+        <v>557</v>
+      </c>
+      <c r="H2096" s="1"/>
+      <c r="I2096">
+        <v>37</v>
+      </c>
+      <c r="J2096" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2097" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F2097" t="s">
+        <v>562</v>
+      </c>
+      <c r="G2097" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2097" s="1"/>
+      <c r="I2097">
+        <v>58</v>
+      </c>
+      <c r="J2097" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2098" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2098" t="s">
+        <v>568</v>
+      </c>
+      <c r="H2098" s="1"/>
+      <c r="I2098">
+        <v>622</v>
+      </c>
+      <c r="J2098" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F2099" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2099" s="1"/>
+      <c r="I2099">
+        <v>68</v>
+      </c>
+      <c r="J2099" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2100" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2100" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2100" s="1"/>
+      <c r="I2100">
+        <v>977</v>
+      </c>
+      <c r="J2100" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F2101" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2101" s="1"/>
+      <c r="I2101">
+        <v>292</v>
+      </c>
+      <c r="J2101" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F2102" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2102" s="1"/>
+      <c r="I2102">
+        <v>602</v>
+      </c>
+      <c r="J2102" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F2103" t="s">
+        <v>598</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2103" s="1"/>
+      <c r="I2103">
+        <v>128</v>
+      </c>
+      <c r="J2103" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F2104" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2104" s="1"/>
+      <c r="I2104">
+        <v>888</v>
+      </c>
+      <c r="J2104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F2105" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2105" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2105" s="1"/>
+      <c r="I2105">
+        <v>250</v>
+      </c>
+      <c r="J2105" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F2106" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2106" s="1"/>
+      <c r="I2106">
+        <v>200</v>
+      </c>
+      <c r="J2106" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2107" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H2107" s="1"/>
+      <c r="I2107">
+        <v>1</v>
+      </c>
+      <c r="J2107" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2108" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>619</v>
+      </c>
+      <c r="G2108" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2108" s="1"/>
+      <c r="I2108">
+        <v>81</v>
+      </c>
+      <c r="J2108" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2109" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>624</v>
+      </c>
+      <c r="G2109" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2109" s="1"/>
+      <c r="I2109">
+        <v>494</v>
+      </c>
+      <c r="J2109" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2110" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G2110" t="s">
+        <v>630</v>
+      </c>
+      <c r="H2110" s="1"/>
+      <c r="I2110">
+        <v>94</v>
+      </c>
+      <c r="J2110" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2111" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F2111" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2111" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2111" s="1"/>
+      <c r="I2111">
+        <v>49</v>
+      </c>
+      <c r="J2111" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2112" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>641</v>
+      </c>
+      <c r="G2112" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2112" s="1"/>
+      <c r="I2112">
+        <v>75</v>
+      </c>
+      <c r="J2112" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2113" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2113" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2113" s="1"/>
+      <c r="I2113">
+        <v>247</v>
+      </c>
+      <c r="J2113" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2114" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>650</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>651</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>653</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2114" s="1"/>
+      <c r="I2114">
+        <v>60</v>
+      </c>
+      <c r="J2114" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2115" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2115" s="1"/>
+      <c r="I2115">
+        <v>610</v>
+      </c>
+      <c r="J2115" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2116" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>661</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2116" s="1"/>
+      <c r="I2116">
+        <v>88</v>
+      </c>
+      <c r="J2116" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2117" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>668</v>
+      </c>
+      <c r="H2117" s="1"/>
+      <c r="I2117">
+        <v>54</v>
+      </c>
+      <c r="J2117" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2118" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2118" s="1"/>
+      <c r="I2118">
+        <v>577</v>
+      </c>
+      <c r="J2118" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2119" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2119" s="1"/>
+      <c r="I2119">
+        <v>52</v>
+      </c>
+      <c r="J2119" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2120" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>682</v>
+      </c>
+      <c r="G2120" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2120" s="1"/>
+      <c r="I2120">
+        <v>795</v>
+      </c>
+      <c r="J2120" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2121" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>687</v>
+      </c>
+      <c r="G2121" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2121" s="1"/>
+      <c r="I2121">
+        <v>1155</v>
+      </c>
+      <c r="J2121" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2122" s="1"/>
+      <c r="I2122">
+        <v>175</v>
+      </c>
+      <c r="J2122" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2123" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2123" s="1"/>
+      <c r="I2123">
+        <v>174</v>
+      </c>
+      <c r="J2123" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2124" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>701</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>703</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2124" s="1"/>
+      <c r="I2124">
+        <v>79</v>
+      </c>
+      <c r="J2124" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2125" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>706</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>707</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>709</v>
+      </c>
+      <c r="G2125" t="s">
+        <v>710</v>
+      </c>
+      <c r="H2125" s="1"/>
+      <c r="I2125">
+        <v>382</v>
+      </c>
+      <c r="J2125" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2126" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2126" s="1"/>
+      <c r="I2126">
+        <v>96</v>
+      </c>
+      <c r="J2126" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2127" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H2127" s="1"/>
+      <c r="I2127">
+        <v>44</v>
+      </c>
+      <c r="J2127" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2128" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>724</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>725</v>
+      </c>
+      <c r="H2128" s="1"/>
+      <c r="I2128">
+        <v>108</v>
+      </c>
+      <c r="J2128" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2129" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>730</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2129" s="1"/>
+      <c r="I2129">
+        <v>33</v>
+      </c>
+      <c r="J2129" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2130" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F2130" t="s">
+        <v>736</v>
+      </c>
+      <c r="H2130" s="1"/>
+      <c r="I2130">
+        <v>121</v>
+      </c>
+      <c r="J2130" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2131" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>741</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2131" s="1"/>
+      <c r="I2131">
+        <v>71</v>
+      </c>
+      <c r="J2131" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2132" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>746</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2132" s="1"/>
+      <c r="I2132">
+        <v>632</v>
+      </c>
+      <c r="J2132" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2133" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>751</v>
+      </c>
+      <c r="H2133" s="1"/>
+      <c r="I2133">
+        <v>650</v>
+      </c>
+      <c r="J2133" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2134" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>754</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>756</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>757</v>
+      </c>
+      <c r="H2134" s="1"/>
+      <c r="I2134">
+        <v>2030</v>
+      </c>
+      <c r="J2134" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2135" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2135" s="1"/>
+      <c r="I2135">
+        <v>337</v>
+      </c>
+      <c r="J2135" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2136" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>767</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>768</v>
+      </c>
+      <c r="H2136" s="1"/>
+      <c r="I2136">
+        <v>36</v>
+      </c>
+      <c r="J2136" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2137" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>774</v>
+      </c>
+      <c r="H2137" s="1"/>
+      <c r="I2137">
+        <v>169</v>
+      </c>
+      <c r="J2137" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2138" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>776</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>779</v>
+      </c>
+      <c r="H2138" s="1"/>
+      <c r="I2138">
+        <v>6251</v>
+      </c>
+      <c r="J2138" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2139" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>784</v>
+      </c>
+      <c r="H2139" s="1"/>
+      <c r="I2139">
+        <v>35</v>
+      </c>
+      <c r="J2139" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2140" s="1"/>
+      <c r="I2140">
+        <v>191</v>
+      </c>
+      <c r="J2140" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2141" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>794</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2141" s="1"/>
+      <c r="I2141">
+        <v>194</v>
+      </c>
+      <c r="J2141" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>797</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2142" s="1"/>
+      <c r="I2142">
+        <v>3315</v>
+      </c>
+      <c r="J2142" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H2143" s="1"/>
+      <c r="I2143">
+        <v>14</v>
+      </c>
+      <c r="J2143" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16125" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17276" uniqueCount="1134">
   <si>
     <t>DATE</t>
   </si>
@@ -8797,6 +8797,518 @@
 Please log in to see price or purchase this item
  This item is in stock and available today!
 Current Stock: 49
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>08/18/2025</t>
+  </si>
+  <si>
+    <t>06:07 AM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayon/poly knitted stretch gauze bandage
+Provides slight compression to the site while securely holding to any body contour
+Specifically designed not to slip while in use
+Unique weave construction and finished edges prevent unraveling and lining
+Lighter, economical version of the DUKAL Conforming Stretch Gauze
+Single channel construction
+SPECIFICATIONS:
+3" x 4.1yd Conforming Stretch Gauze Bandage
+Latex Free
+Rayon/Poly Blend
+Single Channel Construction
+12 Rolls per Bag
+1 Bag/Each
+$5.79
+ This item is in stock and available today!
+Current Stock: 48
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A convenient, ready-to-use, intermediate-level disinfecting wipe available in two sizes to fit all your needs
+Towels stay fully saturated and will not dry out during use
+Effective against TB, HBV, and HIV. Towelette and CaviCide in one
+For use on nonporous surfaces
+Sturdy and durable, nonwoven towelette will not bunch up or tear during use
+160 Wipes per Canister
+$16.44
+ This item is in stock and available today!
+Current Stock: 201
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28g x 1.88mm Safety Lancet
+Contact Activated
+Pink
+100 per Box
+1 Box Each
+$10.94
+ This item is in stock and available today!
+Current Stock: 381
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 716
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+$33.48
+ This item is in stock and available today!
+Current Stock: 47
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+MEDIUM
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 294
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fentanyl (FTY) Urine Dip Cassette Test Kit
+FDA/CLIA Waived POC ¬†¬†
+Ultra Sensitive Fentanyl Detection ¬†1 ng/ml
+Results in 5 Mins¬†
+25 Tests per Box¬†
+1 Box Each
+$60.50
+ This item is in stock and available today!
+Current Stock: 646
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For List of Brother Compatible Printers See Below
+OEM DK-1208
+Die-Cut Paper Labels
+White Standard Address Labels
+400 Labels per Roll
+1 Roll Each
+$9.63
+ This item is in stock and available today!
+Current Stock: 549
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8oz Dial Professional Antibacterial Hand Sanitizer Gel with Pump
+Fragrance-free
+Dye-free - Clear
+Kills 99.99% of Germs
+Tested on Latex, Vinyl and Nitrile Gloves
+Dermatologist Tested
+Hypoallergenic
+Moisturizing Skin Conditioners
+1 Bottle Each
+$6.20
+ This item is in stock and available today!
+Current Stock: 164
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue
+Press &amp; Lock Safety Reliable Mechanism for Permanent Lock
+Ergonomic Wings for Ease of Use
+Ultra Sharp Needle for Patient Comfort
+Sterile Single Packs for Single Use
+US FDA 510K Approved
+50 per Box 
+1 Box Each
+$48.31
+ This item is in stock and available today!
+Current Stock: 56
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 164
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
+Professional Use
+50 Strips per Box 
+1 Box Each
+$9.58
+ This item is in stock and available today!
+Current Stock: 773
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+$249.16
+ This item is in stock and available today!
+Current Stock: 1394
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2" x 5yds Cohesive Elastic Bandage Wrap
+TAN
+Self Adherent
+Flexible
+Latex Free
+NonSterile
+1 Roll Each
+$4.01
+ This item is in stock and available today!
+Current Stock: 134
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 2 Cotton Gauze Pads - 12 Ply
+NonSterile
+100% Woven Cotton
+200 per Pack
+$4.57
+ This item is in stock and available today!
+Current Stock: 47
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouthpiece Fits AlcoMate Breathalyzers
+50 Mouthpieces per Bag
+1 Bag Each
+$20.80
+ This item is in stock and available today!
+Current Stock: 619
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Alcohol 70%
+ Sterile Alcohol Prep Pad
+Dimensions: 1 X 1 1/4 Inch
+Individual Packets
+NonWoven Gauze
+ 2 - Ply
+Scent: Alcohol Scent
+Sterility: Sterile
+Size: Medium
+200 Pads per Box
+(PACKED:  ​​​​​​20 Boxes/Case)
+Brand may vary based on availability. Includes brands such as Webcol, Dukal, or similar. 
+$4.15
+ This item is in stock and available today!
+Current Stock: 971
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+SMALL
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 884
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+$76.00
+ This item is in stock and available today!
+Current Stock: 479
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel 4oz Compact Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for: AMP / BAR / BUP / BZO / COC / mAMP / MDMA / MOP / MTD / OXY / PCP / THC
+25 per Box
+$146.70
+ This item is in stock and available today!
+Current Stock: 793
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Panel Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MTD
+OPI
+OXY
+THC
+25 per Box
+$106.50
+ This item is in stock and available today!
+Current Stock: 1148
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine
+4oz 120mL Volume Cup 
+Temperature Strip
+5 minutes Result Time
+Store between 39°F to 86°F (4°C to 30°C)
+Over 99% Accuracy
+24 Month Shelf Life From Date of Manufacture
+CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for the Following:
+AMP
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP (OPI)
+MTD
+OXY
+THC
+25 Tests per Box
+1 Box Each
+To Order a Case, Please Order 4 Boxes.
+$120.00
+ This item is in stock and available today!
+Current Stock: 171
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharps Collection/Disposal Container
+ 5 Quart Capacity
+Red
+Anti-Kickback Lid
+Horizontal Entry
+Automatic Shut Off to Prevent Overflow
+Locking Tabs
+Dimensions: 10.75" x 10.5" x 4.75"
+1 Each
+$6.90
+ This item is in stock and available today!
+Current Stock: 381
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Sharps Collection Container
+White Horizontal Entry Counter Balanced Cylinder Lid
+Size: 2 Gallon
+Locking Lid
+Free Standing
+12-1/2 H X 10-7/10 W X 6 D Inch
+1/Each
+** Wire Wall Mount Bracket Option Available - Contact your sales rep for more information. **
+$14.93
+ This item is in stock and available today!
+Current Stock: 93
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Plastic Souffle Cup
+Color: Translucent
+Volume: 2oz
+Made From: Plastic
+2,500/Case
+$65.82
+ This item is in stock and available today!
+Current Stock: 41
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5oz Clear Plastic Cup
+Rolled Lip
+Disposable
+Latex Free
+100 per Pack - 25 Packs/Case = 2,500 Cups/Case
+1 Case Each
+$96.00
+ This item is in stock and available today!
+Current Stock: 630
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cc
+Natural Square Bottle
+1,505/Case
+$199.76
+ This item is in stock and available today!
+Current Stock: 1993
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc 
+Natural Wide Mouth Round Bottle 
+1,900/Case
+$197.90
+ This item is in stock and available today!
+Current Stock: 321
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+350 Labels per Roll
+Dymo Compatible White Direct Thermal Labels 
+1-1/8" x 3.5" w/ Permanent Adhesive 
+** These labels are not compatible with the Dymo 550 **
+$5.93
+ This item is in stock and available today!
+Current Stock: 6231
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2in x 5in Clear Line Zipper Reclosable bags
+ Meets FDA requirements
+2 mil Recyclable LDPE Material
+Bags are packed in inner dispenser packs of 100 bags each
+1,000 Bags per Case
+$14.37
+ This item is in stock and available today!
+Current Stock: 188
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Qty: 420 labels per Roll
+1.5" X 3.5"
+Zebra Compatible White Direct Thermal Labels
+$9.01
+ This item is in stock and available today!
+Current Stock: 3310
+Quantity
+ADD TO CART
+ADD TO WISHLIST
  Pinit SharePost</t>
   </si>
 </sst>
@@ -9187,7 +9699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2143"/>
+  <dimension ref="A1:K2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -74066,6 +74578,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="2144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2144" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I2144">
+        <v>78</v>
+      </c>
+      <c r="J2144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2145" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H2145" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I2145">
+        <v>67</v>
+      </c>
+      <c r="J2145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>816</v>
+      </c>
+      <c r="H2146" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I2146">
+        <v>214</v>
+      </c>
+      <c r="J2146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2147" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I2147">
+        <v>110</v>
+      </c>
+      <c r="J2147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2148" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2148" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I2148">
+        <v>109</v>
+      </c>
+      <c r="J2148" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2149" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2149" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I2149">
+        <v>48</v>
+      </c>
+      <c r="J2149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2150" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2150" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I2150">
+        <v>42</v>
+      </c>
+      <c r="J2150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2151" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2151" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I2151">
+        <v>212</v>
+      </c>
+      <c r="J2151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2152" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>817</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2152" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I2152">
+        <v>73</v>
+      </c>
+      <c r="J2152" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2153" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2153" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I2153">
+        <v>201</v>
+      </c>
+      <c r="J2153" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2154" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I2154">
+        <v>16</v>
+      </c>
+      <c r="J2154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2155" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I2155">
+        <v>60</v>
+      </c>
+      <c r="J2155" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2156" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2156" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I2156">
+        <v>438</v>
+      </c>
+      <c r="J2156" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>818</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2157" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I2157">
+        <v>27</v>
+      </c>
+      <c r="J2157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2158" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I2158">
+        <v>115</v>
+      </c>
+      <c r="J2158" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2159" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I2159">
+        <v>63</v>
+      </c>
+      <c r="J2159" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2160" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>856</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2160" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I2160">
+        <v>33</v>
+      </c>
+      <c r="J2160" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2161" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2161" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I2161">
+        <v>16</v>
+      </c>
+      <c r="J2161" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2162" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2162" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I2162">
+        <v>76</v>
+      </c>
+      <c r="J2162" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2163" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>857</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2163" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I2163">
+        <v>164</v>
+      </c>
+      <c r="J2163" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>911</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2164" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I2164">
+        <v>72</v>
+      </c>
+      <c r="J2164" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2165" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I2165">
+        <v>118</v>
+      </c>
+      <c r="J2165" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2166" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I2166">
+        <v>84</v>
+      </c>
+      <c r="J2166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2167" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2167" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I2167">
+        <v>31</v>
+      </c>
+      <c r="J2167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2168" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2168" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I2168">
+        <v>66</v>
+      </c>
+      <c r="J2168" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2169" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2169" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I2169">
+        <v>40</v>
+      </c>
+      <c r="J2169" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2170" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2170" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I2170">
+        <v>381</v>
+      </c>
+      <c r="J2170" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2171" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2171" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I2171">
+        <v>27</v>
+      </c>
+      <c r="J2171" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2172" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I2172">
+        <v>38</v>
+      </c>
+      <c r="J2172" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2173" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2173" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I2173">
+        <v>716</v>
+      </c>
+      <c r="J2173" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2174" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2174" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I2174">
+        <v>47</v>
+      </c>
+      <c r="J2174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2175" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2175" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I2175">
+        <v>221</v>
+      </c>
+      <c r="J2175" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2176" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2176" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I2176">
+        <v>377</v>
+      </c>
+      <c r="J2176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2177" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2177" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I2177">
+        <v>97</v>
+      </c>
+      <c r="J2177" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2178" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2178" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2178">
+        <v>294</v>
+      </c>
+      <c r="J2178" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2179" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>914</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2179" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2179">
+        <v>705</v>
+      </c>
+      <c r="J2179" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2180" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2180" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2180">
+        <v>241</v>
+      </c>
+      <c r="J2180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2181" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I2181">
+        <v>71</v>
+      </c>
+      <c r="J2181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>863</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2182" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I2182">
+        <v>174</v>
+      </c>
+      <c r="J2182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2183" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2183" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I2183">
+        <v>21</v>
+      </c>
+      <c r="J2183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2184" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2184" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I2184">
+        <v>192</v>
+      </c>
+      <c r="J2184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2185" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>915</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2185" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I2185">
+        <v>114</v>
+      </c>
+      <c r="J2185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2186" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2186" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2186" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I2186">
+        <v>40</v>
+      </c>
+      <c r="J2186" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2187" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2187" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I2187">
+        <v>34</v>
+      </c>
+      <c r="J2187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2188" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>916</v>
+      </c>
+      <c r="F2188" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2188" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I2188">
+        <v>412</v>
+      </c>
+      <c r="J2188" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2189" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2189" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2189" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I2189">
+        <v>117</v>
+      </c>
+      <c r="J2189" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2190" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2190" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I2190">
+        <v>43</v>
+      </c>
+      <c r="J2190" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2191" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2191" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I2191">
+        <v>12</v>
+      </c>
+      <c r="J2191" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2192" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F2192" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2192" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I2192">
+        <v>646</v>
+      </c>
+      <c r="J2192" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2193" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>917</v>
+      </c>
+      <c r="F2193" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2193" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I2193">
+        <v>74</v>
+      </c>
+      <c r="J2193" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2194" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F2194" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2194" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I2194">
+        <v>549</v>
+      </c>
+      <c r="J2194" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2195" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>866</v>
+      </c>
+      <c r="F2195" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2195" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I2195">
+        <v>1376</v>
+      </c>
+      <c r="J2195" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2196" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>918</v>
+      </c>
+      <c r="F2196" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2196" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I2196">
+        <v>212</v>
+      </c>
+      <c r="J2196" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2197" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2197" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2197" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I2197">
+        <v>55</v>
+      </c>
+      <c r="J2197" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2198" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>867</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2198" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I2198">
+        <v>150</v>
+      </c>
+      <c r="J2198" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2199" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2199" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2199" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2199" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I2199">
+        <v>52</v>
+      </c>
+      <c r="J2199" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2200" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2200" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2200" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I2200">
+        <v>398</v>
+      </c>
+      <c r="J2200" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2201" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>868</v>
+      </c>
+      <c r="H2201" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="I2201">
+        <v>62</v>
+      </c>
+      <c r="J2201" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2202" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2202" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2202" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I2202">
+        <v>34</v>
+      </c>
+      <c r="J2202" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2203" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2203" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I2203">
+        <v>164</v>
+      </c>
+      <c r="J2203" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2204" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F2204" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2204" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I2204">
+        <v>56</v>
+      </c>
+      <c r="J2204" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2205" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2205" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2205" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I2205">
+        <v>38</v>
+      </c>
+      <c r="J2205" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2206" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2206" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2206" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I2206">
+        <v>72</v>
+      </c>
+      <c r="J2206" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2207" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2207" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2207" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I2207">
+        <v>101</v>
+      </c>
+      <c r="J2207" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2208" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2208" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I2208">
+        <v>66</v>
+      </c>
+      <c r="J2208" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2209" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>872</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2209" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I2209">
+        <v>122</v>
+      </c>
+      <c r="J2209" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2210" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2210" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I2210">
+        <v>124</v>
+      </c>
+      <c r="J2210" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2211" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2211" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I2211">
+        <v>133</v>
+      </c>
+      <c r="J2211" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2212" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F2212" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2212" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I2212">
+        <v>164</v>
+      </c>
+      <c r="J2212" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2213" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F2213" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2213" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I2213">
+        <v>773</v>
+      </c>
+      <c r="J2213" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2214" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H2214" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I2214">
+        <v>49</v>
+      </c>
+      <c r="J2214" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2215" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2215" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2215" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I2215">
+        <v>158</v>
+      </c>
+      <c r="J2215" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2216" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>833</v>
+      </c>
+      <c r="F2216" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2216" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I2216">
+        <v>464</v>
+      </c>
+      <c r="J2216" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2217" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>877</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2217" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I2217">
+        <v>94</v>
+      </c>
+      <c r="J2217" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2218" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2218" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2218" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I2218">
+        <v>507</v>
+      </c>
+      <c r="J2218" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2219" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>878</v>
+      </c>
+      <c r="F2219" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2219" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I2219">
+        <v>375</v>
+      </c>
+      <c r="J2219" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2220" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>879</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2220" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I2220">
+        <v>382</v>
+      </c>
+      <c r="J2220" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2221" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>417</v>
+      </c>
+      <c r="H2221" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I2221">
+        <v>104</v>
+      </c>
+      <c r="J2221" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2222" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2222" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2222" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I2222">
+        <v>44</v>
+      </c>
+      <c r="J2222" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2223" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2223" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2223" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I2223">
+        <v>23</v>
+      </c>
+      <c r="J2223" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2224" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>922</v>
+      </c>
+      <c r="F2224" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2224" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I2224">
+        <v>411</v>
+      </c>
+      <c r="J2224" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2225" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>834</v>
+      </c>
+      <c r="H2225" s="1">
+        <v>169</v>
+      </c>
+      <c r="I2225">
+        <v>519</v>
+      </c>
+      <c r="J2225" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2226" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2226" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J2226" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2227" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>923</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2227" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I2227">
+        <v>25</v>
+      </c>
+      <c r="J2227" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2228" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>881</v>
+      </c>
+      <c r="F2228" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2228" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I2228">
+        <v>292</v>
+      </c>
+      <c r="J2228" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2229" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2229" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I2229">
+        <v>1394</v>
+      </c>
+      <c r="J2229" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2230" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2230" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I2230">
+        <v>101</v>
+      </c>
+      <c r="J2230" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2231" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2231" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I2231">
+        <v>134</v>
+      </c>
+      <c r="J2231" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2232" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2232" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I2232">
+        <v>204</v>
+      </c>
+      <c r="J2232" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2233" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2233" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I2233">
+        <v>29</v>
+      </c>
+      <c r="J2233" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2234" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>884</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2234" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I2234">
+        <v>71</v>
+      </c>
+      <c r="J2234" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2235" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>885</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2235" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I2235">
+        <v>26</v>
+      </c>
+      <c r="J2235" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2236" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>836</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2236" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2236">
+        <v>28</v>
+      </c>
+      <c r="J2236" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2237" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>886</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>495</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2237" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I2237">
+        <v>203</v>
+      </c>
+      <c r="J2237" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2238" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2238" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I2238">
+        <v>18</v>
+      </c>
+      <c r="J2238" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2239" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2239" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I2239">
+        <v>403</v>
+      </c>
+      <c r="J2239" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2240" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>887</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>510</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2240" s="1">
+        <v>203</v>
+      </c>
+      <c r="I2240">
+        <v>187</v>
+      </c>
+      <c r="J2240" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2241" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2241" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2241">
+        <v>99</v>
+      </c>
+      <c r="J2241" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2242" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>838</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>520</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2242" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2242">
+        <v>383</v>
+      </c>
+      <c r="J2242" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2243" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2243" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2243">
+        <v>1034</v>
+      </c>
+      <c r="J2243" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2244" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2244" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2244">
+        <v>304</v>
+      </c>
+      <c r="J2244" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2245" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>925</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2245" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I2245">
+        <v>1158</v>
+      </c>
+      <c r="J2245" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2246" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2246" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I2246">
+        <v>156</v>
+      </c>
+      <c r="J2246" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2247" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2247" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I2247">
+        <v>31</v>
+      </c>
+      <c r="J2247" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2248" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2248" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2248" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I2248">
+        <v>471</v>
+      </c>
+      <c r="J2248" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2249" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>557</v>
+      </c>
+      <c r="H2249" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I2249">
+        <v>37</v>
+      </c>
+      <c r="J2249" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2250" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>562</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2250" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I2250">
+        <v>47</v>
+      </c>
+      <c r="J2250" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2251" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2251" t="s">
+        <v>568</v>
+      </c>
+      <c r="H2251" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I2251">
+        <v>619</v>
+      </c>
+      <c r="J2251" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2252" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2252" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2252">
+        <v>1</v>
+      </c>
+      <c r="J2252" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2253" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>926</v>
+      </c>
+      <c r="F2253" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2253" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2253" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I2253">
+        <v>68</v>
+      </c>
+      <c r="J2253" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2254" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2254" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F2254" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2254" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2254" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I2254">
+        <v>971</v>
+      </c>
+      <c r="J2254" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2255" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>890</v>
+      </c>
+      <c r="F2255" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2255" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2255" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I2255">
+        <v>292</v>
+      </c>
+      <c r="J2255" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2256" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>891</v>
+      </c>
+      <c r="F2256" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2256" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2256" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I2256">
+        <v>602</v>
+      </c>
+      <c r="J2256" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2257" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2257" t="s">
+        <v>598</v>
+      </c>
+      <c r="G2257" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2257" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I2257">
+        <v>128</v>
+      </c>
+      <c r="J2257" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2258" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2258" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2258" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2258">
+        <v>884</v>
+      </c>
+      <c r="J2258" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2259" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2259" t="s">
+        <v>843</v>
+      </c>
+      <c r="F2259" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2259" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2259" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I2259">
+        <v>250</v>
+      </c>
+      <c r="J2259" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2260" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2260" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2260" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2260" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2260" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2260" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I2260">
+        <v>200</v>
+      </c>
+      <c r="J2260" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2261" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2261" t="s">
+        <v>892</v>
+      </c>
+      <c r="F2261" t="s">
+        <v>619</v>
+      </c>
+      <c r="G2261" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2261" s="1">
+        <v>80</v>
+      </c>
+      <c r="I2261">
+        <v>81</v>
+      </c>
+      <c r="J2261" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2262" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2262" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F2262" t="s">
+        <v>624</v>
+      </c>
+      <c r="G2262" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2262" s="1">
+        <v>76</v>
+      </c>
+      <c r="I2262">
+        <v>479</v>
+      </c>
+      <c r="J2262" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2263" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2263" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2263" t="s">
+        <v>630</v>
+      </c>
+      <c r="H2263" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I2263">
+        <v>94</v>
+      </c>
+      <c r="J2263" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2264" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2264" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>894</v>
+      </c>
+      <c r="F2264" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2264" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2264" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I2264">
+        <v>49</v>
+      </c>
+      <c r="J2264" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2265" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2265" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2265" t="s">
+        <v>641</v>
+      </c>
+      <c r="G2265" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2265" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I2265">
+        <v>75</v>
+      </c>
+      <c r="J2265" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2266" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2266" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2266" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2266" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2266" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I2266">
+        <v>247</v>
+      </c>
+      <c r="J2266" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2267" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>650</v>
+      </c>
+      <c r="D2267" t="s">
+        <v>651</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2267" t="s">
+        <v>653</v>
+      </c>
+      <c r="G2267" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2267" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I2267">
+        <v>60</v>
+      </c>
+      <c r="J2267" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2268" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>845</v>
+      </c>
+      <c r="F2268" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2268" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I2268">
+        <v>610</v>
+      </c>
+      <c r="J2268" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2269" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>661</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>846</v>
+      </c>
+      <c r="F2269" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2269" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I2269">
+        <v>88</v>
+      </c>
+      <c r="J2269" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2270" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>847</v>
+      </c>
+      <c r="F2270" t="s">
+        <v>668</v>
+      </c>
+      <c r="H2270" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I2270">
+        <v>54</v>
+      </c>
+      <c r="J2270" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2271" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2271" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2271" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2271" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2271" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I2271">
+        <v>577</v>
+      </c>
+      <c r="J2271" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2272" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2272" t="s">
+        <v>895</v>
+      </c>
+      <c r="F2272" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2272" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I2272">
+        <v>52</v>
+      </c>
+      <c r="J2272" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2273" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2273" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F2273" t="s">
+        <v>682</v>
+      </c>
+      <c r="G2273" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2273" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I2273">
+        <v>793</v>
+      </c>
+      <c r="J2273" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2274" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2274" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F2274" t="s">
+        <v>687</v>
+      </c>
+      <c r="G2274" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2274" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I2274">
+        <v>1148</v>
+      </c>
+      <c r="J2274" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2275" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F2275" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2275" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2275" s="1">
+        <v>120</v>
+      </c>
+      <c r="I2275">
+        <v>171</v>
+      </c>
+      <c r="J2275" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2276" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2276" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2276" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2276" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I2276">
+        <v>174</v>
+      </c>
+      <c r="J2276" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2277" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2277" t="s">
+        <v>701</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>702</v>
+      </c>
+      <c r="F2277" t="s">
+        <v>703</v>
+      </c>
+      <c r="G2277" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2277" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I2277">
+        <v>79</v>
+      </c>
+      <c r="J2277" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2278" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>706</v>
+      </c>
+      <c r="D2278" t="s">
+        <v>707</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F2278" t="s">
+        <v>709</v>
+      </c>
+      <c r="G2278" t="s">
+        <v>710</v>
+      </c>
+      <c r="H2278" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I2278">
+        <v>381</v>
+      </c>
+      <c r="J2278" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2279" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2279" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F2279" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2279" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2279" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I2279">
+        <v>93</v>
+      </c>
+      <c r="J2279" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2280" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H2280" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I2280">
+        <v>41</v>
+      </c>
+      <c r="J2280" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2281" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>724</v>
+      </c>
+      <c r="G2281" t="s">
+        <v>725</v>
+      </c>
+      <c r="H2281" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I2281">
+        <v>108</v>
+      </c>
+      <c r="J2281" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2282" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2282" t="s">
+        <v>730</v>
+      </c>
+      <c r="G2282" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2282" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I2282">
+        <v>33</v>
+      </c>
+      <c r="J2282" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2283" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>901</v>
+      </c>
+      <c r="F2283" t="s">
+        <v>736</v>
+      </c>
+      <c r="H2283" s="1">
+        <v>250</v>
+      </c>
+      <c r="I2283">
+        <v>121</v>
+      </c>
+      <c r="J2283" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2284" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>740</v>
+      </c>
+      <c r="F2284" t="s">
+        <v>741</v>
+      </c>
+      <c r="G2284" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2284" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I2284">
+        <v>71</v>
+      </c>
+      <c r="J2284" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2285" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>746</v>
+      </c>
+      <c r="G2285" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2285" s="1">
+        <v>96</v>
+      </c>
+      <c r="I2285">
+        <v>630</v>
+      </c>
+      <c r="J2285" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2286" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2286" t="s">
+        <v>751</v>
+      </c>
+      <c r="H2286" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I2286">
+        <v>650</v>
+      </c>
+      <c r="J2286" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2287" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>754</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F2287" t="s">
+        <v>756</v>
+      </c>
+      <c r="G2287" t="s">
+        <v>757</v>
+      </c>
+      <c r="H2287" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I2287">
+        <v>1993</v>
+      </c>
+      <c r="J2287" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2288" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F2288" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2288" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I2288">
+        <v>321</v>
+      </c>
+      <c r="J2288" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2289" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>766</v>
+      </c>
+      <c r="F2289" t="s">
+        <v>767</v>
+      </c>
+      <c r="G2289" t="s">
+        <v>768</v>
+      </c>
+      <c r="H2289" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I2289">
+        <v>36</v>
+      </c>
+      <c r="J2289" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2290" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>904</v>
+      </c>
+      <c r="F2290" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2290" t="s">
+        <v>774</v>
+      </c>
+      <c r="H2290" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I2290">
+        <v>169</v>
+      </c>
+      <c r="J2290" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2291" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>776</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>779</v>
+      </c>
+      <c r="H2291" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I2291">
+        <v>6231</v>
+      </c>
+      <c r="J2291" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2292" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>906</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>784</v>
+      </c>
+      <c r="H2292" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I2292">
+        <v>35</v>
+      </c>
+      <c r="J2292" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2293" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F2293" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2293" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I2293">
+        <v>188</v>
+      </c>
+      <c r="J2293" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2294" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>907</v>
+      </c>
+      <c r="F2294" t="s">
+        <v>794</v>
+      </c>
+      <c r="G2294" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2294" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I2294">
+        <v>194</v>
+      </c>
+      <c r="J2294" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2295" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>797</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2295" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I2295">
+        <v>3310</v>
+      </c>
+      <c r="J2295" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2296" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>803</v>
+      </c>
+      <c r="H2296" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I2296">
+        <v>14</v>
+      </c>
+      <c r="J2296" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17276" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18427" uniqueCount="1205">
   <si>
     <t>DATE</t>
   </si>
@@ -9306,6 +9306,1187 @@
 $9.01
  This item is in stock and available today!
 Current Stock: 3310
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>11:47 AM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayon/poly knitted stretch gauze bandage
+Provides slight compression to the site while securely holding to any body contour
+Specifically designed not to slip while in use
+Unique weave construction and finished edges prevent unraveling and lining
+Lighter, economical version of the DUKAL Conforming Stretch Gauze
+Single channel construction
+SPECIFICATIONS:
+3" x 4.1yd Conforming Stretch Gauze Bandage
+Latex Free
+Rayon/Poly Blend
+Single Channel Construction
+12 Rolls per Bag
+1 Bag/Each
+$5.79
+ This item is in stock and available today!
+Current Stock: 47
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft and flexible
+Highly absorbent non-stick pad to protect the wound
+100% Ultrasonic micro perforations to prevent skin maceration
+Long lasting adhesive allows for safe and easy removal
+Multi-purpose protection
+Sterile
+Latex Free
+2"x4"
+50 per box
+1 box
+$6.98
+ This item is in stock and available today!
+Current Stock: 69
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A convenient, ready-to-use, intermediate-level disinfecting wipe available in two sizes to fit all your needs
+Towels stay fully saturated and will not dry out during use
+Effective against TB, HBV, and HIV. Towelette and CaviCide in one
+For use on nonporous surfaces
+Sturdy and durable, nonwoven towelette will not bunch up or tear during use
+160 Wipes per Canister
+$16.44
+ This item is in stock and available today!
+Current Stock: 195
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the simplest ways to ensure the validity of a specimen is to measure the temperature with self-adhesive temp strips
+A temperature reading taken within four minutes of obtaining a viable specimen should be between 90 and 100 degrees Fahrenheit 
+These self-adhesive strips may be attached to any specimen collection container
+Measurements: 1¾" x ½"
+Dual Scales for F°/C° (Fahrenheit &amp; Celsius)
+Shelf Life: Two years from date of manufacture
+180 Strips per sheet
+$19.43
+ This item is in stock and available today!
+Current Stock: 14
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leakbuster 2oz/60mL Specimen Cup
+No Label
+Yellow Screw on Lid
+NonSterile
+500 per Case
+$110.36
+ This item is in stock and available today!
+Current Stock: 434
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX Destroyer - 64oz All Purpose Drug Disposal System 
+Leaves Medications Deactivated and Unavailable for Misuse
+Comes Ready-to-Use, No adding water
+Multiuse System, Continue to Add Until Full
+1 Bottle Each
+$41.41
+ This item is in stock and available today!
+Current Stock: 26
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal as a first aid antiseptic and cleanser
+For use in hospitals, clinics, doctor's offices, by first responders and at home
+$2.76
+ This item is in stock and available today!
+Current Stock: 105
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Lancets
+Top Button Activated
+23g x 1.8mm 
+BLUE - for Normal Blood Flow
+100 Lancets per Box
+$19.87
+ This item is in stock and available today!
+Current Stock: 278
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 704
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFETEC  Ammonia Inhalant Wipe
+Use to Prevent or Treat Fainting
+15% - 30% Strength
+10 Individually Wrapped Wipes/Box
+$7.48
+ This item is in stock and available today!
+Current Stock: 218
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+MEDIUM
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 274
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 690
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+X-LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+180 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 237
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fentanyl (FTY) Urine Dip Cassette Test Kit
+FDA/CLIA Waived POC ¬†¬†
+Ultra Sensitive Fentanyl Detection ¬†1 ng/ml
+Results in 5 Mins¬†
+25 Tests per Box¬†
+1 Box Each
+$60.50
+ This item is in stock and available today!
+Current Stock: 622
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For List of Brother Compatible Printers See Below
+OEM DK-1208
+Die-Cut Paper Labels
+White Standard Address Labels
+400 Labels per Roll
+1 Roll Each
+$9.63
+ This item is in stock and available today!
+Current Stock: 534
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 each)
+350 Labels per Roll
+Authentic Dymo 550 LabelWriter Printer Labels
+Direct thermal printing technology does not use expensive ink or toner
+Strong self-adhesive backing
+Labels Compatible with: DYMO LabelWriter 450, 450 Duo, 450 Turbo, 450 Twin Turbo, Wireless, 4XL, 550, 550 Turbo, 5XL
+$10.20
+ This item is in stock and available today!
+Current Stock: 1358
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Lock Solid Body Padlock
+¾" W x 7/16" T
+4mm Hardened Steel Shackle
+Non-Keyable
+3 Pin Tumbler Cylinder Provides Pick Resistance
+ Includes (2) Keys - Keyed Differently
+1 Each
+$5.62
+ This item is in stock and available today!
+Current Stock: 340
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltine Cracker Packs
+2 original baked crackers per individually wrapped packet
+Perfect for snacking or with salad and soup
+Great for on-the go to keep you going
+No saturated fat, no trans fat and no cholesterol
+500 Packs per Case
+1 Case Each
+**  ALL Food Related Items are NON-RETURNABLE  **
+$39.49
+ This item is in stock and available today!
+Current Stock: 60
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM-Premium Prism Sensor Module f / AlcoMate Premium Breathalyzer 
+200 Tests per Each
+$31.19
+ This item is in stock and available today!
+Current Stock: 32
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>8oz Instant Hand Sanitizer Gel Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragrance-free
+Dye-free
+Clear
+Kills 99.99% of Common Germs
+Effective Against Bacteria, Yeast and Molds
+Tested on Latex, Vinyl and Nitrile Gloves
+Dermatologist Tested
+Hypoallergenic
+Moisturizing Skin Conditioners
+1 Bottle Each
+$4.67
+ This item is in stock and available today!
+Current Stock: 152
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
+w/Safety Shield
+Low Dead Space
+100 per Box - 1 Box Each
+(Case Packed - 5 Boxes per Case)
+$49.93
+ This item is in stock and available today!
+Current Stock: 62
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33mm Pressure Sensitive Child Resistant Cap (CRC) 
+White
+Fits 50cc, 60cc, and 75cc Bottles 
+2,300 per Case - 1 Case Each
+$222.07
+ This item is in stock and available today!
+Current Stock: 123
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 160
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
+Professional Use
+50 Strips per Box 
+1 Box Each
+$9.58
+ This item is in stock and available today!
+Current Stock: 757
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Dukal
+Application: Gauze Sponge
+Ply: 8
+Size: 2x2
+Sterility: Non-Sterile
+100% Woven Cotton
+200/Pack
+$2.77
+ This item is in stock and available today!
+Current Stock: 459
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Labels Per Roll: 1,000
+Label Width: 2-1/4"
+Label Height: 1-¼"
+Wound: Out
+Compatible With: 30334
+Printer Technology: Direct Thermal
+$7.70
+ This item is in stock and available today!
+Current Stock: 499
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Panel Urine Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+BUP
+BZO
+COC
+MOP
+MTD
+OXY
+25 per Box
+$74.50
+ This item is in stock and available today!
+Current Stock: 42
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Collection Tube Holders
+For 13 to 16mm Blood Collection Tubes
+Universal design for compatibility with blood collection needles and winged sets
+DEHP Free and Latex Free Materials
+Made of Polypropylene
+Transparent
+100 Holders per Pack
+1 Pack Each
+$11.86
+ This item is in stock and available today!
+Current Stock: 23
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mL Venous Blood Collection Tube
+No Additive
+BD Hemogard Closure
+Silicone Coated Closure
+Without Color Coding
+13 X 100 mm
+Polyethylene Terephthalate (PET) Tube
+Sterile
+Clear Tube
+100 per Box 
+1 Box Each
+***  (Case Packed:  10 Boxes/Case) ***
+$41.26
+ This item is in stock and available today!
+Current Stock: 289
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+$249.16
+ This item is in stock and available today!
+Current Stock: 1381
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4" x 5" Instand Cold Pack
+Flexible material conforms to body
+Helps reduce swelling
+Ideal for minor sprains, muscle spasms, headaches, and burns
+Our formula is non-toxic and safe to humans and to the environment.
+50 Packs/Case = 1 Case Each
+$27.74
+ This item is in stock and available today!
+Current Stock: 27
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3" x ¾" Lightweight Flexible Fabric Bandage
+Tan
+Stat Strip Adhesive Bandage
+100/Box
+1 Box Each
+$6.00
+ This item is in stock and available today!
+Current Stock: 24
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhesive Bandage
+Sterile
+Lightweight
+Designed to provide comfortable protection
+The highly absorbent pad will not stick to the wound
+Long lasting adhesive gently sticks to skin
+Pre-folded wrapper tabs make them easy to open
+The soft weaved material bends easily and conforms to the body, staying on even when wet
+100 Bandages per Box
+1 Box Each
+To Order a Case, Please Order 12 Boxes.
+$5.36
+ This item is in stock and available today!
+Current Stock: 195
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Panel T-Cup Compact - 4oz Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions:¬†39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:¬†Forensic Use Only
+Tests for the following drug panels:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP
+MTD
+OXY
+PCP
+THC
+ETG
+FTY
+TRA
+K2
+25 per Box
+1 Box Each
+$203.00
+ This item is in stock and available today!
+Current Stock: 181
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 366
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 1030
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 301
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysol Disinfecting Wipes 
+Kills 99.9% of viruses and bacteria, including 8 cold and flu viruses
+Cleans AND disinfects your household surfaces
+Safe to use on electronics including Smartphones, Tablets and Remote Controls
+7in x 7.25in
+Lemon and Lime Blossom/Citrus (or) Crisp Linen Scent 
+(Scent depends on availability.)
+80 wipes per canister
+1 Canister Each
+(Case Packed: 6 canisters/Case)
+$6.49
+ This item is in stock and available today!
+Current Stock: 146
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8" Sterile ABD Pad
+8" x 7.5" 
+20 Pads per Box 
+1 Box Each
+Overstock Clearance Special! 
+Once overstock inventory is depleted, the sale price will no longer be available and any pending order will revert to regular pricing. Please call customer service or your account manager to confirm availability at 706-858-6260, option 1. 
+$5.93
+ This item is in stock and available today!
+Current Stock: 467
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouthpiece Fits AlcoMate Breathalyzers
+50 Mouthpieces per Bag
+1 Bag Each
+$20.80
+ This item is in stock and available today!
+Current Stock: 613
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Chemistry Urine Reagent Test Strips
+CLIA Waived
+Tests Urine for
+Glucose¬†
+Bilirubin¬†
+Ketone
+Specific Gravity¬†
+Blood¬†
+pH¬†
+Protein
+Urobilinogen¬†
+Nitrite
+Leukocytes
+For Use with AimStrip¬Æ Urine Analyzer or Visual Read
+Store at Room Temperature
+100 per Box
+1 Box Each
+$34.22
+ This item is in stock and available today!
+Current Stock: 64
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Alcohol 70%
+ Sterile Alcohol Prep Pad
+Dimensions: 1 X 1 1/4 Inch
+Individual Packets
+NonWoven Gauze
+ 2 - Ply
+Scent: Alcohol Scent
+Sterility: Sterile
+Size: Medium
+200 Pads per Box
+(PACKED:  ​​​​​​20 Boxes/Case)
+Brand may vary based on availability. Includes brands such as Webcol, Dukal, or similar. 
+$4.15
+ This item is in stock and available today!
+Current Stock: 968
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturated with 70% isopropyl alcohol
+2-Ply Non-Woven Pads
+1.75" x 3.3"
+100 per Box
+1 Box Each
+$4.79
+ This item is in stock and available today!
+Current Stock: 290
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc Wide - Mouth Round
+Neck Finish: 28/400
+1500 per Case
+1 Case Each
+$131.60
+ This item is in stock and available today!
+Current Stock: 597
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+SMALL
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 862
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Sani-Cloth Surface Disinfectant Cleaner Wipe
+6" x 6.75"
+Premoistened Germicidal Wipe
+Quaternary Ammonium / Isopropyl Alcohol
+Alcohol Scent
+160 Wipes per Canister
+1 Canister Each
+$9.98
+ This item is in stock and available today!
+Current Stock: 571
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep your items clean and dry with our reclosable poly bags. These 2 mil bags are made of low-density polyethylene (LDPE) and feature a superior zipper closure to keep your items safe. The single track zipper is easy to pull open and pinch shut, so you can be sure that your items are sealed and protected from dirt and moisture.
+$9.34
+ This item is in stock and available today!
+Current Stock: 140
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vacutainer SST Blood Collection Tube was designed to make serum sample preparation more efficient and improve laboratory workflow.
+$80.00
+ This item is in stock and available today!
+Current Stock: 77
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+$76.00
+ This item is in stock and available today!
+Current Stock: 468
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic Coffee Stir/Straw
+Black
+5-1/2" Polypropylene (PP)
+Unwrapped
+Extra-rigid construction provides safe use with hot or cold drinks
+1,000/Box
+1 Box Each
+$4.10
+ This item is in stock and available today!
+Current Stock: 92
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type: Urine
+Forensic Use Only
+Format: Dip Card
+Time to Results: 5 minutes
+Tests for: Fentanyl (FTY)
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+25 per Box
+$71.50
+ This item is in stock and available today!
+Current Stock: 590
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel Urine Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for: AMP, BAR, BUP, BZO, COC, mAMP, MDMA, MOP, MTD, OXY, PCP, THC
+25 per Box
+$117.50
+ This item is in stock and available today!
+Current Stock: 571
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel 4oz Compact Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for: AMP / BAR / BUP / BZO / COC / mAMP / MDMA / MOP / MTD / OXY / PCP / THC
+25 per Box
+$146.70
+ This item is in stock and available today!
+Current Stock: 789
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Panel Dip Card
+Sample Type: Urine
+Format: Dip Card
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 Months from Date of Manufacture
+Certificate: CLIA Waived
+Tests for:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MTD
+OPI
+OXY
+THC
+25 per Box
+$106.50
+ This item is in stock and available today!
+Current Stock: 1133
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine
+4oz 120mL Volume Cup 
+Temperature Strip
+5 minutes Result Time
+Store between 39°F to 86°F (4°C to 30°C)
+Over 99% Accuracy
+24 Month Shelf Life From Date of Manufacture
+CLIA Waived, FDA Cleared, Health Canada Approved
+Tests for the Following:
+AMP
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP (OPI)
+MTD
+OXY
+THC
+25 Tests per Box
+1 Box Each
+To Order a Case, Please Order 4 Boxes.
+$120.00
+ This item is in stock and available today!
+Current Stock: 169
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast contact time allows for a quick room turnover
+Ideal for daily use in fast-paced environments that require short contact times and broad coverage of microorganisms
+Bactericidial, tuberculocidal, virucidal
+Effective against 30 microorganisms in 2 minutes
+Multi-count canister accommodates frequent usage
+Perfect wipe size for larger surface areas
+75 / canister
+1 Each
+$18.61
+ This item is in stock and available today!
+Current Stock: 172
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharps Collection/Disposal Container
+ 5 Quart Capacity
+Red
+Anti-Kickback Lid
+Horizontal Entry
+Automatic Shut Off to Prevent Overflow
+Locking Tabs
+Dimensions: 10.75" x 10.5" x 4.75"
+1 Each
+$6.90
+ This item is in stock and available today!
+Current Stock: 375
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Sharps Collection Container
+White Horizontal Entry Counter Balanced Cylinder Lid
+Size: 2 Gallon
+Locking Lid
+Free Standing
+12-1/2 H X 10-7/10 W X 6 D Inch
+1/Each
+** Wire Wall Mount Bracket Option Available - Contact your sales rep for more information. **
+$14.93
+ This item is in stock and available today!
+Current Stock: 89
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Plastic Souffle Cup
+Color: Translucent
+Volume: 2oz
+Made From: Plastic
+2,500/Case
+$65.82
+ This item is in stock and available today!
+Current Stock: 39
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deluxe Commode Specimen Pan Collector 
+800mL
+Graduated
+White
+100/Case
+1 Case Each
+$101.89
+ This item is in stock and available today!
+Current Stock: 68
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5oz Clear Plastic Cup
+Rolled Lip
+Disposable
+Latex Free
+100 per Pack - 25 Packs/Case = 2,500 Cups/Case
+1 Case Each
+$96.00
+ This item is in stock and available today!
+Current Stock: 628
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260 Labels per Roll
+White
+30321 Dymo Compatible
+1-4/10" X 3.5" w/ Permanent Adhesive 
+1 Roll Each
+To Order a Case, Please Order 18 Rolls.
+$6.08
+ This item is in stock and available today!
+Current Stock: 632
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45cc
+Natural Square Bottle
+1,505/Case
+$199.76
+ This item is in stock and available today!
+Current Stock: 1961
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30cc 
+Natural Wide Mouth Round Bottle 
+1,900/Case
+$197.90
+ This item is in stock and available today!
+Current Stock: 307
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90mL (3oz) Urine Specimen Cup
+with Graduations
+Temperature Strip
+Screw Top Cap
+Patient Information Label
+Sterile
+25 Cups per Box 
+1 Box Each
+$12.70
+ This item is in stock and available today!
+Current Stock: 168
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+350 Labels per Roll
+Dymo Compatible White Direct Thermal Labels 
+1-1/8" x 3.5" w/ Permanent Adhesive 
+** These labels are not compatible with the Dymo 550 **
+$4.99
+ This item is in stock and available today!
+Current Stock: 6145
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mix powder with two gallons of water in bubbler or large container
+Ingredients: Sugar, Citric Acid, Contains Less Than 2% Of Natural And Artificial Flavor, Ascorbic Acid (Vitamin C), Calcium Phosphate, Acesfulfame Potassium And Neotame (Sweeteners), Artificial Color, Red 40 BHA (Preserves Freshness)
+Qty: 12 two-gallon packets per case
+*Sold Only By the Case*
+**  ALL Food Related Items are NON-RETURNABLE  **
+$53.14
+ This item is in stock and available today!
+Current Stock: 30
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Cassette
+Rapid Results in 5 mins
+Urine Sample
+CLIA Waived
+25mIU/mL Sensitivity
+25 per Box
+1 Box Each
+$19.50
+ This item is in stock and available today!
+Current Stock: 181
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold Per Roll (1 Each)
+Qty: 420 labels per Roll
+1.5" X 3.5"
+Zebra Compatible White Direct Thermal Labels
+$9.01
+ This item is in stock and available today!
+Current Stock: 3036
 Quantity
 ADD TO CART
 ADD TO WISHLIST
@@ -9699,7 +10880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2296"/>
+  <dimension ref="A1:K2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -79252,6 +80433,4680 @@
         <v>804</v>
       </c>
     </row>
+    <row r="2297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2297" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2297" s="1">
+        <v>90.5</v>
+      </c>
+      <c r="I2297">
+        <v>78</v>
+      </c>
+      <c r="J2297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2298" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H2298" s="1">
+        <v>21.57</v>
+      </c>
+      <c r="I2298">
+        <v>67</v>
+      </c>
+      <c r="J2298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2299" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>816</v>
+      </c>
+      <c r="H2299" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I2299">
+        <v>214</v>
+      </c>
+      <c r="J2299" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2300" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2300" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="I2300">
+        <v>110</v>
+      </c>
+      <c r="J2300" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2301" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2301" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2301" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2301" s="1">
+        <v>27.59</v>
+      </c>
+      <c r="I2301">
+        <v>109</v>
+      </c>
+      <c r="J2301" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2302" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F2302" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2302" s="1">
+        <v>5.79</v>
+      </c>
+      <c r="I2302">
+        <v>47</v>
+      </c>
+      <c r="J2302" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2303" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2303" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2303" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="I2303">
+        <v>42</v>
+      </c>
+      <c r="J2303" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2304" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2304" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2304" s="1">
+        <v>220.51</v>
+      </c>
+      <c r="I2304">
+        <v>212</v>
+      </c>
+      <c r="J2304" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2305" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2305" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2305" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="I2305">
+        <v>69</v>
+      </c>
+      <c r="J2305" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2306" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2306" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2306" s="1">
+        <v>16.44</v>
+      </c>
+      <c r="I2306">
+        <v>195</v>
+      </c>
+      <c r="J2306" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2307" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2307" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2307" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="I2307">
+        <v>14</v>
+      </c>
+      <c r="J2307" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2308" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2308" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2308" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="I2308">
+        <v>60</v>
+      </c>
+      <c r="J2308" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2309" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2309" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2309" s="1">
+        <v>110.36</v>
+      </c>
+      <c r="I2309">
+        <v>434</v>
+      </c>
+      <c r="J2309" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2310" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F2310" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2310" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2310" s="1">
+        <v>41.41</v>
+      </c>
+      <c r="I2310">
+        <v>26</v>
+      </c>
+      <c r="J2310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2311" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2311" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2311" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="I2311">
+        <v>115</v>
+      </c>
+      <c r="J2311" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2312" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2312" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2312" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2312" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I2312">
+        <v>63</v>
+      </c>
+      <c r="J2312" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2313" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F2313" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2313" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2313" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="I2313">
+        <v>105</v>
+      </c>
+      <c r="J2313" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2314" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2314" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2314" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2314" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="I2314">
+        <v>16</v>
+      </c>
+      <c r="J2314" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2315" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2315" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2315" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2315" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="I2315">
+        <v>76</v>
+      </c>
+      <c r="J2315" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2316" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>857</v>
+      </c>
+      <c r="F2316" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2316" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2316" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="I2316">
+        <v>164</v>
+      </c>
+      <c r="J2316" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2317" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>911</v>
+      </c>
+      <c r="F2317" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2317" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2317" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="I2317">
+        <v>72</v>
+      </c>
+      <c r="J2317" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2318" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H2318" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="I2318">
+        <v>278</v>
+      </c>
+      <c r="J2318" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2319" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2319" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2319" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I2319">
+        <v>84</v>
+      </c>
+      <c r="J2319" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2320" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2320" s="1">
+        <v>24.71</v>
+      </c>
+      <c r="I2320">
+        <v>31</v>
+      </c>
+      <c r="J2320" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2321" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2321" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="I2321">
+        <v>66</v>
+      </c>
+      <c r="J2321" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2322" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2322" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2322" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="I2322">
+        <v>40</v>
+      </c>
+      <c r="J2322" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2323" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F2323" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2323" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2323" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="I2323">
+        <v>381</v>
+      </c>
+      <c r="J2323" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2324" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2324" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="I2324">
+        <v>27</v>
+      </c>
+      <c r="J2324" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2325" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2325" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="I2325">
+        <v>38</v>
+      </c>
+      <c r="J2325" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2326" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2326" s="1">
+        <v>262.8</v>
+      </c>
+      <c r="I2326">
+        <v>704</v>
+      </c>
+      <c r="J2326" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2327" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2327" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2327" s="1">
+        <v>33.48</v>
+      </c>
+      <c r="I2327">
+        <v>47</v>
+      </c>
+      <c r="J2327" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2328" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F2328" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2328" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2328" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I2328">
+        <v>218</v>
+      </c>
+      <c r="J2328" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2329" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2329" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2329" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2329" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I2329">
+        <v>377</v>
+      </c>
+      <c r="J2329" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2330" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2330" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2330" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2330" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="I2330">
+        <v>97</v>
+      </c>
+      <c r="J2330" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2331" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F2331" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2331" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2331" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2331">
+        <v>274</v>
+      </c>
+      <c r="J2331" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2332" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2332" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2332" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2332">
+        <v>690</v>
+      </c>
+      <c r="J2332" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2333" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F2333" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2333" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2333" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2333">
+        <v>237</v>
+      </c>
+      <c r="J2333" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2334" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2334" s="1">
+        <v>16.53</v>
+      </c>
+      <c r="I2334">
+        <v>71</v>
+      </c>
+      <c r="J2334" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2335" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>863</v>
+      </c>
+      <c r="F2335" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2335" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2335" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="I2335">
+        <v>174</v>
+      </c>
+      <c r="J2335" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2336" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2336" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2336" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="I2336">
+        <v>21</v>
+      </c>
+      <c r="J2336" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2337" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2337" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2337" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2337" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="I2337">
+        <v>192</v>
+      </c>
+      <c r="J2337" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2338" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>915</v>
+      </c>
+      <c r="F2338" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2338" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2338" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I2338">
+        <v>114</v>
+      </c>
+      <c r="J2338" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2339" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2339" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2339" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2339" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="I2339">
+        <v>40</v>
+      </c>
+      <c r="J2339" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2340" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2340" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="I2340">
+        <v>34</v>
+      </c>
+      <c r="J2340" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2341" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>916</v>
+      </c>
+      <c r="F2341" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2341" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2341" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="I2341">
+        <v>412</v>
+      </c>
+      <c r="J2341" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2342" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2342" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2342" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="I2342">
+        <v>117</v>
+      </c>
+      <c r="J2342" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2343" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2343" s="1">
+        <v>39.73</v>
+      </c>
+      <c r="I2343">
+        <v>43</v>
+      </c>
+      <c r="J2343" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2344" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2344" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2344" s="1">
+        <v>683.47</v>
+      </c>
+      <c r="I2344">
+        <v>12</v>
+      </c>
+      <c r="J2344" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2345" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F2345" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2345" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="I2345">
+        <v>622</v>
+      </c>
+      <c r="J2345" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2346" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>917</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2346" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2346" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I2346">
+        <v>74</v>
+      </c>
+      <c r="J2346" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2347" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F2347" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2347" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2347" s="1">
+        <v>9.63</v>
+      </c>
+      <c r="I2347">
+        <v>534</v>
+      </c>
+      <c r="J2347" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2348" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F2348" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2348" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2348" s="1">
+        <v>10.2</v>
+      </c>
+      <c r="I2348">
+        <v>1358</v>
+      </c>
+      <c r="J2348" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2349" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>918</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2349" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2349" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="I2349">
+        <v>212</v>
+      </c>
+      <c r="J2349" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2350" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2350" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2350" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="I2350">
+        <v>55</v>
+      </c>
+      <c r="J2350" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2351" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>867</v>
+      </c>
+      <c r="G2351" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2351" s="1">
+        <v>308.62</v>
+      </c>
+      <c r="I2351">
+        <v>150</v>
+      </c>
+      <c r="J2351" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2352" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2352" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2352" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="I2352">
+        <v>52</v>
+      </c>
+      <c r="J2352" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2353" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2353" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2353" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="I2353">
+        <v>340</v>
+      </c>
+      <c r="J2353" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2354" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H2354" s="1">
+        <v>39.49</v>
+      </c>
+      <c r="I2354">
+        <v>60</v>
+      </c>
+      <c r="J2354" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2355" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F2355" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2355" s="1">
+        <v>31.19</v>
+      </c>
+      <c r="I2355">
+        <v>32</v>
+      </c>
+      <c r="J2355" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2356" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2356" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2356" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="I2356">
+        <v>152</v>
+      </c>
+      <c r="J2356" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2357" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F2357" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2357" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2357" s="1">
+        <v>48.31</v>
+      </c>
+      <c r="I2357">
+        <v>56</v>
+      </c>
+      <c r="J2357" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2358" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2358" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2358" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2358" s="1">
+        <v>18.6</v>
+      </c>
+      <c r="I2358">
+        <v>38</v>
+      </c>
+      <c r="J2358" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2359" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2359" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2359" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2359" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I2359">
+        <v>72</v>
+      </c>
+      <c r="J2359" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2360" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2360" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2360" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="I2360">
+        <v>101</v>
+      </c>
+      <c r="J2360" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2361" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H2361" s="1">
+        <v>49.93</v>
+      </c>
+      <c r="I2361">
+        <v>62</v>
+      </c>
+      <c r="J2361" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2362" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>872</v>
+      </c>
+      <c r="F2362" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2362" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2362" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="I2362">
+        <v>122</v>
+      </c>
+      <c r="J2362" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2363" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H2363" s="1">
+        <v>222.07</v>
+      </c>
+      <c r="I2363">
+        <v>123</v>
+      </c>
+      <c r="J2363" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2364" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2364" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2364" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2364" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="I2364">
+        <v>133</v>
+      </c>
+      <c r="J2364" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2365" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F2365" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2365" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2365" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I2365">
+        <v>160</v>
+      </c>
+      <c r="J2365" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2366" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2366" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2366" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="I2366">
+        <v>757</v>
+      </c>
+      <c r="J2366" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2367" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H2367" s="1">
+        <v>56.44</v>
+      </c>
+      <c r="I2367">
+        <v>49</v>
+      </c>
+      <c r="J2367" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2368" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>832</v>
+      </c>
+      <c r="F2368" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2368" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2368" s="1">
+        <v>5.97</v>
+      </c>
+      <c r="I2368">
+        <v>158</v>
+      </c>
+      <c r="J2368" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2369" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F2369" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2369" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2369" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="I2369">
+        <v>459</v>
+      </c>
+      <c r="J2369" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2370" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>877</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2370" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2370" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="I2370">
+        <v>94</v>
+      </c>
+      <c r="J2370" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2371" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2371" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I2371">
+        <v>499</v>
+      </c>
+      <c r="J2371" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2372" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>878</v>
+      </c>
+      <c r="F2372" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2372" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2372" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I2372">
+        <v>375</v>
+      </c>
+      <c r="J2372" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2373" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>879</v>
+      </c>
+      <c r="F2373" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2373" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2373" s="1">
+        <v>92.03</v>
+      </c>
+      <c r="I2373">
+        <v>382</v>
+      </c>
+      <c r="J2373" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2374" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>417</v>
+      </c>
+      <c r="H2374" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="I2374">
+        <v>104</v>
+      </c>
+      <c r="J2374" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2375" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2375" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="I2375">
+        <v>42</v>
+      </c>
+      <c r="J2375" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2376" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2376" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2376" s="1">
+        <v>176.75</v>
+      </c>
+      <c r="I2376">
+        <v>23</v>
+      </c>
+      <c r="J2376" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2377" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>922</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>432</v>
+      </c>
+      <c r="H2377" s="1">
+        <v>146.95</v>
+      </c>
+      <c r="I2377">
+        <v>411</v>
+      </c>
+      <c r="J2377" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2378" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>834</v>
+      </c>
+      <c r="H2378" s="1">
+        <v>169</v>
+      </c>
+      <c r="I2378">
+        <v>519</v>
+      </c>
+      <c r="J2378" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2379" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2379" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2379" s="1">
+        <v>79.25</v>
+      </c>
+      <c r="J2379" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2380" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G2380" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2380" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="I2380">
+        <v>23</v>
+      </c>
+      <c r="J2380" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2381" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2381" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2381" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="I2381">
+        <v>289</v>
+      </c>
+      <c r="J2381" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2382" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2382" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2382" s="1">
+        <v>249.16</v>
+      </c>
+      <c r="I2382">
+        <v>1381</v>
+      </c>
+      <c r="J2382" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2383" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2383" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2383" s="1">
+        <v>9.29</v>
+      </c>
+      <c r="I2383">
+        <v>101</v>
+      </c>
+      <c r="J2383" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2384" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2384" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2384" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="I2384">
+        <v>134</v>
+      </c>
+      <c r="J2384" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2385" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2385" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="I2385">
+        <v>204</v>
+      </c>
+      <c r="J2385" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2386" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F2386" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2386" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2386" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="I2386">
+        <v>27</v>
+      </c>
+      <c r="J2386" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2387" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>884</v>
+      </c>
+      <c r="F2387" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2387" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2387" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="I2387">
+        <v>71</v>
+      </c>
+      <c r="J2387" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2388" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>885</v>
+      </c>
+      <c r="F2388" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2388" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2388" s="1">
+        <v>150.76</v>
+      </c>
+      <c r="I2388">
+        <v>26</v>
+      </c>
+      <c r="J2388" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2389" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2389" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2389">
+        <v>24</v>
+      </c>
+      <c r="J2389" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2390" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F2390" t="s">
+        <v>495</v>
+      </c>
+      <c r="G2390" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2390" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="I2390">
+        <v>195</v>
+      </c>
+      <c r="J2390" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2391" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2391" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2391" s="1">
+        <v>24.87</v>
+      </c>
+      <c r="I2391">
+        <v>18</v>
+      </c>
+      <c r="J2391" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2392" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2392" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="I2392">
+        <v>403</v>
+      </c>
+      <c r="J2392" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2393" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>510</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2393" s="1">
+        <v>203</v>
+      </c>
+      <c r="I2393">
+        <v>181</v>
+      </c>
+      <c r="J2393" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2394" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2394" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2394" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2394">
+        <v>99</v>
+      </c>
+      <c r="J2394" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2395" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F2395" t="s">
+        <v>520</v>
+      </c>
+      <c r="G2395" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2395" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2395">
+        <v>366</v>
+      </c>
+      <c r="J2395" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2396" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F2396" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2396" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2396" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2396">
+        <v>1030</v>
+      </c>
+      <c r="J2396" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2397" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2397" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2397" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2397" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I2397">
+        <v>301</v>
+      </c>
+      <c r="J2397" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2398" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>925</v>
+      </c>
+      <c r="F2398" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2398" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2398" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="I2398">
+        <v>1158</v>
+      </c>
+      <c r="J2398" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2399" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G2399" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2399" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="I2399">
+        <v>146</v>
+      </c>
+      <c r="J2399" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2400" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2400" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2400" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2400" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I2400">
+        <v>31</v>
+      </c>
+      <c r="J2400" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2401" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F2401" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2401" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2401" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="I2401">
+        <v>467</v>
+      </c>
+      <c r="J2401" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2402" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2402" t="s">
+        <v>557</v>
+      </c>
+      <c r="H2402" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I2402">
+        <v>37</v>
+      </c>
+      <c r="J2402" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2403" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F2403" t="s">
+        <v>562</v>
+      </c>
+      <c r="G2403" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2403" s="1">
+        <v>4.57</v>
+      </c>
+      <c r="I2403">
+        <v>47</v>
+      </c>
+      <c r="J2403" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2404" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F2404" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2404" t="s">
+        <v>568</v>
+      </c>
+      <c r="H2404" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="I2404">
+        <v>613</v>
+      </c>
+      <c r="J2404" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2405" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2405" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2405">
+        <v>1</v>
+      </c>
+      <c r="J2405" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2406" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>575</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F2406" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2406" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2406" s="1">
+        <v>34.22</v>
+      </c>
+      <c r="I2406">
+        <v>64</v>
+      </c>
+      <c r="J2406" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2407" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F2407" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2407" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2407" s="1">
+        <v>4.15</v>
+      </c>
+      <c r="I2407">
+        <v>968</v>
+      </c>
+      <c r="J2407" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2408" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F2408" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2408" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2408" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="I2408">
+        <v>290</v>
+      </c>
+      <c r="J2408" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2409" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2409" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2409" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="I2409">
+        <v>597</v>
+      </c>
+      <c r="J2409" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2410" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>597</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>598</v>
+      </c>
+      <c r="G2410" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2410" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="I2410">
+        <v>128</v>
+      </c>
+      <c r="J2410" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2411" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2411" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2411" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="I2411">
+        <v>862</v>
+      </c>
+      <c r="J2411" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2412" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>606</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2412" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2412" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="I2412">
+        <v>571</v>
+      </c>
+      <c r="J2412" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2413" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2413" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2413" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="I2413">
+        <v>140</v>
+      </c>
+      <c r="J2413" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2414" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>619</v>
+      </c>
+      <c r="G2414" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2414" s="1">
+        <v>80</v>
+      </c>
+      <c r="I2414">
+        <v>77</v>
+      </c>
+      <c r="J2414" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2415" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>624</v>
+      </c>
+      <c r="G2415" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2415" s="1">
+        <v>76</v>
+      </c>
+      <c r="I2415">
+        <v>468</v>
+      </c>
+      <c r="J2415" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2416" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>628</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G2416" t="s">
+        <v>630</v>
+      </c>
+      <c r="H2416" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="I2416">
+        <v>92</v>
+      </c>
+      <c r="J2416" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2417" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>894</v>
+      </c>
+      <c r="F2417" t="s">
+        <v>635</v>
+      </c>
+      <c r="G2417" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2417" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="I2417">
+        <v>49</v>
+      </c>
+      <c r="J2417" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2418" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>638</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2418" t="s">
+        <v>641</v>
+      </c>
+      <c r="G2418" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2418" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="I2418">
+        <v>75</v>
+      </c>
+      <c r="J2418" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2419" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>645</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2419" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2419" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2419" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="I2419">
+        <v>247</v>
+      </c>
+      <c r="J2419" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2420" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>650</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>651</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2420" t="s">
+        <v>653</v>
+      </c>
+      <c r="G2420" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2420" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I2420">
+        <v>60</v>
+      </c>
+      <c r="J2420" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2421" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2421" t="s">
+        <v>658</v>
+      </c>
+      <c r="H2421" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="I2421">
+        <v>590</v>
+      </c>
+      <c r="J2421" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2422" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>661</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>846</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>663</v>
+      </c>
+      <c r="H2422" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="I2422">
+        <v>88</v>
+      </c>
+      <c r="J2422" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2423" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>847</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>668</v>
+      </c>
+      <c r="H2423" s="1">
+        <v>105.25</v>
+      </c>
+      <c r="I2423">
+        <v>54</v>
+      </c>
+      <c r="J2423" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2424" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>673</v>
+      </c>
+      <c r="G2424" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2424" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="I2424">
+        <v>571</v>
+      </c>
+      <c r="J2424" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2425" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>675</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>676</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>895</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>678</v>
+      </c>
+      <c r="H2425" s="1">
+        <v>147.45</v>
+      </c>
+      <c r="I2425">
+        <v>52</v>
+      </c>
+      <c r="J2425" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2426" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>682</v>
+      </c>
+      <c r="G2426" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2426" s="1">
+        <v>146.7</v>
+      </c>
+      <c r="I2426">
+        <v>789</v>
+      </c>
+      <c r="J2426" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2427" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>687</v>
+      </c>
+      <c r="G2427" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2427" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="I2427">
+        <v>1133</v>
+      </c>
+      <c r="J2427" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2428" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2428" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2428" s="1">
+        <v>120</v>
+      </c>
+      <c r="I2428">
+        <v>169</v>
+      </c>
+      <c r="J2428" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2429" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>697</v>
+      </c>
+      <c r="G2429" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2429" s="1">
+        <v>18.61</v>
+      </c>
+      <c r="I2429">
+        <v>172</v>
+      </c>
+      <c r="J2429" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2430" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>701</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>702</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>703</v>
+      </c>
+      <c r="G2430" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2430" s="1">
+        <v>34.12</v>
+      </c>
+      <c r="I2430">
+        <v>79</v>
+      </c>
+      <c r="J2430" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2431" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>706</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>707</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>709</v>
+      </c>
+      <c r="G2431" t="s">
+        <v>710</v>
+      </c>
+      <c r="H2431" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I2431">
+        <v>375</v>
+      </c>
+      <c r="J2431" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2432" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2432" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2432" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="I2432">
+        <v>89</v>
+      </c>
+      <c r="J2432" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2433" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H2433" s="1">
+        <v>65.82</v>
+      </c>
+      <c r="I2433">
+        <v>39</v>
+      </c>
+      <c r="J2433" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2434" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>724</v>
+      </c>
+      <c r="G2434" t="s">
+        <v>725</v>
+      </c>
+      <c r="H2434" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="I2434">
+        <v>108</v>
+      </c>
+      <c r="J2434" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2435" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>730</v>
+      </c>
+      <c r="G2435" t="s">
+        <v>731</v>
+      </c>
+      <c r="H2435" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="I2435">
+        <v>33</v>
+      </c>
+      <c r="J2435" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2436" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>901</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>736</v>
+      </c>
+      <c r="H2436" s="1">
+        <v>250</v>
+      </c>
+      <c r="I2436">
+        <v>121</v>
+      </c>
+      <c r="J2436" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2437" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>738</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>739</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>741</v>
+      </c>
+      <c r="G2437" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2437" s="1">
+        <v>101.89</v>
+      </c>
+      <c r="I2437">
+        <v>68</v>
+      </c>
+      <c r="J2437" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2438" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>746</v>
+      </c>
+      <c r="G2438" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2438" s="1">
+        <v>96</v>
+      </c>
+      <c r="I2438">
+        <v>628</v>
+      </c>
+      <c r="J2438" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2439" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>751</v>
+      </c>
+      <c r="H2439" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I2439">
+        <v>632</v>
+      </c>
+      <c r="J2439" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2440" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>754</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>756</v>
+      </c>
+      <c r="G2440" t="s">
+        <v>757</v>
+      </c>
+      <c r="H2440" s="1">
+        <v>199.76</v>
+      </c>
+      <c r="I2440">
+        <v>1961</v>
+      </c>
+      <c r="J2440" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2441" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>760</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2441" s="1">
+        <v>197.9</v>
+      </c>
+      <c r="I2441">
+        <v>307</v>
+      </c>
+      <c r="J2441" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2442" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>764</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>766</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>767</v>
+      </c>
+      <c r="G2442" t="s">
+        <v>768</v>
+      </c>
+      <c r="H2442" s="1">
+        <v>11.89</v>
+      </c>
+      <c r="I2442">
+        <v>36</v>
+      </c>
+      <c r="J2442" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2443" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>770</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2443" t="s">
+        <v>774</v>
+      </c>
+      <c r="H2443" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I2443">
+        <v>168</v>
+      </c>
+      <c r="J2443" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2444" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>776</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>779</v>
+      </c>
+      <c r="H2444" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="I2444">
+        <v>6145</v>
+      </c>
+      <c r="J2444" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2445" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>784</v>
+      </c>
+      <c r="H2445" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="I2445">
+        <v>30</v>
+      </c>
+      <c r="J2445" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2446" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2446" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="I2446">
+        <v>188</v>
+      </c>
+      <c r="J2446" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2447" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>794</v>
+      </c>
+      <c r="G2447" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2447" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="I2447">
+        <v>181</v>
+      </c>
+      <c r="J2447" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2448" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>797</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2448" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="I2448">
+        <v>3036</v>
+      </c>
+      <c r="J2448" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2449" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>803</v>
+      </c>
+      <c r="H2449" s="1">
+        <v>470.08</v>
+      </c>
+      <c r="I2449">
+        <v>14</v>
+      </c>
+      <c r="J2449" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/products_all.xlsx
+++ b/data/products_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18427" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19578" uniqueCount="1249">
   <si>
     <t>DATE</t>
   </si>
@@ -10487,6 +10487,673 @@
 $9.01
  This item is in stock and available today!
 Current Stock: 3036
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>07:16 PM PDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Anesthetic Gel - 20% Benzocaine - 0.75gram Packets - 144 Packets per Box - 1 Box/Each
+$21.57
+ This item is in stock and available today!
+Current Stock: 66
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A convenient, ready-to-use, intermediate-level disinfecting wipe available in two sizes to fit all your needs
+Towels stay fully saturated and will not dry out during use
+Effective against TB, HBV, and HIV. Towelette and CaviCide in one
+For use on nonporous surfaces
+Sturdy and durable, nonwoven towelette will not bunch up or tear during use
+160 Wipes per Canister
+$16.44
+ This item is in stock and available today!
+Current Stock: 185
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal as a first aid antiseptic and cleanser
+For use in hospitals, clinics, doctor's offices, by first responders and at home
+$2.76
+ This item is in stock and available today!
+Current Stock: 104
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Lancets
+Top Button Activated
+23g x 1.8mm 
+BLUE - for Normal Blood Flow
+100 Lancets per Box
+$19.87
+ This item is in stock and available today!
+Current Stock: 271
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28g x 1.88mm Safety Lancet
+Contact Activated
+Pink
+100 per Box
+1 Box Each
+$10.94
+ This item is in stock and available today!
+Current Stock: 371
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28mm Foil Child Resistant Cap
+Write On
+Push Down &amp; Turn Child Resistant Closure 
+Requires Sealing Machine
+Fits: 30 &amp; 45cc Bottles
+2800 per Case
+1 Case Each
+$262.80
+ This item is in stock and available today!
+Current Stock: 696
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy weight, imprinted envelopes
+Ample room for patient information
+3.5" x 2.25"
+1,000 per Box
+1 Box Each
+$33.48
+ This item is in stock and available today!
+Current Stock: 133
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukal Cohesive Bandage - 4" x 5 Yds
+Tan 
+Self Adherent
+Non-Sterile
+Latex Free
+Standard Compression
+1 Roll Each
+$5.19
+ This item is in stock and available today!
+Current Stock: 93
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+X-LARGE
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+180 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 232
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1" x 3"
+Highly Absorbent Non-stick Pad
+100% Ultrasonic Micro Perforations to Prevent Skin Maceration 
+Sterile 
+100 per Box
+1 Box Each
+$5.22
+ This item is in stock and available today!
+Current Stock: 112
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Syringe 27g x 1/2in - 1mL
+w/Safety Shield
+Low Dead Space
+100 per Box - 1 Box Each
+(Case Packed - 5 Boxes per Case)
+$49.93
+ This item is in stock and available today!
+Current Stock: 61
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silent Knight Pill Crusher Pouch Bags
+Curved Base Opening
+LDPE Material
+Pouch Size:   2 x 4 ½"
+Pouch Holds up to 50 Pills
+1,000 Pouches/Box
+1 Box Each
+$44.63
+ This item is in stock and available today!
+Current Stock: 135
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hCG Pregnancy Test Strip
+Results in 5 Minutes
+25 per Box
+CLIA Waived
+$37.50
+ This item is in stock and available today!
+Current Stock: 157
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Care Pro Glucose Meter Test Strips
+Professional Use
+50 Strips per Box 
+1 Box Each
+$9.58
+ This item is in stock and available today!
+Current Stock: 734
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla Flavored
+9g high-quality protein
+220 nutrient-rich calories with B-vitamins
+Contains vitamins C &amp; D, zinc, iron, and selenium, key nutrients for immune support
+8 Ounce Bottles
+No Artificial sweeteners, flavors &amp; colors
+24 Bottles per Case
+***  Brand may vary depending on availability *** 
+**  ALL Food Related Items are NON-RETURNABLE  **
+$56.44
+ This item is in stock and available today!
+Current Stock: 101
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Collection Tube Holders
+For 13 to 16mm Blood Collection Tubes
+Universal design for compatibility with blood collection needles and winged sets
+DEHP Free and Latex Free Materials
+Made of Polypropylene
+Transparent
+100 Holders per Pack
+1 Pack Each
+$11.86
+ This item is in stock and available today!
+Current Stock: 20
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fits 30cc &amp; 45cc Bottles
+White
+2800 per Case
+1 Case Each
+$249.16
+ This item is in stock and available today!
+Current Stock: 1379
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3" x ¾" Lightweight Flexible Fabric Bandage
+Tan
+Stat Strip Adhesive Bandage
+100/Box
+1 Box Each
+$6.00
+ This item is in stock and available today!
+Current Stock: 72
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Panel T-Cup Compact - 4oz Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions:¬†39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Over 99% accuracy
+Shelf Life: 24 months from date of manufacture
+Certificate:¬†Forensic Use Only
+Tests for the following drug panels:
+AMP
+BAR
+BUP
+BZO
+COC
+mAMP
+MDMA
+MOP
+MTD
+OXY
+PCP
+THC
+ETG
+FTY
+TRA
+K2
+25 per Box
+1 Box Each
+$203.00
+ This item is in stock and available today!
+Current Stock: 184
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's  BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 99
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>BKNF-105</t>
+  </si>
+  <si>
+    <t>BKNF-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 1025
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>BKNF-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powder Free
+Latex Free
+3 mil Thickness
+Textured Fingertips
+Tested Against 33 Chemotherapy Drugs, Fentanyl &amp; Gastric Acid
+Meets USP 800 Requirements for PPE Compliance
+Safe for Food Contact Applications
+Meets FDA 21 CFR Part 177 Requirements
+Safe for Use with Sensitive Electronics
+Dark Color Conceals Color Transfer &amp; Stains to Maintain a Cleaner and more Professional Appearance
+For Maximum Protection, Manufacturer Recommendes Changing Nitrile Gloves every 20-30 Minutes
+100 per Box 
+1 Box Each
+To Order a Case, Please Order 10 Boxes.
+~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~
+**Sempermed SUNB Black Nitrile Exam Gloves are being manufacturer discontinued in June 2025. 
+Our inventory will shift to Sempermed's SemperForce BKNF product line as our on hand inventory is depleted.  
+Please Note:   SemperForce BKNF Glove is not
+accelerator free.**
+$14.55
+ This item is in stock and available today!
+Current Stock: 296
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t>BKNF-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain 6mL Blood Collection Tube
+Z No Additives
+WHITE Cap with BLACK Ring
+13 x 100mm
+PET Clear Plastic Tube
+Sterile
+50 Tubes per Pack
+1 Pack Each
+$13.82
+ This item is in stock and available today!
+Current Stock: 1150
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isopropyl Alcohol 70%
+ Sterile Alcohol Prep Pad
+Dimensions: 1 X 1 1/4 Inch
+Individual Packets
+NonWoven Gauze
+ 2 - Ply
+Scent: Alcohol Scent
+Sterility: Sterile
+Size: Medium
+200 Pads per Box
+(PACKED:  ​​​​​​20 Boxes/Case)
+Brand may vary based on availability. Includes brands such as Webcol, Dukal, or similar. 
+$4.15
+ This item is in stock and available today!
+Current Stock: 963
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturated with 70% isopropyl alcohol
+2-Ply Non-Woven Pads
+1.75" x 3.3"
+100 per Box
+1 Box Each
+$4.79
+ This item is in stock and available today!
+Current Stock: 280
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4in x 4in Gauze Sponge 4 Ply
+Nonwoven
+Highly Absorbent
+Non-Linting
+WHITE
+NonSterile
+Multi-purpose for general cleaning/prepping and ointments
+200 per Pack - 1 Pack Each
+$6.41
+ This item is in stock and available today!
+Current Stock: 268
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMCO Blue Nitrile Medical Exam Gloves
+Fentanyl and Chemo Rated for Protection
+SMALL
+Powder Free
+Non-Sterile
+3.5 mil Thickness
+200 per box
+1 Box Each
+$18.75
+ This item is in stock and available today!
+Current Stock: 864
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Sani-Cloth Surface Disinfectant Cleaner Wipe
+6" x 6.75"
+Premoistened Germicidal Wipe
+Quaternary Ammonium / Isopropyl Alcohol
+Alcohol Scent
+160 Wipes per Canister
+1 Canister Each
+$9.98
+ This item is in stock and available today!
+Current Stock: 575
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vacutainer SST Blood Collection Tube was designed to make serum sample preparation more efficient and improve laboratory workflow.
+$80.00
+ This item is in stock and available today!
+Current Stock: 76
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application: Clear Plastic Cup
+Brand: GMAX
+Color: Translucent
+Volume: 3oz
+Flexible Design with Rounded Edges
+Latex Free
+2,500/Case
+$76.00
+ This item is in stock and available today!
+Current Stock: 463
+Quantity
+ADD TO CART
+ADD TO WISHLIST
+ Pinit SharePost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Panel 4oz Compact Cup
+Sample Type: Urine
+Format: T-Cup Compact with temperature strip
+Volume: 120mL
+Time to Results: 5 minutes
+Kit Storage Conditions: 39¬∞F to 86¬∞F (4¬∞C to 30¬∞C)
+Analytical Sensitivity: Over 99% accuracy
+Shelf Life: 24 months from date of manu